--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -39,9 +39,6 @@
     <t>Ricardo Vega</t>
   </si>
   <si>
-    <t>Elena</t>
-  </si>
-  <si>
     <t>Hora en que inicia la clase</t>
   </si>
   <si>
@@ -319,6 +316,15 @@
   </si>
   <si>
     <t>Instalación de librerias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> elenapoblete@ecas-otec.cl</t>
+  </si>
+  <si>
+    <t>Elena Poblete</t>
+  </si>
+  <si>
+    <t>Ayudante:</t>
   </si>
 </sst>
 </file>
@@ -479,6 +485,7 @@
       <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="28">
@@ -995,7 +1002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1145,269 +1152,278 @@
     <xf numFmtId="0" fontId="13" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1697,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I114" sqref="I114"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G267" sqref="G267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1720,175 +1736,179 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="96" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="102"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="104"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="102"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="104"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="102"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="104"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="102"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="104"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="102"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="104"/>
     </row>
     <row r="7" spans="1:11" ht="18">
       <c r="A7" s="2"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="103"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="105"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="104" t="s">
+      <c r="C8" s="107"/>
+      <c r="D8" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="108" t="s">
+      <c r="E8" s="107"/>
+      <c r="F8" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="109"/>
-      <c r="H8" s="112" t="s">
+      <c r="G8" s="111"/>
+      <c r="H8" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="109"/>
-      <c r="J8" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="109"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="111"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="113"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="109"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="109"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="157"/>
+      <c r="H10" s="114" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="111"/>
+      <c r="J10" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="113"/>
     </row>
     <row r="12" spans="1:11" ht="2.25" hidden="1" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="96"/>
+      <c r="D12" s="156">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="96"/>
+      <c r="F12" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="56">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="54"/>
+      <c r="G12" s="96"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
@@ -1896,71 +1916,71 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="117"/>
+      <c r="B13" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="120"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5"/>
-      <c r="B15" s="134">
+      <c r="B15" s="93">
         <v>45978</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="132">
+      <c r="C15" s="94"/>
+      <c r="D15" s="91">
         <f>B15+1</f>
         <v>45979</v>
       </c>
-      <c r="E15" s="133"/>
-      <c r="F15" s="130">
+      <c r="E15" s="92"/>
+      <c r="F15" s="89">
         <f>D15+1</f>
         <v>45980</v>
       </c>
-      <c r="G15" s="131"/>
-      <c r="H15" s="128">
+      <c r="G15" s="90"/>
+      <c r="H15" s="87">
         <f>F15+1</f>
         <v>45981</v>
       </c>
-      <c r="I15" s="129"/>
-      <c r="J15" s="126">
+      <c r="I15" s="88"/>
+      <c r="J15" s="85">
         <f>H15+1</f>
         <v>45982</v>
       </c>
-      <c r="K15" s="127"/>
+      <c r="K15" s="86"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="121"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="76"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6"/>
@@ -2070,16 +2090,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="27"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="87"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2"/>
@@ -2096,72 +2116,72 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="144"/>
+      <c r="B26" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="129"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="147"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="132"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5"/>
-      <c r="B28" s="89">
+      <c r="B28" s="117">
         <f>J15+3</f>
         <v>45985</v>
       </c>
-      <c r="C28" s="142"/>
-      <c r="D28" s="90">
+      <c r="C28" s="118"/>
+      <c r="D28" s="119">
         <f>B28+1</f>
         <v>45986</v>
       </c>
-      <c r="E28" s="141"/>
-      <c r="F28" s="91">
+      <c r="E28" s="120"/>
+      <c r="F28" s="121">
         <f>D28+1</f>
         <v>45987</v>
       </c>
-      <c r="G28" s="140"/>
-      <c r="H28" s="92">
+      <c r="G28" s="122"/>
+      <c r="H28" s="123">
         <f>F28+1</f>
         <v>45988</v>
       </c>
-      <c r="I28" s="139"/>
-      <c r="J28" s="93">
+      <c r="I28" s="124"/>
+      <c r="J28" s="125">
         <f>H28+1</f>
         <v>45989</v>
       </c>
-      <c r="K28" s="138"/>
+      <c r="K28" s="126"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="137"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="134"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="6"/>
@@ -2271,16 +2291,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="27"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="87"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="74"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2"/>
@@ -2297,74 +2317,74 @@
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="117"/>
+      <c r="B39" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="62"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="120"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="65"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2"/>
-      <c r="B41" s="134">
+      <c r="B41" s="93">
         <f>J28+3</f>
         <v>45992</v>
       </c>
-      <c r="C41" s="135"/>
-      <c r="D41" s="132">
+      <c r="C41" s="94"/>
+      <c r="D41" s="91">
         <f>B41+1</f>
         <v>45993</v>
       </c>
-      <c r="E41" s="133"/>
-      <c r="F41" s="130">
+      <c r="E41" s="92"/>
+      <c r="F41" s="89">
         <f>D41+1</f>
         <v>45994</v>
       </c>
-      <c r="G41" s="131"/>
-      <c r="H41" s="128">
+      <c r="G41" s="90"/>
+      <c r="H41" s="87">
         <f>F41+1</f>
         <v>45995</v>
       </c>
-      <c r="I41" s="129"/>
-      <c r="J41" s="126">
+      <c r="I41" s="88"/>
+      <c r="J41" s="85">
         <f>H41+1</f>
         <v>45996</v>
       </c>
-      <c r="K41" s="127"/>
+      <c r="K41" s="86"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="83" t="s">
-        <v>17</v>
+      <c r="B42" s="83"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="135" t="s">
+        <v>16</v>
       </c>
       <c r="G42" s="136"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="121"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="76"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2"/>
@@ -2383,21 +2403,21 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H43" s="41">
         <f>D12</f>
         <v>0.79166666666666663</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J43" s="44">
         <f>D12</f>
         <v>0.79166666666666663</v>
       </c>
       <c r="K43" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2410,11 +2430,11 @@
       <c r="G44" s="18"/>
       <c r="H44" s="17"/>
       <c r="I44" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J44" s="20"/>
       <c r="K44" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2427,11 +2447,11 @@
       <c r="G45" s="24"/>
       <c r="H45" s="42"/>
       <c r="I45" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2444,11 +2464,11 @@
       <c r="G46" s="18"/>
       <c r="H46" s="17"/>
       <c r="I46" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J46" s="20"/>
       <c r="K46" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2459,11 +2479,11 @@
       <c r="E47" s="47"/>
       <c r="F47" s="32"/>
       <c r="G47" s="51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47" s="33"/>
       <c r="I47" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J47" s="34"/>
       <c r="K47" s="26"/>
@@ -2478,7 +2498,7 @@
       <c r="G48" s="18"/>
       <c r="H48" s="36"/>
       <c r="I48" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J48" s="37"/>
       <c r="K48" s="28"/>
@@ -2493,25 +2513,25 @@
       <c r="G49" s="24"/>
       <c r="H49" s="33"/>
       <c r="I49" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J49" s="34"/>
       <c r="K49" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="87"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="74"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2"/>
@@ -2527,110 +2547,110 @@
       <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1">
-      <c r="B52" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="116"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="117"/>
+      <c r="B52" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="62"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="B53" s="118"/>
-      <c r="C53" s="119"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="119"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="120"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="65"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="B54" s="134">
+      <c r="B54" s="93">
         <f>J41+3</f>
         <v>45999</v>
       </c>
-      <c r="C54" s="135"/>
-      <c r="D54" s="132">
+      <c r="C54" s="94"/>
+      <c r="D54" s="91">
         <f>B54+1</f>
         <v>46000</v>
       </c>
-      <c r="E54" s="133"/>
-      <c r="F54" s="130">
+      <c r="E54" s="92"/>
+      <c r="F54" s="89">
         <f>D54+1</f>
         <v>46001</v>
       </c>
-      <c r="G54" s="131"/>
-      <c r="H54" s="128">
+      <c r="G54" s="90"/>
+      <c r="H54" s="87">
         <f>F54+1</f>
         <v>46002</v>
       </c>
-      <c r="I54" s="129"/>
-      <c r="J54" s="126">
+      <c r="I54" s="88"/>
+      <c r="J54" s="85">
         <f>H54+1</f>
         <v>46003</v>
       </c>
-      <c r="K54" s="127"/>
+      <c r="K54" s="86"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="B55" s="57"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="123"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="121"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="76"/>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1">
-      <c r="B56" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="78"/>
+      <c r="B56" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="67"/>
       <c r="D56" s="40">
         <f>D12</f>
         <v>0.79166666666666663</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F56" s="10">
         <f>D12</f>
         <v>0.79166666666666663</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H56" s="41">
         <f>D12</f>
         <v>0.79166666666666663</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J56" s="44">
         <f>D12</f>
         <v>0.79166666666666663</v>
       </c>
       <c r="K56" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1">
-      <c r="B57" s="79"/>
-      <c r="C57" s="80"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="69"/>
       <c r="D57" s="17"/>
       <c r="E57" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
@@ -2638,15 +2658,15 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
       <c r="K57" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1">
-      <c r="B58" s="79"/>
-      <c r="C58" s="80"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="69"/>
       <c r="D58" s="22"/>
       <c r="E58" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F58" s="23"/>
       <c r="G58" s="24"/>
@@ -2654,15 +2674,15 @@
       <c r="I58" s="25"/>
       <c r="J58" s="13"/>
       <c r="K58" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1">
-      <c r="B59" s="79"/>
-      <c r="C59" s="80"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="69"/>
       <c r="D59" s="17"/>
       <c r="E59" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="18"/>
@@ -2670,12 +2690,12 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
       <c r="K59" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1">
-      <c r="B60" s="79"/>
-      <c r="C60" s="80"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="69"/>
       <c r="D60" s="31"/>
       <c r="E60" s="47"/>
       <c r="F60" s="32"/>
@@ -2686,24 +2706,24 @@
       <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1">
-      <c r="B61" s="79"/>
-      <c r="C61" s="80"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="36"/>
       <c r="E61" s="46"/>
       <c r="F61" s="36"/>
       <c r="G61" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H61" s="36"/>
       <c r="I61" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J61" s="37"/>
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1">
-      <c r="B62" s="81"/>
-      <c r="C62" s="82"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="71"/>
       <c r="D62" s="31"/>
       <c r="E62" s="47"/>
       <c r="F62" s="32"/>
@@ -2714,81 +2734,81 @@
       <c r="K62" s="48"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="B63" s="85"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="86"/>
-      <c r="I63" s="86"/>
-      <c r="J63" s="86"/>
-      <c r="K63" s="87"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="74"/>
     </row>
     <row r="65" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B65" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="116"/>
-      <c r="J65" s="116"/>
-      <c r="K65" s="117"/>
+      <c r="B65" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="62"/>
     </row>
     <row r="66" spans="2:11" customFormat="1">
-      <c r="B66" s="118"/>
-      <c r="C66" s="119"/>
-      <c r="D66" s="119"/>
-      <c r="E66" s="119"/>
-      <c r="F66" s="119"/>
-      <c r="G66" s="119"/>
-      <c r="H66" s="119"/>
-      <c r="I66" s="119"/>
-      <c r="J66" s="119"/>
-      <c r="K66" s="120"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="65"/>
     </row>
     <row r="67" spans="2:11" customFormat="1">
-      <c r="B67" s="134">
+      <c r="B67" s="93">
         <f>J54+3</f>
         <v>46006</v>
       </c>
-      <c r="C67" s="135"/>
-      <c r="D67" s="132">
+      <c r="C67" s="94"/>
+      <c r="D67" s="91">
         <f>B67+1</f>
         <v>46007</v>
       </c>
-      <c r="E67" s="133"/>
-      <c r="F67" s="130">
+      <c r="E67" s="92"/>
+      <c r="F67" s="89">
         <f>D67+1</f>
         <v>46008</v>
       </c>
-      <c r="G67" s="131"/>
-      <c r="H67" s="128">
+      <c r="G67" s="90"/>
+      <c r="H67" s="87">
         <f>F67+1</f>
         <v>46009</v>
       </c>
-      <c r="I67" s="129"/>
-      <c r="J67" s="126">
+      <c r="I67" s="88"/>
+      <c r="J67" s="85">
         <f>H67+1</f>
         <v>46010</v>
       </c>
-      <c r="K67" s="127"/>
+      <c r="K67" s="86"/>
     </row>
     <row r="68" spans="2:11" customFormat="1">
-      <c r="B68" s="57"/>
-      <c r="C68" s="125"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="124"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="123"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="122"/>
-      <c r="J68" s="62"/>
-      <c r="K68" s="121"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="76"/>
     </row>
     <row r="69" spans="2:11" customFormat="1">
       <c r="B69" s="39">
@@ -2890,81 +2910,81 @@
       <c r="K75" s="48"/>
     </row>
     <row r="76" spans="2:11" customFormat="1">
-      <c r="B76" s="85"/>
-      <c r="C76" s="86"/>
-      <c r="D76" s="86"/>
-      <c r="E76" s="86"/>
-      <c r="F76" s="86"/>
-      <c r="G76" s="86"/>
-      <c r="H76" s="86"/>
-      <c r="I76" s="86"/>
-      <c r="J76" s="86"/>
-      <c r="K76" s="87"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="73"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="73"/>
+      <c r="K76" s="74"/>
     </row>
     <row r="78" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B78" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" s="116"/>
-      <c r="D78" s="116"/>
-      <c r="E78" s="116"/>
-      <c r="F78" s="116"/>
-      <c r="G78" s="116"/>
-      <c r="H78" s="116"/>
-      <c r="I78" s="116"/>
-      <c r="J78" s="116"/>
-      <c r="K78" s="117"/>
+      <c r="B78" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="62"/>
     </row>
     <row r="79" spans="2:11" customFormat="1">
-      <c r="B79" s="118"/>
-      <c r="C79" s="119"/>
-      <c r="D79" s="119"/>
-      <c r="E79" s="119"/>
-      <c r="F79" s="119"/>
-      <c r="G79" s="119"/>
-      <c r="H79" s="119"/>
-      <c r="I79" s="119"/>
-      <c r="J79" s="119"/>
-      <c r="K79" s="120"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="65"/>
     </row>
     <row r="80" spans="2:11" customFormat="1">
-      <c r="B80" s="134">
+      <c r="B80" s="93">
         <f>J67+3</f>
         <v>46013</v>
       </c>
-      <c r="C80" s="135"/>
-      <c r="D80" s="132">
+      <c r="C80" s="94"/>
+      <c r="D80" s="91">
         <f>B80+1</f>
         <v>46014</v>
       </c>
-      <c r="E80" s="133"/>
-      <c r="F80" s="130">
+      <c r="E80" s="92"/>
+      <c r="F80" s="89">
         <f>D80+1</f>
         <v>46015</v>
       </c>
-      <c r="G80" s="131"/>
-      <c r="H80" s="128">
+      <c r="G80" s="90"/>
+      <c r="H80" s="87">
         <f>F80+1</f>
         <v>46016</v>
       </c>
-      <c r="I80" s="129"/>
-      <c r="J80" s="126">
+      <c r="I80" s="88"/>
+      <c r="J80" s="85">
         <f>H80+1</f>
         <v>46017</v>
       </c>
-      <c r="K80" s="127"/>
+      <c r="K80" s="86"/>
     </row>
     <row r="81" spans="2:11" customFormat="1">
-      <c r="B81" s="57"/>
-      <c r="C81" s="125"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="124"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="123"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="122"/>
-      <c r="J81" s="62"/>
-      <c r="K81" s="121"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="78"/>
+      <c r="J81" s="75"/>
+      <c r="K81" s="76"/>
     </row>
     <row r="82" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B82" s="39">
@@ -2977,167 +2997,167 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E82" s="43"/>
-      <c r="F82" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="78"/>
-      <c r="H82" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="78"/>
-      <c r="J82" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="K82" s="78"/>
+      <c r="F82" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="67"/>
+      <c r="H82" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82" s="67"/>
+      <c r="J82" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" s="67"/>
     </row>
     <row r="83" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
       <c r="D83" s="17"/>
       <c r="E83" s="46"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="80"/>
-      <c r="H83" s="79"/>
-      <c r="I83" s="80"/>
-      <c r="J83" s="79"/>
-      <c r="K83" s="80"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="69"/>
     </row>
     <row r="84" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B84" s="7"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
       <c r="E84" s="47"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="80"/>
-      <c r="H84" s="79"/>
-      <c r="I84" s="80"/>
-      <c r="J84" s="79"/>
-      <c r="K84" s="80"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="69"/>
     </row>
     <row r="85" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="17"/>
       <c r="E85" s="46"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="80"/>
-      <c r="H85" s="79"/>
-      <c r="I85" s="80"/>
-      <c r="J85" s="79"/>
-      <c r="K85" s="80"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="69"/>
     </row>
     <row r="86" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B86" s="30"/>
       <c r="C86" s="21"/>
       <c r="D86" s="31"/>
       <c r="E86" s="47"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="80"/>
-      <c r="H86" s="79"/>
-      <c r="I86" s="80"/>
-      <c r="J86" s="79"/>
-      <c r="K86" s="80"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="69"/>
+      <c r="J86" s="68"/>
+      <c r="K86" s="69"/>
     </row>
     <row r="87" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B87" s="35"/>
       <c r="C87" s="15"/>
       <c r="D87" s="36"/>
       <c r="E87" s="46"/>
-      <c r="F87" s="79"/>
-      <c r="G87" s="80"/>
-      <c r="H87" s="79"/>
-      <c r="I87" s="80"/>
-      <c r="J87" s="79"/>
-      <c r="K87" s="80"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="68"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="69"/>
     </row>
     <row r="88" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B88" s="30"/>
       <c r="C88" s="21"/>
       <c r="D88" s="31"/>
       <c r="E88" s="47"/>
-      <c r="F88" s="81"/>
-      <c r="G88" s="82"/>
-      <c r="H88" s="81"/>
-      <c r="I88" s="82"/>
-      <c r="J88" s="81"/>
-      <c r="K88" s="82"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="70"/>
+      <c r="I88" s="71"/>
+      <c r="J88" s="70"/>
+      <c r="K88" s="71"/>
     </row>
     <row r="89" spans="2:11" customFormat="1">
-      <c r="B89" s="85"/>
-      <c r="C89" s="86"/>
-      <c r="D89" s="86"/>
-      <c r="E89" s="86"/>
-      <c r="F89" s="86"/>
-      <c r="G89" s="86"/>
-      <c r="H89" s="86"/>
-      <c r="I89" s="86"/>
-      <c r="J89" s="86"/>
-      <c r="K89" s="87"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="73"/>
+      <c r="K89" s="74"/>
     </row>
     <row r="91" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B91" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="C91" s="116"/>
-      <c r="D91" s="116"/>
-      <c r="E91" s="116"/>
-      <c r="F91" s="116"/>
-      <c r="G91" s="116"/>
-      <c r="H91" s="116"/>
-      <c r="I91" s="116"/>
-      <c r="J91" s="116"/>
-      <c r="K91" s="117"/>
+      <c r="B91" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91" s="61"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="61"/>
+      <c r="K91" s="62"/>
     </row>
     <row r="92" spans="2:11" customFormat="1">
-      <c r="B92" s="118"/>
-      <c r="C92" s="119"/>
-      <c r="D92" s="119"/>
-      <c r="E92" s="119"/>
-      <c r="F92" s="119"/>
-      <c r="G92" s="119"/>
-      <c r="H92" s="119"/>
-      <c r="I92" s="119"/>
-      <c r="J92" s="119"/>
-      <c r="K92" s="120"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="64"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="65"/>
     </row>
     <row r="93" spans="2:11" customFormat="1">
-      <c r="B93" s="134">
+      <c r="B93" s="93">
         <f>J80+3</f>
         <v>46020</v>
       </c>
-      <c r="C93" s="135"/>
-      <c r="D93" s="132">
+      <c r="C93" s="94"/>
+      <c r="D93" s="91">
         <f>B93+1</f>
         <v>46021</v>
       </c>
-      <c r="E93" s="133"/>
-      <c r="F93" s="130">
+      <c r="E93" s="92"/>
+      <c r="F93" s="89">
         <f>D93+1</f>
         <v>46022</v>
       </c>
-      <c r="G93" s="131"/>
-      <c r="H93" s="128">
+      <c r="G93" s="90"/>
+      <c r="H93" s="87">
         <f>F93+1</f>
         <v>46023</v>
       </c>
-      <c r="I93" s="129"/>
-      <c r="J93" s="126">
+      <c r="I93" s="88"/>
+      <c r="J93" s="85">
         <f>H93+1</f>
         <v>46024</v>
       </c>
-      <c r="K93" s="127"/>
+      <c r="K93" s="86"/>
     </row>
     <row r="94" spans="2:11" customFormat="1">
-      <c r="B94" s="57"/>
-      <c r="C94" s="125"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="124"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="123"/>
-      <c r="H94" s="61"/>
-      <c r="I94" s="122"/>
-      <c r="J94" s="62"/>
-      <c r="K94" s="121"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="81"/>
+      <c r="E94" s="82"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="80"/>
+      <c r="H94" s="77"/>
+      <c r="I94" s="78"/>
+      <c r="J94" s="75"/>
+      <c r="K94" s="76"/>
     </row>
     <row r="95" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B95" s="39">
@@ -3150,173 +3170,173 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E95" s="43"/>
-      <c r="F95" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="78"/>
-      <c r="H95" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="I95" s="78"/>
-      <c r="J95" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="K95" s="78"/>
+      <c r="F95" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="67"/>
+      <c r="H95" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95" s="67"/>
+      <c r="J95" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="67"/>
     </row>
     <row r="96" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="17"/>
       <c r="E96" s="46"/>
-      <c r="F96" s="79"/>
-      <c r="G96" s="80"/>
-      <c r="H96" s="79"/>
-      <c r="I96" s="80"/>
-      <c r="J96" s="79"/>
-      <c r="K96" s="80"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="69"/>
+      <c r="H96" s="68"/>
+      <c r="I96" s="69"/>
+      <c r="J96" s="68"/>
+      <c r="K96" s="69"/>
     </row>
     <row r="97" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B97" s="7"/>
       <c r="C97" s="21"/>
       <c r="D97" s="22"/>
       <c r="E97" s="47"/>
-      <c r="F97" s="79"/>
-      <c r="G97" s="80"/>
-      <c r="H97" s="79"/>
-      <c r="I97" s="80"/>
-      <c r="J97" s="79"/>
-      <c r="K97" s="80"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="68"/>
+      <c r="I97" s="69"/>
+      <c r="J97" s="68"/>
+      <c r="K97" s="69"/>
     </row>
     <row r="98" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="17"/>
       <c r="E98" s="46"/>
-      <c r="F98" s="79"/>
-      <c r="G98" s="80"/>
-      <c r="H98" s="79"/>
-      <c r="I98" s="80"/>
-      <c r="J98" s="79"/>
-      <c r="K98" s="80"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="68"/>
+      <c r="K98" s="69"/>
     </row>
     <row r="99" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B99" s="30"/>
       <c r="C99" s="21"/>
       <c r="D99" s="31"/>
       <c r="E99" s="47"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="80"/>
-      <c r="H99" s="79"/>
-      <c r="I99" s="80"/>
-      <c r="J99" s="79"/>
-      <c r="K99" s="80"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="68"/>
+      <c r="K99" s="69"/>
     </row>
     <row r="100" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B100" s="35"/>
       <c r="C100" s="15"/>
       <c r="D100" s="36"/>
       <c r="E100" s="46"/>
-      <c r="F100" s="79"/>
-      <c r="G100" s="80"/>
-      <c r="H100" s="79"/>
-      <c r="I100" s="80"/>
-      <c r="J100" s="79"/>
-      <c r="K100" s="80"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="68"/>
+      <c r="I100" s="69"/>
+      <c r="J100" s="68"/>
+      <c r="K100" s="69"/>
     </row>
     <row r="101" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B101" s="30"/>
       <c r="C101" s="21"/>
       <c r="D101" s="31"/>
       <c r="E101" s="47"/>
-      <c r="F101" s="81"/>
-      <c r="G101" s="82"/>
-      <c r="H101" s="81"/>
-      <c r="I101" s="82"/>
-      <c r="J101" s="81"/>
-      <c r="K101" s="82"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="70"/>
+      <c r="K101" s="71"/>
     </row>
     <row r="102" spans="2:11" customFormat="1">
-      <c r="B102" s="85"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="86"/>
-      <c r="E102" s="86"/>
-      <c r="F102" s="86"/>
-      <c r="G102" s="86"/>
-      <c r="H102" s="86"/>
-      <c r="I102" s="86"/>
-      <c r="J102" s="86"/>
-      <c r="K102" s="87"/>
+      <c r="B102" s="72"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="73"/>
+      <c r="H102" s="73"/>
+      <c r="I102" s="73"/>
+      <c r="J102" s="73"/>
+      <c r="K102" s="74"/>
     </row>
     <row r="104" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B104" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C104" s="116"/>
-      <c r="D104" s="116"/>
-      <c r="E104" s="116"/>
-      <c r="F104" s="116"/>
-      <c r="G104" s="116"/>
-      <c r="H104" s="116"/>
-      <c r="I104" s="116"/>
-      <c r="J104" s="116"/>
-      <c r="K104" s="117"/>
+      <c r="B104" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="61"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="61"/>
+      <c r="K104" s="62"/>
     </row>
     <row r="105" spans="2:11" customFormat="1">
-      <c r="B105" s="118"/>
-      <c r="C105" s="119"/>
-      <c r="D105" s="119"/>
-      <c r="E105" s="119"/>
-      <c r="F105" s="119"/>
-      <c r="G105" s="119"/>
-      <c r="H105" s="119"/>
-      <c r="I105" s="119"/>
-      <c r="J105" s="119"/>
-      <c r="K105" s="120"/>
+      <c r="B105" s="63"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="64"/>
+      <c r="J105" s="64"/>
+      <c r="K105" s="65"/>
     </row>
     <row r="106" spans="2:11" customFormat="1">
-      <c r="B106" s="71">
+      <c r="B106" s="137">
         <f>J93+3</f>
         <v>46027</v>
       </c>
-      <c r="C106" s="72"/>
-      <c r="D106" s="73">
+      <c r="C106" s="138"/>
+      <c r="D106" s="139">
         <f>B106+1</f>
         <v>46028</v>
       </c>
-      <c r="E106" s="72"/>
-      <c r="F106" s="74">
+      <c r="E106" s="138"/>
+      <c r="F106" s="140">
         <f>D106+1</f>
         <v>46029</v>
       </c>
-      <c r="G106" s="72"/>
-      <c r="H106" s="75">
+      <c r="G106" s="138"/>
+      <c r="H106" s="141">
         <f>F106+1</f>
         <v>46030</v>
       </c>
-      <c r="I106" s="72"/>
-      <c r="J106" s="76">
+      <c r="I106" s="138"/>
+      <c r="J106" s="142">
         <f>H106+1</f>
         <v>46031</v>
       </c>
-      <c r="K106" s="72"/>
+      <c r="K106" s="138"/>
     </row>
     <row r="107" spans="2:11" customFormat="1">
-      <c r="B107" s="150" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107" s="84"/>
-      <c r="D107" s="151" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="84"/>
-      <c r="F107" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" s="84"/>
-      <c r="H107" s="61"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="62"/>
-      <c r="K107" s="58"/>
+      <c r="B107" s="148" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="149"/>
+      <c r="D107" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" s="149"/>
+      <c r="F107" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="149"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="151"/>
+      <c r="J107" s="75"/>
+      <c r="K107" s="151"/>
     </row>
     <row r="108" spans="2:11" customFormat="1">
       <c r="B108" s="39">
@@ -3324,79 +3344,79 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D108" s="40">
         <f>D12</f>
         <v>0.79166666666666663</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F108" s="10">
         <f>D12</f>
         <v>0.79166666666666663</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H108" s="41">
         <f>D12</f>
         <v>0.79166666666666663</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J108" s="44">
         <f>D12</f>
         <v>0.79166666666666663</v>
       </c>
       <c r="K108" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="2:11" customFormat="1" ht="26.25">
       <c r="B109" s="14"/>
       <c r="C109" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F109" s="17"/>
       <c r="G109" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H109" s="17"/>
       <c r="I109" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J109" s="20"/>
       <c r="K109" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="2:11" customFormat="1">
       <c r="B110" s="7"/>
       <c r="C110" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D110" s="22"/>
       <c r="E110" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F110" s="23"/>
       <c r="G110" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H110" s="42"/>
       <c r="I110" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J110" s="13"/>
       <c r="K110" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="2:11" customFormat="1">
@@ -3404,17 +3424,17 @@
       <c r="C111" s="15"/>
       <c r="D111" s="17"/>
       <c r="E111" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F111" s="17"/>
       <c r="G111" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H111" s="17"/>
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
       <c r="K111" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="2:11" customFormat="1" ht="39">
@@ -3422,7 +3442,7 @@
       <c r="C112" s="21"/>
       <c r="D112" s="31"/>
       <c r="E112" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="24"/>
@@ -3430,7 +3450,7 @@
       <c r="I112" s="25"/>
       <c r="J112" s="34"/>
       <c r="K112" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -3439,7 +3459,7 @@
       <c r="C113" s="15"/>
       <c r="D113" s="36"/>
       <c r="E113" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F113" s="36"/>
       <c r="G113" s="18"/>
@@ -3454,7 +3474,7 @@
       <c r="C114" s="15"/>
       <c r="D114" s="36"/>
       <c r="E114" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F114" s="36"/>
       <c r="G114" s="18"/>
@@ -3469,7 +3489,7 @@
       <c r="C115" s="15"/>
       <c r="D115" s="36"/>
       <c r="E115" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F115" s="36"/>
       <c r="G115" s="18"/>
@@ -3484,7 +3504,7 @@
       <c r="C116" s="15"/>
       <c r="D116" s="36"/>
       <c r="E116" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F116" s="36"/>
       <c r="G116" s="18"/>
@@ -3499,7 +3519,7 @@
       <c r="C117" s="21"/>
       <c r="D117" s="31"/>
       <c r="E117" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F117" s="32"/>
       <c r="G117" s="24"/>
@@ -3510,85 +3530,85 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118"/>
-      <c r="B118" s="63"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="64"/>
-      <c r="H118" s="64"/>
-      <c r="I118" s="64"/>
-      <c r="J118" s="64"/>
-      <c r="K118" s="58"/>
+      <c r="B118" s="152"/>
+      <c r="C118" s="153"/>
+      <c r="D118" s="153"/>
+      <c r="E118" s="153"/>
+      <c r="F118" s="153"/>
+      <c r="G118" s="153"/>
+      <c r="H118" s="153"/>
+      <c r="I118" s="153"/>
+      <c r="J118" s="153"/>
+      <c r="K118" s="151"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120"/>
-      <c r="B120" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C120" s="66"/>
-      <c r="D120" s="66"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="66"/>
-      <c r="G120" s="66"/>
-      <c r="H120" s="66"/>
-      <c r="I120" s="66"/>
-      <c r="J120" s="66"/>
-      <c r="K120" s="67"/>
+      <c r="B120" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C120" s="143"/>
+      <c r="D120" s="143"/>
+      <c r="E120" s="143"/>
+      <c r="F120" s="143"/>
+      <c r="G120" s="143"/>
+      <c r="H120" s="143"/>
+      <c r="I120" s="143"/>
+      <c r="J120" s="143"/>
+      <c r="K120" s="144"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121"/>
-      <c r="B121" s="68"/>
-      <c r="C121" s="69"/>
-      <c r="D121" s="69"/>
-      <c r="E121" s="69"/>
-      <c r="F121" s="69"/>
-      <c r="G121" s="69"/>
-      <c r="H121" s="69"/>
-      <c r="I121" s="69"/>
-      <c r="J121" s="69"/>
-      <c r="K121" s="70"/>
+      <c r="B121" s="145"/>
+      <c r="C121" s="146"/>
+      <c r="D121" s="146"/>
+      <c r="E121" s="146"/>
+      <c r="F121" s="146"/>
+      <c r="G121" s="146"/>
+      <c r="H121" s="146"/>
+      <c r="I121" s="146"/>
+      <c r="J121" s="146"/>
+      <c r="K121" s="147"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122"/>
-      <c r="B122" s="71">
+      <c r="B122" s="137">
         <f>J106+3</f>
         <v>46034</v>
       </c>
-      <c r="C122" s="72"/>
-      <c r="D122" s="73">
+      <c r="C122" s="138"/>
+      <c r="D122" s="139">
         <f>B122+1</f>
         <v>46035</v>
       </c>
-      <c r="E122" s="72"/>
-      <c r="F122" s="74">
+      <c r="E122" s="138"/>
+      <c r="F122" s="140">
         <f>D122+1</f>
         <v>46036</v>
       </c>
-      <c r="G122" s="72"/>
-      <c r="H122" s="75">
+      <c r="G122" s="138"/>
+      <c r="H122" s="141">
         <f>F122+1</f>
         <v>46037</v>
       </c>
-      <c r="I122" s="72"/>
-      <c r="J122" s="76">
+      <c r="I122" s="138"/>
+      <c r="J122" s="142">
         <f>H122+1</f>
         <v>46038</v>
       </c>
-      <c r="K122" s="72"/>
+      <c r="K122" s="138"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123"/>
-      <c r="B123" s="57"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="59"/>
-      <c r="E123" s="58"/>
-      <c r="F123" s="60"/>
-      <c r="G123" s="58"/>
-      <c r="H123" s="61"/>
-      <c r="I123" s="58"/>
-      <c r="J123" s="62"/>
-      <c r="K123" s="58"/>
+      <c r="B123" s="83"/>
+      <c r="C123" s="151"/>
+      <c r="D123" s="81"/>
+      <c r="E123" s="151"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="151"/>
+      <c r="H123" s="77"/>
+      <c r="I123" s="151"/>
+      <c r="J123" s="75"/>
+      <c r="K123" s="151"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124"/>
@@ -3596,50 +3616,50 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D124" s="40">
         <v>0.79166666666666663</v>
       </c>
       <c r="E124" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F124" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H124" s="41">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I124" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F124" s="10">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G124" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H124" s="41">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="I124" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="J124" s="44">
         <v>0.79166666666666663</v>
       </c>
-      <c r="K124" s="148" t="s">
-        <v>80</v>
+      <c r="K124" s="53" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125"/>
       <c r="B125" s="14"/>
       <c r="C125" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F125" s="17"/>
       <c r="G125" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H125" s="17"/>
       <c r="I125" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J125" s="20"/>
       <c r="K125" s="28"/>
@@ -3650,15 +3670,15 @@
       <c r="C126" s="21"/>
       <c r="D126" s="22"/>
       <c r="E126" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H126" s="42"/>
       <c r="I126" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J126" s="13"/>
       <c r="K126" s="45"/>
@@ -3669,15 +3689,15 @@
       <c r="C127" s="15"/>
       <c r="D127" s="17"/>
       <c r="E127" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F127" s="17"/>
       <c r="G127" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H127" s="17"/>
       <c r="I127" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J127" s="20"/>
       <c r="K127" s="28"/>
@@ -3688,7 +3708,7 @@
       <c r="C128" s="21"/>
       <c r="D128" s="31"/>
       <c r="E128" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F128" s="32"/>
       <c r="G128" s="24"/>
@@ -3725,93 +3745,93 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131"/>
-      <c r="B131" s="63"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="64"/>
-      <c r="E131" s="64"/>
-      <c r="F131" s="64"/>
-      <c r="G131" s="64"/>
-      <c r="H131" s="64"/>
-      <c r="I131" s="64"/>
-      <c r="J131" s="64"/>
-      <c r="K131" s="58"/>
+      <c r="B131" s="152"/>
+      <c r="C131" s="153"/>
+      <c r="D131" s="153"/>
+      <c r="E131" s="153"/>
+      <c r="F131" s="153"/>
+      <c r="G131" s="153"/>
+      <c r="H131" s="153"/>
+      <c r="I131" s="153"/>
+      <c r="J131" s="153"/>
+      <c r="K131" s="151"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133"/>
-      <c r="B133" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="C133" s="66"/>
-      <c r="D133" s="66"/>
-      <c r="E133" s="66"/>
-      <c r="F133" s="66"/>
-      <c r="G133" s="66"/>
-      <c r="H133" s="66"/>
-      <c r="I133" s="66"/>
-      <c r="J133" s="66"/>
-      <c r="K133" s="67"/>
+      <c r="B133" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C133" s="143"/>
+      <c r="D133" s="143"/>
+      <c r="E133" s="143"/>
+      <c r="F133" s="143"/>
+      <c r="G133" s="143"/>
+      <c r="H133" s="143"/>
+      <c r="I133" s="143"/>
+      <c r="J133" s="143"/>
+      <c r="K133" s="144"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134"/>
-      <c r="B134" s="68"/>
-      <c r="C134" s="69"/>
-      <c r="D134" s="69"/>
-      <c r="E134" s="69"/>
-      <c r="F134" s="69"/>
-      <c r="G134" s="69"/>
-      <c r="H134" s="69"/>
-      <c r="I134" s="69"/>
-      <c r="J134" s="69"/>
-      <c r="K134" s="70"/>
+      <c r="B134" s="145"/>
+      <c r="C134" s="146"/>
+      <c r="D134" s="146"/>
+      <c r="E134" s="146"/>
+      <c r="F134" s="146"/>
+      <c r="G134" s="146"/>
+      <c r="H134" s="146"/>
+      <c r="I134" s="146"/>
+      <c r="J134" s="146"/>
+      <c r="K134" s="147"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135"/>
-      <c r="B135" s="71">
+      <c r="B135" s="137">
         <f>J122+3</f>
         <v>46041</v>
       </c>
-      <c r="C135" s="72"/>
-      <c r="D135" s="73">
+      <c r="C135" s="138"/>
+      <c r="D135" s="139">
         <f>B135+1</f>
         <v>46042</v>
       </c>
-      <c r="E135" s="72"/>
-      <c r="F135" s="74">
+      <c r="E135" s="138"/>
+      <c r="F135" s="140">
         <f>D135+1</f>
         <v>46043</v>
       </c>
-      <c r="G135" s="72"/>
-      <c r="H135" s="75">
+      <c r="G135" s="138"/>
+      <c r="H135" s="141">
         <f>F135+1</f>
         <v>46044</v>
       </c>
-      <c r="I135" s="72"/>
-      <c r="J135" s="76">
+      <c r="I135" s="138"/>
+      <c r="J135" s="142">
         <f>H135+1</f>
         <v>46045</v>
       </c>
-      <c r="K135" s="72"/>
+      <c r="K135" s="138"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136"/>
-      <c r="B136" s="57"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="59"/>
-      <c r="E136" s="58"/>
-      <c r="F136" s="60"/>
-      <c r="G136" s="58"/>
-      <c r="H136" s="61"/>
-      <c r="I136" s="58"/>
-      <c r="J136" s="62"/>
-      <c r="K136" s="58"/>
+      <c r="B136" s="83"/>
+      <c r="C136" s="151"/>
+      <c r="D136" s="81"/>
+      <c r="E136" s="151"/>
+      <c r="F136" s="79"/>
+      <c r="G136" s="151"/>
+      <c r="H136" s="77"/>
+      <c r="I136" s="151"/>
+      <c r="J136" s="75"/>
+      <c r="K136" s="151"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137"/>
       <c r="B137" s="39">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C137" s="148" t="s">
-        <v>80</v>
+      <c r="C137" s="53" t="s">
+        <v>79</v>
       </c>
       <c r="D137" s="40">
         <v>0.79166666666666663</v>
@@ -3833,8 +3853,8 @@
     <row r="138" spans="1:11">
       <c r="A138"/>
       <c r="B138" s="14"/>
-      <c r="C138" s="149" t="s">
-        <v>81</v>
+      <c r="C138" s="54" t="s">
+        <v>80</v>
       </c>
       <c r="D138" s="17"/>
       <c r="E138" s="46"/>
@@ -3912,85 +3932,85 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144"/>
-      <c r="B144" s="63"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="64"/>
-      <c r="E144" s="64"/>
-      <c r="F144" s="64"/>
-      <c r="G144" s="64"/>
-      <c r="H144" s="64"/>
-      <c r="I144" s="64"/>
-      <c r="J144" s="64"/>
-      <c r="K144" s="58"/>
+      <c r="B144" s="152"/>
+      <c r="C144" s="153"/>
+      <c r="D144" s="153"/>
+      <c r="E144" s="153"/>
+      <c r="F144" s="153"/>
+      <c r="G144" s="153"/>
+      <c r="H144" s="153"/>
+      <c r="I144" s="153"/>
+      <c r="J144" s="153"/>
+      <c r="K144" s="151"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146"/>
-      <c r="B146" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C146" s="66"/>
-      <c r="D146" s="66"/>
-      <c r="E146" s="66"/>
-      <c r="F146" s="66"/>
-      <c r="G146" s="66"/>
-      <c r="H146" s="66"/>
-      <c r="I146" s="66"/>
-      <c r="J146" s="66"/>
-      <c r="K146" s="67"/>
+      <c r="B146" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" s="143"/>
+      <c r="D146" s="143"/>
+      <c r="E146" s="143"/>
+      <c r="F146" s="143"/>
+      <c r="G146" s="143"/>
+      <c r="H146" s="143"/>
+      <c r="I146" s="143"/>
+      <c r="J146" s="143"/>
+      <c r="K146" s="144"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147"/>
-      <c r="B147" s="68"/>
-      <c r="C147" s="69"/>
-      <c r="D147" s="69"/>
-      <c r="E147" s="69"/>
-      <c r="F147" s="69"/>
-      <c r="G147" s="69"/>
-      <c r="H147" s="69"/>
-      <c r="I147" s="69"/>
-      <c r="J147" s="69"/>
-      <c r="K147" s="70"/>
+      <c r="B147" s="145"/>
+      <c r="C147" s="146"/>
+      <c r="D147" s="146"/>
+      <c r="E147" s="146"/>
+      <c r="F147" s="146"/>
+      <c r="G147" s="146"/>
+      <c r="H147" s="146"/>
+      <c r="I147" s="146"/>
+      <c r="J147" s="146"/>
+      <c r="K147" s="147"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148"/>
-      <c r="B148" s="71">
+      <c r="B148" s="137">
         <f>J135+3</f>
         <v>46048</v>
       </c>
-      <c r="C148" s="72"/>
-      <c r="D148" s="73">
+      <c r="C148" s="138"/>
+      <c r="D148" s="139">
         <f>B148+1</f>
         <v>46049</v>
       </c>
-      <c r="E148" s="72"/>
-      <c r="F148" s="74">
+      <c r="E148" s="138"/>
+      <c r="F148" s="140">
         <f>D148+1</f>
         <v>46050</v>
       </c>
-      <c r="G148" s="72"/>
-      <c r="H148" s="75">
+      <c r="G148" s="138"/>
+      <c r="H148" s="141">
         <f>F148+1</f>
         <v>46051</v>
       </c>
-      <c r="I148" s="72"/>
-      <c r="J148" s="76">
+      <c r="I148" s="138"/>
+      <c r="J148" s="142">
         <f>H148+1</f>
         <v>46052</v>
       </c>
-      <c r="K148" s="72"/>
+      <c r="K148" s="138"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149"/>
-      <c r="B149" s="57"/>
-      <c r="C149" s="58"/>
-      <c r="D149" s="59"/>
-      <c r="E149" s="58"/>
-      <c r="F149" s="60"/>
-      <c r="G149" s="58"/>
-      <c r="H149" s="61"/>
-      <c r="I149" s="58"/>
-      <c r="J149" s="62"/>
-      <c r="K149" s="58"/>
+      <c r="B149" s="83"/>
+      <c r="C149" s="151"/>
+      <c r="D149" s="81"/>
+      <c r="E149" s="151"/>
+      <c r="F149" s="79"/>
+      <c r="G149" s="151"/>
+      <c r="H149" s="77"/>
+      <c r="I149" s="151"/>
+      <c r="J149" s="75"/>
+      <c r="K149" s="151"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150"/>
@@ -4095,85 +4115,85 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157"/>
-      <c r="B157" s="63"/>
-      <c r="C157" s="64"/>
-      <c r="D157" s="64"/>
-      <c r="E157" s="64"/>
-      <c r="F157" s="64"/>
-      <c r="G157" s="64"/>
-      <c r="H157" s="64"/>
-      <c r="I157" s="64"/>
-      <c r="J157" s="64"/>
-      <c r="K157" s="58"/>
+      <c r="B157" s="152"/>
+      <c r="C157" s="153"/>
+      <c r="D157" s="153"/>
+      <c r="E157" s="153"/>
+      <c r="F157" s="153"/>
+      <c r="G157" s="153"/>
+      <c r="H157" s="153"/>
+      <c r="I157" s="153"/>
+      <c r="J157" s="153"/>
+      <c r="K157" s="151"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159"/>
-      <c r="B159" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C159" s="66"/>
-      <c r="D159" s="66"/>
-      <c r="E159" s="66"/>
-      <c r="F159" s="66"/>
-      <c r="G159" s="66"/>
-      <c r="H159" s="66"/>
-      <c r="I159" s="66"/>
-      <c r="J159" s="66"/>
-      <c r="K159" s="67"/>
+      <c r="B159" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C159" s="143"/>
+      <c r="D159" s="143"/>
+      <c r="E159" s="143"/>
+      <c r="F159" s="143"/>
+      <c r="G159" s="143"/>
+      <c r="H159" s="143"/>
+      <c r="I159" s="143"/>
+      <c r="J159" s="143"/>
+      <c r="K159" s="144"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160"/>
-      <c r="B160" s="68"/>
-      <c r="C160" s="69"/>
-      <c r="D160" s="69"/>
-      <c r="E160" s="69"/>
-      <c r="F160" s="69"/>
-      <c r="G160" s="69"/>
-      <c r="H160" s="69"/>
-      <c r="I160" s="69"/>
-      <c r="J160" s="69"/>
-      <c r="K160" s="70"/>
+      <c r="B160" s="145"/>
+      <c r="C160" s="146"/>
+      <c r="D160" s="146"/>
+      <c r="E160" s="146"/>
+      <c r="F160" s="146"/>
+      <c r="G160" s="146"/>
+      <c r="H160" s="146"/>
+      <c r="I160" s="146"/>
+      <c r="J160" s="146"/>
+      <c r="K160" s="147"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161"/>
-      <c r="B161" s="71">
+      <c r="B161" s="137">
         <f>J148+3</f>
         <v>46055</v>
       </c>
-      <c r="C161" s="72"/>
-      <c r="D161" s="73">
+      <c r="C161" s="138"/>
+      <c r="D161" s="139">
         <f>B161+1</f>
         <v>46056</v>
       </c>
-      <c r="E161" s="72"/>
-      <c r="F161" s="74">
+      <c r="E161" s="138"/>
+      <c r="F161" s="140">
         <f>D161+1</f>
         <v>46057</v>
       </c>
-      <c r="G161" s="72"/>
-      <c r="H161" s="75">
+      <c r="G161" s="138"/>
+      <c r="H161" s="141">
         <f>F161+1</f>
         <v>46058</v>
       </c>
-      <c r="I161" s="72"/>
-      <c r="J161" s="76">
+      <c r="I161" s="138"/>
+      <c r="J161" s="142">
         <f>H161+1</f>
         <v>46059</v>
       </c>
-      <c r="K161" s="72"/>
+      <c r="K161" s="138"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162"/>
-      <c r="B162" s="57"/>
-      <c r="C162" s="58"/>
-      <c r="D162" s="59"/>
-      <c r="E162" s="58"/>
-      <c r="F162" s="60"/>
-      <c r="G162" s="58"/>
-      <c r="H162" s="61"/>
-      <c r="I162" s="58"/>
-      <c r="J162" s="62"/>
-      <c r="K162" s="58"/>
+      <c r="B162" s="83"/>
+      <c r="C162" s="151"/>
+      <c r="D162" s="81"/>
+      <c r="E162" s="151"/>
+      <c r="F162" s="79"/>
+      <c r="G162" s="151"/>
+      <c r="H162" s="77"/>
+      <c r="I162" s="151"/>
+      <c r="J162" s="75"/>
+      <c r="K162" s="151"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163"/>
@@ -4278,85 +4298,85 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170"/>
-      <c r="B170" s="63"/>
-      <c r="C170" s="64"/>
-      <c r="D170" s="64"/>
-      <c r="E170" s="64"/>
-      <c r="F170" s="64"/>
-      <c r="G170" s="64"/>
-      <c r="H170" s="64"/>
-      <c r="I170" s="64"/>
-      <c r="J170" s="64"/>
-      <c r="K170" s="58"/>
+      <c r="B170" s="152"/>
+      <c r="C170" s="153"/>
+      <c r="D170" s="153"/>
+      <c r="E170" s="153"/>
+      <c r="F170" s="153"/>
+      <c r="G170" s="153"/>
+      <c r="H170" s="153"/>
+      <c r="I170" s="153"/>
+      <c r="J170" s="153"/>
+      <c r="K170" s="151"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172"/>
-      <c r="B172" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="C172" s="66"/>
-      <c r="D172" s="66"/>
-      <c r="E172" s="66"/>
-      <c r="F172" s="66"/>
-      <c r="G172" s="66"/>
-      <c r="H172" s="66"/>
-      <c r="I172" s="66"/>
-      <c r="J172" s="66"/>
-      <c r="K172" s="67"/>
+      <c r="B172" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C172" s="143"/>
+      <c r="D172" s="143"/>
+      <c r="E172" s="143"/>
+      <c r="F172" s="143"/>
+      <c r="G172" s="143"/>
+      <c r="H172" s="143"/>
+      <c r="I172" s="143"/>
+      <c r="J172" s="143"/>
+      <c r="K172" s="144"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173"/>
-      <c r="B173" s="68"/>
-      <c r="C173" s="69"/>
-      <c r="D173" s="69"/>
-      <c r="E173" s="69"/>
-      <c r="F173" s="69"/>
-      <c r="G173" s="69"/>
-      <c r="H173" s="69"/>
-      <c r="I173" s="69"/>
-      <c r="J173" s="69"/>
-      <c r="K173" s="70"/>
+      <c r="B173" s="145"/>
+      <c r="C173" s="146"/>
+      <c r="D173" s="146"/>
+      <c r="E173" s="146"/>
+      <c r="F173" s="146"/>
+      <c r="G173" s="146"/>
+      <c r="H173" s="146"/>
+      <c r="I173" s="146"/>
+      <c r="J173" s="146"/>
+      <c r="K173" s="147"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174"/>
-      <c r="B174" s="71">
+      <c r="B174" s="137">
         <f>J161+3</f>
         <v>46062</v>
       </c>
-      <c r="C174" s="72"/>
-      <c r="D174" s="73">
+      <c r="C174" s="138"/>
+      <c r="D174" s="139">
         <f>B174+1</f>
         <v>46063</v>
       </c>
-      <c r="E174" s="72"/>
-      <c r="F174" s="74">
+      <c r="E174" s="138"/>
+      <c r="F174" s="140">
         <f>D174+1</f>
         <v>46064</v>
       </c>
-      <c r="G174" s="72"/>
-      <c r="H174" s="75">
+      <c r="G174" s="138"/>
+      <c r="H174" s="141">
         <f>F174+1</f>
         <v>46065</v>
       </c>
-      <c r="I174" s="72"/>
-      <c r="J174" s="76">
+      <c r="I174" s="138"/>
+      <c r="J174" s="142">
         <f>H174+1</f>
         <v>46066</v>
       </c>
-      <c r="K174" s="72"/>
+      <c r="K174" s="138"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175"/>
-      <c r="B175" s="57"/>
-      <c r="C175" s="58"/>
-      <c r="D175" s="59"/>
-      <c r="E175" s="58"/>
-      <c r="F175" s="60"/>
-      <c r="G175" s="58"/>
-      <c r="H175" s="61"/>
-      <c r="I175" s="58"/>
-      <c r="J175" s="62"/>
-      <c r="K175" s="58"/>
+      <c r="B175" s="83"/>
+      <c r="C175" s="151"/>
+      <c r="D175" s="81"/>
+      <c r="E175" s="151"/>
+      <c r="F175" s="79"/>
+      <c r="G175" s="151"/>
+      <c r="H175" s="77"/>
+      <c r="I175" s="151"/>
+      <c r="J175" s="75"/>
+      <c r="K175" s="151"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176"/>
@@ -4461,85 +4481,85 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183"/>
-      <c r="B183" s="63"/>
-      <c r="C183" s="64"/>
-      <c r="D183" s="64"/>
-      <c r="E183" s="64"/>
-      <c r="F183" s="64"/>
-      <c r="G183" s="64"/>
-      <c r="H183" s="64"/>
-      <c r="I183" s="64"/>
-      <c r="J183" s="64"/>
-      <c r="K183" s="58"/>
+      <c r="B183" s="152"/>
+      <c r="C183" s="153"/>
+      <c r="D183" s="153"/>
+      <c r="E183" s="153"/>
+      <c r="F183" s="153"/>
+      <c r="G183" s="153"/>
+      <c r="H183" s="153"/>
+      <c r="I183" s="153"/>
+      <c r="J183" s="153"/>
+      <c r="K183" s="151"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185"/>
-      <c r="B185" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="C185" s="66"/>
-      <c r="D185" s="66"/>
-      <c r="E185" s="66"/>
-      <c r="F185" s="66"/>
-      <c r="G185" s="66"/>
-      <c r="H185" s="66"/>
-      <c r="I185" s="66"/>
-      <c r="J185" s="66"/>
-      <c r="K185" s="67"/>
+      <c r="B185" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C185" s="143"/>
+      <c r="D185" s="143"/>
+      <c r="E185" s="143"/>
+      <c r="F185" s="143"/>
+      <c r="G185" s="143"/>
+      <c r="H185" s="143"/>
+      <c r="I185" s="143"/>
+      <c r="J185" s="143"/>
+      <c r="K185" s="144"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186"/>
-      <c r="B186" s="68"/>
-      <c r="C186" s="69"/>
-      <c r="D186" s="69"/>
-      <c r="E186" s="69"/>
-      <c r="F186" s="69"/>
-      <c r="G186" s="69"/>
-      <c r="H186" s="69"/>
-      <c r="I186" s="69"/>
-      <c r="J186" s="69"/>
-      <c r="K186" s="70"/>
+      <c r="B186" s="145"/>
+      <c r="C186" s="146"/>
+      <c r="D186" s="146"/>
+      <c r="E186" s="146"/>
+      <c r="F186" s="146"/>
+      <c r="G186" s="146"/>
+      <c r="H186" s="146"/>
+      <c r="I186" s="146"/>
+      <c r="J186" s="146"/>
+      <c r="K186" s="147"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187"/>
-      <c r="B187" s="71">
+      <c r="B187" s="137">
         <f>J174+3</f>
         <v>46069</v>
       </c>
-      <c r="C187" s="72"/>
-      <c r="D187" s="73">
+      <c r="C187" s="138"/>
+      <c r="D187" s="139">
         <f>B187+1</f>
         <v>46070</v>
       </c>
-      <c r="E187" s="72"/>
-      <c r="F187" s="74">
+      <c r="E187" s="138"/>
+      <c r="F187" s="140">
         <f>D187+1</f>
         <v>46071</v>
       </c>
-      <c r="G187" s="72"/>
-      <c r="H187" s="75">
+      <c r="G187" s="138"/>
+      <c r="H187" s="141">
         <f>F187+1</f>
         <v>46072</v>
       </c>
-      <c r="I187" s="72"/>
-      <c r="J187" s="76">
+      <c r="I187" s="138"/>
+      <c r="J187" s="142">
         <f>H187+1</f>
         <v>46073</v>
       </c>
-      <c r="K187" s="72"/>
+      <c r="K187" s="138"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188"/>
-      <c r="B188" s="57"/>
-      <c r="C188" s="58"/>
-      <c r="D188" s="59"/>
-      <c r="E188" s="58"/>
-      <c r="F188" s="60"/>
-      <c r="G188" s="58"/>
-      <c r="H188" s="61"/>
-      <c r="I188" s="58"/>
-      <c r="J188" s="62"/>
-      <c r="K188" s="58"/>
+      <c r="B188" s="83"/>
+      <c r="C188" s="151"/>
+      <c r="D188" s="81"/>
+      <c r="E188" s="151"/>
+      <c r="F188" s="79"/>
+      <c r="G188" s="151"/>
+      <c r="H188" s="77"/>
+      <c r="I188" s="151"/>
+      <c r="J188" s="75"/>
+      <c r="K188" s="151"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189"/>
@@ -4644,85 +4664,85 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196"/>
-      <c r="B196" s="63"/>
-      <c r="C196" s="64"/>
-      <c r="D196" s="64"/>
-      <c r="E196" s="64"/>
-      <c r="F196" s="64"/>
-      <c r="G196" s="64"/>
-      <c r="H196" s="64"/>
-      <c r="I196" s="64"/>
-      <c r="J196" s="64"/>
-      <c r="K196" s="58"/>
+      <c r="B196" s="152"/>
+      <c r="C196" s="153"/>
+      <c r="D196" s="153"/>
+      <c r="E196" s="153"/>
+      <c r="F196" s="153"/>
+      <c r="G196" s="153"/>
+      <c r="H196" s="153"/>
+      <c r="I196" s="153"/>
+      <c r="J196" s="153"/>
+      <c r="K196" s="151"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198"/>
-      <c r="B198" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="C198" s="66"/>
-      <c r="D198" s="66"/>
-      <c r="E198" s="66"/>
-      <c r="F198" s="66"/>
-      <c r="G198" s="66"/>
-      <c r="H198" s="66"/>
-      <c r="I198" s="66"/>
-      <c r="J198" s="66"/>
-      <c r="K198" s="67"/>
+      <c r="B198" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C198" s="143"/>
+      <c r="D198" s="143"/>
+      <c r="E198" s="143"/>
+      <c r="F198" s="143"/>
+      <c r="G198" s="143"/>
+      <c r="H198" s="143"/>
+      <c r="I198" s="143"/>
+      <c r="J198" s="143"/>
+      <c r="K198" s="144"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199"/>
-      <c r="B199" s="68"/>
-      <c r="C199" s="69"/>
-      <c r="D199" s="69"/>
-      <c r="E199" s="69"/>
-      <c r="F199" s="69"/>
-      <c r="G199" s="69"/>
-      <c r="H199" s="69"/>
-      <c r="I199" s="69"/>
-      <c r="J199" s="69"/>
-      <c r="K199" s="70"/>
+      <c r="B199" s="145"/>
+      <c r="C199" s="146"/>
+      <c r="D199" s="146"/>
+      <c r="E199" s="146"/>
+      <c r="F199" s="146"/>
+      <c r="G199" s="146"/>
+      <c r="H199" s="146"/>
+      <c r="I199" s="146"/>
+      <c r="J199" s="146"/>
+      <c r="K199" s="147"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200"/>
-      <c r="B200" s="71">
+      <c r="B200" s="137">
         <f>J187+3</f>
         <v>46076</v>
       </c>
-      <c r="C200" s="72"/>
-      <c r="D200" s="73">
+      <c r="C200" s="138"/>
+      <c r="D200" s="139">
         <f>B200+1</f>
         <v>46077</v>
       </c>
-      <c r="E200" s="72"/>
-      <c r="F200" s="74">
+      <c r="E200" s="138"/>
+      <c r="F200" s="140">
         <f>D200+1</f>
         <v>46078</v>
       </c>
-      <c r="G200" s="72"/>
-      <c r="H200" s="75">
+      <c r="G200" s="138"/>
+      <c r="H200" s="141">
         <f>F200+1</f>
         <v>46079</v>
       </c>
-      <c r="I200" s="72"/>
-      <c r="J200" s="76">
+      <c r="I200" s="138"/>
+      <c r="J200" s="142">
         <f>H200+1</f>
         <v>46080</v>
       </c>
-      <c r="K200" s="72"/>
+      <c r="K200" s="138"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201"/>
-      <c r="B201" s="57"/>
-      <c r="C201" s="58"/>
-      <c r="D201" s="59"/>
-      <c r="E201" s="58"/>
-      <c r="F201" s="60"/>
-      <c r="G201" s="58"/>
-      <c r="H201" s="61"/>
-      <c r="I201" s="58"/>
-      <c r="J201" s="62"/>
-      <c r="K201" s="58"/>
+      <c r="B201" s="83"/>
+      <c r="C201" s="151"/>
+      <c r="D201" s="81"/>
+      <c r="E201" s="151"/>
+      <c r="F201" s="79"/>
+      <c r="G201" s="151"/>
+      <c r="H201" s="77"/>
+      <c r="I201" s="151"/>
+      <c r="J201" s="75"/>
+      <c r="K201" s="151"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202"/>
@@ -4827,85 +4847,85 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209"/>
-      <c r="B209" s="63"/>
-      <c r="C209" s="64"/>
-      <c r="D209" s="64"/>
-      <c r="E209" s="64"/>
-      <c r="F209" s="64"/>
-      <c r="G209" s="64"/>
-      <c r="H209" s="64"/>
-      <c r="I209" s="64"/>
-      <c r="J209" s="64"/>
-      <c r="K209" s="58"/>
+      <c r="B209" s="152"/>
+      <c r="C209" s="153"/>
+      <c r="D209" s="153"/>
+      <c r="E209" s="153"/>
+      <c r="F209" s="153"/>
+      <c r="G209" s="153"/>
+      <c r="H209" s="153"/>
+      <c r="I209" s="153"/>
+      <c r="J209" s="153"/>
+      <c r="K209" s="151"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211"/>
-      <c r="B211" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C211" s="66"/>
-      <c r="D211" s="66"/>
-      <c r="E211" s="66"/>
-      <c r="F211" s="66"/>
-      <c r="G211" s="66"/>
-      <c r="H211" s="66"/>
-      <c r="I211" s="66"/>
-      <c r="J211" s="66"/>
-      <c r="K211" s="67"/>
+      <c r="B211" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C211" s="143"/>
+      <c r="D211" s="143"/>
+      <c r="E211" s="143"/>
+      <c r="F211" s="143"/>
+      <c r="G211" s="143"/>
+      <c r="H211" s="143"/>
+      <c r="I211" s="143"/>
+      <c r="J211" s="143"/>
+      <c r="K211" s="144"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212"/>
-      <c r="B212" s="68"/>
-      <c r="C212" s="69"/>
-      <c r="D212" s="69"/>
-      <c r="E212" s="69"/>
-      <c r="F212" s="69"/>
-      <c r="G212" s="69"/>
-      <c r="H212" s="69"/>
-      <c r="I212" s="69"/>
-      <c r="J212" s="69"/>
-      <c r="K212" s="70"/>
+      <c r="B212" s="145"/>
+      <c r="C212" s="146"/>
+      <c r="D212" s="146"/>
+      <c r="E212" s="146"/>
+      <c r="F212" s="146"/>
+      <c r="G212" s="146"/>
+      <c r="H212" s="146"/>
+      <c r="I212" s="146"/>
+      <c r="J212" s="146"/>
+      <c r="K212" s="147"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213"/>
-      <c r="B213" s="71">
+      <c r="B213" s="137">
         <f>J200+3</f>
         <v>46083</v>
       </c>
-      <c r="C213" s="72"/>
-      <c r="D213" s="73">
+      <c r="C213" s="138"/>
+      <c r="D213" s="139">
         <f>B213+1</f>
         <v>46084</v>
       </c>
-      <c r="E213" s="72"/>
-      <c r="F213" s="74">
+      <c r="E213" s="138"/>
+      <c r="F213" s="140">
         <f>D213+1</f>
         <v>46085</v>
       </c>
-      <c r="G213" s="72"/>
-      <c r="H213" s="75">
+      <c r="G213" s="138"/>
+      <c r="H213" s="141">
         <f>F213+1</f>
         <v>46086</v>
       </c>
-      <c r="I213" s="72"/>
-      <c r="J213" s="76">
+      <c r="I213" s="138"/>
+      <c r="J213" s="142">
         <f>H213+1</f>
         <v>46087</v>
       </c>
-      <c r="K213" s="72"/>
+      <c r="K213" s="138"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214"/>
-      <c r="B214" s="57"/>
-      <c r="C214" s="58"/>
-      <c r="D214" s="59"/>
-      <c r="E214" s="58"/>
-      <c r="F214" s="60"/>
-      <c r="G214" s="58"/>
-      <c r="H214" s="61"/>
-      <c r="I214" s="58"/>
-      <c r="J214" s="62"/>
-      <c r="K214" s="58"/>
+      <c r="B214" s="83"/>
+      <c r="C214" s="151"/>
+      <c r="D214" s="81"/>
+      <c r="E214" s="151"/>
+      <c r="F214" s="79"/>
+      <c r="G214" s="151"/>
+      <c r="H214" s="77"/>
+      <c r="I214" s="151"/>
+      <c r="J214" s="75"/>
+      <c r="K214" s="151"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215"/>
@@ -5010,85 +5030,85 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222"/>
-      <c r="B222" s="63"/>
-      <c r="C222" s="64"/>
-      <c r="D222" s="64"/>
-      <c r="E222" s="64"/>
-      <c r="F222" s="64"/>
-      <c r="G222" s="64"/>
-      <c r="H222" s="64"/>
-      <c r="I222" s="64"/>
-      <c r="J222" s="64"/>
-      <c r="K222" s="58"/>
+      <c r="B222" s="152"/>
+      <c r="C222" s="153"/>
+      <c r="D222" s="153"/>
+      <c r="E222" s="153"/>
+      <c r="F222" s="153"/>
+      <c r="G222" s="153"/>
+      <c r="H222" s="153"/>
+      <c r="I222" s="153"/>
+      <c r="J222" s="153"/>
+      <c r="K222" s="151"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224"/>
-      <c r="B224" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="C224" s="66"/>
-      <c r="D224" s="66"/>
-      <c r="E224" s="66"/>
-      <c r="F224" s="66"/>
-      <c r="G224" s="66"/>
-      <c r="H224" s="66"/>
-      <c r="I224" s="66"/>
-      <c r="J224" s="66"/>
-      <c r="K224" s="67"/>
+      <c r="B224" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C224" s="143"/>
+      <c r="D224" s="143"/>
+      <c r="E224" s="143"/>
+      <c r="F224" s="143"/>
+      <c r="G224" s="143"/>
+      <c r="H224" s="143"/>
+      <c r="I224" s="143"/>
+      <c r="J224" s="143"/>
+      <c r="K224" s="144"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225"/>
-      <c r="B225" s="68"/>
-      <c r="C225" s="69"/>
-      <c r="D225" s="69"/>
-      <c r="E225" s="69"/>
-      <c r="F225" s="69"/>
-      <c r="G225" s="69"/>
-      <c r="H225" s="69"/>
-      <c r="I225" s="69"/>
-      <c r="J225" s="69"/>
-      <c r="K225" s="70"/>
+      <c r="B225" s="145"/>
+      <c r="C225" s="146"/>
+      <c r="D225" s="146"/>
+      <c r="E225" s="146"/>
+      <c r="F225" s="146"/>
+      <c r="G225" s="146"/>
+      <c r="H225" s="146"/>
+      <c r="I225" s="146"/>
+      <c r="J225" s="146"/>
+      <c r="K225" s="147"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226"/>
-      <c r="B226" s="71">
+      <c r="B226" s="137">
         <f>J213+3</f>
         <v>46090</v>
       </c>
-      <c r="C226" s="72"/>
-      <c r="D226" s="73">
+      <c r="C226" s="138"/>
+      <c r="D226" s="139">
         <f>B226+1</f>
         <v>46091</v>
       </c>
-      <c r="E226" s="72"/>
-      <c r="F226" s="74">
+      <c r="E226" s="138"/>
+      <c r="F226" s="140">
         <f>D226+1</f>
         <v>46092</v>
       </c>
-      <c r="G226" s="72"/>
-      <c r="H226" s="75">
+      <c r="G226" s="138"/>
+      <c r="H226" s="141">
         <f>F226+1</f>
         <v>46093</v>
       </c>
-      <c r="I226" s="72"/>
-      <c r="J226" s="76">
+      <c r="I226" s="138"/>
+      <c r="J226" s="142">
         <f>H226+1</f>
         <v>46094</v>
       </c>
-      <c r="K226" s="72"/>
+      <c r="K226" s="138"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227"/>
-      <c r="B227" s="57"/>
-      <c r="C227" s="58"/>
-      <c r="D227" s="59"/>
-      <c r="E227" s="58"/>
-      <c r="F227" s="60"/>
-      <c r="G227" s="58"/>
-      <c r="H227" s="61"/>
-      <c r="I227" s="58"/>
-      <c r="J227" s="62"/>
-      <c r="K227" s="58"/>
+      <c r="B227" s="83"/>
+      <c r="C227" s="151"/>
+      <c r="D227" s="81"/>
+      <c r="E227" s="151"/>
+      <c r="F227" s="79"/>
+      <c r="G227" s="151"/>
+      <c r="H227" s="77"/>
+      <c r="I227" s="151"/>
+      <c r="J227" s="75"/>
+      <c r="K227" s="151"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228"/>
@@ -5193,85 +5213,85 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235"/>
-      <c r="B235" s="63"/>
-      <c r="C235" s="64"/>
-      <c r="D235" s="64"/>
-      <c r="E235" s="64"/>
-      <c r="F235" s="64"/>
-      <c r="G235" s="64"/>
-      <c r="H235" s="64"/>
-      <c r="I235" s="64"/>
-      <c r="J235" s="64"/>
-      <c r="K235" s="58"/>
+      <c r="B235" s="152"/>
+      <c r="C235" s="153"/>
+      <c r="D235" s="153"/>
+      <c r="E235" s="153"/>
+      <c r="F235" s="153"/>
+      <c r="G235" s="153"/>
+      <c r="H235" s="153"/>
+      <c r="I235" s="153"/>
+      <c r="J235" s="153"/>
+      <c r="K235" s="151"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237"/>
-      <c r="B237" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C237" s="66"/>
-      <c r="D237" s="66"/>
-      <c r="E237" s="66"/>
-      <c r="F237" s="66"/>
-      <c r="G237" s="66"/>
-      <c r="H237" s="66"/>
-      <c r="I237" s="66"/>
-      <c r="J237" s="66"/>
-      <c r="K237" s="67"/>
+      <c r="B237" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C237" s="143"/>
+      <c r="D237" s="143"/>
+      <c r="E237" s="143"/>
+      <c r="F237" s="143"/>
+      <c r="G237" s="143"/>
+      <c r="H237" s="143"/>
+      <c r="I237" s="143"/>
+      <c r="J237" s="143"/>
+      <c r="K237" s="144"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238"/>
-      <c r="B238" s="68"/>
-      <c r="C238" s="69"/>
-      <c r="D238" s="69"/>
-      <c r="E238" s="69"/>
-      <c r="F238" s="69"/>
-      <c r="G238" s="69"/>
-      <c r="H238" s="69"/>
-      <c r="I238" s="69"/>
-      <c r="J238" s="69"/>
-      <c r="K238" s="70"/>
+      <c r="B238" s="145"/>
+      <c r="C238" s="146"/>
+      <c r="D238" s="146"/>
+      <c r="E238" s="146"/>
+      <c r="F238" s="146"/>
+      <c r="G238" s="146"/>
+      <c r="H238" s="146"/>
+      <c r="I238" s="146"/>
+      <c r="J238" s="146"/>
+      <c r="K238" s="147"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239"/>
-      <c r="B239" s="71">
+      <c r="B239" s="137">
         <f>J226+3</f>
         <v>46097</v>
       </c>
-      <c r="C239" s="72"/>
-      <c r="D239" s="73">
+      <c r="C239" s="138"/>
+      <c r="D239" s="139">
         <f>B239+1</f>
         <v>46098</v>
       </c>
-      <c r="E239" s="72"/>
-      <c r="F239" s="74">
+      <c r="E239" s="138"/>
+      <c r="F239" s="140">
         <f>D239+1</f>
         <v>46099</v>
       </c>
-      <c r="G239" s="72"/>
-      <c r="H239" s="75">
+      <c r="G239" s="138"/>
+      <c r="H239" s="141">
         <f>F239+1</f>
         <v>46100</v>
       </c>
-      <c r="I239" s="72"/>
-      <c r="J239" s="76">
+      <c r="I239" s="138"/>
+      <c r="J239" s="142">
         <f>H239+1</f>
         <v>46101</v>
       </c>
-      <c r="K239" s="72"/>
+      <c r="K239" s="138"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240"/>
-      <c r="B240" s="57"/>
-      <c r="C240" s="58"/>
-      <c r="D240" s="59"/>
-      <c r="E240" s="58"/>
-      <c r="F240" s="60"/>
-      <c r="G240" s="58"/>
-      <c r="H240" s="61"/>
-      <c r="I240" s="58"/>
-      <c r="J240" s="62"/>
-      <c r="K240" s="58"/>
+      <c r="B240" s="83"/>
+      <c r="C240" s="151"/>
+      <c r="D240" s="81"/>
+      <c r="E240" s="151"/>
+      <c r="F240" s="79"/>
+      <c r="G240" s="151"/>
+      <c r="H240" s="77"/>
+      <c r="I240" s="151"/>
+      <c r="J240" s="75"/>
+      <c r="K240" s="151"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241"/>
@@ -5376,85 +5396,85 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248"/>
-      <c r="B248" s="63"/>
-      <c r="C248" s="64"/>
-      <c r="D248" s="64"/>
-      <c r="E248" s="64"/>
-      <c r="F248" s="64"/>
-      <c r="G248" s="64"/>
-      <c r="H248" s="64"/>
-      <c r="I248" s="64"/>
-      <c r="J248" s="64"/>
-      <c r="K248" s="58"/>
+      <c r="B248" s="152"/>
+      <c r="C248" s="153"/>
+      <c r="D248" s="153"/>
+      <c r="E248" s="153"/>
+      <c r="F248" s="153"/>
+      <c r="G248" s="153"/>
+      <c r="H248" s="153"/>
+      <c r="I248" s="153"/>
+      <c r="J248" s="153"/>
+      <c r="K248" s="151"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250"/>
-      <c r="B250" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C250" s="66"/>
-      <c r="D250" s="66"/>
-      <c r="E250" s="66"/>
-      <c r="F250" s="66"/>
-      <c r="G250" s="66"/>
-      <c r="H250" s="66"/>
-      <c r="I250" s="66"/>
-      <c r="J250" s="66"/>
-      <c r="K250" s="67"/>
+      <c r="B250" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C250" s="143"/>
+      <c r="D250" s="143"/>
+      <c r="E250" s="143"/>
+      <c r="F250" s="143"/>
+      <c r="G250" s="143"/>
+      <c r="H250" s="143"/>
+      <c r="I250" s="143"/>
+      <c r="J250" s="143"/>
+      <c r="K250" s="144"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251"/>
-      <c r="B251" s="68"/>
-      <c r="C251" s="69"/>
-      <c r="D251" s="69"/>
-      <c r="E251" s="69"/>
-      <c r="F251" s="69"/>
-      <c r="G251" s="69"/>
-      <c r="H251" s="69"/>
-      <c r="I251" s="69"/>
-      <c r="J251" s="69"/>
-      <c r="K251" s="70"/>
+      <c r="B251" s="145"/>
+      <c r="C251" s="146"/>
+      <c r="D251" s="146"/>
+      <c r="E251" s="146"/>
+      <c r="F251" s="146"/>
+      <c r="G251" s="146"/>
+      <c r="H251" s="146"/>
+      <c r="I251" s="146"/>
+      <c r="J251" s="146"/>
+      <c r="K251" s="147"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252"/>
-      <c r="B252" s="71">
+      <c r="B252" s="137">
         <f>J239+3</f>
         <v>46104</v>
       </c>
-      <c r="C252" s="72"/>
-      <c r="D252" s="73">
+      <c r="C252" s="138"/>
+      <c r="D252" s="139">
         <f>B252+1</f>
         <v>46105</v>
       </c>
-      <c r="E252" s="72"/>
-      <c r="F252" s="74">
+      <c r="E252" s="138"/>
+      <c r="F252" s="140">
         <f>D252+1</f>
         <v>46106</v>
       </c>
-      <c r="G252" s="72"/>
-      <c r="H252" s="75">
+      <c r="G252" s="138"/>
+      <c r="H252" s="141">
         <f>F252+1</f>
         <v>46107</v>
       </c>
-      <c r="I252" s="72"/>
-      <c r="J252" s="76">
+      <c r="I252" s="138"/>
+      <c r="J252" s="142">
         <f>H252+1</f>
         <v>46108</v>
       </c>
-      <c r="K252" s="72"/>
+      <c r="K252" s="138"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253"/>
-      <c r="B253" s="57"/>
-      <c r="C253" s="58"/>
-      <c r="D253" s="59"/>
-      <c r="E253" s="58"/>
-      <c r="F253" s="60"/>
-      <c r="G253" s="58"/>
-      <c r="H253" s="61"/>
-      <c r="I253" s="58"/>
-      <c r="J253" s="62"/>
-      <c r="K253" s="58"/>
+      <c r="B253" s="83"/>
+      <c r="C253" s="151"/>
+      <c r="D253" s="81"/>
+      <c r="E253" s="151"/>
+      <c r="F253" s="79"/>
+      <c r="G253" s="151"/>
+      <c r="H253" s="77"/>
+      <c r="I253" s="151"/>
+      <c r="J253" s="75"/>
+      <c r="K253" s="151"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254"/>
@@ -5477,8 +5497,8 @@
       <c r="J254" s="44">
         <v>0.79166666666666663</v>
       </c>
-      <c r="K254" s="155" t="s">
-        <v>94</v>
+      <c r="K254" s="58" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -5492,8 +5512,8 @@
       <c r="H255" s="17"/>
       <c r="I255" s="19"/>
       <c r="J255" s="20"/>
-      <c r="K255" s="156" t="s">
-        <v>97</v>
+      <c r="K255" s="59" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -5563,85 +5583,85 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261"/>
-      <c r="B261" s="63"/>
-      <c r="C261" s="64"/>
-      <c r="D261" s="64"/>
-      <c r="E261" s="64"/>
-      <c r="F261" s="64"/>
-      <c r="G261" s="64"/>
-      <c r="H261" s="64"/>
-      <c r="I261" s="64"/>
-      <c r="J261" s="64"/>
-      <c r="K261" s="58"/>
+      <c r="B261" s="152"/>
+      <c r="C261" s="153"/>
+      <c r="D261" s="153"/>
+      <c r="E261" s="153"/>
+      <c r="F261" s="153"/>
+      <c r="G261" s="153"/>
+      <c r="H261" s="153"/>
+      <c r="I261" s="153"/>
+      <c r="J261" s="153"/>
+      <c r="K261" s="151"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263"/>
-      <c r="B263" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="C263" s="66"/>
-      <c r="D263" s="66"/>
-      <c r="E263" s="66"/>
-      <c r="F263" s="66"/>
-      <c r="G263" s="66"/>
-      <c r="H263" s="66"/>
-      <c r="I263" s="66"/>
-      <c r="J263" s="66"/>
-      <c r="K263" s="67"/>
+      <c r="B263" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C263" s="143"/>
+      <c r="D263" s="143"/>
+      <c r="E263" s="143"/>
+      <c r="F263" s="143"/>
+      <c r="G263" s="143"/>
+      <c r="H263" s="143"/>
+      <c r="I263" s="143"/>
+      <c r="J263" s="143"/>
+      <c r="K263" s="144"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264"/>
-      <c r="B264" s="68"/>
-      <c r="C264" s="69"/>
-      <c r="D264" s="69"/>
-      <c r="E264" s="69"/>
-      <c r="F264" s="69"/>
-      <c r="G264" s="69"/>
-      <c r="H264" s="69"/>
-      <c r="I264" s="69"/>
-      <c r="J264" s="69"/>
-      <c r="K264" s="70"/>
+      <c r="B264" s="145"/>
+      <c r="C264" s="146"/>
+      <c r="D264" s="146"/>
+      <c r="E264" s="146"/>
+      <c r="F264" s="146"/>
+      <c r="G264" s="146"/>
+      <c r="H264" s="146"/>
+      <c r="I264" s="146"/>
+      <c r="J264" s="146"/>
+      <c r="K264" s="147"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265"/>
-      <c r="B265" s="71">
+      <c r="B265" s="137">
         <f>J252+3</f>
         <v>46111</v>
       </c>
-      <c r="C265" s="72"/>
-      <c r="D265" s="73">
+      <c r="C265" s="138"/>
+      <c r="D265" s="139">
         <f>B265+1</f>
         <v>46112</v>
       </c>
-      <c r="E265" s="72"/>
-      <c r="F265" s="74">
+      <c r="E265" s="138"/>
+      <c r="F265" s="140">
         <f>D265+1</f>
         <v>46113</v>
       </c>
-      <c r="G265" s="72"/>
-      <c r="H265" s="75">
+      <c r="G265" s="138"/>
+      <c r="H265" s="141">
         <f>F265+1</f>
         <v>46114</v>
       </c>
-      <c r="I265" s="72"/>
-      <c r="J265" s="76">
+      <c r="I265" s="138"/>
+      <c r="J265" s="142">
         <f>H265+1</f>
         <v>46115</v>
       </c>
-      <c r="K265" s="72"/>
+      <c r="K265" s="138"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266"/>
-      <c r="B266" s="57"/>
-      <c r="C266" s="58"/>
-      <c r="D266" s="59"/>
-      <c r="E266" s="58"/>
-      <c r="F266" s="60"/>
-      <c r="G266" s="58"/>
-      <c r="H266" s="61"/>
-      <c r="I266" s="58"/>
-      <c r="J266" s="62"/>
-      <c r="K266" s="58"/>
+      <c r="B266" s="83"/>
+      <c r="C266" s="151"/>
+      <c r="D266" s="81"/>
+      <c r="E266" s="151"/>
+      <c r="F266" s="79"/>
+      <c r="G266" s="151"/>
+      <c r="H266" s="77"/>
+      <c r="I266" s="151"/>
+      <c r="J266" s="75"/>
+      <c r="K266" s="151"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267"/>
@@ -5656,12 +5676,12 @@
       <c r="F267" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G267" s="152"/>
+      <c r="G267" s="55"/>
       <c r="H267" s="41">
         <v>0.79166666666666663</v>
       </c>
       <c r="I267" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J267" s="44">
         <v>0.79166666666666663</v>
@@ -5675,7 +5695,7 @@
       <c r="D268" s="17"/>
       <c r="E268" s="46"/>
       <c r="F268" s="17"/>
-      <c r="G268" s="153"/>
+      <c r="G268" s="56"/>
       <c r="H268" s="17"/>
       <c r="I268" s="19"/>
       <c r="J268" s="20"/>
@@ -5688,7 +5708,7 @@
       <c r="D269" s="22"/>
       <c r="E269" s="47"/>
       <c r="F269" s="23"/>
-      <c r="G269" s="154"/>
+      <c r="G269" s="57"/>
       <c r="H269" s="42"/>
       <c r="I269" s="25"/>
       <c r="J269" s="13"/>
@@ -5701,7 +5721,7 @@
       <c r="D270" s="17"/>
       <c r="E270" s="46"/>
       <c r="F270" s="17"/>
-      <c r="G270" s="153"/>
+      <c r="G270" s="56"/>
       <c r="H270" s="17"/>
       <c r="I270" s="19"/>
       <c r="J270" s="20"/>
@@ -5714,7 +5734,7 @@
       <c r="D271" s="31"/>
       <c r="E271" s="47"/>
       <c r="F271" s="32"/>
-      <c r="G271" s="154"/>
+      <c r="G271" s="57"/>
       <c r="H271" s="33"/>
       <c r="I271" s="25"/>
       <c r="J271" s="34"/>
@@ -5727,7 +5747,7 @@
       <c r="D272" s="36"/>
       <c r="E272" s="46"/>
       <c r="F272" s="36"/>
-      <c r="G272" s="153"/>
+      <c r="G272" s="56"/>
       <c r="H272" s="36"/>
       <c r="I272" s="19"/>
       <c r="J272" s="37"/>
@@ -5740,7 +5760,7 @@
       <c r="D273" s="31"/>
       <c r="E273" s="47"/>
       <c r="F273" s="32"/>
-      <c r="G273" s="154"/>
+      <c r="G273" s="57"/>
       <c r="H273" s="33"/>
       <c r="I273" s="25"/>
       <c r="J273" s="34"/>
@@ -5748,85 +5768,85 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274"/>
-      <c r="B274" s="63"/>
-      <c r="C274" s="64"/>
-      <c r="D274" s="64"/>
-      <c r="E274" s="64"/>
-      <c r="F274" s="64"/>
-      <c r="G274" s="64"/>
-      <c r="H274" s="64"/>
-      <c r="I274" s="64"/>
-      <c r="J274" s="64"/>
-      <c r="K274" s="58"/>
+      <c r="B274" s="152"/>
+      <c r="C274" s="153"/>
+      <c r="D274" s="153"/>
+      <c r="E274" s="153"/>
+      <c r="F274" s="153"/>
+      <c r="G274" s="153"/>
+      <c r="H274" s="153"/>
+      <c r="I274" s="153"/>
+      <c r="J274" s="153"/>
+      <c r="K274" s="151"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276"/>
-      <c r="B276" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C276" s="66"/>
-      <c r="D276" s="66"/>
-      <c r="E276" s="66"/>
-      <c r="F276" s="66"/>
-      <c r="G276" s="66"/>
-      <c r="H276" s="66"/>
-      <c r="I276" s="66"/>
-      <c r="J276" s="66"/>
-      <c r="K276" s="67"/>
+      <c r="B276" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C276" s="143"/>
+      <c r="D276" s="143"/>
+      <c r="E276" s="143"/>
+      <c r="F276" s="143"/>
+      <c r="G276" s="143"/>
+      <c r="H276" s="143"/>
+      <c r="I276" s="143"/>
+      <c r="J276" s="143"/>
+      <c r="K276" s="144"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277"/>
-      <c r="B277" s="68"/>
-      <c r="C277" s="69"/>
-      <c r="D277" s="69"/>
-      <c r="E277" s="69"/>
-      <c r="F277" s="69"/>
-      <c r="G277" s="69"/>
-      <c r="H277" s="69"/>
-      <c r="I277" s="69"/>
-      <c r="J277" s="69"/>
-      <c r="K277" s="70"/>
+      <c r="B277" s="145"/>
+      <c r="C277" s="146"/>
+      <c r="D277" s="146"/>
+      <c r="E277" s="146"/>
+      <c r="F277" s="146"/>
+      <c r="G277" s="146"/>
+      <c r="H277" s="146"/>
+      <c r="I277" s="146"/>
+      <c r="J277" s="146"/>
+      <c r="K277" s="147"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278"/>
-      <c r="B278" s="71">
+      <c r="B278" s="137">
         <f>J265+3</f>
         <v>46118</v>
       </c>
-      <c r="C278" s="72"/>
-      <c r="D278" s="73">
+      <c r="C278" s="138"/>
+      <c r="D278" s="139">
         <f>B278+1</f>
         <v>46119</v>
       </c>
-      <c r="E278" s="72"/>
-      <c r="F278" s="74">
+      <c r="E278" s="138"/>
+      <c r="F278" s="140">
         <f>D278+1</f>
         <v>46120</v>
       </c>
-      <c r="G278" s="72"/>
-      <c r="H278" s="75">
+      <c r="G278" s="138"/>
+      <c r="H278" s="141">
         <f>F278+1</f>
         <v>46121</v>
       </c>
-      <c r="I278" s="72"/>
-      <c r="J278" s="76">
+      <c r="I278" s="138"/>
+      <c r="J278" s="142">
         <f>H278+1</f>
         <v>46122</v>
       </c>
-      <c r="K278" s="72"/>
+      <c r="K278" s="138"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279"/>
-      <c r="B279" s="57"/>
-      <c r="C279" s="58"/>
-      <c r="D279" s="59"/>
-      <c r="E279" s="58"/>
-      <c r="F279" s="60"/>
-      <c r="G279" s="58"/>
-      <c r="H279" s="61"/>
-      <c r="I279" s="58"/>
-      <c r="J279" s="62"/>
-      <c r="K279" s="58"/>
+      <c r="B279" s="83"/>
+      <c r="C279" s="151"/>
+      <c r="D279" s="81"/>
+      <c r="E279" s="151"/>
+      <c r="F279" s="79"/>
+      <c r="G279" s="151"/>
+      <c r="H279" s="77"/>
+      <c r="I279" s="151"/>
+      <c r="J279" s="75"/>
+      <c r="K279" s="151"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280"/>
@@ -5931,85 +5951,85 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287"/>
-      <c r="B287" s="63"/>
-      <c r="C287" s="64"/>
-      <c r="D287" s="64"/>
-      <c r="E287" s="64"/>
-      <c r="F287" s="64"/>
-      <c r="G287" s="64"/>
-      <c r="H287" s="64"/>
-      <c r="I287" s="64"/>
-      <c r="J287" s="64"/>
-      <c r="K287" s="58"/>
+      <c r="B287" s="152"/>
+      <c r="C287" s="153"/>
+      <c r="D287" s="153"/>
+      <c r="E287" s="153"/>
+      <c r="F287" s="153"/>
+      <c r="G287" s="153"/>
+      <c r="H287" s="153"/>
+      <c r="I287" s="153"/>
+      <c r="J287" s="153"/>
+      <c r="K287" s="151"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289"/>
-      <c r="B289" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="C289" s="66"/>
-      <c r="D289" s="66"/>
-      <c r="E289" s="66"/>
-      <c r="F289" s="66"/>
-      <c r="G289" s="66"/>
-      <c r="H289" s="66"/>
-      <c r="I289" s="66"/>
-      <c r="J289" s="66"/>
-      <c r="K289" s="67"/>
+      <c r="B289" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C289" s="143"/>
+      <c r="D289" s="143"/>
+      <c r="E289" s="143"/>
+      <c r="F289" s="143"/>
+      <c r="G289" s="143"/>
+      <c r="H289" s="143"/>
+      <c r="I289" s="143"/>
+      <c r="J289" s="143"/>
+      <c r="K289" s="144"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290"/>
-      <c r="B290" s="68"/>
-      <c r="C290" s="69"/>
-      <c r="D290" s="69"/>
-      <c r="E290" s="69"/>
-      <c r="F290" s="69"/>
-      <c r="G290" s="69"/>
-      <c r="H290" s="69"/>
-      <c r="I290" s="69"/>
-      <c r="J290" s="69"/>
-      <c r="K290" s="70"/>
+      <c r="B290" s="145"/>
+      <c r="C290" s="146"/>
+      <c r="D290" s="146"/>
+      <c r="E290" s="146"/>
+      <c r="F290" s="146"/>
+      <c r="G290" s="146"/>
+      <c r="H290" s="146"/>
+      <c r="I290" s="146"/>
+      <c r="J290" s="146"/>
+      <c r="K290" s="147"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291"/>
-      <c r="B291" s="71">
+      <c r="B291" s="137">
         <f>J278+3</f>
         <v>46125</v>
       </c>
-      <c r="C291" s="72"/>
-      <c r="D291" s="73">
+      <c r="C291" s="138"/>
+      <c r="D291" s="139">
         <f>B291+1</f>
         <v>46126</v>
       </c>
-      <c r="E291" s="72"/>
-      <c r="F291" s="74">
+      <c r="E291" s="138"/>
+      <c r="F291" s="140">
         <f>D291+1</f>
         <v>46127</v>
       </c>
-      <c r="G291" s="72"/>
-      <c r="H291" s="75">
+      <c r="G291" s="138"/>
+      <c r="H291" s="141">
         <f>F291+1</f>
         <v>46128</v>
       </c>
-      <c r="I291" s="72"/>
-      <c r="J291" s="76">
+      <c r="I291" s="138"/>
+      <c r="J291" s="142">
         <f>H291+1</f>
         <v>46129</v>
       </c>
-      <c r="K291" s="72"/>
+      <c r="K291" s="138"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292"/>
-      <c r="B292" s="57"/>
-      <c r="C292" s="58"/>
-      <c r="D292" s="59"/>
-      <c r="E292" s="58"/>
-      <c r="F292" s="60"/>
-      <c r="G292" s="58"/>
-      <c r="H292" s="61"/>
-      <c r="I292" s="58"/>
-      <c r="J292" s="62"/>
-      <c r="K292" s="58"/>
+      <c r="B292" s="83"/>
+      <c r="C292" s="151"/>
+      <c r="D292" s="81"/>
+      <c r="E292" s="151"/>
+      <c r="F292" s="79"/>
+      <c r="G292" s="151"/>
+      <c r="H292" s="77"/>
+      <c r="I292" s="151"/>
+      <c r="J292" s="75"/>
+      <c r="K292" s="151"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293"/>
@@ -6114,85 +6134,85 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300"/>
-      <c r="B300" s="63"/>
-      <c r="C300" s="64"/>
-      <c r="D300" s="64"/>
-      <c r="E300" s="64"/>
-      <c r="F300" s="64"/>
-      <c r="G300" s="64"/>
-      <c r="H300" s="64"/>
-      <c r="I300" s="64"/>
-      <c r="J300" s="64"/>
-      <c r="K300" s="58"/>
+      <c r="B300" s="152"/>
+      <c r="C300" s="153"/>
+      <c r="D300" s="153"/>
+      <c r="E300" s="153"/>
+      <c r="F300" s="153"/>
+      <c r="G300" s="153"/>
+      <c r="H300" s="153"/>
+      <c r="I300" s="153"/>
+      <c r="J300" s="153"/>
+      <c r="K300" s="151"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302"/>
-      <c r="B302" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C302" s="66"/>
-      <c r="D302" s="66"/>
-      <c r="E302" s="66"/>
-      <c r="F302" s="66"/>
-      <c r="G302" s="66"/>
-      <c r="H302" s="66"/>
-      <c r="I302" s="66"/>
-      <c r="J302" s="66"/>
-      <c r="K302" s="67"/>
+      <c r="B302" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C302" s="143"/>
+      <c r="D302" s="143"/>
+      <c r="E302" s="143"/>
+      <c r="F302" s="143"/>
+      <c r="G302" s="143"/>
+      <c r="H302" s="143"/>
+      <c r="I302" s="143"/>
+      <c r="J302" s="143"/>
+      <c r="K302" s="144"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303"/>
-      <c r="B303" s="68"/>
-      <c r="C303" s="69"/>
-      <c r="D303" s="69"/>
-      <c r="E303" s="69"/>
-      <c r="F303" s="69"/>
-      <c r="G303" s="69"/>
-      <c r="H303" s="69"/>
-      <c r="I303" s="69"/>
-      <c r="J303" s="69"/>
-      <c r="K303" s="70"/>
+      <c r="B303" s="145"/>
+      <c r="C303" s="146"/>
+      <c r="D303" s="146"/>
+      <c r="E303" s="146"/>
+      <c r="F303" s="146"/>
+      <c r="G303" s="146"/>
+      <c r="H303" s="146"/>
+      <c r="I303" s="146"/>
+      <c r="J303" s="146"/>
+      <c r="K303" s="147"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304"/>
-      <c r="B304" s="71">
+      <c r="B304" s="137">
         <f>J291+3</f>
         <v>46132</v>
       </c>
-      <c r="C304" s="72"/>
-      <c r="D304" s="73">
+      <c r="C304" s="138"/>
+      <c r="D304" s="139">
         <f>B304+1</f>
         <v>46133</v>
       </c>
-      <c r="E304" s="72"/>
-      <c r="F304" s="74">
+      <c r="E304" s="138"/>
+      <c r="F304" s="140">
         <f>D304+1</f>
         <v>46134</v>
       </c>
-      <c r="G304" s="72"/>
-      <c r="H304" s="75">
+      <c r="G304" s="138"/>
+      <c r="H304" s="141">
         <f>F304+1</f>
         <v>46135</v>
       </c>
-      <c r="I304" s="72"/>
-      <c r="J304" s="76">
+      <c r="I304" s="138"/>
+      <c r="J304" s="142">
         <f>H304+1</f>
         <v>46136</v>
       </c>
-      <c r="K304" s="72"/>
+      <c r="K304" s="138"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305"/>
-      <c r="B305" s="57"/>
-      <c r="C305" s="58"/>
-      <c r="D305" s="59"/>
-      <c r="E305" s="58"/>
-      <c r="F305" s="60"/>
-      <c r="G305" s="58"/>
-      <c r="H305" s="61"/>
-      <c r="I305" s="58"/>
-      <c r="J305" s="62"/>
-      <c r="K305" s="58"/>
+      <c r="B305" s="83"/>
+      <c r="C305" s="151"/>
+      <c r="D305" s="81"/>
+      <c r="E305" s="151"/>
+      <c r="F305" s="79"/>
+      <c r="G305" s="151"/>
+      <c r="H305" s="77"/>
+      <c r="I305" s="151"/>
+      <c r="J305" s="75"/>
+      <c r="K305" s="151"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306"/>
@@ -6297,85 +6317,85 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313"/>
-      <c r="B313" s="63"/>
-      <c r="C313" s="64"/>
-      <c r="D313" s="64"/>
-      <c r="E313" s="64"/>
-      <c r="F313" s="64"/>
-      <c r="G313" s="64"/>
-      <c r="H313" s="64"/>
-      <c r="I313" s="64"/>
-      <c r="J313" s="64"/>
-      <c r="K313" s="58"/>
+      <c r="B313" s="152"/>
+      <c r="C313" s="153"/>
+      <c r="D313" s="153"/>
+      <c r="E313" s="153"/>
+      <c r="F313" s="153"/>
+      <c r="G313" s="153"/>
+      <c r="H313" s="153"/>
+      <c r="I313" s="153"/>
+      <c r="J313" s="153"/>
+      <c r="K313" s="151"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315"/>
-      <c r="B315" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="C315" s="66"/>
-      <c r="D315" s="66"/>
-      <c r="E315" s="66"/>
-      <c r="F315" s="66"/>
-      <c r="G315" s="66"/>
-      <c r="H315" s="66"/>
-      <c r="I315" s="66"/>
-      <c r="J315" s="66"/>
-      <c r="K315" s="67"/>
+      <c r="B315" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C315" s="143"/>
+      <c r="D315" s="143"/>
+      <c r="E315" s="143"/>
+      <c r="F315" s="143"/>
+      <c r="G315" s="143"/>
+      <c r="H315" s="143"/>
+      <c r="I315" s="143"/>
+      <c r="J315" s="143"/>
+      <c r="K315" s="144"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316"/>
-      <c r="B316" s="68"/>
-      <c r="C316" s="69"/>
-      <c r="D316" s="69"/>
-      <c r="E316" s="69"/>
-      <c r="F316" s="69"/>
-      <c r="G316" s="69"/>
-      <c r="H316" s="69"/>
-      <c r="I316" s="69"/>
-      <c r="J316" s="69"/>
-      <c r="K316" s="70"/>
+      <c r="B316" s="145"/>
+      <c r="C316" s="146"/>
+      <c r="D316" s="146"/>
+      <c r="E316" s="146"/>
+      <c r="F316" s="146"/>
+      <c r="G316" s="146"/>
+      <c r="H316" s="146"/>
+      <c r="I316" s="146"/>
+      <c r="J316" s="146"/>
+      <c r="K316" s="147"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317"/>
-      <c r="B317" s="71">
+      <c r="B317" s="137">
         <f>J304+3</f>
         <v>46139</v>
       </c>
-      <c r="C317" s="72"/>
-      <c r="D317" s="73">
+      <c r="C317" s="138"/>
+      <c r="D317" s="139">
         <f>B317+1</f>
         <v>46140</v>
       </c>
-      <c r="E317" s="72"/>
-      <c r="F317" s="74">
+      <c r="E317" s="138"/>
+      <c r="F317" s="140">
         <f>D317+1</f>
         <v>46141</v>
       </c>
-      <c r="G317" s="72"/>
-      <c r="H317" s="75">
+      <c r="G317" s="138"/>
+      <c r="H317" s="141">
         <f>F317+1</f>
         <v>46142</v>
       </c>
-      <c r="I317" s="72"/>
-      <c r="J317" s="76">
+      <c r="I317" s="138"/>
+      <c r="J317" s="142">
         <f>H317+1</f>
         <v>46143</v>
       </c>
-      <c r="K317" s="72"/>
+      <c r="K317" s="138"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318"/>
-      <c r="B318" s="57"/>
-      <c r="C318" s="58"/>
-      <c r="D318" s="59"/>
-      <c r="E318" s="58"/>
-      <c r="F318" s="60"/>
-      <c r="G318" s="58"/>
-      <c r="H318" s="61"/>
-      <c r="I318" s="58"/>
-      <c r="J318" s="62"/>
-      <c r="K318" s="58"/>
+      <c r="B318" s="83"/>
+      <c r="C318" s="151"/>
+      <c r="D318" s="81"/>
+      <c r="E318" s="151"/>
+      <c r="F318" s="79"/>
+      <c r="G318" s="151"/>
+      <c r="H318" s="77"/>
+      <c r="I318" s="151"/>
+      <c r="J318" s="75"/>
+      <c r="K318" s="151"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319"/>
@@ -6480,85 +6500,85 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326"/>
-      <c r="B326" s="63"/>
-      <c r="C326" s="64"/>
-      <c r="D326" s="64"/>
-      <c r="E326" s="64"/>
-      <c r="F326" s="64"/>
-      <c r="G326" s="64"/>
-      <c r="H326" s="64"/>
-      <c r="I326" s="64"/>
-      <c r="J326" s="64"/>
-      <c r="K326" s="58"/>
+      <c r="B326" s="152"/>
+      <c r="C326" s="153"/>
+      <c r="D326" s="153"/>
+      <c r="E326" s="153"/>
+      <c r="F326" s="153"/>
+      <c r="G326" s="153"/>
+      <c r="H326" s="153"/>
+      <c r="I326" s="153"/>
+      <c r="J326" s="153"/>
+      <c r="K326" s="151"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328"/>
-      <c r="B328" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C328" s="66"/>
-      <c r="D328" s="66"/>
-      <c r="E328" s="66"/>
-      <c r="F328" s="66"/>
-      <c r="G328" s="66"/>
-      <c r="H328" s="66"/>
-      <c r="I328" s="66"/>
-      <c r="J328" s="66"/>
-      <c r="K328" s="67"/>
+      <c r="B328" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C328" s="143"/>
+      <c r="D328" s="143"/>
+      <c r="E328" s="143"/>
+      <c r="F328" s="143"/>
+      <c r="G328" s="143"/>
+      <c r="H328" s="143"/>
+      <c r="I328" s="143"/>
+      <c r="J328" s="143"/>
+      <c r="K328" s="144"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329"/>
-      <c r="B329" s="68"/>
-      <c r="C329" s="69"/>
-      <c r="D329" s="69"/>
-      <c r="E329" s="69"/>
-      <c r="F329" s="69"/>
-      <c r="G329" s="69"/>
-      <c r="H329" s="69"/>
-      <c r="I329" s="69"/>
-      <c r="J329" s="69"/>
-      <c r="K329" s="70"/>
+      <c r="B329" s="145"/>
+      <c r="C329" s="146"/>
+      <c r="D329" s="146"/>
+      <c r="E329" s="146"/>
+      <c r="F329" s="146"/>
+      <c r="G329" s="146"/>
+      <c r="H329" s="146"/>
+      <c r="I329" s="146"/>
+      <c r="J329" s="146"/>
+      <c r="K329" s="147"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330"/>
-      <c r="B330" s="71">
+      <c r="B330" s="137">
         <f>J317+3</f>
         <v>46146</v>
       </c>
-      <c r="C330" s="72"/>
-      <c r="D330" s="73">
+      <c r="C330" s="138"/>
+      <c r="D330" s="139">
         <f>B330+1</f>
         <v>46147</v>
       </c>
-      <c r="E330" s="72"/>
-      <c r="F330" s="74">
+      <c r="E330" s="138"/>
+      <c r="F330" s="140">
         <f>D330+1</f>
         <v>46148</v>
       </c>
-      <c r="G330" s="72"/>
-      <c r="H330" s="75">
+      <c r="G330" s="138"/>
+      <c r="H330" s="141">
         <f>F330+1</f>
         <v>46149</v>
       </c>
-      <c r="I330" s="72"/>
-      <c r="J330" s="76">
+      <c r="I330" s="138"/>
+      <c r="J330" s="142">
         <f>H330+1</f>
         <v>46150</v>
       </c>
-      <c r="K330" s="72"/>
+      <c r="K330" s="138"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331"/>
-      <c r="B331" s="57"/>
-      <c r="C331" s="58"/>
-      <c r="D331" s="59"/>
-      <c r="E331" s="58"/>
-      <c r="F331" s="60"/>
-      <c r="G331" s="58"/>
-      <c r="H331" s="61"/>
-      <c r="I331" s="58"/>
-      <c r="J331" s="62"/>
-      <c r="K331" s="58"/>
+      <c r="B331" s="83"/>
+      <c r="C331" s="151"/>
+      <c r="D331" s="81"/>
+      <c r="E331" s="151"/>
+      <c r="F331" s="79"/>
+      <c r="G331" s="151"/>
+      <c r="H331" s="77"/>
+      <c r="I331" s="151"/>
+      <c r="J331" s="75"/>
+      <c r="K331" s="151"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332"/>
@@ -6663,318 +6683,19 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339"/>
-      <c r="B339" s="63"/>
-      <c r="C339" s="64"/>
-      <c r="D339" s="64"/>
-      <c r="E339" s="64"/>
-      <c r="F339" s="64"/>
-      <c r="G339" s="64"/>
-      <c r="H339" s="64"/>
-      <c r="I339" s="64"/>
-      <c r="J339" s="64"/>
-      <c r="K339" s="58"/>
+      <c r="B339" s="152"/>
+      <c r="C339" s="153"/>
+      <c r="D339" s="153"/>
+      <c r="E339" s="153"/>
+      <c r="F339" s="153"/>
+      <c r="G339" s="153"/>
+      <c r="H339" s="153"/>
+      <c r="I339" s="153"/>
+      <c r="J339" s="153"/>
+      <c r="K339" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="323">
-    <mergeCell ref="B13:K14"/>
-    <mergeCell ref="J82:K88"/>
-    <mergeCell ref="J95:K101"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B1:C7"/>
-    <mergeCell ref="D1:I6"/>
-    <mergeCell ref="J1:K7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B26:K27"/>
-    <mergeCell ref="B39:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B52:K53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B65:K66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B56:C62"/>
-    <mergeCell ref="B78:K79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B91:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B89:K89"/>
-    <mergeCell ref="H82:I88"/>
-    <mergeCell ref="F82:G88"/>
-    <mergeCell ref="B104:K105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="H95:I101"/>
-    <mergeCell ref="F95:G101"/>
-    <mergeCell ref="B120:K121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="B118:K118"/>
-    <mergeCell ref="B133:K134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="B131:K131"/>
-    <mergeCell ref="B146:K147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="B144:K144"/>
-    <mergeCell ref="B159:K160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B157:K157"/>
-    <mergeCell ref="B172:K173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="B170:K170"/>
-    <mergeCell ref="B185:K186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="B183:K183"/>
-    <mergeCell ref="B198:K199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="B196:K196"/>
-    <mergeCell ref="B211:K212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="B209:K209"/>
-    <mergeCell ref="B224:K225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="B222:K222"/>
-    <mergeCell ref="B237:K238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="B235:K235"/>
-    <mergeCell ref="B250:K251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="F252:G252"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="B248:K248"/>
-    <mergeCell ref="B263:K264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="B261:K261"/>
-    <mergeCell ref="B276:K277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="F278:G278"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="F266:G266"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="B274:K274"/>
-    <mergeCell ref="B289:K290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="B287:K287"/>
-    <mergeCell ref="B302:K303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="B300:K300"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="B313:K313"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -6999,17 +6720,316 @@
     <mergeCell ref="B315:K316"/>
     <mergeCell ref="B317:C317"/>
     <mergeCell ref="D317:E317"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="B313:K313"/>
+    <mergeCell ref="B302:K303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="B300:K300"/>
+    <mergeCell ref="B289:K290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="B287:K287"/>
+    <mergeCell ref="B276:K277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="B274:K274"/>
+    <mergeCell ref="B263:K264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="B261:K261"/>
+    <mergeCell ref="B250:K251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="B248:K248"/>
+    <mergeCell ref="B237:K238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="B235:K235"/>
+    <mergeCell ref="B224:K225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="B222:K222"/>
+    <mergeCell ref="B211:K212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="B209:K209"/>
+    <mergeCell ref="B198:K199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="B196:K196"/>
+    <mergeCell ref="B185:K186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="B183:K183"/>
+    <mergeCell ref="B172:K173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="B170:K170"/>
+    <mergeCell ref="B159:K160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B157:K157"/>
+    <mergeCell ref="B146:K147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="B144:K144"/>
+    <mergeCell ref="B133:K134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="B131:K131"/>
+    <mergeCell ref="B120:K121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="B118:K118"/>
+    <mergeCell ref="B104:K105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="H95:I101"/>
+    <mergeCell ref="F95:G101"/>
+    <mergeCell ref="B91:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B89:K89"/>
+    <mergeCell ref="H82:I88"/>
+    <mergeCell ref="F82:G88"/>
+    <mergeCell ref="B78:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B65:K66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B56:C62"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B52:K53"/>
+    <mergeCell ref="B1:C7"/>
+    <mergeCell ref="D1:I6"/>
+    <mergeCell ref="J1:K7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="B13:K14"/>
+    <mergeCell ref="J82:K88"/>
+    <mergeCell ref="J95:K101"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B26:K27"/>
+    <mergeCell ref="B39:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>
     <hyperlink ref="B8" r:id="rId2"/>
     <hyperlink ref="B8:C9" r:id="rId3" display="Repositorio Github"/>
     <hyperlink ref="D8:E9" r:id="rId4" display="Grabaciones de clases"/>
-    <hyperlink ref="J8" r:id="rId5"/>
-    <hyperlink ref="F42:G42" r:id="rId6" display="Grabación de la clase"/>
-    <hyperlink ref="B107:C107" r:id="rId7" display="Grabación de la clase"/>
-    <hyperlink ref="D107:E107" r:id="rId8" display="Grabación de la clase"/>
-    <hyperlink ref="F107:G107" r:id="rId9" display="Grabación de la clase"/>
+    <hyperlink ref="F42:G42" r:id="rId5" display="Grabación de la clase"/>
+    <hyperlink ref="B107:C107" r:id="rId6" display="Grabación de la clase"/>
+    <hyperlink ref="D107:E107" r:id="rId7" display="Grabación de la clase"/>
+    <hyperlink ref="F107:G107" r:id="rId8" display="Grabación de la clase"/>
+    <hyperlink ref="J8" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -240,9 +240,6 @@
     <t>Ejercicio grupal</t>
   </si>
   <si>
-    <t>Repaso</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parámetros por defecto y argumentos </t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>Ayudante:</t>
+  </si>
+  <si>
+    <t>Resolución de ejercicios bucles en grupos</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1173,9 +1173,70 @@
     <xf numFmtId="0" fontId="13" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1191,6 +1252,30 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1209,43 +1294,28 @@
     <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1254,32 +1324,16 @@
     <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1314,6 +1368,15 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1362,68 +1425,8 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1713,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G267" sqref="G267"/>
+    <sheetView tabSelected="1" topLeftCell="B97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107:I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1736,179 +1739,179 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="98" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="103"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="127"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="104"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="104"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="128"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="104"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="128"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="104"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="128"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="104"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="128"/>
     </row>
     <row r="7" spans="1:11" ht="18">
       <c r="A7" s="2"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="105"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="129"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="106" t="s">
+      <c r="C8" s="131"/>
+      <c r="D8" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="110" t="s">
+      <c r="E8" s="131"/>
+      <c r="F8" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="114" t="s">
+      <c r="G8" s="135"/>
+      <c r="H8" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="111"/>
-      <c r="J8" s="115" t="s">
+      <c r="I8" s="135"/>
+      <c r="J8" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="111"/>
+      <c r="K8" s="135"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="113"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="137"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="157"/>
-      <c r="H10" s="114" t="s">
+      <c r="B10" s="140"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="111"/>
-      <c r="J10" s="114" t="s">
+      <c r="G10" s="141"/>
+      <c r="H10" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="111"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="135"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="113"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="137"/>
     </row>
     <row r="12" spans="1:11" ht="2.25" hidden="1" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="156">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="154" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="63">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="96"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
@@ -1916,71 +1919,71 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5"/>
-      <c r="B15" s="93">
+      <c r="B15" s="107">
         <v>45978</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="91">
+      <c r="C15" s="108"/>
+      <c r="D15" s="109">
         <f>B15+1</f>
         <v>45979</v>
       </c>
-      <c r="E15" s="92"/>
-      <c r="F15" s="89">
+      <c r="E15" s="110"/>
+      <c r="F15" s="111">
         <f>D15+1</f>
         <v>45980</v>
       </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="87">
+      <c r="G15" s="112"/>
+      <c r="H15" s="113">
         <f>F15+1</f>
         <v>45981</v>
       </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="85">
+      <c r="I15" s="114"/>
+      <c r="J15" s="115">
         <f>H15+1</f>
         <v>45982</v>
       </c>
-      <c r="K15" s="86"/>
+      <c r="K15" s="116"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="76"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="97"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6"/>
@@ -2090,16 +2093,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="27"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="100"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2"/>
@@ -2116,72 +2119,72 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="129"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="156"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="132"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="159"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5"/>
-      <c r="B28" s="117">
+      <c r="B28" s="144">
         <f>J15+3</f>
         <v>45985</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="119">
+      <c r="C28" s="145"/>
+      <c r="D28" s="146">
         <f>B28+1</f>
         <v>45986</v>
       </c>
-      <c r="E28" s="120"/>
-      <c r="F28" s="121">
+      <c r="E28" s="147"/>
+      <c r="F28" s="148">
         <f>D28+1</f>
         <v>45987</v>
       </c>
-      <c r="G28" s="122"/>
-      <c r="H28" s="123">
+      <c r="G28" s="149"/>
+      <c r="H28" s="150">
         <f>F28+1</f>
         <v>45988</v>
       </c>
-      <c r="I28" s="124"/>
-      <c r="J28" s="125">
+      <c r="I28" s="151"/>
+      <c r="J28" s="152">
         <f>H28+1</f>
         <v>45989</v>
       </c>
-      <c r="K28" s="126"/>
+      <c r="K28" s="153"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="134"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="119"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="6"/>
@@ -2291,16 +2294,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="27"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="74"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="100"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2"/>
@@ -2317,74 +2320,74 @@
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="62"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="89"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="65"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="92"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2"/>
-      <c r="B41" s="93">
+      <c r="B41" s="107">
         <f>J28+3</f>
         <v>45992</v>
       </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="91">
+      <c r="C41" s="108"/>
+      <c r="D41" s="109">
         <f>B41+1</f>
         <v>45993</v>
       </c>
-      <c r="E41" s="92"/>
-      <c r="F41" s="89">
+      <c r="E41" s="110"/>
+      <c r="F41" s="111">
         <f>D41+1</f>
         <v>45994</v>
       </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="87">
+      <c r="G41" s="112"/>
+      <c r="H41" s="113">
         <f>F41+1</f>
         <v>45995</v>
       </c>
-      <c r="I41" s="88"/>
-      <c r="J41" s="85">
+      <c r="I41" s="114"/>
+      <c r="J41" s="115">
         <f>H41+1</f>
         <v>45996</v>
       </c>
-      <c r="K41" s="86"/>
+      <c r="K41" s="116"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="135" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="136"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="76"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="97"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2"/>
@@ -2522,16 +2525,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="74"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="100"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2"/>
@@ -2547,75 +2550,75 @@
       <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1">
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="62"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
+      <c r="K52" s="89"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="B53" s="63"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="65"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="91"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="92"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="B54" s="93">
+      <c r="B54" s="107">
         <f>J41+3</f>
         <v>45999</v>
       </c>
-      <c r="C54" s="94"/>
-      <c r="D54" s="91">
+      <c r="C54" s="108"/>
+      <c r="D54" s="109">
         <f>B54+1</f>
         <v>46000</v>
       </c>
-      <c r="E54" s="92"/>
-      <c r="F54" s="89">
+      <c r="E54" s="110"/>
+      <c r="F54" s="111">
         <f>D54+1</f>
         <v>46001</v>
       </c>
-      <c r="G54" s="90"/>
-      <c r="H54" s="87">
+      <c r="G54" s="112"/>
+      <c r="H54" s="113">
         <f>F54+1</f>
         <v>46002</v>
       </c>
-      <c r="I54" s="88"/>
-      <c r="J54" s="85">
+      <c r="I54" s="114"/>
+      <c r="J54" s="115">
         <f>H54+1</f>
         <v>46003</v>
       </c>
-      <c r="K54" s="86"/>
+      <c r="K54" s="116"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="B55" s="83"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="76"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="97"/>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1">
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="67"/>
+      <c r="C56" s="102"/>
       <c r="D56" s="40">
         <f>D12</f>
         <v>0.79166666666666663</v>
@@ -2646,8 +2649,8 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1">
-      <c r="B57" s="68"/>
-      <c r="C57" s="69"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="104"/>
       <c r="D57" s="17"/>
       <c r="E57" s="46" t="s">
         <v>33</v>
@@ -2662,8 +2665,8 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1">
-      <c r="B58" s="68"/>
-      <c r="C58" s="69"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="104"/>
       <c r="D58" s="22"/>
       <c r="E58" s="47" t="s">
         <v>34</v>
@@ -2678,8 +2681,8 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1">
-      <c r="B59" s="68"/>
-      <c r="C59" s="69"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="17"/>
       <c r="E59" s="46" t="s">
         <v>35</v>
@@ -2694,8 +2697,8 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1">
-      <c r="B60" s="68"/>
-      <c r="C60" s="69"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="104"/>
       <c r="D60" s="31"/>
       <c r="E60" s="47"/>
       <c r="F60" s="32"/>
@@ -2706,8 +2709,8 @@
       <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1">
-      <c r="B61" s="68"/>
-      <c r="C61" s="69"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="104"/>
       <c r="D61" s="36"/>
       <c r="E61" s="46"/>
       <c r="F61" s="36"/>
@@ -2722,8 +2725,8 @@
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1">
-      <c r="B62" s="70"/>
-      <c r="C62" s="71"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="106"/>
       <c r="D62" s="31"/>
       <c r="E62" s="47"/>
       <c r="F62" s="32"/>
@@ -2734,81 +2737,81 @@
       <c r="K62" s="48"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="B63" s="72"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="74"/>
+      <c r="B63" s="98"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+      <c r="K63" s="100"/>
     </row>
     <row r="65" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B65" s="60" t="s">
+      <c r="B65" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="62"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="88"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="89"/>
     </row>
     <row r="66" spans="2:11" customFormat="1">
-      <c r="B66" s="63"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="65"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="91"/>
+      <c r="J66" s="91"/>
+      <c r="K66" s="92"/>
     </row>
     <row r="67" spans="2:11" customFormat="1">
-      <c r="B67" s="93">
+      <c r="B67" s="107">
         <f>J54+3</f>
         <v>46006</v>
       </c>
-      <c r="C67" s="94"/>
-      <c r="D67" s="91">
+      <c r="C67" s="108"/>
+      <c r="D67" s="109">
         <f>B67+1</f>
         <v>46007</v>
       </c>
-      <c r="E67" s="92"/>
-      <c r="F67" s="89">
+      <c r="E67" s="110"/>
+      <c r="F67" s="111">
         <f>D67+1</f>
         <v>46008</v>
       </c>
-      <c r="G67" s="90"/>
-      <c r="H67" s="87">
+      <c r="G67" s="112"/>
+      <c r="H67" s="113">
         <f>F67+1</f>
         <v>46009</v>
       </c>
-      <c r="I67" s="88"/>
-      <c r="J67" s="85">
+      <c r="I67" s="114"/>
+      <c r="J67" s="115">
         <f>H67+1</f>
         <v>46010</v>
       </c>
-      <c r="K67" s="86"/>
+      <c r="K67" s="116"/>
     </row>
     <row r="68" spans="2:11" customFormat="1">
-      <c r="B68" s="83"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="76"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="94"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="97"/>
     </row>
     <row r="69" spans="2:11" customFormat="1">
       <c r="B69" s="39">
@@ -2910,81 +2913,81 @@
       <c r="K75" s="48"/>
     </row>
     <row r="76" spans="2:11" customFormat="1">
-      <c r="B76" s="72"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="73"/>
-      <c r="K76" s="74"/>
+      <c r="B76" s="98"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="99"/>
+      <c r="I76" s="99"/>
+      <c r="J76" s="99"/>
+      <c r="K76" s="100"/>
     </row>
     <row r="78" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="62"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="88"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="88"/>
+      <c r="J78" s="88"/>
+      <c r="K78" s="89"/>
     </row>
     <row r="79" spans="2:11" customFormat="1">
-      <c r="B79" s="63"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="64"/>
-      <c r="K79" s="65"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
+      <c r="F79" s="91"/>
+      <c r="G79" s="91"/>
+      <c r="H79" s="91"/>
+      <c r="I79" s="91"/>
+      <c r="J79" s="91"/>
+      <c r="K79" s="92"/>
     </row>
     <row r="80" spans="2:11" customFormat="1">
-      <c r="B80" s="93">
+      <c r="B80" s="107">
         <f>J67+3</f>
         <v>46013</v>
       </c>
-      <c r="C80" s="94"/>
-      <c r="D80" s="91">
+      <c r="C80" s="108"/>
+      <c r="D80" s="109">
         <f>B80+1</f>
         <v>46014</v>
       </c>
-      <c r="E80" s="92"/>
-      <c r="F80" s="89">
+      <c r="E80" s="110"/>
+      <c r="F80" s="111">
         <f>D80+1</f>
         <v>46015</v>
       </c>
-      <c r="G80" s="90"/>
-      <c r="H80" s="87">
+      <c r="G80" s="112"/>
+      <c r="H80" s="113">
         <f>F80+1</f>
         <v>46016</v>
       </c>
-      <c r="I80" s="88"/>
-      <c r="J80" s="85">
+      <c r="I80" s="114"/>
+      <c r="J80" s="115">
         <f>H80+1</f>
         <v>46017</v>
       </c>
-      <c r="K80" s="86"/>
+      <c r="K80" s="116"/>
     </row>
     <row r="81" spans="2:11" customFormat="1">
-      <c r="B81" s="83"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="81"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="79"/>
-      <c r="G81" s="80"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="78"/>
-      <c r="J81" s="75"/>
-      <c r="K81" s="76"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="93"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="94"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="95"/>
+      <c r="H81" s="68"/>
+      <c r="I81" s="96"/>
+      <c r="J81" s="69"/>
+      <c r="K81" s="97"/>
     </row>
     <row r="82" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B82" s="39">
@@ -2997,167 +3000,167 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E82" s="43"/>
-      <c r="F82" s="66" t="s">
+      <c r="F82" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="67"/>
-      <c r="H82" s="66" t="s">
+      <c r="G82" s="102"/>
+      <c r="H82" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="67"/>
-      <c r="J82" s="66" t="s">
+      <c r="I82" s="102"/>
+      <c r="J82" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="67"/>
+      <c r="K82" s="102"/>
     </row>
     <row r="83" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
       <c r="D83" s="17"/>
       <c r="E83" s="46"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="69"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="69"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="104"/>
+      <c r="H83" s="103"/>
+      <c r="I83" s="104"/>
+      <c r="J83" s="103"/>
+      <c r="K83" s="104"/>
     </row>
     <row r="84" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B84" s="7"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
       <c r="E84" s="47"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="69"/>
-      <c r="J84" s="68"/>
-      <c r="K84" s="69"/>
+      <c r="F84" s="103"/>
+      <c r="G84" s="104"/>
+      <c r="H84" s="103"/>
+      <c r="I84" s="104"/>
+      <c r="J84" s="103"/>
+      <c r="K84" s="104"/>
     </row>
     <row r="85" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="17"/>
       <c r="E85" s="46"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="69"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="69"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="69"/>
+      <c r="F85" s="103"/>
+      <c r="G85" s="104"/>
+      <c r="H85" s="103"/>
+      <c r="I85" s="104"/>
+      <c r="J85" s="103"/>
+      <c r="K85" s="104"/>
     </row>
     <row r="86" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B86" s="30"/>
       <c r="C86" s="21"/>
       <c r="D86" s="31"/>
       <c r="E86" s="47"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="69"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="69"/>
-      <c r="J86" s="68"/>
-      <c r="K86" s="69"/>
+      <c r="F86" s="103"/>
+      <c r="G86" s="104"/>
+      <c r="H86" s="103"/>
+      <c r="I86" s="104"/>
+      <c r="J86" s="103"/>
+      <c r="K86" s="104"/>
     </row>
     <row r="87" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B87" s="35"/>
       <c r="C87" s="15"/>
       <c r="D87" s="36"/>
       <c r="E87" s="46"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="68"/>
-      <c r="I87" s="69"/>
-      <c r="J87" s="68"/>
-      <c r="K87" s="69"/>
+      <c r="F87" s="103"/>
+      <c r="G87" s="104"/>
+      <c r="H87" s="103"/>
+      <c r="I87" s="104"/>
+      <c r="J87" s="103"/>
+      <c r="K87" s="104"/>
     </row>
     <row r="88" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B88" s="30"/>
       <c r="C88" s="21"/>
       <c r="D88" s="31"/>
       <c r="E88" s="47"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="70"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="70"/>
-      <c r="K88" s="71"/>
+      <c r="F88" s="105"/>
+      <c r="G88" s="106"/>
+      <c r="H88" s="105"/>
+      <c r="I88" s="106"/>
+      <c r="J88" s="105"/>
+      <c r="K88" s="106"/>
     </row>
     <row r="89" spans="2:11" customFormat="1">
-      <c r="B89" s="72"/>
-      <c r="C89" s="73"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="73"/>
-      <c r="I89" s="73"/>
-      <c r="J89" s="73"/>
-      <c r="K89" s="74"/>
+      <c r="B89" s="98"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="99"/>
+      <c r="F89" s="99"/>
+      <c r="G89" s="99"/>
+      <c r="H89" s="99"/>
+      <c r="I89" s="99"/>
+      <c r="J89" s="99"/>
+      <c r="K89" s="100"/>
     </row>
     <row r="91" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B91" s="60" t="s">
+      <c r="B91" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C91" s="61"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="61"/>
-      <c r="I91" s="61"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="62"/>
+      <c r="C91" s="88"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="88"/>
+      <c r="F91" s="88"/>
+      <c r="G91" s="88"/>
+      <c r="H91" s="88"/>
+      <c r="I91" s="88"/>
+      <c r="J91" s="88"/>
+      <c r="K91" s="89"/>
     </row>
     <row r="92" spans="2:11" customFormat="1">
-      <c r="B92" s="63"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="64"/>
-      <c r="H92" s="64"/>
-      <c r="I92" s="64"/>
-      <c r="J92" s="64"/>
-      <c r="K92" s="65"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="91"/>
+      <c r="E92" s="91"/>
+      <c r="F92" s="91"/>
+      <c r="G92" s="91"/>
+      <c r="H92" s="91"/>
+      <c r="I92" s="91"/>
+      <c r="J92" s="91"/>
+      <c r="K92" s="92"/>
     </row>
     <row r="93" spans="2:11" customFormat="1">
-      <c r="B93" s="93">
+      <c r="B93" s="107">
         <f>J80+3</f>
         <v>46020</v>
       </c>
-      <c r="C93" s="94"/>
-      <c r="D93" s="91">
+      <c r="C93" s="108"/>
+      <c r="D93" s="109">
         <f>B93+1</f>
         <v>46021</v>
       </c>
-      <c r="E93" s="92"/>
-      <c r="F93" s="89">
+      <c r="E93" s="110"/>
+      <c r="F93" s="111">
         <f>D93+1</f>
         <v>46022</v>
       </c>
-      <c r="G93" s="90"/>
-      <c r="H93" s="87">
+      <c r="G93" s="112"/>
+      <c r="H93" s="113">
         <f>F93+1</f>
         <v>46023</v>
       </c>
-      <c r="I93" s="88"/>
-      <c r="J93" s="85">
+      <c r="I93" s="114"/>
+      <c r="J93" s="115">
         <f>H93+1</f>
         <v>46024</v>
       </c>
-      <c r="K93" s="86"/>
+      <c r="K93" s="116"/>
     </row>
     <row r="94" spans="2:11" customFormat="1">
-      <c r="B94" s="83"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="79"/>
-      <c r="G94" s="80"/>
-      <c r="H94" s="77"/>
-      <c r="I94" s="78"/>
-      <c r="J94" s="75"/>
-      <c r="K94" s="76"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="93"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="94"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="95"/>
+      <c r="H94" s="68"/>
+      <c r="I94" s="96"/>
+      <c r="J94" s="69"/>
+      <c r="K94" s="97"/>
     </row>
     <row r="95" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B95" s="39">
@@ -3170,175 +3173,177 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E95" s="43"/>
-      <c r="F95" s="66" t="s">
+      <c r="F95" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="67"/>
-      <c r="H95" s="66" t="s">
+      <c r="G95" s="102"/>
+      <c r="H95" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="67"/>
-      <c r="J95" s="66" t="s">
+      <c r="I95" s="102"/>
+      <c r="J95" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="67"/>
+      <c r="K95" s="102"/>
     </row>
     <row r="96" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="17"/>
       <c r="E96" s="46"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="69"/>
-      <c r="H96" s="68"/>
-      <c r="I96" s="69"/>
-      <c r="J96" s="68"/>
-      <c r="K96" s="69"/>
+      <c r="F96" s="103"/>
+      <c r="G96" s="104"/>
+      <c r="H96" s="103"/>
+      <c r="I96" s="104"/>
+      <c r="J96" s="103"/>
+      <c r="K96" s="104"/>
     </row>
     <row r="97" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B97" s="7"/>
       <c r="C97" s="21"/>
       <c r="D97" s="22"/>
       <c r="E97" s="47"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="69"/>
-      <c r="H97" s="68"/>
-      <c r="I97" s="69"/>
-      <c r="J97" s="68"/>
-      <c r="K97" s="69"/>
+      <c r="F97" s="103"/>
+      <c r="G97" s="104"/>
+      <c r="H97" s="103"/>
+      <c r="I97" s="104"/>
+      <c r="J97" s="103"/>
+      <c r="K97" s="104"/>
     </row>
     <row r="98" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="17"/>
       <c r="E98" s="46"/>
-      <c r="F98" s="68"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="68"/>
-      <c r="I98" s="69"/>
-      <c r="J98" s="68"/>
-      <c r="K98" s="69"/>
+      <c r="F98" s="103"/>
+      <c r="G98" s="104"/>
+      <c r="H98" s="103"/>
+      <c r="I98" s="104"/>
+      <c r="J98" s="103"/>
+      <c r="K98" s="104"/>
     </row>
     <row r="99" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B99" s="30"/>
       <c r="C99" s="21"/>
       <c r="D99" s="31"/>
       <c r="E99" s="47"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="69"/>
-      <c r="J99" s="68"/>
-      <c r="K99" s="69"/>
+      <c r="F99" s="103"/>
+      <c r="G99" s="104"/>
+      <c r="H99" s="103"/>
+      <c r="I99" s="104"/>
+      <c r="J99" s="103"/>
+      <c r="K99" s="104"/>
     </row>
     <row r="100" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B100" s="35"/>
       <c r="C100" s="15"/>
       <c r="D100" s="36"/>
       <c r="E100" s="46"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="68"/>
-      <c r="I100" s="69"/>
-      <c r="J100" s="68"/>
-      <c r="K100" s="69"/>
+      <c r="F100" s="103"/>
+      <c r="G100" s="104"/>
+      <c r="H100" s="103"/>
+      <c r="I100" s="104"/>
+      <c r="J100" s="103"/>
+      <c r="K100" s="104"/>
     </row>
     <row r="101" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B101" s="30"/>
       <c r="C101" s="21"/>
       <c r="D101" s="31"/>
       <c r="E101" s="47"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="71"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="71"/>
-      <c r="J101" s="70"/>
-      <c r="K101" s="71"/>
+      <c r="F101" s="105"/>
+      <c r="G101" s="106"/>
+      <c r="H101" s="105"/>
+      <c r="I101" s="106"/>
+      <c r="J101" s="105"/>
+      <c r="K101" s="106"/>
     </row>
     <row r="102" spans="2:11" customFormat="1">
-      <c r="B102" s="72"/>
-      <c r="C102" s="73"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="73"/>
-      <c r="H102" s="73"/>
-      <c r="I102" s="73"/>
-      <c r="J102" s="73"/>
-      <c r="K102" s="74"/>
+      <c r="B102" s="98"/>
+      <c r="C102" s="99"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="99"/>
+      <c r="F102" s="99"/>
+      <c r="G102" s="99"/>
+      <c r="H102" s="99"/>
+      <c r="I102" s="99"/>
+      <c r="J102" s="99"/>
+      <c r="K102" s="100"/>
     </row>
     <row r="104" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B104" s="60" t="s">
+      <c r="B104" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="61"/>
-      <c r="D104" s="61"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="61"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="61"/>
-      <c r="J104" s="61"/>
-      <c r="K104" s="62"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="88"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="88"/>
+      <c r="I104" s="88"/>
+      <c r="J104" s="88"/>
+      <c r="K104" s="89"/>
     </row>
     <row r="105" spans="2:11" customFormat="1">
-      <c r="B105" s="63"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="65"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="91"/>
+      <c r="D105" s="91"/>
+      <c r="E105" s="91"/>
+      <c r="F105" s="91"/>
+      <c r="G105" s="91"/>
+      <c r="H105" s="91"/>
+      <c r="I105" s="91"/>
+      <c r="J105" s="91"/>
+      <c r="K105" s="92"/>
     </row>
     <row r="106" spans="2:11" customFormat="1">
-      <c r="B106" s="137">
+      <c r="B106" s="78">
         <f>J93+3</f>
         <v>46027</v>
       </c>
-      <c r="C106" s="138"/>
-      <c r="D106" s="139">
+      <c r="C106" s="79"/>
+      <c r="D106" s="80">
         <f>B106+1</f>
         <v>46028</v>
       </c>
-      <c r="E106" s="138"/>
-      <c r="F106" s="140">
+      <c r="E106" s="79"/>
+      <c r="F106" s="81">
         <f>D106+1</f>
         <v>46029</v>
       </c>
-      <c r="G106" s="138"/>
-      <c r="H106" s="141">
+      <c r="G106" s="79"/>
+      <c r="H106" s="82">
         <f>F106+1</f>
         <v>46030</v>
       </c>
-      <c r="I106" s="138"/>
-      <c r="J106" s="142">
+      <c r="I106" s="79"/>
+      <c r="J106" s="83">
         <f>H106+1</f>
         <v>46031</v>
       </c>
-      <c r="K106" s="138"/>
+      <c r="K106" s="79"/>
     </row>
     <row r="107" spans="2:11" customFormat="1">
-      <c r="B107" s="148" t="s">
+      <c r="B107" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="149"/>
-      <c r="D107" s="150" t="s">
+      <c r="C107" s="85"/>
+      <c r="D107" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="149"/>
-      <c r="F107" s="135" t="s">
+      <c r="E107" s="85"/>
+      <c r="F107" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="G107" s="149"/>
-      <c r="H107" s="77"/>
-      <c r="I107" s="151"/>
-      <c r="J107" s="75"/>
-      <c r="K107" s="151"/>
-    </row>
-    <row r="108" spans="2:11" customFormat="1">
+      <c r="G107" s="85"/>
+      <c r="H107" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" s="85"/>
+      <c r="J107" s="69"/>
+      <c r="K107" s="65"/>
+    </row>
+    <row r="108" spans="2:11" customFormat="1" ht="26.25">
       <c r="B108" s="39">
         <f>D12</f>
         <v>0.79166666666666663</v>
@@ -3372,7 +3377,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="K108" s="45" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="2:11" customFormat="1" ht="26.25">
@@ -3394,7 +3399,7 @@
       </c>
       <c r="J109" s="20"/>
       <c r="K109" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="2:11" customFormat="1">
@@ -3416,7 +3421,7 @@
       </c>
       <c r="J110" s="13"/>
       <c r="K110" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="2:11" customFormat="1">
@@ -3434,7 +3439,7 @@
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
       <c r="K111" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="2:11" customFormat="1" ht="39">
@@ -3449,9 +3454,7 @@
       <c r="H112" s="33"/>
       <c r="I112" s="25"/>
       <c r="J112" s="34"/>
-      <c r="K112" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="K112" s="26"/>
     </row>
     <row r="113" spans="1:11">
       <c r="A113"/>
@@ -3530,85 +3533,85 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118"/>
-      <c r="B118" s="152"/>
-      <c r="C118" s="153"/>
-      <c r="D118" s="153"/>
-      <c r="E118" s="153"/>
-      <c r="F118" s="153"/>
-      <c r="G118" s="153"/>
-      <c r="H118" s="153"/>
-      <c r="I118" s="153"/>
-      <c r="J118" s="153"/>
-      <c r="K118" s="151"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="71"/>
+      <c r="D118" s="71"/>
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="71"/>
+      <c r="J118" s="71"/>
+      <c r="K118" s="65"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120"/>
-      <c r="B120" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C120" s="143"/>
-      <c r="D120" s="143"/>
-      <c r="E120" s="143"/>
-      <c r="F120" s="143"/>
-      <c r="G120" s="143"/>
-      <c r="H120" s="143"/>
-      <c r="I120" s="143"/>
-      <c r="J120" s="143"/>
-      <c r="K120" s="144"/>
+      <c r="B120" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" s="73"/>
+      <c r="D120" s="73"/>
+      <c r="E120" s="73"/>
+      <c r="F120" s="73"/>
+      <c r="G120" s="73"/>
+      <c r="H120" s="73"/>
+      <c r="I120" s="73"/>
+      <c r="J120" s="73"/>
+      <c r="K120" s="74"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121"/>
-      <c r="B121" s="145"/>
-      <c r="C121" s="146"/>
-      <c r="D121" s="146"/>
-      <c r="E121" s="146"/>
-      <c r="F121" s="146"/>
-      <c r="G121" s="146"/>
-      <c r="H121" s="146"/>
-      <c r="I121" s="146"/>
-      <c r="J121" s="146"/>
-      <c r="K121" s="147"/>
+      <c r="B121" s="75"/>
+      <c r="C121" s="76"/>
+      <c r="D121" s="76"/>
+      <c r="E121" s="76"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="76"/>
+      <c r="I121" s="76"/>
+      <c r="J121" s="76"/>
+      <c r="K121" s="77"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122"/>
-      <c r="B122" s="137">
+      <c r="B122" s="78">
         <f>J106+3</f>
         <v>46034</v>
       </c>
-      <c r="C122" s="138"/>
-      <c r="D122" s="139">
+      <c r="C122" s="79"/>
+      <c r="D122" s="80">
         <f>B122+1</f>
         <v>46035</v>
       </c>
-      <c r="E122" s="138"/>
-      <c r="F122" s="140">
+      <c r="E122" s="79"/>
+      <c r="F122" s="81">
         <f>D122+1</f>
         <v>46036</v>
       </c>
-      <c r="G122" s="138"/>
-      <c r="H122" s="141">
+      <c r="G122" s="79"/>
+      <c r="H122" s="82">
         <f>F122+1</f>
         <v>46037</v>
       </c>
-      <c r="I122" s="138"/>
-      <c r="J122" s="142">
+      <c r="I122" s="79"/>
+      <c r="J122" s="83">
         <f>H122+1</f>
         <v>46038</v>
       </c>
-      <c r="K122" s="138"/>
+      <c r="K122" s="79"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123"/>
-      <c r="B123" s="83"/>
-      <c r="C123" s="151"/>
-      <c r="D123" s="81"/>
-      <c r="E123" s="151"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="151"/>
-      <c r="H123" s="77"/>
-      <c r="I123" s="151"/>
-      <c r="J123" s="75"/>
-      <c r="K123" s="151"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="65"/>
+      <c r="D123" s="66"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="68"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="69"/>
+      <c r="K123" s="65"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124"/>
@@ -3616,13 +3619,13 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D124" s="40">
         <v>0.79166666666666663</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F124" s="10">
         <v>0.79166666666666663</v>
@@ -3634,32 +3637,32 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="I124" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J124" s="44">
         <v>0.79166666666666663</v>
       </c>
       <c r="K124" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125"/>
       <c r="B125" s="14"/>
       <c r="C125" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F125" s="17"/>
       <c r="G125" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H125" s="17"/>
       <c r="I125" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J125" s="20"/>
       <c r="K125" s="28"/>
@@ -3667,10 +3670,12 @@
     <row r="126" spans="1:11">
       <c r="A126"/>
       <c r="B126" s="7"/>
-      <c r="C126" s="21"/>
+      <c r="C126" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="D126" s="22"/>
       <c r="E126" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="24" t="s">
@@ -3678,7 +3683,7 @@
       </c>
       <c r="H126" s="42"/>
       <c r="I126" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J126" s="13"/>
       <c r="K126" s="45"/>
@@ -3686,10 +3691,12 @@
     <row r="127" spans="1:11">
       <c r="A127"/>
       <c r="B127" s="14"/>
-      <c r="C127" s="15"/>
+      <c r="C127" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="D127" s="17"/>
       <c r="E127" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F127" s="17"/>
       <c r="G127" s="19" t="s">
@@ -3708,7 +3715,7 @@
       <c r="C128" s="21"/>
       <c r="D128" s="31"/>
       <c r="E128" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F128" s="32"/>
       <c r="G128" s="24"/>
@@ -3745,85 +3752,85 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131"/>
-      <c r="B131" s="152"/>
-      <c r="C131" s="153"/>
-      <c r="D131" s="153"/>
-      <c r="E131" s="153"/>
-      <c r="F131" s="153"/>
-      <c r="G131" s="153"/>
-      <c r="H131" s="153"/>
-      <c r="I131" s="153"/>
-      <c r="J131" s="153"/>
-      <c r="K131" s="151"/>
+      <c r="B131" s="70"/>
+      <c r="C131" s="71"/>
+      <c r="D131" s="71"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="71"/>
+      <c r="J131" s="71"/>
+      <c r="K131" s="65"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133"/>
-      <c r="B133" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C133" s="143"/>
-      <c r="D133" s="143"/>
-      <c r="E133" s="143"/>
-      <c r="F133" s="143"/>
-      <c r="G133" s="143"/>
-      <c r="H133" s="143"/>
-      <c r="I133" s="143"/>
-      <c r="J133" s="143"/>
-      <c r="K133" s="144"/>
+      <c r="B133" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C133" s="73"/>
+      <c r="D133" s="73"/>
+      <c r="E133" s="73"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="73"/>
+      <c r="H133" s="73"/>
+      <c r="I133" s="73"/>
+      <c r="J133" s="73"/>
+      <c r="K133" s="74"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134"/>
-      <c r="B134" s="145"/>
-      <c r="C134" s="146"/>
-      <c r="D134" s="146"/>
-      <c r="E134" s="146"/>
-      <c r="F134" s="146"/>
-      <c r="G134" s="146"/>
-      <c r="H134" s="146"/>
-      <c r="I134" s="146"/>
-      <c r="J134" s="146"/>
-      <c r="K134" s="147"/>
+      <c r="B134" s="75"/>
+      <c r="C134" s="76"/>
+      <c r="D134" s="76"/>
+      <c r="E134" s="76"/>
+      <c r="F134" s="76"/>
+      <c r="G134" s="76"/>
+      <c r="H134" s="76"/>
+      <c r="I134" s="76"/>
+      <c r="J134" s="76"/>
+      <c r="K134" s="77"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135"/>
-      <c r="B135" s="137">
+      <c r="B135" s="78">
         <f>J122+3</f>
         <v>46041</v>
       </c>
-      <c r="C135" s="138"/>
-      <c r="D135" s="139">
+      <c r="C135" s="79"/>
+      <c r="D135" s="80">
         <f>B135+1</f>
         <v>46042</v>
       </c>
-      <c r="E135" s="138"/>
-      <c r="F135" s="140">
+      <c r="E135" s="79"/>
+      <c r="F135" s="81">
         <f>D135+1</f>
         <v>46043</v>
       </c>
-      <c r="G135" s="138"/>
-      <c r="H135" s="141">
+      <c r="G135" s="79"/>
+      <c r="H135" s="82">
         <f>F135+1</f>
         <v>46044</v>
       </c>
-      <c r="I135" s="138"/>
-      <c r="J135" s="142">
+      <c r="I135" s="79"/>
+      <c r="J135" s="83">
         <f>H135+1</f>
         <v>46045</v>
       </c>
-      <c r="K135" s="138"/>
+      <c r="K135" s="79"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136"/>
-      <c r="B136" s="83"/>
-      <c r="C136" s="151"/>
-      <c r="D136" s="81"/>
-      <c r="E136" s="151"/>
-      <c r="F136" s="79"/>
-      <c r="G136" s="151"/>
-      <c r="H136" s="77"/>
-      <c r="I136" s="151"/>
-      <c r="J136" s="75"/>
-      <c r="K136" s="151"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="65"/>
+      <c r="D136" s="66"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="67"/>
+      <c r="G136" s="65"/>
+      <c r="H136" s="68"/>
+      <c r="I136" s="65"/>
+      <c r="J136" s="69"/>
+      <c r="K136" s="65"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137"/>
@@ -3831,7 +3838,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C137" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D137" s="40">
         <v>0.79166666666666663</v>
@@ -3854,7 +3861,7 @@
       <c r="A138"/>
       <c r="B138" s="14"/>
       <c r="C138" s="54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D138" s="17"/>
       <c r="E138" s="46"/>
@@ -3932,85 +3939,85 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144"/>
-      <c r="B144" s="152"/>
-      <c r="C144" s="153"/>
-      <c r="D144" s="153"/>
-      <c r="E144" s="153"/>
-      <c r="F144" s="153"/>
-      <c r="G144" s="153"/>
-      <c r="H144" s="153"/>
-      <c r="I144" s="153"/>
-      <c r="J144" s="153"/>
-      <c r="K144" s="151"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="71"/>
+      <c r="D144" s="71"/>
+      <c r="E144" s="71"/>
+      <c r="F144" s="71"/>
+      <c r="G144" s="71"/>
+      <c r="H144" s="71"/>
+      <c r="I144" s="71"/>
+      <c r="J144" s="71"/>
+      <c r="K144" s="65"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146"/>
-      <c r="B146" s="60" t="s">
+      <c r="B146" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="143"/>
-      <c r="D146" s="143"/>
-      <c r="E146" s="143"/>
-      <c r="F146" s="143"/>
-      <c r="G146" s="143"/>
-      <c r="H146" s="143"/>
-      <c r="I146" s="143"/>
-      <c r="J146" s="143"/>
-      <c r="K146" s="144"/>
+      <c r="C146" s="73"/>
+      <c r="D146" s="73"/>
+      <c r="E146" s="73"/>
+      <c r="F146" s="73"/>
+      <c r="G146" s="73"/>
+      <c r="H146" s="73"/>
+      <c r="I146" s="73"/>
+      <c r="J146" s="73"/>
+      <c r="K146" s="74"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147"/>
-      <c r="B147" s="145"/>
-      <c r="C147" s="146"/>
-      <c r="D147" s="146"/>
-      <c r="E147" s="146"/>
-      <c r="F147" s="146"/>
-      <c r="G147" s="146"/>
-      <c r="H147" s="146"/>
-      <c r="I147" s="146"/>
-      <c r="J147" s="146"/>
-      <c r="K147" s="147"/>
+      <c r="B147" s="75"/>
+      <c r="C147" s="76"/>
+      <c r="D147" s="76"/>
+      <c r="E147" s="76"/>
+      <c r="F147" s="76"/>
+      <c r="G147" s="76"/>
+      <c r="H147" s="76"/>
+      <c r="I147" s="76"/>
+      <c r="J147" s="76"/>
+      <c r="K147" s="77"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148"/>
-      <c r="B148" s="137">
+      <c r="B148" s="78">
         <f>J135+3</f>
         <v>46048</v>
       </c>
-      <c r="C148" s="138"/>
-      <c r="D148" s="139">
+      <c r="C148" s="79"/>
+      <c r="D148" s="80">
         <f>B148+1</f>
         <v>46049</v>
       </c>
-      <c r="E148" s="138"/>
-      <c r="F148" s="140">
+      <c r="E148" s="79"/>
+      <c r="F148" s="81">
         <f>D148+1</f>
         <v>46050</v>
       </c>
-      <c r="G148" s="138"/>
-      <c r="H148" s="141">
+      <c r="G148" s="79"/>
+      <c r="H148" s="82">
         <f>F148+1</f>
         <v>46051</v>
       </c>
-      <c r="I148" s="138"/>
-      <c r="J148" s="142">
+      <c r="I148" s="79"/>
+      <c r="J148" s="83">
         <f>H148+1</f>
         <v>46052</v>
       </c>
-      <c r="K148" s="138"/>
+      <c r="K148" s="79"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149"/>
-      <c r="B149" s="83"/>
-      <c r="C149" s="151"/>
-      <c r="D149" s="81"/>
-      <c r="E149" s="151"/>
-      <c r="F149" s="79"/>
-      <c r="G149" s="151"/>
-      <c r="H149" s="77"/>
-      <c r="I149" s="151"/>
-      <c r="J149" s="75"/>
-      <c r="K149" s="151"/>
+      <c r="B149" s="64"/>
+      <c r="C149" s="65"/>
+      <c r="D149" s="66"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="67"/>
+      <c r="G149" s="65"/>
+      <c r="H149" s="68"/>
+      <c r="I149" s="65"/>
+      <c r="J149" s="69"/>
+      <c r="K149" s="65"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150"/>
@@ -4115,85 +4122,85 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157"/>
-      <c r="B157" s="152"/>
-      <c r="C157" s="153"/>
-      <c r="D157" s="153"/>
-      <c r="E157" s="153"/>
-      <c r="F157" s="153"/>
-      <c r="G157" s="153"/>
-      <c r="H157" s="153"/>
-      <c r="I157" s="153"/>
-      <c r="J157" s="153"/>
-      <c r="K157" s="151"/>
+      <c r="B157" s="70"/>
+      <c r="C157" s="71"/>
+      <c r="D157" s="71"/>
+      <c r="E157" s="71"/>
+      <c r="F157" s="71"/>
+      <c r="G157" s="71"/>
+      <c r="H157" s="71"/>
+      <c r="I157" s="71"/>
+      <c r="J157" s="71"/>
+      <c r="K157" s="65"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159"/>
-      <c r="B159" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C159" s="143"/>
-      <c r="D159" s="143"/>
-      <c r="E159" s="143"/>
-      <c r="F159" s="143"/>
-      <c r="G159" s="143"/>
-      <c r="H159" s="143"/>
-      <c r="I159" s="143"/>
-      <c r="J159" s="143"/>
-      <c r="K159" s="144"/>
+      <c r="B159" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C159" s="73"/>
+      <c r="D159" s="73"/>
+      <c r="E159" s="73"/>
+      <c r="F159" s="73"/>
+      <c r="G159" s="73"/>
+      <c r="H159" s="73"/>
+      <c r="I159" s="73"/>
+      <c r="J159" s="73"/>
+      <c r="K159" s="74"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160"/>
-      <c r="B160" s="145"/>
-      <c r="C160" s="146"/>
-      <c r="D160" s="146"/>
-      <c r="E160" s="146"/>
-      <c r="F160" s="146"/>
-      <c r="G160" s="146"/>
-      <c r="H160" s="146"/>
-      <c r="I160" s="146"/>
-      <c r="J160" s="146"/>
-      <c r="K160" s="147"/>
+      <c r="B160" s="75"/>
+      <c r="C160" s="76"/>
+      <c r="D160" s="76"/>
+      <c r="E160" s="76"/>
+      <c r="F160" s="76"/>
+      <c r="G160" s="76"/>
+      <c r="H160" s="76"/>
+      <c r="I160" s="76"/>
+      <c r="J160" s="76"/>
+      <c r="K160" s="77"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161"/>
-      <c r="B161" s="137">
+      <c r="B161" s="78">
         <f>J148+3</f>
         <v>46055</v>
       </c>
-      <c r="C161" s="138"/>
-      <c r="D161" s="139">
+      <c r="C161" s="79"/>
+      <c r="D161" s="80">
         <f>B161+1</f>
         <v>46056</v>
       </c>
-      <c r="E161" s="138"/>
-      <c r="F161" s="140">
+      <c r="E161" s="79"/>
+      <c r="F161" s="81">
         <f>D161+1</f>
         <v>46057</v>
       </c>
-      <c r="G161" s="138"/>
-      <c r="H161" s="141">
+      <c r="G161" s="79"/>
+      <c r="H161" s="82">
         <f>F161+1</f>
         <v>46058</v>
       </c>
-      <c r="I161" s="138"/>
-      <c r="J161" s="142">
+      <c r="I161" s="79"/>
+      <c r="J161" s="83">
         <f>H161+1</f>
         <v>46059</v>
       </c>
-      <c r="K161" s="138"/>
+      <c r="K161" s="79"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162"/>
-      <c r="B162" s="83"/>
-      <c r="C162" s="151"/>
-      <c r="D162" s="81"/>
-      <c r="E162" s="151"/>
-      <c r="F162" s="79"/>
-      <c r="G162" s="151"/>
-      <c r="H162" s="77"/>
-      <c r="I162" s="151"/>
-      <c r="J162" s="75"/>
-      <c r="K162" s="151"/>
+      <c r="B162" s="64"/>
+      <c r="C162" s="65"/>
+      <c r="D162" s="66"/>
+      <c r="E162" s="65"/>
+      <c r="F162" s="67"/>
+      <c r="G162" s="65"/>
+      <c r="H162" s="68"/>
+      <c r="I162" s="65"/>
+      <c r="J162" s="69"/>
+      <c r="K162" s="65"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163"/>
@@ -4298,85 +4305,85 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170"/>
-      <c r="B170" s="152"/>
-      <c r="C170" s="153"/>
-      <c r="D170" s="153"/>
-      <c r="E170" s="153"/>
-      <c r="F170" s="153"/>
-      <c r="G170" s="153"/>
-      <c r="H170" s="153"/>
-      <c r="I170" s="153"/>
-      <c r="J170" s="153"/>
-      <c r="K170" s="151"/>
+      <c r="B170" s="70"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="71"/>
+      <c r="E170" s="71"/>
+      <c r="F170" s="71"/>
+      <c r="G170" s="71"/>
+      <c r="H170" s="71"/>
+      <c r="I170" s="71"/>
+      <c r="J170" s="71"/>
+      <c r="K170" s="65"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172"/>
-      <c r="B172" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C172" s="143"/>
-      <c r="D172" s="143"/>
-      <c r="E172" s="143"/>
-      <c r="F172" s="143"/>
-      <c r="G172" s="143"/>
-      <c r="H172" s="143"/>
-      <c r="I172" s="143"/>
-      <c r="J172" s="143"/>
-      <c r="K172" s="144"/>
+      <c r="B172" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C172" s="73"/>
+      <c r="D172" s="73"/>
+      <c r="E172" s="73"/>
+      <c r="F172" s="73"/>
+      <c r="G172" s="73"/>
+      <c r="H172" s="73"/>
+      <c r="I172" s="73"/>
+      <c r="J172" s="73"/>
+      <c r="K172" s="74"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173"/>
-      <c r="B173" s="145"/>
-      <c r="C173" s="146"/>
-      <c r="D173" s="146"/>
-      <c r="E173" s="146"/>
-      <c r="F173" s="146"/>
-      <c r="G173" s="146"/>
-      <c r="H173" s="146"/>
-      <c r="I173" s="146"/>
-      <c r="J173" s="146"/>
-      <c r="K173" s="147"/>
+      <c r="B173" s="75"/>
+      <c r="C173" s="76"/>
+      <c r="D173" s="76"/>
+      <c r="E173" s="76"/>
+      <c r="F173" s="76"/>
+      <c r="G173" s="76"/>
+      <c r="H173" s="76"/>
+      <c r="I173" s="76"/>
+      <c r="J173" s="76"/>
+      <c r="K173" s="77"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174"/>
-      <c r="B174" s="137">
+      <c r="B174" s="78">
         <f>J161+3</f>
         <v>46062</v>
       </c>
-      <c r="C174" s="138"/>
-      <c r="D174" s="139">
+      <c r="C174" s="79"/>
+      <c r="D174" s="80">
         <f>B174+1</f>
         <v>46063</v>
       </c>
-      <c r="E174" s="138"/>
-      <c r="F174" s="140">
+      <c r="E174" s="79"/>
+      <c r="F174" s="81">
         <f>D174+1</f>
         <v>46064</v>
       </c>
-      <c r="G174" s="138"/>
-      <c r="H174" s="141">
+      <c r="G174" s="79"/>
+      <c r="H174" s="82">
         <f>F174+1</f>
         <v>46065</v>
       </c>
-      <c r="I174" s="138"/>
-      <c r="J174" s="142">
+      <c r="I174" s="79"/>
+      <c r="J174" s="83">
         <f>H174+1</f>
         <v>46066</v>
       </c>
-      <c r="K174" s="138"/>
+      <c r="K174" s="79"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175"/>
-      <c r="B175" s="83"/>
-      <c r="C175" s="151"/>
-      <c r="D175" s="81"/>
-      <c r="E175" s="151"/>
-      <c r="F175" s="79"/>
-      <c r="G175" s="151"/>
-      <c r="H175" s="77"/>
-      <c r="I175" s="151"/>
-      <c r="J175" s="75"/>
-      <c r="K175" s="151"/>
+      <c r="B175" s="64"/>
+      <c r="C175" s="65"/>
+      <c r="D175" s="66"/>
+      <c r="E175" s="65"/>
+      <c r="F175" s="67"/>
+      <c r="G175" s="65"/>
+      <c r="H175" s="68"/>
+      <c r="I175" s="65"/>
+      <c r="J175" s="69"/>
+      <c r="K175" s="65"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176"/>
@@ -4481,85 +4488,85 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183"/>
-      <c r="B183" s="152"/>
-      <c r="C183" s="153"/>
-      <c r="D183" s="153"/>
-      <c r="E183" s="153"/>
-      <c r="F183" s="153"/>
-      <c r="G183" s="153"/>
-      <c r="H183" s="153"/>
-      <c r="I183" s="153"/>
-      <c r="J183" s="153"/>
-      <c r="K183" s="151"/>
+      <c r="B183" s="70"/>
+      <c r="C183" s="71"/>
+      <c r="D183" s="71"/>
+      <c r="E183" s="71"/>
+      <c r="F183" s="71"/>
+      <c r="G183" s="71"/>
+      <c r="H183" s="71"/>
+      <c r="I183" s="71"/>
+      <c r="J183" s="71"/>
+      <c r="K183" s="65"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185"/>
-      <c r="B185" s="60" t="s">
-        <v>87</v>
-      </c>
-      <c r="C185" s="143"/>
-      <c r="D185" s="143"/>
-      <c r="E185" s="143"/>
-      <c r="F185" s="143"/>
-      <c r="G185" s="143"/>
-      <c r="H185" s="143"/>
-      <c r="I185" s="143"/>
-      <c r="J185" s="143"/>
-      <c r="K185" s="144"/>
+      <c r="B185" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C185" s="73"/>
+      <c r="D185" s="73"/>
+      <c r="E185" s="73"/>
+      <c r="F185" s="73"/>
+      <c r="G185" s="73"/>
+      <c r="H185" s="73"/>
+      <c r="I185" s="73"/>
+      <c r="J185" s="73"/>
+      <c r="K185" s="74"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186"/>
-      <c r="B186" s="145"/>
-      <c r="C186" s="146"/>
-      <c r="D186" s="146"/>
-      <c r="E186" s="146"/>
-      <c r="F186" s="146"/>
-      <c r="G186" s="146"/>
-      <c r="H186" s="146"/>
-      <c r="I186" s="146"/>
-      <c r="J186" s="146"/>
-      <c r="K186" s="147"/>
+      <c r="B186" s="75"/>
+      <c r="C186" s="76"/>
+      <c r="D186" s="76"/>
+      <c r="E186" s="76"/>
+      <c r="F186" s="76"/>
+      <c r="G186" s="76"/>
+      <c r="H186" s="76"/>
+      <c r="I186" s="76"/>
+      <c r="J186" s="76"/>
+      <c r="K186" s="77"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187"/>
-      <c r="B187" s="137">
+      <c r="B187" s="78">
         <f>J174+3</f>
         <v>46069</v>
       </c>
-      <c r="C187" s="138"/>
-      <c r="D187" s="139">
+      <c r="C187" s="79"/>
+      <c r="D187" s="80">
         <f>B187+1</f>
         <v>46070</v>
       </c>
-      <c r="E187" s="138"/>
-      <c r="F187" s="140">
+      <c r="E187" s="79"/>
+      <c r="F187" s="81">
         <f>D187+1</f>
         <v>46071</v>
       </c>
-      <c r="G187" s="138"/>
-      <c r="H187" s="141">
+      <c r="G187" s="79"/>
+      <c r="H187" s="82">
         <f>F187+1</f>
         <v>46072</v>
       </c>
-      <c r="I187" s="138"/>
-      <c r="J187" s="142">
+      <c r="I187" s="79"/>
+      <c r="J187" s="83">
         <f>H187+1</f>
         <v>46073</v>
       </c>
-      <c r="K187" s="138"/>
+      <c r="K187" s="79"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188"/>
-      <c r="B188" s="83"/>
-      <c r="C188" s="151"/>
-      <c r="D188" s="81"/>
-      <c r="E188" s="151"/>
-      <c r="F188" s="79"/>
-      <c r="G188" s="151"/>
-      <c r="H188" s="77"/>
-      <c r="I188" s="151"/>
-      <c r="J188" s="75"/>
-      <c r="K188" s="151"/>
+      <c r="B188" s="64"/>
+      <c r="C188" s="65"/>
+      <c r="D188" s="66"/>
+      <c r="E188" s="65"/>
+      <c r="F188" s="67"/>
+      <c r="G188" s="65"/>
+      <c r="H188" s="68"/>
+      <c r="I188" s="65"/>
+      <c r="J188" s="69"/>
+      <c r="K188" s="65"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189"/>
@@ -4664,85 +4671,85 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196"/>
-      <c r="B196" s="152"/>
-      <c r="C196" s="153"/>
-      <c r="D196" s="153"/>
-      <c r="E196" s="153"/>
-      <c r="F196" s="153"/>
-      <c r="G196" s="153"/>
-      <c r="H196" s="153"/>
-      <c r="I196" s="153"/>
-      <c r="J196" s="153"/>
-      <c r="K196" s="151"/>
+      <c r="B196" s="70"/>
+      <c r="C196" s="71"/>
+      <c r="D196" s="71"/>
+      <c r="E196" s="71"/>
+      <c r="F196" s="71"/>
+      <c r="G196" s="71"/>
+      <c r="H196" s="71"/>
+      <c r="I196" s="71"/>
+      <c r="J196" s="71"/>
+      <c r="K196" s="65"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198"/>
-      <c r="B198" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C198" s="143"/>
-      <c r="D198" s="143"/>
-      <c r="E198" s="143"/>
-      <c r="F198" s="143"/>
-      <c r="G198" s="143"/>
-      <c r="H198" s="143"/>
-      <c r="I198" s="143"/>
-      <c r="J198" s="143"/>
-      <c r="K198" s="144"/>
+      <c r="B198" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C198" s="73"/>
+      <c r="D198" s="73"/>
+      <c r="E198" s="73"/>
+      <c r="F198" s="73"/>
+      <c r="G198" s="73"/>
+      <c r="H198" s="73"/>
+      <c r="I198" s="73"/>
+      <c r="J198" s="73"/>
+      <c r="K198" s="74"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199"/>
-      <c r="B199" s="145"/>
-      <c r="C199" s="146"/>
-      <c r="D199" s="146"/>
-      <c r="E199" s="146"/>
-      <c r="F199" s="146"/>
-      <c r="G199" s="146"/>
-      <c r="H199" s="146"/>
-      <c r="I199" s="146"/>
-      <c r="J199" s="146"/>
-      <c r="K199" s="147"/>
+      <c r="B199" s="75"/>
+      <c r="C199" s="76"/>
+      <c r="D199" s="76"/>
+      <c r="E199" s="76"/>
+      <c r="F199" s="76"/>
+      <c r="G199" s="76"/>
+      <c r="H199" s="76"/>
+      <c r="I199" s="76"/>
+      <c r="J199" s="76"/>
+      <c r="K199" s="77"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200"/>
-      <c r="B200" s="137">
+      <c r="B200" s="78">
         <f>J187+3</f>
         <v>46076</v>
       </c>
-      <c r="C200" s="138"/>
-      <c r="D200" s="139">
+      <c r="C200" s="79"/>
+      <c r="D200" s="80">
         <f>B200+1</f>
         <v>46077</v>
       </c>
-      <c r="E200" s="138"/>
-      <c r="F200" s="140">
+      <c r="E200" s="79"/>
+      <c r="F200" s="81">
         <f>D200+1</f>
         <v>46078</v>
       </c>
-      <c r="G200" s="138"/>
-      <c r="H200" s="141">
+      <c r="G200" s="79"/>
+      <c r="H200" s="82">
         <f>F200+1</f>
         <v>46079</v>
       </c>
-      <c r="I200" s="138"/>
-      <c r="J200" s="142">
+      <c r="I200" s="79"/>
+      <c r="J200" s="83">
         <f>H200+1</f>
         <v>46080</v>
       </c>
-      <c r="K200" s="138"/>
+      <c r="K200" s="79"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201"/>
-      <c r="B201" s="83"/>
-      <c r="C201" s="151"/>
-      <c r="D201" s="81"/>
-      <c r="E201" s="151"/>
-      <c r="F201" s="79"/>
-      <c r="G201" s="151"/>
-      <c r="H201" s="77"/>
-      <c r="I201" s="151"/>
-      <c r="J201" s="75"/>
-      <c r="K201" s="151"/>
+      <c r="B201" s="64"/>
+      <c r="C201" s="65"/>
+      <c r="D201" s="66"/>
+      <c r="E201" s="65"/>
+      <c r="F201" s="67"/>
+      <c r="G201" s="65"/>
+      <c r="H201" s="68"/>
+      <c r="I201" s="65"/>
+      <c r="J201" s="69"/>
+      <c r="K201" s="65"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202"/>
@@ -4847,85 +4854,85 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209"/>
-      <c r="B209" s="152"/>
-      <c r="C209" s="153"/>
-      <c r="D209" s="153"/>
-      <c r="E209" s="153"/>
-      <c r="F209" s="153"/>
-      <c r="G209" s="153"/>
-      <c r="H209" s="153"/>
-      <c r="I209" s="153"/>
-      <c r="J209" s="153"/>
-      <c r="K209" s="151"/>
+      <c r="B209" s="70"/>
+      <c r="C209" s="71"/>
+      <c r="D209" s="71"/>
+      <c r="E209" s="71"/>
+      <c r="F209" s="71"/>
+      <c r="G209" s="71"/>
+      <c r="H209" s="71"/>
+      <c r="I209" s="71"/>
+      <c r="J209" s="71"/>
+      <c r="K209" s="65"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211"/>
-      <c r="B211" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C211" s="143"/>
-      <c r="D211" s="143"/>
-      <c r="E211" s="143"/>
-      <c r="F211" s="143"/>
-      <c r="G211" s="143"/>
-      <c r="H211" s="143"/>
-      <c r="I211" s="143"/>
-      <c r="J211" s="143"/>
-      <c r="K211" s="144"/>
+      <c r="B211" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C211" s="73"/>
+      <c r="D211" s="73"/>
+      <c r="E211" s="73"/>
+      <c r="F211" s="73"/>
+      <c r="G211" s="73"/>
+      <c r="H211" s="73"/>
+      <c r="I211" s="73"/>
+      <c r="J211" s="73"/>
+      <c r="K211" s="74"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212"/>
-      <c r="B212" s="145"/>
-      <c r="C212" s="146"/>
-      <c r="D212" s="146"/>
-      <c r="E212" s="146"/>
-      <c r="F212" s="146"/>
-      <c r="G212" s="146"/>
-      <c r="H212" s="146"/>
-      <c r="I212" s="146"/>
-      <c r="J212" s="146"/>
-      <c r="K212" s="147"/>
+      <c r="B212" s="75"/>
+      <c r="C212" s="76"/>
+      <c r="D212" s="76"/>
+      <c r="E212" s="76"/>
+      <c r="F212" s="76"/>
+      <c r="G212" s="76"/>
+      <c r="H212" s="76"/>
+      <c r="I212" s="76"/>
+      <c r="J212" s="76"/>
+      <c r="K212" s="77"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213"/>
-      <c r="B213" s="137">
+      <c r="B213" s="78">
         <f>J200+3</f>
         <v>46083</v>
       </c>
-      <c r="C213" s="138"/>
-      <c r="D213" s="139">
+      <c r="C213" s="79"/>
+      <c r="D213" s="80">
         <f>B213+1</f>
         <v>46084</v>
       </c>
-      <c r="E213" s="138"/>
-      <c r="F213" s="140">
+      <c r="E213" s="79"/>
+      <c r="F213" s="81">
         <f>D213+1</f>
         <v>46085</v>
       </c>
-      <c r="G213" s="138"/>
-      <c r="H213" s="141">
+      <c r="G213" s="79"/>
+      <c r="H213" s="82">
         <f>F213+1</f>
         <v>46086</v>
       </c>
-      <c r="I213" s="138"/>
-      <c r="J213" s="142">
+      <c r="I213" s="79"/>
+      <c r="J213" s="83">
         <f>H213+1</f>
         <v>46087</v>
       </c>
-      <c r="K213" s="138"/>
+      <c r="K213" s="79"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214"/>
-      <c r="B214" s="83"/>
-      <c r="C214" s="151"/>
-      <c r="D214" s="81"/>
-      <c r="E214" s="151"/>
-      <c r="F214" s="79"/>
-      <c r="G214" s="151"/>
-      <c r="H214" s="77"/>
-      <c r="I214" s="151"/>
-      <c r="J214" s="75"/>
-      <c r="K214" s="151"/>
+      <c r="B214" s="64"/>
+      <c r="C214" s="65"/>
+      <c r="D214" s="66"/>
+      <c r="E214" s="65"/>
+      <c r="F214" s="67"/>
+      <c r="G214" s="65"/>
+      <c r="H214" s="68"/>
+      <c r="I214" s="65"/>
+      <c r="J214" s="69"/>
+      <c r="K214" s="65"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215"/>
@@ -5030,85 +5037,85 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222"/>
-      <c r="B222" s="152"/>
-      <c r="C222" s="153"/>
-      <c r="D222" s="153"/>
-      <c r="E222" s="153"/>
-      <c r="F222" s="153"/>
-      <c r="G222" s="153"/>
-      <c r="H222" s="153"/>
-      <c r="I222" s="153"/>
-      <c r="J222" s="153"/>
-      <c r="K222" s="151"/>
+      <c r="B222" s="70"/>
+      <c r="C222" s="71"/>
+      <c r="D222" s="71"/>
+      <c r="E222" s="71"/>
+      <c r="F222" s="71"/>
+      <c r="G222" s="71"/>
+      <c r="H222" s="71"/>
+      <c r="I222" s="71"/>
+      <c r="J222" s="71"/>
+      <c r="K222" s="65"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224"/>
-      <c r="B224" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="C224" s="143"/>
-      <c r="D224" s="143"/>
-      <c r="E224" s="143"/>
-      <c r="F224" s="143"/>
-      <c r="G224" s="143"/>
-      <c r="H224" s="143"/>
-      <c r="I224" s="143"/>
-      <c r="J224" s="143"/>
-      <c r="K224" s="144"/>
+      <c r="B224" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C224" s="73"/>
+      <c r="D224" s="73"/>
+      <c r="E224" s="73"/>
+      <c r="F224" s="73"/>
+      <c r="G224" s="73"/>
+      <c r="H224" s="73"/>
+      <c r="I224" s="73"/>
+      <c r="J224" s="73"/>
+      <c r="K224" s="74"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225"/>
-      <c r="B225" s="145"/>
-      <c r="C225" s="146"/>
-      <c r="D225" s="146"/>
-      <c r="E225" s="146"/>
-      <c r="F225" s="146"/>
-      <c r="G225" s="146"/>
-      <c r="H225" s="146"/>
-      <c r="I225" s="146"/>
-      <c r="J225" s="146"/>
-      <c r="K225" s="147"/>
+      <c r="B225" s="75"/>
+      <c r="C225" s="76"/>
+      <c r="D225" s="76"/>
+      <c r="E225" s="76"/>
+      <c r="F225" s="76"/>
+      <c r="G225" s="76"/>
+      <c r="H225" s="76"/>
+      <c r="I225" s="76"/>
+      <c r="J225" s="76"/>
+      <c r="K225" s="77"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226"/>
-      <c r="B226" s="137">
+      <c r="B226" s="78">
         <f>J213+3</f>
         <v>46090</v>
       </c>
-      <c r="C226" s="138"/>
-      <c r="D226" s="139">
+      <c r="C226" s="79"/>
+      <c r="D226" s="80">
         <f>B226+1</f>
         <v>46091</v>
       </c>
-      <c r="E226" s="138"/>
-      <c r="F226" s="140">
+      <c r="E226" s="79"/>
+      <c r="F226" s="81">
         <f>D226+1</f>
         <v>46092</v>
       </c>
-      <c r="G226" s="138"/>
-      <c r="H226" s="141">
+      <c r="G226" s="79"/>
+      <c r="H226" s="82">
         <f>F226+1</f>
         <v>46093</v>
       </c>
-      <c r="I226" s="138"/>
-      <c r="J226" s="142">
+      <c r="I226" s="79"/>
+      <c r="J226" s="83">
         <f>H226+1</f>
         <v>46094</v>
       </c>
-      <c r="K226" s="138"/>
+      <c r="K226" s="79"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227"/>
-      <c r="B227" s="83"/>
-      <c r="C227" s="151"/>
-      <c r="D227" s="81"/>
-      <c r="E227" s="151"/>
-      <c r="F227" s="79"/>
-      <c r="G227" s="151"/>
-      <c r="H227" s="77"/>
-      <c r="I227" s="151"/>
-      <c r="J227" s="75"/>
-      <c r="K227" s="151"/>
+      <c r="B227" s="64"/>
+      <c r="C227" s="65"/>
+      <c r="D227" s="66"/>
+      <c r="E227" s="65"/>
+      <c r="F227" s="67"/>
+      <c r="G227" s="65"/>
+      <c r="H227" s="68"/>
+      <c r="I227" s="65"/>
+      <c r="J227" s="69"/>
+      <c r="K227" s="65"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228"/>
@@ -5213,85 +5220,85 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235"/>
-      <c r="B235" s="152"/>
-      <c r="C235" s="153"/>
-      <c r="D235" s="153"/>
-      <c r="E235" s="153"/>
-      <c r="F235" s="153"/>
-      <c r="G235" s="153"/>
-      <c r="H235" s="153"/>
-      <c r="I235" s="153"/>
-      <c r="J235" s="153"/>
-      <c r="K235" s="151"/>
+      <c r="B235" s="70"/>
+      <c r="C235" s="71"/>
+      <c r="D235" s="71"/>
+      <c r="E235" s="71"/>
+      <c r="F235" s="71"/>
+      <c r="G235" s="71"/>
+      <c r="H235" s="71"/>
+      <c r="I235" s="71"/>
+      <c r="J235" s="71"/>
+      <c r="K235" s="65"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237"/>
-      <c r="B237" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C237" s="143"/>
-      <c r="D237" s="143"/>
-      <c r="E237" s="143"/>
-      <c r="F237" s="143"/>
-      <c r="G237" s="143"/>
-      <c r="H237" s="143"/>
-      <c r="I237" s="143"/>
-      <c r="J237" s="143"/>
-      <c r="K237" s="144"/>
+      <c r="B237" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C237" s="73"/>
+      <c r="D237" s="73"/>
+      <c r="E237" s="73"/>
+      <c r="F237" s="73"/>
+      <c r="G237" s="73"/>
+      <c r="H237" s="73"/>
+      <c r="I237" s="73"/>
+      <c r="J237" s="73"/>
+      <c r="K237" s="74"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238"/>
-      <c r="B238" s="145"/>
-      <c r="C238" s="146"/>
-      <c r="D238" s="146"/>
-      <c r="E238" s="146"/>
-      <c r="F238" s="146"/>
-      <c r="G238" s="146"/>
-      <c r="H238" s="146"/>
-      <c r="I238" s="146"/>
-      <c r="J238" s="146"/>
-      <c r="K238" s="147"/>
+      <c r="B238" s="75"/>
+      <c r="C238" s="76"/>
+      <c r="D238" s="76"/>
+      <c r="E238" s="76"/>
+      <c r="F238" s="76"/>
+      <c r="G238" s="76"/>
+      <c r="H238" s="76"/>
+      <c r="I238" s="76"/>
+      <c r="J238" s="76"/>
+      <c r="K238" s="77"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239"/>
-      <c r="B239" s="137">
+      <c r="B239" s="78">
         <f>J226+3</f>
         <v>46097</v>
       </c>
-      <c r="C239" s="138"/>
-      <c r="D239" s="139">
+      <c r="C239" s="79"/>
+      <c r="D239" s="80">
         <f>B239+1</f>
         <v>46098</v>
       </c>
-      <c r="E239" s="138"/>
-      <c r="F239" s="140">
+      <c r="E239" s="79"/>
+      <c r="F239" s="81">
         <f>D239+1</f>
         <v>46099</v>
       </c>
-      <c r="G239" s="138"/>
-      <c r="H239" s="141">
+      <c r="G239" s="79"/>
+      <c r="H239" s="82">
         <f>F239+1</f>
         <v>46100</v>
       </c>
-      <c r="I239" s="138"/>
-      <c r="J239" s="142">
+      <c r="I239" s="79"/>
+      <c r="J239" s="83">
         <f>H239+1</f>
         <v>46101</v>
       </c>
-      <c r="K239" s="138"/>
+      <c r="K239" s="79"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240"/>
-      <c r="B240" s="83"/>
-      <c r="C240" s="151"/>
-      <c r="D240" s="81"/>
-      <c r="E240" s="151"/>
-      <c r="F240" s="79"/>
-      <c r="G240" s="151"/>
-      <c r="H240" s="77"/>
-      <c r="I240" s="151"/>
-      <c r="J240" s="75"/>
-      <c r="K240" s="151"/>
+      <c r="B240" s="64"/>
+      <c r="C240" s="65"/>
+      <c r="D240" s="66"/>
+      <c r="E240" s="65"/>
+      <c r="F240" s="67"/>
+      <c r="G240" s="65"/>
+      <c r="H240" s="68"/>
+      <c r="I240" s="65"/>
+      <c r="J240" s="69"/>
+      <c r="K240" s="65"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241"/>
@@ -5396,85 +5403,85 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248"/>
-      <c r="B248" s="152"/>
-      <c r="C248" s="153"/>
-      <c r="D248" s="153"/>
-      <c r="E248" s="153"/>
-      <c r="F248" s="153"/>
-      <c r="G248" s="153"/>
-      <c r="H248" s="153"/>
-      <c r="I248" s="153"/>
-      <c r="J248" s="153"/>
-      <c r="K248" s="151"/>
+      <c r="B248" s="70"/>
+      <c r="C248" s="71"/>
+      <c r="D248" s="71"/>
+      <c r="E248" s="71"/>
+      <c r="F248" s="71"/>
+      <c r="G248" s="71"/>
+      <c r="H248" s="71"/>
+      <c r="I248" s="71"/>
+      <c r="J248" s="71"/>
+      <c r="K248" s="65"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250"/>
-      <c r="B250" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C250" s="143"/>
-      <c r="D250" s="143"/>
-      <c r="E250" s="143"/>
-      <c r="F250" s="143"/>
-      <c r="G250" s="143"/>
-      <c r="H250" s="143"/>
-      <c r="I250" s="143"/>
-      <c r="J250" s="143"/>
-      <c r="K250" s="144"/>
+      <c r="B250" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C250" s="73"/>
+      <c r="D250" s="73"/>
+      <c r="E250" s="73"/>
+      <c r="F250" s="73"/>
+      <c r="G250" s="73"/>
+      <c r="H250" s="73"/>
+      <c r="I250" s="73"/>
+      <c r="J250" s="73"/>
+      <c r="K250" s="74"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251"/>
-      <c r="B251" s="145"/>
-      <c r="C251" s="146"/>
-      <c r="D251" s="146"/>
-      <c r="E251" s="146"/>
-      <c r="F251" s="146"/>
-      <c r="G251" s="146"/>
-      <c r="H251" s="146"/>
-      <c r="I251" s="146"/>
-      <c r="J251" s="146"/>
-      <c r="K251" s="147"/>
+      <c r="B251" s="75"/>
+      <c r="C251" s="76"/>
+      <c r="D251" s="76"/>
+      <c r="E251" s="76"/>
+      <c r="F251" s="76"/>
+      <c r="G251" s="76"/>
+      <c r="H251" s="76"/>
+      <c r="I251" s="76"/>
+      <c r="J251" s="76"/>
+      <c r="K251" s="77"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252"/>
-      <c r="B252" s="137">
+      <c r="B252" s="78">
         <f>J239+3</f>
         <v>46104</v>
       </c>
-      <c r="C252" s="138"/>
-      <c r="D252" s="139">
+      <c r="C252" s="79"/>
+      <c r="D252" s="80">
         <f>B252+1</f>
         <v>46105</v>
       </c>
-      <c r="E252" s="138"/>
-      <c r="F252" s="140">
+      <c r="E252" s="79"/>
+      <c r="F252" s="81">
         <f>D252+1</f>
         <v>46106</v>
       </c>
-      <c r="G252" s="138"/>
-      <c r="H252" s="141">
+      <c r="G252" s="79"/>
+      <c r="H252" s="82">
         <f>F252+1</f>
         <v>46107</v>
       </c>
-      <c r="I252" s="138"/>
-      <c r="J252" s="142">
+      <c r="I252" s="79"/>
+      <c r="J252" s="83">
         <f>H252+1</f>
         <v>46108</v>
       </c>
-      <c r="K252" s="138"/>
+      <c r="K252" s="79"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253"/>
-      <c r="B253" s="83"/>
-      <c r="C253" s="151"/>
-      <c r="D253" s="81"/>
-      <c r="E253" s="151"/>
-      <c r="F253" s="79"/>
-      <c r="G253" s="151"/>
-      <c r="H253" s="77"/>
-      <c r="I253" s="151"/>
-      <c r="J253" s="75"/>
-      <c r="K253" s="151"/>
+      <c r="B253" s="64"/>
+      <c r="C253" s="65"/>
+      <c r="D253" s="66"/>
+      <c r="E253" s="65"/>
+      <c r="F253" s="67"/>
+      <c r="G253" s="65"/>
+      <c r="H253" s="68"/>
+      <c r="I253" s="65"/>
+      <c r="J253" s="69"/>
+      <c r="K253" s="65"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254"/>
@@ -5498,7 +5505,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="K254" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -5513,7 +5520,7 @@
       <c r="I255" s="19"/>
       <c r="J255" s="20"/>
       <c r="K255" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -5583,85 +5590,85 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261"/>
-      <c r="B261" s="152"/>
-      <c r="C261" s="153"/>
-      <c r="D261" s="153"/>
-      <c r="E261" s="153"/>
-      <c r="F261" s="153"/>
-      <c r="G261" s="153"/>
-      <c r="H261" s="153"/>
-      <c r="I261" s="153"/>
-      <c r="J261" s="153"/>
-      <c r="K261" s="151"/>
+      <c r="B261" s="70"/>
+      <c r="C261" s="71"/>
+      <c r="D261" s="71"/>
+      <c r="E261" s="71"/>
+      <c r="F261" s="71"/>
+      <c r="G261" s="71"/>
+      <c r="H261" s="71"/>
+      <c r="I261" s="71"/>
+      <c r="J261" s="71"/>
+      <c r="K261" s="65"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263"/>
-      <c r="B263" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C263" s="143"/>
-      <c r="D263" s="143"/>
-      <c r="E263" s="143"/>
-      <c r="F263" s="143"/>
-      <c r="G263" s="143"/>
-      <c r="H263" s="143"/>
-      <c r="I263" s="143"/>
-      <c r="J263" s="143"/>
-      <c r="K263" s="144"/>
+      <c r="B263" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C263" s="73"/>
+      <c r="D263" s="73"/>
+      <c r="E263" s="73"/>
+      <c r="F263" s="73"/>
+      <c r="G263" s="73"/>
+      <c r="H263" s="73"/>
+      <c r="I263" s="73"/>
+      <c r="J263" s="73"/>
+      <c r="K263" s="74"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264"/>
-      <c r="B264" s="145"/>
-      <c r="C264" s="146"/>
-      <c r="D264" s="146"/>
-      <c r="E264" s="146"/>
-      <c r="F264" s="146"/>
-      <c r="G264" s="146"/>
-      <c r="H264" s="146"/>
-      <c r="I264" s="146"/>
-      <c r="J264" s="146"/>
-      <c r="K264" s="147"/>
+      <c r="B264" s="75"/>
+      <c r="C264" s="76"/>
+      <c r="D264" s="76"/>
+      <c r="E264" s="76"/>
+      <c r="F264" s="76"/>
+      <c r="G264" s="76"/>
+      <c r="H264" s="76"/>
+      <c r="I264" s="76"/>
+      <c r="J264" s="76"/>
+      <c r="K264" s="77"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265"/>
-      <c r="B265" s="137">
+      <c r="B265" s="78">
         <f>J252+3</f>
         <v>46111</v>
       </c>
-      <c r="C265" s="138"/>
-      <c r="D265" s="139">
+      <c r="C265" s="79"/>
+      <c r="D265" s="80">
         <f>B265+1</f>
         <v>46112</v>
       </c>
-      <c r="E265" s="138"/>
-      <c r="F265" s="140">
+      <c r="E265" s="79"/>
+      <c r="F265" s="81">
         <f>D265+1</f>
         <v>46113</v>
       </c>
-      <c r="G265" s="138"/>
-      <c r="H265" s="141">
+      <c r="G265" s="79"/>
+      <c r="H265" s="82">
         <f>F265+1</f>
         <v>46114</v>
       </c>
-      <c r="I265" s="138"/>
-      <c r="J265" s="142">
+      <c r="I265" s="79"/>
+      <c r="J265" s="83">
         <f>H265+1</f>
         <v>46115</v>
       </c>
-      <c r="K265" s="138"/>
+      <c r="K265" s="79"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266"/>
-      <c r="B266" s="83"/>
-      <c r="C266" s="151"/>
-      <c r="D266" s="81"/>
-      <c r="E266" s="151"/>
-      <c r="F266" s="79"/>
-      <c r="G266" s="151"/>
-      <c r="H266" s="77"/>
-      <c r="I266" s="151"/>
-      <c r="J266" s="75"/>
-      <c r="K266" s="151"/>
+      <c r="B266" s="64"/>
+      <c r="C266" s="65"/>
+      <c r="D266" s="66"/>
+      <c r="E266" s="65"/>
+      <c r="F266" s="67"/>
+      <c r="G266" s="65"/>
+      <c r="H266" s="68"/>
+      <c r="I266" s="65"/>
+      <c r="J266" s="69"/>
+      <c r="K266" s="65"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267"/>
@@ -5681,7 +5688,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="I267" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J267" s="44">
         <v>0.79166666666666663</v>
@@ -5768,85 +5775,85 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274"/>
-      <c r="B274" s="152"/>
-      <c r="C274" s="153"/>
-      <c r="D274" s="153"/>
-      <c r="E274" s="153"/>
-      <c r="F274" s="153"/>
-      <c r="G274" s="153"/>
-      <c r="H274" s="153"/>
-      <c r="I274" s="153"/>
-      <c r="J274" s="153"/>
-      <c r="K274" s="151"/>
+      <c r="B274" s="70"/>
+      <c r="C274" s="71"/>
+      <c r="D274" s="71"/>
+      <c r="E274" s="71"/>
+      <c r="F274" s="71"/>
+      <c r="G274" s="71"/>
+      <c r="H274" s="71"/>
+      <c r="I274" s="71"/>
+      <c r="J274" s="71"/>
+      <c r="K274" s="65"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276"/>
-      <c r="B276" s="60" t="s">
+      <c r="B276" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C276" s="143"/>
-      <c r="D276" s="143"/>
-      <c r="E276" s="143"/>
-      <c r="F276" s="143"/>
-      <c r="G276" s="143"/>
-      <c r="H276" s="143"/>
-      <c r="I276" s="143"/>
-      <c r="J276" s="143"/>
-      <c r="K276" s="144"/>
+      <c r="C276" s="73"/>
+      <c r="D276" s="73"/>
+      <c r="E276" s="73"/>
+      <c r="F276" s="73"/>
+      <c r="G276" s="73"/>
+      <c r="H276" s="73"/>
+      <c r="I276" s="73"/>
+      <c r="J276" s="73"/>
+      <c r="K276" s="74"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277"/>
-      <c r="B277" s="145"/>
-      <c r="C277" s="146"/>
-      <c r="D277" s="146"/>
-      <c r="E277" s="146"/>
-      <c r="F277" s="146"/>
-      <c r="G277" s="146"/>
-      <c r="H277" s="146"/>
-      <c r="I277" s="146"/>
-      <c r="J277" s="146"/>
-      <c r="K277" s="147"/>
+      <c r="B277" s="75"/>
+      <c r="C277" s="76"/>
+      <c r="D277" s="76"/>
+      <c r="E277" s="76"/>
+      <c r="F277" s="76"/>
+      <c r="G277" s="76"/>
+      <c r="H277" s="76"/>
+      <c r="I277" s="76"/>
+      <c r="J277" s="76"/>
+      <c r="K277" s="77"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278"/>
-      <c r="B278" s="137">
+      <c r="B278" s="78">
         <f>J265+3</f>
         <v>46118</v>
       </c>
-      <c r="C278" s="138"/>
-      <c r="D278" s="139">
+      <c r="C278" s="79"/>
+      <c r="D278" s="80">
         <f>B278+1</f>
         <v>46119</v>
       </c>
-      <c r="E278" s="138"/>
-      <c r="F278" s="140">
+      <c r="E278" s="79"/>
+      <c r="F278" s="81">
         <f>D278+1</f>
         <v>46120</v>
       </c>
-      <c r="G278" s="138"/>
-      <c r="H278" s="141">
+      <c r="G278" s="79"/>
+      <c r="H278" s="82">
         <f>F278+1</f>
         <v>46121</v>
       </c>
-      <c r="I278" s="138"/>
-      <c r="J278" s="142">
+      <c r="I278" s="79"/>
+      <c r="J278" s="83">
         <f>H278+1</f>
         <v>46122</v>
       </c>
-      <c r="K278" s="138"/>
+      <c r="K278" s="79"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279"/>
-      <c r="B279" s="83"/>
-      <c r="C279" s="151"/>
-      <c r="D279" s="81"/>
-      <c r="E279" s="151"/>
-      <c r="F279" s="79"/>
-      <c r="G279" s="151"/>
-      <c r="H279" s="77"/>
-      <c r="I279" s="151"/>
-      <c r="J279" s="75"/>
-      <c r="K279" s="151"/>
+      <c r="B279" s="64"/>
+      <c r="C279" s="65"/>
+      <c r="D279" s="66"/>
+      <c r="E279" s="65"/>
+      <c r="F279" s="67"/>
+      <c r="G279" s="65"/>
+      <c r="H279" s="68"/>
+      <c r="I279" s="65"/>
+      <c r="J279" s="69"/>
+      <c r="K279" s="65"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280"/>
@@ -5951,85 +5958,85 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287"/>
-      <c r="B287" s="152"/>
-      <c r="C287" s="153"/>
-      <c r="D287" s="153"/>
-      <c r="E287" s="153"/>
-      <c r="F287" s="153"/>
-      <c r="G287" s="153"/>
-      <c r="H287" s="153"/>
-      <c r="I287" s="153"/>
-      <c r="J287" s="153"/>
-      <c r="K287" s="151"/>
+      <c r="B287" s="70"/>
+      <c r="C287" s="71"/>
+      <c r="D287" s="71"/>
+      <c r="E287" s="71"/>
+      <c r="F287" s="71"/>
+      <c r="G287" s="71"/>
+      <c r="H287" s="71"/>
+      <c r="I287" s="71"/>
+      <c r="J287" s="71"/>
+      <c r="K287" s="65"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289"/>
-      <c r="B289" s="60" t="s">
+      <c r="B289" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C289" s="143"/>
-      <c r="D289" s="143"/>
-      <c r="E289" s="143"/>
-      <c r="F289" s="143"/>
-      <c r="G289" s="143"/>
-      <c r="H289" s="143"/>
-      <c r="I289" s="143"/>
-      <c r="J289" s="143"/>
-      <c r="K289" s="144"/>
+      <c r="C289" s="73"/>
+      <c r="D289" s="73"/>
+      <c r="E289" s="73"/>
+      <c r="F289" s="73"/>
+      <c r="G289" s="73"/>
+      <c r="H289" s="73"/>
+      <c r="I289" s="73"/>
+      <c r="J289" s="73"/>
+      <c r="K289" s="74"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290"/>
-      <c r="B290" s="145"/>
-      <c r="C290" s="146"/>
-      <c r="D290" s="146"/>
-      <c r="E290" s="146"/>
-      <c r="F290" s="146"/>
-      <c r="G290" s="146"/>
-      <c r="H290" s="146"/>
-      <c r="I290" s="146"/>
-      <c r="J290" s="146"/>
-      <c r="K290" s="147"/>
+      <c r="B290" s="75"/>
+      <c r="C290" s="76"/>
+      <c r="D290" s="76"/>
+      <c r="E290" s="76"/>
+      <c r="F290" s="76"/>
+      <c r="G290" s="76"/>
+      <c r="H290" s="76"/>
+      <c r="I290" s="76"/>
+      <c r="J290" s="76"/>
+      <c r="K290" s="77"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291"/>
-      <c r="B291" s="137">
+      <c r="B291" s="78">
         <f>J278+3</f>
         <v>46125</v>
       </c>
-      <c r="C291" s="138"/>
-      <c r="D291" s="139">
+      <c r="C291" s="79"/>
+      <c r="D291" s="80">
         <f>B291+1</f>
         <v>46126</v>
       </c>
-      <c r="E291" s="138"/>
-      <c r="F291" s="140">
+      <c r="E291" s="79"/>
+      <c r="F291" s="81">
         <f>D291+1</f>
         <v>46127</v>
       </c>
-      <c r="G291" s="138"/>
-      <c r="H291" s="141">
+      <c r="G291" s="79"/>
+      <c r="H291" s="82">
         <f>F291+1</f>
         <v>46128</v>
       </c>
-      <c r="I291" s="138"/>
-      <c r="J291" s="142">
+      <c r="I291" s="79"/>
+      <c r="J291" s="83">
         <f>H291+1</f>
         <v>46129</v>
       </c>
-      <c r="K291" s="138"/>
+      <c r="K291" s="79"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292"/>
-      <c r="B292" s="83"/>
-      <c r="C292" s="151"/>
-      <c r="D292" s="81"/>
-      <c r="E292" s="151"/>
-      <c r="F292" s="79"/>
-      <c r="G292" s="151"/>
-      <c r="H292" s="77"/>
-      <c r="I292" s="151"/>
-      <c r="J292" s="75"/>
-      <c r="K292" s="151"/>
+      <c r="B292" s="64"/>
+      <c r="C292" s="65"/>
+      <c r="D292" s="66"/>
+      <c r="E292" s="65"/>
+      <c r="F292" s="67"/>
+      <c r="G292" s="65"/>
+      <c r="H292" s="68"/>
+      <c r="I292" s="65"/>
+      <c r="J292" s="69"/>
+      <c r="K292" s="65"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293"/>
@@ -6134,85 +6141,85 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300"/>
-      <c r="B300" s="152"/>
-      <c r="C300" s="153"/>
-      <c r="D300" s="153"/>
-      <c r="E300" s="153"/>
-      <c r="F300" s="153"/>
-      <c r="G300" s="153"/>
-      <c r="H300" s="153"/>
-      <c r="I300" s="153"/>
-      <c r="J300" s="153"/>
-      <c r="K300" s="151"/>
+      <c r="B300" s="70"/>
+      <c r="C300" s="71"/>
+      <c r="D300" s="71"/>
+      <c r="E300" s="71"/>
+      <c r="F300" s="71"/>
+      <c r="G300" s="71"/>
+      <c r="H300" s="71"/>
+      <c r="I300" s="71"/>
+      <c r="J300" s="71"/>
+      <c r="K300" s="65"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302"/>
-      <c r="B302" s="60" t="s">
+      <c r="B302" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C302" s="143"/>
-      <c r="D302" s="143"/>
-      <c r="E302" s="143"/>
-      <c r="F302" s="143"/>
-      <c r="G302" s="143"/>
-      <c r="H302" s="143"/>
-      <c r="I302" s="143"/>
-      <c r="J302" s="143"/>
-      <c r="K302" s="144"/>
+      <c r="C302" s="73"/>
+      <c r="D302" s="73"/>
+      <c r="E302" s="73"/>
+      <c r="F302" s="73"/>
+      <c r="G302" s="73"/>
+      <c r="H302" s="73"/>
+      <c r="I302" s="73"/>
+      <c r="J302" s="73"/>
+      <c r="K302" s="74"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303"/>
-      <c r="B303" s="145"/>
-      <c r="C303" s="146"/>
-      <c r="D303" s="146"/>
-      <c r="E303" s="146"/>
-      <c r="F303" s="146"/>
-      <c r="G303" s="146"/>
-      <c r="H303" s="146"/>
-      <c r="I303" s="146"/>
-      <c r="J303" s="146"/>
-      <c r="K303" s="147"/>
+      <c r="B303" s="75"/>
+      <c r="C303" s="76"/>
+      <c r="D303" s="76"/>
+      <c r="E303" s="76"/>
+      <c r="F303" s="76"/>
+      <c r="G303" s="76"/>
+      <c r="H303" s="76"/>
+      <c r="I303" s="76"/>
+      <c r="J303" s="76"/>
+      <c r="K303" s="77"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304"/>
-      <c r="B304" s="137">
+      <c r="B304" s="78">
         <f>J291+3</f>
         <v>46132</v>
       </c>
-      <c r="C304" s="138"/>
-      <c r="D304" s="139">
+      <c r="C304" s="79"/>
+      <c r="D304" s="80">
         <f>B304+1</f>
         <v>46133</v>
       </c>
-      <c r="E304" s="138"/>
-      <c r="F304" s="140">
+      <c r="E304" s="79"/>
+      <c r="F304" s="81">
         <f>D304+1</f>
         <v>46134</v>
       </c>
-      <c r="G304" s="138"/>
-      <c r="H304" s="141">
+      <c r="G304" s="79"/>
+      <c r="H304" s="82">
         <f>F304+1</f>
         <v>46135</v>
       </c>
-      <c r="I304" s="138"/>
-      <c r="J304" s="142">
+      <c r="I304" s="79"/>
+      <c r="J304" s="83">
         <f>H304+1</f>
         <v>46136</v>
       </c>
-      <c r="K304" s="138"/>
+      <c r="K304" s="79"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305"/>
-      <c r="B305" s="83"/>
-      <c r="C305" s="151"/>
-      <c r="D305" s="81"/>
-      <c r="E305" s="151"/>
-      <c r="F305" s="79"/>
-      <c r="G305" s="151"/>
-      <c r="H305" s="77"/>
-      <c r="I305" s="151"/>
-      <c r="J305" s="75"/>
-      <c r="K305" s="151"/>
+      <c r="B305" s="64"/>
+      <c r="C305" s="65"/>
+      <c r="D305" s="66"/>
+      <c r="E305" s="65"/>
+      <c r="F305" s="67"/>
+      <c r="G305" s="65"/>
+      <c r="H305" s="68"/>
+      <c r="I305" s="65"/>
+      <c r="J305" s="69"/>
+      <c r="K305" s="65"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306"/>
@@ -6317,85 +6324,85 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313"/>
-      <c r="B313" s="152"/>
-      <c r="C313" s="153"/>
-      <c r="D313" s="153"/>
-      <c r="E313" s="153"/>
-      <c r="F313" s="153"/>
-      <c r="G313" s="153"/>
-      <c r="H313" s="153"/>
-      <c r="I313" s="153"/>
-      <c r="J313" s="153"/>
-      <c r="K313" s="151"/>
+      <c r="B313" s="70"/>
+      <c r="C313" s="71"/>
+      <c r="D313" s="71"/>
+      <c r="E313" s="71"/>
+      <c r="F313" s="71"/>
+      <c r="G313" s="71"/>
+      <c r="H313" s="71"/>
+      <c r="I313" s="71"/>
+      <c r="J313" s="71"/>
+      <c r="K313" s="65"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315"/>
-      <c r="B315" s="60" t="s">
+      <c r="B315" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C315" s="143"/>
-      <c r="D315" s="143"/>
-      <c r="E315" s="143"/>
-      <c r="F315" s="143"/>
-      <c r="G315" s="143"/>
-      <c r="H315" s="143"/>
-      <c r="I315" s="143"/>
-      <c r="J315" s="143"/>
-      <c r="K315" s="144"/>
+      <c r="C315" s="73"/>
+      <c r="D315" s="73"/>
+      <c r="E315" s="73"/>
+      <c r="F315" s="73"/>
+      <c r="G315" s="73"/>
+      <c r="H315" s="73"/>
+      <c r="I315" s="73"/>
+      <c r="J315" s="73"/>
+      <c r="K315" s="74"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316"/>
-      <c r="B316" s="145"/>
-      <c r="C316" s="146"/>
-      <c r="D316" s="146"/>
-      <c r="E316" s="146"/>
-      <c r="F316" s="146"/>
-      <c r="G316" s="146"/>
-      <c r="H316" s="146"/>
-      <c r="I316" s="146"/>
-      <c r="J316" s="146"/>
-      <c r="K316" s="147"/>
+      <c r="B316" s="75"/>
+      <c r="C316" s="76"/>
+      <c r="D316" s="76"/>
+      <c r="E316" s="76"/>
+      <c r="F316" s="76"/>
+      <c r="G316" s="76"/>
+      <c r="H316" s="76"/>
+      <c r="I316" s="76"/>
+      <c r="J316" s="76"/>
+      <c r="K316" s="77"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317"/>
-      <c r="B317" s="137">
+      <c r="B317" s="78">
         <f>J304+3</f>
         <v>46139</v>
       </c>
-      <c r="C317" s="138"/>
-      <c r="D317" s="139">
+      <c r="C317" s="79"/>
+      <c r="D317" s="80">
         <f>B317+1</f>
         <v>46140</v>
       </c>
-      <c r="E317" s="138"/>
-      <c r="F317" s="140">
+      <c r="E317" s="79"/>
+      <c r="F317" s="81">
         <f>D317+1</f>
         <v>46141</v>
       </c>
-      <c r="G317" s="138"/>
-      <c r="H317" s="141">
+      <c r="G317" s="79"/>
+      <c r="H317" s="82">
         <f>F317+1</f>
         <v>46142</v>
       </c>
-      <c r="I317" s="138"/>
-      <c r="J317" s="142">
+      <c r="I317" s="79"/>
+      <c r="J317" s="83">
         <f>H317+1</f>
         <v>46143</v>
       </c>
-      <c r="K317" s="138"/>
+      <c r="K317" s="79"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318"/>
-      <c r="B318" s="83"/>
-      <c r="C318" s="151"/>
-      <c r="D318" s="81"/>
-      <c r="E318" s="151"/>
-      <c r="F318" s="79"/>
-      <c r="G318" s="151"/>
-      <c r="H318" s="77"/>
-      <c r="I318" s="151"/>
-      <c r="J318" s="75"/>
-      <c r="K318" s="151"/>
+      <c r="B318" s="64"/>
+      <c r="C318" s="65"/>
+      <c r="D318" s="66"/>
+      <c r="E318" s="65"/>
+      <c r="F318" s="67"/>
+      <c r="G318" s="65"/>
+      <c r="H318" s="68"/>
+      <c r="I318" s="65"/>
+      <c r="J318" s="69"/>
+      <c r="K318" s="65"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319"/>
@@ -6500,85 +6507,85 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326"/>
-      <c r="B326" s="152"/>
-      <c r="C326" s="153"/>
-      <c r="D326" s="153"/>
-      <c r="E326" s="153"/>
-      <c r="F326" s="153"/>
-      <c r="G326" s="153"/>
-      <c r="H326" s="153"/>
-      <c r="I326" s="153"/>
-      <c r="J326" s="153"/>
-      <c r="K326" s="151"/>
+      <c r="B326" s="70"/>
+      <c r="C326" s="71"/>
+      <c r="D326" s="71"/>
+      <c r="E326" s="71"/>
+      <c r="F326" s="71"/>
+      <c r="G326" s="71"/>
+      <c r="H326" s="71"/>
+      <c r="I326" s="71"/>
+      <c r="J326" s="71"/>
+      <c r="K326" s="65"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328"/>
-      <c r="B328" s="60" t="s">
+      <c r="B328" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C328" s="143"/>
-      <c r="D328" s="143"/>
-      <c r="E328" s="143"/>
-      <c r="F328" s="143"/>
-      <c r="G328" s="143"/>
-      <c r="H328" s="143"/>
-      <c r="I328" s="143"/>
-      <c r="J328" s="143"/>
-      <c r="K328" s="144"/>
+      <c r="C328" s="73"/>
+      <c r="D328" s="73"/>
+      <c r="E328" s="73"/>
+      <c r="F328" s="73"/>
+      <c r="G328" s="73"/>
+      <c r="H328" s="73"/>
+      <c r="I328" s="73"/>
+      <c r="J328" s="73"/>
+      <c r="K328" s="74"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329"/>
-      <c r="B329" s="145"/>
-      <c r="C329" s="146"/>
-      <c r="D329" s="146"/>
-      <c r="E329" s="146"/>
-      <c r="F329" s="146"/>
-      <c r="G329" s="146"/>
-      <c r="H329" s="146"/>
-      <c r="I329" s="146"/>
-      <c r="J329" s="146"/>
-      <c r="K329" s="147"/>
+      <c r="B329" s="75"/>
+      <c r="C329" s="76"/>
+      <c r="D329" s="76"/>
+      <c r="E329" s="76"/>
+      <c r="F329" s="76"/>
+      <c r="G329" s="76"/>
+      <c r="H329" s="76"/>
+      <c r="I329" s="76"/>
+      <c r="J329" s="76"/>
+      <c r="K329" s="77"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330"/>
-      <c r="B330" s="137">
+      <c r="B330" s="78">
         <f>J317+3</f>
         <v>46146</v>
       </c>
-      <c r="C330" s="138"/>
-      <c r="D330" s="139">
+      <c r="C330" s="79"/>
+      <c r="D330" s="80">
         <f>B330+1</f>
         <v>46147</v>
       </c>
-      <c r="E330" s="138"/>
-      <c r="F330" s="140">
+      <c r="E330" s="79"/>
+      <c r="F330" s="81">
         <f>D330+1</f>
         <v>46148</v>
       </c>
-      <c r="G330" s="138"/>
-      <c r="H330" s="141">
+      <c r="G330" s="79"/>
+      <c r="H330" s="82">
         <f>F330+1</f>
         <v>46149</v>
       </c>
-      <c r="I330" s="138"/>
-      <c r="J330" s="142">
+      <c r="I330" s="79"/>
+      <c r="J330" s="83">
         <f>H330+1</f>
         <v>46150</v>
       </c>
-      <c r="K330" s="138"/>
+      <c r="K330" s="79"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331"/>
-      <c r="B331" s="83"/>
-      <c r="C331" s="151"/>
-      <c r="D331" s="81"/>
-      <c r="E331" s="151"/>
-      <c r="F331" s="79"/>
-      <c r="G331" s="151"/>
-      <c r="H331" s="77"/>
-      <c r="I331" s="151"/>
-      <c r="J331" s="75"/>
-      <c r="K331" s="151"/>
+      <c r="B331" s="64"/>
+      <c r="C331" s="65"/>
+      <c r="D331" s="66"/>
+      <c r="E331" s="65"/>
+      <c r="F331" s="67"/>
+      <c r="G331" s="65"/>
+      <c r="H331" s="68"/>
+      <c r="I331" s="65"/>
+      <c r="J331" s="69"/>
+      <c r="K331" s="65"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332"/>
@@ -6683,19 +6690,318 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339"/>
-      <c r="B339" s="152"/>
-      <c r="C339" s="153"/>
-      <c r="D339" s="153"/>
-      <c r="E339" s="153"/>
-      <c r="F339" s="153"/>
-      <c r="G339" s="153"/>
-      <c r="H339" s="153"/>
-      <c r="I339" s="153"/>
-      <c r="J339" s="153"/>
-      <c r="K339" s="151"/>
+      <c r="B339" s="70"/>
+      <c r="C339" s="71"/>
+      <c r="D339" s="71"/>
+      <c r="E339" s="71"/>
+      <c r="F339" s="71"/>
+      <c r="G339" s="71"/>
+      <c r="H339" s="71"/>
+      <c r="I339" s="71"/>
+      <c r="J339" s="71"/>
+      <c r="K339" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="323">
+    <mergeCell ref="B13:K14"/>
+    <mergeCell ref="J82:K88"/>
+    <mergeCell ref="J95:K101"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B26:K27"/>
+    <mergeCell ref="B39:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B1:C7"/>
+    <mergeCell ref="D1:I6"/>
+    <mergeCell ref="J1:K7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B52:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B65:K66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B56:C62"/>
+    <mergeCell ref="B78:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B91:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B89:K89"/>
+    <mergeCell ref="H82:I88"/>
+    <mergeCell ref="F82:G88"/>
+    <mergeCell ref="B104:K105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="H95:I101"/>
+    <mergeCell ref="F95:G101"/>
+    <mergeCell ref="B120:K121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="B118:K118"/>
+    <mergeCell ref="B133:K134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="B131:K131"/>
+    <mergeCell ref="B146:K147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="B144:K144"/>
+    <mergeCell ref="B159:K160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B157:K157"/>
+    <mergeCell ref="B172:K173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="B170:K170"/>
+    <mergeCell ref="B185:K186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="B183:K183"/>
+    <mergeCell ref="B198:K199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="B196:K196"/>
+    <mergeCell ref="B211:K212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="B209:K209"/>
+    <mergeCell ref="B224:K225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="B222:K222"/>
+    <mergeCell ref="B237:K238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="B235:K235"/>
+    <mergeCell ref="B250:K251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="B248:K248"/>
+    <mergeCell ref="B263:K264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="B261:K261"/>
+    <mergeCell ref="B276:K277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="B274:K274"/>
+    <mergeCell ref="B289:K290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="B287:K287"/>
+    <mergeCell ref="B302:K303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="B300:K300"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="B313:K313"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -6720,305 +7026,6 @@
     <mergeCell ref="B315:K316"/>
     <mergeCell ref="B317:C317"/>
     <mergeCell ref="D317:E317"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="B313:K313"/>
-    <mergeCell ref="B302:K303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="B300:K300"/>
-    <mergeCell ref="B289:K290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="B287:K287"/>
-    <mergeCell ref="B276:K277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="F278:G278"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="F266:G266"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="B274:K274"/>
-    <mergeCell ref="B263:K264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="B261:K261"/>
-    <mergeCell ref="B250:K251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="F252:G252"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="B248:K248"/>
-    <mergeCell ref="B237:K238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="B235:K235"/>
-    <mergeCell ref="B224:K225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="B222:K222"/>
-    <mergeCell ref="B211:K212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="B209:K209"/>
-    <mergeCell ref="B198:K199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="B196:K196"/>
-    <mergeCell ref="B185:K186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="B183:K183"/>
-    <mergeCell ref="B172:K173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="B170:K170"/>
-    <mergeCell ref="B159:K160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B157:K157"/>
-    <mergeCell ref="B146:K147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="B144:K144"/>
-    <mergeCell ref="B133:K134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="B131:K131"/>
-    <mergeCell ref="B120:K121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="B118:K118"/>
-    <mergeCell ref="B104:K105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="H95:I101"/>
-    <mergeCell ref="F95:G101"/>
-    <mergeCell ref="B91:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B89:K89"/>
-    <mergeCell ref="H82:I88"/>
-    <mergeCell ref="F82:G88"/>
-    <mergeCell ref="B78:K79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B65:K66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B56:C62"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B52:K53"/>
-    <mergeCell ref="B1:C7"/>
-    <mergeCell ref="D1:I6"/>
-    <mergeCell ref="J1:K7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="B13:K14"/>
-    <mergeCell ref="J82:K88"/>
-    <mergeCell ref="J95:K101"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B26:K27"/>
-    <mergeCell ref="B39:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>
@@ -7030,8 +7037,9 @@
     <hyperlink ref="D107:E107" r:id="rId7" display="Grabación de la clase"/>
     <hyperlink ref="F107:G107" r:id="rId8" display="Grabación de la clase"/>
     <hyperlink ref="J8" r:id="rId9"/>
+    <hyperlink ref="H107:I107" r:id="rId10" display="Grabación de la clase"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -225,9 +225,6 @@
     <t>Tuplas</t>
   </si>
   <si>
-    <t>Diccionarios</t>
-  </si>
-  <si>
     <t>Sets</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>Resolución de ejercicios bucles en grupos</t>
+  </si>
+  <si>
+    <t>Estructuras de Datos --&gt; Diccionarios</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1173,60 +1173,237 @@
     <xf numFmtId="0" fontId="13" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1234,198 +1411,24 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1716,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107:I107"/>
+    <sheetView tabSelected="1" topLeftCell="B103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1739,179 +1742,179 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="122" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="127"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="128"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="128"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="120"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="128"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="120"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="128"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="120"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="128"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="120"/>
     </row>
     <row r="7" spans="1:11" ht="18">
       <c r="A7" s="2"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="129"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="121"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="130" t="s">
+      <c r="C8" s="123"/>
+      <c r="D8" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="131"/>
-      <c r="F8" s="134" t="s">
+      <c r="E8" s="123"/>
+      <c r="F8" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="138" t="s">
+      <c r="G8" s="127"/>
+      <c r="H8" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="135"/>
-      <c r="J8" s="139" t="s">
+      <c r="I8" s="127"/>
+      <c r="J8" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="135"/>
+      <c r="K8" s="127"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="137"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="129"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="134" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="141"/>
-      <c r="H10" s="138" t="s">
+      <c r="B10" s="132"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="135"/>
-      <c r="J10" s="138" t="s">
+      <c r="G10" s="133"/>
+      <c r="H10" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="135"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="130" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" s="127"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="136"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="137"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="129"/>
     </row>
     <row r="12" spans="1:11" ht="2.25" hidden="1" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="63">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="60" t="s">
+      <c r="C12" s="112"/>
+      <c r="D12" s="160">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="112"/>
+      <c r="F12" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="61"/>
+      <c r="G12" s="112"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
@@ -1919,71 +1922,71 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5"/>
-      <c r="B15" s="107">
+      <c r="B15" s="93">
         <v>45978</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="109">
+      <c r="C15" s="94"/>
+      <c r="D15" s="91">
         <f>B15+1</f>
         <v>45979</v>
       </c>
-      <c r="E15" s="110"/>
-      <c r="F15" s="111">
+      <c r="E15" s="92"/>
+      <c r="F15" s="89">
         <f>D15+1</f>
         <v>45980</v>
       </c>
-      <c r="G15" s="112"/>
-      <c r="H15" s="113">
+      <c r="G15" s="90"/>
+      <c r="H15" s="87">
         <f>F15+1</f>
         <v>45981</v>
       </c>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115">
+      <c r="I15" s="88"/>
+      <c r="J15" s="85">
         <f>H15+1</f>
         <v>45982</v>
       </c>
-      <c r="K15" s="116"/>
+      <c r="K15" s="86"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="97"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="76"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6"/>
@@ -2093,16 +2096,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="27"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="100"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2"/>
@@ -2119,72 +2122,72 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="154" t="s">
+      <c r="B26" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="156"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="107"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="159"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="110"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5"/>
-      <c r="B28" s="144">
+      <c r="B28" s="95">
         <f>J15+3</f>
         <v>45985</v>
       </c>
-      <c r="C28" s="145"/>
-      <c r="D28" s="146">
+      <c r="C28" s="96"/>
+      <c r="D28" s="97">
         <f>B28+1</f>
         <v>45986</v>
       </c>
-      <c r="E28" s="147"/>
-      <c r="F28" s="148">
+      <c r="E28" s="98"/>
+      <c r="F28" s="99">
         <f>D28+1</f>
         <v>45987</v>
       </c>
-      <c r="G28" s="149"/>
-      <c r="H28" s="150">
+      <c r="G28" s="100"/>
+      <c r="H28" s="101">
         <f>F28+1</f>
         <v>45988</v>
       </c>
-      <c r="I28" s="151"/>
-      <c r="J28" s="152">
+      <c r="I28" s="102"/>
+      <c r="J28" s="103">
         <f>H28+1</f>
         <v>45989</v>
       </c>
-      <c r="K28" s="153"/>
+      <c r="K28" s="104"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="118"/>
-      <c r="K29" s="119"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="137"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="6"/>
@@ -2294,16 +2297,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="27"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="100"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="74"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2"/>
@@ -2320,74 +2323,74 @@
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="89"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="62"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="92"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="65"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2"/>
-      <c r="B41" s="107">
+      <c r="B41" s="93">
         <f>J28+3</f>
         <v>45992</v>
       </c>
-      <c r="C41" s="108"/>
-      <c r="D41" s="109">
+      <c r="C41" s="94"/>
+      <c r="D41" s="91">
         <f>B41+1</f>
         <v>45993</v>
       </c>
-      <c r="E41" s="110"/>
-      <c r="F41" s="111">
+      <c r="E41" s="92"/>
+      <c r="F41" s="89">
         <f>D41+1</f>
         <v>45994</v>
       </c>
-      <c r="G41" s="112"/>
-      <c r="H41" s="113">
+      <c r="G41" s="90"/>
+      <c r="H41" s="87">
         <f>F41+1</f>
         <v>45995</v>
       </c>
-      <c r="I41" s="114"/>
-      <c r="J41" s="115">
+      <c r="I41" s="88"/>
+      <c r="J41" s="85">
         <f>H41+1</f>
         <v>45996</v>
       </c>
-      <c r="K41" s="116"/>
+      <c r="K41" s="86"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="87" t="s">
+      <c r="B42" s="83"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="117"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="97"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="76"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2"/>
@@ -2525,16 +2528,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="99"/>
-      <c r="K50" s="100"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="73"/>
+      <c r="H50" s="73"/>
+      <c r="I50" s="73"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="74"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2"/>
@@ -2550,75 +2553,75 @@
       <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1">
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="89"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="62"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="B53" s="90"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="91"/>
-      <c r="K53" s="92"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="65"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="B54" s="107">
+      <c r="B54" s="93">
         <f>J41+3</f>
         <v>45999</v>
       </c>
-      <c r="C54" s="108"/>
-      <c r="D54" s="109">
+      <c r="C54" s="94"/>
+      <c r="D54" s="91">
         <f>B54+1</f>
         <v>46000</v>
       </c>
-      <c r="E54" s="110"/>
-      <c r="F54" s="111">
+      <c r="E54" s="92"/>
+      <c r="F54" s="89">
         <f>D54+1</f>
         <v>46001</v>
       </c>
-      <c r="G54" s="112"/>
-      <c r="H54" s="113">
+      <c r="G54" s="90"/>
+      <c r="H54" s="87">
         <f>F54+1</f>
         <v>46002</v>
       </c>
-      <c r="I54" s="114"/>
-      <c r="J54" s="115">
+      <c r="I54" s="88"/>
+      <c r="J54" s="85">
         <f>H54+1</f>
         <v>46003</v>
       </c>
-      <c r="K54" s="116"/>
+      <c r="K54" s="86"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="B55" s="64"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="97"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="76"/>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1">
-      <c r="B56" s="101" t="s">
+      <c r="B56" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="102"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="40">
         <f>D12</f>
         <v>0.79166666666666663</v>
@@ -2649,8 +2652,8 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1">
-      <c r="B57" s="103"/>
-      <c r="C57" s="104"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="69"/>
       <c r="D57" s="17"/>
       <c r="E57" s="46" t="s">
         <v>33</v>
@@ -2665,8 +2668,8 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1">
-      <c r="B58" s="103"/>
-      <c r="C58" s="104"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="69"/>
       <c r="D58" s="22"/>
       <c r="E58" s="47" t="s">
         <v>34</v>
@@ -2681,8 +2684,8 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1">
-      <c r="B59" s="103"/>
-      <c r="C59" s="104"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="69"/>
       <c r="D59" s="17"/>
       <c r="E59" s="46" t="s">
         <v>35</v>
@@ -2697,8 +2700,8 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1">
-      <c r="B60" s="103"/>
-      <c r="C60" s="104"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="69"/>
       <c r="D60" s="31"/>
       <c r="E60" s="47"/>
       <c r="F60" s="32"/>
@@ -2709,8 +2712,8 @@
       <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1">
-      <c r="B61" s="103"/>
-      <c r="C61" s="104"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="36"/>
       <c r="E61" s="46"/>
       <c r="F61" s="36"/>
@@ -2725,8 +2728,8 @@
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1">
-      <c r="B62" s="105"/>
-      <c r="C62" s="106"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="71"/>
       <c r="D62" s="31"/>
       <c r="E62" s="47"/>
       <c r="F62" s="32"/>
@@ -2737,81 +2740,81 @@
       <c r="K62" s="48"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="B63" s="98"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
-      <c r="K63" s="100"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="73"/>
+      <c r="H63" s="73"/>
+      <c r="I63" s="73"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="74"/>
     </row>
     <row r="65" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="88"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="88"/>
-      <c r="F65" s="88"/>
-      <c r="G65" s="88"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="88"/>
-      <c r="J65" s="88"/>
-      <c r="K65" s="89"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="62"/>
     </row>
     <row r="66" spans="2:11" customFormat="1">
-      <c r="B66" s="90"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="91"/>
-      <c r="F66" s="91"/>
-      <c r="G66" s="91"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="92"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="65"/>
     </row>
     <row r="67" spans="2:11" customFormat="1">
-      <c r="B67" s="107">
+      <c r="B67" s="93">
         <f>J54+3</f>
         <v>46006</v>
       </c>
-      <c r="C67" s="108"/>
-      <c r="D67" s="109">
+      <c r="C67" s="94"/>
+      <c r="D67" s="91">
         <f>B67+1</f>
         <v>46007</v>
       </c>
-      <c r="E67" s="110"/>
-      <c r="F67" s="111">
+      <c r="E67" s="92"/>
+      <c r="F67" s="89">
         <f>D67+1</f>
         <v>46008</v>
       </c>
-      <c r="G67" s="112"/>
-      <c r="H67" s="113">
+      <c r="G67" s="90"/>
+      <c r="H67" s="87">
         <f>F67+1</f>
         <v>46009</v>
       </c>
-      <c r="I67" s="114"/>
-      <c r="J67" s="115">
+      <c r="I67" s="88"/>
+      <c r="J67" s="85">
         <f>H67+1</f>
         <v>46010</v>
       </c>
-      <c r="K67" s="116"/>
+      <c r="K67" s="86"/>
     </row>
     <row r="68" spans="2:11" customFormat="1">
-      <c r="B68" s="64"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="96"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="97"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="76"/>
     </row>
     <row r="69" spans="2:11" customFormat="1">
       <c r="B69" s="39">
@@ -2913,81 +2916,81 @@
       <c r="K75" s="48"/>
     </row>
     <row r="76" spans="2:11" customFormat="1">
-      <c r="B76" s="98"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="99"/>
-      <c r="H76" s="99"/>
-      <c r="I76" s="99"/>
-      <c r="J76" s="99"/>
-      <c r="K76" s="100"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="73"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="73"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="73"/>
+      <c r="J76" s="73"/>
+      <c r="K76" s="74"/>
     </row>
     <row r="78" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B78" s="72" t="s">
+      <c r="B78" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="88"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="88"/>
-      <c r="G78" s="88"/>
-      <c r="H78" s="88"/>
-      <c r="I78" s="88"/>
-      <c r="J78" s="88"/>
-      <c r="K78" s="89"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="62"/>
     </row>
     <row r="79" spans="2:11" customFormat="1">
-      <c r="B79" s="90"/>
-      <c r="C79" s="91"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
-      <c r="J79" s="91"/>
-      <c r="K79" s="92"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="65"/>
     </row>
     <row r="80" spans="2:11" customFormat="1">
-      <c r="B80" s="107">
+      <c r="B80" s="93">
         <f>J67+3</f>
         <v>46013</v>
       </c>
-      <c r="C80" s="108"/>
-      <c r="D80" s="109">
+      <c r="C80" s="94"/>
+      <c r="D80" s="91">
         <f>B80+1</f>
         <v>46014</v>
       </c>
-      <c r="E80" s="110"/>
-      <c r="F80" s="111">
+      <c r="E80" s="92"/>
+      <c r="F80" s="89">
         <f>D80+1</f>
         <v>46015</v>
       </c>
-      <c r="G80" s="112"/>
-      <c r="H80" s="113">
+      <c r="G80" s="90"/>
+      <c r="H80" s="87">
         <f>F80+1</f>
         <v>46016</v>
       </c>
-      <c r="I80" s="114"/>
-      <c r="J80" s="115">
+      <c r="I80" s="88"/>
+      <c r="J80" s="85">
         <f>H80+1</f>
         <v>46017</v>
       </c>
-      <c r="K80" s="116"/>
+      <c r="K80" s="86"/>
     </row>
     <row r="81" spans="2:11" customFormat="1">
-      <c r="B81" s="64"/>
-      <c r="C81" s="93"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="94"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="95"/>
-      <c r="H81" s="68"/>
-      <c r="I81" s="96"/>
-      <c r="J81" s="69"/>
-      <c r="K81" s="97"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="78"/>
+      <c r="J81" s="75"/>
+      <c r="K81" s="76"/>
     </row>
     <row r="82" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B82" s="39">
@@ -3000,167 +3003,167 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E82" s="43"/>
-      <c r="F82" s="101" t="s">
+      <c r="F82" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="102"/>
-      <c r="H82" s="101" t="s">
+      <c r="G82" s="67"/>
+      <c r="H82" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="102"/>
-      <c r="J82" s="101" t="s">
+      <c r="I82" s="67"/>
+      <c r="J82" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="102"/>
+      <c r="K82" s="67"/>
     </row>
     <row r="83" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
       <c r="D83" s="17"/>
       <c r="E83" s="46"/>
-      <c r="F83" s="103"/>
-      <c r="G83" s="104"/>
-      <c r="H83" s="103"/>
-      <c r="I83" s="104"/>
-      <c r="J83" s="103"/>
-      <c r="K83" s="104"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="69"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="69"/>
     </row>
     <row r="84" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B84" s="7"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
       <c r="E84" s="47"/>
-      <c r="F84" s="103"/>
-      <c r="G84" s="104"/>
-      <c r="H84" s="103"/>
-      <c r="I84" s="104"/>
-      <c r="J84" s="103"/>
-      <c r="K84" s="104"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="69"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="69"/>
     </row>
     <row r="85" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="17"/>
       <c r="E85" s="46"/>
-      <c r="F85" s="103"/>
-      <c r="G85" s="104"/>
-      <c r="H85" s="103"/>
-      <c r="I85" s="104"/>
-      <c r="J85" s="103"/>
-      <c r="K85" s="104"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="69"/>
     </row>
     <row r="86" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B86" s="30"/>
       <c r="C86" s="21"/>
       <c r="D86" s="31"/>
       <c r="E86" s="47"/>
-      <c r="F86" s="103"/>
-      <c r="G86" s="104"/>
-      <c r="H86" s="103"/>
-      <c r="I86" s="104"/>
-      <c r="J86" s="103"/>
-      <c r="K86" s="104"/>
+      <c r="F86" s="68"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="69"/>
+      <c r="J86" s="68"/>
+      <c r="K86" s="69"/>
     </row>
     <row r="87" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B87" s="35"/>
       <c r="C87" s="15"/>
       <c r="D87" s="36"/>
       <c r="E87" s="46"/>
-      <c r="F87" s="103"/>
-      <c r="G87" s="104"/>
-      <c r="H87" s="103"/>
-      <c r="I87" s="104"/>
-      <c r="J87" s="103"/>
-      <c r="K87" s="104"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="68"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="69"/>
     </row>
     <row r="88" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B88" s="30"/>
       <c r="C88" s="21"/>
       <c r="D88" s="31"/>
       <c r="E88" s="47"/>
-      <c r="F88" s="105"/>
-      <c r="G88" s="106"/>
-      <c r="H88" s="105"/>
-      <c r="I88" s="106"/>
-      <c r="J88" s="105"/>
-      <c r="K88" s="106"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="70"/>
+      <c r="I88" s="71"/>
+      <c r="J88" s="70"/>
+      <c r="K88" s="71"/>
     </row>
     <row r="89" spans="2:11" customFormat="1">
-      <c r="B89" s="98"/>
-      <c r="C89" s="99"/>
-      <c r="D89" s="99"/>
-      <c r="E89" s="99"/>
-      <c r="F89" s="99"/>
-      <c r="G89" s="99"/>
-      <c r="H89" s="99"/>
-      <c r="I89" s="99"/>
-      <c r="J89" s="99"/>
-      <c r="K89" s="100"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="73"/>
+      <c r="K89" s="74"/>
     </row>
     <row r="91" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B91" s="72" t="s">
+      <c r="B91" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="C91" s="88"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="88"/>
-      <c r="F91" s="88"/>
-      <c r="G91" s="88"/>
-      <c r="H91" s="88"/>
-      <c r="I91" s="88"/>
-      <c r="J91" s="88"/>
-      <c r="K91" s="89"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="61"/>
+      <c r="K91" s="62"/>
     </row>
     <row r="92" spans="2:11" customFormat="1">
-      <c r="B92" s="90"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="91"/>
-      <c r="E92" s="91"/>
-      <c r="F92" s="91"/>
-      <c r="G92" s="91"/>
-      <c r="H92" s="91"/>
-      <c r="I92" s="91"/>
-      <c r="J92" s="91"/>
-      <c r="K92" s="92"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="64"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="65"/>
     </row>
     <row r="93" spans="2:11" customFormat="1">
-      <c r="B93" s="107">
+      <c r="B93" s="93">
         <f>J80+3</f>
         <v>46020</v>
       </c>
-      <c r="C93" s="108"/>
-      <c r="D93" s="109">
+      <c r="C93" s="94"/>
+      <c r="D93" s="91">
         <f>B93+1</f>
         <v>46021</v>
       </c>
-      <c r="E93" s="110"/>
-      <c r="F93" s="111">
+      <c r="E93" s="92"/>
+      <c r="F93" s="89">
         <f>D93+1</f>
         <v>46022</v>
       </c>
-      <c r="G93" s="112"/>
-      <c r="H93" s="113">
+      <c r="G93" s="90"/>
+      <c r="H93" s="87">
         <f>F93+1</f>
         <v>46023</v>
       </c>
-      <c r="I93" s="114"/>
-      <c r="J93" s="115">
+      <c r="I93" s="88"/>
+      <c r="J93" s="85">
         <f>H93+1</f>
         <v>46024</v>
       </c>
-      <c r="K93" s="116"/>
+      <c r="K93" s="86"/>
     </row>
     <row r="94" spans="2:11" customFormat="1">
-      <c r="B94" s="64"/>
-      <c r="C94" s="93"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="94"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="95"/>
-      <c r="H94" s="68"/>
-      <c r="I94" s="96"/>
-      <c r="J94" s="69"/>
-      <c r="K94" s="97"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="81"/>
+      <c r="E94" s="82"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="80"/>
+      <c r="H94" s="77"/>
+      <c r="I94" s="78"/>
+      <c r="J94" s="75"/>
+      <c r="K94" s="76"/>
     </row>
     <row r="95" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B95" s="39">
@@ -3173,175 +3176,177 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E95" s="43"/>
-      <c r="F95" s="101" t="s">
+      <c r="F95" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="102"/>
-      <c r="H95" s="101" t="s">
+      <c r="G95" s="67"/>
+      <c r="H95" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="102"/>
-      <c r="J95" s="101" t="s">
+      <c r="I95" s="67"/>
+      <c r="J95" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="102"/>
+      <c r="K95" s="67"/>
     </row>
     <row r="96" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="17"/>
       <c r="E96" s="46"/>
-      <c r="F96" s="103"/>
-      <c r="G96" s="104"/>
-      <c r="H96" s="103"/>
-      <c r="I96" s="104"/>
-      <c r="J96" s="103"/>
-      <c r="K96" s="104"/>
+      <c r="F96" s="68"/>
+      <c r="G96" s="69"/>
+      <c r="H96" s="68"/>
+      <c r="I96" s="69"/>
+      <c r="J96" s="68"/>
+      <c r="K96" s="69"/>
     </row>
     <row r="97" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B97" s="7"/>
       <c r="C97" s="21"/>
       <c r="D97" s="22"/>
       <c r="E97" s="47"/>
-      <c r="F97" s="103"/>
-      <c r="G97" s="104"/>
-      <c r="H97" s="103"/>
-      <c r="I97" s="104"/>
-      <c r="J97" s="103"/>
-      <c r="K97" s="104"/>
+      <c r="F97" s="68"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="68"/>
+      <c r="I97" s="69"/>
+      <c r="J97" s="68"/>
+      <c r="K97" s="69"/>
     </row>
     <row r="98" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="17"/>
       <c r="E98" s="46"/>
-      <c r="F98" s="103"/>
-      <c r="G98" s="104"/>
-      <c r="H98" s="103"/>
-      <c r="I98" s="104"/>
-      <c r="J98" s="103"/>
-      <c r="K98" s="104"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="68"/>
+      <c r="K98" s="69"/>
     </row>
     <row r="99" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B99" s="30"/>
       <c r="C99" s="21"/>
       <c r="D99" s="31"/>
       <c r="E99" s="47"/>
-      <c r="F99" s="103"/>
-      <c r="G99" s="104"/>
-      <c r="H99" s="103"/>
-      <c r="I99" s="104"/>
-      <c r="J99" s="103"/>
-      <c r="K99" s="104"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="69"/>
+      <c r="J99" s="68"/>
+      <c r="K99" s="69"/>
     </row>
     <row r="100" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B100" s="35"/>
       <c r="C100" s="15"/>
       <c r="D100" s="36"/>
       <c r="E100" s="46"/>
-      <c r="F100" s="103"/>
-      <c r="G100" s="104"/>
-      <c r="H100" s="103"/>
-      <c r="I100" s="104"/>
-      <c r="J100" s="103"/>
-      <c r="K100" s="104"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="69"/>
+      <c r="H100" s="68"/>
+      <c r="I100" s="69"/>
+      <c r="J100" s="68"/>
+      <c r="K100" s="69"/>
     </row>
     <row r="101" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B101" s="30"/>
       <c r="C101" s="21"/>
       <c r="D101" s="31"/>
       <c r="E101" s="47"/>
-      <c r="F101" s="105"/>
-      <c r="G101" s="106"/>
-      <c r="H101" s="105"/>
-      <c r="I101" s="106"/>
-      <c r="J101" s="105"/>
-      <c r="K101" s="106"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="70"/>
+      <c r="I101" s="71"/>
+      <c r="J101" s="70"/>
+      <c r="K101" s="71"/>
     </row>
     <row r="102" spans="2:11" customFormat="1">
-      <c r="B102" s="98"/>
-      <c r="C102" s="99"/>
-      <c r="D102" s="99"/>
-      <c r="E102" s="99"/>
-      <c r="F102" s="99"/>
-      <c r="G102" s="99"/>
-      <c r="H102" s="99"/>
-      <c r="I102" s="99"/>
-      <c r="J102" s="99"/>
-      <c r="K102" s="100"/>
+      <c r="B102" s="72"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="73"/>
+      <c r="H102" s="73"/>
+      <c r="I102" s="73"/>
+      <c r="J102" s="73"/>
+      <c r="K102" s="74"/>
     </row>
     <row r="104" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B104" s="72" t="s">
+      <c r="B104" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="88"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="88"/>
-      <c r="F104" s="88"/>
-      <c r="G104" s="88"/>
-      <c r="H104" s="88"/>
-      <c r="I104" s="88"/>
-      <c r="J104" s="88"/>
-      <c r="K104" s="89"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="61"/>
+      <c r="K104" s="62"/>
     </row>
     <row r="105" spans="2:11" customFormat="1">
-      <c r="B105" s="90"/>
-      <c r="C105" s="91"/>
-      <c r="D105" s="91"/>
-      <c r="E105" s="91"/>
-      <c r="F105" s="91"/>
-      <c r="G105" s="91"/>
-      <c r="H105" s="91"/>
-      <c r="I105" s="91"/>
-      <c r="J105" s="91"/>
-      <c r="K105" s="92"/>
+      <c r="B105" s="63"/>
+      <c r="C105" s="64"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="64"/>
+      <c r="J105" s="64"/>
+      <c r="K105" s="65"/>
     </row>
     <row r="106" spans="2:11" customFormat="1">
-      <c r="B106" s="78">
+      <c r="B106" s="140">
         <f>J93+3</f>
         <v>46027</v>
       </c>
-      <c r="C106" s="79"/>
-      <c r="D106" s="80">
+      <c r="C106" s="141"/>
+      <c r="D106" s="142">
         <f>B106+1</f>
         <v>46028</v>
       </c>
-      <c r="E106" s="79"/>
-      <c r="F106" s="81">
+      <c r="E106" s="141"/>
+      <c r="F106" s="143">
         <f>D106+1</f>
         <v>46029</v>
       </c>
-      <c r="G106" s="79"/>
-      <c r="H106" s="82">
+      <c r="G106" s="141"/>
+      <c r="H106" s="144">
         <f>F106+1</f>
         <v>46030</v>
       </c>
-      <c r="I106" s="79"/>
-      <c r="J106" s="83">
+      <c r="I106" s="141"/>
+      <c r="J106" s="145">
         <f>H106+1</f>
         <v>46031</v>
       </c>
-      <c r="K106" s="79"/>
+      <c r="K106" s="141"/>
     </row>
     <row r="107" spans="2:11" customFormat="1">
-      <c r="B107" s="84" t="s">
+      <c r="B107" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="85"/>
-      <c r="D107" s="86" t="s">
+      <c r="C107" s="152"/>
+      <c r="D107" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="85"/>
-      <c r="F107" s="87" t="s">
+      <c r="E107" s="152"/>
+      <c r="F107" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="G107" s="85"/>
-      <c r="H107" s="160" t="s">
+      <c r="G107" s="152"/>
+      <c r="H107" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="I107" s="85"/>
-      <c r="J107" s="69"/>
-      <c r="K107" s="65"/>
+      <c r="I107" s="152"/>
+      <c r="J107" s="161" t="s">
+        <v>16</v>
+      </c>
+      <c r="K107" s="152"/>
     </row>
     <row r="108" spans="2:11" customFormat="1" ht="26.25">
       <c r="B108" s="39">
@@ -3377,7 +3382,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="K108" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="2:11" customFormat="1" ht="26.25">
@@ -3395,7 +3400,7 @@
       </c>
       <c r="H109" s="17"/>
       <c r="I109" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J109" s="20"/>
       <c r="K109" s="28" t="s">
@@ -3417,7 +3422,7 @@
       </c>
       <c r="H110" s="42"/>
       <c r="I110" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J110" s="13"/>
       <c r="K110" s="45" t="s">
@@ -3438,9 +3443,7 @@
       <c r="H111" s="17"/>
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
-      <c r="K111" s="28" t="s">
-        <v>67</v>
-      </c>
+      <c r="K111" s="28"/>
     </row>
     <row r="112" spans="2:11" customFormat="1" ht="39">
       <c r="B112" s="30"/>
@@ -3533,85 +3536,85 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="71"/>
-      <c r="D118" s="71"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="71"/>
-      <c r="J118" s="71"/>
-      <c r="K118" s="65"/>
+      <c r="B118" s="156"/>
+      <c r="C118" s="157"/>
+      <c r="D118" s="157"/>
+      <c r="E118" s="157"/>
+      <c r="F118" s="157"/>
+      <c r="G118" s="157"/>
+      <c r="H118" s="157"/>
+      <c r="I118" s="157"/>
+      <c r="J118" s="157"/>
+      <c r="K118" s="155"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120"/>
-      <c r="B120" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C120" s="73"/>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="73"/>
-      <c r="I120" s="73"/>
-      <c r="J120" s="73"/>
-      <c r="K120" s="74"/>
+      <c r="B120" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C120" s="146"/>
+      <c r="D120" s="146"/>
+      <c r="E120" s="146"/>
+      <c r="F120" s="146"/>
+      <c r="G120" s="146"/>
+      <c r="H120" s="146"/>
+      <c r="I120" s="146"/>
+      <c r="J120" s="146"/>
+      <c r="K120" s="147"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121"/>
-      <c r="B121" s="75"/>
-      <c r="C121" s="76"/>
-      <c r="D121" s="76"/>
-      <c r="E121" s="76"/>
-      <c r="F121" s="76"/>
-      <c r="G121" s="76"/>
-      <c r="H121" s="76"/>
-      <c r="I121" s="76"/>
-      <c r="J121" s="76"/>
-      <c r="K121" s="77"/>
+      <c r="B121" s="148"/>
+      <c r="C121" s="149"/>
+      <c r="D121" s="149"/>
+      <c r="E121" s="149"/>
+      <c r="F121" s="149"/>
+      <c r="G121" s="149"/>
+      <c r="H121" s="149"/>
+      <c r="I121" s="149"/>
+      <c r="J121" s="149"/>
+      <c r="K121" s="150"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122"/>
-      <c r="B122" s="78">
+      <c r="B122" s="140">
         <f>J106+3</f>
         <v>46034</v>
       </c>
-      <c r="C122" s="79"/>
-      <c r="D122" s="80">
+      <c r="C122" s="141"/>
+      <c r="D122" s="142">
         <f>B122+1</f>
         <v>46035</v>
       </c>
-      <c r="E122" s="79"/>
-      <c r="F122" s="81">
+      <c r="E122" s="141"/>
+      <c r="F122" s="143">
         <f>D122+1</f>
         <v>46036</v>
       </c>
-      <c r="G122" s="79"/>
-      <c r="H122" s="82">
+      <c r="G122" s="141"/>
+      <c r="H122" s="144">
         <f>F122+1</f>
         <v>46037</v>
       </c>
-      <c r="I122" s="79"/>
-      <c r="J122" s="83">
+      <c r="I122" s="141"/>
+      <c r="J122" s="145">
         <f>H122+1</f>
         <v>46038</v>
       </c>
-      <c r="K122" s="79"/>
+      <c r="K122" s="141"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123"/>
-      <c r="B123" s="64"/>
-      <c r="C123" s="65"/>
-      <c r="D123" s="66"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="68"/>
-      <c r="I123" s="65"/>
-      <c r="J123" s="69"/>
-      <c r="K123" s="65"/>
+      <c r="B123" s="83"/>
+      <c r="C123" s="155"/>
+      <c r="D123" s="81"/>
+      <c r="E123" s="155"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="155"/>
+      <c r="H123" s="77"/>
+      <c r="I123" s="155"/>
+      <c r="J123" s="75"/>
+      <c r="K123" s="155"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124"/>
@@ -3625,7 +3628,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F124" s="10">
         <v>0.79166666666666663</v>
@@ -3637,32 +3640,32 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="I124" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J124" s="44">
         <v>0.79166666666666663</v>
       </c>
       <c r="K124" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125"/>
       <c r="B125" s="14"/>
       <c r="C125" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="46" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F125" s="17"/>
       <c r="G125" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H125" s="17"/>
       <c r="I125" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J125" s="20"/>
       <c r="K125" s="28"/>
@@ -3671,19 +3674,19 @@
       <c r="A126"/>
       <c r="B126" s="7"/>
       <c r="C126" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D126" s="22"/>
       <c r="E126" s="47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H126" s="42"/>
       <c r="I126" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J126" s="13"/>
       <c r="K126" s="45"/>
@@ -3692,19 +3695,19 @@
       <c r="A127"/>
       <c r="B127" s="14"/>
       <c r="C127" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="46" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F127" s="17"/>
       <c r="G127" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H127" s="17"/>
       <c r="I127" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J127" s="20"/>
       <c r="K127" s="28"/>
@@ -3715,7 +3718,7 @@
       <c r="C128" s="21"/>
       <c r="D128" s="31"/>
       <c r="E128" s="47" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F128" s="32"/>
       <c r="G128" s="24"/>
@@ -3729,7 +3732,9 @@
       <c r="B129" s="35"/>
       <c r="C129" s="15"/>
       <c r="D129" s="36"/>
-      <c r="E129" s="46"/>
+      <c r="E129" s="46" t="s">
+        <v>81</v>
+      </c>
       <c r="F129" s="36"/>
       <c r="G129" s="18"/>
       <c r="H129" s="36"/>
@@ -3752,85 +3757,85 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131"/>
-      <c r="B131" s="70"/>
-      <c r="C131" s="71"/>
-      <c r="D131" s="71"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="71"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="71"/>
-      <c r="J131" s="71"/>
-      <c r="K131" s="65"/>
+      <c r="B131" s="156"/>
+      <c r="C131" s="157"/>
+      <c r="D131" s="157"/>
+      <c r="E131" s="157"/>
+      <c r="F131" s="157"/>
+      <c r="G131" s="157"/>
+      <c r="H131" s="157"/>
+      <c r="I131" s="157"/>
+      <c r="J131" s="157"/>
+      <c r="K131" s="155"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133"/>
-      <c r="B133" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="C133" s="73"/>
-      <c r="D133" s="73"/>
-      <c r="E133" s="73"/>
-      <c r="F133" s="73"/>
-      <c r="G133" s="73"/>
-      <c r="H133" s="73"/>
-      <c r="I133" s="73"/>
-      <c r="J133" s="73"/>
-      <c r="K133" s="74"/>
+      <c r="B133" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C133" s="146"/>
+      <c r="D133" s="146"/>
+      <c r="E133" s="146"/>
+      <c r="F133" s="146"/>
+      <c r="G133" s="146"/>
+      <c r="H133" s="146"/>
+      <c r="I133" s="146"/>
+      <c r="J133" s="146"/>
+      <c r="K133" s="147"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134"/>
-      <c r="B134" s="75"/>
-      <c r="C134" s="76"/>
-      <c r="D134" s="76"/>
-      <c r="E134" s="76"/>
-      <c r="F134" s="76"/>
-      <c r="G134" s="76"/>
-      <c r="H134" s="76"/>
-      <c r="I134" s="76"/>
-      <c r="J134" s="76"/>
-      <c r="K134" s="77"/>
+      <c r="B134" s="148"/>
+      <c r="C134" s="149"/>
+      <c r="D134" s="149"/>
+      <c r="E134" s="149"/>
+      <c r="F134" s="149"/>
+      <c r="G134" s="149"/>
+      <c r="H134" s="149"/>
+      <c r="I134" s="149"/>
+      <c r="J134" s="149"/>
+      <c r="K134" s="150"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135"/>
-      <c r="B135" s="78">
+      <c r="B135" s="140">
         <f>J122+3</f>
         <v>46041</v>
       </c>
-      <c r="C135" s="79"/>
-      <c r="D135" s="80">
+      <c r="C135" s="141"/>
+      <c r="D135" s="142">
         <f>B135+1</f>
         <v>46042</v>
       </c>
-      <c r="E135" s="79"/>
-      <c r="F135" s="81">
+      <c r="E135" s="141"/>
+      <c r="F135" s="143">
         <f>D135+1</f>
         <v>46043</v>
       </c>
-      <c r="G135" s="79"/>
-      <c r="H135" s="82">
+      <c r="G135" s="141"/>
+      <c r="H135" s="144">
         <f>F135+1</f>
         <v>46044</v>
       </c>
-      <c r="I135" s="79"/>
-      <c r="J135" s="83">
+      <c r="I135" s="141"/>
+      <c r="J135" s="145">
         <f>H135+1</f>
         <v>46045</v>
       </c>
-      <c r="K135" s="79"/>
+      <c r="K135" s="141"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136"/>
-      <c r="B136" s="64"/>
-      <c r="C136" s="65"/>
-      <c r="D136" s="66"/>
-      <c r="E136" s="65"/>
-      <c r="F136" s="67"/>
-      <c r="G136" s="65"/>
-      <c r="H136" s="68"/>
-      <c r="I136" s="65"/>
-      <c r="J136" s="69"/>
-      <c r="K136" s="65"/>
+      <c r="B136" s="83"/>
+      <c r="C136" s="155"/>
+      <c r="D136" s="81"/>
+      <c r="E136" s="155"/>
+      <c r="F136" s="79"/>
+      <c r="G136" s="155"/>
+      <c r="H136" s="77"/>
+      <c r="I136" s="155"/>
+      <c r="J136" s="75"/>
+      <c r="K136" s="155"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137"/>
@@ -3838,7 +3843,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C137" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D137" s="40">
         <v>0.79166666666666663</v>
@@ -3861,7 +3866,7 @@
       <c r="A138"/>
       <c r="B138" s="14"/>
       <c r="C138" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D138" s="17"/>
       <c r="E138" s="46"/>
@@ -3939,85 +3944,85 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144"/>
-      <c r="B144" s="70"/>
-      <c r="C144" s="71"/>
-      <c r="D144" s="71"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="71"/>
-      <c r="I144" s="71"/>
-      <c r="J144" s="71"/>
-      <c r="K144" s="65"/>
+      <c r="B144" s="156"/>
+      <c r="C144" s="157"/>
+      <c r="D144" s="157"/>
+      <c r="E144" s="157"/>
+      <c r="F144" s="157"/>
+      <c r="G144" s="157"/>
+      <c r="H144" s="157"/>
+      <c r="I144" s="157"/>
+      <c r="J144" s="157"/>
+      <c r="K144" s="155"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146"/>
-      <c r="B146" s="72" t="s">
+      <c r="B146" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="73"/>
-      <c r="D146" s="73"/>
-      <c r="E146" s="73"/>
-      <c r="F146" s="73"/>
-      <c r="G146" s="73"/>
-      <c r="H146" s="73"/>
-      <c r="I146" s="73"/>
-      <c r="J146" s="73"/>
-      <c r="K146" s="74"/>
+      <c r="C146" s="146"/>
+      <c r="D146" s="146"/>
+      <c r="E146" s="146"/>
+      <c r="F146" s="146"/>
+      <c r="G146" s="146"/>
+      <c r="H146" s="146"/>
+      <c r="I146" s="146"/>
+      <c r="J146" s="146"/>
+      <c r="K146" s="147"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147"/>
-      <c r="B147" s="75"/>
-      <c r="C147" s="76"/>
-      <c r="D147" s="76"/>
-      <c r="E147" s="76"/>
-      <c r="F147" s="76"/>
-      <c r="G147" s="76"/>
-      <c r="H147" s="76"/>
-      <c r="I147" s="76"/>
-      <c r="J147" s="76"/>
-      <c r="K147" s="77"/>
+      <c r="B147" s="148"/>
+      <c r="C147" s="149"/>
+      <c r="D147" s="149"/>
+      <c r="E147" s="149"/>
+      <c r="F147" s="149"/>
+      <c r="G147" s="149"/>
+      <c r="H147" s="149"/>
+      <c r="I147" s="149"/>
+      <c r="J147" s="149"/>
+      <c r="K147" s="150"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148"/>
-      <c r="B148" s="78">
+      <c r="B148" s="140">
         <f>J135+3</f>
         <v>46048</v>
       </c>
-      <c r="C148" s="79"/>
-      <c r="D148" s="80">
+      <c r="C148" s="141"/>
+      <c r="D148" s="142">
         <f>B148+1</f>
         <v>46049</v>
       </c>
-      <c r="E148" s="79"/>
-      <c r="F148" s="81">
+      <c r="E148" s="141"/>
+      <c r="F148" s="143">
         <f>D148+1</f>
         <v>46050</v>
       </c>
-      <c r="G148" s="79"/>
-      <c r="H148" s="82">
+      <c r="G148" s="141"/>
+      <c r="H148" s="144">
         <f>F148+1</f>
         <v>46051</v>
       </c>
-      <c r="I148" s="79"/>
-      <c r="J148" s="83">
+      <c r="I148" s="141"/>
+      <c r="J148" s="145">
         <f>H148+1</f>
         <v>46052</v>
       </c>
-      <c r="K148" s="79"/>
+      <c r="K148" s="141"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149"/>
-      <c r="B149" s="64"/>
-      <c r="C149" s="65"/>
-      <c r="D149" s="66"/>
-      <c r="E149" s="65"/>
-      <c r="F149" s="67"/>
-      <c r="G149" s="65"/>
-      <c r="H149" s="68"/>
-      <c r="I149" s="65"/>
-      <c r="J149" s="69"/>
-      <c r="K149" s="65"/>
+      <c r="B149" s="83"/>
+      <c r="C149" s="155"/>
+      <c r="D149" s="81"/>
+      <c r="E149" s="155"/>
+      <c r="F149" s="79"/>
+      <c r="G149" s="155"/>
+      <c r="H149" s="77"/>
+      <c r="I149" s="155"/>
+      <c r="J149" s="75"/>
+      <c r="K149" s="155"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150"/>
@@ -4122,85 +4127,85 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157"/>
-      <c r="B157" s="70"/>
-      <c r="C157" s="71"/>
-      <c r="D157" s="71"/>
-      <c r="E157" s="71"/>
-      <c r="F157" s="71"/>
-      <c r="G157" s="71"/>
-      <c r="H157" s="71"/>
-      <c r="I157" s="71"/>
-      <c r="J157" s="71"/>
-      <c r="K157" s="65"/>
+      <c r="B157" s="156"/>
+      <c r="C157" s="157"/>
+      <c r="D157" s="157"/>
+      <c r="E157" s="157"/>
+      <c r="F157" s="157"/>
+      <c r="G157" s="157"/>
+      <c r="H157" s="157"/>
+      <c r="I157" s="157"/>
+      <c r="J157" s="157"/>
+      <c r="K157" s="155"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159"/>
-      <c r="B159" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C159" s="73"/>
-      <c r="D159" s="73"/>
-      <c r="E159" s="73"/>
-      <c r="F159" s="73"/>
-      <c r="G159" s="73"/>
-      <c r="H159" s="73"/>
-      <c r="I159" s="73"/>
-      <c r="J159" s="73"/>
-      <c r="K159" s="74"/>
+      <c r="B159" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159" s="146"/>
+      <c r="D159" s="146"/>
+      <c r="E159" s="146"/>
+      <c r="F159" s="146"/>
+      <c r="G159" s="146"/>
+      <c r="H159" s="146"/>
+      <c r="I159" s="146"/>
+      <c r="J159" s="146"/>
+      <c r="K159" s="147"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160"/>
-      <c r="B160" s="75"/>
-      <c r="C160" s="76"/>
-      <c r="D160" s="76"/>
-      <c r="E160" s="76"/>
-      <c r="F160" s="76"/>
-      <c r="G160" s="76"/>
-      <c r="H160" s="76"/>
-      <c r="I160" s="76"/>
-      <c r="J160" s="76"/>
-      <c r="K160" s="77"/>
+      <c r="B160" s="148"/>
+      <c r="C160" s="149"/>
+      <c r="D160" s="149"/>
+      <c r="E160" s="149"/>
+      <c r="F160" s="149"/>
+      <c r="G160" s="149"/>
+      <c r="H160" s="149"/>
+      <c r="I160" s="149"/>
+      <c r="J160" s="149"/>
+      <c r="K160" s="150"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161"/>
-      <c r="B161" s="78">
+      <c r="B161" s="140">
         <f>J148+3</f>
         <v>46055</v>
       </c>
-      <c r="C161" s="79"/>
-      <c r="D161" s="80">
+      <c r="C161" s="141"/>
+      <c r="D161" s="142">
         <f>B161+1</f>
         <v>46056</v>
       </c>
-      <c r="E161" s="79"/>
-      <c r="F161" s="81">
+      <c r="E161" s="141"/>
+      <c r="F161" s="143">
         <f>D161+1</f>
         <v>46057</v>
       </c>
-      <c r="G161" s="79"/>
-      <c r="H161" s="82">
+      <c r="G161" s="141"/>
+      <c r="H161" s="144">
         <f>F161+1</f>
         <v>46058</v>
       </c>
-      <c r="I161" s="79"/>
-      <c r="J161" s="83">
+      <c r="I161" s="141"/>
+      <c r="J161" s="145">
         <f>H161+1</f>
         <v>46059</v>
       </c>
-      <c r="K161" s="79"/>
+      <c r="K161" s="141"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162"/>
-      <c r="B162" s="64"/>
-      <c r="C162" s="65"/>
-      <c r="D162" s="66"/>
-      <c r="E162" s="65"/>
-      <c r="F162" s="67"/>
-      <c r="G162" s="65"/>
-      <c r="H162" s="68"/>
-      <c r="I162" s="65"/>
-      <c r="J162" s="69"/>
-      <c r="K162" s="65"/>
+      <c r="B162" s="83"/>
+      <c r="C162" s="155"/>
+      <c r="D162" s="81"/>
+      <c r="E162" s="155"/>
+      <c r="F162" s="79"/>
+      <c r="G162" s="155"/>
+      <c r="H162" s="77"/>
+      <c r="I162" s="155"/>
+      <c r="J162" s="75"/>
+      <c r="K162" s="155"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163"/>
@@ -4305,85 +4310,85 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170"/>
-      <c r="B170" s="70"/>
-      <c r="C170" s="71"/>
-      <c r="D170" s="71"/>
-      <c r="E170" s="71"/>
-      <c r="F170" s="71"/>
-      <c r="G170" s="71"/>
-      <c r="H170" s="71"/>
-      <c r="I170" s="71"/>
-      <c r="J170" s="71"/>
-      <c r="K170" s="65"/>
+      <c r="B170" s="156"/>
+      <c r="C170" s="157"/>
+      <c r="D170" s="157"/>
+      <c r="E170" s="157"/>
+      <c r="F170" s="157"/>
+      <c r="G170" s="157"/>
+      <c r="H170" s="157"/>
+      <c r="I170" s="157"/>
+      <c r="J170" s="157"/>
+      <c r="K170" s="155"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172"/>
-      <c r="B172" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="C172" s="73"/>
-      <c r="D172" s="73"/>
-      <c r="E172" s="73"/>
-      <c r="F172" s="73"/>
-      <c r="G172" s="73"/>
-      <c r="H172" s="73"/>
-      <c r="I172" s="73"/>
-      <c r="J172" s="73"/>
-      <c r="K172" s="74"/>
+      <c r="B172" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" s="146"/>
+      <c r="D172" s="146"/>
+      <c r="E172" s="146"/>
+      <c r="F172" s="146"/>
+      <c r="G172" s="146"/>
+      <c r="H172" s="146"/>
+      <c r="I172" s="146"/>
+      <c r="J172" s="146"/>
+      <c r="K172" s="147"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173"/>
-      <c r="B173" s="75"/>
-      <c r="C173" s="76"/>
-      <c r="D173" s="76"/>
-      <c r="E173" s="76"/>
-      <c r="F173" s="76"/>
-      <c r="G173" s="76"/>
-      <c r="H173" s="76"/>
-      <c r="I173" s="76"/>
-      <c r="J173" s="76"/>
-      <c r="K173" s="77"/>
+      <c r="B173" s="148"/>
+      <c r="C173" s="149"/>
+      <c r="D173" s="149"/>
+      <c r="E173" s="149"/>
+      <c r="F173" s="149"/>
+      <c r="G173" s="149"/>
+      <c r="H173" s="149"/>
+      <c r="I173" s="149"/>
+      <c r="J173" s="149"/>
+      <c r="K173" s="150"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174"/>
-      <c r="B174" s="78">
+      <c r="B174" s="140">
         <f>J161+3</f>
         <v>46062</v>
       </c>
-      <c r="C174" s="79"/>
-      <c r="D174" s="80">
+      <c r="C174" s="141"/>
+      <c r="D174" s="142">
         <f>B174+1</f>
         <v>46063</v>
       </c>
-      <c r="E174" s="79"/>
-      <c r="F174" s="81">
+      <c r="E174" s="141"/>
+      <c r="F174" s="143">
         <f>D174+1</f>
         <v>46064</v>
       </c>
-      <c r="G174" s="79"/>
-      <c r="H174" s="82">
+      <c r="G174" s="141"/>
+      <c r="H174" s="144">
         <f>F174+1</f>
         <v>46065</v>
       </c>
-      <c r="I174" s="79"/>
-      <c r="J174" s="83">
+      <c r="I174" s="141"/>
+      <c r="J174" s="145">
         <f>H174+1</f>
         <v>46066</v>
       </c>
-      <c r="K174" s="79"/>
+      <c r="K174" s="141"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175"/>
-      <c r="B175" s="64"/>
-      <c r="C175" s="65"/>
-      <c r="D175" s="66"/>
-      <c r="E175" s="65"/>
-      <c r="F175" s="67"/>
-      <c r="G175" s="65"/>
-      <c r="H175" s="68"/>
-      <c r="I175" s="65"/>
-      <c r="J175" s="69"/>
-      <c r="K175" s="65"/>
+      <c r="B175" s="83"/>
+      <c r="C175" s="155"/>
+      <c r="D175" s="81"/>
+      <c r="E175" s="155"/>
+      <c r="F175" s="79"/>
+      <c r="G175" s="155"/>
+      <c r="H175" s="77"/>
+      <c r="I175" s="155"/>
+      <c r="J175" s="75"/>
+      <c r="K175" s="155"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176"/>
@@ -4488,85 +4493,85 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183"/>
-      <c r="B183" s="70"/>
-      <c r="C183" s="71"/>
-      <c r="D183" s="71"/>
-      <c r="E183" s="71"/>
-      <c r="F183" s="71"/>
-      <c r="G183" s="71"/>
-      <c r="H183" s="71"/>
-      <c r="I183" s="71"/>
-      <c r="J183" s="71"/>
-      <c r="K183" s="65"/>
+      <c r="B183" s="156"/>
+      <c r="C183" s="157"/>
+      <c r="D183" s="157"/>
+      <c r="E183" s="157"/>
+      <c r="F183" s="157"/>
+      <c r="G183" s="157"/>
+      <c r="H183" s="157"/>
+      <c r="I183" s="157"/>
+      <c r="J183" s="157"/>
+      <c r="K183" s="155"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185"/>
-      <c r="B185" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C185" s="73"/>
-      <c r="D185" s="73"/>
-      <c r="E185" s="73"/>
-      <c r="F185" s="73"/>
-      <c r="G185" s="73"/>
-      <c r="H185" s="73"/>
-      <c r="I185" s="73"/>
-      <c r="J185" s="73"/>
-      <c r="K185" s="74"/>
+      <c r="B185" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C185" s="146"/>
+      <c r="D185" s="146"/>
+      <c r="E185" s="146"/>
+      <c r="F185" s="146"/>
+      <c r="G185" s="146"/>
+      <c r="H185" s="146"/>
+      <c r="I185" s="146"/>
+      <c r="J185" s="146"/>
+      <c r="K185" s="147"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186"/>
-      <c r="B186" s="75"/>
-      <c r="C186" s="76"/>
-      <c r="D186" s="76"/>
-      <c r="E186" s="76"/>
-      <c r="F186" s="76"/>
-      <c r="G186" s="76"/>
-      <c r="H186" s="76"/>
-      <c r="I186" s="76"/>
-      <c r="J186" s="76"/>
-      <c r="K186" s="77"/>
+      <c r="B186" s="148"/>
+      <c r="C186" s="149"/>
+      <c r="D186" s="149"/>
+      <c r="E186" s="149"/>
+      <c r="F186" s="149"/>
+      <c r="G186" s="149"/>
+      <c r="H186" s="149"/>
+      <c r="I186" s="149"/>
+      <c r="J186" s="149"/>
+      <c r="K186" s="150"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187"/>
-      <c r="B187" s="78">
+      <c r="B187" s="140">
         <f>J174+3</f>
         <v>46069</v>
       </c>
-      <c r="C187" s="79"/>
-      <c r="D187" s="80">
+      <c r="C187" s="141"/>
+      <c r="D187" s="142">
         <f>B187+1</f>
         <v>46070</v>
       </c>
-      <c r="E187" s="79"/>
-      <c r="F187" s="81">
+      <c r="E187" s="141"/>
+      <c r="F187" s="143">
         <f>D187+1</f>
         <v>46071</v>
       </c>
-      <c r="G187" s="79"/>
-      <c r="H187" s="82">
+      <c r="G187" s="141"/>
+      <c r="H187" s="144">
         <f>F187+1</f>
         <v>46072</v>
       </c>
-      <c r="I187" s="79"/>
-      <c r="J187" s="83">
+      <c r="I187" s="141"/>
+      <c r="J187" s="145">
         <f>H187+1</f>
         <v>46073</v>
       </c>
-      <c r="K187" s="79"/>
+      <c r="K187" s="141"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188"/>
-      <c r="B188" s="64"/>
-      <c r="C188" s="65"/>
-      <c r="D188" s="66"/>
-      <c r="E188" s="65"/>
-      <c r="F188" s="67"/>
-      <c r="G188" s="65"/>
-      <c r="H188" s="68"/>
-      <c r="I188" s="65"/>
-      <c r="J188" s="69"/>
-      <c r="K188" s="65"/>
+      <c r="B188" s="83"/>
+      <c r="C188" s="155"/>
+      <c r="D188" s="81"/>
+      <c r="E188" s="155"/>
+      <c r="F188" s="79"/>
+      <c r="G188" s="155"/>
+      <c r="H188" s="77"/>
+      <c r="I188" s="155"/>
+      <c r="J188" s="75"/>
+      <c r="K188" s="155"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189"/>
@@ -4671,85 +4676,85 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196"/>
-      <c r="B196" s="70"/>
-      <c r="C196" s="71"/>
-      <c r="D196" s="71"/>
-      <c r="E196" s="71"/>
-      <c r="F196" s="71"/>
-      <c r="G196" s="71"/>
-      <c r="H196" s="71"/>
-      <c r="I196" s="71"/>
-      <c r="J196" s="71"/>
-      <c r="K196" s="65"/>
+      <c r="B196" s="156"/>
+      <c r="C196" s="157"/>
+      <c r="D196" s="157"/>
+      <c r="E196" s="157"/>
+      <c r="F196" s="157"/>
+      <c r="G196" s="157"/>
+      <c r="H196" s="157"/>
+      <c r="I196" s="157"/>
+      <c r="J196" s="157"/>
+      <c r="K196" s="155"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198"/>
-      <c r="B198" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="C198" s="73"/>
-      <c r="D198" s="73"/>
-      <c r="E198" s="73"/>
-      <c r="F198" s="73"/>
-      <c r="G198" s="73"/>
-      <c r="H198" s="73"/>
-      <c r="I198" s="73"/>
-      <c r="J198" s="73"/>
-      <c r="K198" s="74"/>
+      <c r="B198" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C198" s="146"/>
+      <c r="D198" s="146"/>
+      <c r="E198" s="146"/>
+      <c r="F198" s="146"/>
+      <c r="G198" s="146"/>
+      <c r="H198" s="146"/>
+      <c r="I198" s="146"/>
+      <c r="J198" s="146"/>
+      <c r="K198" s="147"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199"/>
-      <c r="B199" s="75"/>
-      <c r="C199" s="76"/>
-      <c r="D199" s="76"/>
-      <c r="E199" s="76"/>
-      <c r="F199" s="76"/>
-      <c r="G199" s="76"/>
-      <c r="H199" s="76"/>
-      <c r="I199" s="76"/>
-      <c r="J199" s="76"/>
-      <c r="K199" s="77"/>
+      <c r="B199" s="148"/>
+      <c r="C199" s="149"/>
+      <c r="D199" s="149"/>
+      <c r="E199" s="149"/>
+      <c r="F199" s="149"/>
+      <c r="G199" s="149"/>
+      <c r="H199" s="149"/>
+      <c r="I199" s="149"/>
+      <c r="J199" s="149"/>
+      <c r="K199" s="150"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200"/>
-      <c r="B200" s="78">
+      <c r="B200" s="140">
         <f>J187+3</f>
         <v>46076</v>
       </c>
-      <c r="C200" s="79"/>
-      <c r="D200" s="80">
+      <c r="C200" s="141"/>
+      <c r="D200" s="142">
         <f>B200+1</f>
         <v>46077</v>
       </c>
-      <c r="E200" s="79"/>
-      <c r="F200" s="81">
+      <c r="E200" s="141"/>
+      <c r="F200" s="143">
         <f>D200+1</f>
         <v>46078</v>
       </c>
-      <c r="G200" s="79"/>
-      <c r="H200" s="82">
+      <c r="G200" s="141"/>
+      <c r="H200" s="144">
         <f>F200+1</f>
         <v>46079</v>
       </c>
-      <c r="I200" s="79"/>
-      <c r="J200" s="83">
+      <c r="I200" s="141"/>
+      <c r="J200" s="145">
         <f>H200+1</f>
         <v>46080</v>
       </c>
-      <c r="K200" s="79"/>
+      <c r="K200" s="141"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201"/>
-      <c r="B201" s="64"/>
-      <c r="C201" s="65"/>
-      <c r="D201" s="66"/>
-      <c r="E201" s="65"/>
-      <c r="F201" s="67"/>
-      <c r="G201" s="65"/>
-      <c r="H201" s="68"/>
-      <c r="I201" s="65"/>
-      <c r="J201" s="69"/>
-      <c r="K201" s="65"/>
+      <c r="B201" s="83"/>
+      <c r="C201" s="155"/>
+      <c r="D201" s="81"/>
+      <c r="E201" s="155"/>
+      <c r="F201" s="79"/>
+      <c r="G201" s="155"/>
+      <c r="H201" s="77"/>
+      <c r="I201" s="155"/>
+      <c r="J201" s="75"/>
+      <c r="K201" s="155"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202"/>
@@ -4854,85 +4859,85 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209"/>
-      <c r="B209" s="70"/>
-      <c r="C209" s="71"/>
-      <c r="D209" s="71"/>
-      <c r="E209" s="71"/>
-      <c r="F209" s="71"/>
-      <c r="G209" s="71"/>
-      <c r="H209" s="71"/>
-      <c r="I209" s="71"/>
-      <c r="J209" s="71"/>
-      <c r="K209" s="65"/>
+      <c r="B209" s="156"/>
+      <c r="C209" s="157"/>
+      <c r="D209" s="157"/>
+      <c r="E209" s="157"/>
+      <c r="F209" s="157"/>
+      <c r="G209" s="157"/>
+      <c r="H209" s="157"/>
+      <c r="I209" s="157"/>
+      <c r="J209" s="157"/>
+      <c r="K209" s="155"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211"/>
-      <c r="B211" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="C211" s="73"/>
-      <c r="D211" s="73"/>
-      <c r="E211" s="73"/>
-      <c r="F211" s="73"/>
-      <c r="G211" s="73"/>
-      <c r="H211" s="73"/>
-      <c r="I211" s="73"/>
-      <c r="J211" s="73"/>
-      <c r="K211" s="74"/>
+      <c r="B211" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C211" s="146"/>
+      <c r="D211" s="146"/>
+      <c r="E211" s="146"/>
+      <c r="F211" s="146"/>
+      <c r="G211" s="146"/>
+      <c r="H211" s="146"/>
+      <c r="I211" s="146"/>
+      <c r="J211" s="146"/>
+      <c r="K211" s="147"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212"/>
-      <c r="B212" s="75"/>
-      <c r="C212" s="76"/>
-      <c r="D212" s="76"/>
-      <c r="E212" s="76"/>
-      <c r="F212" s="76"/>
-      <c r="G212" s="76"/>
-      <c r="H212" s="76"/>
-      <c r="I212" s="76"/>
-      <c r="J212" s="76"/>
-      <c r="K212" s="77"/>
+      <c r="B212" s="148"/>
+      <c r="C212" s="149"/>
+      <c r="D212" s="149"/>
+      <c r="E212" s="149"/>
+      <c r="F212" s="149"/>
+      <c r="G212" s="149"/>
+      <c r="H212" s="149"/>
+      <c r="I212" s="149"/>
+      <c r="J212" s="149"/>
+      <c r="K212" s="150"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213"/>
-      <c r="B213" s="78">
+      <c r="B213" s="140">
         <f>J200+3</f>
         <v>46083</v>
       </c>
-      <c r="C213" s="79"/>
-      <c r="D213" s="80">
+      <c r="C213" s="141"/>
+      <c r="D213" s="142">
         <f>B213+1</f>
         <v>46084</v>
       </c>
-      <c r="E213" s="79"/>
-      <c r="F213" s="81">
+      <c r="E213" s="141"/>
+      <c r="F213" s="143">
         <f>D213+1</f>
         <v>46085</v>
       </c>
-      <c r="G213" s="79"/>
-      <c r="H213" s="82">
+      <c r="G213" s="141"/>
+      <c r="H213" s="144">
         <f>F213+1</f>
         <v>46086</v>
       </c>
-      <c r="I213" s="79"/>
-      <c r="J213" s="83">
+      <c r="I213" s="141"/>
+      <c r="J213" s="145">
         <f>H213+1</f>
         <v>46087</v>
       </c>
-      <c r="K213" s="79"/>
+      <c r="K213" s="141"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214"/>
-      <c r="B214" s="64"/>
-      <c r="C214" s="65"/>
-      <c r="D214" s="66"/>
-      <c r="E214" s="65"/>
-      <c r="F214" s="67"/>
-      <c r="G214" s="65"/>
-      <c r="H214" s="68"/>
-      <c r="I214" s="65"/>
-      <c r="J214" s="69"/>
-      <c r="K214" s="65"/>
+      <c r="B214" s="83"/>
+      <c r="C214" s="155"/>
+      <c r="D214" s="81"/>
+      <c r="E214" s="155"/>
+      <c r="F214" s="79"/>
+      <c r="G214" s="155"/>
+      <c r="H214" s="77"/>
+      <c r="I214" s="155"/>
+      <c r="J214" s="75"/>
+      <c r="K214" s="155"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215"/>
@@ -5037,85 +5042,85 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222"/>
-      <c r="B222" s="70"/>
-      <c r="C222" s="71"/>
-      <c r="D222" s="71"/>
-      <c r="E222" s="71"/>
-      <c r="F222" s="71"/>
-      <c r="G222" s="71"/>
-      <c r="H222" s="71"/>
-      <c r="I222" s="71"/>
-      <c r="J222" s="71"/>
-      <c r="K222" s="65"/>
+      <c r="B222" s="156"/>
+      <c r="C222" s="157"/>
+      <c r="D222" s="157"/>
+      <c r="E222" s="157"/>
+      <c r="F222" s="157"/>
+      <c r="G222" s="157"/>
+      <c r="H222" s="157"/>
+      <c r="I222" s="157"/>
+      <c r="J222" s="157"/>
+      <c r="K222" s="155"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224"/>
-      <c r="B224" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="C224" s="73"/>
-      <c r="D224" s="73"/>
-      <c r="E224" s="73"/>
-      <c r="F224" s="73"/>
-      <c r="G224" s="73"/>
-      <c r="H224" s="73"/>
-      <c r="I224" s="73"/>
-      <c r="J224" s="73"/>
-      <c r="K224" s="74"/>
+      <c r="B224" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C224" s="146"/>
+      <c r="D224" s="146"/>
+      <c r="E224" s="146"/>
+      <c r="F224" s="146"/>
+      <c r="G224" s="146"/>
+      <c r="H224" s="146"/>
+      <c r="I224" s="146"/>
+      <c r="J224" s="146"/>
+      <c r="K224" s="147"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225"/>
-      <c r="B225" s="75"/>
-      <c r="C225" s="76"/>
-      <c r="D225" s="76"/>
-      <c r="E225" s="76"/>
-      <c r="F225" s="76"/>
-      <c r="G225" s="76"/>
-      <c r="H225" s="76"/>
-      <c r="I225" s="76"/>
-      <c r="J225" s="76"/>
-      <c r="K225" s="77"/>
+      <c r="B225" s="148"/>
+      <c r="C225" s="149"/>
+      <c r="D225" s="149"/>
+      <c r="E225" s="149"/>
+      <c r="F225" s="149"/>
+      <c r="G225" s="149"/>
+      <c r="H225" s="149"/>
+      <c r="I225" s="149"/>
+      <c r="J225" s="149"/>
+      <c r="K225" s="150"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226"/>
-      <c r="B226" s="78">
+      <c r="B226" s="140">
         <f>J213+3</f>
         <v>46090</v>
       </c>
-      <c r="C226" s="79"/>
-      <c r="D226" s="80">
+      <c r="C226" s="141"/>
+      <c r="D226" s="142">
         <f>B226+1</f>
         <v>46091</v>
       </c>
-      <c r="E226" s="79"/>
-      <c r="F226" s="81">
+      <c r="E226" s="141"/>
+      <c r="F226" s="143">
         <f>D226+1</f>
         <v>46092</v>
       </c>
-      <c r="G226" s="79"/>
-      <c r="H226" s="82">
+      <c r="G226" s="141"/>
+      <c r="H226" s="144">
         <f>F226+1</f>
         <v>46093</v>
       </c>
-      <c r="I226" s="79"/>
-      <c r="J226" s="83">
+      <c r="I226" s="141"/>
+      <c r="J226" s="145">
         <f>H226+1</f>
         <v>46094</v>
       </c>
-      <c r="K226" s="79"/>
+      <c r="K226" s="141"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227"/>
-      <c r="B227" s="64"/>
-      <c r="C227" s="65"/>
-      <c r="D227" s="66"/>
-      <c r="E227" s="65"/>
-      <c r="F227" s="67"/>
-      <c r="G227" s="65"/>
-      <c r="H227" s="68"/>
-      <c r="I227" s="65"/>
-      <c r="J227" s="69"/>
-      <c r="K227" s="65"/>
+      <c r="B227" s="83"/>
+      <c r="C227" s="155"/>
+      <c r="D227" s="81"/>
+      <c r="E227" s="155"/>
+      <c r="F227" s="79"/>
+      <c r="G227" s="155"/>
+      <c r="H227" s="77"/>
+      <c r="I227" s="155"/>
+      <c r="J227" s="75"/>
+      <c r="K227" s="155"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228"/>
@@ -5220,85 +5225,85 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235"/>
-      <c r="B235" s="70"/>
-      <c r="C235" s="71"/>
-      <c r="D235" s="71"/>
-      <c r="E235" s="71"/>
-      <c r="F235" s="71"/>
-      <c r="G235" s="71"/>
-      <c r="H235" s="71"/>
-      <c r="I235" s="71"/>
-      <c r="J235" s="71"/>
-      <c r="K235" s="65"/>
+      <c r="B235" s="156"/>
+      <c r="C235" s="157"/>
+      <c r="D235" s="157"/>
+      <c r="E235" s="157"/>
+      <c r="F235" s="157"/>
+      <c r="G235" s="157"/>
+      <c r="H235" s="157"/>
+      <c r="I235" s="157"/>
+      <c r="J235" s="157"/>
+      <c r="K235" s="155"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237"/>
-      <c r="B237" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="C237" s="73"/>
-      <c r="D237" s="73"/>
-      <c r="E237" s="73"/>
-      <c r="F237" s="73"/>
-      <c r="G237" s="73"/>
-      <c r="H237" s="73"/>
-      <c r="I237" s="73"/>
-      <c r="J237" s="73"/>
-      <c r="K237" s="74"/>
+      <c r="B237" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="C237" s="146"/>
+      <c r="D237" s="146"/>
+      <c r="E237" s="146"/>
+      <c r="F237" s="146"/>
+      <c r="G237" s="146"/>
+      <c r="H237" s="146"/>
+      <c r="I237" s="146"/>
+      <c r="J237" s="146"/>
+      <c r="K237" s="147"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238"/>
-      <c r="B238" s="75"/>
-      <c r="C238" s="76"/>
-      <c r="D238" s="76"/>
-      <c r="E238" s="76"/>
-      <c r="F238" s="76"/>
-      <c r="G238" s="76"/>
-      <c r="H238" s="76"/>
-      <c r="I238" s="76"/>
-      <c r="J238" s="76"/>
-      <c r="K238" s="77"/>
+      <c r="B238" s="148"/>
+      <c r="C238" s="149"/>
+      <c r="D238" s="149"/>
+      <c r="E238" s="149"/>
+      <c r="F238" s="149"/>
+      <c r="G238" s="149"/>
+      <c r="H238" s="149"/>
+      <c r="I238" s="149"/>
+      <c r="J238" s="149"/>
+      <c r="K238" s="150"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239"/>
-      <c r="B239" s="78">
+      <c r="B239" s="140">
         <f>J226+3</f>
         <v>46097</v>
       </c>
-      <c r="C239" s="79"/>
-      <c r="D239" s="80">
+      <c r="C239" s="141"/>
+      <c r="D239" s="142">
         <f>B239+1</f>
         <v>46098</v>
       </c>
-      <c r="E239" s="79"/>
-      <c r="F239" s="81">
+      <c r="E239" s="141"/>
+      <c r="F239" s="143">
         <f>D239+1</f>
         <v>46099</v>
       </c>
-      <c r="G239" s="79"/>
-      <c r="H239" s="82">
+      <c r="G239" s="141"/>
+      <c r="H239" s="144">
         <f>F239+1</f>
         <v>46100</v>
       </c>
-      <c r="I239" s="79"/>
-      <c r="J239" s="83">
+      <c r="I239" s="141"/>
+      <c r="J239" s="145">
         <f>H239+1</f>
         <v>46101</v>
       </c>
-      <c r="K239" s="79"/>
+      <c r="K239" s="141"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240"/>
-      <c r="B240" s="64"/>
-      <c r="C240" s="65"/>
-      <c r="D240" s="66"/>
-      <c r="E240" s="65"/>
-      <c r="F240" s="67"/>
-      <c r="G240" s="65"/>
-      <c r="H240" s="68"/>
-      <c r="I240" s="65"/>
-      <c r="J240" s="69"/>
-      <c r="K240" s="65"/>
+      <c r="B240" s="83"/>
+      <c r="C240" s="155"/>
+      <c r="D240" s="81"/>
+      <c r="E240" s="155"/>
+      <c r="F240" s="79"/>
+      <c r="G240" s="155"/>
+      <c r="H240" s="77"/>
+      <c r="I240" s="155"/>
+      <c r="J240" s="75"/>
+      <c r="K240" s="155"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241"/>
@@ -5403,85 +5408,85 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248"/>
-      <c r="B248" s="70"/>
-      <c r="C248" s="71"/>
-      <c r="D248" s="71"/>
-      <c r="E248" s="71"/>
-      <c r="F248" s="71"/>
-      <c r="G248" s="71"/>
-      <c r="H248" s="71"/>
-      <c r="I248" s="71"/>
-      <c r="J248" s="71"/>
-      <c r="K248" s="65"/>
+      <c r="B248" s="156"/>
+      <c r="C248" s="157"/>
+      <c r="D248" s="157"/>
+      <c r="E248" s="157"/>
+      <c r="F248" s="157"/>
+      <c r="G248" s="157"/>
+      <c r="H248" s="157"/>
+      <c r="I248" s="157"/>
+      <c r="J248" s="157"/>
+      <c r="K248" s="155"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250"/>
-      <c r="B250" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="C250" s="73"/>
-      <c r="D250" s="73"/>
-      <c r="E250" s="73"/>
-      <c r="F250" s="73"/>
-      <c r="G250" s="73"/>
-      <c r="H250" s="73"/>
-      <c r="I250" s="73"/>
-      <c r="J250" s="73"/>
-      <c r="K250" s="74"/>
+      <c r="B250" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C250" s="146"/>
+      <c r="D250" s="146"/>
+      <c r="E250" s="146"/>
+      <c r="F250" s="146"/>
+      <c r="G250" s="146"/>
+      <c r="H250" s="146"/>
+      <c r="I250" s="146"/>
+      <c r="J250" s="146"/>
+      <c r="K250" s="147"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251"/>
-      <c r="B251" s="75"/>
-      <c r="C251" s="76"/>
-      <c r="D251" s="76"/>
-      <c r="E251" s="76"/>
-      <c r="F251" s="76"/>
-      <c r="G251" s="76"/>
-      <c r="H251" s="76"/>
-      <c r="I251" s="76"/>
-      <c r="J251" s="76"/>
-      <c r="K251" s="77"/>
+      <c r="B251" s="148"/>
+      <c r="C251" s="149"/>
+      <c r="D251" s="149"/>
+      <c r="E251" s="149"/>
+      <c r="F251" s="149"/>
+      <c r="G251" s="149"/>
+      <c r="H251" s="149"/>
+      <c r="I251" s="149"/>
+      <c r="J251" s="149"/>
+      <c r="K251" s="150"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252"/>
-      <c r="B252" s="78">
+      <c r="B252" s="140">
         <f>J239+3</f>
         <v>46104</v>
       </c>
-      <c r="C252" s="79"/>
-      <c r="D252" s="80">
+      <c r="C252" s="141"/>
+      <c r="D252" s="142">
         <f>B252+1</f>
         <v>46105</v>
       </c>
-      <c r="E252" s="79"/>
-      <c r="F252" s="81">
+      <c r="E252" s="141"/>
+      <c r="F252" s="143">
         <f>D252+1</f>
         <v>46106</v>
       </c>
-      <c r="G252" s="79"/>
-      <c r="H252" s="82">
+      <c r="G252" s="141"/>
+      <c r="H252" s="144">
         <f>F252+1</f>
         <v>46107</v>
       </c>
-      <c r="I252" s="79"/>
-      <c r="J252" s="83">
+      <c r="I252" s="141"/>
+      <c r="J252" s="145">
         <f>H252+1</f>
         <v>46108</v>
       </c>
-      <c r="K252" s="79"/>
+      <c r="K252" s="141"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253"/>
-      <c r="B253" s="64"/>
-      <c r="C253" s="65"/>
-      <c r="D253" s="66"/>
-      <c r="E253" s="65"/>
-      <c r="F253" s="67"/>
-      <c r="G253" s="65"/>
-      <c r="H253" s="68"/>
-      <c r="I253" s="65"/>
-      <c r="J253" s="69"/>
-      <c r="K253" s="65"/>
+      <c r="B253" s="83"/>
+      <c r="C253" s="155"/>
+      <c r="D253" s="81"/>
+      <c r="E253" s="155"/>
+      <c r="F253" s="79"/>
+      <c r="G253" s="155"/>
+      <c r="H253" s="77"/>
+      <c r="I253" s="155"/>
+      <c r="J253" s="75"/>
+      <c r="K253" s="155"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254"/>
@@ -5505,7 +5510,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="K254" s="58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -5520,7 +5525,7 @@
       <c r="I255" s="19"/>
       <c r="J255" s="20"/>
       <c r="K255" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -5590,85 +5595,85 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261"/>
-      <c r="B261" s="70"/>
-      <c r="C261" s="71"/>
-      <c r="D261" s="71"/>
-      <c r="E261" s="71"/>
-      <c r="F261" s="71"/>
-      <c r="G261" s="71"/>
-      <c r="H261" s="71"/>
-      <c r="I261" s="71"/>
-      <c r="J261" s="71"/>
-      <c r="K261" s="65"/>
+      <c r="B261" s="156"/>
+      <c r="C261" s="157"/>
+      <c r="D261" s="157"/>
+      <c r="E261" s="157"/>
+      <c r="F261" s="157"/>
+      <c r="G261" s="157"/>
+      <c r="H261" s="157"/>
+      <c r="I261" s="157"/>
+      <c r="J261" s="157"/>
+      <c r="K261" s="155"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263"/>
-      <c r="B263" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C263" s="73"/>
-      <c r="D263" s="73"/>
-      <c r="E263" s="73"/>
-      <c r="F263" s="73"/>
-      <c r="G263" s="73"/>
-      <c r="H263" s="73"/>
-      <c r="I263" s="73"/>
-      <c r="J263" s="73"/>
-      <c r="K263" s="74"/>
+      <c r="B263" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C263" s="146"/>
+      <c r="D263" s="146"/>
+      <c r="E263" s="146"/>
+      <c r="F263" s="146"/>
+      <c r="G263" s="146"/>
+      <c r="H263" s="146"/>
+      <c r="I263" s="146"/>
+      <c r="J263" s="146"/>
+      <c r="K263" s="147"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264"/>
-      <c r="B264" s="75"/>
-      <c r="C264" s="76"/>
-      <c r="D264" s="76"/>
-      <c r="E264" s="76"/>
-      <c r="F264" s="76"/>
-      <c r="G264" s="76"/>
-      <c r="H264" s="76"/>
-      <c r="I264" s="76"/>
-      <c r="J264" s="76"/>
-      <c r="K264" s="77"/>
+      <c r="B264" s="148"/>
+      <c r="C264" s="149"/>
+      <c r="D264" s="149"/>
+      <c r="E264" s="149"/>
+      <c r="F264" s="149"/>
+      <c r="G264" s="149"/>
+      <c r="H264" s="149"/>
+      <c r="I264" s="149"/>
+      <c r="J264" s="149"/>
+      <c r="K264" s="150"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265"/>
-      <c r="B265" s="78">
+      <c r="B265" s="140">
         <f>J252+3</f>
         <v>46111</v>
       </c>
-      <c r="C265" s="79"/>
-      <c r="D265" s="80">
+      <c r="C265" s="141"/>
+      <c r="D265" s="142">
         <f>B265+1</f>
         <v>46112</v>
       </c>
-      <c r="E265" s="79"/>
-      <c r="F265" s="81">
+      <c r="E265" s="141"/>
+      <c r="F265" s="143">
         <f>D265+1</f>
         <v>46113</v>
       </c>
-      <c r="G265" s="79"/>
-      <c r="H265" s="82">
+      <c r="G265" s="141"/>
+      <c r="H265" s="144">
         <f>F265+1</f>
         <v>46114</v>
       </c>
-      <c r="I265" s="79"/>
-      <c r="J265" s="83">
+      <c r="I265" s="141"/>
+      <c r="J265" s="145">
         <f>H265+1</f>
         <v>46115</v>
       </c>
-      <c r="K265" s="79"/>
+      <c r="K265" s="141"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266"/>
-      <c r="B266" s="64"/>
-      <c r="C266" s="65"/>
-      <c r="D266" s="66"/>
-      <c r="E266" s="65"/>
-      <c r="F266" s="67"/>
-      <c r="G266" s="65"/>
-      <c r="H266" s="68"/>
-      <c r="I266" s="65"/>
-      <c r="J266" s="69"/>
-      <c r="K266" s="65"/>
+      <c r="B266" s="83"/>
+      <c r="C266" s="155"/>
+      <c r="D266" s="81"/>
+      <c r="E266" s="155"/>
+      <c r="F266" s="79"/>
+      <c r="G266" s="155"/>
+      <c r="H266" s="77"/>
+      <c r="I266" s="155"/>
+      <c r="J266" s="75"/>
+      <c r="K266" s="155"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267"/>
@@ -5688,7 +5693,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="I267" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J267" s="44">
         <v>0.79166666666666663</v>
@@ -5775,85 +5780,85 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274"/>
-      <c r="B274" s="70"/>
-      <c r="C274" s="71"/>
-      <c r="D274" s="71"/>
-      <c r="E274" s="71"/>
-      <c r="F274" s="71"/>
-      <c r="G274" s="71"/>
-      <c r="H274" s="71"/>
-      <c r="I274" s="71"/>
-      <c r="J274" s="71"/>
-      <c r="K274" s="65"/>
+      <c r="B274" s="156"/>
+      <c r="C274" s="157"/>
+      <c r="D274" s="157"/>
+      <c r="E274" s="157"/>
+      <c r="F274" s="157"/>
+      <c r="G274" s="157"/>
+      <c r="H274" s="157"/>
+      <c r="I274" s="157"/>
+      <c r="J274" s="157"/>
+      <c r="K274" s="155"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276"/>
-      <c r="B276" s="72" t="s">
+      <c r="B276" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C276" s="73"/>
-      <c r="D276" s="73"/>
-      <c r="E276" s="73"/>
-      <c r="F276" s="73"/>
-      <c r="G276" s="73"/>
-      <c r="H276" s="73"/>
-      <c r="I276" s="73"/>
-      <c r="J276" s="73"/>
-      <c r="K276" s="74"/>
+      <c r="C276" s="146"/>
+      <c r="D276" s="146"/>
+      <c r="E276" s="146"/>
+      <c r="F276" s="146"/>
+      <c r="G276" s="146"/>
+      <c r="H276" s="146"/>
+      <c r="I276" s="146"/>
+      <c r="J276" s="146"/>
+      <c r="K276" s="147"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277"/>
-      <c r="B277" s="75"/>
-      <c r="C277" s="76"/>
-      <c r="D277" s="76"/>
-      <c r="E277" s="76"/>
-      <c r="F277" s="76"/>
-      <c r="G277" s="76"/>
-      <c r="H277" s="76"/>
-      <c r="I277" s="76"/>
-      <c r="J277" s="76"/>
-      <c r="K277" s="77"/>
+      <c r="B277" s="148"/>
+      <c r="C277" s="149"/>
+      <c r="D277" s="149"/>
+      <c r="E277" s="149"/>
+      <c r="F277" s="149"/>
+      <c r="G277" s="149"/>
+      <c r="H277" s="149"/>
+      <c r="I277" s="149"/>
+      <c r="J277" s="149"/>
+      <c r="K277" s="150"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278"/>
-      <c r="B278" s="78">
+      <c r="B278" s="140">
         <f>J265+3</f>
         <v>46118</v>
       </c>
-      <c r="C278" s="79"/>
-      <c r="D278" s="80">
+      <c r="C278" s="141"/>
+      <c r="D278" s="142">
         <f>B278+1</f>
         <v>46119</v>
       </c>
-      <c r="E278" s="79"/>
-      <c r="F278" s="81">
+      <c r="E278" s="141"/>
+      <c r="F278" s="143">
         <f>D278+1</f>
         <v>46120</v>
       </c>
-      <c r="G278" s="79"/>
-      <c r="H278" s="82">
+      <c r="G278" s="141"/>
+      <c r="H278" s="144">
         <f>F278+1</f>
         <v>46121</v>
       </c>
-      <c r="I278" s="79"/>
-      <c r="J278" s="83">
+      <c r="I278" s="141"/>
+      <c r="J278" s="145">
         <f>H278+1</f>
         <v>46122</v>
       </c>
-      <c r="K278" s="79"/>
+      <c r="K278" s="141"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279"/>
-      <c r="B279" s="64"/>
-      <c r="C279" s="65"/>
-      <c r="D279" s="66"/>
-      <c r="E279" s="65"/>
-      <c r="F279" s="67"/>
-      <c r="G279" s="65"/>
-      <c r="H279" s="68"/>
-      <c r="I279" s="65"/>
-      <c r="J279" s="69"/>
-      <c r="K279" s="65"/>
+      <c r="B279" s="83"/>
+      <c r="C279" s="155"/>
+      <c r="D279" s="81"/>
+      <c r="E279" s="155"/>
+      <c r="F279" s="79"/>
+      <c r="G279" s="155"/>
+      <c r="H279" s="77"/>
+      <c r="I279" s="155"/>
+      <c r="J279" s="75"/>
+      <c r="K279" s="155"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280"/>
@@ -5958,85 +5963,85 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287"/>
-      <c r="B287" s="70"/>
-      <c r="C287" s="71"/>
-      <c r="D287" s="71"/>
-      <c r="E287" s="71"/>
-      <c r="F287" s="71"/>
-      <c r="G287" s="71"/>
-      <c r="H287" s="71"/>
-      <c r="I287" s="71"/>
-      <c r="J287" s="71"/>
-      <c r="K287" s="65"/>
+      <c r="B287" s="156"/>
+      <c r="C287" s="157"/>
+      <c r="D287" s="157"/>
+      <c r="E287" s="157"/>
+      <c r="F287" s="157"/>
+      <c r="G287" s="157"/>
+      <c r="H287" s="157"/>
+      <c r="I287" s="157"/>
+      <c r="J287" s="157"/>
+      <c r="K287" s="155"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289"/>
-      <c r="B289" s="72" t="s">
+      <c r="B289" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C289" s="73"/>
-      <c r="D289" s="73"/>
-      <c r="E289" s="73"/>
-      <c r="F289" s="73"/>
-      <c r="G289" s="73"/>
-      <c r="H289" s="73"/>
-      <c r="I289" s="73"/>
-      <c r="J289" s="73"/>
-      <c r="K289" s="74"/>
+      <c r="C289" s="146"/>
+      <c r="D289" s="146"/>
+      <c r="E289" s="146"/>
+      <c r="F289" s="146"/>
+      <c r="G289" s="146"/>
+      <c r="H289" s="146"/>
+      <c r="I289" s="146"/>
+      <c r="J289" s="146"/>
+      <c r="K289" s="147"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290"/>
-      <c r="B290" s="75"/>
-      <c r="C290" s="76"/>
-      <c r="D290" s="76"/>
-      <c r="E290" s="76"/>
-      <c r="F290" s="76"/>
-      <c r="G290" s="76"/>
-      <c r="H290" s="76"/>
-      <c r="I290" s="76"/>
-      <c r="J290" s="76"/>
-      <c r="K290" s="77"/>
+      <c r="B290" s="148"/>
+      <c r="C290" s="149"/>
+      <c r="D290" s="149"/>
+      <c r="E290" s="149"/>
+      <c r="F290" s="149"/>
+      <c r="G290" s="149"/>
+      <c r="H290" s="149"/>
+      <c r="I290" s="149"/>
+      <c r="J290" s="149"/>
+      <c r="K290" s="150"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291"/>
-      <c r="B291" s="78">
+      <c r="B291" s="140">
         <f>J278+3</f>
         <v>46125</v>
       </c>
-      <c r="C291" s="79"/>
-      <c r="D291" s="80">
+      <c r="C291" s="141"/>
+      <c r="D291" s="142">
         <f>B291+1</f>
         <v>46126</v>
       </c>
-      <c r="E291" s="79"/>
-      <c r="F291" s="81">
+      <c r="E291" s="141"/>
+      <c r="F291" s="143">
         <f>D291+1</f>
         <v>46127</v>
       </c>
-      <c r="G291" s="79"/>
-      <c r="H291" s="82">
+      <c r="G291" s="141"/>
+      <c r="H291" s="144">
         <f>F291+1</f>
         <v>46128</v>
       </c>
-      <c r="I291" s="79"/>
-      <c r="J291" s="83">
+      <c r="I291" s="141"/>
+      <c r="J291" s="145">
         <f>H291+1</f>
         <v>46129</v>
       </c>
-      <c r="K291" s="79"/>
+      <c r="K291" s="141"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292"/>
-      <c r="B292" s="64"/>
-      <c r="C292" s="65"/>
-      <c r="D292" s="66"/>
-      <c r="E292" s="65"/>
-      <c r="F292" s="67"/>
-      <c r="G292" s="65"/>
-      <c r="H292" s="68"/>
-      <c r="I292" s="65"/>
-      <c r="J292" s="69"/>
-      <c r="K292" s="65"/>
+      <c r="B292" s="83"/>
+      <c r="C292" s="155"/>
+      <c r="D292" s="81"/>
+      <c r="E292" s="155"/>
+      <c r="F292" s="79"/>
+      <c r="G292" s="155"/>
+      <c r="H292" s="77"/>
+      <c r="I292" s="155"/>
+      <c r="J292" s="75"/>
+      <c r="K292" s="155"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293"/>
@@ -6141,85 +6146,85 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300"/>
-      <c r="B300" s="70"/>
-      <c r="C300" s="71"/>
-      <c r="D300" s="71"/>
-      <c r="E300" s="71"/>
-      <c r="F300" s="71"/>
-      <c r="G300" s="71"/>
-      <c r="H300" s="71"/>
-      <c r="I300" s="71"/>
-      <c r="J300" s="71"/>
-      <c r="K300" s="65"/>
+      <c r="B300" s="156"/>
+      <c r="C300" s="157"/>
+      <c r="D300" s="157"/>
+      <c r="E300" s="157"/>
+      <c r="F300" s="157"/>
+      <c r="G300" s="157"/>
+      <c r="H300" s="157"/>
+      <c r="I300" s="157"/>
+      <c r="J300" s="157"/>
+      <c r="K300" s="155"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302"/>
-      <c r="B302" s="72" t="s">
+      <c r="B302" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C302" s="73"/>
-      <c r="D302" s="73"/>
-      <c r="E302" s="73"/>
-      <c r="F302" s="73"/>
-      <c r="G302" s="73"/>
-      <c r="H302" s="73"/>
-      <c r="I302" s="73"/>
-      <c r="J302" s="73"/>
-      <c r="K302" s="74"/>
+      <c r="C302" s="146"/>
+      <c r="D302" s="146"/>
+      <c r="E302" s="146"/>
+      <c r="F302" s="146"/>
+      <c r="G302" s="146"/>
+      <c r="H302" s="146"/>
+      <c r="I302" s="146"/>
+      <c r="J302" s="146"/>
+      <c r="K302" s="147"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303"/>
-      <c r="B303" s="75"/>
-      <c r="C303" s="76"/>
-      <c r="D303" s="76"/>
-      <c r="E303" s="76"/>
-      <c r="F303" s="76"/>
-      <c r="G303" s="76"/>
-      <c r="H303" s="76"/>
-      <c r="I303" s="76"/>
-      <c r="J303" s="76"/>
-      <c r="K303" s="77"/>
+      <c r="B303" s="148"/>
+      <c r="C303" s="149"/>
+      <c r="D303" s="149"/>
+      <c r="E303" s="149"/>
+      <c r="F303" s="149"/>
+      <c r="G303" s="149"/>
+      <c r="H303" s="149"/>
+      <c r="I303" s="149"/>
+      <c r="J303" s="149"/>
+      <c r="K303" s="150"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304"/>
-      <c r="B304" s="78">
+      <c r="B304" s="140">
         <f>J291+3</f>
         <v>46132</v>
       </c>
-      <c r="C304" s="79"/>
-      <c r="D304" s="80">
+      <c r="C304" s="141"/>
+      <c r="D304" s="142">
         <f>B304+1</f>
         <v>46133</v>
       </c>
-      <c r="E304" s="79"/>
-      <c r="F304" s="81">
+      <c r="E304" s="141"/>
+      <c r="F304" s="143">
         <f>D304+1</f>
         <v>46134</v>
       </c>
-      <c r="G304" s="79"/>
-      <c r="H304" s="82">
+      <c r="G304" s="141"/>
+      <c r="H304" s="144">
         <f>F304+1</f>
         <v>46135</v>
       </c>
-      <c r="I304" s="79"/>
-      <c r="J304" s="83">
+      <c r="I304" s="141"/>
+      <c r="J304" s="145">
         <f>H304+1</f>
         <v>46136</v>
       </c>
-      <c r="K304" s="79"/>
+      <c r="K304" s="141"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305"/>
-      <c r="B305" s="64"/>
-      <c r="C305" s="65"/>
-      <c r="D305" s="66"/>
-      <c r="E305" s="65"/>
-      <c r="F305" s="67"/>
-      <c r="G305" s="65"/>
-      <c r="H305" s="68"/>
-      <c r="I305" s="65"/>
-      <c r="J305" s="69"/>
-      <c r="K305" s="65"/>
+      <c r="B305" s="83"/>
+      <c r="C305" s="155"/>
+      <c r="D305" s="81"/>
+      <c r="E305" s="155"/>
+      <c r="F305" s="79"/>
+      <c r="G305" s="155"/>
+      <c r="H305" s="77"/>
+      <c r="I305" s="155"/>
+      <c r="J305" s="75"/>
+      <c r="K305" s="155"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306"/>
@@ -6324,85 +6329,85 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313"/>
-      <c r="B313" s="70"/>
-      <c r="C313" s="71"/>
-      <c r="D313" s="71"/>
-      <c r="E313" s="71"/>
-      <c r="F313" s="71"/>
-      <c r="G313" s="71"/>
-      <c r="H313" s="71"/>
-      <c r="I313" s="71"/>
-      <c r="J313" s="71"/>
-      <c r="K313" s="65"/>
+      <c r="B313" s="156"/>
+      <c r="C313" s="157"/>
+      <c r="D313" s="157"/>
+      <c r="E313" s="157"/>
+      <c r="F313" s="157"/>
+      <c r="G313" s="157"/>
+      <c r="H313" s="157"/>
+      <c r="I313" s="157"/>
+      <c r="J313" s="157"/>
+      <c r="K313" s="155"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315"/>
-      <c r="B315" s="72" t="s">
+      <c r="B315" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C315" s="73"/>
-      <c r="D315" s="73"/>
-      <c r="E315" s="73"/>
-      <c r="F315" s="73"/>
-      <c r="G315" s="73"/>
-      <c r="H315" s="73"/>
-      <c r="I315" s="73"/>
-      <c r="J315" s="73"/>
-      <c r="K315" s="74"/>
+      <c r="C315" s="146"/>
+      <c r="D315" s="146"/>
+      <c r="E315" s="146"/>
+      <c r="F315" s="146"/>
+      <c r="G315" s="146"/>
+      <c r="H315" s="146"/>
+      <c r="I315" s="146"/>
+      <c r="J315" s="146"/>
+      <c r="K315" s="147"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316"/>
-      <c r="B316" s="75"/>
-      <c r="C316" s="76"/>
-      <c r="D316" s="76"/>
-      <c r="E316" s="76"/>
-      <c r="F316" s="76"/>
-      <c r="G316" s="76"/>
-      <c r="H316" s="76"/>
-      <c r="I316" s="76"/>
-      <c r="J316" s="76"/>
-      <c r="K316" s="77"/>
+      <c r="B316" s="148"/>
+      <c r="C316" s="149"/>
+      <c r="D316" s="149"/>
+      <c r="E316" s="149"/>
+      <c r="F316" s="149"/>
+      <c r="G316" s="149"/>
+      <c r="H316" s="149"/>
+      <c r="I316" s="149"/>
+      <c r="J316" s="149"/>
+      <c r="K316" s="150"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317"/>
-      <c r="B317" s="78">
+      <c r="B317" s="140">
         <f>J304+3</f>
         <v>46139</v>
       </c>
-      <c r="C317" s="79"/>
-      <c r="D317" s="80">
+      <c r="C317" s="141"/>
+      <c r="D317" s="142">
         <f>B317+1</f>
         <v>46140</v>
       </c>
-      <c r="E317" s="79"/>
-      <c r="F317" s="81">
+      <c r="E317" s="141"/>
+      <c r="F317" s="143">
         <f>D317+1</f>
         <v>46141</v>
       </c>
-      <c r="G317" s="79"/>
-      <c r="H317" s="82">
+      <c r="G317" s="141"/>
+      <c r="H317" s="144">
         <f>F317+1</f>
         <v>46142</v>
       </c>
-      <c r="I317" s="79"/>
-      <c r="J317" s="83">
+      <c r="I317" s="141"/>
+      <c r="J317" s="145">
         <f>H317+1</f>
         <v>46143</v>
       </c>
-      <c r="K317" s="79"/>
+      <c r="K317" s="141"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318"/>
-      <c r="B318" s="64"/>
-      <c r="C318" s="65"/>
-      <c r="D318" s="66"/>
-      <c r="E318" s="65"/>
-      <c r="F318" s="67"/>
-      <c r="G318" s="65"/>
-      <c r="H318" s="68"/>
-      <c r="I318" s="65"/>
-      <c r="J318" s="69"/>
-      <c r="K318" s="65"/>
+      <c r="B318" s="83"/>
+      <c r="C318" s="155"/>
+      <c r="D318" s="81"/>
+      <c r="E318" s="155"/>
+      <c r="F318" s="79"/>
+      <c r="G318" s="155"/>
+      <c r="H318" s="77"/>
+      <c r="I318" s="155"/>
+      <c r="J318" s="75"/>
+      <c r="K318" s="155"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319"/>
@@ -6507,85 +6512,85 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326"/>
-      <c r="B326" s="70"/>
-      <c r="C326" s="71"/>
-      <c r="D326" s="71"/>
-      <c r="E326" s="71"/>
-      <c r="F326" s="71"/>
-      <c r="G326" s="71"/>
-      <c r="H326" s="71"/>
-      <c r="I326" s="71"/>
-      <c r="J326" s="71"/>
-      <c r="K326" s="65"/>
+      <c r="B326" s="156"/>
+      <c r="C326" s="157"/>
+      <c r="D326" s="157"/>
+      <c r="E326" s="157"/>
+      <c r="F326" s="157"/>
+      <c r="G326" s="157"/>
+      <c r="H326" s="157"/>
+      <c r="I326" s="157"/>
+      <c r="J326" s="157"/>
+      <c r="K326" s="155"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328"/>
-      <c r="B328" s="72" t="s">
+      <c r="B328" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C328" s="73"/>
-      <c r="D328" s="73"/>
-      <c r="E328" s="73"/>
-      <c r="F328" s="73"/>
-      <c r="G328" s="73"/>
-      <c r="H328" s="73"/>
-      <c r="I328" s="73"/>
-      <c r="J328" s="73"/>
-      <c r="K328" s="74"/>
+      <c r="C328" s="146"/>
+      <c r="D328" s="146"/>
+      <c r="E328" s="146"/>
+      <c r="F328" s="146"/>
+      <c r="G328" s="146"/>
+      <c r="H328" s="146"/>
+      <c r="I328" s="146"/>
+      <c r="J328" s="146"/>
+      <c r="K328" s="147"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329"/>
-      <c r="B329" s="75"/>
-      <c r="C329" s="76"/>
-      <c r="D329" s="76"/>
-      <c r="E329" s="76"/>
-      <c r="F329" s="76"/>
-      <c r="G329" s="76"/>
-      <c r="H329" s="76"/>
-      <c r="I329" s="76"/>
-      <c r="J329" s="76"/>
-      <c r="K329" s="77"/>
+      <c r="B329" s="148"/>
+      <c r="C329" s="149"/>
+      <c r="D329" s="149"/>
+      <c r="E329" s="149"/>
+      <c r="F329" s="149"/>
+      <c r="G329" s="149"/>
+      <c r="H329" s="149"/>
+      <c r="I329" s="149"/>
+      <c r="J329" s="149"/>
+      <c r="K329" s="150"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330"/>
-      <c r="B330" s="78">
+      <c r="B330" s="140">
         <f>J317+3</f>
         <v>46146</v>
       </c>
-      <c r="C330" s="79"/>
-      <c r="D330" s="80">
+      <c r="C330" s="141"/>
+      <c r="D330" s="142">
         <f>B330+1</f>
         <v>46147</v>
       </c>
-      <c r="E330" s="79"/>
-      <c r="F330" s="81">
+      <c r="E330" s="141"/>
+      <c r="F330" s="143">
         <f>D330+1</f>
         <v>46148</v>
       </c>
-      <c r="G330" s="79"/>
-      <c r="H330" s="82">
+      <c r="G330" s="141"/>
+      <c r="H330" s="144">
         <f>F330+1</f>
         <v>46149</v>
       </c>
-      <c r="I330" s="79"/>
-      <c r="J330" s="83">
+      <c r="I330" s="141"/>
+      <c r="J330" s="145">
         <f>H330+1</f>
         <v>46150</v>
       </c>
-      <c r="K330" s="79"/>
+      <c r="K330" s="141"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331"/>
-      <c r="B331" s="64"/>
-      <c r="C331" s="65"/>
-      <c r="D331" s="66"/>
-      <c r="E331" s="65"/>
-      <c r="F331" s="67"/>
-      <c r="G331" s="65"/>
-      <c r="H331" s="68"/>
-      <c r="I331" s="65"/>
-      <c r="J331" s="69"/>
-      <c r="K331" s="65"/>
+      <c r="B331" s="83"/>
+      <c r="C331" s="155"/>
+      <c r="D331" s="81"/>
+      <c r="E331" s="155"/>
+      <c r="F331" s="79"/>
+      <c r="G331" s="155"/>
+      <c r="H331" s="77"/>
+      <c r="I331" s="155"/>
+      <c r="J331" s="75"/>
+      <c r="K331" s="155"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332"/>
@@ -6690,19 +6695,318 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339"/>
-      <c r="B339" s="70"/>
-      <c r="C339" s="71"/>
-      <c r="D339" s="71"/>
-      <c r="E339" s="71"/>
-      <c r="F339" s="71"/>
-      <c r="G339" s="71"/>
-      <c r="H339" s="71"/>
-      <c r="I339" s="71"/>
-      <c r="J339" s="71"/>
-      <c r="K339" s="65"/>
+      <c r="B339" s="156"/>
+      <c r="C339" s="157"/>
+      <c r="D339" s="157"/>
+      <c r="E339" s="157"/>
+      <c r="F339" s="157"/>
+      <c r="G339" s="157"/>
+      <c r="H339" s="157"/>
+      <c r="I339" s="157"/>
+      <c r="J339" s="157"/>
+      <c r="K339" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="323">
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="D331:E331"/>
+    <mergeCell ref="F331:G331"/>
+    <mergeCell ref="H331:I331"/>
+    <mergeCell ref="J331:K331"/>
+    <mergeCell ref="B339:K339"/>
+    <mergeCell ref="B328:K329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="D330:E330"/>
+    <mergeCell ref="F330:G330"/>
+    <mergeCell ref="H330:I330"/>
+    <mergeCell ref="J330:K330"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="D318:E318"/>
+    <mergeCell ref="F318:G318"/>
+    <mergeCell ref="H318:I318"/>
+    <mergeCell ref="J318:K318"/>
+    <mergeCell ref="B326:K326"/>
+    <mergeCell ref="B315:K316"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="D317:E317"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="B313:K313"/>
+    <mergeCell ref="B302:K303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="B300:K300"/>
+    <mergeCell ref="B289:K290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="B287:K287"/>
+    <mergeCell ref="B276:K277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="B274:K274"/>
+    <mergeCell ref="B263:K264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="B261:K261"/>
+    <mergeCell ref="B250:K251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="B248:K248"/>
+    <mergeCell ref="B237:K238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="B235:K235"/>
+    <mergeCell ref="B224:K225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="B222:K222"/>
+    <mergeCell ref="B211:K212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="B209:K209"/>
+    <mergeCell ref="B198:K199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="B196:K196"/>
+    <mergeCell ref="B185:K186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="B183:K183"/>
+    <mergeCell ref="B172:K173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="B170:K170"/>
+    <mergeCell ref="B159:K160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B157:K157"/>
+    <mergeCell ref="B146:K147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="B144:K144"/>
+    <mergeCell ref="B133:K134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="B131:K131"/>
+    <mergeCell ref="B120:K121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="B118:K118"/>
+    <mergeCell ref="B104:K105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="H95:I101"/>
+    <mergeCell ref="F95:G101"/>
+    <mergeCell ref="B91:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B89:K89"/>
+    <mergeCell ref="H82:I88"/>
+    <mergeCell ref="F82:G88"/>
+    <mergeCell ref="B78:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B65:K66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B56:C62"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B52:K53"/>
+    <mergeCell ref="B1:C7"/>
+    <mergeCell ref="D1:I6"/>
+    <mergeCell ref="J1:K7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
     <mergeCell ref="B13:K14"/>
     <mergeCell ref="J82:K88"/>
     <mergeCell ref="J95:K101"/>
@@ -6727,305 +7031,6 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B1:C7"/>
-    <mergeCell ref="D1:I6"/>
-    <mergeCell ref="J1:K7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B52:K53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B65:K66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B56:C62"/>
-    <mergeCell ref="B78:K79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B91:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B89:K89"/>
-    <mergeCell ref="H82:I88"/>
-    <mergeCell ref="F82:G88"/>
-    <mergeCell ref="B104:K105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="H95:I101"/>
-    <mergeCell ref="F95:G101"/>
-    <mergeCell ref="B120:K121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="B118:K118"/>
-    <mergeCell ref="B133:K134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="B131:K131"/>
-    <mergeCell ref="B146:K147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="B144:K144"/>
-    <mergeCell ref="B159:K160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B157:K157"/>
-    <mergeCell ref="B172:K173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="B170:K170"/>
-    <mergeCell ref="B185:K186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="B183:K183"/>
-    <mergeCell ref="B198:K199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="B196:K196"/>
-    <mergeCell ref="B211:K212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="B209:K209"/>
-    <mergeCell ref="B224:K225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="B222:K222"/>
-    <mergeCell ref="B237:K238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="B235:K235"/>
-    <mergeCell ref="B250:K251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="F252:G252"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="B248:K248"/>
-    <mergeCell ref="B263:K264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="B261:K261"/>
-    <mergeCell ref="B276:K277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="F278:G278"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="F266:G266"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="B274:K274"/>
-    <mergeCell ref="B289:K290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="B287:K287"/>
-    <mergeCell ref="B302:K303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="B300:K300"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="B313:K313"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="D331:E331"/>
-    <mergeCell ref="F331:G331"/>
-    <mergeCell ref="H331:I331"/>
-    <mergeCell ref="J331:K331"/>
-    <mergeCell ref="B339:K339"/>
-    <mergeCell ref="B328:K329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="D330:E330"/>
-    <mergeCell ref="F330:G330"/>
-    <mergeCell ref="H330:I330"/>
-    <mergeCell ref="J330:K330"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="D318:E318"/>
-    <mergeCell ref="F318:G318"/>
-    <mergeCell ref="H318:I318"/>
-    <mergeCell ref="J318:K318"/>
-    <mergeCell ref="B326:K326"/>
-    <mergeCell ref="B315:K316"/>
-    <mergeCell ref="B317:C317"/>
-    <mergeCell ref="D317:E317"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>
@@ -7038,8 +7043,9 @@
     <hyperlink ref="F107:G107" r:id="rId8" display="Grabación de la clase"/>
     <hyperlink ref="J8" r:id="rId9"/>
     <hyperlink ref="H107:I107" r:id="rId10" display="Grabación de la clase"/>
+    <hyperlink ref="J107:K107" r:id="rId11" display="Grabación de la clase"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>Estructuras de Datos --&gt; Diccionarios</t>
+  </si>
+  <si>
+    <t>Live Coding Tuplas</t>
+  </si>
+  <si>
+    <t>Live Coding Sets</t>
   </si>
 </sst>
 </file>
@@ -1173,9 +1179,76 @@
     <xf numFmtId="0" fontId="13" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1191,6 +1264,30 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1209,43 +1306,28 @@
     <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1254,80 +1336,16 @@
     <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1371,65 +1389,53 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1719,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K112" sqref="K112"/>
+    <sheetView tabSelected="1" topLeftCell="B112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1742,179 +1748,179 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="114" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="119"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="129"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="120"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="130"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="130"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="120"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="130"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="120"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="130"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="120"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="130"/>
     </row>
     <row r="7" spans="1:11" ht="18">
       <c r="A7" s="2"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="121"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="131"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="122" t="s">
+      <c r="C8" s="133"/>
+      <c r="D8" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="123"/>
-      <c r="F8" s="126" t="s">
+      <c r="E8" s="133"/>
+      <c r="F8" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="127"/>
-      <c r="H8" s="130" t="s">
+      <c r="G8" s="137"/>
+      <c r="H8" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="127"/>
-      <c r="J8" s="131" t="s">
+      <c r="I8" s="137"/>
+      <c r="J8" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="127"/>
+      <c r="K8" s="137"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="129"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="139"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="126" t="s">
+      <c r="B10" s="142"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="133"/>
-      <c r="H10" s="130" t="s">
+      <c r="G10" s="143"/>
+      <c r="H10" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="127"/>
-      <c r="J10" s="130" t="s">
+      <c r="I10" s="137"/>
+      <c r="J10" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="127"/>
+      <c r="K10" s="137"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="129"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="139"/>
     </row>
     <row r="12" spans="1:11" ht="2.25" hidden="1" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="160">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="158" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="63">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="112"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
@@ -1922,71 +1928,71 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="91"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="65"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="94"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5"/>
-      <c r="B15" s="93">
+      <c r="B15" s="109">
         <v>45978</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="91">
+      <c r="C15" s="110"/>
+      <c r="D15" s="111">
         <f>B15+1</f>
         <v>45979</v>
       </c>
-      <c r="E15" s="92"/>
-      <c r="F15" s="89">
+      <c r="E15" s="112"/>
+      <c r="F15" s="113">
         <f>D15+1</f>
         <v>45980</v>
       </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="87">
+      <c r="G15" s="114"/>
+      <c r="H15" s="115">
         <f>F15+1</f>
         <v>45981</v>
       </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="85">
+      <c r="I15" s="116"/>
+      <c r="J15" s="117">
         <f>H15+1</f>
         <v>45982</v>
       </c>
-      <c r="K15" s="86"/>
+      <c r="K15" s="118"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="76"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="99"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6"/>
@@ -2096,16 +2102,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="27"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2"/>
@@ -2122,72 +2128,72 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="107"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="158"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="110"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="161"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5"/>
-      <c r="B28" s="95">
+      <c r="B28" s="146">
         <f>J15+3</f>
         <v>45985</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="97">
+      <c r="C28" s="147"/>
+      <c r="D28" s="148">
         <f>B28+1</f>
         <v>45986</v>
       </c>
-      <c r="E28" s="98"/>
-      <c r="F28" s="99">
+      <c r="E28" s="149"/>
+      <c r="F28" s="150">
         <f>D28+1</f>
         <v>45987</v>
       </c>
-      <c r="G28" s="100"/>
-      <c r="H28" s="101">
+      <c r="G28" s="151"/>
+      <c r="H28" s="152">
         <f>F28+1</f>
         <v>45988</v>
       </c>
-      <c r="I28" s="102"/>
-      <c r="J28" s="103">
+      <c r="I28" s="153"/>
+      <c r="J28" s="154">
         <f>H28+1</f>
         <v>45989</v>
       </c>
-      <c r="K28" s="104"/>
+      <c r="K28" s="155"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="137"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="121"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="6"/>
@@ -2297,16 +2303,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="27"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="74"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="102"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2"/>
@@ -2323,74 +2329,74 @@
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="62"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="91"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="65"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="94"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2"/>
-      <c r="B41" s="93">
+      <c r="B41" s="109">
         <f>J28+3</f>
         <v>45992</v>
       </c>
-      <c r="C41" s="94"/>
-      <c r="D41" s="91">
+      <c r="C41" s="110"/>
+      <c r="D41" s="111">
         <f>B41+1</f>
         <v>45993</v>
       </c>
-      <c r="E41" s="92"/>
-      <c r="F41" s="89">
+      <c r="E41" s="112"/>
+      <c r="F41" s="113">
         <f>D41+1</f>
         <v>45994</v>
       </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="87">
+      <c r="G41" s="114"/>
+      <c r="H41" s="115">
         <f>F41+1</f>
         <v>45995</v>
       </c>
-      <c r="I41" s="88"/>
-      <c r="J41" s="85">
+      <c r="I41" s="116"/>
+      <c r="J41" s="117">
         <f>H41+1</f>
         <v>45996</v>
       </c>
-      <c r="K41" s="86"/>
+      <c r="K41" s="118"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="138" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="139"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="76"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="99"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2"/>
@@ -2528,16 +2534,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="73"/>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="74"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="101"/>
+      <c r="K50" s="102"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2"/>
@@ -2553,75 +2559,75 @@
       <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1">
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="62"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="90"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="91"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="B53" s="63"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="65"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="94"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="B54" s="93">
+      <c r="B54" s="109">
         <f>J41+3</f>
         <v>45999</v>
       </c>
-      <c r="C54" s="94"/>
-      <c r="D54" s="91">
+      <c r="C54" s="110"/>
+      <c r="D54" s="111">
         <f>B54+1</f>
         <v>46000</v>
       </c>
-      <c r="E54" s="92"/>
-      <c r="F54" s="89">
+      <c r="E54" s="112"/>
+      <c r="F54" s="113">
         <f>D54+1</f>
         <v>46001</v>
       </c>
-      <c r="G54" s="90"/>
-      <c r="H54" s="87">
+      <c r="G54" s="114"/>
+      <c r="H54" s="115">
         <f>F54+1</f>
         <v>46002</v>
       </c>
-      <c r="I54" s="88"/>
-      <c r="J54" s="85">
+      <c r="I54" s="116"/>
+      <c r="J54" s="117">
         <f>H54+1</f>
         <v>46003</v>
       </c>
-      <c r="K54" s="86"/>
+      <c r="K54" s="118"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="B55" s="83"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="76"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="99"/>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1">
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="67"/>
+      <c r="C56" s="104"/>
       <c r="D56" s="40">
         <f>D12</f>
         <v>0.79166666666666663</v>
@@ -2652,8 +2658,8 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1">
-      <c r="B57" s="68"/>
-      <c r="C57" s="69"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="106"/>
       <c r="D57" s="17"/>
       <c r="E57" s="46" t="s">
         <v>33</v>
@@ -2668,8 +2674,8 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1">
-      <c r="B58" s="68"/>
-      <c r="C58" s="69"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="106"/>
       <c r="D58" s="22"/>
       <c r="E58" s="47" t="s">
         <v>34</v>
@@ -2684,8 +2690,8 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1">
-      <c r="B59" s="68"/>
-      <c r="C59" s="69"/>
+      <c r="B59" s="105"/>
+      <c r="C59" s="106"/>
       <c r="D59" s="17"/>
       <c r="E59" s="46" t="s">
         <v>35</v>
@@ -2700,8 +2706,8 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1">
-      <c r="B60" s="68"/>
-      <c r="C60" s="69"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="106"/>
       <c r="D60" s="31"/>
       <c r="E60" s="47"/>
       <c r="F60" s="32"/>
@@ -2712,8 +2718,8 @@
       <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1">
-      <c r="B61" s="68"/>
-      <c r="C61" s="69"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="106"/>
       <c r="D61" s="36"/>
       <c r="E61" s="46"/>
       <c r="F61" s="36"/>
@@ -2728,8 +2734,8 @@
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1">
-      <c r="B62" s="70"/>
-      <c r="C62" s="71"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="108"/>
       <c r="D62" s="31"/>
       <c r="E62" s="47"/>
       <c r="F62" s="32"/>
@@ -2740,81 +2746,81 @@
       <c r="K62" s="48"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="B63" s="72"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="74"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="101"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="102"/>
     </row>
     <row r="65" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B65" s="60" t="s">
+      <c r="B65" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="62"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="91"/>
     </row>
     <row r="66" spans="2:11" customFormat="1">
-      <c r="B66" s="63"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="64"/>
-      <c r="K66" s="65"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="93"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="94"/>
     </row>
     <row r="67" spans="2:11" customFormat="1">
-      <c r="B67" s="93">
+      <c r="B67" s="109">
         <f>J54+3</f>
         <v>46006</v>
       </c>
-      <c r="C67" s="94"/>
-      <c r="D67" s="91">
+      <c r="C67" s="110"/>
+      <c r="D67" s="111">
         <f>B67+1</f>
         <v>46007</v>
       </c>
-      <c r="E67" s="92"/>
-      <c r="F67" s="89">
+      <c r="E67" s="112"/>
+      <c r="F67" s="113">
         <f>D67+1</f>
         <v>46008</v>
       </c>
-      <c r="G67" s="90"/>
-      <c r="H67" s="87">
+      <c r="G67" s="114"/>
+      <c r="H67" s="115">
         <f>F67+1</f>
         <v>46009</v>
       </c>
-      <c r="I67" s="88"/>
-      <c r="J67" s="85">
+      <c r="I67" s="116"/>
+      <c r="J67" s="117">
         <f>H67+1</f>
         <v>46010</v>
       </c>
-      <c r="K67" s="86"/>
+      <c r="K67" s="118"/>
     </row>
     <row r="68" spans="2:11" customFormat="1">
-      <c r="B68" s="83"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="76"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="98"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="99"/>
     </row>
     <row r="69" spans="2:11" customFormat="1">
       <c r="B69" s="39">
@@ -2916,81 +2922,81 @@
       <c r="K75" s="48"/>
     </row>
     <row r="76" spans="2:11" customFormat="1">
-      <c r="B76" s="72"/>
-      <c r="C76" s="73"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="73"/>
-      <c r="K76" s="74"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="101"/>
+      <c r="E76" s="101"/>
+      <c r="F76" s="101"/>
+      <c r="G76" s="101"/>
+      <c r="H76" s="101"/>
+      <c r="I76" s="101"/>
+      <c r="J76" s="101"/>
+      <c r="K76" s="102"/>
     </row>
     <row r="78" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="61"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="62"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="90"/>
+      <c r="E78" s="90"/>
+      <c r="F78" s="90"/>
+      <c r="G78" s="90"/>
+      <c r="H78" s="90"/>
+      <c r="I78" s="90"/>
+      <c r="J78" s="90"/>
+      <c r="K78" s="91"/>
     </row>
     <row r="79" spans="2:11" customFormat="1">
-      <c r="B79" s="63"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="64"/>
-      <c r="J79" s="64"/>
-      <c r="K79" s="65"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="93"/>
+      <c r="D79" s="93"/>
+      <c r="E79" s="93"/>
+      <c r="F79" s="93"/>
+      <c r="G79" s="93"/>
+      <c r="H79" s="93"/>
+      <c r="I79" s="93"/>
+      <c r="J79" s="93"/>
+      <c r="K79" s="94"/>
     </row>
     <row r="80" spans="2:11" customFormat="1">
-      <c r="B80" s="93">
+      <c r="B80" s="109">
         <f>J67+3</f>
         <v>46013</v>
       </c>
-      <c r="C80" s="94"/>
-      <c r="D80" s="91">
+      <c r="C80" s="110"/>
+      <c r="D80" s="111">
         <f>B80+1</f>
         <v>46014</v>
       </c>
-      <c r="E80" s="92"/>
-      <c r="F80" s="89">
+      <c r="E80" s="112"/>
+      <c r="F80" s="113">
         <f>D80+1</f>
         <v>46015</v>
       </c>
-      <c r="G80" s="90"/>
-      <c r="H80" s="87">
+      <c r="G80" s="114"/>
+      <c r="H80" s="115">
         <f>F80+1</f>
         <v>46016</v>
       </c>
-      <c r="I80" s="88"/>
-      <c r="J80" s="85">
+      <c r="I80" s="116"/>
+      <c r="J80" s="117">
         <f>H80+1</f>
         <v>46017</v>
       </c>
-      <c r="K80" s="86"/>
+      <c r="K80" s="118"/>
     </row>
     <row r="81" spans="2:11" customFormat="1">
-      <c r="B81" s="83"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="81"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="79"/>
-      <c r="G81" s="80"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="78"/>
-      <c r="J81" s="75"/>
-      <c r="K81" s="76"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="95"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="96"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="97"/>
+      <c r="H81" s="68"/>
+      <c r="I81" s="98"/>
+      <c r="J81" s="69"/>
+      <c r="K81" s="99"/>
     </row>
     <row r="82" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B82" s="39">
@@ -3003,167 +3009,167 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E82" s="43"/>
-      <c r="F82" s="66" t="s">
+      <c r="F82" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="67"/>
-      <c r="H82" s="66" t="s">
+      <c r="G82" s="104"/>
+      <c r="H82" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="67"/>
-      <c r="J82" s="66" t="s">
+      <c r="I82" s="104"/>
+      <c r="J82" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="67"/>
+      <c r="K82" s="104"/>
     </row>
     <row r="83" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
       <c r="D83" s="17"/>
       <c r="E83" s="46"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="69"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="69"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="69"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="106"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="106"/>
+      <c r="J83" s="105"/>
+      <c r="K83" s="106"/>
     </row>
     <row r="84" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B84" s="7"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
       <c r="E84" s="47"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="69"/>
-      <c r="J84" s="68"/>
-      <c r="K84" s="69"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="106"/>
+      <c r="H84" s="105"/>
+      <c r="I84" s="106"/>
+      <c r="J84" s="105"/>
+      <c r="K84" s="106"/>
     </row>
     <row r="85" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="17"/>
       <c r="E85" s="46"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="69"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="69"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="69"/>
+      <c r="F85" s="105"/>
+      <c r="G85" s="106"/>
+      <c r="H85" s="105"/>
+      <c r="I85" s="106"/>
+      <c r="J85" s="105"/>
+      <c r="K85" s="106"/>
     </row>
     <row r="86" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B86" s="30"/>
       <c r="C86" s="21"/>
       <c r="D86" s="31"/>
       <c r="E86" s="47"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="69"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="69"/>
-      <c r="J86" s="68"/>
-      <c r="K86" s="69"/>
+      <c r="F86" s="105"/>
+      <c r="G86" s="106"/>
+      <c r="H86" s="105"/>
+      <c r="I86" s="106"/>
+      <c r="J86" s="105"/>
+      <c r="K86" s="106"/>
     </row>
     <row r="87" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B87" s="35"/>
       <c r="C87" s="15"/>
       <c r="D87" s="36"/>
       <c r="E87" s="46"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="68"/>
-      <c r="I87" s="69"/>
-      <c r="J87" s="68"/>
-      <c r="K87" s="69"/>
+      <c r="F87" s="105"/>
+      <c r="G87" s="106"/>
+      <c r="H87" s="105"/>
+      <c r="I87" s="106"/>
+      <c r="J87" s="105"/>
+      <c r="K87" s="106"/>
     </row>
     <row r="88" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B88" s="30"/>
       <c r="C88" s="21"/>
       <c r="D88" s="31"/>
       <c r="E88" s="47"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="70"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="70"/>
-      <c r="K88" s="71"/>
+      <c r="F88" s="107"/>
+      <c r="G88" s="108"/>
+      <c r="H88" s="107"/>
+      <c r="I88" s="108"/>
+      <c r="J88" s="107"/>
+      <c r="K88" s="108"/>
     </row>
     <row r="89" spans="2:11" customFormat="1">
-      <c r="B89" s="72"/>
-      <c r="C89" s="73"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="73"/>
-      <c r="I89" s="73"/>
-      <c r="J89" s="73"/>
-      <c r="K89" s="74"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="101"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="101"/>
+      <c r="F89" s="101"/>
+      <c r="G89" s="101"/>
+      <c r="H89" s="101"/>
+      <c r="I89" s="101"/>
+      <c r="J89" s="101"/>
+      <c r="K89" s="102"/>
     </row>
     <row r="91" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B91" s="60" t="s">
+      <c r="B91" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C91" s="61"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="61"/>
-      <c r="I91" s="61"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="62"/>
+      <c r="C91" s="90"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="90"/>
+      <c r="G91" s="90"/>
+      <c r="H91" s="90"/>
+      <c r="I91" s="90"/>
+      <c r="J91" s="90"/>
+      <c r="K91" s="91"/>
     </row>
     <row r="92" spans="2:11" customFormat="1">
-      <c r="B92" s="63"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="64"/>
-      <c r="H92" s="64"/>
-      <c r="I92" s="64"/>
-      <c r="J92" s="64"/>
-      <c r="K92" s="65"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="93"/>
+      <c r="D92" s="93"/>
+      <c r="E92" s="93"/>
+      <c r="F92" s="93"/>
+      <c r="G92" s="93"/>
+      <c r="H92" s="93"/>
+      <c r="I92" s="93"/>
+      <c r="J92" s="93"/>
+      <c r="K92" s="94"/>
     </row>
     <row r="93" spans="2:11" customFormat="1">
-      <c r="B93" s="93">
+      <c r="B93" s="109">
         <f>J80+3</f>
         <v>46020</v>
       </c>
-      <c r="C93" s="94"/>
-      <c r="D93" s="91">
+      <c r="C93" s="110"/>
+      <c r="D93" s="111">
         <f>B93+1</f>
         <v>46021</v>
       </c>
-      <c r="E93" s="92"/>
-      <c r="F93" s="89">
+      <c r="E93" s="112"/>
+      <c r="F93" s="113">
         <f>D93+1</f>
         <v>46022</v>
       </c>
-      <c r="G93" s="90"/>
-      <c r="H93" s="87">
+      <c r="G93" s="114"/>
+      <c r="H93" s="115">
         <f>F93+1</f>
         <v>46023</v>
       </c>
-      <c r="I93" s="88"/>
-      <c r="J93" s="85">
+      <c r="I93" s="116"/>
+      <c r="J93" s="117">
         <f>H93+1</f>
         <v>46024</v>
       </c>
-      <c r="K93" s="86"/>
+      <c r="K93" s="118"/>
     </row>
     <row r="94" spans="2:11" customFormat="1">
-      <c r="B94" s="83"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="79"/>
-      <c r="G94" s="80"/>
-      <c r="H94" s="77"/>
-      <c r="I94" s="78"/>
-      <c r="J94" s="75"/>
-      <c r="K94" s="76"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="95"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="96"/>
+      <c r="F94" s="67"/>
+      <c r="G94" s="97"/>
+      <c r="H94" s="68"/>
+      <c r="I94" s="98"/>
+      <c r="J94" s="69"/>
+      <c r="K94" s="99"/>
     </row>
     <row r="95" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B95" s="39">
@@ -3176,177 +3182,177 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E95" s="43"/>
-      <c r="F95" s="66" t="s">
+      <c r="F95" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="67"/>
-      <c r="H95" s="66" t="s">
+      <c r="G95" s="104"/>
+      <c r="H95" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="67"/>
-      <c r="J95" s="66" t="s">
+      <c r="I95" s="104"/>
+      <c r="J95" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="67"/>
+      <c r="K95" s="104"/>
     </row>
     <row r="96" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="17"/>
       <c r="E96" s="46"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="69"/>
-      <c r="H96" s="68"/>
-      <c r="I96" s="69"/>
-      <c r="J96" s="68"/>
-      <c r="K96" s="69"/>
+      <c r="F96" s="105"/>
+      <c r="G96" s="106"/>
+      <c r="H96" s="105"/>
+      <c r="I96" s="106"/>
+      <c r="J96" s="105"/>
+      <c r="K96" s="106"/>
     </row>
     <row r="97" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B97" s="7"/>
       <c r="C97" s="21"/>
       <c r="D97" s="22"/>
       <c r="E97" s="47"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="69"/>
-      <c r="H97" s="68"/>
-      <c r="I97" s="69"/>
-      <c r="J97" s="68"/>
-      <c r="K97" s="69"/>
+      <c r="F97" s="105"/>
+      <c r="G97" s="106"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="106"/>
+      <c r="J97" s="105"/>
+      <c r="K97" s="106"/>
     </row>
     <row r="98" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="17"/>
       <c r="E98" s="46"/>
-      <c r="F98" s="68"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="68"/>
-      <c r="I98" s="69"/>
-      <c r="J98" s="68"/>
-      <c r="K98" s="69"/>
+      <c r="F98" s="105"/>
+      <c r="G98" s="106"/>
+      <c r="H98" s="105"/>
+      <c r="I98" s="106"/>
+      <c r="J98" s="105"/>
+      <c r="K98" s="106"/>
     </row>
     <row r="99" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B99" s="30"/>
       <c r="C99" s="21"/>
       <c r="D99" s="31"/>
       <c r="E99" s="47"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="69"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="69"/>
-      <c r="J99" s="68"/>
-      <c r="K99" s="69"/>
+      <c r="F99" s="105"/>
+      <c r="G99" s="106"/>
+      <c r="H99" s="105"/>
+      <c r="I99" s="106"/>
+      <c r="J99" s="105"/>
+      <c r="K99" s="106"/>
     </row>
     <row r="100" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B100" s="35"/>
       <c r="C100" s="15"/>
       <c r="D100" s="36"/>
       <c r="E100" s="46"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="69"/>
-      <c r="H100" s="68"/>
-      <c r="I100" s="69"/>
-      <c r="J100" s="68"/>
-      <c r="K100" s="69"/>
+      <c r="F100" s="105"/>
+      <c r="G100" s="106"/>
+      <c r="H100" s="105"/>
+      <c r="I100" s="106"/>
+      <c r="J100" s="105"/>
+      <c r="K100" s="106"/>
     </row>
     <row r="101" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B101" s="30"/>
       <c r="C101" s="21"/>
       <c r="D101" s="31"/>
       <c r="E101" s="47"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="71"/>
-      <c r="H101" s="70"/>
-      <c r="I101" s="71"/>
-      <c r="J101" s="70"/>
-      <c r="K101" s="71"/>
+      <c r="F101" s="107"/>
+      <c r="G101" s="108"/>
+      <c r="H101" s="107"/>
+      <c r="I101" s="108"/>
+      <c r="J101" s="107"/>
+      <c r="K101" s="108"/>
     </row>
     <row r="102" spans="2:11" customFormat="1">
-      <c r="B102" s="72"/>
-      <c r="C102" s="73"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="73"/>
-      <c r="H102" s="73"/>
-      <c r="I102" s="73"/>
-      <c r="J102" s="73"/>
-      <c r="K102" s="74"/>
+      <c r="B102" s="100"/>
+      <c r="C102" s="101"/>
+      <c r="D102" s="101"/>
+      <c r="E102" s="101"/>
+      <c r="F102" s="101"/>
+      <c r="G102" s="101"/>
+      <c r="H102" s="101"/>
+      <c r="I102" s="101"/>
+      <c r="J102" s="101"/>
+      <c r="K102" s="102"/>
     </row>
     <row r="104" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B104" s="60" t="s">
+      <c r="B104" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="61"/>
-      <c r="D104" s="61"/>
-      <c r="E104" s="61"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="61"/>
-      <c r="H104" s="61"/>
-      <c r="I104" s="61"/>
-      <c r="J104" s="61"/>
-      <c r="K104" s="62"/>
+      <c r="C104" s="90"/>
+      <c r="D104" s="90"/>
+      <c r="E104" s="90"/>
+      <c r="F104" s="90"/>
+      <c r="G104" s="90"/>
+      <c r="H104" s="90"/>
+      <c r="I104" s="90"/>
+      <c r="J104" s="90"/>
+      <c r="K104" s="91"/>
     </row>
     <row r="105" spans="2:11" customFormat="1">
-      <c r="B105" s="63"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="65"/>
+      <c r="B105" s="92"/>
+      <c r="C105" s="93"/>
+      <c r="D105" s="93"/>
+      <c r="E105" s="93"/>
+      <c r="F105" s="93"/>
+      <c r="G105" s="93"/>
+      <c r="H105" s="93"/>
+      <c r="I105" s="93"/>
+      <c r="J105" s="93"/>
+      <c r="K105" s="94"/>
     </row>
     <row r="106" spans="2:11" customFormat="1">
-      <c r="B106" s="140">
+      <c r="B106" s="78">
         <f>J93+3</f>
         <v>46027</v>
       </c>
-      <c r="C106" s="141"/>
-      <c r="D106" s="142">
+      <c r="C106" s="79"/>
+      <c r="D106" s="80">
         <f>B106+1</f>
         <v>46028</v>
       </c>
-      <c r="E106" s="141"/>
-      <c r="F106" s="143">
+      <c r="E106" s="79"/>
+      <c r="F106" s="81">
         <f>D106+1</f>
         <v>46029</v>
       </c>
-      <c r="G106" s="141"/>
-      <c r="H106" s="144">
+      <c r="G106" s="79"/>
+      <c r="H106" s="82">
         <f>F106+1</f>
         <v>46030</v>
       </c>
-      <c r="I106" s="141"/>
-      <c r="J106" s="145">
+      <c r="I106" s="79"/>
+      <c r="J106" s="83">
         <f>H106+1</f>
         <v>46031</v>
       </c>
-      <c r="K106" s="141"/>
+      <c r="K106" s="79"/>
     </row>
     <row r="107" spans="2:11" customFormat="1">
-      <c r="B107" s="151" t="s">
+      <c r="B107" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="152"/>
-      <c r="D107" s="153" t="s">
+      <c r="C107" s="85"/>
+      <c r="D107" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="152"/>
-      <c r="F107" s="138" t="s">
+      <c r="E107" s="85"/>
+      <c r="F107" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="G107" s="152"/>
-      <c r="H107" s="154" t="s">
+      <c r="G107" s="85"/>
+      <c r="H107" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="I107" s="152"/>
-      <c r="J107" s="161" t="s">
+      <c r="I107" s="85"/>
+      <c r="J107" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="152"/>
+      <c r="K107" s="85"/>
     </row>
     <row r="108" spans="2:11" customFormat="1" ht="26.25">
       <c r="B108" s="39">
@@ -3536,85 +3542,85 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118"/>
-      <c r="B118" s="156"/>
-      <c r="C118" s="157"/>
-      <c r="D118" s="157"/>
-      <c r="E118" s="157"/>
-      <c r="F118" s="157"/>
-      <c r="G118" s="157"/>
-      <c r="H118" s="157"/>
-      <c r="I118" s="157"/>
-      <c r="J118" s="157"/>
-      <c r="K118" s="155"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="71"/>
+      <c r="D118" s="71"/>
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="71"/>
+      <c r="I118" s="71"/>
+      <c r="J118" s="71"/>
+      <c r="K118" s="65"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120"/>
-      <c r="B120" s="60" t="s">
+      <c r="B120" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="C120" s="146"/>
-      <c r="D120" s="146"/>
-      <c r="E120" s="146"/>
-      <c r="F120" s="146"/>
-      <c r="G120" s="146"/>
-      <c r="H120" s="146"/>
-      <c r="I120" s="146"/>
-      <c r="J120" s="146"/>
-      <c r="K120" s="147"/>
+      <c r="C120" s="73"/>
+      <c r="D120" s="73"/>
+      <c r="E120" s="73"/>
+      <c r="F120" s="73"/>
+      <c r="G120" s="73"/>
+      <c r="H120" s="73"/>
+      <c r="I120" s="73"/>
+      <c r="J120" s="73"/>
+      <c r="K120" s="74"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121"/>
-      <c r="B121" s="148"/>
-      <c r="C121" s="149"/>
-      <c r="D121" s="149"/>
-      <c r="E121" s="149"/>
-      <c r="F121" s="149"/>
-      <c r="G121" s="149"/>
-      <c r="H121" s="149"/>
-      <c r="I121" s="149"/>
-      <c r="J121" s="149"/>
-      <c r="K121" s="150"/>
+      <c r="B121" s="75"/>
+      <c r="C121" s="76"/>
+      <c r="D121" s="76"/>
+      <c r="E121" s="76"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="76"/>
+      <c r="I121" s="76"/>
+      <c r="J121" s="76"/>
+      <c r="K121" s="77"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122"/>
-      <c r="B122" s="140">
+      <c r="B122" s="78">
         <f>J106+3</f>
         <v>46034</v>
       </c>
-      <c r="C122" s="141"/>
-      <c r="D122" s="142">
+      <c r="C122" s="79"/>
+      <c r="D122" s="80">
         <f>B122+1</f>
         <v>46035</v>
       </c>
-      <c r="E122" s="141"/>
-      <c r="F122" s="143">
+      <c r="E122" s="79"/>
+      <c r="F122" s="81">
         <f>D122+1</f>
         <v>46036</v>
       </c>
-      <c r="G122" s="141"/>
-      <c r="H122" s="144">
+      <c r="G122" s="79"/>
+      <c r="H122" s="82">
         <f>F122+1</f>
         <v>46037</v>
       </c>
-      <c r="I122" s="141"/>
-      <c r="J122" s="145">
+      <c r="I122" s="79"/>
+      <c r="J122" s="83">
         <f>H122+1</f>
         <v>46038</v>
       </c>
-      <c r="K122" s="141"/>
+      <c r="K122" s="79"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123"/>
-      <c r="B123" s="83"/>
-      <c r="C123" s="155"/>
-      <c r="D123" s="81"/>
-      <c r="E123" s="155"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="155"/>
-      <c r="H123" s="77"/>
-      <c r="I123" s="155"/>
-      <c r="J123" s="75"/>
-      <c r="K123" s="155"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="65"/>
+      <c r="D123" s="66"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="67"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="68"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="69"/>
+      <c r="K123" s="65"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124"/>
@@ -3674,7 +3680,7 @@
       <c r="A126"/>
       <c r="B126" s="7"/>
       <c r="C126" s="21" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D126" s="22"/>
       <c r="E126" s="47" t="s">
@@ -3695,7 +3701,7 @@
       <c r="A127"/>
       <c r="B127" s="14"/>
       <c r="C127" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="46" t="s">
@@ -3715,7 +3721,9 @@
     <row r="128" spans="1:11">
       <c r="A128"/>
       <c r="B128" s="30"/>
-      <c r="C128" s="21"/>
+      <c r="C128" s="21" t="s">
+        <v>103</v>
+      </c>
       <c r="D128" s="31"/>
       <c r="E128" s="47" t="s">
         <v>72</v>
@@ -3730,7 +3738,9 @@
     <row r="129" spans="1:11">
       <c r="A129"/>
       <c r="B129" s="35"/>
-      <c r="C129" s="15"/>
+      <c r="C129" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="D129" s="36"/>
       <c r="E129" s="46" t="s">
         <v>81</v>
@@ -3757,85 +3767,85 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131"/>
-      <c r="B131" s="156"/>
-      <c r="C131" s="157"/>
-      <c r="D131" s="157"/>
-      <c r="E131" s="157"/>
-      <c r="F131" s="157"/>
-      <c r="G131" s="157"/>
-      <c r="H131" s="157"/>
-      <c r="I131" s="157"/>
-      <c r="J131" s="157"/>
-      <c r="K131" s="155"/>
+      <c r="B131" s="70"/>
+      <c r="C131" s="71"/>
+      <c r="D131" s="71"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="71"/>
+      <c r="I131" s="71"/>
+      <c r="J131" s="71"/>
+      <c r="K131" s="65"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133"/>
-      <c r="B133" s="60" t="s">
+      <c r="B133" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="C133" s="146"/>
-      <c r="D133" s="146"/>
-      <c r="E133" s="146"/>
-      <c r="F133" s="146"/>
-      <c r="G133" s="146"/>
-      <c r="H133" s="146"/>
-      <c r="I133" s="146"/>
-      <c r="J133" s="146"/>
-      <c r="K133" s="147"/>
+      <c r="C133" s="73"/>
+      <c r="D133" s="73"/>
+      <c r="E133" s="73"/>
+      <c r="F133" s="73"/>
+      <c r="G133" s="73"/>
+      <c r="H133" s="73"/>
+      <c r="I133" s="73"/>
+      <c r="J133" s="73"/>
+      <c r="K133" s="74"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134"/>
-      <c r="B134" s="148"/>
-      <c r="C134" s="149"/>
-      <c r="D134" s="149"/>
-      <c r="E134" s="149"/>
-      <c r="F134" s="149"/>
-      <c r="G134" s="149"/>
-      <c r="H134" s="149"/>
-      <c r="I134" s="149"/>
-      <c r="J134" s="149"/>
-      <c r="K134" s="150"/>
+      <c r="B134" s="75"/>
+      <c r="C134" s="76"/>
+      <c r="D134" s="76"/>
+      <c r="E134" s="76"/>
+      <c r="F134" s="76"/>
+      <c r="G134" s="76"/>
+      <c r="H134" s="76"/>
+      <c r="I134" s="76"/>
+      <c r="J134" s="76"/>
+      <c r="K134" s="77"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135"/>
-      <c r="B135" s="140">
+      <c r="B135" s="78">
         <f>J122+3</f>
         <v>46041</v>
       </c>
-      <c r="C135" s="141"/>
-      <c r="D135" s="142">
+      <c r="C135" s="79"/>
+      <c r="D135" s="80">
         <f>B135+1</f>
         <v>46042</v>
       </c>
-      <c r="E135" s="141"/>
-      <c r="F135" s="143">
+      <c r="E135" s="79"/>
+      <c r="F135" s="81">
         <f>D135+1</f>
         <v>46043</v>
       </c>
-      <c r="G135" s="141"/>
-      <c r="H135" s="144">
+      <c r="G135" s="79"/>
+      <c r="H135" s="82">
         <f>F135+1</f>
         <v>46044</v>
       </c>
-      <c r="I135" s="141"/>
-      <c r="J135" s="145">
+      <c r="I135" s="79"/>
+      <c r="J135" s="83">
         <f>H135+1</f>
         <v>46045</v>
       </c>
-      <c r="K135" s="141"/>
+      <c r="K135" s="79"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136"/>
-      <c r="B136" s="83"/>
-      <c r="C136" s="155"/>
-      <c r="D136" s="81"/>
-      <c r="E136" s="155"/>
-      <c r="F136" s="79"/>
-      <c r="G136" s="155"/>
-      <c r="H136" s="77"/>
-      <c r="I136" s="155"/>
-      <c r="J136" s="75"/>
-      <c r="K136" s="155"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="65"/>
+      <c r="D136" s="66"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="67"/>
+      <c r="G136" s="65"/>
+      <c r="H136" s="68"/>
+      <c r="I136" s="65"/>
+      <c r="J136" s="69"/>
+      <c r="K136" s="65"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137"/>
@@ -3944,85 +3954,85 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144"/>
-      <c r="B144" s="156"/>
-      <c r="C144" s="157"/>
-      <c r="D144" s="157"/>
-      <c r="E144" s="157"/>
-      <c r="F144" s="157"/>
-      <c r="G144" s="157"/>
-      <c r="H144" s="157"/>
-      <c r="I144" s="157"/>
-      <c r="J144" s="157"/>
-      <c r="K144" s="155"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="71"/>
+      <c r="D144" s="71"/>
+      <c r="E144" s="71"/>
+      <c r="F144" s="71"/>
+      <c r="G144" s="71"/>
+      <c r="H144" s="71"/>
+      <c r="I144" s="71"/>
+      <c r="J144" s="71"/>
+      <c r="K144" s="65"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146"/>
-      <c r="B146" s="60" t="s">
+      <c r="B146" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="146"/>
-      <c r="D146" s="146"/>
-      <c r="E146" s="146"/>
-      <c r="F146" s="146"/>
-      <c r="G146" s="146"/>
-      <c r="H146" s="146"/>
-      <c r="I146" s="146"/>
-      <c r="J146" s="146"/>
-      <c r="K146" s="147"/>
+      <c r="C146" s="73"/>
+      <c r="D146" s="73"/>
+      <c r="E146" s="73"/>
+      <c r="F146" s="73"/>
+      <c r="G146" s="73"/>
+      <c r="H146" s="73"/>
+      <c r="I146" s="73"/>
+      <c r="J146" s="73"/>
+      <c r="K146" s="74"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147"/>
-      <c r="B147" s="148"/>
-      <c r="C147" s="149"/>
-      <c r="D147" s="149"/>
-      <c r="E147" s="149"/>
-      <c r="F147" s="149"/>
-      <c r="G147" s="149"/>
-      <c r="H147" s="149"/>
-      <c r="I147" s="149"/>
-      <c r="J147" s="149"/>
-      <c r="K147" s="150"/>
+      <c r="B147" s="75"/>
+      <c r="C147" s="76"/>
+      <c r="D147" s="76"/>
+      <c r="E147" s="76"/>
+      <c r="F147" s="76"/>
+      <c r="G147" s="76"/>
+      <c r="H147" s="76"/>
+      <c r="I147" s="76"/>
+      <c r="J147" s="76"/>
+      <c r="K147" s="77"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148"/>
-      <c r="B148" s="140">
+      <c r="B148" s="78">
         <f>J135+3</f>
         <v>46048</v>
       </c>
-      <c r="C148" s="141"/>
-      <c r="D148" s="142">
+      <c r="C148" s="79"/>
+      <c r="D148" s="80">
         <f>B148+1</f>
         <v>46049</v>
       </c>
-      <c r="E148" s="141"/>
-      <c r="F148" s="143">
+      <c r="E148" s="79"/>
+      <c r="F148" s="81">
         <f>D148+1</f>
         <v>46050</v>
       </c>
-      <c r="G148" s="141"/>
-      <c r="H148" s="144">
+      <c r="G148" s="79"/>
+      <c r="H148" s="82">
         <f>F148+1</f>
         <v>46051</v>
       </c>
-      <c r="I148" s="141"/>
-      <c r="J148" s="145">
+      <c r="I148" s="79"/>
+      <c r="J148" s="83">
         <f>H148+1</f>
         <v>46052</v>
       </c>
-      <c r="K148" s="141"/>
+      <c r="K148" s="79"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149"/>
-      <c r="B149" s="83"/>
-      <c r="C149" s="155"/>
-      <c r="D149" s="81"/>
-      <c r="E149" s="155"/>
-      <c r="F149" s="79"/>
-      <c r="G149" s="155"/>
-      <c r="H149" s="77"/>
-      <c r="I149" s="155"/>
-      <c r="J149" s="75"/>
-      <c r="K149" s="155"/>
+      <c r="B149" s="64"/>
+      <c r="C149" s="65"/>
+      <c r="D149" s="66"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="67"/>
+      <c r="G149" s="65"/>
+      <c r="H149" s="68"/>
+      <c r="I149" s="65"/>
+      <c r="J149" s="69"/>
+      <c r="K149" s="65"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150"/>
@@ -4127,85 +4137,85 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157"/>
-      <c r="B157" s="156"/>
-      <c r="C157" s="157"/>
-      <c r="D157" s="157"/>
-      <c r="E157" s="157"/>
-      <c r="F157" s="157"/>
-      <c r="G157" s="157"/>
-      <c r="H157" s="157"/>
-      <c r="I157" s="157"/>
-      <c r="J157" s="157"/>
-      <c r="K157" s="155"/>
+      <c r="B157" s="70"/>
+      <c r="C157" s="71"/>
+      <c r="D157" s="71"/>
+      <c r="E157" s="71"/>
+      <c r="F157" s="71"/>
+      <c r="G157" s="71"/>
+      <c r="H157" s="71"/>
+      <c r="I157" s="71"/>
+      <c r="J157" s="71"/>
+      <c r="K157" s="65"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159"/>
-      <c r="B159" s="60" t="s">
+      <c r="B159" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="146"/>
-      <c r="D159" s="146"/>
-      <c r="E159" s="146"/>
-      <c r="F159" s="146"/>
-      <c r="G159" s="146"/>
-      <c r="H159" s="146"/>
-      <c r="I159" s="146"/>
-      <c r="J159" s="146"/>
-      <c r="K159" s="147"/>
+      <c r="C159" s="73"/>
+      <c r="D159" s="73"/>
+      <c r="E159" s="73"/>
+      <c r="F159" s="73"/>
+      <c r="G159" s="73"/>
+      <c r="H159" s="73"/>
+      <c r="I159" s="73"/>
+      <c r="J159" s="73"/>
+      <c r="K159" s="74"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160"/>
-      <c r="B160" s="148"/>
-      <c r="C160" s="149"/>
-      <c r="D160" s="149"/>
-      <c r="E160" s="149"/>
-      <c r="F160" s="149"/>
-      <c r="G160" s="149"/>
-      <c r="H160" s="149"/>
-      <c r="I160" s="149"/>
-      <c r="J160" s="149"/>
-      <c r="K160" s="150"/>
+      <c r="B160" s="75"/>
+      <c r="C160" s="76"/>
+      <c r="D160" s="76"/>
+      <c r="E160" s="76"/>
+      <c r="F160" s="76"/>
+      <c r="G160" s="76"/>
+      <c r="H160" s="76"/>
+      <c r="I160" s="76"/>
+      <c r="J160" s="76"/>
+      <c r="K160" s="77"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161"/>
-      <c r="B161" s="140">
+      <c r="B161" s="78">
         <f>J148+3</f>
         <v>46055</v>
       </c>
-      <c r="C161" s="141"/>
-      <c r="D161" s="142">
+      <c r="C161" s="79"/>
+      <c r="D161" s="80">
         <f>B161+1</f>
         <v>46056</v>
       </c>
-      <c r="E161" s="141"/>
-      <c r="F161" s="143">
+      <c r="E161" s="79"/>
+      <c r="F161" s="81">
         <f>D161+1</f>
         <v>46057</v>
       </c>
-      <c r="G161" s="141"/>
-      <c r="H161" s="144">
+      <c r="G161" s="79"/>
+      <c r="H161" s="82">
         <f>F161+1</f>
         <v>46058</v>
       </c>
-      <c r="I161" s="141"/>
-      <c r="J161" s="145">
+      <c r="I161" s="79"/>
+      <c r="J161" s="83">
         <f>H161+1</f>
         <v>46059</v>
       </c>
-      <c r="K161" s="141"/>
+      <c r="K161" s="79"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162"/>
-      <c r="B162" s="83"/>
-      <c r="C162" s="155"/>
-      <c r="D162" s="81"/>
-      <c r="E162" s="155"/>
-      <c r="F162" s="79"/>
-      <c r="G162" s="155"/>
-      <c r="H162" s="77"/>
-      <c r="I162" s="155"/>
-      <c r="J162" s="75"/>
-      <c r="K162" s="155"/>
+      <c r="B162" s="64"/>
+      <c r="C162" s="65"/>
+      <c r="D162" s="66"/>
+      <c r="E162" s="65"/>
+      <c r="F162" s="67"/>
+      <c r="G162" s="65"/>
+      <c r="H162" s="68"/>
+      <c r="I162" s="65"/>
+      <c r="J162" s="69"/>
+      <c r="K162" s="65"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163"/>
@@ -4310,85 +4320,85 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170"/>
-      <c r="B170" s="156"/>
-      <c r="C170" s="157"/>
-      <c r="D170" s="157"/>
-      <c r="E170" s="157"/>
-      <c r="F170" s="157"/>
-      <c r="G170" s="157"/>
-      <c r="H170" s="157"/>
-      <c r="I170" s="157"/>
-      <c r="J170" s="157"/>
-      <c r="K170" s="155"/>
+      <c r="B170" s="70"/>
+      <c r="C170" s="71"/>
+      <c r="D170" s="71"/>
+      <c r="E170" s="71"/>
+      <c r="F170" s="71"/>
+      <c r="G170" s="71"/>
+      <c r="H170" s="71"/>
+      <c r="I170" s="71"/>
+      <c r="J170" s="71"/>
+      <c r="K170" s="65"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172"/>
-      <c r="B172" s="60" t="s">
+      <c r="B172" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C172" s="146"/>
-      <c r="D172" s="146"/>
-      <c r="E172" s="146"/>
-      <c r="F172" s="146"/>
-      <c r="G172" s="146"/>
-      <c r="H172" s="146"/>
-      <c r="I172" s="146"/>
-      <c r="J172" s="146"/>
-      <c r="K172" s="147"/>
+      <c r="C172" s="73"/>
+      <c r="D172" s="73"/>
+      <c r="E172" s="73"/>
+      <c r="F172" s="73"/>
+      <c r="G172" s="73"/>
+      <c r="H172" s="73"/>
+      <c r="I172" s="73"/>
+      <c r="J172" s="73"/>
+      <c r="K172" s="74"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173"/>
-      <c r="B173" s="148"/>
-      <c r="C173" s="149"/>
-      <c r="D173" s="149"/>
-      <c r="E173" s="149"/>
-      <c r="F173" s="149"/>
-      <c r="G173" s="149"/>
-      <c r="H173" s="149"/>
-      <c r="I173" s="149"/>
-      <c r="J173" s="149"/>
-      <c r="K173" s="150"/>
+      <c r="B173" s="75"/>
+      <c r="C173" s="76"/>
+      <c r="D173" s="76"/>
+      <c r="E173" s="76"/>
+      <c r="F173" s="76"/>
+      <c r="G173" s="76"/>
+      <c r="H173" s="76"/>
+      <c r="I173" s="76"/>
+      <c r="J173" s="76"/>
+      <c r="K173" s="77"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174"/>
-      <c r="B174" s="140">
+      <c r="B174" s="78">
         <f>J161+3</f>
         <v>46062</v>
       </c>
-      <c r="C174" s="141"/>
-      <c r="D174" s="142">
+      <c r="C174" s="79"/>
+      <c r="D174" s="80">
         <f>B174+1</f>
         <v>46063</v>
       </c>
-      <c r="E174" s="141"/>
-      <c r="F174" s="143">
+      <c r="E174" s="79"/>
+      <c r="F174" s="81">
         <f>D174+1</f>
         <v>46064</v>
       </c>
-      <c r="G174" s="141"/>
-      <c r="H174" s="144">
+      <c r="G174" s="79"/>
+      <c r="H174" s="82">
         <f>F174+1</f>
         <v>46065</v>
       </c>
-      <c r="I174" s="141"/>
-      <c r="J174" s="145">
+      <c r="I174" s="79"/>
+      <c r="J174" s="83">
         <f>H174+1</f>
         <v>46066</v>
       </c>
-      <c r="K174" s="141"/>
+      <c r="K174" s="79"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175"/>
-      <c r="B175" s="83"/>
-      <c r="C175" s="155"/>
-      <c r="D175" s="81"/>
-      <c r="E175" s="155"/>
-      <c r="F175" s="79"/>
-      <c r="G175" s="155"/>
-      <c r="H175" s="77"/>
-      <c r="I175" s="155"/>
-      <c r="J175" s="75"/>
-      <c r="K175" s="155"/>
+      <c r="B175" s="64"/>
+      <c r="C175" s="65"/>
+      <c r="D175" s="66"/>
+      <c r="E175" s="65"/>
+      <c r="F175" s="67"/>
+      <c r="G175" s="65"/>
+      <c r="H175" s="68"/>
+      <c r="I175" s="65"/>
+      <c r="J175" s="69"/>
+      <c r="K175" s="65"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176"/>
@@ -4493,85 +4503,85 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183"/>
-      <c r="B183" s="156"/>
-      <c r="C183" s="157"/>
-      <c r="D183" s="157"/>
-      <c r="E183" s="157"/>
-      <c r="F183" s="157"/>
-      <c r="G183" s="157"/>
-      <c r="H183" s="157"/>
-      <c r="I183" s="157"/>
-      <c r="J183" s="157"/>
-      <c r="K183" s="155"/>
+      <c r="B183" s="70"/>
+      <c r="C183" s="71"/>
+      <c r="D183" s="71"/>
+      <c r="E183" s="71"/>
+      <c r="F183" s="71"/>
+      <c r="G183" s="71"/>
+      <c r="H183" s="71"/>
+      <c r="I183" s="71"/>
+      <c r="J183" s="71"/>
+      <c r="K183" s="65"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185"/>
-      <c r="B185" s="60" t="s">
+      <c r="B185" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C185" s="146"/>
-      <c r="D185" s="146"/>
-      <c r="E185" s="146"/>
-      <c r="F185" s="146"/>
-      <c r="G185" s="146"/>
-      <c r="H185" s="146"/>
-      <c r="I185" s="146"/>
-      <c r="J185" s="146"/>
-      <c r="K185" s="147"/>
+      <c r="C185" s="73"/>
+      <c r="D185" s="73"/>
+      <c r="E185" s="73"/>
+      <c r="F185" s="73"/>
+      <c r="G185" s="73"/>
+      <c r="H185" s="73"/>
+      <c r="I185" s="73"/>
+      <c r="J185" s="73"/>
+      <c r="K185" s="74"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186"/>
-      <c r="B186" s="148"/>
-      <c r="C186" s="149"/>
-      <c r="D186" s="149"/>
-      <c r="E186" s="149"/>
-      <c r="F186" s="149"/>
-      <c r="G186" s="149"/>
-      <c r="H186" s="149"/>
-      <c r="I186" s="149"/>
-      <c r="J186" s="149"/>
-      <c r="K186" s="150"/>
+      <c r="B186" s="75"/>
+      <c r="C186" s="76"/>
+      <c r="D186" s="76"/>
+      <c r="E186" s="76"/>
+      <c r="F186" s="76"/>
+      <c r="G186" s="76"/>
+      <c r="H186" s="76"/>
+      <c r="I186" s="76"/>
+      <c r="J186" s="76"/>
+      <c r="K186" s="77"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187"/>
-      <c r="B187" s="140">
+      <c r="B187" s="78">
         <f>J174+3</f>
         <v>46069</v>
       </c>
-      <c r="C187" s="141"/>
-      <c r="D187" s="142">
+      <c r="C187" s="79"/>
+      <c r="D187" s="80">
         <f>B187+1</f>
         <v>46070</v>
       </c>
-      <c r="E187" s="141"/>
-      <c r="F187" s="143">
+      <c r="E187" s="79"/>
+      <c r="F187" s="81">
         <f>D187+1</f>
         <v>46071</v>
       </c>
-      <c r="G187" s="141"/>
-      <c r="H187" s="144">
+      <c r="G187" s="79"/>
+      <c r="H187" s="82">
         <f>F187+1</f>
         <v>46072</v>
       </c>
-      <c r="I187" s="141"/>
-      <c r="J187" s="145">
+      <c r="I187" s="79"/>
+      <c r="J187" s="83">
         <f>H187+1</f>
         <v>46073</v>
       </c>
-      <c r="K187" s="141"/>
+      <c r="K187" s="79"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188"/>
-      <c r="B188" s="83"/>
-      <c r="C188" s="155"/>
-      <c r="D188" s="81"/>
-      <c r="E188" s="155"/>
-      <c r="F188" s="79"/>
-      <c r="G188" s="155"/>
-      <c r="H188" s="77"/>
-      <c r="I188" s="155"/>
-      <c r="J188" s="75"/>
-      <c r="K188" s="155"/>
+      <c r="B188" s="64"/>
+      <c r="C188" s="65"/>
+      <c r="D188" s="66"/>
+      <c r="E188" s="65"/>
+      <c r="F188" s="67"/>
+      <c r="G188" s="65"/>
+      <c r="H188" s="68"/>
+      <c r="I188" s="65"/>
+      <c r="J188" s="69"/>
+      <c r="K188" s="65"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189"/>
@@ -4676,85 +4686,85 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196"/>
-      <c r="B196" s="156"/>
-      <c r="C196" s="157"/>
-      <c r="D196" s="157"/>
-      <c r="E196" s="157"/>
-      <c r="F196" s="157"/>
-      <c r="G196" s="157"/>
-      <c r="H196" s="157"/>
-      <c r="I196" s="157"/>
-      <c r="J196" s="157"/>
-      <c r="K196" s="155"/>
+      <c r="B196" s="70"/>
+      <c r="C196" s="71"/>
+      <c r="D196" s="71"/>
+      <c r="E196" s="71"/>
+      <c r="F196" s="71"/>
+      <c r="G196" s="71"/>
+      <c r="H196" s="71"/>
+      <c r="I196" s="71"/>
+      <c r="J196" s="71"/>
+      <c r="K196" s="65"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198"/>
-      <c r="B198" s="60" t="s">
+      <c r="B198" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="C198" s="146"/>
-      <c r="D198" s="146"/>
-      <c r="E198" s="146"/>
-      <c r="F198" s="146"/>
-      <c r="G198" s="146"/>
-      <c r="H198" s="146"/>
-      <c r="I198" s="146"/>
-      <c r="J198" s="146"/>
-      <c r="K198" s="147"/>
+      <c r="C198" s="73"/>
+      <c r="D198" s="73"/>
+      <c r="E198" s="73"/>
+      <c r="F198" s="73"/>
+      <c r="G198" s="73"/>
+      <c r="H198" s="73"/>
+      <c r="I198" s="73"/>
+      <c r="J198" s="73"/>
+      <c r="K198" s="74"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199"/>
-      <c r="B199" s="148"/>
-      <c r="C199" s="149"/>
-      <c r="D199" s="149"/>
-      <c r="E199" s="149"/>
-      <c r="F199" s="149"/>
-      <c r="G199" s="149"/>
-      <c r="H199" s="149"/>
-      <c r="I199" s="149"/>
-      <c r="J199" s="149"/>
-      <c r="K199" s="150"/>
+      <c r="B199" s="75"/>
+      <c r="C199" s="76"/>
+      <c r="D199" s="76"/>
+      <c r="E199" s="76"/>
+      <c r="F199" s="76"/>
+      <c r="G199" s="76"/>
+      <c r="H199" s="76"/>
+      <c r="I199" s="76"/>
+      <c r="J199" s="76"/>
+      <c r="K199" s="77"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200"/>
-      <c r="B200" s="140">
+      <c r="B200" s="78">
         <f>J187+3</f>
         <v>46076</v>
       </c>
-      <c r="C200" s="141"/>
-      <c r="D200" s="142">
+      <c r="C200" s="79"/>
+      <c r="D200" s="80">
         <f>B200+1</f>
         <v>46077</v>
       </c>
-      <c r="E200" s="141"/>
-      <c r="F200" s="143">
+      <c r="E200" s="79"/>
+      <c r="F200" s="81">
         <f>D200+1</f>
         <v>46078</v>
       </c>
-      <c r="G200" s="141"/>
-      <c r="H200" s="144">
+      <c r="G200" s="79"/>
+      <c r="H200" s="82">
         <f>F200+1</f>
         <v>46079</v>
       </c>
-      <c r="I200" s="141"/>
-      <c r="J200" s="145">
+      <c r="I200" s="79"/>
+      <c r="J200" s="83">
         <f>H200+1</f>
         <v>46080</v>
       </c>
-      <c r="K200" s="141"/>
+      <c r="K200" s="79"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201"/>
-      <c r="B201" s="83"/>
-      <c r="C201" s="155"/>
-      <c r="D201" s="81"/>
-      <c r="E201" s="155"/>
-      <c r="F201" s="79"/>
-      <c r="G201" s="155"/>
-      <c r="H201" s="77"/>
-      <c r="I201" s="155"/>
-      <c r="J201" s="75"/>
-      <c r="K201" s="155"/>
+      <c r="B201" s="64"/>
+      <c r="C201" s="65"/>
+      <c r="D201" s="66"/>
+      <c r="E201" s="65"/>
+      <c r="F201" s="67"/>
+      <c r="G201" s="65"/>
+      <c r="H201" s="68"/>
+      <c r="I201" s="65"/>
+      <c r="J201" s="69"/>
+      <c r="K201" s="65"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202"/>
@@ -4859,85 +4869,85 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209"/>
-      <c r="B209" s="156"/>
-      <c r="C209" s="157"/>
-      <c r="D209" s="157"/>
-      <c r="E209" s="157"/>
-      <c r="F209" s="157"/>
-      <c r="G209" s="157"/>
-      <c r="H209" s="157"/>
-      <c r="I209" s="157"/>
-      <c r="J209" s="157"/>
-      <c r="K209" s="155"/>
+      <c r="B209" s="70"/>
+      <c r="C209" s="71"/>
+      <c r="D209" s="71"/>
+      <c r="E209" s="71"/>
+      <c r="F209" s="71"/>
+      <c r="G209" s="71"/>
+      <c r="H209" s="71"/>
+      <c r="I209" s="71"/>
+      <c r="J209" s="71"/>
+      <c r="K209" s="65"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211"/>
-      <c r="B211" s="60" t="s">
+      <c r="B211" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="C211" s="146"/>
-      <c r="D211" s="146"/>
-      <c r="E211" s="146"/>
-      <c r="F211" s="146"/>
-      <c r="G211" s="146"/>
-      <c r="H211" s="146"/>
-      <c r="I211" s="146"/>
-      <c r="J211" s="146"/>
-      <c r="K211" s="147"/>
+      <c r="C211" s="73"/>
+      <c r="D211" s="73"/>
+      <c r="E211" s="73"/>
+      <c r="F211" s="73"/>
+      <c r="G211" s="73"/>
+      <c r="H211" s="73"/>
+      <c r="I211" s="73"/>
+      <c r="J211" s="73"/>
+      <c r="K211" s="74"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212"/>
-      <c r="B212" s="148"/>
-      <c r="C212" s="149"/>
-      <c r="D212" s="149"/>
-      <c r="E212" s="149"/>
-      <c r="F212" s="149"/>
-      <c r="G212" s="149"/>
-      <c r="H212" s="149"/>
-      <c r="I212" s="149"/>
-      <c r="J212" s="149"/>
-      <c r="K212" s="150"/>
+      <c r="B212" s="75"/>
+      <c r="C212" s="76"/>
+      <c r="D212" s="76"/>
+      <c r="E212" s="76"/>
+      <c r="F212" s="76"/>
+      <c r="G212" s="76"/>
+      <c r="H212" s="76"/>
+      <c r="I212" s="76"/>
+      <c r="J212" s="76"/>
+      <c r="K212" s="77"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213"/>
-      <c r="B213" s="140">
+      <c r="B213" s="78">
         <f>J200+3</f>
         <v>46083</v>
       </c>
-      <c r="C213" s="141"/>
-      <c r="D213" s="142">
+      <c r="C213" s="79"/>
+      <c r="D213" s="80">
         <f>B213+1</f>
         <v>46084</v>
       </c>
-      <c r="E213" s="141"/>
-      <c r="F213" s="143">
+      <c r="E213" s="79"/>
+      <c r="F213" s="81">
         <f>D213+1</f>
         <v>46085</v>
       </c>
-      <c r="G213" s="141"/>
-      <c r="H213" s="144">
+      <c r="G213" s="79"/>
+      <c r="H213" s="82">
         <f>F213+1</f>
         <v>46086</v>
       </c>
-      <c r="I213" s="141"/>
-      <c r="J213" s="145">
+      <c r="I213" s="79"/>
+      <c r="J213" s="83">
         <f>H213+1</f>
         <v>46087</v>
       </c>
-      <c r="K213" s="141"/>
+      <c r="K213" s="79"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214"/>
-      <c r="B214" s="83"/>
-      <c r="C214" s="155"/>
-      <c r="D214" s="81"/>
-      <c r="E214" s="155"/>
-      <c r="F214" s="79"/>
-      <c r="G214" s="155"/>
-      <c r="H214" s="77"/>
-      <c r="I214" s="155"/>
-      <c r="J214" s="75"/>
-      <c r="K214" s="155"/>
+      <c r="B214" s="64"/>
+      <c r="C214" s="65"/>
+      <c r="D214" s="66"/>
+      <c r="E214" s="65"/>
+      <c r="F214" s="67"/>
+      <c r="G214" s="65"/>
+      <c r="H214" s="68"/>
+      <c r="I214" s="65"/>
+      <c r="J214" s="69"/>
+      <c r="K214" s="65"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215"/>
@@ -5042,85 +5052,85 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222"/>
-      <c r="B222" s="156"/>
-      <c r="C222" s="157"/>
-      <c r="D222" s="157"/>
-      <c r="E222" s="157"/>
-      <c r="F222" s="157"/>
-      <c r="G222" s="157"/>
-      <c r="H222" s="157"/>
-      <c r="I222" s="157"/>
-      <c r="J222" s="157"/>
-      <c r="K222" s="155"/>
+      <c r="B222" s="70"/>
+      <c r="C222" s="71"/>
+      <c r="D222" s="71"/>
+      <c r="E222" s="71"/>
+      <c r="F222" s="71"/>
+      <c r="G222" s="71"/>
+      <c r="H222" s="71"/>
+      <c r="I222" s="71"/>
+      <c r="J222" s="71"/>
+      <c r="K222" s="65"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224"/>
-      <c r="B224" s="60" t="s">
+      <c r="B224" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C224" s="146"/>
-      <c r="D224" s="146"/>
-      <c r="E224" s="146"/>
-      <c r="F224" s="146"/>
-      <c r="G224" s="146"/>
-      <c r="H224" s="146"/>
-      <c r="I224" s="146"/>
-      <c r="J224" s="146"/>
-      <c r="K224" s="147"/>
+      <c r="C224" s="73"/>
+      <c r="D224" s="73"/>
+      <c r="E224" s="73"/>
+      <c r="F224" s="73"/>
+      <c r="G224" s="73"/>
+      <c r="H224" s="73"/>
+      <c r="I224" s="73"/>
+      <c r="J224" s="73"/>
+      <c r="K224" s="74"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225"/>
-      <c r="B225" s="148"/>
-      <c r="C225" s="149"/>
-      <c r="D225" s="149"/>
-      <c r="E225" s="149"/>
-      <c r="F225" s="149"/>
-      <c r="G225" s="149"/>
-      <c r="H225" s="149"/>
-      <c r="I225" s="149"/>
-      <c r="J225" s="149"/>
-      <c r="K225" s="150"/>
+      <c r="B225" s="75"/>
+      <c r="C225" s="76"/>
+      <c r="D225" s="76"/>
+      <c r="E225" s="76"/>
+      <c r="F225" s="76"/>
+      <c r="G225" s="76"/>
+      <c r="H225" s="76"/>
+      <c r="I225" s="76"/>
+      <c r="J225" s="76"/>
+      <c r="K225" s="77"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226"/>
-      <c r="B226" s="140">
+      <c r="B226" s="78">
         <f>J213+3</f>
         <v>46090</v>
       </c>
-      <c r="C226" s="141"/>
-      <c r="D226" s="142">
+      <c r="C226" s="79"/>
+      <c r="D226" s="80">
         <f>B226+1</f>
         <v>46091</v>
       </c>
-      <c r="E226" s="141"/>
-      <c r="F226" s="143">
+      <c r="E226" s="79"/>
+      <c r="F226" s="81">
         <f>D226+1</f>
         <v>46092</v>
       </c>
-      <c r="G226" s="141"/>
-      <c r="H226" s="144">
+      <c r="G226" s="79"/>
+      <c r="H226" s="82">
         <f>F226+1</f>
         <v>46093</v>
       </c>
-      <c r="I226" s="141"/>
-      <c r="J226" s="145">
+      <c r="I226" s="79"/>
+      <c r="J226" s="83">
         <f>H226+1</f>
         <v>46094</v>
       </c>
-      <c r="K226" s="141"/>
+      <c r="K226" s="79"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227"/>
-      <c r="B227" s="83"/>
-      <c r="C227" s="155"/>
-      <c r="D227" s="81"/>
-      <c r="E227" s="155"/>
-      <c r="F227" s="79"/>
-      <c r="G227" s="155"/>
-      <c r="H227" s="77"/>
-      <c r="I227" s="155"/>
-      <c r="J227" s="75"/>
-      <c r="K227" s="155"/>
+      <c r="B227" s="64"/>
+      <c r="C227" s="65"/>
+      <c r="D227" s="66"/>
+      <c r="E227" s="65"/>
+      <c r="F227" s="67"/>
+      <c r="G227" s="65"/>
+      <c r="H227" s="68"/>
+      <c r="I227" s="65"/>
+      <c r="J227" s="69"/>
+      <c r="K227" s="65"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228"/>
@@ -5225,85 +5235,85 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235"/>
-      <c r="B235" s="156"/>
-      <c r="C235" s="157"/>
-      <c r="D235" s="157"/>
-      <c r="E235" s="157"/>
-      <c r="F235" s="157"/>
-      <c r="G235" s="157"/>
-      <c r="H235" s="157"/>
-      <c r="I235" s="157"/>
-      <c r="J235" s="157"/>
-      <c r="K235" s="155"/>
+      <c r="B235" s="70"/>
+      <c r="C235" s="71"/>
+      <c r="D235" s="71"/>
+      <c r="E235" s="71"/>
+      <c r="F235" s="71"/>
+      <c r="G235" s="71"/>
+      <c r="H235" s="71"/>
+      <c r="I235" s="71"/>
+      <c r="J235" s="71"/>
+      <c r="K235" s="65"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237"/>
-      <c r="B237" s="60" t="s">
+      <c r="B237" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="C237" s="146"/>
-      <c r="D237" s="146"/>
-      <c r="E237" s="146"/>
-      <c r="F237" s="146"/>
-      <c r="G237" s="146"/>
-      <c r="H237" s="146"/>
-      <c r="I237" s="146"/>
-      <c r="J237" s="146"/>
-      <c r="K237" s="147"/>
+      <c r="C237" s="73"/>
+      <c r="D237" s="73"/>
+      <c r="E237" s="73"/>
+      <c r="F237" s="73"/>
+      <c r="G237" s="73"/>
+      <c r="H237" s="73"/>
+      <c r="I237" s="73"/>
+      <c r="J237" s="73"/>
+      <c r="K237" s="74"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238"/>
-      <c r="B238" s="148"/>
-      <c r="C238" s="149"/>
-      <c r="D238" s="149"/>
-      <c r="E238" s="149"/>
-      <c r="F238" s="149"/>
-      <c r="G238" s="149"/>
-      <c r="H238" s="149"/>
-      <c r="I238" s="149"/>
-      <c r="J238" s="149"/>
-      <c r="K238" s="150"/>
+      <c r="B238" s="75"/>
+      <c r="C238" s="76"/>
+      <c r="D238" s="76"/>
+      <c r="E238" s="76"/>
+      <c r="F238" s="76"/>
+      <c r="G238" s="76"/>
+      <c r="H238" s="76"/>
+      <c r="I238" s="76"/>
+      <c r="J238" s="76"/>
+      <c r="K238" s="77"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239"/>
-      <c r="B239" s="140">
+      <c r="B239" s="78">
         <f>J226+3</f>
         <v>46097</v>
       </c>
-      <c r="C239" s="141"/>
-      <c r="D239" s="142">
+      <c r="C239" s="79"/>
+      <c r="D239" s="80">
         <f>B239+1</f>
         <v>46098</v>
       </c>
-      <c r="E239" s="141"/>
-      <c r="F239" s="143">
+      <c r="E239" s="79"/>
+      <c r="F239" s="81">
         <f>D239+1</f>
         <v>46099</v>
       </c>
-      <c r="G239" s="141"/>
-      <c r="H239" s="144">
+      <c r="G239" s="79"/>
+      <c r="H239" s="82">
         <f>F239+1</f>
         <v>46100</v>
       </c>
-      <c r="I239" s="141"/>
-      <c r="J239" s="145">
+      <c r="I239" s="79"/>
+      <c r="J239" s="83">
         <f>H239+1</f>
         <v>46101</v>
       </c>
-      <c r="K239" s="141"/>
+      <c r="K239" s="79"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240"/>
-      <c r="B240" s="83"/>
-      <c r="C240" s="155"/>
-      <c r="D240" s="81"/>
-      <c r="E240" s="155"/>
-      <c r="F240" s="79"/>
-      <c r="G240" s="155"/>
-      <c r="H240" s="77"/>
-      <c r="I240" s="155"/>
-      <c r="J240" s="75"/>
-      <c r="K240" s="155"/>
+      <c r="B240" s="64"/>
+      <c r="C240" s="65"/>
+      <c r="D240" s="66"/>
+      <c r="E240" s="65"/>
+      <c r="F240" s="67"/>
+      <c r="G240" s="65"/>
+      <c r="H240" s="68"/>
+      <c r="I240" s="65"/>
+      <c r="J240" s="69"/>
+      <c r="K240" s="65"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241"/>
@@ -5408,85 +5418,85 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248"/>
-      <c r="B248" s="156"/>
-      <c r="C248" s="157"/>
-      <c r="D248" s="157"/>
-      <c r="E248" s="157"/>
-      <c r="F248" s="157"/>
-      <c r="G248" s="157"/>
-      <c r="H248" s="157"/>
-      <c r="I248" s="157"/>
-      <c r="J248" s="157"/>
-      <c r="K248" s="155"/>
+      <c r="B248" s="70"/>
+      <c r="C248" s="71"/>
+      <c r="D248" s="71"/>
+      <c r="E248" s="71"/>
+      <c r="F248" s="71"/>
+      <c r="G248" s="71"/>
+      <c r="H248" s="71"/>
+      <c r="I248" s="71"/>
+      <c r="J248" s="71"/>
+      <c r="K248" s="65"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250"/>
-      <c r="B250" s="60" t="s">
+      <c r="B250" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="C250" s="146"/>
-      <c r="D250" s="146"/>
-      <c r="E250" s="146"/>
-      <c r="F250" s="146"/>
-      <c r="G250" s="146"/>
-      <c r="H250" s="146"/>
-      <c r="I250" s="146"/>
-      <c r="J250" s="146"/>
-      <c r="K250" s="147"/>
+      <c r="C250" s="73"/>
+      <c r="D250" s="73"/>
+      <c r="E250" s="73"/>
+      <c r="F250" s="73"/>
+      <c r="G250" s="73"/>
+      <c r="H250" s="73"/>
+      <c r="I250" s="73"/>
+      <c r="J250" s="73"/>
+      <c r="K250" s="74"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251"/>
-      <c r="B251" s="148"/>
-      <c r="C251" s="149"/>
-      <c r="D251" s="149"/>
-      <c r="E251" s="149"/>
-      <c r="F251" s="149"/>
-      <c r="G251" s="149"/>
-      <c r="H251" s="149"/>
-      <c r="I251" s="149"/>
-      <c r="J251" s="149"/>
-      <c r="K251" s="150"/>
+      <c r="B251" s="75"/>
+      <c r="C251" s="76"/>
+      <c r="D251" s="76"/>
+      <c r="E251" s="76"/>
+      <c r="F251" s="76"/>
+      <c r="G251" s="76"/>
+      <c r="H251" s="76"/>
+      <c r="I251" s="76"/>
+      <c r="J251" s="76"/>
+      <c r="K251" s="77"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252"/>
-      <c r="B252" s="140">
+      <c r="B252" s="78">
         <f>J239+3</f>
         <v>46104</v>
       </c>
-      <c r="C252" s="141"/>
-      <c r="D252" s="142">
+      <c r="C252" s="79"/>
+      <c r="D252" s="80">
         <f>B252+1</f>
         <v>46105</v>
       </c>
-      <c r="E252" s="141"/>
-      <c r="F252" s="143">
+      <c r="E252" s="79"/>
+      <c r="F252" s="81">
         <f>D252+1</f>
         <v>46106</v>
       </c>
-      <c r="G252" s="141"/>
-      <c r="H252" s="144">
+      <c r="G252" s="79"/>
+      <c r="H252" s="82">
         <f>F252+1</f>
         <v>46107</v>
       </c>
-      <c r="I252" s="141"/>
-      <c r="J252" s="145">
+      <c r="I252" s="79"/>
+      <c r="J252" s="83">
         <f>H252+1</f>
         <v>46108</v>
       </c>
-      <c r="K252" s="141"/>
+      <c r="K252" s="79"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253"/>
-      <c r="B253" s="83"/>
-      <c r="C253" s="155"/>
-      <c r="D253" s="81"/>
-      <c r="E253" s="155"/>
-      <c r="F253" s="79"/>
-      <c r="G253" s="155"/>
-      <c r="H253" s="77"/>
-      <c r="I253" s="155"/>
-      <c r="J253" s="75"/>
-      <c r="K253" s="155"/>
+      <c r="B253" s="64"/>
+      <c r="C253" s="65"/>
+      <c r="D253" s="66"/>
+      <c r="E253" s="65"/>
+      <c r="F253" s="67"/>
+      <c r="G253" s="65"/>
+      <c r="H253" s="68"/>
+      <c r="I253" s="65"/>
+      <c r="J253" s="69"/>
+      <c r="K253" s="65"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254"/>
@@ -5595,85 +5605,85 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261"/>
-      <c r="B261" s="156"/>
-      <c r="C261" s="157"/>
-      <c r="D261" s="157"/>
-      <c r="E261" s="157"/>
-      <c r="F261" s="157"/>
-      <c r="G261" s="157"/>
-      <c r="H261" s="157"/>
-      <c r="I261" s="157"/>
-      <c r="J261" s="157"/>
-      <c r="K261" s="155"/>
+      <c r="B261" s="70"/>
+      <c r="C261" s="71"/>
+      <c r="D261" s="71"/>
+      <c r="E261" s="71"/>
+      <c r="F261" s="71"/>
+      <c r="G261" s="71"/>
+      <c r="H261" s="71"/>
+      <c r="I261" s="71"/>
+      <c r="J261" s="71"/>
+      <c r="K261" s="65"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263"/>
-      <c r="B263" s="60" t="s">
+      <c r="B263" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="C263" s="146"/>
-      <c r="D263" s="146"/>
-      <c r="E263" s="146"/>
-      <c r="F263" s="146"/>
-      <c r="G263" s="146"/>
-      <c r="H263" s="146"/>
-      <c r="I263" s="146"/>
-      <c r="J263" s="146"/>
-      <c r="K263" s="147"/>
+      <c r="C263" s="73"/>
+      <c r="D263" s="73"/>
+      <c r="E263" s="73"/>
+      <c r="F263" s="73"/>
+      <c r="G263" s="73"/>
+      <c r="H263" s="73"/>
+      <c r="I263" s="73"/>
+      <c r="J263" s="73"/>
+      <c r="K263" s="74"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264"/>
-      <c r="B264" s="148"/>
-      <c r="C264" s="149"/>
-      <c r="D264" s="149"/>
-      <c r="E264" s="149"/>
-      <c r="F264" s="149"/>
-      <c r="G264" s="149"/>
-      <c r="H264" s="149"/>
-      <c r="I264" s="149"/>
-      <c r="J264" s="149"/>
-      <c r="K264" s="150"/>
+      <c r="B264" s="75"/>
+      <c r="C264" s="76"/>
+      <c r="D264" s="76"/>
+      <c r="E264" s="76"/>
+      <c r="F264" s="76"/>
+      <c r="G264" s="76"/>
+      <c r="H264" s="76"/>
+      <c r="I264" s="76"/>
+      <c r="J264" s="76"/>
+      <c r="K264" s="77"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265"/>
-      <c r="B265" s="140">
+      <c r="B265" s="78">
         <f>J252+3</f>
         <v>46111</v>
       </c>
-      <c r="C265" s="141"/>
-      <c r="D265" s="142">
+      <c r="C265" s="79"/>
+      <c r="D265" s="80">
         <f>B265+1</f>
         <v>46112</v>
       </c>
-      <c r="E265" s="141"/>
-      <c r="F265" s="143">
+      <c r="E265" s="79"/>
+      <c r="F265" s="81">
         <f>D265+1</f>
         <v>46113</v>
       </c>
-      <c r="G265" s="141"/>
-      <c r="H265" s="144">
+      <c r="G265" s="79"/>
+      <c r="H265" s="82">
         <f>F265+1</f>
         <v>46114</v>
       </c>
-      <c r="I265" s="141"/>
-      <c r="J265" s="145">
+      <c r="I265" s="79"/>
+      <c r="J265" s="83">
         <f>H265+1</f>
         <v>46115</v>
       </c>
-      <c r="K265" s="141"/>
+      <c r="K265" s="79"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266"/>
-      <c r="B266" s="83"/>
-      <c r="C266" s="155"/>
-      <c r="D266" s="81"/>
-      <c r="E266" s="155"/>
-      <c r="F266" s="79"/>
-      <c r="G266" s="155"/>
-      <c r="H266" s="77"/>
-      <c r="I266" s="155"/>
-      <c r="J266" s="75"/>
-      <c r="K266" s="155"/>
+      <c r="B266" s="64"/>
+      <c r="C266" s="65"/>
+      <c r="D266" s="66"/>
+      <c r="E266" s="65"/>
+      <c r="F266" s="67"/>
+      <c r="G266" s="65"/>
+      <c r="H266" s="68"/>
+      <c r="I266" s="65"/>
+      <c r="J266" s="69"/>
+      <c r="K266" s="65"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267"/>
@@ -5780,85 +5790,85 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274"/>
-      <c r="B274" s="156"/>
-      <c r="C274" s="157"/>
-      <c r="D274" s="157"/>
-      <c r="E274" s="157"/>
-      <c r="F274" s="157"/>
-      <c r="G274" s="157"/>
-      <c r="H274" s="157"/>
-      <c r="I274" s="157"/>
-      <c r="J274" s="157"/>
-      <c r="K274" s="155"/>
+      <c r="B274" s="70"/>
+      <c r="C274" s="71"/>
+      <c r="D274" s="71"/>
+      <c r="E274" s="71"/>
+      <c r="F274" s="71"/>
+      <c r="G274" s="71"/>
+      <c r="H274" s="71"/>
+      <c r="I274" s="71"/>
+      <c r="J274" s="71"/>
+      <c r="K274" s="65"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276"/>
-      <c r="B276" s="60" t="s">
+      <c r="B276" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C276" s="146"/>
-      <c r="D276" s="146"/>
-      <c r="E276" s="146"/>
-      <c r="F276" s="146"/>
-      <c r="G276" s="146"/>
-      <c r="H276" s="146"/>
-      <c r="I276" s="146"/>
-      <c r="J276" s="146"/>
-      <c r="K276" s="147"/>
+      <c r="C276" s="73"/>
+      <c r="D276" s="73"/>
+      <c r="E276" s="73"/>
+      <c r="F276" s="73"/>
+      <c r="G276" s="73"/>
+      <c r="H276" s="73"/>
+      <c r="I276" s="73"/>
+      <c r="J276" s="73"/>
+      <c r="K276" s="74"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277"/>
-      <c r="B277" s="148"/>
-      <c r="C277" s="149"/>
-      <c r="D277" s="149"/>
-      <c r="E277" s="149"/>
-      <c r="F277" s="149"/>
-      <c r="G277" s="149"/>
-      <c r="H277" s="149"/>
-      <c r="I277" s="149"/>
-      <c r="J277" s="149"/>
-      <c r="K277" s="150"/>
+      <c r="B277" s="75"/>
+      <c r="C277" s="76"/>
+      <c r="D277" s="76"/>
+      <c r="E277" s="76"/>
+      <c r="F277" s="76"/>
+      <c r="G277" s="76"/>
+      <c r="H277" s="76"/>
+      <c r="I277" s="76"/>
+      <c r="J277" s="76"/>
+      <c r="K277" s="77"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278"/>
-      <c r="B278" s="140">
+      <c r="B278" s="78">
         <f>J265+3</f>
         <v>46118</v>
       </c>
-      <c r="C278" s="141"/>
-      <c r="D278" s="142">
+      <c r="C278" s="79"/>
+      <c r="D278" s="80">
         <f>B278+1</f>
         <v>46119</v>
       </c>
-      <c r="E278" s="141"/>
-      <c r="F278" s="143">
+      <c r="E278" s="79"/>
+      <c r="F278" s="81">
         <f>D278+1</f>
         <v>46120</v>
       </c>
-      <c r="G278" s="141"/>
-      <c r="H278" s="144">
+      <c r="G278" s="79"/>
+      <c r="H278" s="82">
         <f>F278+1</f>
         <v>46121</v>
       </c>
-      <c r="I278" s="141"/>
-      <c r="J278" s="145">
+      <c r="I278" s="79"/>
+      <c r="J278" s="83">
         <f>H278+1</f>
         <v>46122</v>
       </c>
-      <c r="K278" s="141"/>
+      <c r="K278" s="79"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279"/>
-      <c r="B279" s="83"/>
-      <c r="C279" s="155"/>
-      <c r="D279" s="81"/>
-      <c r="E279" s="155"/>
-      <c r="F279" s="79"/>
-      <c r="G279" s="155"/>
-      <c r="H279" s="77"/>
-      <c r="I279" s="155"/>
-      <c r="J279" s="75"/>
-      <c r="K279" s="155"/>
+      <c r="B279" s="64"/>
+      <c r="C279" s="65"/>
+      <c r="D279" s="66"/>
+      <c r="E279" s="65"/>
+      <c r="F279" s="67"/>
+      <c r="G279" s="65"/>
+      <c r="H279" s="68"/>
+      <c r="I279" s="65"/>
+      <c r="J279" s="69"/>
+      <c r="K279" s="65"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280"/>
@@ -5963,85 +5973,85 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287"/>
-      <c r="B287" s="156"/>
-      <c r="C287" s="157"/>
-      <c r="D287" s="157"/>
-      <c r="E287" s="157"/>
-      <c r="F287" s="157"/>
-      <c r="G287" s="157"/>
-      <c r="H287" s="157"/>
-      <c r="I287" s="157"/>
-      <c r="J287" s="157"/>
-      <c r="K287" s="155"/>
+      <c r="B287" s="70"/>
+      <c r="C287" s="71"/>
+      <c r="D287" s="71"/>
+      <c r="E287" s="71"/>
+      <c r="F287" s="71"/>
+      <c r="G287" s="71"/>
+      <c r="H287" s="71"/>
+      <c r="I287" s="71"/>
+      <c r="J287" s="71"/>
+      <c r="K287" s="65"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289"/>
-      <c r="B289" s="60" t="s">
+      <c r="B289" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C289" s="146"/>
-      <c r="D289" s="146"/>
-      <c r="E289" s="146"/>
-      <c r="F289" s="146"/>
-      <c r="G289" s="146"/>
-      <c r="H289" s="146"/>
-      <c r="I289" s="146"/>
-      <c r="J289" s="146"/>
-      <c r="K289" s="147"/>
+      <c r="C289" s="73"/>
+      <c r="D289" s="73"/>
+      <c r="E289" s="73"/>
+      <c r="F289" s="73"/>
+      <c r="G289" s="73"/>
+      <c r="H289" s="73"/>
+      <c r="I289" s="73"/>
+      <c r="J289" s="73"/>
+      <c r="K289" s="74"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290"/>
-      <c r="B290" s="148"/>
-      <c r="C290" s="149"/>
-      <c r="D290" s="149"/>
-      <c r="E290" s="149"/>
-      <c r="F290" s="149"/>
-      <c r="G290" s="149"/>
-      <c r="H290" s="149"/>
-      <c r="I290" s="149"/>
-      <c r="J290" s="149"/>
-      <c r="K290" s="150"/>
+      <c r="B290" s="75"/>
+      <c r="C290" s="76"/>
+      <c r="D290" s="76"/>
+      <c r="E290" s="76"/>
+      <c r="F290" s="76"/>
+      <c r="G290" s="76"/>
+      <c r="H290" s="76"/>
+      <c r="I290" s="76"/>
+      <c r="J290" s="76"/>
+      <c r="K290" s="77"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291"/>
-      <c r="B291" s="140">
+      <c r="B291" s="78">
         <f>J278+3</f>
         <v>46125</v>
       </c>
-      <c r="C291" s="141"/>
-      <c r="D291" s="142">
+      <c r="C291" s="79"/>
+      <c r="D291" s="80">
         <f>B291+1</f>
         <v>46126</v>
       </c>
-      <c r="E291" s="141"/>
-      <c r="F291" s="143">
+      <c r="E291" s="79"/>
+      <c r="F291" s="81">
         <f>D291+1</f>
         <v>46127</v>
       </c>
-      <c r="G291" s="141"/>
-      <c r="H291" s="144">
+      <c r="G291" s="79"/>
+      <c r="H291" s="82">
         <f>F291+1</f>
         <v>46128</v>
       </c>
-      <c r="I291" s="141"/>
-      <c r="J291" s="145">
+      <c r="I291" s="79"/>
+      <c r="J291" s="83">
         <f>H291+1</f>
         <v>46129</v>
       </c>
-      <c r="K291" s="141"/>
+      <c r="K291" s="79"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292"/>
-      <c r="B292" s="83"/>
-      <c r="C292" s="155"/>
-      <c r="D292" s="81"/>
-      <c r="E292" s="155"/>
-      <c r="F292" s="79"/>
-      <c r="G292" s="155"/>
-      <c r="H292" s="77"/>
-      <c r="I292" s="155"/>
-      <c r="J292" s="75"/>
-      <c r="K292" s="155"/>
+      <c r="B292" s="64"/>
+      <c r="C292" s="65"/>
+      <c r="D292" s="66"/>
+      <c r="E292" s="65"/>
+      <c r="F292" s="67"/>
+      <c r="G292" s="65"/>
+      <c r="H292" s="68"/>
+      <c r="I292" s="65"/>
+      <c r="J292" s="69"/>
+      <c r="K292" s="65"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293"/>
@@ -6146,85 +6156,85 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300"/>
-      <c r="B300" s="156"/>
-      <c r="C300" s="157"/>
-      <c r="D300" s="157"/>
-      <c r="E300" s="157"/>
-      <c r="F300" s="157"/>
-      <c r="G300" s="157"/>
-      <c r="H300" s="157"/>
-      <c r="I300" s="157"/>
-      <c r="J300" s="157"/>
-      <c r="K300" s="155"/>
+      <c r="B300" s="70"/>
+      <c r="C300" s="71"/>
+      <c r="D300" s="71"/>
+      <c r="E300" s="71"/>
+      <c r="F300" s="71"/>
+      <c r="G300" s="71"/>
+      <c r="H300" s="71"/>
+      <c r="I300" s="71"/>
+      <c r="J300" s="71"/>
+      <c r="K300" s="65"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302"/>
-      <c r="B302" s="60" t="s">
+      <c r="B302" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C302" s="146"/>
-      <c r="D302" s="146"/>
-      <c r="E302" s="146"/>
-      <c r="F302" s="146"/>
-      <c r="G302" s="146"/>
-      <c r="H302" s="146"/>
-      <c r="I302" s="146"/>
-      <c r="J302" s="146"/>
-      <c r="K302" s="147"/>
+      <c r="C302" s="73"/>
+      <c r="D302" s="73"/>
+      <c r="E302" s="73"/>
+      <c r="F302" s="73"/>
+      <c r="G302" s="73"/>
+      <c r="H302" s="73"/>
+      <c r="I302" s="73"/>
+      <c r="J302" s="73"/>
+      <c r="K302" s="74"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303"/>
-      <c r="B303" s="148"/>
-      <c r="C303" s="149"/>
-      <c r="D303" s="149"/>
-      <c r="E303" s="149"/>
-      <c r="F303" s="149"/>
-      <c r="G303" s="149"/>
-      <c r="H303" s="149"/>
-      <c r="I303" s="149"/>
-      <c r="J303" s="149"/>
-      <c r="K303" s="150"/>
+      <c r="B303" s="75"/>
+      <c r="C303" s="76"/>
+      <c r="D303" s="76"/>
+      <c r="E303" s="76"/>
+      <c r="F303" s="76"/>
+      <c r="G303" s="76"/>
+      <c r="H303" s="76"/>
+      <c r="I303" s="76"/>
+      <c r="J303" s="76"/>
+      <c r="K303" s="77"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304"/>
-      <c r="B304" s="140">
+      <c r="B304" s="78">
         <f>J291+3</f>
         <v>46132</v>
       </c>
-      <c r="C304" s="141"/>
-      <c r="D304" s="142">
+      <c r="C304" s="79"/>
+      <c r="D304" s="80">
         <f>B304+1</f>
         <v>46133</v>
       </c>
-      <c r="E304" s="141"/>
-      <c r="F304" s="143">
+      <c r="E304" s="79"/>
+      <c r="F304" s="81">
         <f>D304+1</f>
         <v>46134</v>
       </c>
-      <c r="G304" s="141"/>
-      <c r="H304" s="144">
+      <c r="G304" s="79"/>
+      <c r="H304" s="82">
         <f>F304+1</f>
         <v>46135</v>
       </c>
-      <c r="I304" s="141"/>
-      <c r="J304" s="145">
+      <c r="I304" s="79"/>
+      <c r="J304" s="83">
         <f>H304+1</f>
         <v>46136</v>
       </c>
-      <c r="K304" s="141"/>
+      <c r="K304" s="79"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305"/>
-      <c r="B305" s="83"/>
-      <c r="C305" s="155"/>
-      <c r="D305" s="81"/>
-      <c r="E305" s="155"/>
-      <c r="F305" s="79"/>
-      <c r="G305" s="155"/>
-      <c r="H305" s="77"/>
-      <c r="I305" s="155"/>
-      <c r="J305" s="75"/>
-      <c r="K305" s="155"/>
+      <c r="B305" s="64"/>
+      <c r="C305" s="65"/>
+      <c r="D305" s="66"/>
+      <c r="E305" s="65"/>
+      <c r="F305" s="67"/>
+      <c r="G305" s="65"/>
+      <c r="H305" s="68"/>
+      <c r="I305" s="65"/>
+      <c r="J305" s="69"/>
+      <c r="K305" s="65"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306"/>
@@ -6329,85 +6339,85 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313"/>
-      <c r="B313" s="156"/>
-      <c r="C313" s="157"/>
-      <c r="D313" s="157"/>
-      <c r="E313" s="157"/>
-      <c r="F313" s="157"/>
-      <c r="G313" s="157"/>
-      <c r="H313" s="157"/>
-      <c r="I313" s="157"/>
-      <c r="J313" s="157"/>
-      <c r="K313" s="155"/>
+      <c r="B313" s="70"/>
+      <c r="C313" s="71"/>
+      <c r="D313" s="71"/>
+      <c r="E313" s="71"/>
+      <c r="F313" s="71"/>
+      <c r="G313" s="71"/>
+      <c r="H313" s="71"/>
+      <c r="I313" s="71"/>
+      <c r="J313" s="71"/>
+      <c r="K313" s="65"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315"/>
-      <c r="B315" s="60" t="s">
+      <c r="B315" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C315" s="146"/>
-      <c r="D315" s="146"/>
-      <c r="E315" s="146"/>
-      <c r="F315" s="146"/>
-      <c r="G315" s="146"/>
-      <c r="H315" s="146"/>
-      <c r="I315" s="146"/>
-      <c r="J315" s="146"/>
-      <c r="K315" s="147"/>
+      <c r="C315" s="73"/>
+      <c r="D315" s="73"/>
+      <c r="E315" s="73"/>
+      <c r="F315" s="73"/>
+      <c r="G315" s="73"/>
+      <c r="H315" s="73"/>
+      <c r="I315" s="73"/>
+      <c r="J315" s="73"/>
+      <c r="K315" s="74"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316"/>
-      <c r="B316" s="148"/>
-      <c r="C316" s="149"/>
-      <c r="D316" s="149"/>
-      <c r="E316" s="149"/>
-      <c r="F316" s="149"/>
-      <c r="G316" s="149"/>
-      <c r="H316" s="149"/>
-      <c r="I316" s="149"/>
-      <c r="J316" s="149"/>
-      <c r="K316" s="150"/>
+      <c r="B316" s="75"/>
+      <c r="C316" s="76"/>
+      <c r="D316" s="76"/>
+      <c r="E316" s="76"/>
+      <c r="F316" s="76"/>
+      <c r="G316" s="76"/>
+      <c r="H316" s="76"/>
+      <c r="I316" s="76"/>
+      <c r="J316" s="76"/>
+      <c r="K316" s="77"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317"/>
-      <c r="B317" s="140">
+      <c r="B317" s="78">
         <f>J304+3</f>
         <v>46139</v>
       </c>
-      <c r="C317" s="141"/>
-      <c r="D317" s="142">
+      <c r="C317" s="79"/>
+      <c r="D317" s="80">
         <f>B317+1</f>
         <v>46140</v>
       </c>
-      <c r="E317" s="141"/>
-      <c r="F317" s="143">
+      <c r="E317" s="79"/>
+      <c r="F317" s="81">
         <f>D317+1</f>
         <v>46141</v>
       </c>
-      <c r="G317" s="141"/>
-      <c r="H317" s="144">
+      <c r="G317" s="79"/>
+      <c r="H317" s="82">
         <f>F317+1</f>
         <v>46142</v>
       </c>
-      <c r="I317" s="141"/>
-      <c r="J317" s="145">
+      <c r="I317" s="79"/>
+      <c r="J317" s="83">
         <f>H317+1</f>
         <v>46143</v>
       </c>
-      <c r="K317" s="141"/>
+      <c r="K317" s="79"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318"/>
-      <c r="B318" s="83"/>
-      <c r="C318" s="155"/>
-      <c r="D318" s="81"/>
-      <c r="E318" s="155"/>
-      <c r="F318" s="79"/>
-      <c r="G318" s="155"/>
-      <c r="H318" s="77"/>
-      <c r="I318" s="155"/>
-      <c r="J318" s="75"/>
-      <c r="K318" s="155"/>
+      <c r="B318" s="64"/>
+      <c r="C318" s="65"/>
+      <c r="D318" s="66"/>
+      <c r="E318" s="65"/>
+      <c r="F318" s="67"/>
+      <c r="G318" s="65"/>
+      <c r="H318" s="68"/>
+      <c r="I318" s="65"/>
+      <c r="J318" s="69"/>
+      <c r="K318" s="65"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319"/>
@@ -6512,85 +6522,85 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326"/>
-      <c r="B326" s="156"/>
-      <c r="C326" s="157"/>
-      <c r="D326" s="157"/>
-      <c r="E326" s="157"/>
-      <c r="F326" s="157"/>
-      <c r="G326" s="157"/>
-      <c r="H326" s="157"/>
-      <c r="I326" s="157"/>
-      <c r="J326" s="157"/>
-      <c r="K326" s="155"/>
+      <c r="B326" s="70"/>
+      <c r="C326" s="71"/>
+      <c r="D326" s="71"/>
+      <c r="E326" s="71"/>
+      <c r="F326" s="71"/>
+      <c r="G326" s="71"/>
+      <c r="H326" s="71"/>
+      <c r="I326" s="71"/>
+      <c r="J326" s="71"/>
+      <c r="K326" s="65"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328"/>
-      <c r="B328" s="60" t="s">
+      <c r="B328" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C328" s="146"/>
-      <c r="D328" s="146"/>
-      <c r="E328" s="146"/>
-      <c r="F328" s="146"/>
-      <c r="G328" s="146"/>
-      <c r="H328" s="146"/>
-      <c r="I328" s="146"/>
-      <c r="J328" s="146"/>
-      <c r="K328" s="147"/>
+      <c r="C328" s="73"/>
+      <c r="D328" s="73"/>
+      <c r="E328" s="73"/>
+      <c r="F328" s="73"/>
+      <c r="G328" s="73"/>
+      <c r="H328" s="73"/>
+      <c r="I328" s="73"/>
+      <c r="J328" s="73"/>
+      <c r="K328" s="74"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329"/>
-      <c r="B329" s="148"/>
-      <c r="C329" s="149"/>
-      <c r="D329" s="149"/>
-      <c r="E329" s="149"/>
-      <c r="F329" s="149"/>
-      <c r="G329" s="149"/>
-      <c r="H329" s="149"/>
-      <c r="I329" s="149"/>
-      <c r="J329" s="149"/>
-      <c r="K329" s="150"/>
+      <c r="B329" s="75"/>
+      <c r="C329" s="76"/>
+      <c r="D329" s="76"/>
+      <c r="E329" s="76"/>
+      <c r="F329" s="76"/>
+      <c r="G329" s="76"/>
+      <c r="H329" s="76"/>
+      <c r="I329" s="76"/>
+      <c r="J329" s="76"/>
+      <c r="K329" s="77"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330"/>
-      <c r="B330" s="140">
+      <c r="B330" s="78">
         <f>J317+3</f>
         <v>46146</v>
       </c>
-      <c r="C330" s="141"/>
-      <c r="D330" s="142">
+      <c r="C330" s="79"/>
+      <c r="D330" s="80">
         <f>B330+1</f>
         <v>46147</v>
       </c>
-      <c r="E330" s="141"/>
-      <c r="F330" s="143">
+      <c r="E330" s="79"/>
+      <c r="F330" s="81">
         <f>D330+1</f>
         <v>46148</v>
       </c>
-      <c r="G330" s="141"/>
-      <c r="H330" s="144">
+      <c r="G330" s="79"/>
+      <c r="H330" s="82">
         <f>F330+1</f>
         <v>46149</v>
       </c>
-      <c r="I330" s="141"/>
-      <c r="J330" s="145">
+      <c r="I330" s="79"/>
+      <c r="J330" s="83">
         <f>H330+1</f>
         <v>46150</v>
       </c>
-      <c r="K330" s="141"/>
+      <c r="K330" s="79"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331"/>
-      <c r="B331" s="83"/>
-      <c r="C331" s="155"/>
-      <c r="D331" s="81"/>
-      <c r="E331" s="155"/>
-      <c r="F331" s="79"/>
-      <c r="G331" s="155"/>
-      <c r="H331" s="77"/>
-      <c r="I331" s="155"/>
-      <c r="J331" s="75"/>
-      <c r="K331" s="155"/>
+      <c r="B331" s="64"/>
+      <c r="C331" s="65"/>
+      <c r="D331" s="66"/>
+      <c r="E331" s="65"/>
+      <c r="F331" s="67"/>
+      <c r="G331" s="65"/>
+      <c r="H331" s="68"/>
+      <c r="I331" s="65"/>
+      <c r="J331" s="69"/>
+      <c r="K331" s="65"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332"/>
@@ -6695,19 +6705,318 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339"/>
-      <c r="B339" s="156"/>
-      <c r="C339" s="157"/>
-      <c r="D339" s="157"/>
-      <c r="E339" s="157"/>
-      <c r="F339" s="157"/>
-      <c r="G339" s="157"/>
-      <c r="H339" s="157"/>
-      <c r="I339" s="157"/>
-      <c r="J339" s="157"/>
-      <c r="K339" s="155"/>
+      <c r="B339" s="70"/>
+      <c r="C339" s="71"/>
+      <c r="D339" s="71"/>
+      <c r="E339" s="71"/>
+      <c r="F339" s="71"/>
+      <c r="G339" s="71"/>
+      <c r="H339" s="71"/>
+      <c r="I339" s="71"/>
+      <c r="J339" s="71"/>
+      <c r="K339" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="323">
+    <mergeCell ref="B13:K14"/>
+    <mergeCell ref="J82:K88"/>
+    <mergeCell ref="J95:K101"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B26:K27"/>
+    <mergeCell ref="B39:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B1:C7"/>
+    <mergeCell ref="D1:I6"/>
+    <mergeCell ref="J1:K7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B52:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B65:K66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B56:C62"/>
+    <mergeCell ref="B78:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B91:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B89:K89"/>
+    <mergeCell ref="H82:I88"/>
+    <mergeCell ref="F82:G88"/>
+    <mergeCell ref="B104:K105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="H95:I101"/>
+    <mergeCell ref="F95:G101"/>
+    <mergeCell ref="B120:K121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="B118:K118"/>
+    <mergeCell ref="B133:K134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="B131:K131"/>
+    <mergeCell ref="B146:K147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="B144:K144"/>
+    <mergeCell ref="B159:K160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B157:K157"/>
+    <mergeCell ref="B172:K173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="B170:K170"/>
+    <mergeCell ref="B185:K186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="B183:K183"/>
+    <mergeCell ref="B198:K199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="B196:K196"/>
+    <mergeCell ref="B211:K212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="B209:K209"/>
+    <mergeCell ref="B224:K225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="B222:K222"/>
+    <mergeCell ref="B237:K238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="B235:K235"/>
+    <mergeCell ref="B250:K251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="B248:K248"/>
+    <mergeCell ref="B263:K264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="B261:K261"/>
+    <mergeCell ref="B276:K277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="B274:K274"/>
+    <mergeCell ref="B289:K290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="B287:K287"/>
+    <mergeCell ref="B302:K303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="B300:K300"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="B313:K313"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -6732,305 +7041,6 @@
     <mergeCell ref="B315:K316"/>
     <mergeCell ref="B317:C317"/>
     <mergeCell ref="D317:E317"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="B313:K313"/>
-    <mergeCell ref="B302:K303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="B300:K300"/>
-    <mergeCell ref="B289:K290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="B287:K287"/>
-    <mergeCell ref="B276:K277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="F278:G278"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="F266:G266"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="B274:K274"/>
-    <mergeCell ref="B263:K264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="B261:K261"/>
-    <mergeCell ref="B250:K251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="F252:G252"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="B248:K248"/>
-    <mergeCell ref="B237:K238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="B235:K235"/>
-    <mergeCell ref="B224:K225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="B222:K222"/>
-    <mergeCell ref="B211:K212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="B209:K209"/>
-    <mergeCell ref="B198:K199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="B196:K196"/>
-    <mergeCell ref="B185:K186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="B183:K183"/>
-    <mergeCell ref="B172:K173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="B170:K170"/>
-    <mergeCell ref="B159:K160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B157:K157"/>
-    <mergeCell ref="B146:K147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="B144:K144"/>
-    <mergeCell ref="B133:K134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="B131:K131"/>
-    <mergeCell ref="B120:K121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="B118:K118"/>
-    <mergeCell ref="B104:K105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="H95:I101"/>
-    <mergeCell ref="F95:G101"/>
-    <mergeCell ref="B91:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B89:K89"/>
-    <mergeCell ref="H82:I88"/>
-    <mergeCell ref="F82:G88"/>
-    <mergeCell ref="B78:K79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B65:K66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B56:C62"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B52:K53"/>
-    <mergeCell ref="B1:C7"/>
-    <mergeCell ref="D1:I6"/>
-    <mergeCell ref="J1:K7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="B13:K14"/>
-    <mergeCell ref="J82:K88"/>
-    <mergeCell ref="J95:K101"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B26:K27"/>
-    <mergeCell ref="B39:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="106">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -330,7 +330,13 @@
     <t>Live Coding Tuplas</t>
   </si>
   <si>
-    <t>Live Coding Sets</t>
+    <t>Espacio para terminar ejercicio grupal</t>
+  </si>
+  <si>
+    <t>Presentación ejercicios resueltos (Alumnos)</t>
+  </si>
+  <si>
+    <t>Ejercicio Grupal Diccionarios</t>
   </si>
 </sst>
 </file>
@@ -1725,22 +1731,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123:C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="49" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" style="49" customWidth="1"/>
     <col min="4" max="4" width="6" style="49" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" style="49" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" style="49" customWidth="1"/>
     <col min="7" max="7" width="38.5703125" style="49" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="49" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="49" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.5703125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="49" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.5703125" style="49" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3611,8 +3617,10 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123"/>
-      <c r="B123" s="64"/>
-      <c r="C123" s="65"/>
+      <c r="B123" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="85"/>
       <c r="D123" s="66"/>
       <c r="E123" s="65"/>
       <c r="F123" s="67"/>
@@ -3634,13 +3642,13 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F124" s="10">
         <v>0.79166666666666663</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="H124" s="41">
         <v>0.79166666666666663</v>
@@ -3655,7 +3663,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" ht="26.25">
       <c r="A125"/>
       <c r="B125" s="14"/>
       <c r="C125" s="15" t="s">
@@ -3663,11 +3671,11 @@
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="46" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="F125" s="17"/>
       <c r="G125" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H125" s="17"/>
       <c r="I125" s="19" t="s">
@@ -3684,11 +3692,11 @@
       </c>
       <c r="D126" s="22"/>
       <c r="E126" s="47" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="24" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H126" s="42"/>
       <c r="I126" s="25" t="s">
@@ -3705,11 +3713,11 @@
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="46" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F127" s="17"/>
       <c r="G127" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H127" s="17"/>
       <c r="I127" s="19" t="s">
@@ -3722,14 +3730,14 @@
       <c r="A128"/>
       <c r="B128" s="30"/>
       <c r="C128" s="21" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="D128" s="31"/>
-      <c r="E128" s="47" t="s">
-        <v>72</v>
-      </c>
+      <c r="E128" s="47"/>
       <c r="F128" s="32"/>
-      <c r="G128" s="24"/>
+      <c r="G128" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="H128" s="33"/>
       <c r="I128" s="25"/>
       <c r="J128" s="34"/>
@@ -3738,15 +3746,13 @@
     <row r="129" spans="1:11">
       <c r="A129"/>
       <c r="B129" s="35"/>
-      <c r="C129" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="C129" s="15"/>
       <c r="D129" s="36"/>
-      <c r="E129" s="46" t="s">
-        <v>81</v>
-      </c>
+      <c r="E129" s="46"/>
       <c r="F129" s="36"/>
-      <c r="G129" s="18"/>
+      <c r="G129" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="H129" s="36"/>
       <c r="I129" s="19"/>
       <c r="J129" s="37"/>
@@ -7054,8 +7060,9 @@
     <hyperlink ref="J8" r:id="rId9"/>
     <hyperlink ref="H107:I107" r:id="rId10" display="Grabación de la clase"/>
     <hyperlink ref="J107:K107" r:id="rId11" display="Grabación de la clase"/>
+    <hyperlink ref="B123:C123" r:id="rId12" display="Grabación de la clase"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -243,9 +243,6 @@
     <t>Funciones en Python</t>
   </si>
   <si>
-    <t>Módulos y paquetes</t>
-  </si>
-  <si>
     <t>Semana 9 - Módulo # 3</t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t>Término recuperación horas</t>
   </si>
   <si>
-    <t>Entornos virtuales</t>
-  </si>
-  <si>
     <t>Instalación de librerias</t>
   </si>
   <si>
@@ -337,6 +331,18 @@
   </si>
   <si>
     <t>Ejercicio Grupal Diccionarios</t>
+  </si>
+  <si>
+    <t>Ejercicios grupales funciones</t>
+  </si>
+  <si>
+    <t>Importaciones</t>
+  </si>
+  <si>
+    <t>Modulos y paquetes</t>
+  </si>
+  <si>
+    <t>Live Coding ejercicio Sistema Gestión de Biblioteca</t>
   </si>
 </sst>
 </file>
@@ -346,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd&quot;, &quot;d&quot; de &quot;mmmm"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,13 +497,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="28">
@@ -1164,12 +1163,6 @@
     <xf numFmtId="0" fontId="13" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1185,60 +1178,237 @@
     <xf numFmtId="0" fontId="13" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1246,202 +1416,31 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1731,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123:C123"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1754,179 +1753,179 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="124" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="129"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="117"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="130"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="130"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="130"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="118"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="130"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="118"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="130"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="118"/>
     </row>
     <row r="7" spans="1:11" ht="18">
       <c r="A7" s="2"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="131"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="119"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="132" t="s">
+      <c r="C8" s="121"/>
+      <c r="D8" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="136" t="s">
+      <c r="E8" s="121"/>
+      <c r="F8" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="137"/>
-      <c r="H8" s="140" t="s">
+      <c r="G8" s="125"/>
+      <c r="H8" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="137"/>
-      <c r="J8" s="141" t="s">
+      <c r="I8" s="125"/>
+      <c r="J8" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="137"/>
+      <c r="K8" s="125"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="139"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="127"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
-      <c r="B10" s="142"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="136" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="143"/>
-      <c r="H10" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="137"/>
-      <c r="J10" s="140" t="s">
+      <c r="B10" s="130"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="137"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="128" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="125"/>
+      <c r="J10" s="128" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="125"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="139"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="127"/>
     </row>
     <row r="12" spans="1:11" ht="2.25" hidden="1" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="63">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="60" t="s">
+      <c r="C12" s="110"/>
+      <c r="D12" s="159">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="110"/>
+      <c r="F12" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="61"/>
+      <c r="G12" s="110"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
@@ -1934,71 +1933,71 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="91"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="60"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5"/>
-      <c r="B15" s="109">
+      <c r="B15" s="91">
         <v>45978</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111">
+      <c r="C15" s="92"/>
+      <c r="D15" s="89">
         <f>B15+1</f>
         <v>45979</v>
       </c>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113">
+      <c r="E15" s="90"/>
+      <c r="F15" s="87">
         <f>D15+1</f>
         <v>45980</v>
       </c>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115">
+      <c r="G15" s="88"/>
+      <c r="H15" s="85">
         <f>F15+1</f>
         <v>45981</v>
       </c>
-      <c r="I15" s="116"/>
-      <c r="J15" s="117">
+      <c r="I15" s="86"/>
+      <c r="J15" s="83">
         <f>H15+1</f>
         <v>45982</v>
       </c>
-      <c r="K15" s="118"/>
+      <c r="K15" s="84"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="99"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6"/>
@@ -2108,16 +2107,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="27"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="102"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2"/>
@@ -2134,72 +2133,72 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="156" t="s">
+      <c r="B26" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="158"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="105"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
-      <c r="K27" s="161"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5"/>
-      <c r="B28" s="146">
+      <c r="B28" s="93">
         <f>J15+3</f>
         <v>45985</v>
       </c>
-      <c r="C28" s="147"/>
-      <c r="D28" s="148">
+      <c r="C28" s="94"/>
+      <c r="D28" s="95">
         <f>B28+1</f>
         <v>45986</v>
       </c>
-      <c r="E28" s="149"/>
-      <c r="F28" s="150">
+      <c r="E28" s="96"/>
+      <c r="F28" s="97">
         <f>D28+1</f>
         <v>45987</v>
       </c>
-      <c r="G28" s="151"/>
-      <c r="H28" s="152">
+      <c r="G28" s="98"/>
+      <c r="H28" s="99">
         <f>F28+1</f>
         <v>45988</v>
       </c>
-      <c r="I28" s="153"/>
-      <c r="J28" s="154">
+      <c r="I28" s="100"/>
+      <c r="J28" s="101">
         <f>H28+1</f>
         <v>45989</v>
       </c>
-      <c r="K28" s="155"/>
+      <c r="K28" s="102"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="121"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="135"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="6"/>
@@ -2309,16 +2308,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="27"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="102"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="72"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2"/>
@@ -2335,74 +2334,74 @@
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="91"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="60"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="94"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="63"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2"/>
-      <c r="B41" s="109">
+      <c r="B41" s="91">
         <f>J28+3</f>
         <v>45992</v>
       </c>
-      <c r="C41" s="110"/>
-      <c r="D41" s="111">
+      <c r="C41" s="92"/>
+      <c r="D41" s="89">
         <f>B41+1</f>
         <v>45993</v>
       </c>
-      <c r="E41" s="112"/>
-      <c r="F41" s="113">
+      <c r="E41" s="90"/>
+      <c r="F41" s="87">
         <f>D41+1</f>
         <v>45994</v>
       </c>
-      <c r="G41" s="114"/>
-      <c r="H41" s="115">
+      <c r="G41" s="88"/>
+      <c r="H41" s="85">
         <f>F41+1</f>
         <v>45995</v>
       </c>
-      <c r="I41" s="116"/>
-      <c r="J41" s="117">
+      <c r="I41" s="86"/>
+      <c r="J41" s="83">
         <f>H41+1</f>
         <v>45996</v>
       </c>
-      <c r="K41" s="118"/>
+      <c r="K41" s="84"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="87" t="s">
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="119"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="99"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="74"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2"/>
@@ -2540,16 +2539,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="102"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="72"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2"/>
@@ -2565,75 +2564,75 @@
       <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1">
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="91"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="60"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="B53" s="92"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="94"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="63"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="B54" s="109">
+      <c r="B54" s="91">
         <f>J41+3</f>
         <v>45999</v>
       </c>
-      <c r="C54" s="110"/>
-      <c r="D54" s="111">
+      <c r="C54" s="92"/>
+      <c r="D54" s="89">
         <f>B54+1</f>
         <v>46000</v>
       </c>
-      <c r="E54" s="112"/>
-      <c r="F54" s="113">
+      <c r="E54" s="90"/>
+      <c r="F54" s="87">
         <f>D54+1</f>
         <v>46001</v>
       </c>
-      <c r="G54" s="114"/>
-      <c r="H54" s="115">
+      <c r="G54" s="88"/>
+      <c r="H54" s="85">
         <f>F54+1</f>
         <v>46002</v>
       </c>
-      <c r="I54" s="116"/>
-      <c r="J54" s="117">
+      <c r="I54" s="86"/>
+      <c r="J54" s="83">
         <f>H54+1</f>
         <v>46003</v>
       </c>
-      <c r="K54" s="118"/>
+      <c r="K54" s="84"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="B55" s="64"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="98"/>
-      <c r="J55" s="69"/>
-      <c r="K55" s="99"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="73"/>
+      <c r="K55" s="74"/>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1">
-      <c r="B56" s="103" t="s">
+      <c r="B56" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="104"/>
+      <c r="C56" s="65"/>
       <c r="D56" s="40">
         <f>D12</f>
         <v>0.79166666666666663</v>
@@ -2664,8 +2663,8 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1">
-      <c r="B57" s="105"/>
-      <c r="C57" s="106"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="17"/>
       <c r="E57" s="46" t="s">
         <v>33</v>
@@ -2680,8 +2679,8 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1">
-      <c r="B58" s="105"/>
-      <c r="C58" s="106"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="67"/>
       <c r="D58" s="22"/>
       <c r="E58" s="47" t="s">
         <v>34</v>
@@ -2696,8 +2695,8 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1">
-      <c r="B59" s="105"/>
-      <c r="C59" s="106"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="17"/>
       <c r="E59" s="46" t="s">
         <v>35</v>
@@ -2712,8 +2711,8 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1">
-      <c r="B60" s="105"/>
-      <c r="C60" s="106"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="31"/>
       <c r="E60" s="47"/>
       <c r="F60" s="32"/>
@@ -2724,8 +2723,8 @@
       <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1">
-      <c r="B61" s="105"/>
-      <c r="C61" s="106"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="36"/>
       <c r="E61" s="46"/>
       <c r="F61" s="36"/>
@@ -2740,8 +2739,8 @@
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1">
-      <c r="B62" s="107"/>
-      <c r="C62" s="108"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="69"/>
       <c r="D62" s="31"/>
       <c r="E62" s="47"/>
       <c r="F62" s="32"/>
@@ -2752,81 +2751,81 @@
       <c r="K62" s="48"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="B63" s="100"/>
-      <c r="C63" s="101"/>
-      <c r="D63" s="101"/>
-      <c r="E63" s="101"/>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
-      <c r="H63" s="101"/>
-      <c r="I63" s="101"/>
-      <c r="J63" s="101"/>
-      <c r="K63" s="102"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="71"/>
+      <c r="J63" s="71"/>
+      <c r="K63" s="72"/>
     </row>
     <row r="65" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="90"/>
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="90"/>
-      <c r="K65" s="91"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="60"/>
     </row>
     <row r="66" spans="2:11" customFormat="1">
-      <c r="B66" s="92"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="93"/>
-      <c r="F66" s="93"/>
-      <c r="G66" s="93"/>
-      <c r="H66" s="93"/>
-      <c r="I66" s="93"/>
-      <c r="J66" s="93"/>
-      <c r="K66" s="94"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="63"/>
     </row>
     <row r="67" spans="2:11" customFormat="1">
-      <c r="B67" s="109">
+      <c r="B67" s="91">
         <f>J54+3</f>
         <v>46006</v>
       </c>
-      <c r="C67" s="110"/>
-      <c r="D67" s="111">
+      <c r="C67" s="92"/>
+      <c r="D67" s="89">
         <f>B67+1</f>
         <v>46007</v>
       </c>
-      <c r="E67" s="112"/>
-      <c r="F67" s="113">
+      <c r="E67" s="90"/>
+      <c r="F67" s="87">
         <f>D67+1</f>
         <v>46008</v>
       </c>
-      <c r="G67" s="114"/>
-      <c r="H67" s="115">
+      <c r="G67" s="88"/>
+      <c r="H67" s="85">
         <f>F67+1</f>
         <v>46009</v>
       </c>
-      <c r="I67" s="116"/>
-      <c r="J67" s="117">
+      <c r="I67" s="86"/>
+      <c r="J67" s="83">
         <f>H67+1</f>
         <v>46010</v>
       </c>
-      <c r="K67" s="118"/>
+      <c r="K67" s="84"/>
     </row>
     <row r="68" spans="2:11" customFormat="1">
-      <c r="B68" s="64"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="96"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="97"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="98"/>
-      <c r="J68" s="69"/>
-      <c r="K68" s="99"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="73"/>
+      <c r="K68" s="74"/>
     </row>
     <row r="69" spans="2:11" customFormat="1">
       <c r="B69" s="39">
@@ -2928,81 +2927,81 @@
       <c r="K75" s="48"/>
     </row>
     <row r="76" spans="2:11" customFormat="1">
-      <c r="B76" s="100"/>
-      <c r="C76" s="101"/>
-      <c r="D76" s="101"/>
-      <c r="E76" s="101"/>
-      <c r="F76" s="101"/>
-      <c r="G76" s="101"/>
-      <c r="H76" s="101"/>
-      <c r="I76" s="101"/>
-      <c r="J76" s="101"/>
-      <c r="K76" s="102"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="71"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="72"/>
     </row>
     <row r="78" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B78" s="72" t="s">
+      <c r="B78" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="90"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="90"/>
-      <c r="H78" s="90"/>
-      <c r="I78" s="90"/>
-      <c r="J78" s="90"/>
-      <c r="K78" s="91"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="60"/>
     </row>
     <row r="79" spans="2:11" customFormat="1">
-      <c r="B79" s="92"/>
-      <c r="C79" s="93"/>
-      <c r="D79" s="93"/>
-      <c r="E79" s="93"/>
-      <c r="F79" s="93"/>
-      <c r="G79" s="93"/>
-      <c r="H79" s="93"/>
-      <c r="I79" s="93"/>
-      <c r="J79" s="93"/>
-      <c r="K79" s="94"/>
+      <c r="B79" s="61"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="63"/>
     </row>
     <row r="80" spans="2:11" customFormat="1">
-      <c r="B80" s="109">
+      <c r="B80" s="91">
         <f>J67+3</f>
         <v>46013</v>
       </c>
-      <c r="C80" s="110"/>
-      <c r="D80" s="111">
+      <c r="C80" s="92"/>
+      <c r="D80" s="89">
         <f>B80+1</f>
         <v>46014</v>
       </c>
-      <c r="E80" s="112"/>
-      <c r="F80" s="113">
+      <c r="E80" s="90"/>
+      <c r="F80" s="87">
         <f>D80+1</f>
         <v>46015</v>
       </c>
-      <c r="G80" s="114"/>
-      <c r="H80" s="115">
+      <c r="G80" s="88"/>
+      <c r="H80" s="85">
         <f>F80+1</f>
         <v>46016</v>
       </c>
-      <c r="I80" s="116"/>
-      <c r="J80" s="117">
+      <c r="I80" s="86"/>
+      <c r="J80" s="83">
         <f>H80+1</f>
         <v>46017</v>
       </c>
-      <c r="K80" s="118"/>
+      <c r="K80" s="84"/>
     </row>
     <row r="81" spans="2:11" customFormat="1">
-      <c r="B81" s="64"/>
-      <c r="C81" s="95"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="97"/>
-      <c r="H81" s="68"/>
-      <c r="I81" s="98"/>
-      <c r="J81" s="69"/>
-      <c r="K81" s="99"/>
+      <c r="B81" s="81"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="79"/>
+      <c r="E81" s="80"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="78"/>
+      <c r="H81" s="75"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="73"/>
+      <c r="K81" s="74"/>
     </row>
     <row r="82" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B82" s="39">
@@ -3015,167 +3014,167 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E82" s="43"/>
-      <c r="F82" s="103" t="s">
+      <c r="F82" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="104"/>
-      <c r="H82" s="103" t="s">
+      <c r="G82" s="65"/>
+      <c r="H82" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="104"/>
-      <c r="J82" s="103" t="s">
+      <c r="I82" s="65"/>
+      <c r="J82" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="104"/>
+      <c r="K82" s="65"/>
     </row>
     <row r="83" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
       <c r="D83" s="17"/>
       <c r="E83" s="46"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="106"/>
-      <c r="H83" s="105"/>
-      <c r="I83" s="106"/>
-      <c r="J83" s="105"/>
-      <c r="K83" s="106"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="67"/>
     </row>
     <row r="84" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B84" s="7"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
       <c r="E84" s="47"/>
-      <c r="F84" s="105"/>
-      <c r="G84" s="106"/>
-      <c r="H84" s="105"/>
-      <c r="I84" s="106"/>
-      <c r="J84" s="105"/>
-      <c r="K84" s="106"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="67"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="67"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="67"/>
     </row>
     <row r="85" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="17"/>
       <c r="E85" s="46"/>
-      <c r="F85" s="105"/>
-      <c r="G85" s="106"/>
-      <c r="H85" s="105"/>
-      <c r="I85" s="106"/>
-      <c r="J85" s="105"/>
-      <c r="K85" s="106"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="67"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="67"/>
     </row>
     <row r="86" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B86" s="30"/>
       <c r="C86" s="21"/>
       <c r="D86" s="31"/>
       <c r="E86" s="47"/>
-      <c r="F86" s="105"/>
-      <c r="G86" s="106"/>
-      <c r="H86" s="105"/>
-      <c r="I86" s="106"/>
-      <c r="J86" s="105"/>
-      <c r="K86" s="106"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="67"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="67"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="67"/>
     </row>
     <row r="87" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B87" s="35"/>
       <c r="C87" s="15"/>
       <c r="D87" s="36"/>
       <c r="E87" s="46"/>
-      <c r="F87" s="105"/>
-      <c r="G87" s="106"/>
-      <c r="H87" s="105"/>
-      <c r="I87" s="106"/>
-      <c r="J87" s="105"/>
-      <c r="K87" s="106"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="67"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="67"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="67"/>
     </row>
     <row r="88" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B88" s="30"/>
       <c r="C88" s="21"/>
       <c r="D88" s="31"/>
       <c r="E88" s="47"/>
-      <c r="F88" s="107"/>
-      <c r="G88" s="108"/>
-      <c r="H88" s="107"/>
-      <c r="I88" s="108"/>
-      <c r="J88" s="107"/>
-      <c r="K88" s="108"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="68"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="68"/>
+      <c r="K88" s="69"/>
     </row>
     <row r="89" spans="2:11" customFormat="1">
-      <c r="B89" s="100"/>
-      <c r="C89" s="101"/>
-      <c r="D89" s="101"/>
-      <c r="E89" s="101"/>
-      <c r="F89" s="101"/>
-      <c r="G89" s="101"/>
-      <c r="H89" s="101"/>
-      <c r="I89" s="101"/>
-      <c r="J89" s="101"/>
-      <c r="K89" s="102"/>
+      <c r="B89" s="70"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="71"/>
+      <c r="H89" s="71"/>
+      <c r="I89" s="71"/>
+      <c r="J89" s="71"/>
+      <c r="K89" s="72"/>
     </row>
     <row r="91" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B91" s="72" t="s">
+      <c r="B91" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C91" s="90"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="90"/>
-      <c r="G91" s="90"/>
-      <c r="H91" s="90"/>
-      <c r="I91" s="90"/>
-      <c r="J91" s="90"/>
-      <c r="K91" s="91"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="59"/>
+      <c r="H91" s="59"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="60"/>
     </row>
     <row r="92" spans="2:11" customFormat="1">
-      <c r="B92" s="92"/>
-      <c r="C92" s="93"/>
-      <c r="D92" s="93"/>
-      <c r="E92" s="93"/>
-      <c r="F92" s="93"/>
-      <c r="G92" s="93"/>
-      <c r="H92" s="93"/>
-      <c r="I92" s="93"/>
-      <c r="J92" s="93"/>
-      <c r="K92" s="94"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="62"/>
+      <c r="J92" s="62"/>
+      <c r="K92" s="63"/>
     </row>
     <row r="93" spans="2:11" customFormat="1">
-      <c r="B93" s="109">
+      <c r="B93" s="91">
         <f>J80+3</f>
         <v>46020</v>
       </c>
-      <c r="C93" s="110"/>
-      <c r="D93" s="111">
+      <c r="C93" s="92"/>
+      <c r="D93" s="89">
         <f>B93+1</f>
         <v>46021</v>
       </c>
-      <c r="E93" s="112"/>
-      <c r="F93" s="113">
+      <c r="E93" s="90"/>
+      <c r="F93" s="87">
         <f>D93+1</f>
         <v>46022</v>
       </c>
-      <c r="G93" s="114"/>
-      <c r="H93" s="115">
+      <c r="G93" s="88"/>
+      <c r="H93" s="85">
         <f>F93+1</f>
         <v>46023</v>
       </c>
-      <c r="I93" s="116"/>
-      <c r="J93" s="117">
+      <c r="I93" s="86"/>
+      <c r="J93" s="83">
         <f>H93+1</f>
         <v>46024</v>
       </c>
-      <c r="K93" s="118"/>
+      <c r="K93" s="84"/>
     </row>
     <row r="94" spans="2:11" customFormat="1">
-      <c r="B94" s="64"/>
-      <c r="C94" s="95"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="96"/>
-      <c r="F94" s="67"/>
-      <c r="G94" s="97"/>
-      <c r="H94" s="68"/>
-      <c r="I94" s="98"/>
-      <c r="J94" s="69"/>
-      <c r="K94" s="99"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="82"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="78"/>
+      <c r="H94" s="75"/>
+      <c r="I94" s="76"/>
+      <c r="J94" s="73"/>
+      <c r="K94" s="74"/>
     </row>
     <row r="95" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B95" s="39">
@@ -3188,177 +3187,177 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E95" s="43"/>
-      <c r="F95" s="103" t="s">
+      <c r="F95" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="104"/>
-      <c r="H95" s="103" t="s">
+      <c r="G95" s="65"/>
+      <c r="H95" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="104"/>
-      <c r="J95" s="103" t="s">
+      <c r="I95" s="65"/>
+      <c r="J95" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="104"/>
+      <c r="K95" s="65"/>
     </row>
     <row r="96" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="17"/>
       <c r="E96" s="46"/>
-      <c r="F96" s="105"/>
-      <c r="G96" s="106"/>
-      <c r="H96" s="105"/>
-      <c r="I96" s="106"/>
-      <c r="J96" s="105"/>
-      <c r="K96" s="106"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="67"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="67"/>
+      <c r="J96" s="66"/>
+      <c r="K96" s="67"/>
     </row>
     <row r="97" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B97" s="7"/>
       <c r="C97" s="21"/>
       <c r="D97" s="22"/>
       <c r="E97" s="47"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="106"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="106"/>
-      <c r="J97" s="105"/>
-      <c r="K97" s="106"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="67"/>
+      <c r="J97" s="66"/>
+      <c r="K97" s="67"/>
     </row>
     <row r="98" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="17"/>
       <c r="E98" s="46"/>
-      <c r="F98" s="105"/>
-      <c r="G98" s="106"/>
-      <c r="H98" s="105"/>
-      <c r="I98" s="106"/>
-      <c r="J98" s="105"/>
-      <c r="K98" s="106"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="67"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="67"/>
+      <c r="J98" s="66"/>
+      <c r="K98" s="67"/>
     </row>
     <row r="99" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B99" s="30"/>
       <c r="C99" s="21"/>
       <c r="D99" s="31"/>
       <c r="E99" s="47"/>
-      <c r="F99" s="105"/>
-      <c r="G99" s="106"/>
-      <c r="H99" s="105"/>
-      <c r="I99" s="106"/>
-      <c r="J99" s="105"/>
-      <c r="K99" s="106"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="67"/>
+      <c r="J99" s="66"/>
+      <c r="K99" s="67"/>
     </row>
     <row r="100" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B100" s="35"/>
       <c r="C100" s="15"/>
       <c r="D100" s="36"/>
       <c r="E100" s="46"/>
-      <c r="F100" s="105"/>
-      <c r="G100" s="106"/>
-      <c r="H100" s="105"/>
-      <c r="I100" s="106"/>
-      <c r="J100" s="105"/>
-      <c r="K100" s="106"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="66"/>
+      <c r="I100" s="67"/>
+      <c r="J100" s="66"/>
+      <c r="K100" s="67"/>
     </row>
     <row r="101" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B101" s="30"/>
       <c r="C101" s="21"/>
       <c r="D101" s="31"/>
       <c r="E101" s="47"/>
-      <c r="F101" s="107"/>
-      <c r="G101" s="108"/>
-      <c r="H101" s="107"/>
-      <c r="I101" s="108"/>
-      <c r="J101" s="107"/>
-      <c r="K101" s="108"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="69"/>
+      <c r="H101" s="68"/>
+      <c r="I101" s="69"/>
+      <c r="J101" s="68"/>
+      <c r="K101" s="69"/>
     </row>
     <row r="102" spans="2:11" customFormat="1">
-      <c r="B102" s="100"/>
-      <c r="C102" s="101"/>
-      <c r="D102" s="101"/>
-      <c r="E102" s="101"/>
-      <c r="F102" s="101"/>
-      <c r="G102" s="101"/>
-      <c r="H102" s="101"/>
-      <c r="I102" s="101"/>
-      <c r="J102" s="101"/>
-      <c r="K102" s="102"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="71"/>
+      <c r="I102" s="71"/>
+      <c r="J102" s="71"/>
+      <c r="K102" s="72"/>
     </row>
     <row r="104" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B104" s="72" t="s">
+      <c r="B104" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="90"/>
-      <c r="D104" s="90"/>
-      <c r="E104" s="90"/>
-      <c r="F104" s="90"/>
-      <c r="G104" s="90"/>
-      <c r="H104" s="90"/>
-      <c r="I104" s="90"/>
-      <c r="J104" s="90"/>
-      <c r="K104" s="91"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="59"/>
+      <c r="K104" s="60"/>
     </row>
     <row r="105" spans="2:11" customFormat="1">
-      <c r="B105" s="92"/>
-      <c r="C105" s="93"/>
-      <c r="D105" s="93"/>
-      <c r="E105" s="93"/>
-      <c r="F105" s="93"/>
-      <c r="G105" s="93"/>
-      <c r="H105" s="93"/>
-      <c r="I105" s="93"/>
-      <c r="J105" s="93"/>
-      <c r="K105" s="94"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="62"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="62"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="62"/>
+      <c r="I105" s="62"/>
+      <c r="J105" s="62"/>
+      <c r="K105" s="63"/>
     </row>
     <row r="106" spans="2:11" customFormat="1">
-      <c r="B106" s="78">
+      <c r="B106" s="138">
         <f>J93+3</f>
         <v>46027</v>
       </c>
-      <c r="C106" s="79"/>
-      <c r="D106" s="80">
+      <c r="C106" s="139"/>
+      <c r="D106" s="140">
         <f>B106+1</f>
         <v>46028</v>
       </c>
-      <c r="E106" s="79"/>
-      <c r="F106" s="81">
+      <c r="E106" s="139"/>
+      <c r="F106" s="141">
         <f>D106+1</f>
         <v>46029</v>
       </c>
-      <c r="G106" s="79"/>
-      <c r="H106" s="82">
+      <c r="G106" s="139"/>
+      <c r="H106" s="142">
         <f>F106+1</f>
         <v>46030</v>
       </c>
-      <c r="I106" s="79"/>
-      <c r="J106" s="83">
+      <c r="I106" s="139"/>
+      <c r="J106" s="143">
         <f>H106+1</f>
         <v>46031</v>
       </c>
-      <c r="K106" s="79"/>
+      <c r="K106" s="139"/>
     </row>
     <row r="107" spans="2:11" customFormat="1">
-      <c r="B107" s="84" t="s">
+      <c r="B107" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="85"/>
-      <c r="D107" s="86" t="s">
+      <c r="C107" s="150"/>
+      <c r="D107" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="85"/>
-      <c r="F107" s="87" t="s">
+      <c r="E107" s="150"/>
+      <c r="F107" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="G107" s="85"/>
-      <c r="H107" s="88" t="s">
+      <c r="G107" s="150"/>
+      <c r="H107" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="I107" s="85"/>
-      <c r="J107" s="89" t="s">
+      <c r="I107" s="150"/>
+      <c r="J107" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="85"/>
+      <c r="K107" s="150"/>
     </row>
     <row r="108" spans="2:11" customFormat="1" ht="26.25">
       <c r="B108" s="39">
@@ -3394,7 +3393,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="K108" s="45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="2:11" customFormat="1" ht="26.25">
@@ -3548,87 +3547,95 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118"/>
-      <c r="B118" s="70"/>
-      <c r="C118" s="71"/>
-      <c r="D118" s="71"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="71"/>
-      <c r="H118" s="71"/>
-      <c r="I118" s="71"/>
-      <c r="J118" s="71"/>
-      <c r="K118" s="65"/>
+      <c r="B118" s="154"/>
+      <c r="C118" s="155"/>
+      <c r="D118" s="155"/>
+      <c r="E118" s="155"/>
+      <c r="F118" s="155"/>
+      <c r="G118" s="155"/>
+      <c r="H118" s="155"/>
+      <c r="I118" s="155"/>
+      <c r="J118" s="155"/>
+      <c r="K118" s="156"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120"/>
-      <c r="B120" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="C120" s="73"/>
-      <c r="D120" s="73"/>
-      <c r="E120" s="73"/>
-      <c r="F120" s="73"/>
-      <c r="G120" s="73"/>
-      <c r="H120" s="73"/>
-      <c r="I120" s="73"/>
-      <c r="J120" s="73"/>
-      <c r="K120" s="74"/>
+      <c r="B120" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C120" s="144"/>
+      <c r="D120" s="144"/>
+      <c r="E120" s="144"/>
+      <c r="F120" s="144"/>
+      <c r="G120" s="144"/>
+      <c r="H120" s="144"/>
+      <c r="I120" s="144"/>
+      <c r="J120" s="144"/>
+      <c r="K120" s="145"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121"/>
-      <c r="B121" s="75"/>
-      <c r="C121" s="76"/>
-      <c r="D121" s="76"/>
-      <c r="E121" s="76"/>
-      <c r="F121" s="76"/>
-      <c r="G121" s="76"/>
-      <c r="H121" s="76"/>
-      <c r="I121" s="76"/>
-      <c r="J121" s="76"/>
-      <c r="K121" s="77"/>
+      <c r="B121" s="146"/>
+      <c r="C121" s="147"/>
+      <c r="D121" s="147"/>
+      <c r="E121" s="147"/>
+      <c r="F121" s="147"/>
+      <c r="G121" s="147"/>
+      <c r="H121" s="147"/>
+      <c r="I121" s="147"/>
+      <c r="J121" s="147"/>
+      <c r="K121" s="148"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122"/>
-      <c r="B122" s="78">
+      <c r="B122" s="138">
         <f>J106+3</f>
         <v>46034</v>
       </c>
-      <c r="C122" s="79"/>
-      <c r="D122" s="80">
+      <c r="C122" s="139"/>
+      <c r="D122" s="140">
         <f>B122+1</f>
         <v>46035</v>
       </c>
-      <c r="E122" s="79"/>
-      <c r="F122" s="81">
+      <c r="E122" s="139"/>
+      <c r="F122" s="141">
         <f>D122+1</f>
         <v>46036</v>
       </c>
-      <c r="G122" s="79"/>
-      <c r="H122" s="82">
+      <c r="G122" s="139"/>
+      <c r="H122" s="142">
         <f>F122+1</f>
         <v>46037</v>
       </c>
-      <c r="I122" s="79"/>
-      <c r="J122" s="83">
+      <c r="I122" s="139"/>
+      <c r="J122" s="143">
         <f>H122+1</f>
         <v>46038</v>
       </c>
-      <c r="K122" s="79"/>
+      <c r="K122" s="139"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123"/>
-      <c r="B123" s="84" t="s">
+      <c r="B123" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="C123" s="85"/>
-      <c r="D123" s="66"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="65"/>
-      <c r="H123" s="68"/>
-      <c r="I123" s="65"/>
-      <c r="J123" s="69"/>
-      <c r="K123" s="65"/>
+      <c r="C123" s="150"/>
+      <c r="D123" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="150"/>
+      <c r="F123" s="136" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="150"/>
+      <c r="H123" s="152" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="150"/>
+      <c r="J123" s="153" t="s">
+        <v>16</v>
+      </c>
+      <c r="K123" s="150"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124"/>
@@ -3642,7 +3649,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F124" s="10">
         <v>0.79166666666666663</v>
@@ -3653,15 +3660,11 @@
       <c r="H124" s="41">
         <v>0.79166666666666663</v>
       </c>
-      <c r="I124" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="I124" s="12"/>
       <c r="J124" s="44">
         <v>0.79166666666666663</v>
       </c>
-      <c r="K124" s="53" t="s">
-        <v>77</v>
-      </c>
+      <c r="K124" s="45"/>
     </row>
     <row r="125" spans="1:11" ht="26.25">
       <c r="A125"/>
@@ -3671,16 +3674,14 @@
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F125" s="17"/>
       <c r="G125" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H125" s="17"/>
-      <c r="I125" s="19" t="s">
-        <v>95</v>
-      </c>
+      <c r="I125" s="19"/>
       <c r="J125" s="20"/>
       <c r="K125" s="28"/>
     </row>
@@ -3688,20 +3689,18 @@
       <c r="A126"/>
       <c r="B126" s="7"/>
       <c r="C126" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D126" s="22"/>
       <c r="E126" s="47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H126" s="42"/>
-      <c r="I126" s="25" t="s">
-        <v>96</v>
-      </c>
+      <c r="I126" s="25"/>
       <c r="J126" s="13"/>
       <c r="K126" s="45"/>
     </row>
@@ -3713,16 +3712,14 @@
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F127" s="17"/>
       <c r="G127" s="19" t="s">
         <v>72</v>
       </c>
       <c r="H127" s="17"/>
-      <c r="I127" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="I127" s="19"/>
       <c r="J127" s="20"/>
       <c r="K127" s="28"/>
     </row>
@@ -3736,7 +3733,7 @@
       <c r="E128" s="47"/>
       <c r="F128" s="32"/>
       <c r="G128" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H128" s="33"/>
       <c r="I128" s="25"/>
@@ -3751,7 +3748,7 @@
       <c r="E129" s="46"/>
       <c r="F129" s="36"/>
       <c r="G129" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H129" s="36"/>
       <c r="I129" s="19"/>
@@ -3773,106 +3770,112 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131"/>
-      <c r="B131" s="70"/>
-      <c r="C131" s="71"/>
-      <c r="D131" s="71"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="71"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="71"/>
-      <c r="J131" s="71"/>
-      <c r="K131" s="65"/>
+      <c r="B131" s="154"/>
+      <c r="C131" s="155"/>
+      <c r="D131" s="155"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="155"/>
+      <c r="G131" s="155"/>
+      <c r="H131" s="155"/>
+      <c r="I131" s="155"/>
+      <c r="J131" s="155"/>
+      <c r="K131" s="156"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133"/>
-      <c r="B133" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C133" s="73"/>
-      <c r="D133" s="73"/>
-      <c r="E133" s="73"/>
-      <c r="F133" s="73"/>
-      <c r="G133" s="73"/>
-      <c r="H133" s="73"/>
-      <c r="I133" s="73"/>
-      <c r="J133" s="73"/>
-      <c r="K133" s="74"/>
+      <c r="B133" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C133" s="144"/>
+      <c r="D133" s="144"/>
+      <c r="E133" s="144"/>
+      <c r="F133" s="144"/>
+      <c r="G133" s="144"/>
+      <c r="H133" s="144"/>
+      <c r="I133" s="144"/>
+      <c r="J133" s="144"/>
+      <c r="K133" s="145"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134"/>
-      <c r="B134" s="75"/>
-      <c r="C134" s="76"/>
-      <c r="D134" s="76"/>
-      <c r="E134" s="76"/>
-      <c r="F134" s="76"/>
-      <c r="G134" s="76"/>
-      <c r="H134" s="76"/>
-      <c r="I134" s="76"/>
-      <c r="J134" s="76"/>
-      <c r="K134" s="77"/>
+      <c r="B134" s="146"/>
+      <c r="C134" s="147"/>
+      <c r="D134" s="147"/>
+      <c r="E134" s="147"/>
+      <c r="F134" s="147"/>
+      <c r="G134" s="147"/>
+      <c r="H134" s="147"/>
+      <c r="I134" s="147"/>
+      <c r="J134" s="147"/>
+      <c r="K134" s="148"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135"/>
-      <c r="B135" s="78">
+      <c r="B135" s="138">
         <f>J122+3</f>
         <v>46041</v>
       </c>
-      <c r="C135" s="79"/>
-      <c r="D135" s="80">
+      <c r="C135" s="139"/>
+      <c r="D135" s="140">
         <f>B135+1</f>
         <v>46042</v>
       </c>
-      <c r="E135" s="79"/>
-      <c r="F135" s="81">
+      <c r="E135" s="139"/>
+      <c r="F135" s="141">
         <f>D135+1</f>
         <v>46043</v>
       </c>
-      <c r="G135" s="79"/>
-      <c r="H135" s="82">
+      <c r="G135" s="139"/>
+      <c r="H135" s="142">
         <f>F135+1</f>
         <v>46044</v>
       </c>
-      <c r="I135" s="79"/>
-      <c r="J135" s="83">
+      <c r="I135" s="139"/>
+      <c r="J135" s="143">
         <f>H135+1</f>
         <v>46045</v>
       </c>
-      <c r="K135" s="79"/>
+      <c r="K135" s="139"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136"/>
-      <c r="B136" s="64"/>
-      <c r="C136" s="65"/>
-      <c r="D136" s="66"/>
-      <c r="E136" s="65"/>
-      <c r="F136" s="67"/>
-      <c r="G136" s="65"/>
-      <c r="H136" s="68"/>
-      <c r="I136" s="65"/>
-      <c r="J136" s="69"/>
-      <c r="K136" s="65"/>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="B136" s="81"/>
+      <c r="C136" s="156"/>
+      <c r="D136" s="79"/>
+      <c r="E136" s="156"/>
+      <c r="F136" s="77"/>
+      <c r="G136" s="156"/>
+      <c r="H136" s="75"/>
+      <c r="I136" s="156"/>
+      <c r="J136" s="73"/>
+      <c r="K136" s="156"/>
+    </row>
+    <row r="137" spans="1:11" ht="26.25">
       <c r="A137"/>
       <c r="B137" s="39">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C137" s="53" t="s">
+      <c r="C137" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D137" s="40">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E137" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F137" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G137" s="161" t="s">
+        <v>76</v>
+      </c>
+      <c r="H137" s="41">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I137" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="D137" s="40">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E137" s="43"/>
-      <c r="F137" s="10">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G137" s="11"/>
-      <c r="H137" s="41">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="I137" s="12"/>
       <c r="J137" s="44">
         <v>0.79166666666666663</v>
       </c>
@@ -3881,8 +3884,8 @@
     <row r="138" spans="1:11">
       <c r="A138"/>
       <c r="B138" s="14"/>
-      <c r="C138" s="54" t="s">
-        <v>78</v>
+      <c r="C138" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="D138" s="17"/>
       <c r="E138" s="46"/>
@@ -3896,7 +3899,9 @@
     <row r="139" spans="1:11">
       <c r="A139"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="21"/>
+      <c r="C139" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="D139" s="22"/>
       <c r="E139" s="47"/>
       <c r="F139" s="23"/>
@@ -3909,7 +3914,9 @@
     <row r="140" spans="1:11">
       <c r="A140"/>
       <c r="B140" s="14"/>
-      <c r="C140" s="15"/>
+      <c r="C140" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="D140" s="17"/>
       <c r="E140" s="46"/>
       <c r="F140" s="17"/>
@@ -3960,92 +3967,91 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144"/>
-      <c r="B144" s="70"/>
-      <c r="C144" s="71"/>
-      <c r="D144" s="71"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="71"/>
-      <c r="I144" s="71"/>
-      <c r="J144" s="71"/>
-      <c r="K144" s="65"/>
+      <c r="B144" s="154"/>
+      <c r="C144" s="155"/>
+      <c r="D144" s="155"/>
+      <c r="E144" s="155"/>
+      <c r="F144" s="155"/>
+      <c r="G144" s="155"/>
+      <c r="H144" s="155"/>
+      <c r="I144" s="155"/>
+      <c r="J144" s="155"/>
+      <c r="K144" s="156"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146"/>
-      <c r="B146" s="72" t="s">
+      <c r="B146" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="73"/>
-      <c r="D146" s="73"/>
-      <c r="E146" s="73"/>
-      <c r="F146" s="73"/>
-      <c r="G146" s="73"/>
-      <c r="H146" s="73"/>
-      <c r="I146" s="73"/>
-      <c r="J146" s="73"/>
-      <c r="K146" s="74"/>
+      <c r="C146" s="144"/>
+      <c r="D146" s="144"/>
+      <c r="E146" s="144"/>
+      <c r="F146" s="144"/>
+      <c r="G146" s="144"/>
+      <c r="H146" s="144"/>
+      <c r="I146" s="144"/>
+      <c r="J146" s="144"/>
+      <c r="K146" s="145"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147"/>
-      <c r="B147" s="75"/>
-      <c r="C147" s="76"/>
-      <c r="D147" s="76"/>
-      <c r="E147" s="76"/>
-      <c r="F147" s="76"/>
-      <c r="G147" s="76"/>
-      <c r="H147" s="76"/>
-      <c r="I147" s="76"/>
-      <c r="J147" s="76"/>
-      <c r="K147" s="77"/>
+      <c r="B147" s="146"/>
+      <c r="C147" s="147"/>
+      <c r="D147" s="147"/>
+      <c r="E147" s="147"/>
+      <c r="F147" s="147"/>
+      <c r="G147" s="147"/>
+      <c r="H147" s="147"/>
+      <c r="I147" s="147"/>
+      <c r="J147" s="147"/>
+      <c r="K147" s="148"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148"/>
-      <c r="B148" s="78">
+      <c r="B148" s="138">
         <f>J135+3</f>
         <v>46048</v>
       </c>
-      <c r="C148" s="79"/>
-      <c r="D148" s="80">
+      <c r="C148" s="139"/>
+      <c r="D148" s="140">
         <f>B148+1</f>
         <v>46049</v>
       </c>
-      <c r="E148" s="79"/>
-      <c r="F148" s="81">
+      <c r="E148" s="139"/>
+      <c r="F148" s="141">
         <f>D148+1</f>
         <v>46050</v>
       </c>
-      <c r="G148" s="79"/>
-      <c r="H148" s="82">
+      <c r="G148" s="139"/>
+      <c r="H148" s="142">
         <f>F148+1</f>
         <v>46051</v>
       </c>
-      <c r="I148" s="79"/>
-      <c r="J148" s="83">
+      <c r="I148" s="139"/>
+      <c r="J148" s="143">
         <f>H148+1</f>
         <v>46052</v>
       </c>
-      <c r="K148" s="79"/>
+      <c r="K148" s="139"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149"/>
-      <c r="B149" s="64"/>
-      <c r="C149" s="65"/>
-      <c r="D149" s="66"/>
-      <c r="E149" s="65"/>
-      <c r="F149" s="67"/>
-      <c r="G149" s="65"/>
-      <c r="H149" s="68"/>
-      <c r="I149" s="65"/>
-      <c r="J149" s="69"/>
-      <c r="K149" s="65"/>
+      <c r="B149" s="81"/>
+      <c r="C149" s="156"/>
+      <c r="D149" s="79"/>
+      <c r="E149" s="156"/>
+      <c r="F149" s="77"/>
+      <c r="G149" s="156"/>
+      <c r="H149" s="75"/>
+      <c r="I149" s="156"/>
+      <c r="J149" s="73"/>
+      <c r="K149" s="156"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150"/>
       <c r="B150" s="39">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C150" s="8"/>
       <c r="D150" s="40">
         <v>0.79166666666666663</v>
       </c>
@@ -4066,7 +4072,6 @@
     <row r="151" spans="1:11">
       <c r="A151"/>
       <c r="B151" s="14"/>
-      <c r="C151" s="15"/>
       <c r="D151" s="17"/>
       <c r="E151" s="46"/>
       <c r="F151" s="17"/>
@@ -4143,85 +4148,85 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157"/>
-      <c r="B157" s="70"/>
-      <c r="C157" s="71"/>
-      <c r="D157" s="71"/>
-      <c r="E157" s="71"/>
-      <c r="F157" s="71"/>
-      <c r="G157" s="71"/>
-      <c r="H157" s="71"/>
-      <c r="I157" s="71"/>
-      <c r="J157" s="71"/>
-      <c r="K157" s="65"/>
+      <c r="B157" s="154"/>
+      <c r="C157" s="155"/>
+      <c r="D157" s="155"/>
+      <c r="E157" s="155"/>
+      <c r="F157" s="155"/>
+      <c r="G157" s="155"/>
+      <c r="H157" s="155"/>
+      <c r="I157" s="155"/>
+      <c r="J157" s="155"/>
+      <c r="K157" s="156"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159"/>
-      <c r="B159" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="C159" s="73"/>
-      <c r="D159" s="73"/>
-      <c r="E159" s="73"/>
-      <c r="F159" s="73"/>
-      <c r="G159" s="73"/>
-      <c r="H159" s="73"/>
-      <c r="I159" s="73"/>
-      <c r="J159" s="73"/>
-      <c r="K159" s="74"/>
+      <c r="B159" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C159" s="144"/>
+      <c r="D159" s="144"/>
+      <c r="E159" s="144"/>
+      <c r="F159" s="144"/>
+      <c r="G159" s="144"/>
+      <c r="H159" s="144"/>
+      <c r="I159" s="144"/>
+      <c r="J159" s="144"/>
+      <c r="K159" s="145"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160"/>
-      <c r="B160" s="75"/>
-      <c r="C160" s="76"/>
-      <c r="D160" s="76"/>
-      <c r="E160" s="76"/>
-      <c r="F160" s="76"/>
-      <c r="G160" s="76"/>
-      <c r="H160" s="76"/>
-      <c r="I160" s="76"/>
-      <c r="J160" s="76"/>
-      <c r="K160" s="77"/>
+      <c r="B160" s="146"/>
+      <c r="C160" s="147"/>
+      <c r="D160" s="147"/>
+      <c r="E160" s="147"/>
+      <c r="F160" s="147"/>
+      <c r="G160" s="147"/>
+      <c r="H160" s="147"/>
+      <c r="I160" s="147"/>
+      <c r="J160" s="147"/>
+      <c r="K160" s="148"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161"/>
-      <c r="B161" s="78">
+      <c r="B161" s="138">
         <f>J148+3</f>
         <v>46055</v>
       </c>
-      <c r="C161" s="79"/>
-      <c r="D161" s="80">
+      <c r="C161" s="139"/>
+      <c r="D161" s="140">
         <f>B161+1</f>
         <v>46056</v>
       </c>
-      <c r="E161" s="79"/>
-      <c r="F161" s="81">
+      <c r="E161" s="139"/>
+      <c r="F161" s="141">
         <f>D161+1</f>
         <v>46057</v>
       </c>
-      <c r="G161" s="79"/>
-      <c r="H161" s="82">
+      <c r="G161" s="139"/>
+      <c r="H161" s="142">
         <f>F161+1</f>
         <v>46058</v>
       </c>
-      <c r="I161" s="79"/>
-      <c r="J161" s="83">
+      <c r="I161" s="139"/>
+      <c r="J161" s="143">
         <f>H161+1</f>
         <v>46059</v>
       </c>
-      <c r="K161" s="79"/>
+      <c r="K161" s="139"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162"/>
-      <c r="B162" s="64"/>
-      <c r="C162" s="65"/>
-      <c r="D162" s="66"/>
-      <c r="E162" s="65"/>
-      <c r="F162" s="67"/>
-      <c r="G162" s="65"/>
-      <c r="H162" s="68"/>
-      <c r="I162" s="65"/>
-      <c r="J162" s="69"/>
-      <c r="K162" s="65"/>
+      <c r="B162" s="81"/>
+      <c r="C162" s="156"/>
+      <c r="D162" s="79"/>
+      <c r="E162" s="156"/>
+      <c r="F162" s="77"/>
+      <c r="G162" s="156"/>
+      <c r="H162" s="75"/>
+      <c r="I162" s="156"/>
+      <c r="J162" s="73"/>
+      <c r="K162" s="156"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163"/>
@@ -4326,85 +4331,85 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170"/>
-      <c r="B170" s="70"/>
-      <c r="C170" s="71"/>
-      <c r="D170" s="71"/>
-      <c r="E170" s="71"/>
-      <c r="F170" s="71"/>
-      <c r="G170" s="71"/>
-      <c r="H170" s="71"/>
-      <c r="I170" s="71"/>
-      <c r="J170" s="71"/>
-      <c r="K170" s="65"/>
+      <c r="B170" s="154"/>
+      <c r="C170" s="155"/>
+      <c r="D170" s="155"/>
+      <c r="E170" s="155"/>
+      <c r="F170" s="155"/>
+      <c r="G170" s="155"/>
+      <c r="H170" s="155"/>
+      <c r="I170" s="155"/>
+      <c r="J170" s="155"/>
+      <c r="K170" s="156"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172"/>
-      <c r="B172" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C172" s="73"/>
-      <c r="D172" s="73"/>
-      <c r="E172" s="73"/>
-      <c r="F172" s="73"/>
-      <c r="G172" s="73"/>
-      <c r="H172" s="73"/>
-      <c r="I172" s="73"/>
-      <c r="J172" s="73"/>
-      <c r="K172" s="74"/>
+      <c r="B172" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C172" s="144"/>
+      <c r="D172" s="144"/>
+      <c r="E172" s="144"/>
+      <c r="F172" s="144"/>
+      <c r="G172" s="144"/>
+      <c r="H172" s="144"/>
+      <c r="I172" s="144"/>
+      <c r="J172" s="144"/>
+      <c r="K172" s="145"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173"/>
-      <c r="B173" s="75"/>
-      <c r="C173" s="76"/>
-      <c r="D173" s="76"/>
-      <c r="E173" s="76"/>
-      <c r="F173" s="76"/>
-      <c r="G173" s="76"/>
-      <c r="H173" s="76"/>
-      <c r="I173" s="76"/>
-      <c r="J173" s="76"/>
-      <c r="K173" s="77"/>
+      <c r="B173" s="146"/>
+      <c r="C173" s="147"/>
+      <c r="D173" s="147"/>
+      <c r="E173" s="147"/>
+      <c r="F173" s="147"/>
+      <c r="G173" s="147"/>
+      <c r="H173" s="147"/>
+      <c r="I173" s="147"/>
+      <c r="J173" s="147"/>
+      <c r="K173" s="148"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174"/>
-      <c r="B174" s="78">
+      <c r="B174" s="138">
         <f>J161+3</f>
         <v>46062</v>
       </c>
-      <c r="C174" s="79"/>
-      <c r="D174" s="80">
+      <c r="C174" s="139"/>
+      <c r="D174" s="140">
         <f>B174+1</f>
         <v>46063</v>
       </c>
-      <c r="E174" s="79"/>
-      <c r="F174" s="81">
+      <c r="E174" s="139"/>
+      <c r="F174" s="141">
         <f>D174+1</f>
         <v>46064</v>
       </c>
-      <c r="G174" s="79"/>
-      <c r="H174" s="82">
+      <c r="G174" s="139"/>
+      <c r="H174" s="142">
         <f>F174+1</f>
         <v>46065</v>
       </c>
-      <c r="I174" s="79"/>
-      <c r="J174" s="83">
+      <c r="I174" s="139"/>
+      <c r="J174" s="143">
         <f>H174+1</f>
         <v>46066</v>
       </c>
-      <c r="K174" s="79"/>
+      <c r="K174" s="139"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175"/>
-      <c r="B175" s="64"/>
-      <c r="C175" s="65"/>
-      <c r="D175" s="66"/>
-      <c r="E175" s="65"/>
-      <c r="F175" s="67"/>
-      <c r="G175" s="65"/>
-      <c r="H175" s="68"/>
-      <c r="I175" s="65"/>
-      <c r="J175" s="69"/>
-      <c r="K175" s="65"/>
+      <c r="B175" s="81"/>
+      <c r="C175" s="156"/>
+      <c r="D175" s="79"/>
+      <c r="E175" s="156"/>
+      <c r="F175" s="77"/>
+      <c r="G175" s="156"/>
+      <c r="H175" s="75"/>
+      <c r="I175" s="156"/>
+      <c r="J175" s="73"/>
+      <c r="K175" s="156"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176"/>
@@ -4509,85 +4514,85 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183"/>
-      <c r="B183" s="70"/>
-      <c r="C183" s="71"/>
-      <c r="D183" s="71"/>
-      <c r="E183" s="71"/>
-      <c r="F183" s="71"/>
-      <c r="G183" s="71"/>
-      <c r="H183" s="71"/>
-      <c r="I183" s="71"/>
-      <c r="J183" s="71"/>
-      <c r="K183" s="65"/>
+      <c r="B183" s="154"/>
+      <c r="C183" s="155"/>
+      <c r="D183" s="155"/>
+      <c r="E183" s="155"/>
+      <c r="F183" s="155"/>
+      <c r="G183" s="155"/>
+      <c r="H183" s="155"/>
+      <c r="I183" s="155"/>
+      <c r="J183" s="155"/>
+      <c r="K183" s="156"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185"/>
-      <c r="B185" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="C185" s="73"/>
-      <c r="D185" s="73"/>
-      <c r="E185" s="73"/>
-      <c r="F185" s="73"/>
-      <c r="G185" s="73"/>
-      <c r="H185" s="73"/>
-      <c r="I185" s="73"/>
-      <c r="J185" s="73"/>
-      <c r="K185" s="74"/>
+      <c r="B185" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C185" s="144"/>
+      <c r="D185" s="144"/>
+      <c r="E185" s="144"/>
+      <c r="F185" s="144"/>
+      <c r="G185" s="144"/>
+      <c r="H185" s="144"/>
+      <c r="I185" s="144"/>
+      <c r="J185" s="144"/>
+      <c r="K185" s="145"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186"/>
-      <c r="B186" s="75"/>
-      <c r="C186" s="76"/>
-      <c r="D186" s="76"/>
-      <c r="E186" s="76"/>
-      <c r="F186" s="76"/>
-      <c r="G186" s="76"/>
-      <c r="H186" s="76"/>
-      <c r="I186" s="76"/>
-      <c r="J186" s="76"/>
-      <c r="K186" s="77"/>
+      <c r="B186" s="146"/>
+      <c r="C186" s="147"/>
+      <c r="D186" s="147"/>
+      <c r="E186" s="147"/>
+      <c r="F186" s="147"/>
+      <c r="G186" s="147"/>
+      <c r="H186" s="147"/>
+      <c r="I186" s="147"/>
+      <c r="J186" s="147"/>
+      <c r="K186" s="148"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187"/>
-      <c r="B187" s="78">
+      <c r="B187" s="138">
         <f>J174+3</f>
         <v>46069</v>
       </c>
-      <c r="C187" s="79"/>
-      <c r="D187" s="80">
+      <c r="C187" s="139"/>
+      <c r="D187" s="140">
         <f>B187+1</f>
         <v>46070</v>
       </c>
-      <c r="E187" s="79"/>
-      <c r="F187" s="81">
+      <c r="E187" s="139"/>
+      <c r="F187" s="141">
         <f>D187+1</f>
         <v>46071</v>
       </c>
-      <c r="G187" s="79"/>
-      <c r="H187" s="82">
+      <c r="G187" s="139"/>
+      <c r="H187" s="142">
         <f>F187+1</f>
         <v>46072</v>
       </c>
-      <c r="I187" s="79"/>
-      <c r="J187" s="83">
+      <c r="I187" s="139"/>
+      <c r="J187" s="143">
         <f>H187+1</f>
         <v>46073</v>
       </c>
-      <c r="K187" s="79"/>
+      <c r="K187" s="139"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188"/>
-      <c r="B188" s="64"/>
-      <c r="C188" s="65"/>
-      <c r="D188" s="66"/>
-      <c r="E188" s="65"/>
-      <c r="F188" s="67"/>
-      <c r="G188" s="65"/>
-      <c r="H188" s="68"/>
-      <c r="I188" s="65"/>
-      <c r="J188" s="69"/>
-      <c r="K188" s="65"/>
+      <c r="B188" s="81"/>
+      <c r="C188" s="156"/>
+      <c r="D188" s="79"/>
+      <c r="E188" s="156"/>
+      <c r="F188" s="77"/>
+      <c r="G188" s="156"/>
+      <c r="H188" s="75"/>
+      <c r="I188" s="156"/>
+      <c r="J188" s="73"/>
+      <c r="K188" s="156"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189"/>
@@ -4692,85 +4697,85 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196"/>
-      <c r="B196" s="70"/>
-      <c r="C196" s="71"/>
-      <c r="D196" s="71"/>
-      <c r="E196" s="71"/>
-      <c r="F196" s="71"/>
-      <c r="G196" s="71"/>
-      <c r="H196" s="71"/>
-      <c r="I196" s="71"/>
-      <c r="J196" s="71"/>
-      <c r="K196" s="65"/>
+      <c r="B196" s="154"/>
+      <c r="C196" s="155"/>
+      <c r="D196" s="155"/>
+      <c r="E196" s="155"/>
+      <c r="F196" s="155"/>
+      <c r="G196" s="155"/>
+      <c r="H196" s="155"/>
+      <c r="I196" s="155"/>
+      <c r="J196" s="155"/>
+      <c r="K196" s="156"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198"/>
-      <c r="B198" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C198" s="73"/>
-      <c r="D198" s="73"/>
-      <c r="E198" s="73"/>
-      <c r="F198" s="73"/>
-      <c r="G198" s="73"/>
-      <c r="H198" s="73"/>
-      <c r="I198" s="73"/>
-      <c r="J198" s="73"/>
-      <c r="K198" s="74"/>
+      <c r="B198" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C198" s="144"/>
+      <c r="D198" s="144"/>
+      <c r="E198" s="144"/>
+      <c r="F198" s="144"/>
+      <c r="G198" s="144"/>
+      <c r="H198" s="144"/>
+      <c r="I198" s="144"/>
+      <c r="J198" s="144"/>
+      <c r="K198" s="145"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199"/>
-      <c r="B199" s="75"/>
-      <c r="C199" s="76"/>
-      <c r="D199" s="76"/>
-      <c r="E199" s="76"/>
-      <c r="F199" s="76"/>
-      <c r="G199" s="76"/>
-      <c r="H199" s="76"/>
-      <c r="I199" s="76"/>
-      <c r="J199" s="76"/>
-      <c r="K199" s="77"/>
+      <c r="B199" s="146"/>
+      <c r="C199" s="147"/>
+      <c r="D199" s="147"/>
+      <c r="E199" s="147"/>
+      <c r="F199" s="147"/>
+      <c r="G199" s="147"/>
+      <c r="H199" s="147"/>
+      <c r="I199" s="147"/>
+      <c r="J199" s="147"/>
+      <c r="K199" s="148"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200"/>
-      <c r="B200" s="78">
+      <c r="B200" s="138">
         <f>J187+3</f>
         <v>46076</v>
       </c>
-      <c r="C200" s="79"/>
-      <c r="D200" s="80">
+      <c r="C200" s="139"/>
+      <c r="D200" s="140">
         <f>B200+1</f>
         <v>46077</v>
       </c>
-      <c r="E200" s="79"/>
-      <c r="F200" s="81">
+      <c r="E200" s="139"/>
+      <c r="F200" s="141">
         <f>D200+1</f>
         <v>46078</v>
       </c>
-      <c r="G200" s="79"/>
-      <c r="H200" s="82">
+      <c r="G200" s="139"/>
+      <c r="H200" s="142">
         <f>F200+1</f>
         <v>46079</v>
       </c>
-      <c r="I200" s="79"/>
-      <c r="J200" s="83">
+      <c r="I200" s="139"/>
+      <c r="J200" s="143">
         <f>H200+1</f>
         <v>46080</v>
       </c>
-      <c r="K200" s="79"/>
+      <c r="K200" s="139"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201"/>
-      <c r="B201" s="64"/>
-      <c r="C201" s="65"/>
-      <c r="D201" s="66"/>
-      <c r="E201" s="65"/>
-      <c r="F201" s="67"/>
-      <c r="G201" s="65"/>
-      <c r="H201" s="68"/>
-      <c r="I201" s="65"/>
-      <c r="J201" s="69"/>
-      <c r="K201" s="65"/>
+      <c r="B201" s="81"/>
+      <c r="C201" s="156"/>
+      <c r="D201" s="79"/>
+      <c r="E201" s="156"/>
+      <c r="F201" s="77"/>
+      <c r="G201" s="156"/>
+      <c r="H201" s="75"/>
+      <c r="I201" s="156"/>
+      <c r="J201" s="73"/>
+      <c r="K201" s="156"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202"/>
@@ -4875,85 +4880,85 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209"/>
-      <c r="B209" s="70"/>
-      <c r="C209" s="71"/>
-      <c r="D209" s="71"/>
-      <c r="E209" s="71"/>
-      <c r="F209" s="71"/>
-      <c r="G209" s="71"/>
-      <c r="H209" s="71"/>
-      <c r="I209" s="71"/>
-      <c r="J209" s="71"/>
-      <c r="K209" s="65"/>
+      <c r="B209" s="154"/>
+      <c r="C209" s="155"/>
+      <c r="D209" s="155"/>
+      <c r="E209" s="155"/>
+      <c r="F209" s="155"/>
+      <c r="G209" s="155"/>
+      <c r="H209" s="155"/>
+      <c r="I209" s="155"/>
+      <c r="J209" s="155"/>
+      <c r="K209" s="156"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211"/>
-      <c r="B211" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="C211" s="73"/>
-      <c r="D211" s="73"/>
-      <c r="E211" s="73"/>
-      <c r="F211" s="73"/>
-      <c r="G211" s="73"/>
-      <c r="H211" s="73"/>
-      <c r="I211" s="73"/>
-      <c r="J211" s="73"/>
-      <c r="K211" s="74"/>
+      <c r="B211" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C211" s="144"/>
+      <c r="D211" s="144"/>
+      <c r="E211" s="144"/>
+      <c r="F211" s="144"/>
+      <c r="G211" s="144"/>
+      <c r="H211" s="144"/>
+      <c r="I211" s="144"/>
+      <c r="J211" s="144"/>
+      <c r="K211" s="145"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212"/>
-      <c r="B212" s="75"/>
-      <c r="C212" s="76"/>
-      <c r="D212" s="76"/>
-      <c r="E212" s="76"/>
-      <c r="F212" s="76"/>
-      <c r="G212" s="76"/>
-      <c r="H212" s="76"/>
-      <c r="I212" s="76"/>
-      <c r="J212" s="76"/>
-      <c r="K212" s="77"/>
+      <c r="B212" s="146"/>
+      <c r="C212" s="147"/>
+      <c r="D212" s="147"/>
+      <c r="E212" s="147"/>
+      <c r="F212" s="147"/>
+      <c r="G212" s="147"/>
+      <c r="H212" s="147"/>
+      <c r="I212" s="147"/>
+      <c r="J212" s="147"/>
+      <c r="K212" s="148"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213"/>
-      <c r="B213" s="78">
+      <c r="B213" s="138">
         <f>J200+3</f>
         <v>46083</v>
       </c>
-      <c r="C213" s="79"/>
-      <c r="D213" s="80">
+      <c r="C213" s="139"/>
+      <c r="D213" s="140">
         <f>B213+1</f>
         <v>46084</v>
       </c>
-      <c r="E213" s="79"/>
-      <c r="F213" s="81">
+      <c r="E213" s="139"/>
+      <c r="F213" s="141">
         <f>D213+1</f>
         <v>46085</v>
       </c>
-      <c r="G213" s="79"/>
-      <c r="H213" s="82">
+      <c r="G213" s="139"/>
+      <c r="H213" s="142">
         <f>F213+1</f>
         <v>46086</v>
       </c>
-      <c r="I213" s="79"/>
-      <c r="J213" s="83">
+      <c r="I213" s="139"/>
+      <c r="J213" s="143">
         <f>H213+1</f>
         <v>46087</v>
       </c>
-      <c r="K213" s="79"/>
+      <c r="K213" s="139"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214"/>
-      <c r="B214" s="64"/>
-      <c r="C214" s="65"/>
-      <c r="D214" s="66"/>
-      <c r="E214" s="65"/>
-      <c r="F214" s="67"/>
-      <c r="G214" s="65"/>
-      <c r="H214" s="68"/>
-      <c r="I214" s="65"/>
-      <c r="J214" s="69"/>
-      <c r="K214" s="65"/>
+      <c r="B214" s="81"/>
+      <c r="C214" s="156"/>
+      <c r="D214" s="79"/>
+      <c r="E214" s="156"/>
+      <c r="F214" s="77"/>
+      <c r="G214" s="156"/>
+      <c r="H214" s="75"/>
+      <c r="I214" s="156"/>
+      <c r="J214" s="73"/>
+      <c r="K214" s="156"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215"/>
@@ -5058,85 +5063,85 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222"/>
-      <c r="B222" s="70"/>
-      <c r="C222" s="71"/>
-      <c r="D222" s="71"/>
-      <c r="E222" s="71"/>
-      <c r="F222" s="71"/>
-      <c r="G222" s="71"/>
-      <c r="H222" s="71"/>
-      <c r="I222" s="71"/>
-      <c r="J222" s="71"/>
-      <c r="K222" s="65"/>
+      <c r="B222" s="154"/>
+      <c r="C222" s="155"/>
+      <c r="D222" s="155"/>
+      <c r="E222" s="155"/>
+      <c r="F222" s="155"/>
+      <c r="G222" s="155"/>
+      <c r="H222" s="155"/>
+      <c r="I222" s="155"/>
+      <c r="J222" s="155"/>
+      <c r="K222" s="156"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224"/>
-      <c r="B224" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="C224" s="73"/>
-      <c r="D224" s="73"/>
-      <c r="E224" s="73"/>
-      <c r="F224" s="73"/>
-      <c r="G224" s="73"/>
-      <c r="H224" s="73"/>
-      <c r="I224" s="73"/>
-      <c r="J224" s="73"/>
-      <c r="K224" s="74"/>
+      <c r="B224" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C224" s="144"/>
+      <c r="D224" s="144"/>
+      <c r="E224" s="144"/>
+      <c r="F224" s="144"/>
+      <c r="G224" s="144"/>
+      <c r="H224" s="144"/>
+      <c r="I224" s="144"/>
+      <c r="J224" s="144"/>
+      <c r="K224" s="145"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225"/>
-      <c r="B225" s="75"/>
-      <c r="C225" s="76"/>
-      <c r="D225" s="76"/>
-      <c r="E225" s="76"/>
-      <c r="F225" s="76"/>
-      <c r="G225" s="76"/>
-      <c r="H225" s="76"/>
-      <c r="I225" s="76"/>
-      <c r="J225" s="76"/>
-      <c r="K225" s="77"/>
+      <c r="B225" s="146"/>
+      <c r="C225" s="147"/>
+      <c r="D225" s="147"/>
+      <c r="E225" s="147"/>
+      <c r="F225" s="147"/>
+      <c r="G225" s="147"/>
+      <c r="H225" s="147"/>
+      <c r="I225" s="147"/>
+      <c r="J225" s="147"/>
+      <c r="K225" s="148"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226"/>
-      <c r="B226" s="78">
+      <c r="B226" s="138">
         <f>J213+3</f>
         <v>46090</v>
       </c>
-      <c r="C226" s="79"/>
-      <c r="D226" s="80">
+      <c r="C226" s="139"/>
+      <c r="D226" s="140">
         <f>B226+1</f>
         <v>46091</v>
       </c>
-      <c r="E226" s="79"/>
-      <c r="F226" s="81">
+      <c r="E226" s="139"/>
+      <c r="F226" s="141">
         <f>D226+1</f>
         <v>46092</v>
       </c>
-      <c r="G226" s="79"/>
-      <c r="H226" s="82">
+      <c r="G226" s="139"/>
+      <c r="H226" s="142">
         <f>F226+1</f>
         <v>46093</v>
       </c>
-      <c r="I226" s="79"/>
-      <c r="J226" s="83">
+      <c r="I226" s="139"/>
+      <c r="J226" s="143">
         <f>H226+1</f>
         <v>46094</v>
       </c>
-      <c r="K226" s="79"/>
+      <c r="K226" s="139"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227"/>
-      <c r="B227" s="64"/>
-      <c r="C227" s="65"/>
-      <c r="D227" s="66"/>
-      <c r="E227" s="65"/>
-      <c r="F227" s="67"/>
-      <c r="G227" s="65"/>
-      <c r="H227" s="68"/>
-      <c r="I227" s="65"/>
-      <c r="J227" s="69"/>
-      <c r="K227" s="65"/>
+      <c r="B227" s="81"/>
+      <c r="C227" s="156"/>
+      <c r="D227" s="79"/>
+      <c r="E227" s="156"/>
+      <c r="F227" s="77"/>
+      <c r="G227" s="156"/>
+      <c r="H227" s="75"/>
+      <c r="I227" s="156"/>
+      <c r="J227" s="73"/>
+      <c r="K227" s="156"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228"/>
@@ -5241,85 +5246,85 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235"/>
-      <c r="B235" s="70"/>
-      <c r="C235" s="71"/>
-      <c r="D235" s="71"/>
-      <c r="E235" s="71"/>
-      <c r="F235" s="71"/>
-      <c r="G235" s="71"/>
-      <c r="H235" s="71"/>
-      <c r="I235" s="71"/>
-      <c r="J235" s="71"/>
-      <c r="K235" s="65"/>
+      <c r="B235" s="154"/>
+      <c r="C235" s="155"/>
+      <c r="D235" s="155"/>
+      <c r="E235" s="155"/>
+      <c r="F235" s="155"/>
+      <c r="G235" s="155"/>
+      <c r="H235" s="155"/>
+      <c r="I235" s="155"/>
+      <c r="J235" s="155"/>
+      <c r="K235" s="156"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237"/>
-      <c r="B237" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="C237" s="73"/>
-      <c r="D237" s="73"/>
-      <c r="E237" s="73"/>
-      <c r="F237" s="73"/>
-      <c r="G237" s="73"/>
-      <c r="H237" s="73"/>
-      <c r="I237" s="73"/>
-      <c r="J237" s="73"/>
-      <c r="K237" s="74"/>
+      <c r="B237" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C237" s="144"/>
+      <c r="D237" s="144"/>
+      <c r="E237" s="144"/>
+      <c r="F237" s="144"/>
+      <c r="G237" s="144"/>
+      <c r="H237" s="144"/>
+      <c r="I237" s="144"/>
+      <c r="J237" s="144"/>
+      <c r="K237" s="145"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238"/>
-      <c r="B238" s="75"/>
-      <c r="C238" s="76"/>
-      <c r="D238" s="76"/>
-      <c r="E238" s="76"/>
-      <c r="F238" s="76"/>
-      <c r="G238" s="76"/>
-      <c r="H238" s="76"/>
-      <c r="I238" s="76"/>
-      <c r="J238" s="76"/>
-      <c r="K238" s="77"/>
+      <c r="B238" s="146"/>
+      <c r="C238" s="147"/>
+      <c r="D238" s="147"/>
+      <c r="E238" s="147"/>
+      <c r="F238" s="147"/>
+      <c r="G238" s="147"/>
+      <c r="H238" s="147"/>
+      <c r="I238" s="147"/>
+      <c r="J238" s="147"/>
+      <c r="K238" s="148"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239"/>
-      <c r="B239" s="78">
+      <c r="B239" s="138">
         <f>J226+3</f>
         <v>46097</v>
       </c>
-      <c r="C239" s="79"/>
-      <c r="D239" s="80">
+      <c r="C239" s="139"/>
+      <c r="D239" s="140">
         <f>B239+1</f>
         <v>46098</v>
       </c>
-      <c r="E239" s="79"/>
-      <c r="F239" s="81">
+      <c r="E239" s="139"/>
+      <c r="F239" s="141">
         <f>D239+1</f>
         <v>46099</v>
       </c>
-      <c r="G239" s="79"/>
-      <c r="H239" s="82">
+      <c r="G239" s="139"/>
+      <c r="H239" s="142">
         <f>F239+1</f>
         <v>46100</v>
       </c>
-      <c r="I239" s="79"/>
-      <c r="J239" s="83">
+      <c r="I239" s="139"/>
+      <c r="J239" s="143">
         <f>H239+1</f>
         <v>46101</v>
       </c>
-      <c r="K239" s="79"/>
+      <c r="K239" s="139"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240"/>
-      <c r="B240" s="64"/>
-      <c r="C240" s="65"/>
-      <c r="D240" s="66"/>
-      <c r="E240" s="65"/>
-      <c r="F240" s="67"/>
-      <c r="G240" s="65"/>
-      <c r="H240" s="68"/>
-      <c r="I240" s="65"/>
-      <c r="J240" s="69"/>
-      <c r="K240" s="65"/>
+      <c r="B240" s="81"/>
+      <c r="C240" s="156"/>
+      <c r="D240" s="79"/>
+      <c r="E240" s="156"/>
+      <c r="F240" s="77"/>
+      <c r="G240" s="156"/>
+      <c r="H240" s="75"/>
+      <c r="I240" s="156"/>
+      <c r="J240" s="73"/>
+      <c r="K240" s="156"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241"/>
@@ -5424,85 +5429,85 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248"/>
-      <c r="B248" s="70"/>
-      <c r="C248" s="71"/>
-      <c r="D248" s="71"/>
-      <c r="E248" s="71"/>
-      <c r="F248" s="71"/>
-      <c r="G248" s="71"/>
-      <c r="H248" s="71"/>
-      <c r="I248" s="71"/>
-      <c r="J248" s="71"/>
-      <c r="K248" s="65"/>
+      <c r="B248" s="154"/>
+      <c r="C248" s="155"/>
+      <c r="D248" s="155"/>
+      <c r="E248" s="155"/>
+      <c r="F248" s="155"/>
+      <c r="G248" s="155"/>
+      <c r="H248" s="155"/>
+      <c r="I248" s="155"/>
+      <c r="J248" s="155"/>
+      <c r="K248" s="156"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250"/>
-      <c r="B250" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="C250" s="73"/>
-      <c r="D250" s="73"/>
-      <c r="E250" s="73"/>
-      <c r="F250" s="73"/>
-      <c r="G250" s="73"/>
-      <c r="H250" s="73"/>
-      <c r="I250" s="73"/>
-      <c r="J250" s="73"/>
-      <c r="K250" s="74"/>
+      <c r="B250" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C250" s="144"/>
+      <c r="D250" s="144"/>
+      <c r="E250" s="144"/>
+      <c r="F250" s="144"/>
+      <c r="G250" s="144"/>
+      <c r="H250" s="144"/>
+      <c r="I250" s="144"/>
+      <c r="J250" s="144"/>
+      <c r="K250" s="145"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251"/>
-      <c r="B251" s="75"/>
-      <c r="C251" s="76"/>
-      <c r="D251" s="76"/>
-      <c r="E251" s="76"/>
-      <c r="F251" s="76"/>
-      <c r="G251" s="76"/>
-      <c r="H251" s="76"/>
-      <c r="I251" s="76"/>
-      <c r="J251" s="76"/>
-      <c r="K251" s="77"/>
+      <c r="B251" s="146"/>
+      <c r="C251" s="147"/>
+      <c r="D251" s="147"/>
+      <c r="E251" s="147"/>
+      <c r="F251" s="147"/>
+      <c r="G251" s="147"/>
+      <c r="H251" s="147"/>
+      <c r="I251" s="147"/>
+      <c r="J251" s="147"/>
+      <c r="K251" s="148"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252"/>
-      <c r="B252" s="78">
+      <c r="B252" s="138">
         <f>J239+3</f>
         <v>46104</v>
       </c>
-      <c r="C252" s="79"/>
-      <c r="D252" s="80">
+      <c r="C252" s="139"/>
+      <c r="D252" s="140">
         <f>B252+1</f>
         <v>46105</v>
       </c>
-      <c r="E252" s="79"/>
-      <c r="F252" s="81">
+      <c r="E252" s="139"/>
+      <c r="F252" s="141">
         <f>D252+1</f>
         <v>46106</v>
       </c>
-      <c r="G252" s="79"/>
-      <c r="H252" s="82">
+      <c r="G252" s="139"/>
+      <c r="H252" s="142">
         <f>F252+1</f>
         <v>46107</v>
       </c>
-      <c r="I252" s="79"/>
-      <c r="J252" s="83">
+      <c r="I252" s="139"/>
+      <c r="J252" s="143">
         <f>H252+1</f>
         <v>46108</v>
       </c>
-      <c r="K252" s="79"/>
+      <c r="K252" s="139"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253"/>
-      <c r="B253" s="64"/>
-      <c r="C253" s="65"/>
-      <c r="D253" s="66"/>
-      <c r="E253" s="65"/>
-      <c r="F253" s="67"/>
-      <c r="G253" s="65"/>
-      <c r="H253" s="68"/>
-      <c r="I253" s="65"/>
-      <c r="J253" s="69"/>
-      <c r="K253" s="65"/>
+      <c r="B253" s="81"/>
+      <c r="C253" s="156"/>
+      <c r="D253" s="79"/>
+      <c r="E253" s="156"/>
+      <c r="F253" s="77"/>
+      <c r="G253" s="156"/>
+      <c r="H253" s="75"/>
+      <c r="I253" s="156"/>
+      <c r="J253" s="73"/>
+      <c r="K253" s="156"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254"/>
@@ -5525,8 +5530,8 @@
       <c r="J254" s="44">
         <v>0.79166666666666663</v>
       </c>
-      <c r="K254" s="58" t="s">
-        <v>91</v>
+      <c r="K254" s="56" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -5540,8 +5545,8 @@
       <c r="H255" s="17"/>
       <c r="I255" s="19"/>
       <c r="J255" s="20"/>
-      <c r="K255" s="59" t="s">
-        <v>94</v>
+      <c r="K255" s="57" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -5611,85 +5616,85 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261"/>
-      <c r="B261" s="70"/>
-      <c r="C261" s="71"/>
-      <c r="D261" s="71"/>
-      <c r="E261" s="71"/>
-      <c r="F261" s="71"/>
-      <c r="G261" s="71"/>
-      <c r="H261" s="71"/>
-      <c r="I261" s="71"/>
-      <c r="J261" s="71"/>
-      <c r="K261" s="65"/>
+      <c r="B261" s="154"/>
+      <c r="C261" s="155"/>
+      <c r="D261" s="155"/>
+      <c r="E261" s="155"/>
+      <c r="F261" s="155"/>
+      <c r="G261" s="155"/>
+      <c r="H261" s="155"/>
+      <c r="I261" s="155"/>
+      <c r="J261" s="155"/>
+      <c r="K261" s="156"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263"/>
-      <c r="B263" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C263" s="73"/>
-      <c r="D263" s="73"/>
-      <c r="E263" s="73"/>
-      <c r="F263" s="73"/>
-      <c r="G263" s="73"/>
-      <c r="H263" s="73"/>
-      <c r="I263" s="73"/>
-      <c r="J263" s="73"/>
-      <c r="K263" s="74"/>
+      <c r="B263" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C263" s="144"/>
+      <c r="D263" s="144"/>
+      <c r="E263" s="144"/>
+      <c r="F263" s="144"/>
+      <c r="G263" s="144"/>
+      <c r="H263" s="144"/>
+      <c r="I263" s="144"/>
+      <c r="J263" s="144"/>
+      <c r="K263" s="145"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264"/>
-      <c r="B264" s="75"/>
-      <c r="C264" s="76"/>
-      <c r="D264" s="76"/>
-      <c r="E264" s="76"/>
-      <c r="F264" s="76"/>
-      <c r="G264" s="76"/>
-      <c r="H264" s="76"/>
-      <c r="I264" s="76"/>
-      <c r="J264" s="76"/>
-      <c r="K264" s="77"/>
+      <c r="B264" s="146"/>
+      <c r="C264" s="147"/>
+      <c r="D264" s="147"/>
+      <c r="E264" s="147"/>
+      <c r="F264" s="147"/>
+      <c r="G264" s="147"/>
+      <c r="H264" s="147"/>
+      <c r="I264" s="147"/>
+      <c r="J264" s="147"/>
+      <c r="K264" s="148"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265"/>
-      <c r="B265" s="78">
+      <c r="B265" s="138">
         <f>J252+3</f>
         <v>46111</v>
       </c>
-      <c r="C265" s="79"/>
-      <c r="D265" s="80">
+      <c r="C265" s="139"/>
+      <c r="D265" s="140">
         <f>B265+1</f>
         <v>46112</v>
       </c>
-      <c r="E265" s="79"/>
-      <c r="F265" s="81">
+      <c r="E265" s="139"/>
+      <c r="F265" s="141">
         <f>D265+1</f>
         <v>46113</v>
       </c>
-      <c r="G265" s="79"/>
-      <c r="H265" s="82">
+      <c r="G265" s="139"/>
+      <c r="H265" s="142">
         <f>F265+1</f>
         <v>46114</v>
       </c>
-      <c r="I265" s="79"/>
-      <c r="J265" s="83">
+      <c r="I265" s="139"/>
+      <c r="J265" s="143">
         <f>H265+1</f>
         <v>46115</v>
       </c>
-      <c r="K265" s="79"/>
+      <c r="K265" s="139"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266"/>
-      <c r="B266" s="64"/>
-      <c r="C266" s="65"/>
-      <c r="D266" s="66"/>
-      <c r="E266" s="65"/>
-      <c r="F266" s="67"/>
-      <c r="G266" s="65"/>
-      <c r="H266" s="68"/>
-      <c r="I266" s="65"/>
-      <c r="J266" s="69"/>
-      <c r="K266" s="65"/>
+      <c r="B266" s="81"/>
+      <c r="C266" s="156"/>
+      <c r="D266" s="79"/>
+      <c r="E266" s="156"/>
+      <c r="F266" s="77"/>
+      <c r="G266" s="156"/>
+      <c r="H266" s="75"/>
+      <c r="I266" s="156"/>
+      <c r="J266" s="73"/>
+      <c r="K266" s="156"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267"/>
@@ -5704,12 +5709,12 @@
       <c r="F267" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G267" s="55"/>
+      <c r="G267" s="53"/>
       <c r="H267" s="41">
         <v>0.79166666666666663</v>
       </c>
       <c r="I267" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J267" s="44">
         <v>0.79166666666666663</v>
@@ -5723,7 +5728,7 @@
       <c r="D268" s="17"/>
       <c r="E268" s="46"/>
       <c r="F268" s="17"/>
-      <c r="G268" s="56"/>
+      <c r="G268" s="54"/>
       <c r="H268" s="17"/>
       <c r="I268" s="19"/>
       <c r="J268" s="20"/>
@@ -5736,7 +5741,7 @@
       <c r="D269" s="22"/>
       <c r="E269" s="47"/>
       <c r="F269" s="23"/>
-      <c r="G269" s="57"/>
+      <c r="G269" s="55"/>
       <c r="H269" s="42"/>
       <c r="I269" s="25"/>
       <c r="J269" s="13"/>
@@ -5749,7 +5754,7 @@
       <c r="D270" s="17"/>
       <c r="E270" s="46"/>
       <c r="F270" s="17"/>
-      <c r="G270" s="56"/>
+      <c r="G270" s="54"/>
       <c r="H270" s="17"/>
       <c r="I270" s="19"/>
       <c r="J270" s="20"/>
@@ -5762,7 +5767,7 @@
       <c r="D271" s="31"/>
       <c r="E271" s="47"/>
       <c r="F271" s="32"/>
-      <c r="G271" s="57"/>
+      <c r="G271" s="55"/>
       <c r="H271" s="33"/>
       <c r="I271" s="25"/>
       <c r="J271" s="34"/>
@@ -5775,7 +5780,7 @@
       <c r="D272" s="36"/>
       <c r="E272" s="46"/>
       <c r="F272" s="36"/>
-      <c r="G272" s="56"/>
+      <c r="G272" s="54"/>
       <c r="H272" s="36"/>
       <c r="I272" s="19"/>
       <c r="J272" s="37"/>
@@ -5788,7 +5793,7 @@
       <c r="D273" s="31"/>
       <c r="E273" s="47"/>
       <c r="F273" s="32"/>
-      <c r="G273" s="57"/>
+      <c r="G273" s="55"/>
       <c r="H273" s="33"/>
       <c r="I273" s="25"/>
       <c r="J273" s="34"/>
@@ -5796,85 +5801,85 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274"/>
-      <c r="B274" s="70"/>
-      <c r="C274" s="71"/>
-      <c r="D274" s="71"/>
-      <c r="E274" s="71"/>
-      <c r="F274" s="71"/>
-      <c r="G274" s="71"/>
-      <c r="H274" s="71"/>
-      <c r="I274" s="71"/>
-      <c r="J274" s="71"/>
-      <c r="K274" s="65"/>
+      <c r="B274" s="154"/>
+      <c r="C274" s="155"/>
+      <c r="D274" s="155"/>
+      <c r="E274" s="155"/>
+      <c r="F274" s="155"/>
+      <c r="G274" s="155"/>
+      <c r="H274" s="155"/>
+      <c r="I274" s="155"/>
+      <c r="J274" s="155"/>
+      <c r="K274" s="156"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276"/>
-      <c r="B276" s="72" t="s">
+      <c r="B276" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C276" s="73"/>
-      <c r="D276" s="73"/>
-      <c r="E276" s="73"/>
-      <c r="F276" s="73"/>
-      <c r="G276" s="73"/>
-      <c r="H276" s="73"/>
-      <c r="I276" s="73"/>
-      <c r="J276" s="73"/>
-      <c r="K276" s="74"/>
+      <c r="C276" s="144"/>
+      <c r="D276" s="144"/>
+      <c r="E276" s="144"/>
+      <c r="F276" s="144"/>
+      <c r="G276" s="144"/>
+      <c r="H276" s="144"/>
+      <c r="I276" s="144"/>
+      <c r="J276" s="144"/>
+      <c r="K276" s="145"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277"/>
-      <c r="B277" s="75"/>
-      <c r="C277" s="76"/>
-      <c r="D277" s="76"/>
-      <c r="E277" s="76"/>
-      <c r="F277" s="76"/>
-      <c r="G277" s="76"/>
-      <c r="H277" s="76"/>
-      <c r="I277" s="76"/>
-      <c r="J277" s="76"/>
-      <c r="K277" s="77"/>
+      <c r="B277" s="146"/>
+      <c r="C277" s="147"/>
+      <c r="D277" s="147"/>
+      <c r="E277" s="147"/>
+      <c r="F277" s="147"/>
+      <c r="G277" s="147"/>
+      <c r="H277" s="147"/>
+      <c r="I277" s="147"/>
+      <c r="J277" s="147"/>
+      <c r="K277" s="148"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278"/>
-      <c r="B278" s="78">
+      <c r="B278" s="138">
         <f>J265+3</f>
         <v>46118</v>
       </c>
-      <c r="C278" s="79"/>
-      <c r="D278" s="80">
+      <c r="C278" s="139"/>
+      <c r="D278" s="140">
         <f>B278+1</f>
         <v>46119</v>
       </c>
-      <c r="E278" s="79"/>
-      <c r="F278" s="81">
+      <c r="E278" s="139"/>
+      <c r="F278" s="141">
         <f>D278+1</f>
         <v>46120</v>
       </c>
-      <c r="G278" s="79"/>
-      <c r="H278" s="82">
+      <c r="G278" s="139"/>
+      <c r="H278" s="142">
         <f>F278+1</f>
         <v>46121</v>
       </c>
-      <c r="I278" s="79"/>
-      <c r="J278" s="83">
+      <c r="I278" s="139"/>
+      <c r="J278" s="143">
         <f>H278+1</f>
         <v>46122</v>
       </c>
-      <c r="K278" s="79"/>
+      <c r="K278" s="139"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279"/>
-      <c r="B279" s="64"/>
-      <c r="C279" s="65"/>
-      <c r="D279" s="66"/>
-      <c r="E279" s="65"/>
-      <c r="F279" s="67"/>
-      <c r="G279" s="65"/>
-      <c r="H279" s="68"/>
-      <c r="I279" s="65"/>
-      <c r="J279" s="69"/>
-      <c r="K279" s="65"/>
+      <c r="B279" s="81"/>
+      <c r="C279" s="156"/>
+      <c r="D279" s="79"/>
+      <c r="E279" s="156"/>
+      <c r="F279" s="77"/>
+      <c r="G279" s="156"/>
+      <c r="H279" s="75"/>
+      <c r="I279" s="156"/>
+      <c r="J279" s="73"/>
+      <c r="K279" s="156"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280"/>
@@ -5979,85 +5984,85 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287"/>
-      <c r="B287" s="70"/>
-      <c r="C287" s="71"/>
-      <c r="D287" s="71"/>
-      <c r="E287" s="71"/>
-      <c r="F287" s="71"/>
-      <c r="G287" s="71"/>
-      <c r="H287" s="71"/>
-      <c r="I287" s="71"/>
-      <c r="J287" s="71"/>
-      <c r="K287" s="65"/>
+      <c r="B287" s="154"/>
+      <c r="C287" s="155"/>
+      <c r="D287" s="155"/>
+      <c r="E287" s="155"/>
+      <c r="F287" s="155"/>
+      <c r="G287" s="155"/>
+      <c r="H287" s="155"/>
+      <c r="I287" s="155"/>
+      <c r="J287" s="155"/>
+      <c r="K287" s="156"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289"/>
-      <c r="B289" s="72" t="s">
+      <c r="B289" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C289" s="73"/>
-      <c r="D289" s="73"/>
-      <c r="E289" s="73"/>
-      <c r="F289" s="73"/>
-      <c r="G289" s="73"/>
-      <c r="H289" s="73"/>
-      <c r="I289" s="73"/>
-      <c r="J289" s="73"/>
-      <c r="K289" s="74"/>
+      <c r="C289" s="144"/>
+      <c r="D289" s="144"/>
+      <c r="E289" s="144"/>
+      <c r="F289" s="144"/>
+      <c r="G289" s="144"/>
+      <c r="H289" s="144"/>
+      <c r="I289" s="144"/>
+      <c r="J289" s="144"/>
+      <c r="K289" s="145"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290"/>
-      <c r="B290" s="75"/>
-      <c r="C290" s="76"/>
-      <c r="D290" s="76"/>
-      <c r="E290" s="76"/>
-      <c r="F290" s="76"/>
-      <c r="G290" s="76"/>
-      <c r="H290" s="76"/>
-      <c r="I290" s="76"/>
-      <c r="J290" s="76"/>
-      <c r="K290" s="77"/>
+      <c r="B290" s="146"/>
+      <c r="C290" s="147"/>
+      <c r="D290" s="147"/>
+      <c r="E290" s="147"/>
+      <c r="F290" s="147"/>
+      <c r="G290" s="147"/>
+      <c r="H290" s="147"/>
+      <c r="I290" s="147"/>
+      <c r="J290" s="147"/>
+      <c r="K290" s="148"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291"/>
-      <c r="B291" s="78">
+      <c r="B291" s="138">
         <f>J278+3</f>
         <v>46125</v>
       </c>
-      <c r="C291" s="79"/>
-      <c r="D291" s="80">
+      <c r="C291" s="139"/>
+      <c r="D291" s="140">
         <f>B291+1</f>
         <v>46126</v>
       </c>
-      <c r="E291" s="79"/>
-      <c r="F291" s="81">
+      <c r="E291" s="139"/>
+      <c r="F291" s="141">
         <f>D291+1</f>
         <v>46127</v>
       </c>
-      <c r="G291" s="79"/>
-      <c r="H291" s="82">
+      <c r="G291" s="139"/>
+      <c r="H291" s="142">
         <f>F291+1</f>
         <v>46128</v>
       </c>
-      <c r="I291" s="79"/>
-      <c r="J291" s="83">
+      <c r="I291" s="139"/>
+      <c r="J291" s="143">
         <f>H291+1</f>
         <v>46129</v>
       </c>
-      <c r="K291" s="79"/>
+      <c r="K291" s="139"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292"/>
-      <c r="B292" s="64"/>
-      <c r="C292" s="65"/>
-      <c r="D292" s="66"/>
-      <c r="E292" s="65"/>
-      <c r="F292" s="67"/>
-      <c r="G292" s="65"/>
-      <c r="H292" s="68"/>
-      <c r="I292" s="65"/>
-      <c r="J292" s="69"/>
-      <c r="K292" s="65"/>
+      <c r="B292" s="81"/>
+      <c r="C292" s="156"/>
+      <c r="D292" s="79"/>
+      <c r="E292" s="156"/>
+      <c r="F292" s="77"/>
+      <c r="G292" s="156"/>
+      <c r="H292" s="75"/>
+      <c r="I292" s="156"/>
+      <c r="J292" s="73"/>
+      <c r="K292" s="156"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293"/>
@@ -6162,85 +6167,85 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300"/>
-      <c r="B300" s="70"/>
-      <c r="C300" s="71"/>
-      <c r="D300" s="71"/>
-      <c r="E300" s="71"/>
-      <c r="F300" s="71"/>
-      <c r="G300" s="71"/>
-      <c r="H300" s="71"/>
-      <c r="I300" s="71"/>
-      <c r="J300" s="71"/>
-      <c r="K300" s="65"/>
+      <c r="B300" s="154"/>
+      <c r="C300" s="155"/>
+      <c r="D300" s="155"/>
+      <c r="E300" s="155"/>
+      <c r="F300" s="155"/>
+      <c r="G300" s="155"/>
+      <c r="H300" s="155"/>
+      <c r="I300" s="155"/>
+      <c r="J300" s="155"/>
+      <c r="K300" s="156"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302"/>
-      <c r="B302" s="72" t="s">
+      <c r="B302" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C302" s="73"/>
-      <c r="D302" s="73"/>
-      <c r="E302" s="73"/>
-      <c r="F302" s="73"/>
-      <c r="G302" s="73"/>
-      <c r="H302" s="73"/>
-      <c r="I302" s="73"/>
-      <c r="J302" s="73"/>
-      <c r="K302" s="74"/>
+      <c r="C302" s="144"/>
+      <c r="D302" s="144"/>
+      <c r="E302" s="144"/>
+      <c r="F302" s="144"/>
+      <c r="G302" s="144"/>
+      <c r="H302" s="144"/>
+      <c r="I302" s="144"/>
+      <c r="J302" s="144"/>
+      <c r="K302" s="145"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303"/>
-      <c r="B303" s="75"/>
-      <c r="C303" s="76"/>
-      <c r="D303" s="76"/>
-      <c r="E303" s="76"/>
-      <c r="F303" s="76"/>
-      <c r="G303" s="76"/>
-      <c r="H303" s="76"/>
-      <c r="I303" s="76"/>
-      <c r="J303" s="76"/>
-      <c r="K303" s="77"/>
+      <c r="B303" s="146"/>
+      <c r="C303" s="147"/>
+      <c r="D303" s="147"/>
+      <c r="E303" s="147"/>
+      <c r="F303" s="147"/>
+      <c r="G303" s="147"/>
+      <c r="H303" s="147"/>
+      <c r="I303" s="147"/>
+      <c r="J303" s="147"/>
+      <c r="K303" s="148"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304"/>
-      <c r="B304" s="78">
+      <c r="B304" s="138">
         <f>J291+3</f>
         <v>46132</v>
       </c>
-      <c r="C304" s="79"/>
-      <c r="D304" s="80">
+      <c r="C304" s="139"/>
+      <c r="D304" s="140">
         <f>B304+1</f>
         <v>46133</v>
       </c>
-      <c r="E304" s="79"/>
-      <c r="F304" s="81">
+      <c r="E304" s="139"/>
+      <c r="F304" s="141">
         <f>D304+1</f>
         <v>46134</v>
       </c>
-      <c r="G304" s="79"/>
-      <c r="H304" s="82">
+      <c r="G304" s="139"/>
+      <c r="H304" s="142">
         <f>F304+1</f>
         <v>46135</v>
       </c>
-      <c r="I304" s="79"/>
-      <c r="J304" s="83">
+      <c r="I304" s="139"/>
+      <c r="J304" s="143">
         <f>H304+1</f>
         <v>46136</v>
       </c>
-      <c r="K304" s="79"/>
+      <c r="K304" s="139"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305"/>
-      <c r="B305" s="64"/>
-      <c r="C305" s="65"/>
-      <c r="D305" s="66"/>
-      <c r="E305" s="65"/>
-      <c r="F305" s="67"/>
-      <c r="G305" s="65"/>
-      <c r="H305" s="68"/>
-      <c r="I305" s="65"/>
-      <c r="J305" s="69"/>
-      <c r="K305" s="65"/>
+      <c r="B305" s="81"/>
+      <c r="C305" s="156"/>
+      <c r="D305" s="79"/>
+      <c r="E305" s="156"/>
+      <c r="F305" s="77"/>
+      <c r="G305" s="156"/>
+      <c r="H305" s="75"/>
+      <c r="I305" s="156"/>
+      <c r="J305" s="73"/>
+      <c r="K305" s="156"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306"/>
@@ -6345,85 +6350,85 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313"/>
-      <c r="B313" s="70"/>
-      <c r="C313" s="71"/>
-      <c r="D313" s="71"/>
-      <c r="E313" s="71"/>
-      <c r="F313" s="71"/>
-      <c r="G313" s="71"/>
-      <c r="H313" s="71"/>
-      <c r="I313" s="71"/>
-      <c r="J313" s="71"/>
-      <c r="K313" s="65"/>
+      <c r="B313" s="154"/>
+      <c r="C313" s="155"/>
+      <c r="D313" s="155"/>
+      <c r="E313" s="155"/>
+      <c r="F313" s="155"/>
+      <c r="G313" s="155"/>
+      <c r="H313" s="155"/>
+      <c r="I313" s="155"/>
+      <c r="J313" s="155"/>
+      <c r="K313" s="156"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315"/>
-      <c r="B315" s="72" t="s">
+      <c r="B315" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C315" s="73"/>
-      <c r="D315" s="73"/>
-      <c r="E315" s="73"/>
-      <c r="F315" s="73"/>
-      <c r="G315" s="73"/>
-      <c r="H315" s="73"/>
-      <c r="I315" s="73"/>
-      <c r="J315" s="73"/>
-      <c r="K315" s="74"/>
+      <c r="C315" s="144"/>
+      <c r="D315" s="144"/>
+      <c r="E315" s="144"/>
+      <c r="F315" s="144"/>
+      <c r="G315" s="144"/>
+      <c r="H315" s="144"/>
+      <c r="I315" s="144"/>
+      <c r="J315" s="144"/>
+      <c r="K315" s="145"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316"/>
-      <c r="B316" s="75"/>
-      <c r="C316" s="76"/>
-      <c r="D316" s="76"/>
-      <c r="E316" s="76"/>
-      <c r="F316" s="76"/>
-      <c r="G316" s="76"/>
-      <c r="H316" s="76"/>
-      <c r="I316" s="76"/>
-      <c r="J316" s="76"/>
-      <c r="K316" s="77"/>
+      <c r="B316" s="146"/>
+      <c r="C316" s="147"/>
+      <c r="D316" s="147"/>
+      <c r="E316" s="147"/>
+      <c r="F316" s="147"/>
+      <c r="G316" s="147"/>
+      <c r="H316" s="147"/>
+      <c r="I316" s="147"/>
+      <c r="J316" s="147"/>
+      <c r="K316" s="148"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317"/>
-      <c r="B317" s="78">
+      <c r="B317" s="138">
         <f>J304+3</f>
         <v>46139</v>
       </c>
-      <c r="C317" s="79"/>
-      <c r="D317" s="80">
+      <c r="C317" s="139"/>
+      <c r="D317" s="140">
         <f>B317+1</f>
         <v>46140</v>
       </c>
-      <c r="E317" s="79"/>
-      <c r="F317" s="81">
+      <c r="E317" s="139"/>
+      <c r="F317" s="141">
         <f>D317+1</f>
         <v>46141</v>
       </c>
-      <c r="G317" s="79"/>
-      <c r="H317" s="82">
+      <c r="G317" s="139"/>
+      <c r="H317" s="142">
         <f>F317+1</f>
         <v>46142</v>
       </c>
-      <c r="I317" s="79"/>
-      <c r="J317" s="83">
+      <c r="I317" s="139"/>
+      <c r="J317" s="143">
         <f>H317+1</f>
         <v>46143</v>
       </c>
-      <c r="K317" s="79"/>
+      <c r="K317" s="139"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318"/>
-      <c r="B318" s="64"/>
-      <c r="C318" s="65"/>
-      <c r="D318" s="66"/>
-      <c r="E318" s="65"/>
-      <c r="F318" s="67"/>
-      <c r="G318" s="65"/>
-      <c r="H318" s="68"/>
-      <c r="I318" s="65"/>
-      <c r="J318" s="69"/>
-      <c r="K318" s="65"/>
+      <c r="B318" s="81"/>
+      <c r="C318" s="156"/>
+      <c r="D318" s="79"/>
+      <c r="E318" s="156"/>
+      <c r="F318" s="77"/>
+      <c r="G318" s="156"/>
+      <c r="H318" s="75"/>
+      <c r="I318" s="156"/>
+      <c r="J318" s="73"/>
+      <c r="K318" s="156"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319"/>
@@ -6528,85 +6533,85 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326"/>
-      <c r="B326" s="70"/>
-      <c r="C326" s="71"/>
-      <c r="D326" s="71"/>
-      <c r="E326" s="71"/>
-      <c r="F326" s="71"/>
-      <c r="G326" s="71"/>
-      <c r="H326" s="71"/>
-      <c r="I326" s="71"/>
-      <c r="J326" s="71"/>
-      <c r="K326" s="65"/>
+      <c r="B326" s="154"/>
+      <c r="C326" s="155"/>
+      <c r="D326" s="155"/>
+      <c r="E326" s="155"/>
+      <c r="F326" s="155"/>
+      <c r="G326" s="155"/>
+      <c r="H326" s="155"/>
+      <c r="I326" s="155"/>
+      <c r="J326" s="155"/>
+      <c r="K326" s="156"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328"/>
-      <c r="B328" s="72" t="s">
+      <c r="B328" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C328" s="73"/>
-      <c r="D328" s="73"/>
-      <c r="E328" s="73"/>
-      <c r="F328" s="73"/>
-      <c r="G328" s="73"/>
-      <c r="H328" s="73"/>
-      <c r="I328" s="73"/>
-      <c r="J328" s="73"/>
-      <c r="K328" s="74"/>
+      <c r="C328" s="144"/>
+      <c r="D328" s="144"/>
+      <c r="E328" s="144"/>
+      <c r="F328" s="144"/>
+      <c r="G328" s="144"/>
+      <c r="H328" s="144"/>
+      <c r="I328" s="144"/>
+      <c r="J328" s="144"/>
+      <c r="K328" s="145"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329"/>
-      <c r="B329" s="75"/>
-      <c r="C329" s="76"/>
-      <c r="D329" s="76"/>
-      <c r="E329" s="76"/>
-      <c r="F329" s="76"/>
-      <c r="G329" s="76"/>
-      <c r="H329" s="76"/>
-      <c r="I329" s="76"/>
-      <c r="J329" s="76"/>
-      <c r="K329" s="77"/>
+      <c r="B329" s="146"/>
+      <c r="C329" s="147"/>
+      <c r="D329" s="147"/>
+      <c r="E329" s="147"/>
+      <c r="F329" s="147"/>
+      <c r="G329" s="147"/>
+      <c r="H329" s="147"/>
+      <c r="I329" s="147"/>
+      <c r="J329" s="147"/>
+      <c r="K329" s="148"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330"/>
-      <c r="B330" s="78">
+      <c r="B330" s="138">
         <f>J317+3</f>
         <v>46146</v>
       </c>
-      <c r="C330" s="79"/>
-      <c r="D330" s="80">
+      <c r="C330" s="139"/>
+      <c r="D330" s="140">
         <f>B330+1</f>
         <v>46147</v>
       </c>
-      <c r="E330" s="79"/>
-      <c r="F330" s="81">
+      <c r="E330" s="139"/>
+      <c r="F330" s="141">
         <f>D330+1</f>
         <v>46148</v>
       </c>
-      <c r="G330" s="79"/>
-      <c r="H330" s="82">
+      <c r="G330" s="139"/>
+      <c r="H330" s="142">
         <f>F330+1</f>
         <v>46149</v>
       </c>
-      <c r="I330" s="79"/>
-      <c r="J330" s="83">
+      <c r="I330" s="139"/>
+      <c r="J330" s="143">
         <f>H330+1</f>
         <v>46150</v>
       </c>
-      <c r="K330" s="79"/>
+      <c r="K330" s="139"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331"/>
-      <c r="B331" s="64"/>
-      <c r="C331" s="65"/>
-      <c r="D331" s="66"/>
-      <c r="E331" s="65"/>
-      <c r="F331" s="67"/>
-      <c r="G331" s="65"/>
-      <c r="H331" s="68"/>
-      <c r="I331" s="65"/>
-      <c r="J331" s="69"/>
-      <c r="K331" s="65"/>
+      <c r="B331" s="81"/>
+      <c r="C331" s="156"/>
+      <c r="D331" s="79"/>
+      <c r="E331" s="156"/>
+      <c r="F331" s="77"/>
+      <c r="G331" s="156"/>
+      <c r="H331" s="75"/>
+      <c r="I331" s="156"/>
+      <c r="J331" s="73"/>
+      <c r="K331" s="156"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332"/>
@@ -6711,19 +6716,318 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339"/>
-      <c r="B339" s="70"/>
-      <c r="C339" s="71"/>
-      <c r="D339" s="71"/>
-      <c r="E339" s="71"/>
-      <c r="F339" s="71"/>
-      <c r="G339" s="71"/>
-      <c r="H339" s="71"/>
-      <c r="I339" s="71"/>
-      <c r="J339" s="71"/>
-      <c r="K339" s="65"/>
+      <c r="B339" s="154"/>
+      <c r="C339" s="155"/>
+      <c r="D339" s="155"/>
+      <c r="E339" s="155"/>
+      <c r="F339" s="155"/>
+      <c r="G339" s="155"/>
+      <c r="H339" s="155"/>
+      <c r="I339" s="155"/>
+      <c r="J339" s="155"/>
+      <c r="K339" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="323">
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="D331:E331"/>
+    <mergeCell ref="F331:G331"/>
+    <mergeCell ref="H331:I331"/>
+    <mergeCell ref="J331:K331"/>
+    <mergeCell ref="B339:K339"/>
+    <mergeCell ref="B328:K329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="D330:E330"/>
+    <mergeCell ref="F330:G330"/>
+    <mergeCell ref="H330:I330"/>
+    <mergeCell ref="J330:K330"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="D318:E318"/>
+    <mergeCell ref="F318:G318"/>
+    <mergeCell ref="H318:I318"/>
+    <mergeCell ref="J318:K318"/>
+    <mergeCell ref="B326:K326"/>
+    <mergeCell ref="B315:K316"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="D317:E317"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="B313:K313"/>
+    <mergeCell ref="B302:K303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="B300:K300"/>
+    <mergeCell ref="B289:K290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="B287:K287"/>
+    <mergeCell ref="B276:K277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="B274:K274"/>
+    <mergeCell ref="B263:K264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="B261:K261"/>
+    <mergeCell ref="B250:K251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="B248:K248"/>
+    <mergeCell ref="B237:K238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="B235:K235"/>
+    <mergeCell ref="B224:K225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="B222:K222"/>
+    <mergeCell ref="B211:K212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="B209:K209"/>
+    <mergeCell ref="B198:K199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="B196:K196"/>
+    <mergeCell ref="B185:K186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="B183:K183"/>
+    <mergeCell ref="B172:K173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="B170:K170"/>
+    <mergeCell ref="B159:K160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B157:K157"/>
+    <mergeCell ref="B146:K147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="B144:K144"/>
+    <mergeCell ref="B133:K134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="B131:K131"/>
+    <mergeCell ref="B120:K121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="B118:K118"/>
+    <mergeCell ref="B104:K105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="H95:I101"/>
+    <mergeCell ref="F95:G101"/>
+    <mergeCell ref="B91:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B89:K89"/>
+    <mergeCell ref="H82:I88"/>
+    <mergeCell ref="F82:G88"/>
+    <mergeCell ref="B78:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B65:K66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B56:C62"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B52:K53"/>
+    <mergeCell ref="B1:C7"/>
+    <mergeCell ref="D1:I6"/>
+    <mergeCell ref="J1:K7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
     <mergeCell ref="B13:K14"/>
     <mergeCell ref="J82:K88"/>
     <mergeCell ref="J95:K101"/>
@@ -6748,305 +7052,6 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B1:C7"/>
-    <mergeCell ref="D1:I6"/>
-    <mergeCell ref="J1:K7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B52:K53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B65:K66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B56:C62"/>
-    <mergeCell ref="B78:K79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B91:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B89:K89"/>
-    <mergeCell ref="H82:I88"/>
-    <mergeCell ref="F82:G88"/>
-    <mergeCell ref="B104:K105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="H95:I101"/>
-    <mergeCell ref="F95:G101"/>
-    <mergeCell ref="B120:K121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="B118:K118"/>
-    <mergeCell ref="B133:K134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="B131:K131"/>
-    <mergeCell ref="B146:K147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="B144:K144"/>
-    <mergeCell ref="B159:K160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B157:K157"/>
-    <mergeCell ref="B172:K173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="B170:K170"/>
-    <mergeCell ref="B185:K186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="B183:K183"/>
-    <mergeCell ref="B198:K199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="B196:K196"/>
-    <mergeCell ref="B211:K212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="B209:K209"/>
-    <mergeCell ref="B224:K225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="B222:K222"/>
-    <mergeCell ref="B237:K238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="B235:K235"/>
-    <mergeCell ref="B250:K251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="F252:G252"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="B248:K248"/>
-    <mergeCell ref="B263:K264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="B261:K261"/>
-    <mergeCell ref="B276:K277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="F278:G278"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="F266:G266"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="B274:K274"/>
-    <mergeCell ref="B289:K290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="B287:K287"/>
-    <mergeCell ref="B302:K303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="B300:K300"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="B313:K313"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="D331:E331"/>
-    <mergeCell ref="F331:G331"/>
-    <mergeCell ref="H331:I331"/>
-    <mergeCell ref="J331:K331"/>
-    <mergeCell ref="B339:K339"/>
-    <mergeCell ref="B328:K329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="D330:E330"/>
-    <mergeCell ref="F330:G330"/>
-    <mergeCell ref="H330:I330"/>
-    <mergeCell ref="J330:K330"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="D318:E318"/>
-    <mergeCell ref="F318:G318"/>
-    <mergeCell ref="H318:I318"/>
-    <mergeCell ref="J318:K318"/>
-    <mergeCell ref="B326:K326"/>
-    <mergeCell ref="B315:K316"/>
-    <mergeCell ref="B317:C317"/>
-    <mergeCell ref="D317:E317"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>
@@ -7061,8 +7066,12 @@
     <hyperlink ref="H107:I107" r:id="rId10" display="Grabación de la clase"/>
     <hyperlink ref="J107:K107" r:id="rId11" display="Grabación de la clase"/>
     <hyperlink ref="B123:C123" r:id="rId12" display="Grabación de la clase"/>
+    <hyperlink ref="D123:E123" r:id="rId13" display="Grabación de la clase"/>
+    <hyperlink ref="F123:G123" r:id="rId14" display="Grabación de la clase"/>
+    <hyperlink ref="H123:I123" r:id="rId15" display="Grabación de la clase"/>
+    <hyperlink ref="J123:K123" r:id="rId16" display="Grabación de la clase"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>Evaluación del módulo</t>
-  </si>
-  <si>
-    <t>Inicia Módulo #4</t>
   </si>
   <si>
     <t>Sintaxis de funciones</t>
@@ -499,7 +496,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,12 +627,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor theme="6"/>
       </patternFill>
     </fill>
     <fill>
@@ -1013,7 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1163,24 +1154,94 @@
     <xf numFmtId="0" fontId="13" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1196,6 +1257,30 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1214,43 +1299,28 @@
     <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1259,80 +1329,16 @@
     <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1376,71 +1382,53 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1730,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1753,179 +1741,179 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="112" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="128"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="118"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="129"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="118"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="129"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="118"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="129"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="118"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="129"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="118"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="129"/>
     </row>
     <row r="7" spans="1:11" ht="18">
       <c r="A7" s="2"/>
-      <c r="B7" s="111"/>
-      <c r="C7" s="111"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="119"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="130"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="120" t="s">
+      <c r="C8" s="132"/>
+      <c r="D8" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="121"/>
-      <c r="F8" s="124" t="s">
+      <c r="E8" s="132"/>
+      <c r="F8" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="125"/>
-      <c r="H8" s="128" t="s">
+      <c r="G8" s="136"/>
+      <c r="H8" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="125"/>
-      <c r="J8" s="129" t="s">
+      <c r="I8" s="136"/>
+      <c r="J8" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="125"/>
+      <c r="K8" s="136"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="127"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="131"/>
-      <c r="H10" s="128" t="s">
+      <c r="B10" s="141"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="125"/>
-      <c r="J10" s="128" t="s">
+      <c r="G10" s="142"/>
+      <c r="H10" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="125"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="136"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="127"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="138"/>
     </row>
     <row r="12" spans="1:11" ht="2.25" hidden="1" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="159">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="157" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="62">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="60"/>
+      <c r="F12" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="110"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
@@ -1933,71 +1921,71 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="60"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="93"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5"/>
-      <c r="B15" s="91">
+      <c r="B15" s="108">
         <v>45978</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="89">
+      <c r="C15" s="109"/>
+      <c r="D15" s="110">
         <f>B15+1</f>
         <v>45979</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="87">
+      <c r="E15" s="111"/>
+      <c r="F15" s="112">
         <f>D15+1</f>
         <v>45980</v>
       </c>
-      <c r="G15" s="88"/>
-      <c r="H15" s="85">
+      <c r="G15" s="113"/>
+      <c r="H15" s="114">
         <f>F15+1</f>
         <v>45981</v>
       </c>
-      <c r="I15" s="86"/>
-      <c r="J15" s="83">
+      <c r="I15" s="115"/>
+      <c r="J15" s="116">
         <f>H15+1</f>
         <v>45982</v>
       </c>
-      <c r="K15" s="84"/>
+      <c r="K15" s="117"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="74"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="98"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6"/>
@@ -2107,16 +2095,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="27"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="101"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2"/>
@@ -2133,72 +2121,72 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="105"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="157"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="160"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5"/>
-      <c r="B28" s="93">
+      <c r="B28" s="145">
         <f>J15+3</f>
         <v>45985</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95">
+      <c r="C28" s="146"/>
+      <c r="D28" s="147">
         <f>B28+1</f>
         <v>45986</v>
       </c>
-      <c r="E28" s="96"/>
-      <c r="F28" s="97">
+      <c r="E28" s="148"/>
+      <c r="F28" s="149">
         <f>D28+1</f>
         <v>45987</v>
       </c>
-      <c r="G28" s="98"/>
-      <c r="H28" s="99">
+      <c r="G28" s="150"/>
+      <c r="H28" s="151">
         <f>F28+1</f>
         <v>45988</v>
       </c>
-      <c r="I28" s="100"/>
-      <c r="J28" s="101">
+      <c r="I28" s="152"/>
+      <c r="J28" s="153">
         <f>H28+1</f>
         <v>45989</v>
       </c>
-      <c r="K28" s="102"/>
+      <c r="K28" s="154"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="135"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="120"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="6"/>
@@ -2308,16 +2296,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="27"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="72"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="101"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2"/>
@@ -2334,74 +2322,74 @@
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="60"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="90"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="63"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="93"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2"/>
-      <c r="B41" s="91">
+      <c r="B41" s="108">
         <f>J28+3</f>
         <v>45992</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="89">
+      <c r="C41" s="109"/>
+      <c r="D41" s="110">
         <f>B41+1</f>
         <v>45993</v>
       </c>
-      <c r="E41" s="90"/>
-      <c r="F41" s="87">
+      <c r="E41" s="111"/>
+      <c r="F41" s="112">
         <f>D41+1</f>
         <v>45994</v>
       </c>
-      <c r="G41" s="88"/>
-      <c r="H41" s="85">
+      <c r="G41" s="113"/>
+      <c r="H41" s="114">
         <f>F41+1</f>
         <v>45995</v>
       </c>
-      <c r="I41" s="86"/>
-      <c r="J41" s="83">
+      <c r="I41" s="115"/>
+      <c r="J41" s="116">
         <f>H41+1</f>
         <v>45996</v>
       </c>
-      <c r="K41" s="84"/>
+      <c r="K41" s="117"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="136" t="s">
+      <c r="B42" s="63"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="137"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="74"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="98"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2"/>
@@ -2539,16 +2527,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="72"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="101"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2"/>
@@ -2564,75 +2552,75 @@
       <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1">
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="60"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="90"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="B53" s="61"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="63"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="93"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="B54" s="91">
+      <c r="B54" s="108">
         <f>J41+3</f>
         <v>45999</v>
       </c>
-      <c r="C54" s="92"/>
-      <c r="D54" s="89">
+      <c r="C54" s="109"/>
+      <c r="D54" s="110">
         <f>B54+1</f>
         <v>46000</v>
       </c>
-      <c r="E54" s="90"/>
-      <c r="F54" s="87">
+      <c r="E54" s="111"/>
+      <c r="F54" s="112">
         <f>D54+1</f>
         <v>46001</v>
       </c>
-      <c r="G54" s="88"/>
-      <c r="H54" s="85">
+      <c r="G54" s="113"/>
+      <c r="H54" s="114">
         <f>F54+1</f>
         <v>46002</v>
       </c>
-      <c r="I54" s="86"/>
-      <c r="J54" s="83">
+      <c r="I54" s="115"/>
+      <c r="J54" s="116">
         <f>H54+1</f>
         <v>46003</v>
       </c>
-      <c r="K54" s="84"/>
+      <c r="K54" s="117"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="B55" s="81"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="74"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="97"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="98"/>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1">
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="65"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="40">
         <f>D12</f>
         <v>0.79166666666666663</v>
@@ -2663,8 +2651,8 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1">
-      <c r="B57" s="66"/>
-      <c r="C57" s="67"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="105"/>
       <c r="D57" s="17"/>
       <c r="E57" s="46" t="s">
         <v>33</v>
@@ -2679,8 +2667,8 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1">
-      <c r="B58" s="66"/>
-      <c r="C58" s="67"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="105"/>
       <c r="D58" s="22"/>
       <c r="E58" s="47" t="s">
         <v>34</v>
@@ -2695,8 +2683,8 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1">
-      <c r="B59" s="66"/>
-      <c r="C59" s="67"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="105"/>
       <c r="D59" s="17"/>
       <c r="E59" s="46" t="s">
         <v>35</v>
@@ -2711,8 +2699,8 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1">
-      <c r="B60" s="66"/>
-      <c r="C60" s="67"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="105"/>
       <c r="D60" s="31"/>
       <c r="E60" s="47"/>
       <c r="F60" s="32"/>
@@ -2723,8 +2711,8 @@
       <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1">
-      <c r="B61" s="66"/>
-      <c r="C61" s="67"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="105"/>
       <c r="D61" s="36"/>
       <c r="E61" s="46"/>
       <c r="F61" s="36"/>
@@ -2739,8 +2727,8 @@
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1">
-      <c r="B62" s="68"/>
-      <c r="C62" s="69"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="107"/>
       <c r="D62" s="31"/>
       <c r="E62" s="47"/>
       <c r="F62" s="32"/>
@@ -2751,81 +2739,81 @@
       <c r="K62" s="48"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="B63" s="70"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="72"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="100"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="100"/>
+      <c r="K63" s="101"/>
     </row>
     <row r="65" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B65" s="58" t="s">
+      <c r="B65" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="60"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="89"/>
+      <c r="K65" s="90"/>
     </row>
     <row r="66" spans="2:11" customFormat="1">
-      <c r="B66" s="61"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="62"/>
-      <c r="H66" s="62"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="63"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="93"/>
     </row>
     <row r="67" spans="2:11" customFormat="1">
-      <c r="B67" s="91">
+      <c r="B67" s="108">
         <f>J54+3</f>
         <v>46006</v>
       </c>
-      <c r="C67" s="92"/>
-      <c r="D67" s="89">
+      <c r="C67" s="109"/>
+      <c r="D67" s="110">
         <f>B67+1</f>
         <v>46007</v>
       </c>
-      <c r="E67" s="90"/>
-      <c r="F67" s="87">
+      <c r="E67" s="111"/>
+      <c r="F67" s="112">
         <f>D67+1</f>
         <v>46008</v>
       </c>
-      <c r="G67" s="88"/>
-      <c r="H67" s="85">
+      <c r="G67" s="113"/>
+      <c r="H67" s="114">
         <f>F67+1</f>
         <v>46009</v>
       </c>
-      <c r="I67" s="86"/>
-      <c r="J67" s="83">
+      <c r="I67" s="115"/>
+      <c r="J67" s="116">
         <f>H67+1</f>
         <v>46010</v>
       </c>
-      <c r="K67" s="84"/>
+      <c r="K67" s="117"/>
     </row>
     <row r="68" spans="2:11" customFormat="1">
-      <c r="B68" s="81"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="78"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="76"/>
-      <c r="J68" s="73"/>
-      <c r="K68" s="74"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="98"/>
     </row>
     <row r="69" spans="2:11" customFormat="1">
       <c r="B69" s="39">
@@ -2927,81 +2915,81 @@
       <c r="K75" s="48"/>
     </row>
     <row r="76" spans="2:11" customFormat="1">
-      <c r="B76" s="70"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="71"/>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-      <c r="K76" s="72"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="100"/>
+      <c r="I76" s="100"/>
+      <c r="J76" s="100"/>
+      <c r="K76" s="101"/>
     </row>
     <row r="78" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="59"/>
-      <c r="I78" s="59"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="60"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="89"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="89"/>
+      <c r="J78" s="89"/>
+      <c r="K78" s="90"/>
     </row>
     <row r="79" spans="2:11" customFormat="1">
-      <c r="B79" s="61"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
-      <c r="H79" s="62"/>
-      <c r="I79" s="62"/>
-      <c r="J79" s="62"/>
-      <c r="K79" s="63"/>
+      <c r="B79" s="91"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="92"/>
+      <c r="I79" s="92"/>
+      <c r="J79" s="92"/>
+      <c r="K79" s="93"/>
     </row>
     <row r="80" spans="2:11" customFormat="1">
-      <c r="B80" s="91">
+      <c r="B80" s="108">
         <f>J67+3</f>
         <v>46013</v>
       </c>
-      <c r="C80" s="92"/>
-      <c r="D80" s="89">
+      <c r="C80" s="109"/>
+      <c r="D80" s="110">
         <f>B80+1</f>
         <v>46014</v>
       </c>
-      <c r="E80" s="90"/>
-      <c r="F80" s="87">
+      <c r="E80" s="111"/>
+      <c r="F80" s="112">
         <f>D80+1</f>
         <v>46015</v>
       </c>
-      <c r="G80" s="88"/>
-      <c r="H80" s="85">
+      <c r="G80" s="113"/>
+      <c r="H80" s="114">
         <f>F80+1</f>
         <v>46016</v>
       </c>
-      <c r="I80" s="86"/>
-      <c r="J80" s="83">
+      <c r="I80" s="115"/>
+      <c r="J80" s="116">
         <f>H80+1</f>
         <v>46017</v>
       </c>
-      <c r="K80" s="84"/>
+      <c r="K80" s="117"/>
     </row>
     <row r="81" spans="2:11" customFormat="1">
-      <c r="B81" s="81"/>
-      <c r="C81" s="82"/>
-      <c r="D81" s="79"/>
-      <c r="E81" s="80"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="78"/>
-      <c r="H81" s="75"/>
-      <c r="I81" s="76"/>
-      <c r="J81" s="73"/>
-      <c r="K81" s="74"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="95"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="96"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="97"/>
+      <c r="J81" s="68"/>
+      <c r="K81" s="98"/>
     </row>
     <row r="82" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B82" s="39">
@@ -3014,167 +3002,167 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E82" s="43"/>
-      <c r="F82" s="64" t="s">
+      <c r="F82" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="65"/>
-      <c r="H82" s="64" t="s">
+      <c r="G82" s="103"/>
+      <c r="H82" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="65"/>
-      <c r="J82" s="64" t="s">
+      <c r="I82" s="103"/>
+      <c r="J82" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="65"/>
+      <c r="K82" s="103"/>
     </row>
     <row r="83" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
       <c r="D83" s="17"/>
       <c r="E83" s="46"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="67"/>
+      <c r="F83" s="104"/>
+      <c r="G83" s="105"/>
+      <c r="H83" s="104"/>
+      <c r="I83" s="105"/>
+      <c r="J83" s="104"/>
+      <c r="K83" s="105"/>
     </row>
     <row r="84" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B84" s="7"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
       <c r="E84" s="47"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="67"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="67"/>
+      <c r="F84" s="104"/>
+      <c r="G84" s="105"/>
+      <c r="H84" s="104"/>
+      <c r="I84" s="105"/>
+      <c r="J84" s="104"/>
+      <c r="K84" s="105"/>
     </row>
     <row r="85" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="17"/>
       <c r="E85" s="46"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="67"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="67"/>
+      <c r="F85" s="104"/>
+      <c r="G85" s="105"/>
+      <c r="H85" s="104"/>
+      <c r="I85" s="105"/>
+      <c r="J85" s="104"/>
+      <c r="K85" s="105"/>
     </row>
     <row r="86" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B86" s="30"/>
       <c r="C86" s="21"/>
       <c r="D86" s="31"/>
       <c r="E86" s="47"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="67"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="67"/>
+      <c r="F86" s="104"/>
+      <c r="G86" s="105"/>
+      <c r="H86" s="104"/>
+      <c r="I86" s="105"/>
+      <c r="J86" s="104"/>
+      <c r="K86" s="105"/>
     </row>
     <row r="87" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B87" s="35"/>
       <c r="C87" s="15"/>
       <c r="D87" s="36"/>
       <c r="E87" s="46"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="67"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="67"/>
+      <c r="F87" s="104"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="104"/>
+      <c r="I87" s="105"/>
+      <c r="J87" s="104"/>
+      <c r="K87" s="105"/>
     </row>
     <row r="88" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B88" s="30"/>
       <c r="C88" s="21"/>
       <c r="D88" s="31"/>
       <c r="E88" s="47"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="69"/>
-      <c r="H88" s="68"/>
-      <c r="I88" s="69"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="69"/>
+      <c r="F88" s="106"/>
+      <c r="G88" s="107"/>
+      <c r="H88" s="106"/>
+      <c r="I88" s="107"/>
+      <c r="J88" s="106"/>
+      <c r="K88" s="107"/>
     </row>
     <row r="89" spans="2:11" customFormat="1">
-      <c r="B89" s="70"/>
-      <c r="C89" s="71"/>
-      <c r="D89" s="71"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="71"/>
-      <c r="I89" s="71"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="72"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="100"/>
+      <c r="E89" s="100"/>
+      <c r="F89" s="100"/>
+      <c r="G89" s="100"/>
+      <c r="H89" s="100"/>
+      <c r="I89" s="100"/>
+      <c r="J89" s="100"/>
+      <c r="K89" s="101"/>
     </row>
     <row r="91" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="59"/>
-      <c r="H91" s="59"/>
-      <c r="I91" s="59"/>
-      <c r="J91" s="59"/>
-      <c r="K91" s="60"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="89"/>
+      <c r="E91" s="89"/>
+      <c r="F91" s="89"/>
+      <c r="G91" s="89"/>
+      <c r="H91" s="89"/>
+      <c r="I91" s="89"/>
+      <c r="J91" s="89"/>
+      <c r="K91" s="90"/>
     </row>
     <row r="92" spans="2:11" customFormat="1">
-      <c r="B92" s="61"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="62"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="62"/>
-      <c r="J92" s="62"/>
-      <c r="K92" s="63"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="92"/>
+      <c r="H92" s="92"/>
+      <c r="I92" s="92"/>
+      <c r="J92" s="92"/>
+      <c r="K92" s="93"/>
     </row>
     <row r="93" spans="2:11" customFormat="1">
-      <c r="B93" s="91">
+      <c r="B93" s="108">
         <f>J80+3</f>
         <v>46020</v>
       </c>
-      <c r="C93" s="92"/>
-      <c r="D93" s="89">
+      <c r="C93" s="109"/>
+      <c r="D93" s="110">
         <f>B93+1</f>
         <v>46021</v>
       </c>
-      <c r="E93" s="90"/>
-      <c r="F93" s="87">
+      <c r="E93" s="111"/>
+      <c r="F93" s="112">
         <f>D93+1</f>
         <v>46022</v>
       </c>
-      <c r="G93" s="88"/>
-      <c r="H93" s="85">
+      <c r="G93" s="113"/>
+      <c r="H93" s="114">
         <f>F93+1</f>
         <v>46023</v>
       </c>
-      <c r="I93" s="86"/>
-      <c r="J93" s="83">
+      <c r="I93" s="115"/>
+      <c r="J93" s="116">
         <f>H93+1</f>
         <v>46024</v>
       </c>
-      <c r="K93" s="84"/>
+      <c r="K93" s="117"/>
     </row>
     <row r="94" spans="2:11" customFormat="1">
-      <c r="B94" s="81"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="79"/>
-      <c r="E94" s="80"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="78"/>
-      <c r="H94" s="75"/>
-      <c r="I94" s="76"/>
-      <c r="J94" s="73"/>
-      <c r="K94" s="74"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="94"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="95"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="96"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="97"/>
+      <c r="J94" s="68"/>
+      <c r="K94" s="98"/>
     </row>
     <row r="95" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B95" s="39">
@@ -3187,177 +3175,177 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E95" s="43"/>
-      <c r="F95" s="64" t="s">
+      <c r="F95" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="65"/>
-      <c r="H95" s="64" t="s">
+      <c r="G95" s="103"/>
+      <c r="H95" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="65"/>
-      <c r="J95" s="64" t="s">
+      <c r="I95" s="103"/>
+      <c r="J95" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="65"/>
+      <c r="K95" s="103"/>
     </row>
     <row r="96" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="17"/>
       <c r="E96" s="46"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="67"/>
-      <c r="J96" s="66"/>
-      <c r="K96" s="67"/>
+      <c r="F96" s="104"/>
+      <c r="G96" s="105"/>
+      <c r="H96" s="104"/>
+      <c r="I96" s="105"/>
+      <c r="J96" s="104"/>
+      <c r="K96" s="105"/>
     </row>
     <row r="97" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B97" s="7"/>
       <c r="C97" s="21"/>
       <c r="D97" s="22"/>
       <c r="E97" s="47"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="67"/>
-      <c r="J97" s="66"/>
-      <c r="K97" s="67"/>
+      <c r="F97" s="104"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="104"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="104"/>
+      <c r="K97" s="105"/>
     </row>
     <row r="98" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="17"/>
       <c r="E98" s="46"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="67"/>
-      <c r="J98" s="66"/>
-      <c r="K98" s="67"/>
+      <c r="F98" s="104"/>
+      <c r="G98" s="105"/>
+      <c r="H98" s="104"/>
+      <c r="I98" s="105"/>
+      <c r="J98" s="104"/>
+      <c r="K98" s="105"/>
     </row>
     <row r="99" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B99" s="30"/>
       <c r="C99" s="21"/>
       <c r="D99" s="31"/>
       <c r="E99" s="47"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="67"/>
-      <c r="J99" s="66"/>
-      <c r="K99" s="67"/>
+      <c r="F99" s="104"/>
+      <c r="G99" s="105"/>
+      <c r="H99" s="104"/>
+      <c r="I99" s="105"/>
+      <c r="J99" s="104"/>
+      <c r="K99" s="105"/>
     </row>
     <row r="100" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B100" s="35"/>
       <c r="C100" s="15"/>
       <c r="D100" s="36"/>
       <c r="E100" s="46"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="67"/>
-      <c r="J100" s="66"/>
-      <c r="K100" s="67"/>
+      <c r="F100" s="104"/>
+      <c r="G100" s="105"/>
+      <c r="H100" s="104"/>
+      <c r="I100" s="105"/>
+      <c r="J100" s="104"/>
+      <c r="K100" s="105"/>
     </row>
     <row r="101" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B101" s="30"/>
       <c r="C101" s="21"/>
       <c r="D101" s="31"/>
       <c r="E101" s="47"/>
-      <c r="F101" s="68"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="68"/>
-      <c r="I101" s="69"/>
-      <c r="J101" s="68"/>
-      <c r="K101" s="69"/>
+      <c r="F101" s="106"/>
+      <c r="G101" s="107"/>
+      <c r="H101" s="106"/>
+      <c r="I101" s="107"/>
+      <c r="J101" s="106"/>
+      <c r="K101" s="107"/>
     </row>
     <row r="102" spans="2:11" customFormat="1">
-      <c r="B102" s="70"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="71"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="71"/>
-      <c r="H102" s="71"/>
-      <c r="I102" s="71"/>
-      <c r="J102" s="71"/>
-      <c r="K102" s="72"/>
+      <c r="B102" s="99"/>
+      <c r="C102" s="100"/>
+      <c r="D102" s="100"/>
+      <c r="E102" s="100"/>
+      <c r="F102" s="100"/>
+      <c r="G102" s="100"/>
+      <c r="H102" s="100"/>
+      <c r="I102" s="100"/>
+      <c r="J102" s="100"/>
+      <c r="K102" s="101"/>
     </row>
     <row r="104" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B104" s="58" t="s">
+      <c r="B104" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="59"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="59"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="59"/>
-      <c r="I104" s="59"/>
-      <c r="J104" s="59"/>
-      <c r="K104" s="60"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="89"/>
+      <c r="H104" s="89"/>
+      <c r="I104" s="89"/>
+      <c r="J104" s="89"/>
+      <c r="K104" s="90"/>
     </row>
     <row r="105" spans="2:11" customFormat="1">
-      <c r="B105" s="61"/>
-      <c r="C105" s="62"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="62"/>
-      <c r="F105" s="62"/>
-      <c r="G105" s="62"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="62"/>
-      <c r="J105" s="62"/>
-      <c r="K105" s="63"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="92"/>
+      <c r="H105" s="92"/>
+      <c r="I105" s="92"/>
+      <c r="J105" s="92"/>
+      <c r="K105" s="93"/>
     </row>
     <row r="106" spans="2:11" customFormat="1">
-      <c r="B106" s="138">
+      <c r="B106" s="77">
         <f>J93+3</f>
         <v>46027</v>
       </c>
-      <c r="C106" s="139"/>
-      <c r="D106" s="140">
+      <c r="C106" s="78"/>
+      <c r="D106" s="79">
         <f>B106+1</f>
         <v>46028</v>
       </c>
-      <c r="E106" s="139"/>
-      <c r="F106" s="141">
+      <c r="E106" s="78"/>
+      <c r="F106" s="80">
         <f>D106+1</f>
         <v>46029</v>
       </c>
-      <c r="G106" s="139"/>
-      <c r="H106" s="142">
+      <c r="G106" s="78"/>
+      <c r="H106" s="81">
         <f>F106+1</f>
         <v>46030</v>
       </c>
-      <c r="I106" s="139"/>
-      <c r="J106" s="143">
+      <c r="I106" s="78"/>
+      <c r="J106" s="82">
         <f>H106+1</f>
         <v>46031</v>
       </c>
-      <c r="K106" s="139"/>
+      <c r="K106" s="78"/>
     </row>
     <row r="107" spans="2:11" customFormat="1">
-      <c r="B107" s="149" t="s">
+      <c r="B107" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="150"/>
-      <c r="D107" s="151" t="s">
+      <c r="C107" s="84"/>
+      <c r="D107" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="150"/>
-      <c r="F107" s="136" t="s">
+      <c r="E107" s="84"/>
+      <c r="F107" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G107" s="150"/>
-      <c r="H107" s="152" t="s">
+      <c r="G107" s="84"/>
+      <c r="H107" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I107" s="150"/>
-      <c r="J107" s="153" t="s">
+      <c r="I107" s="84"/>
+      <c r="J107" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="150"/>
+      <c r="K107" s="84"/>
     </row>
     <row r="108" spans="2:11" customFormat="1" ht="26.25">
       <c r="B108" s="39">
@@ -3393,7 +3381,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="K108" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="2:11" customFormat="1" ht="26.25">
@@ -3547,95 +3535,95 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118"/>
-      <c r="B118" s="154"/>
-      <c r="C118" s="155"/>
-      <c r="D118" s="155"/>
-      <c r="E118" s="155"/>
-      <c r="F118" s="155"/>
-      <c r="G118" s="155"/>
-      <c r="H118" s="155"/>
-      <c r="I118" s="155"/>
-      <c r="J118" s="155"/>
-      <c r="K118" s="156"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="70"/>
+      <c r="F118" s="70"/>
+      <c r="G118" s="70"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="70"/>
+      <c r="J118" s="70"/>
+      <c r="K118" s="64"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120"/>
-      <c r="B120" s="58" t="s">
+      <c r="B120" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C120" s="144"/>
-      <c r="D120" s="144"/>
-      <c r="E120" s="144"/>
-      <c r="F120" s="144"/>
-      <c r="G120" s="144"/>
-      <c r="H120" s="144"/>
-      <c r="I120" s="144"/>
-      <c r="J120" s="144"/>
-      <c r="K120" s="145"/>
+      <c r="C120" s="72"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="73"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121"/>
-      <c r="B121" s="146"/>
-      <c r="C121" s="147"/>
-      <c r="D121" s="147"/>
-      <c r="E121" s="147"/>
-      <c r="F121" s="147"/>
-      <c r="G121" s="147"/>
-      <c r="H121" s="147"/>
-      <c r="I121" s="147"/>
-      <c r="J121" s="147"/>
-      <c r="K121" s="148"/>
+      <c r="B121" s="74"/>
+      <c r="C121" s="75"/>
+      <c r="D121" s="75"/>
+      <c r="E121" s="75"/>
+      <c r="F121" s="75"/>
+      <c r="G121" s="75"/>
+      <c r="H121" s="75"/>
+      <c r="I121" s="75"/>
+      <c r="J121" s="75"/>
+      <c r="K121" s="76"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122"/>
-      <c r="B122" s="138">
+      <c r="B122" s="77">
         <f>J106+3</f>
         <v>46034</v>
       </c>
-      <c r="C122" s="139"/>
-      <c r="D122" s="140">
+      <c r="C122" s="78"/>
+      <c r="D122" s="79">
         <f>B122+1</f>
         <v>46035</v>
       </c>
-      <c r="E122" s="139"/>
-      <c r="F122" s="141">
+      <c r="E122" s="78"/>
+      <c r="F122" s="80">
         <f>D122+1</f>
         <v>46036</v>
       </c>
-      <c r="G122" s="139"/>
-      <c r="H122" s="142">
+      <c r="G122" s="78"/>
+      <c r="H122" s="81">
         <f>F122+1</f>
         <v>46037</v>
       </c>
-      <c r="I122" s="139"/>
-      <c r="J122" s="143">
+      <c r="I122" s="78"/>
+      <c r="J122" s="82">
         <f>H122+1</f>
         <v>46038</v>
       </c>
-      <c r="K122" s="139"/>
+      <c r="K122" s="78"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123"/>
-      <c r="B123" s="149" t="s">
+      <c r="B123" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C123" s="150"/>
-      <c r="D123" s="151" t="s">
+      <c r="C123" s="84"/>
+      <c r="D123" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E123" s="150"/>
-      <c r="F123" s="136" t="s">
+      <c r="E123" s="84"/>
+      <c r="F123" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G123" s="150"/>
-      <c r="H123" s="152" t="s">
+      <c r="G123" s="84"/>
+      <c r="H123" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I123" s="150"/>
-      <c r="J123" s="153" t="s">
+      <c r="I123" s="84"/>
+      <c r="J123" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="K123" s="150"/>
+      <c r="K123" s="84"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124"/>
@@ -3649,7 +3637,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F124" s="10">
         <v>0.79166666666666663</v>
@@ -3674,11 +3662,11 @@
       </c>
       <c r="D125" s="17"/>
       <c r="E125" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F125" s="17"/>
       <c r="G125" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H125" s="17"/>
       <c r="I125" s="19"/>
@@ -3689,15 +3677,15 @@
       <c r="A126"/>
       <c r="B126" s="7"/>
       <c r="C126" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D126" s="22"/>
       <c r="E126" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H126" s="42"/>
       <c r="I126" s="25"/>
@@ -3712,7 +3700,7 @@
       </c>
       <c r="D127" s="17"/>
       <c r="E127" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F127" s="17"/>
       <c r="G127" s="19" t="s">
@@ -3733,7 +3721,7 @@
       <c r="E128" s="47"/>
       <c r="F128" s="32"/>
       <c r="G128" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H128" s="33"/>
       <c r="I128" s="25"/>
@@ -3748,7 +3736,7 @@
       <c r="E129" s="46"/>
       <c r="F129" s="36"/>
       <c r="G129" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H129" s="36"/>
       <c r="I129" s="19"/>
@@ -3770,85 +3758,85 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131"/>
-      <c r="B131" s="154"/>
-      <c r="C131" s="155"/>
-      <c r="D131" s="155"/>
-      <c r="E131" s="155"/>
-      <c r="F131" s="155"/>
-      <c r="G131" s="155"/>
-      <c r="H131" s="155"/>
-      <c r="I131" s="155"/>
-      <c r="J131" s="155"/>
-      <c r="K131" s="156"/>
+      <c r="B131" s="69"/>
+      <c r="C131" s="70"/>
+      <c r="D131" s="70"/>
+      <c r="E131" s="70"/>
+      <c r="F131" s="70"/>
+      <c r="G131" s="70"/>
+      <c r="H131" s="70"/>
+      <c r="I131" s="70"/>
+      <c r="J131" s="70"/>
+      <c r="K131" s="64"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133"/>
-      <c r="B133" s="58" t="s">
+      <c r="B133" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C133" s="144"/>
-      <c r="D133" s="144"/>
-      <c r="E133" s="144"/>
-      <c r="F133" s="144"/>
-      <c r="G133" s="144"/>
-      <c r="H133" s="144"/>
-      <c r="I133" s="144"/>
-      <c r="J133" s="144"/>
-      <c r="K133" s="145"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="72"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="72"/>
+      <c r="H133" s="72"/>
+      <c r="I133" s="72"/>
+      <c r="J133" s="72"/>
+      <c r="K133" s="73"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134"/>
-      <c r="B134" s="146"/>
-      <c r="C134" s="147"/>
-      <c r="D134" s="147"/>
-      <c r="E134" s="147"/>
-      <c r="F134" s="147"/>
-      <c r="G134" s="147"/>
-      <c r="H134" s="147"/>
-      <c r="I134" s="147"/>
-      <c r="J134" s="147"/>
-      <c r="K134" s="148"/>
+      <c r="B134" s="74"/>
+      <c r="C134" s="75"/>
+      <c r="D134" s="75"/>
+      <c r="E134" s="75"/>
+      <c r="F134" s="75"/>
+      <c r="G134" s="75"/>
+      <c r="H134" s="75"/>
+      <c r="I134" s="75"/>
+      <c r="J134" s="75"/>
+      <c r="K134" s="76"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135"/>
-      <c r="B135" s="138">
+      <c r="B135" s="77">
         <f>J122+3</f>
         <v>46041</v>
       </c>
-      <c r="C135" s="139"/>
-      <c r="D135" s="140">
+      <c r="C135" s="78"/>
+      <c r="D135" s="79">
         <f>B135+1</f>
         <v>46042</v>
       </c>
-      <c r="E135" s="139"/>
-      <c r="F135" s="141">
+      <c r="E135" s="78"/>
+      <c r="F135" s="80">
         <f>D135+1</f>
         <v>46043</v>
       </c>
-      <c r="G135" s="139"/>
-      <c r="H135" s="142">
+      <c r="G135" s="78"/>
+      <c r="H135" s="81">
         <f>F135+1</f>
         <v>46044</v>
       </c>
-      <c r="I135" s="139"/>
-      <c r="J135" s="143">
+      <c r="I135" s="78"/>
+      <c r="J135" s="82">
         <f>H135+1</f>
         <v>46045</v>
       </c>
-      <c r="K135" s="139"/>
+      <c r="K135" s="78"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136"/>
-      <c r="B136" s="81"/>
-      <c r="C136" s="156"/>
-      <c r="D136" s="79"/>
-      <c r="E136" s="156"/>
-      <c r="F136" s="77"/>
-      <c r="G136" s="156"/>
-      <c r="H136" s="75"/>
-      <c r="I136" s="156"/>
-      <c r="J136" s="73"/>
-      <c r="K136" s="156"/>
+      <c r="B136" s="63"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="64"/>
+      <c r="F136" s="66"/>
+      <c r="G136" s="64"/>
+      <c r="H136" s="67"/>
+      <c r="I136" s="64"/>
+      <c r="J136" s="68"/>
+      <c r="K136" s="64"/>
     </row>
     <row r="137" spans="1:11" ht="26.25">
       <c r="A137"/>
@@ -3856,25 +3844,25 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D137" s="40">
         <v>0.79166666666666663</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F137" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G137" s="161" t="s">
+      <c r="G137" s="58" t="s">
         <v>76</v>
       </c>
       <c r="H137" s="41">
         <v>0.79166666666666663</v>
       </c>
-      <c r="I137" s="160" t="s">
-        <v>77</v>
+      <c r="I137" s="58" t="s">
+        <v>76</v>
       </c>
       <c r="J137" s="44">
         <v>0.79166666666666663</v>
@@ -3885,7 +3873,7 @@
       <c r="A138"/>
       <c r="B138" s="14"/>
       <c r="C138" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D138" s="17"/>
       <c r="E138" s="46"/>
@@ -3900,7 +3888,7 @@
       <c r="A139"/>
       <c r="B139" s="7"/>
       <c r="C139" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D139" s="22"/>
       <c r="E139" s="47"/>
@@ -3915,7 +3903,7 @@
       <c r="A140"/>
       <c r="B140" s="14"/>
       <c r="C140" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D140" s="17"/>
       <c r="E140" s="46"/>
@@ -3967,91 +3955,92 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144"/>
-      <c r="B144" s="154"/>
-      <c r="C144" s="155"/>
-      <c r="D144" s="155"/>
-      <c r="E144" s="155"/>
-      <c r="F144" s="155"/>
-      <c r="G144" s="155"/>
-      <c r="H144" s="155"/>
-      <c r="I144" s="155"/>
-      <c r="J144" s="155"/>
-      <c r="K144" s="156"/>
+      <c r="B144" s="69"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="70"/>
+      <c r="F144" s="70"/>
+      <c r="G144" s="70"/>
+      <c r="H144" s="70"/>
+      <c r="I144" s="70"/>
+      <c r="J144" s="70"/>
+      <c r="K144" s="64"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146"/>
-      <c r="B146" s="58" t="s">
+      <c r="B146" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="144"/>
-      <c r="D146" s="144"/>
-      <c r="E146" s="144"/>
-      <c r="F146" s="144"/>
-      <c r="G146" s="144"/>
-      <c r="H146" s="144"/>
-      <c r="I146" s="144"/>
-      <c r="J146" s="144"/>
-      <c r="K146" s="145"/>
+      <c r="C146" s="72"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="72"/>
+      <c r="H146" s="72"/>
+      <c r="I146" s="72"/>
+      <c r="J146" s="72"/>
+      <c r="K146" s="73"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147"/>
-      <c r="B147" s="146"/>
-      <c r="C147" s="147"/>
-      <c r="D147" s="147"/>
-      <c r="E147" s="147"/>
-      <c r="F147" s="147"/>
-      <c r="G147" s="147"/>
-      <c r="H147" s="147"/>
-      <c r="I147" s="147"/>
-      <c r="J147" s="147"/>
-      <c r="K147" s="148"/>
+      <c r="B147" s="74"/>
+      <c r="C147" s="75"/>
+      <c r="D147" s="75"/>
+      <c r="E147" s="75"/>
+      <c r="F147" s="75"/>
+      <c r="G147" s="75"/>
+      <c r="H147" s="75"/>
+      <c r="I147" s="75"/>
+      <c r="J147" s="75"/>
+      <c r="K147" s="76"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148"/>
-      <c r="B148" s="138">
+      <c r="B148" s="77">
         <f>J135+3</f>
         <v>46048</v>
       </c>
-      <c r="C148" s="139"/>
-      <c r="D148" s="140">
+      <c r="C148" s="78"/>
+      <c r="D148" s="79">
         <f>B148+1</f>
         <v>46049</v>
       </c>
-      <c r="E148" s="139"/>
-      <c r="F148" s="141">
+      <c r="E148" s="78"/>
+      <c r="F148" s="80">
         <f>D148+1</f>
         <v>46050</v>
       </c>
-      <c r="G148" s="139"/>
-      <c r="H148" s="142">
+      <c r="G148" s="78"/>
+      <c r="H148" s="81">
         <f>F148+1</f>
         <v>46051</v>
       </c>
-      <c r="I148" s="139"/>
-      <c r="J148" s="143">
+      <c r="I148" s="78"/>
+      <c r="J148" s="82">
         <f>H148+1</f>
         <v>46052</v>
       </c>
-      <c r="K148" s="139"/>
+      <c r="K148" s="78"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149"/>
-      <c r="B149" s="81"/>
-      <c r="C149" s="156"/>
-      <c r="D149" s="79"/>
-      <c r="E149" s="156"/>
-      <c r="F149" s="77"/>
-      <c r="G149" s="156"/>
-      <c r="H149" s="75"/>
-      <c r="I149" s="156"/>
-      <c r="J149" s="73"/>
-      <c r="K149" s="156"/>
+      <c r="B149" s="63"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="65"/>
+      <c r="E149" s="64"/>
+      <c r="F149" s="66"/>
+      <c r="G149" s="64"/>
+      <c r="H149" s="67"/>
+      <c r="I149" s="64"/>
+      <c r="J149" s="68"/>
+      <c r="K149" s="64"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150"/>
       <c r="B150" s="39">
         <v>0.79166666666666663</v>
       </c>
+      <c r="C150" s="21"/>
       <c r="D150" s="40">
         <v>0.79166666666666663</v>
       </c>
@@ -4072,6 +4061,7 @@
     <row r="151" spans="1:11">
       <c r="A151"/>
       <c r="B151" s="14"/>
+      <c r="C151" s="15"/>
       <c r="D151" s="17"/>
       <c r="E151" s="46"/>
       <c r="F151" s="17"/>
@@ -4148,85 +4138,85 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157"/>
-      <c r="B157" s="154"/>
-      <c r="C157" s="155"/>
-      <c r="D157" s="155"/>
-      <c r="E157" s="155"/>
-      <c r="F157" s="155"/>
-      <c r="G157" s="155"/>
-      <c r="H157" s="155"/>
-      <c r="I157" s="155"/>
-      <c r="J157" s="155"/>
-      <c r="K157" s="156"/>
+      <c r="B157" s="69"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="70"/>
+      <c r="E157" s="70"/>
+      <c r="F157" s="70"/>
+      <c r="G157" s="70"/>
+      <c r="H157" s="70"/>
+      <c r="I157" s="70"/>
+      <c r="J157" s="70"/>
+      <c r="K157" s="64"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159"/>
-      <c r="B159" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="C159" s="144"/>
-      <c r="D159" s="144"/>
-      <c r="E159" s="144"/>
-      <c r="F159" s="144"/>
-      <c r="G159" s="144"/>
-      <c r="H159" s="144"/>
-      <c r="I159" s="144"/>
-      <c r="J159" s="144"/>
-      <c r="K159" s="145"/>
+      <c r="B159" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C159" s="72"/>
+      <c r="D159" s="72"/>
+      <c r="E159" s="72"/>
+      <c r="F159" s="72"/>
+      <c r="G159" s="72"/>
+      <c r="H159" s="72"/>
+      <c r="I159" s="72"/>
+      <c r="J159" s="72"/>
+      <c r="K159" s="73"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160"/>
-      <c r="B160" s="146"/>
-      <c r="C160" s="147"/>
-      <c r="D160" s="147"/>
-      <c r="E160" s="147"/>
-      <c r="F160" s="147"/>
-      <c r="G160" s="147"/>
-      <c r="H160" s="147"/>
-      <c r="I160" s="147"/>
-      <c r="J160" s="147"/>
-      <c r="K160" s="148"/>
+      <c r="B160" s="74"/>
+      <c r="C160" s="75"/>
+      <c r="D160" s="75"/>
+      <c r="E160" s="75"/>
+      <c r="F160" s="75"/>
+      <c r="G160" s="75"/>
+      <c r="H160" s="75"/>
+      <c r="I160" s="75"/>
+      <c r="J160" s="75"/>
+      <c r="K160" s="76"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161"/>
-      <c r="B161" s="138">
+      <c r="B161" s="77">
         <f>J148+3</f>
         <v>46055</v>
       </c>
-      <c r="C161" s="139"/>
-      <c r="D161" s="140">
+      <c r="C161" s="78"/>
+      <c r="D161" s="79">
         <f>B161+1</f>
         <v>46056</v>
       </c>
-      <c r="E161" s="139"/>
-      <c r="F161" s="141">
+      <c r="E161" s="78"/>
+      <c r="F161" s="80">
         <f>D161+1</f>
         <v>46057</v>
       </c>
-      <c r="G161" s="139"/>
-      <c r="H161" s="142">
+      <c r="G161" s="78"/>
+      <c r="H161" s="81">
         <f>F161+1</f>
         <v>46058</v>
       </c>
-      <c r="I161" s="139"/>
-      <c r="J161" s="143">
+      <c r="I161" s="78"/>
+      <c r="J161" s="82">
         <f>H161+1</f>
         <v>46059</v>
       </c>
-      <c r="K161" s="139"/>
+      <c r="K161" s="78"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162"/>
-      <c r="B162" s="81"/>
-      <c r="C162" s="156"/>
-      <c r="D162" s="79"/>
-      <c r="E162" s="156"/>
-      <c r="F162" s="77"/>
-      <c r="G162" s="156"/>
-      <c r="H162" s="75"/>
-      <c r="I162" s="156"/>
-      <c r="J162" s="73"/>
-      <c r="K162" s="156"/>
+      <c r="B162" s="63"/>
+      <c r="C162" s="64"/>
+      <c r="D162" s="65"/>
+      <c r="E162" s="64"/>
+      <c r="F162" s="66"/>
+      <c r="G162" s="64"/>
+      <c r="H162" s="67"/>
+      <c r="I162" s="64"/>
+      <c r="J162" s="68"/>
+      <c r="K162" s="64"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163"/>
@@ -4331,85 +4321,85 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170"/>
-      <c r="B170" s="154"/>
-      <c r="C170" s="155"/>
-      <c r="D170" s="155"/>
-      <c r="E170" s="155"/>
-      <c r="F170" s="155"/>
-      <c r="G170" s="155"/>
-      <c r="H170" s="155"/>
-      <c r="I170" s="155"/>
-      <c r="J170" s="155"/>
-      <c r="K170" s="156"/>
+      <c r="B170" s="69"/>
+      <c r="C170" s="70"/>
+      <c r="D170" s="70"/>
+      <c r="E170" s="70"/>
+      <c r="F170" s="70"/>
+      <c r="G170" s="70"/>
+      <c r="H170" s="70"/>
+      <c r="I170" s="70"/>
+      <c r="J170" s="70"/>
+      <c r="K170" s="64"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172"/>
-      <c r="B172" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C172" s="144"/>
-      <c r="D172" s="144"/>
-      <c r="E172" s="144"/>
-      <c r="F172" s="144"/>
-      <c r="G172" s="144"/>
-      <c r="H172" s="144"/>
-      <c r="I172" s="144"/>
-      <c r="J172" s="144"/>
-      <c r="K172" s="145"/>
+      <c r="B172" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C172" s="72"/>
+      <c r="D172" s="72"/>
+      <c r="E172" s="72"/>
+      <c r="F172" s="72"/>
+      <c r="G172" s="72"/>
+      <c r="H172" s="72"/>
+      <c r="I172" s="72"/>
+      <c r="J172" s="72"/>
+      <c r="K172" s="73"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173"/>
-      <c r="B173" s="146"/>
-      <c r="C173" s="147"/>
-      <c r="D173" s="147"/>
-      <c r="E173" s="147"/>
-      <c r="F173" s="147"/>
-      <c r="G173" s="147"/>
-      <c r="H173" s="147"/>
-      <c r="I173" s="147"/>
-      <c r="J173" s="147"/>
-      <c r="K173" s="148"/>
+      <c r="B173" s="74"/>
+      <c r="C173" s="75"/>
+      <c r="D173" s="75"/>
+      <c r="E173" s="75"/>
+      <c r="F173" s="75"/>
+      <c r="G173" s="75"/>
+      <c r="H173" s="75"/>
+      <c r="I173" s="75"/>
+      <c r="J173" s="75"/>
+      <c r="K173" s="76"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174"/>
-      <c r="B174" s="138">
+      <c r="B174" s="77">
         <f>J161+3</f>
         <v>46062</v>
       </c>
-      <c r="C174" s="139"/>
-      <c r="D174" s="140">
+      <c r="C174" s="78"/>
+      <c r="D174" s="79">
         <f>B174+1</f>
         <v>46063</v>
       </c>
-      <c r="E174" s="139"/>
-      <c r="F174" s="141">
+      <c r="E174" s="78"/>
+      <c r="F174" s="80">
         <f>D174+1</f>
         <v>46064</v>
       </c>
-      <c r="G174" s="139"/>
-      <c r="H174" s="142">
+      <c r="G174" s="78"/>
+      <c r="H174" s="81">
         <f>F174+1</f>
         <v>46065</v>
       </c>
-      <c r="I174" s="139"/>
-      <c r="J174" s="143">
+      <c r="I174" s="78"/>
+      <c r="J174" s="82">
         <f>H174+1</f>
         <v>46066</v>
       </c>
-      <c r="K174" s="139"/>
+      <c r="K174" s="78"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175"/>
-      <c r="B175" s="81"/>
-      <c r="C175" s="156"/>
-      <c r="D175" s="79"/>
-      <c r="E175" s="156"/>
-      <c r="F175" s="77"/>
-      <c r="G175" s="156"/>
-      <c r="H175" s="75"/>
-      <c r="I175" s="156"/>
-      <c r="J175" s="73"/>
-      <c r="K175" s="156"/>
+      <c r="B175" s="63"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="65"/>
+      <c r="E175" s="64"/>
+      <c r="F175" s="66"/>
+      <c r="G175" s="64"/>
+      <c r="H175" s="67"/>
+      <c r="I175" s="64"/>
+      <c r="J175" s="68"/>
+      <c r="K175" s="64"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176"/>
@@ -4514,85 +4504,85 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183"/>
-      <c r="B183" s="154"/>
-      <c r="C183" s="155"/>
-      <c r="D183" s="155"/>
-      <c r="E183" s="155"/>
-      <c r="F183" s="155"/>
-      <c r="G183" s="155"/>
-      <c r="H183" s="155"/>
-      <c r="I183" s="155"/>
-      <c r="J183" s="155"/>
-      <c r="K183" s="156"/>
+      <c r="B183" s="69"/>
+      <c r="C183" s="70"/>
+      <c r="D183" s="70"/>
+      <c r="E183" s="70"/>
+      <c r="F183" s="70"/>
+      <c r="G183" s="70"/>
+      <c r="H183" s="70"/>
+      <c r="I183" s="70"/>
+      <c r="J183" s="70"/>
+      <c r="K183" s="64"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185"/>
-      <c r="B185" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C185" s="144"/>
-      <c r="D185" s="144"/>
-      <c r="E185" s="144"/>
-      <c r="F185" s="144"/>
-      <c r="G185" s="144"/>
-      <c r="H185" s="144"/>
-      <c r="I185" s="144"/>
-      <c r="J185" s="144"/>
-      <c r="K185" s="145"/>
+      <c r="B185" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C185" s="72"/>
+      <c r="D185" s="72"/>
+      <c r="E185" s="72"/>
+      <c r="F185" s="72"/>
+      <c r="G185" s="72"/>
+      <c r="H185" s="72"/>
+      <c r="I185" s="72"/>
+      <c r="J185" s="72"/>
+      <c r="K185" s="73"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186"/>
-      <c r="B186" s="146"/>
-      <c r="C186" s="147"/>
-      <c r="D186" s="147"/>
-      <c r="E186" s="147"/>
-      <c r="F186" s="147"/>
-      <c r="G186" s="147"/>
-      <c r="H186" s="147"/>
-      <c r="I186" s="147"/>
-      <c r="J186" s="147"/>
-      <c r="K186" s="148"/>
+      <c r="B186" s="74"/>
+      <c r="C186" s="75"/>
+      <c r="D186" s="75"/>
+      <c r="E186" s="75"/>
+      <c r="F186" s="75"/>
+      <c r="G186" s="75"/>
+      <c r="H186" s="75"/>
+      <c r="I186" s="75"/>
+      <c r="J186" s="75"/>
+      <c r="K186" s="76"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187"/>
-      <c r="B187" s="138">
+      <c r="B187" s="77">
         <f>J174+3</f>
         <v>46069</v>
       </c>
-      <c r="C187" s="139"/>
-      <c r="D187" s="140">
+      <c r="C187" s="78"/>
+      <c r="D187" s="79">
         <f>B187+1</f>
         <v>46070</v>
       </c>
-      <c r="E187" s="139"/>
-      <c r="F187" s="141">
+      <c r="E187" s="78"/>
+      <c r="F187" s="80">
         <f>D187+1</f>
         <v>46071</v>
       </c>
-      <c r="G187" s="139"/>
-      <c r="H187" s="142">
+      <c r="G187" s="78"/>
+      <c r="H187" s="81">
         <f>F187+1</f>
         <v>46072</v>
       </c>
-      <c r="I187" s="139"/>
-      <c r="J187" s="143">
+      <c r="I187" s="78"/>
+      <c r="J187" s="82">
         <f>H187+1</f>
         <v>46073</v>
       </c>
-      <c r="K187" s="139"/>
+      <c r="K187" s="78"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188"/>
-      <c r="B188" s="81"/>
-      <c r="C188" s="156"/>
-      <c r="D188" s="79"/>
-      <c r="E188" s="156"/>
-      <c r="F188" s="77"/>
-      <c r="G188" s="156"/>
-      <c r="H188" s="75"/>
-      <c r="I188" s="156"/>
-      <c r="J188" s="73"/>
-      <c r="K188" s="156"/>
+      <c r="B188" s="63"/>
+      <c r="C188" s="64"/>
+      <c r="D188" s="65"/>
+      <c r="E188" s="64"/>
+      <c r="F188" s="66"/>
+      <c r="G188" s="64"/>
+      <c r="H188" s="67"/>
+      <c r="I188" s="64"/>
+      <c r="J188" s="68"/>
+      <c r="K188" s="64"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189"/>
@@ -4697,85 +4687,85 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196"/>
-      <c r="B196" s="154"/>
-      <c r="C196" s="155"/>
-      <c r="D196" s="155"/>
-      <c r="E196" s="155"/>
-      <c r="F196" s="155"/>
-      <c r="G196" s="155"/>
-      <c r="H196" s="155"/>
-      <c r="I196" s="155"/>
-      <c r="J196" s="155"/>
-      <c r="K196" s="156"/>
+      <c r="B196" s="69"/>
+      <c r="C196" s="70"/>
+      <c r="D196" s="70"/>
+      <c r="E196" s="70"/>
+      <c r="F196" s="70"/>
+      <c r="G196" s="70"/>
+      <c r="H196" s="70"/>
+      <c r="I196" s="70"/>
+      <c r="J196" s="70"/>
+      <c r="K196" s="64"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198"/>
-      <c r="B198" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="C198" s="144"/>
-      <c r="D198" s="144"/>
-      <c r="E198" s="144"/>
-      <c r="F198" s="144"/>
-      <c r="G198" s="144"/>
-      <c r="H198" s="144"/>
-      <c r="I198" s="144"/>
-      <c r="J198" s="144"/>
-      <c r="K198" s="145"/>
+      <c r="B198" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C198" s="72"/>
+      <c r="D198" s="72"/>
+      <c r="E198" s="72"/>
+      <c r="F198" s="72"/>
+      <c r="G198" s="72"/>
+      <c r="H198" s="72"/>
+      <c r="I198" s="72"/>
+      <c r="J198" s="72"/>
+      <c r="K198" s="73"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199"/>
-      <c r="B199" s="146"/>
-      <c r="C199" s="147"/>
-      <c r="D199" s="147"/>
-      <c r="E199" s="147"/>
-      <c r="F199" s="147"/>
-      <c r="G199" s="147"/>
-      <c r="H199" s="147"/>
-      <c r="I199" s="147"/>
-      <c r="J199" s="147"/>
-      <c r="K199" s="148"/>
+      <c r="B199" s="74"/>
+      <c r="C199" s="75"/>
+      <c r="D199" s="75"/>
+      <c r="E199" s="75"/>
+      <c r="F199" s="75"/>
+      <c r="G199" s="75"/>
+      <c r="H199" s="75"/>
+      <c r="I199" s="75"/>
+      <c r="J199" s="75"/>
+      <c r="K199" s="76"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200"/>
-      <c r="B200" s="138">
+      <c r="B200" s="77">
         <f>J187+3</f>
         <v>46076</v>
       </c>
-      <c r="C200" s="139"/>
-      <c r="D200" s="140">
+      <c r="C200" s="78"/>
+      <c r="D200" s="79">
         <f>B200+1</f>
         <v>46077</v>
       </c>
-      <c r="E200" s="139"/>
-      <c r="F200" s="141">
+      <c r="E200" s="78"/>
+      <c r="F200" s="80">
         <f>D200+1</f>
         <v>46078</v>
       </c>
-      <c r="G200" s="139"/>
-      <c r="H200" s="142">
+      <c r="G200" s="78"/>
+      <c r="H200" s="81">
         <f>F200+1</f>
         <v>46079</v>
       </c>
-      <c r="I200" s="139"/>
-      <c r="J200" s="143">
+      <c r="I200" s="78"/>
+      <c r="J200" s="82">
         <f>H200+1</f>
         <v>46080</v>
       </c>
-      <c r="K200" s="139"/>
+      <c r="K200" s="78"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201"/>
-      <c r="B201" s="81"/>
-      <c r="C201" s="156"/>
-      <c r="D201" s="79"/>
-      <c r="E201" s="156"/>
-      <c r="F201" s="77"/>
-      <c r="G201" s="156"/>
-      <c r="H201" s="75"/>
-      <c r="I201" s="156"/>
-      <c r="J201" s="73"/>
-      <c r="K201" s="156"/>
+      <c r="B201" s="63"/>
+      <c r="C201" s="64"/>
+      <c r="D201" s="65"/>
+      <c r="E201" s="64"/>
+      <c r="F201" s="66"/>
+      <c r="G201" s="64"/>
+      <c r="H201" s="67"/>
+      <c r="I201" s="64"/>
+      <c r="J201" s="68"/>
+      <c r="K201" s="64"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202"/>
@@ -4880,85 +4870,85 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209"/>
-      <c r="B209" s="154"/>
-      <c r="C209" s="155"/>
-      <c r="D209" s="155"/>
-      <c r="E209" s="155"/>
-      <c r="F209" s="155"/>
-      <c r="G209" s="155"/>
-      <c r="H209" s="155"/>
-      <c r="I209" s="155"/>
-      <c r="J209" s="155"/>
-      <c r="K209" s="156"/>
+      <c r="B209" s="69"/>
+      <c r="C209" s="70"/>
+      <c r="D209" s="70"/>
+      <c r="E209" s="70"/>
+      <c r="F209" s="70"/>
+      <c r="G209" s="70"/>
+      <c r="H209" s="70"/>
+      <c r="I209" s="70"/>
+      <c r="J209" s="70"/>
+      <c r="K209" s="64"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211"/>
-      <c r="B211" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="C211" s="144"/>
-      <c r="D211" s="144"/>
-      <c r="E211" s="144"/>
-      <c r="F211" s="144"/>
-      <c r="G211" s="144"/>
-      <c r="H211" s="144"/>
-      <c r="I211" s="144"/>
-      <c r="J211" s="144"/>
-      <c r="K211" s="145"/>
+      <c r="B211" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C211" s="72"/>
+      <c r="D211" s="72"/>
+      <c r="E211" s="72"/>
+      <c r="F211" s="72"/>
+      <c r="G211" s="72"/>
+      <c r="H211" s="72"/>
+      <c r="I211" s="72"/>
+      <c r="J211" s="72"/>
+      <c r="K211" s="73"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212"/>
-      <c r="B212" s="146"/>
-      <c r="C212" s="147"/>
-      <c r="D212" s="147"/>
-      <c r="E212" s="147"/>
-      <c r="F212" s="147"/>
-      <c r="G212" s="147"/>
-      <c r="H212" s="147"/>
-      <c r="I212" s="147"/>
-      <c r="J212" s="147"/>
-      <c r="K212" s="148"/>
+      <c r="B212" s="74"/>
+      <c r="C212" s="75"/>
+      <c r="D212" s="75"/>
+      <c r="E212" s="75"/>
+      <c r="F212" s="75"/>
+      <c r="G212" s="75"/>
+      <c r="H212" s="75"/>
+      <c r="I212" s="75"/>
+      <c r="J212" s="75"/>
+      <c r="K212" s="76"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213"/>
-      <c r="B213" s="138">
+      <c r="B213" s="77">
         <f>J200+3</f>
         <v>46083</v>
       </c>
-      <c r="C213" s="139"/>
-      <c r="D213" s="140">
+      <c r="C213" s="78"/>
+      <c r="D213" s="79">
         <f>B213+1</f>
         <v>46084</v>
       </c>
-      <c r="E213" s="139"/>
-      <c r="F213" s="141">
+      <c r="E213" s="78"/>
+      <c r="F213" s="80">
         <f>D213+1</f>
         <v>46085</v>
       </c>
-      <c r="G213" s="139"/>
-      <c r="H213" s="142">
+      <c r="G213" s="78"/>
+      <c r="H213" s="81">
         <f>F213+1</f>
         <v>46086</v>
       </c>
-      <c r="I213" s="139"/>
-      <c r="J213" s="143">
+      <c r="I213" s="78"/>
+      <c r="J213" s="82">
         <f>H213+1</f>
         <v>46087</v>
       </c>
-      <c r="K213" s="139"/>
+      <c r="K213" s="78"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214"/>
-      <c r="B214" s="81"/>
-      <c r="C214" s="156"/>
-      <c r="D214" s="79"/>
-      <c r="E214" s="156"/>
-      <c r="F214" s="77"/>
-      <c r="G214" s="156"/>
-      <c r="H214" s="75"/>
-      <c r="I214" s="156"/>
-      <c r="J214" s="73"/>
-      <c r="K214" s="156"/>
+      <c r="B214" s="63"/>
+      <c r="C214" s="64"/>
+      <c r="D214" s="65"/>
+      <c r="E214" s="64"/>
+      <c r="F214" s="66"/>
+      <c r="G214" s="64"/>
+      <c r="H214" s="67"/>
+      <c r="I214" s="64"/>
+      <c r="J214" s="68"/>
+      <c r="K214" s="64"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215"/>
@@ -5063,85 +5053,85 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222"/>
-      <c r="B222" s="154"/>
-      <c r="C222" s="155"/>
-      <c r="D222" s="155"/>
-      <c r="E222" s="155"/>
-      <c r="F222" s="155"/>
-      <c r="G222" s="155"/>
-      <c r="H222" s="155"/>
-      <c r="I222" s="155"/>
-      <c r="J222" s="155"/>
-      <c r="K222" s="156"/>
+      <c r="B222" s="69"/>
+      <c r="C222" s="70"/>
+      <c r="D222" s="70"/>
+      <c r="E222" s="70"/>
+      <c r="F222" s="70"/>
+      <c r="G222" s="70"/>
+      <c r="H222" s="70"/>
+      <c r="I222" s="70"/>
+      <c r="J222" s="70"/>
+      <c r="K222" s="64"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224"/>
-      <c r="B224" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C224" s="144"/>
-      <c r="D224" s="144"/>
-      <c r="E224" s="144"/>
-      <c r="F224" s="144"/>
-      <c r="G224" s="144"/>
-      <c r="H224" s="144"/>
-      <c r="I224" s="144"/>
-      <c r="J224" s="144"/>
-      <c r="K224" s="145"/>
+      <c r="B224" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C224" s="72"/>
+      <c r="D224" s="72"/>
+      <c r="E224" s="72"/>
+      <c r="F224" s="72"/>
+      <c r="G224" s="72"/>
+      <c r="H224" s="72"/>
+      <c r="I224" s="72"/>
+      <c r="J224" s="72"/>
+      <c r="K224" s="73"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225"/>
-      <c r="B225" s="146"/>
-      <c r="C225" s="147"/>
-      <c r="D225" s="147"/>
-      <c r="E225" s="147"/>
-      <c r="F225" s="147"/>
-      <c r="G225" s="147"/>
-      <c r="H225" s="147"/>
-      <c r="I225" s="147"/>
-      <c r="J225" s="147"/>
-      <c r="K225" s="148"/>
+      <c r="B225" s="74"/>
+      <c r="C225" s="75"/>
+      <c r="D225" s="75"/>
+      <c r="E225" s="75"/>
+      <c r="F225" s="75"/>
+      <c r="G225" s="75"/>
+      <c r="H225" s="75"/>
+      <c r="I225" s="75"/>
+      <c r="J225" s="75"/>
+      <c r="K225" s="76"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226"/>
-      <c r="B226" s="138">
+      <c r="B226" s="77">
         <f>J213+3</f>
         <v>46090</v>
       </c>
-      <c r="C226" s="139"/>
-      <c r="D226" s="140">
+      <c r="C226" s="78"/>
+      <c r="D226" s="79">
         <f>B226+1</f>
         <v>46091</v>
       </c>
-      <c r="E226" s="139"/>
-      <c r="F226" s="141">
+      <c r="E226" s="78"/>
+      <c r="F226" s="80">
         <f>D226+1</f>
         <v>46092</v>
       </c>
-      <c r="G226" s="139"/>
-      <c r="H226" s="142">
+      <c r="G226" s="78"/>
+      <c r="H226" s="81">
         <f>F226+1</f>
         <v>46093</v>
       </c>
-      <c r="I226" s="139"/>
-      <c r="J226" s="143">
+      <c r="I226" s="78"/>
+      <c r="J226" s="82">
         <f>H226+1</f>
         <v>46094</v>
       </c>
-      <c r="K226" s="139"/>
+      <c r="K226" s="78"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227"/>
-      <c r="B227" s="81"/>
-      <c r="C227" s="156"/>
-      <c r="D227" s="79"/>
-      <c r="E227" s="156"/>
-      <c r="F227" s="77"/>
-      <c r="G227" s="156"/>
-      <c r="H227" s="75"/>
-      <c r="I227" s="156"/>
-      <c r="J227" s="73"/>
-      <c r="K227" s="156"/>
+      <c r="B227" s="63"/>
+      <c r="C227" s="64"/>
+      <c r="D227" s="65"/>
+      <c r="E227" s="64"/>
+      <c r="F227" s="66"/>
+      <c r="G227" s="64"/>
+      <c r="H227" s="67"/>
+      <c r="I227" s="64"/>
+      <c r="J227" s="68"/>
+      <c r="K227" s="64"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228"/>
@@ -5246,85 +5236,85 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235"/>
-      <c r="B235" s="154"/>
-      <c r="C235" s="155"/>
-      <c r="D235" s="155"/>
-      <c r="E235" s="155"/>
-      <c r="F235" s="155"/>
-      <c r="G235" s="155"/>
-      <c r="H235" s="155"/>
-      <c r="I235" s="155"/>
-      <c r="J235" s="155"/>
-      <c r="K235" s="156"/>
+      <c r="B235" s="69"/>
+      <c r="C235" s="70"/>
+      <c r="D235" s="70"/>
+      <c r="E235" s="70"/>
+      <c r="F235" s="70"/>
+      <c r="G235" s="70"/>
+      <c r="H235" s="70"/>
+      <c r="I235" s="70"/>
+      <c r="J235" s="70"/>
+      <c r="K235" s="64"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237"/>
-      <c r="B237" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C237" s="144"/>
-      <c r="D237" s="144"/>
-      <c r="E237" s="144"/>
-      <c r="F237" s="144"/>
-      <c r="G237" s="144"/>
-      <c r="H237" s="144"/>
-      <c r="I237" s="144"/>
-      <c r="J237" s="144"/>
-      <c r="K237" s="145"/>
+      <c r="B237" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C237" s="72"/>
+      <c r="D237" s="72"/>
+      <c r="E237" s="72"/>
+      <c r="F237" s="72"/>
+      <c r="G237" s="72"/>
+      <c r="H237" s="72"/>
+      <c r="I237" s="72"/>
+      <c r="J237" s="72"/>
+      <c r="K237" s="73"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238"/>
-      <c r="B238" s="146"/>
-      <c r="C238" s="147"/>
-      <c r="D238" s="147"/>
-      <c r="E238" s="147"/>
-      <c r="F238" s="147"/>
-      <c r="G238" s="147"/>
-      <c r="H238" s="147"/>
-      <c r="I238" s="147"/>
-      <c r="J238" s="147"/>
-      <c r="K238" s="148"/>
+      <c r="B238" s="74"/>
+      <c r="C238" s="75"/>
+      <c r="D238" s="75"/>
+      <c r="E238" s="75"/>
+      <c r="F238" s="75"/>
+      <c r="G238" s="75"/>
+      <c r="H238" s="75"/>
+      <c r="I238" s="75"/>
+      <c r="J238" s="75"/>
+      <c r="K238" s="76"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239"/>
-      <c r="B239" s="138">
+      <c r="B239" s="77">
         <f>J226+3</f>
         <v>46097</v>
       </c>
-      <c r="C239" s="139"/>
-      <c r="D239" s="140">
+      <c r="C239" s="78"/>
+      <c r="D239" s="79">
         <f>B239+1</f>
         <v>46098</v>
       </c>
-      <c r="E239" s="139"/>
-      <c r="F239" s="141">
+      <c r="E239" s="78"/>
+      <c r="F239" s="80">
         <f>D239+1</f>
         <v>46099</v>
       </c>
-      <c r="G239" s="139"/>
-      <c r="H239" s="142">
+      <c r="G239" s="78"/>
+      <c r="H239" s="81">
         <f>F239+1</f>
         <v>46100</v>
       </c>
-      <c r="I239" s="139"/>
-      <c r="J239" s="143">
+      <c r="I239" s="78"/>
+      <c r="J239" s="82">
         <f>H239+1</f>
         <v>46101</v>
       </c>
-      <c r="K239" s="139"/>
+      <c r="K239" s="78"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240"/>
-      <c r="B240" s="81"/>
-      <c r="C240" s="156"/>
-      <c r="D240" s="79"/>
-      <c r="E240" s="156"/>
-      <c r="F240" s="77"/>
-      <c r="G240" s="156"/>
-      <c r="H240" s="75"/>
-      <c r="I240" s="156"/>
-      <c r="J240" s="73"/>
-      <c r="K240" s="156"/>
+      <c r="B240" s="63"/>
+      <c r="C240" s="64"/>
+      <c r="D240" s="65"/>
+      <c r="E240" s="64"/>
+      <c r="F240" s="66"/>
+      <c r="G240" s="64"/>
+      <c r="H240" s="67"/>
+      <c r="I240" s="64"/>
+      <c r="J240" s="68"/>
+      <c r="K240" s="64"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241"/>
@@ -5429,85 +5419,85 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248"/>
-      <c r="B248" s="154"/>
-      <c r="C248" s="155"/>
-      <c r="D248" s="155"/>
-      <c r="E248" s="155"/>
-      <c r="F248" s="155"/>
-      <c r="G248" s="155"/>
-      <c r="H248" s="155"/>
-      <c r="I248" s="155"/>
-      <c r="J248" s="155"/>
-      <c r="K248" s="156"/>
+      <c r="B248" s="69"/>
+      <c r="C248" s="70"/>
+      <c r="D248" s="70"/>
+      <c r="E248" s="70"/>
+      <c r="F248" s="70"/>
+      <c r="G248" s="70"/>
+      <c r="H248" s="70"/>
+      <c r="I248" s="70"/>
+      <c r="J248" s="70"/>
+      <c r="K248" s="64"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250"/>
-      <c r="B250" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="C250" s="144"/>
-      <c r="D250" s="144"/>
-      <c r="E250" s="144"/>
-      <c r="F250" s="144"/>
-      <c r="G250" s="144"/>
-      <c r="H250" s="144"/>
-      <c r="I250" s="144"/>
-      <c r="J250" s="144"/>
-      <c r="K250" s="145"/>
+      <c r="B250" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C250" s="72"/>
+      <c r="D250" s="72"/>
+      <c r="E250" s="72"/>
+      <c r="F250" s="72"/>
+      <c r="G250" s="72"/>
+      <c r="H250" s="72"/>
+      <c r="I250" s="72"/>
+      <c r="J250" s="72"/>
+      <c r="K250" s="73"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251"/>
-      <c r="B251" s="146"/>
-      <c r="C251" s="147"/>
-      <c r="D251" s="147"/>
-      <c r="E251" s="147"/>
-      <c r="F251" s="147"/>
-      <c r="G251" s="147"/>
-      <c r="H251" s="147"/>
-      <c r="I251" s="147"/>
-      <c r="J251" s="147"/>
-      <c r="K251" s="148"/>
+      <c r="B251" s="74"/>
+      <c r="C251" s="75"/>
+      <c r="D251" s="75"/>
+      <c r="E251" s="75"/>
+      <c r="F251" s="75"/>
+      <c r="G251" s="75"/>
+      <c r="H251" s="75"/>
+      <c r="I251" s="75"/>
+      <c r="J251" s="75"/>
+      <c r="K251" s="76"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252"/>
-      <c r="B252" s="138">
+      <c r="B252" s="77">
         <f>J239+3</f>
         <v>46104</v>
       </c>
-      <c r="C252" s="139"/>
-      <c r="D252" s="140">
+      <c r="C252" s="78"/>
+      <c r="D252" s="79">
         <f>B252+1</f>
         <v>46105</v>
       </c>
-      <c r="E252" s="139"/>
-      <c r="F252" s="141">
+      <c r="E252" s="78"/>
+      <c r="F252" s="80">
         <f>D252+1</f>
         <v>46106</v>
       </c>
-      <c r="G252" s="139"/>
-      <c r="H252" s="142">
+      <c r="G252" s="78"/>
+      <c r="H252" s="81">
         <f>F252+1</f>
         <v>46107</v>
       </c>
-      <c r="I252" s="139"/>
-      <c r="J252" s="143">
+      <c r="I252" s="78"/>
+      <c r="J252" s="82">
         <f>H252+1</f>
         <v>46108</v>
       </c>
-      <c r="K252" s="139"/>
+      <c r="K252" s="78"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253"/>
-      <c r="B253" s="81"/>
-      <c r="C253" s="156"/>
-      <c r="D253" s="79"/>
-      <c r="E253" s="156"/>
-      <c r="F253" s="77"/>
-      <c r="G253" s="156"/>
-      <c r="H253" s="75"/>
-      <c r="I253" s="156"/>
-      <c r="J253" s="73"/>
-      <c r="K253" s="156"/>
+      <c r="B253" s="63"/>
+      <c r="C253" s="64"/>
+      <c r="D253" s="65"/>
+      <c r="E253" s="64"/>
+      <c r="F253" s="66"/>
+      <c r="G253" s="64"/>
+      <c r="H253" s="67"/>
+      <c r="I253" s="64"/>
+      <c r="J253" s="68"/>
+      <c r="K253" s="64"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254"/>
@@ -5531,7 +5521,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="K254" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -5546,7 +5536,7 @@
       <c r="I255" s="19"/>
       <c r="J255" s="20"/>
       <c r="K255" s="57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -5616,85 +5606,85 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261"/>
-      <c r="B261" s="154"/>
-      <c r="C261" s="155"/>
-      <c r="D261" s="155"/>
-      <c r="E261" s="155"/>
-      <c r="F261" s="155"/>
-      <c r="G261" s="155"/>
-      <c r="H261" s="155"/>
-      <c r="I261" s="155"/>
-      <c r="J261" s="155"/>
-      <c r="K261" s="156"/>
+      <c r="B261" s="69"/>
+      <c r="C261" s="70"/>
+      <c r="D261" s="70"/>
+      <c r="E261" s="70"/>
+      <c r="F261" s="70"/>
+      <c r="G261" s="70"/>
+      <c r="H261" s="70"/>
+      <c r="I261" s="70"/>
+      <c r="J261" s="70"/>
+      <c r="K261" s="64"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263"/>
-      <c r="B263" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C263" s="144"/>
-      <c r="D263" s="144"/>
-      <c r="E263" s="144"/>
-      <c r="F263" s="144"/>
-      <c r="G263" s="144"/>
-      <c r="H263" s="144"/>
-      <c r="I263" s="144"/>
-      <c r="J263" s="144"/>
-      <c r="K263" s="145"/>
+      <c r="B263" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C263" s="72"/>
+      <c r="D263" s="72"/>
+      <c r="E263" s="72"/>
+      <c r="F263" s="72"/>
+      <c r="G263" s="72"/>
+      <c r="H263" s="72"/>
+      <c r="I263" s="72"/>
+      <c r="J263" s="72"/>
+      <c r="K263" s="73"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264"/>
-      <c r="B264" s="146"/>
-      <c r="C264" s="147"/>
-      <c r="D264" s="147"/>
-      <c r="E264" s="147"/>
-      <c r="F264" s="147"/>
-      <c r="G264" s="147"/>
-      <c r="H264" s="147"/>
-      <c r="I264" s="147"/>
-      <c r="J264" s="147"/>
-      <c r="K264" s="148"/>
+      <c r="B264" s="74"/>
+      <c r="C264" s="75"/>
+      <c r="D264" s="75"/>
+      <c r="E264" s="75"/>
+      <c r="F264" s="75"/>
+      <c r="G264" s="75"/>
+      <c r="H264" s="75"/>
+      <c r="I264" s="75"/>
+      <c r="J264" s="75"/>
+      <c r="K264" s="76"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265"/>
-      <c r="B265" s="138">
+      <c r="B265" s="77">
         <f>J252+3</f>
         <v>46111</v>
       </c>
-      <c r="C265" s="139"/>
-      <c r="D265" s="140">
+      <c r="C265" s="78"/>
+      <c r="D265" s="79">
         <f>B265+1</f>
         <v>46112</v>
       </c>
-      <c r="E265" s="139"/>
-      <c r="F265" s="141">
+      <c r="E265" s="78"/>
+      <c r="F265" s="80">
         <f>D265+1</f>
         <v>46113</v>
       </c>
-      <c r="G265" s="139"/>
-      <c r="H265" s="142">
+      <c r="G265" s="78"/>
+      <c r="H265" s="81">
         <f>F265+1</f>
         <v>46114</v>
       </c>
-      <c r="I265" s="139"/>
-      <c r="J265" s="143">
+      <c r="I265" s="78"/>
+      <c r="J265" s="82">
         <f>H265+1</f>
         <v>46115</v>
       </c>
-      <c r="K265" s="139"/>
+      <c r="K265" s="78"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266"/>
-      <c r="B266" s="81"/>
-      <c r="C266" s="156"/>
-      <c r="D266" s="79"/>
-      <c r="E266" s="156"/>
-      <c r="F266" s="77"/>
-      <c r="G266" s="156"/>
-      <c r="H266" s="75"/>
-      <c r="I266" s="156"/>
-      <c r="J266" s="73"/>
-      <c r="K266" s="156"/>
+      <c r="B266" s="63"/>
+      <c r="C266" s="64"/>
+      <c r="D266" s="65"/>
+      <c r="E266" s="64"/>
+      <c r="F266" s="66"/>
+      <c r="G266" s="64"/>
+      <c r="H266" s="67"/>
+      <c r="I266" s="64"/>
+      <c r="J266" s="68"/>
+      <c r="K266" s="64"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267"/>
@@ -5714,7 +5704,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="I267" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J267" s="44">
         <v>0.79166666666666663</v>
@@ -5801,85 +5791,85 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274"/>
-      <c r="B274" s="154"/>
-      <c r="C274" s="155"/>
-      <c r="D274" s="155"/>
-      <c r="E274" s="155"/>
-      <c r="F274" s="155"/>
-      <c r="G274" s="155"/>
-      <c r="H274" s="155"/>
-      <c r="I274" s="155"/>
-      <c r="J274" s="155"/>
-      <c r="K274" s="156"/>
+      <c r="B274" s="69"/>
+      <c r="C274" s="70"/>
+      <c r="D274" s="70"/>
+      <c r="E274" s="70"/>
+      <c r="F274" s="70"/>
+      <c r="G274" s="70"/>
+      <c r="H274" s="70"/>
+      <c r="I274" s="70"/>
+      <c r="J274" s="70"/>
+      <c r="K274" s="64"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276"/>
-      <c r="B276" s="58" t="s">
+      <c r="B276" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C276" s="144"/>
-      <c r="D276" s="144"/>
-      <c r="E276" s="144"/>
-      <c r="F276" s="144"/>
-      <c r="G276" s="144"/>
-      <c r="H276" s="144"/>
-      <c r="I276" s="144"/>
-      <c r="J276" s="144"/>
-      <c r="K276" s="145"/>
+      <c r="C276" s="72"/>
+      <c r="D276" s="72"/>
+      <c r="E276" s="72"/>
+      <c r="F276" s="72"/>
+      <c r="G276" s="72"/>
+      <c r="H276" s="72"/>
+      <c r="I276" s="72"/>
+      <c r="J276" s="72"/>
+      <c r="K276" s="73"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277"/>
-      <c r="B277" s="146"/>
-      <c r="C277" s="147"/>
-      <c r="D277" s="147"/>
-      <c r="E277" s="147"/>
-      <c r="F277" s="147"/>
-      <c r="G277" s="147"/>
-      <c r="H277" s="147"/>
-      <c r="I277" s="147"/>
-      <c r="J277" s="147"/>
-      <c r="K277" s="148"/>
+      <c r="B277" s="74"/>
+      <c r="C277" s="75"/>
+      <c r="D277" s="75"/>
+      <c r="E277" s="75"/>
+      <c r="F277" s="75"/>
+      <c r="G277" s="75"/>
+      <c r="H277" s="75"/>
+      <c r="I277" s="75"/>
+      <c r="J277" s="75"/>
+      <c r="K277" s="76"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278"/>
-      <c r="B278" s="138">
+      <c r="B278" s="77">
         <f>J265+3</f>
         <v>46118</v>
       </c>
-      <c r="C278" s="139"/>
-      <c r="D278" s="140">
+      <c r="C278" s="78"/>
+      <c r="D278" s="79">
         <f>B278+1</f>
         <v>46119</v>
       </c>
-      <c r="E278" s="139"/>
-      <c r="F278" s="141">
+      <c r="E278" s="78"/>
+      <c r="F278" s="80">
         <f>D278+1</f>
         <v>46120</v>
       </c>
-      <c r="G278" s="139"/>
-      <c r="H278" s="142">
+      <c r="G278" s="78"/>
+      <c r="H278" s="81">
         <f>F278+1</f>
         <v>46121</v>
       </c>
-      <c r="I278" s="139"/>
-      <c r="J278" s="143">
+      <c r="I278" s="78"/>
+      <c r="J278" s="82">
         <f>H278+1</f>
         <v>46122</v>
       </c>
-      <c r="K278" s="139"/>
+      <c r="K278" s="78"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279"/>
-      <c r="B279" s="81"/>
-      <c r="C279" s="156"/>
-      <c r="D279" s="79"/>
-      <c r="E279" s="156"/>
-      <c r="F279" s="77"/>
-      <c r="G279" s="156"/>
-      <c r="H279" s="75"/>
-      <c r="I279" s="156"/>
-      <c r="J279" s="73"/>
-      <c r="K279" s="156"/>
+      <c r="B279" s="63"/>
+      <c r="C279" s="64"/>
+      <c r="D279" s="65"/>
+      <c r="E279" s="64"/>
+      <c r="F279" s="66"/>
+      <c r="G279" s="64"/>
+      <c r="H279" s="67"/>
+      <c r="I279" s="64"/>
+      <c r="J279" s="68"/>
+      <c r="K279" s="64"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280"/>
@@ -5984,85 +5974,85 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287"/>
-      <c r="B287" s="154"/>
-      <c r="C287" s="155"/>
-      <c r="D287" s="155"/>
-      <c r="E287" s="155"/>
-      <c r="F287" s="155"/>
-      <c r="G287" s="155"/>
-      <c r="H287" s="155"/>
-      <c r="I287" s="155"/>
-      <c r="J287" s="155"/>
-      <c r="K287" s="156"/>
+      <c r="B287" s="69"/>
+      <c r="C287" s="70"/>
+      <c r="D287" s="70"/>
+      <c r="E287" s="70"/>
+      <c r="F287" s="70"/>
+      <c r="G287" s="70"/>
+      <c r="H287" s="70"/>
+      <c r="I287" s="70"/>
+      <c r="J287" s="70"/>
+      <c r="K287" s="64"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289"/>
-      <c r="B289" s="58" t="s">
+      <c r="B289" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C289" s="144"/>
-      <c r="D289" s="144"/>
-      <c r="E289" s="144"/>
-      <c r="F289" s="144"/>
-      <c r="G289" s="144"/>
-      <c r="H289" s="144"/>
-      <c r="I289" s="144"/>
-      <c r="J289" s="144"/>
-      <c r="K289" s="145"/>
+      <c r="C289" s="72"/>
+      <c r="D289" s="72"/>
+      <c r="E289" s="72"/>
+      <c r="F289" s="72"/>
+      <c r="G289" s="72"/>
+      <c r="H289" s="72"/>
+      <c r="I289" s="72"/>
+      <c r="J289" s="72"/>
+      <c r="K289" s="73"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290"/>
-      <c r="B290" s="146"/>
-      <c r="C290" s="147"/>
-      <c r="D290" s="147"/>
-      <c r="E290" s="147"/>
-      <c r="F290" s="147"/>
-      <c r="G290" s="147"/>
-      <c r="H290" s="147"/>
-      <c r="I290" s="147"/>
-      <c r="J290" s="147"/>
-      <c r="K290" s="148"/>
+      <c r="B290" s="74"/>
+      <c r="C290" s="75"/>
+      <c r="D290" s="75"/>
+      <c r="E290" s="75"/>
+      <c r="F290" s="75"/>
+      <c r="G290" s="75"/>
+      <c r="H290" s="75"/>
+      <c r="I290" s="75"/>
+      <c r="J290" s="75"/>
+      <c r="K290" s="76"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291"/>
-      <c r="B291" s="138">
+      <c r="B291" s="77">
         <f>J278+3</f>
         <v>46125</v>
       </c>
-      <c r="C291" s="139"/>
-      <c r="D291" s="140">
+      <c r="C291" s="78"/>
+      <c r="D291" s="79">
         <f>B291+1</f>
         <v>46126</v>
       </c>
-      <c r="E291" s="139"/>
-      <c r="F291" s="141">
+      <c r="E291" s="78"/>
+      <c r="F291" s="80">
         <f>D291+1</f>
         <v>46127</v>
       </c>
-      <c r="G291" s="139"/>
-      <c r="H291" s="142">
+      <c r="G291" s="78"/>
+      <c r="H291" s="81">
         <f>F291+1</f>
         <v>46128</v>
       </c>
-      <c r="I291" s="139"/>
-      <c r="J291" s="143">
+      <c r="I291" s="78"/>
+      <c r="J291" s="82">
         <f>H291+1</f>
         <v>46129</v>
       </c>
-      <c r="K291" s="139"/>
+      <c r="K291" s="78"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292"/>
-      <c r="B292" s="81"/>
-      <c r="C292" s="156"/>
-      <c r="D292" s="79"/>
-      <c r="E292" s="156"/>
-      <c r="F292" s="77"/>
-      <c r="G292" s="156"/>
-      <c r="H292" s="75"/>
-      <c r="I292" s="156"/>
-      <c r="J292" s="73"/>
-      <c r="K292" s="156"/>
+      <c r="B292" s="63"/>
+      <c r="C292" s="64"/>
+      <c r="D292" s="65"/>
+      <c r="E292" s="64"/>
+      <c r="F292" s="66"/>
+      <c r="G292" s="64"/>
+      <c r="H292" s="67"/>
+      <c r="I292" s="64"/>
+      <c r="J292" s="68"/>
+      <c r="K292" s="64"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293"/>
@@ -6167,85 +6157,85 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300"/>
-      <c r="B300" s="154"/>
-      <c r="C300" s="155"/>
-      <c r="D300" s="155"/>
-      <c r="E300" s="155"/>
-      <c r="F300" s="155"/>
-      <c r="G300" s="155"/>
-      <c r="H300" s="155"/>
-      <c r="I300" s="155"/>
-      <c r="J300" s="155"/>
-      <c r="K300" s="156"/>
+      <c r="B300" s="69"/>
+      <c r="C300" s="70"/>
+      <c r="D300" s="70"/>
+      <c r="E300" s="70"/>
+      <c r="F300" s="70"/>
+      <c r="G300" s="70"/>
+      <c r="H300" s="70"/>
+      <c r="I300" s="70"/>
+      <c r="J300" s="70"/>
+      <c r="K300" s="64"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302"/>
-      <c r="B302" s="58" t="s">
+      <c r="B302" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C302" s="144"/>
-      <c r="D302" s="144"/>
-      <c r="E302" s="144"/>
-      <c r="F302" s="144"/>
-      <c r="G302" s="144"/>
-      <c r="H302" s="144"/>
-      <c r="I302" s="144"/>
-      <c r="J302" s="144"/>
-      <c r="K302" s="145"/>
+      <c r="C302" s="72"/>
+      <c r="D302" s="72"/>
+      <c r="E302" s="72"/>
+      <c r="F302" s="72"/>
+      <c r="G302" s="72"/>
+      <c r="H302" s="72"/>
+      <c r="I302" s="72"/>
+      <c r="J302" s="72"/>
+      <c r="K302" s="73"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303"/>
-      <c r="B303" s="146"/>
-      <c r="C303" s="147"/>
-      <c r="D303" s="147"/>
-      <c r="E303" s="147"/>
-      <c r="F303" s="147"/>
-      <c r="G303" s="147"/>
-      <c r="H303" s="147"/>
-      <c r="I303" s="147"/>
-      <c r="J303" s="147"/>
-      <c r="K303" s="148"/>
+      <c r="B303" s="74"/>
+      <c r="C303" s="75"/>
+      <c r="D303" s="75"/>
+      <c r="E303" s="75"/>
+      <c r="F303" s="75"/>
+      <c r="G303" s="75"/>
+      <c r="H303" s="75"/>
+      <c r="I303" s="75"/>
+      <c r="J303" s="75"/>
+      <c r="K303" s="76"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304"/>
-      <c r="B304" s="138">
+      <c r="B304" s="77">
         <f>J291+3</f>
         <v>46132</v>
       </c>
-      <c r="C304" s="139"/>
-      <c r="D304" s="140">
+      <c r="C304" s="78"/>
+      <c r="D304" s="79">
         <f>B304+1</f>
         <v>46133</v>
       </c>
-      <c r="E304" s="139"/>
-      <c r="F304" s="141">
+      <c r="E304" s="78"/>
+      <c r="F304" s="80">
         <f>D304+1</f>
         <v>46134</v>
       </c>
-      <c r="G304" s="139"/>
-      <c r="H304" s="142">
+      <c r="G304" s="78"/>
+      <c r="H304" s="81">
         <f>F304+1</f>
         <v>46135</v>
       </c>
-      <c r="I304" s="139"/>
-      <c r="J304" s="143">
+      <c r="I304" s="78"/>
+      <c r="J304" s="82">
         <f>H304+1</f>
         <v>46136</v>
       </c>
-      <c r="K304" s="139"/>
+      <c r="K304" s="78"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305"/>
-      <c r="B305" s="81"/>
-      <c r="C305" s="156"/>
-      <c r="D305" s="79"/>
-      <c r="E305" s="156"/>
-      <c r="F305" s="77"/>
-      <c r="G305" s="156"/>
-      <c r="H305" s="75"/>
-      <c r="I305" s="156"/>
-      <c r="J305" s="73"/>
-      <c r="K305" s="156"/>
+      <c r="B305" s="63"/>
+      <c r="C305" s="64"/>
+      <c r="D305" s="65"/>
+      <c r="E305" s="64"/>
+      <c r="F305" s="66"/>
+      <c r="G305" s="64"/>
+      <c r="H305" s="67"/>
+      <c r="I305" s="64"/>
+      <c r="J305" s="68"/>
+      <c r="K305" s="64"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306"/>
@@ -6350,85 +6340,85 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313"/>
-      <c r="B313" s="154"/>
-      <c r="C313" s="155"/>
-      <c r="D313" s="155"/>
-      <c r="E313" s="155"/>
-      <c r="F313" s="155"/>
-      <c r="G313" s="155"/>
-      <c r="H313" s="155"/>
-      <c r="I313" s="155"/>
-      <c r="J313" s="155"/>
-      <c r="K313" s="156"/>
+      <c r="B313" s="69"/>
+      <c r="C313" s="70"/>
+      <c r="D313" s="70"/>
+      <c r="E313" s="70"/>
+      <c r="F313" s="70"/>
+      <c r="G313" s="70"/>
+      <c r="H313" s="70"/>
+      <c r="I313" s="70"/>
+      <c r="J313" s="70"/>
+      <c r="K313" s="64"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315"/>
-      <c r="B315" s="58" t="s">
+      <c r="B315" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C315" s="144"/>
-      <c r="D315" s="144"/>
-      <c r="E315" s="144"/>
-      <c r="F315" s="144"/>
-      <c r="G315" s="144"/>
-      <c r="H315" s="144"/>
-      <c r="I315" s="144"/>
-      <c r="J315" s="144"/>
-      <c r="K315" s="145"/>
+      <c r="C315" s="72"/>
+      <c r="D315" s="72"/>
+      <c r="E315" s="72"/>
+      <c r="F315" s="72"/>
+      <c r="G315" s="72"/>
+      <c r="H315" s="72"/>
+      <c r="I315" s="72"/>
+      <c r="J315" s="72"/>
+      <c r="K315" s="73"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316"/>
-      <c r="B316" s="146"/>
-      <c r="C316" s="147"/>
-      <c r="D316" s="147"/>
-      <c r="E316" s="147"/>
-      <c r="F316" s="147"/>
-      <c r="G316" s="147"/>
-      <c r="H316" s="147"/>
-      <c r="I316" s="147"/>
-      <c r="J316" s="147"/>
-      <c r="K316" s="148"/>
+      <c r="B316" s="74"/>
+      <c r="C316" s="75"/>
+      <c r="D316" s="75"/>
+      <c r="E316" s="75"/>
+      <c r="F316" s="75"/>
+      <c r="G316" s="75"/>
+      <c r="H316" s="75"/>
+      <c r="I316" s="75"/>
+      <c r="J316" s="75"/>
+      <c r="K316" s="76"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317"/>
-      <c r="B317" s="138">
+      <c r="B317" s="77">
         <f>J304+3</f>
         <v>46139</v>
       </c>
-      <c r="C317" s="139"/>
-      <c r="D317" s="140">
+      <c r="C317" s="78"/>
+      <c r="D317" s="79">
         <f>B317+1</f>
         <v>46140</v>
       </c>
-      <c r="E317" s="139"/>
-      <c r="F317" s="141">
+      <c r="E317" s="78"/>
+      <c r="F317" s="80">
         <f>D317+1</f>
         <v>46141</v>
       </c>
-      <c r="G317" s="139"/>
-      <c r="H317" s="142">
+      <c r="G317" s="78"/>
+      <c r="H317" s="81">
         <f>F317+1</f>
         <v>46142</v>
       </c>
-      <c r="I317" s="139"/>
-      <c r="J317" s="143">
+      <c r="I317" s="78"/>
+      <c r="J317" s="82">
         <f>H317+1</f>
         <v>46143</v>
       </c>
-      <c r="K317" s="139"/>
+      <c r="K317" s="78"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318"/>
-      <c r="B318" s="81"/>
-      <c r="C318" s="156"/>
-      <c r="D318" s="79"/>
-      <c r="E318" s="156"/>
-      <c r="F318" s="77"/>
-      <c r="G318" s="156"/>
-      <c r="H318" s="75"/>
-      <c r="I318" s="156"/>
-      <c r="J318" s="73"/>
-      <c r="K318" s="156"/>
+      <c r="B318" s="63"/>
+      <c r="C318" s="64"/>
+      <c r="D318" s="65"/>
+      <c r="E318" s="64"/>
+      <c r="F318" s="66"/>
+      <c r="G318" s="64"/>
+      <c r="H318" s="67"/>
+      <c r="I318" s="64"/>
+      <c r="J318" s="68"/>
+      <c r="K318" s="64"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319"/>
@@ -6533,85 +6523,85 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326"/>
-      <c r="B326" s="154"/>
-      <c r="C326" s="155"/>
-      <c r="D326" s="155"/>
-      <c r="E326" s="155"/>
-      <c r="F326" s="155"/>
-      <c r="G326" s="155"/>
-      <c r="H326" s="155"/>
-      <c r="I326" s="155"/>
-      <c r="J326" s="155"/>
-      <c r="K326" s="156"/>
+      <c r="B326" s="69"/>
+      <c r="C326" s="70"/>
+      <c r="D326" s="70"/>
+      <c r="E326" s="70"/>
+      <c r="F326" s="70"/>
+      <c r="G326" s="70"/>
+      <c r="H326" s="70"/>
+      <c r="I326" s="70"/>
+      <c r="J326" s="70"/>
+      <c r="K326" s="64"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328"/>
-      <c r="B328" s="58" t="s">
+      <c r="B328" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C328" s="144"/>
-      <c r="D328" s="144"/>
-      <c r="E328" s="144"/>
-      <c r="F328" s="144"/>
-      <c r="G328" s="144"/>
-      <c r="H328" s="144"/>
-      <c r="I328" s="144"/>
-      <c r="J328" s="144"/>
-      <c r="K328" s="145"/>
+      <c r="C328" s="72"/>
+      <c r="D328" s="72"/>
+      <c r="E328" s="72"/>
+      <c r="F328" s="72"/>
+      <c r="G328" s="72"/>
+      <c r="H328" s="72"/>
+      <c r="I328" s="72"/>
+      <c r="J328" s="72"/>
+      <c r="K328" s="73"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329"/>
-      <c r="B329" s="146"/>
-      <c r="C329" s="147"/>
-      <c r="D329" s="147"/>
-      <c r="E329" s="147"/>
-      <c r="F329" s="147"/>
-      <c r="G329" s="147"/>
-      <c r="H329" s="147"/>
-      <c r="I329" s="147"/>
-      <c r="J329" s="147"/>
-      <c r="K329" s="148"/>
+      <c r="B329" s="74"/>
+      <c r="C329" s="75"/>
+      <c r="D329" s="75"/>
+      <c r="E329" s="75"/>
+      <c r="F329" s="75"/>
+      <c r="G329" s="75"/>
+      <c r="H329" s="75"/>
+      <c r="I329" s="75"/>
+      <c r="J329" s="75"/>
+      <c r="K329" s="76"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330"/>
-      <c r="B330" s="138">
+      <c r="B330" s="77">
         <f>J317+3</f>
         <v>46146</v>
       </c>
-      <c r="C330" s="139"/>
-      <c r="D330" s="140">
+      <c r="C330" s="78"/>
+      <c r="D330" s="79">
         <f>B330+1</f>
         <v>46147</v>
       </c>
-      <c r="E330" s="139"/>
-      <c r="F330" s="141">
+      <c r="E330" s="78"/>
+      <c r="F330" s="80">
         <f>D330+1</f>
         <v>46148</v>
       </c>
-      <c r="G330" s="139"/>
-      <c r="H330" s="142">
+      <c r="G330" s="78"/>
+      <c r="H330" s="81">
         <f>F330+1</f>
         <v>46149</v>
       </c>
-      <c r="I330" s="139"/>
-      <c r="J330" s="143">
+      <c r="I330" s="78"/>
+      <c r="J330" s="82">
         <f>H330+1</f>
         <v>46150</v>
       </c>
-      <c r="K330" s="139"/>
+      <c r="K330" s="78"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331"/>
-      <c r="B331" s="81"/>
-      <c r="C331" s="156"/>
-      <c r="D331" s="79"/>
-      <c r="E331" s="156"/>
-      <c r="F331" s="77"/>
-      <c r="G331" s="156"/>
-      <c r="H331" s="75"/>
-      <c r="I331" s="156"/>
-      <c r="J331" s="73"/>
-      <c r="K331" s="156"/>
+      <c r="B331" s="63"/>
+      <c r="C331" s="64"/>
+      <c r="D331" s="65"/>
+      <c r="E331" s="64"/>
+      <c r="F331" s="66"/>
+      <c r="G331" s="64"/>
+      <c r="H331" s="67"/>
+      <c r="I331" s="64"/>
+      <c r="J331" s="68"/>
+      <c r="K331" s="64"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332"/>
@@ -6716,19 +6706,318 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339"/>
-      <c r="B339" s="154"/>
-      <c r="C339" s="155"/>
-      <c r="D339" s="155"/>
-      <c r="E339" s="155"/>
-      <c r="F339" s="155"/>
-      <c r="G339" s="155"/>
-      <c r="H339" s="155"/>
-      <c r="I339" s="155"/>
-      <c r="J339" s="155"/>
-      <c r="K339" s="156"/>
+      <c r="B339" s="69"/>
+      <c r="C339" s="70"/>
+      <c r="D339" s="70"/>
+      <c r="E339" s="70"/>
+      <c r="F339" s="70"/>
+      <c r="G339" s="70"/>
+      <c r="H339" s="70"/>
+      <c r="I339" s="70"/>
+      <c r="J339" s="70"/>
+      <c r="K339" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="323">
+    <mergeCell ref="B13:K14"/>
+    <mergeCell ref="J82:K88"/>
+    <mergeCell ref="J95:K101"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B26:K27"/>
+    <mergeCell ref="B39:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B1:C7"/>
+    <mergeCell ref="D1:I6"/>
+    <mergeCell ref="J1:K7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B52:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B65:K66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B56:C62"/>
+    <mergeCell ref="B78:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B91:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B89:K89"/>
+    <mergeCell ref="H82:I88"/>
+    <mergeCell ref="F82:G88"/>
+    <mergeCell ref="B104:K105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="H95:I101"/>
+    <mergeCell ref="F95:G101"/>
+    <mergeCell ref="B120:K121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="B118:K118"/>
+    <mergeCell ref="B133:K134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="B131:K131"/>
+    <mergeCell ref="B146:K147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="B144:K144"/>
+    <mergeCell ref="B159:K160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B157:K157"/>
+    <mergeCell ref="B172:K173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="B170:K170"/>
+    <mergeCell ref="B185:K186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="B183:K183"/>
+    <mergeCell ref="B198:K199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="B196:K196"/>
+    <mergeCell ref="B211:K212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="B209:K209"/>
+    <mergeCell ref="B224:K225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="B222:K222"/>
+    <mergeCell ref="B237:K238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="B235:K235"/>
+    <mergeCell ref="B250:K251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="B248:K248"/>
+    <mergeCell ref="B263:K264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="B261:K261"/>
+    <mergeCell ref="B276:K277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="B274:K274"/>
+    <mergeCell ref="B289:K290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="B287:K287"/>
+    <mergeCell ref="B302:K303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="B300:K300"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="B313:K313"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -6753,305 +7042,6 @@
     <mergeCell ref="B315:K316"/>
     <mergeCell ref="B317:C317"/>
     <mergeCell ref="D317:E317"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="B313:K313"/>
-    <mergeCell ref="B302:K303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="B300:K300"/>
-    <mergeCell ref="B289:K290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="B287:K287"/>
-    <mergeCell ref="B276:K277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="F278:G278"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="F266:G266"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="B274:K274"/>
-    <mergeCell ref="B263:K264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="B261:K261"/>
-    <mergeCell ref="B250:K251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="F252:G252"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="B248:K248"/>
-    <mergeCell ref="B237:K238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="B235:K235"/>
-    <mergeCell ref="B224:K225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="B222:K222"/>
-    <mergeCell ref="B211:K212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="B209:K209"/>
-    <mergeCell ref="B198:K199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="B196:K196"/>
-    <mergeCell ref="B185:K186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="B183:K183"/>
-    <mergeCell ref="B172:K173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="B170:K170"/>
-    <mergeCell ref="B159:K160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B157:K157"/>
-    <mergeCell ref="B146:K147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="B144:K144"/>
-    <mergeCell ref="B133:K134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="B131:K131"/>
-    <mergeCell ref="B120:K121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="B118:K118"/>
-    <mergeCell ref="B104:K105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="H95:I101"/>
-    <mergeCell ref="F95:G101"/>
-    <mergeCell ref="B91:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B89:K89"/>
-    <mergeCell ref="H82:I88"/>
-    <mergeCell ref="F82:G88"/>
-    <mergeCell ref="B78:K79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B65:K66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B56:C62"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B52:K53"/>
-    <mergeCell ref="B1:C7"/>
-    <mergeCell ref="D1:I6"/>
-    <mergeCell ref="J1:K7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="B13:K14"/>
-    <mergeCell ref="J82:K88"/>
-    <mergeCell ref="J95:K101"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B26:K27"/>
-    <mergeCell ref="B39:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -340,6 +340,39 @@
   </si>
   <si>
     <t>Live Coding ejercicio Sistema Gestión de Biblioteca</t>
+  </si>
+  <si>
+    <t>Inicio Módulo 4</t>
+  </si>
+  <si>
+    <t>Introducción a la POO</t>
+  </si>
+  <si>
+    <t>Presentación - demo I</t>
+  </si>
+  <si>
+    <t>Presentación - demo II</t>
+  </si>
+  <si>
+    <t>Presentación - demo III</t>
+  </si>
+  <si>
+    <t>Creación del objeto persona para importarlo en otros archivos</t>
+  </si>
+  <si>
+    <t>avance</t>
+  </si>
+  <si>
+    <t>Resolución de ejercición en grupos</t>
+  </si>
+  <si>
+    <t>Repaso clase anterior intro POO</t>
+  </si>
+  <si>
+    <t>presentación de resoluciones</t>
+  </si>
+  <si>
+    <t>Ejercicio Grupal productos con paso de objeto por parametro (aplicar descuento)</t>
   </si>
 </sst>
 </file>
@@ -1172,60 +1205,237 @@
     <xf numFmtId="0" fontId="13" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1233,202 +1443,25 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1718,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="C133" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1741,179 +1774,179 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="123" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="128"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="129"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="119"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="129"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="119"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="129"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="119"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="129"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="129"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:11" ht="18">
       <c r="A7" s="2"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="130"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="120"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="131" t="s">
+      <c r="C8" s="122"/>
+      <c r="D8" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="132"/>
-      <c r="F8" s="135" t="s">
+      <c r="E8" s="122"/>
+      <c r="F8" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="136"/>
-      <c r="H8" s="139" t="s">
+      <c r="G8" s="126"/>
+      <c r="H8" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="136"/>
-      <c r="J8" s="140" t="s">
+      <c r="I8" s="126"/>
+      <c r="J8" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="136"/>
+      <c r="K8" s="126"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="138"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="128"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="135" t="s">
+      <c r="B10" s="131"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="142"/>
-      <c r="H10" s="139" t="s">
+      <c r="G10" s="132"/>
+      <c r="H10" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="136"/>
-      <c r="J10" s="139" t="s">
+      <c r="I10" s="126"/>
+      <c r="J10" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="136"/>
+      <c r="K10" s="126"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="138"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="128"/>
     </row>
     <row r="12" spans="1:11" ht="2.25" hidden="1" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="62">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59" t="s">
+      <c r="C12" s="111"/>
+      <c r="D12" s="160">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="111"/>
+      <c r="F12" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="60"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
@@ -1921,71 +1954,71 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5"/>
-      <c r="B15" s="108">
+      <c r="B15" s="92">
         <v>45978</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110">
+      <c r="C15" s="93"/>
+      <c r="D15" s="90">
         <f>B15+1</f>
         <v>45979</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112">
+      <c r="E15" s="91"/>
+      <c r="F15" s="88">
         <f>D15+1</f>
         <v>45980</v>
       </c>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114">
+      <c r="G15" s="89"/>
+      <c r="H15" s="86">
         <f>F15+1</f>
         <v>45981</v>
       </c>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116">
+      <c r="I15" s="87"/>
+      <c r="J15" s="84">
         <f>H15+1</f>
         <v>45982</v>
       </c>
-      <c r="K15" s="117"/>
+      <c r="K15" s="85"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="98"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="75"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6"/>
@@ -2095,16 +2128,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="27"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="101"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2"/>
@@ -2121,72 +2154,72 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="157"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="106"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="160"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="109"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5"/>
-      <c r="B28" s="145">
+      <c r="B28" s="94">
         <f>J15+3</f>
         <v>45985</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147">
+      <c r="C28" s="95"/>
+      <c r="D28" s="96">
         <f>B28+1</f>
         <v>45986</v>
       </c>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149">
+      <c r="E28" s="97"/>
+      <c r="F28" s="98">
         <f>D28+1</f>
         <v>45987</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151">
+      <c r="G28" s="99"/>
+      <c r="H28" s="100">
         <f>F28+1</f>
         <v>45988</v>
       </c>
-      <c r="I28" s="152"/>
-      <c r="J28" s="153">
+      <c r="I28" s="101"/>
+      <c r="J28" s="102">
         <f>H28+1</f>
         <v>45989</v>
       </c>
-      <c r="K28" s="154"/>
+      <c r="K28" s="103"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="120"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="6"/>
@@ -2296,16 +2329,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="27"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="101"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="73"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2"/>
@@ -2322,74 +2355,74 @@
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="90"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="61"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="93"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2"/>
-      <c r="B41" s="108">
+      <c r="B41" s="92">
         <f>J28+3</f>
         <v>45992</v>
       </c>
-      <c r="C41" s="109"/>
-      <c r="D41" s="110">
+      <c r="C41" s="93"/>
+      <c r="D41" s="90">
         <f>B41+1</f>
         <v>45993</v>
       </c>
-      <c r="E41" s="111"/>
-      <c r="F41" s="112">
+      <c r="E41" s="91"/>
+      <c r="F41" s="88">
         <f>D41+1</f>
         <v>45994</v>
       </c>
-      <c r="G41" s="113"/>
-      <c r="H41" s="114">
+      <c r="G41" s="89"/>
+      <c r="H41" s="86">
         <f>F41+1</f>
         <v>45995</v>
       </c>
-      <c r="I41" s="115"/>
-      <c r="J41" s="116">
+      <c r="I41" s="87"/>
+      <c r="J41" s="84">
         <f>H41+1</f>
         <v>45996</v>
       </c>
-      <c r="K41" s="117"/>
+      <c r="K41" s="85"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="86" t="s">
+      <c r="B42" s="82"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="118"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="98"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="75"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2"/>
@@ -2527,16 +2560,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="101"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="73"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2"/>
@@ -2552,75 +2585,75 @@
       <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1">
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="90"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="61"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="B53" s="91"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
-      <c r="K53" s="93"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="64"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="B54" s="108">
+      <c r="B54" s="92">
         <f>J41+3</f>
         <v>45999</v>
       </c>
-      <c r="C54" s="109"/>
-      <c r="D54" s="110">
+      <c r="C54" s="93"/>
+      <c r="D54" s="90">
         <f>B54+1</f>
         <v>46000</v>
       </c>
-      <c r="E54" s="111"/>
-      <c r="F54" s="112">
+      <c r="E54" s="91"/>
+      <c r="F54" s="88">
         <f>D54+1</f>
         <v>46001</v>
       </c>
-      <c r="G54" s="113"/>
-      <c r="H54" s="114">
+      <c r="G54" s="89"/>
+      <c r="H54" s="86">
         <f>F54+1</f>
         <v>46002</v>
       </c>
-      <c r="I54" s="115"/>
-      <c r="J54" s="116">
+      <c r="I54" s="87"/>
+      <c r="J54" s="84">
         <f>H54+1</f>
         <v>46003</v>
       </c>
-      <c r="K54" s="117"/>
+      <c r="K54" s="85"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="B55" s="63"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="98"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="75"/>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1">
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="103"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="40">
         <f>D12</f>
         <v>0.79166666666666663</v>
@@ -2651,8 +2684,8 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1">
-      <c r="B57" s="104"/>
-      <c r="C57" s="105"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="17"/>
       <c r="E57" s="46" t="s">
         <v>33</v>
@@ -2667,8 +2700,8 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1">
-      <c r="B58" s="104"/>
-      <c r="C58" s="105"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="68"/>
       <c r="D58" s="22"/>
       <c r="E58" s="47" t="s">
         <v>34</v>
@@ -2683,8 +2716,8 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1">
-      <c r="B59" s="104"/>
-      <c r="C59" s="105"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="17"/>
       <c r="E59" s="46" t="s">
         <v>35</v>
@@ -2699,8 +2732,8 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1">
-      <c r="B60" s="104"/>
-      <c r="C60" s="105"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="31"/>
       <c r="E60" s="47"/>
       <c r="F60" s="32"/>
@@ -2711,8 +2744,8 @@
       <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1">
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="36"/>
       <c r="E61" s="46"/>
       <c r="F61" s="36"/>
@@ -2727,8 +2760,8 @@
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1">
-      <c r="B62" s="106"/>
-      <c r="C62" s="107"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
       <c r="D62" s="31"/>
       <c r="E62" s="47"/>
       <c r="F62" s="32"/>
@@ -2739,81 +2772,81 @@
       <c r="K62" s="48"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="B63" s="99"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="100"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="100"/>
-      <c r="K63" s="101"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="73"/>
     </row>
     <row r="65" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B65" s="71" t="s">
+      <c r="B65" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="90"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="61"/>
     </row>
     <row r="66" spans="2:11" customFormat="1">
-      <c r="B66" s="91"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="92"/>
-      <c r="K66" s="93"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="64"/>
     </row>
     <row r="67" spans="2:11" customFormat="1">
-      <c r="B67" s="108">
+      <c r="B67" s="92">
         <f>J54+3</f>
         <v>46006</v>
       </c>
-      <c r="C67" s="109"/>
-      <c r="D67" s="110">
+      <c r="C67" s="93"/>
+      <c r="D67" s="90">
         <f>B67+1</f>
         <v>46007</v>
       </c>
-      <c r="E67" s="111"/>
-      <c r="F67" s="112">
+      <c r="E67" s="91"/>
+      <c r="F67" s="88">
         <f>D67+1</f>
         <v>46008</v>
       </c>
-      <c r="G67" s="113"/>
-      <c r="H67" s="114">
+      <c r="G67" s="89"/>
+      <c r="H67" s="86">
         <f>F67+1</f>
         <v>46009</v>
       </c>
-      <c r="I67" s="115"/>
-      <c r="J67" s="116">
+      <c r="I67" s="87"/>
+      <c r="J67" s="84">
         <f>H67+1</f>
         <v>46010</v>
       </c>
-      <c r="K67" s="117"/>
+      <c r="K67" s="85"/>
     </row>
     <row r="68" spans="2:11" customFormat="1">
-      <c r="B68" s="63"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="96"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="97"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="98"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="75"/>
     </row>
     <row r="69" spans="2:11" customFormat="1">
       <c r="B69" s="39">
@@ -2915,81 +2948,81 @@
       <c r="K75" s="48"/>
     </row>
     <row r="76" spans="2:11" customFormat="1">
-      <c r="B76" s="99"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="100"/>
-      <c r="E76" s="100"/>
-      <c r="F76" s="100"/>
-      <c r="G76" s="100"/>
-      <c r="H76" s="100"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="100"/>
-      <c r="K76" s="101"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="73"/>
     </row>
     <row r="78" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B78" s="71" t="s">
+      <c r="B78" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="89"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="89"/>
-      <c r="H78" s="89"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="89"/>
-      <c r="K78" s="90"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="61"/>
     </row>
     <row r="79" spans="2:11" customFormat="1">
-      <c r="B79" s="91"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="92"/>
-      <c r="F79" s="92"/>
-      <c r="G79" s="92"/>
-      <c r="H79" s="92"/>
-      <c r="I79" s="92"/>
-      <c r="J79" s="92"/>
-      <c r="K79" s="93"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="64"/>
     </row>
     <row r="80" spans="2:11" customFormat="1">
-      <c r="B80" s="108">
+      <c r="B80" s="92">
         <f>J67+3</f>
         <v>46013</v>
       </c>
-      <c r="C80" s="109"/>
-      <c r="D80" s="110">
+      <c r="C80" s="93"/>
+      <c r="D80" s="90">
         <f>B80+1</f>
         <v>46014</v>
       </c>
-      <c r="E80" s="111"/>
-      <c r="F80" s="112">
+      <c r="E80" s="91"/>
+      <c r="F80" s="88">
         <f>D80+1</f>
         <v>46015</v>
       </c>
-      <c r="G80" s="113"/>
-      <c r="H80" s="114">
+      <c r="G80" s="89"/>
+      <c r="H80" s="86">
         <f>F80+1</f>
         <v>46016</v>
       </c>
-      <c r="I80" s="115"/>
-      <c r="J80" s="116">
+      <c r="I80" s="87"/>
+      <c r="J80" s="84">
         <f>H80+1</f>
         <v>46017</v>
       </c>
-      <c r="K80" s="117"/>
+      <c r="K80" s="85"/>
     </row>
     <row r="81" spans="2:11" customFormat="1">
-      <c r="B81" s="63"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="95"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="97"/>
-      <c r="J81" s="68"/>
-      <c r="K81" s="98"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="77"/>
+      <c r="J81" s="74"/>
+      <c r="K81" s="75"/>
     </row>
     <row r="82" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B82" s="39">
@@ -3002,167 +3035,167 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E82" s="43"/>
-      <c r="F82" s="102" t="s">
+      <c r="F82" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="103"/>
-      <c r="H82" s="102" t="s">
+      <c r="G82" s="66"/>
+      <c r="H82" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="103"/>
-      <c r="J82" s="102" t="s">
+      <c r="I82" s="66"/>
+      <c r="J82" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="103"/>
+      <c r="K82" s="66"/>
     </row>
     <row r="83" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
       <c r="D83" s="17"/>
       <c r="E83" s="46"/>
-      <c r="F83" s="104"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="104"/>
-      <c r="I83" s="105"/>
-      <c r="J83" s="104"/>
-      <c r="K83" s="105"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="68"/>
     </row>
     <row r="84" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B84" s="7"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
       <c r="E84" s="47"/>
-      <c r="F84" s="104"/>
-      <c r="G84" s="105"/>
-      <c r="H84" s="104"/>
-      <c r="I84" s="105"/>
-      <c r="J84" s="104"/>
-      <c r="K84" s="105"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="68"/>
     </row>
     <row r="85" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="17"/>
       <c r="E85" s="46"/>
-      <c r="F85" s="104"/>
-      <c r="G85" s="105"/>
-      <c r="H85" s="104"/>
-      <c r="I85" s="105"/>
-      <c r="J85" s="104"/>
-      <c r="K85" s="105"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="68"/>
     </row>
     <row r="86" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B86" s="30"/>
       <c r="C86" s="21"/>
       <c r="D86" s="31"/>
       <c r="E86" s="47"/>
-      <c r="F86" s="104"/>
-      <c r="G86" s="105"/>
-      <c r="H86" s="104"/>
-      <c r="I86" s="105"/>
-      <c r="J86" s="104"/>
-      <c r="K86" s="105"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="68"/>
     </row>
     <row r="87" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B87" s="35"/>
       <c r="C87" s="15"/>
       <c r="D87" s="36"/>
       <c r="E87" s="46"/>
-      <c r="F87" s="104"/>
-      <c r="G87" s="105"/>
-      <c r="H87" s="104"/>
-      <c r="I87" s="105"/>
-      <c r="J87" s="104"/>
-      <c r="K87" s="105"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="68"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="68"/>
     </row>
     <row r="88" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B88" s="30"/>
       <c r="C88" s="21"/>
       <c r="D88" s="31"/>
       <c r="E88" s="47"/>
-      <c r="F88" s="106"/>
-      <c r="G88" s="107"/>
-      <c r="H88" s="106"/>
-      <c r="I88" s="107"/>
-      <c r="J88" s="106"/>
-      <c r="K88" s="107"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="70"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="70"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="70"/>
     </row>
     <row r="89" spans="2:11" customFormat="1">
-      <c r="B89" s="99"/>
-      <c r="C89" s="100"/>
-      <c r="D89" s="100"/>
-      <c r="E89" s="100"/>
-      <c r="F89" s="100"/>
-      <c r="G89" s="100"/>
-      <c r="H89" s="100"/>
-      <c r="I89" s="100"/>
-      <c r="J89" s="100"/>
-      <c r="K89" s="101"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
+      <c r="K89" s="73"/>
     </row>
     <row r="91" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B91" s="71" t="s">
+      <c r="B91" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C91" s="89"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="89"/>
-      <c r="F91" s="89"/>
-      <c r="G91" s="89"/>
-      <c r="H91" s="89"/>
-      <c r="I91" s="89"/>
-      <c r="J91" s="89"/>
-      <c r="K91" s="90"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="61"/>
     </row>
     <row r="92" spans="2:11" customFormat="1">
-      <c r="B92" s="91"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="92"/>
-      <c r="E92" s="92"/>
-      <c r="F92" s="92"/>
-      <c r="G92" s="92"/>
-      <c r="H92" s="92"/>
-      <c r="I92" s="92"/>
-      <c r="J92" s="92"/>
-      <c r="K92" s="93"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="63"/>
+      <c r="H92" s="63"/>
+      <c r="I92" s="63"/>
+      <c r="J92" s="63"/>
+      <c r="K92" s="64"/>
     </row>
     <row r="93" spans="2:11" customFormat="1">
-      <c r="B93" s="108">
+      <c r="B93" s="92">
         <f>J80+3</f>
         <v>46020</v>
       </c>
-      <c r="C93" s="109"/>
-      <c r="D93" s="110">
+      <c r="C93" s="93"/>
+      <c r="D93" s="90">
         <f>B93+1</f>
         <v>46021</v>
       </c>
-      <c r="E93" s="111"/>
-      <c r="F93" s="112">
+      <c r="E93" s="91"/>
+      <c r="F93" s="88">
         <f>D93+1</f>
         <v>46022</v>
       </c>
-      <c r="G93" s="113"/>
-      <c r="H93" s="114">
+      <c r="G93" s="89"/>
+      <c r="H93" s="86">
         <f>F93+1</f>
         <v>46023</v>
       </c>
-      <c r="I93" s="115"/>
-      <c r="J93" s="116">
+      <c r="I93" s="87"/>
+      <c r="J93" s="84">
         <f>H93+1</f>
         <v>46024</v>
       </c>
-      <c r="K93" s="117"/>
+      <c r="K93" s="85"/>
     </row>
     <row r="94" spans="2:11" customFormat="1">
-      <c r="B94" s="63"/>
-      <c r="C94" s="94"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="95"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="96"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="97"/>
-      <c r="J94" s="68"/>
-      <c r="K94" s="98"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="80"/>
+      <c r="E94" s="81"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="79"/>
+      <c r="H94" s="76"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="74"/>
+      <c r="K94" s="75"/>
     </row>
     <row r="95" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B95" s="39">
@@ -3175,177 +3208,177 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E95" s="43"/>
-      <c r="F95" s="102" t="s">
+      <c r="F95" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="103"/>
-      <c r="H95" s="102" t="s">
+      <c r="G95" s="66"/>
+      <c r="H95" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="103"/>
-      <c r="J95" s="102" t="s">
+      <c r="I95" s="66"/>
+      <c r="J95" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="103"/>
+      <c r="K95" s="66"/>
     </row>
     <row r="96" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="17"/>
       <c r="E96" s="46"/>
-      <c r="F96" s="104"/>
-      <c r="G96" s="105"/>
-      <c r="H96" s="104"/>
-      <c r="I96" s="105"/>
-      <c r="J96" s="104"/>
-      <c r="K96" s="105"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="68"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="68"/>
     </row>
     <row r="97" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B97" s="7"/>
       <c r="C97" s="21"/>
       <c r="D97" s="22"/>
       <c r="E97" s="47"/>
-      <c r="F97" s="104"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="104"/>
-      <c r="I97" s="105"/>
-      <c r="J97" s="104"/>
-      <c r="K97" s="105"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="68"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="68"/>
+      <c r="J97" s="67"/>
+      <c r="K97" s="68"/>
     </row>
     <row r="98" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="17"/>
       <c r="E98" s="46"/>
-      <c r="F98" s="104"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="104"/>
-      <c r="I98" s="105"/>
-      <c r="J98" s="104"/>
-      <c r="K98" s="105"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="68"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="68"/>
     </row>
     <row r="99" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B99" s="30"/>
       <c r="C99" s="21"/>
       <c r="D99" s="31"/>
       <c r="E99" s="47"/>
-      <c r="F99" s="104"/>
-      <c r="G99" s="105"/>
-      <c r="H99" s="104"/>
-      <c r="I99" s="105"/>
-      <c r="J99" s="104"/>
-      <c r="K99" s="105"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="67"/>
+      <c r="K99" s="68"/>
     </row>
     <row r="100" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B100" s="35"/>
       <c r="C100" s="15"/>
       <c r="D100" s="36"/>
       <c r="E100" s="46"/>
-      <c r="F100" s="104"/>
-      <c r="G100" s="105"/>
-      <c r="H100" s="104"/>
-      <c r="I100" s="105"/>
-      <c r="J100" s="104"/>
-      <c r="K100" s="105"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="68"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="68"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="68"/>
     </row>
     <row r="101" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B101" s="30"/>
       <c r="C101" s="21"/>
       <c r="D101" s="31"/>
       <c r="E101" s="47"/>
-      <c r="F101" s="106"/>
-      <c r="G101" s="107"/>
-      <c r="H101" s="106"/>
-      <c r="I101" s="107"/>
-      <c r="J101" s="106"/>
-      <c r="K101" s="107"/>
+      <c r="F101" s="69"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="69"/>
+      <c r="I101" s="70"/>
+      <c r="J101" s="69"/>
+      <c r="K101" s="70"/>
     </row>
     <row r="102" spans="2:11" customFormat="1">
-      <c r="B102" s="99"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="100"/>
-      <c r="G102" s="100"/>
-      <c r="H102" s="100"/>
-      <c r="I102" s="100"/>
-      <c r="J102" s="100"/>
-      <c r="K102" s="101"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
+      <c r="K102" s="73"/>
     </row>
     <row r="104" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B104" s="71" t="s">
+      <c r="B104" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="89"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="89"/>
-      <c r="F104" s="89"/>
-      <c r="G104" s="89"/>
-      <c r="H104" s="89"/>
-      <c r="I104" s="89"/>
-      <c r="J104" s="89"/>
-      <c r="K104" s="90"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="60"/>
+      <c r="J104" s="60"/>
+      <c r="K104" s="61"/>
     </row>
     <row r="105" spans="2:11" customFormat="1">
-      <c r="B105" s="91"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="92"/>
-      <c r="G105" s="92"/>
-      <c r="H105" s="92"/>
-      <c r="I105" s="92"/>
-      <c r="J105" s="92"/>
-      <c r="K105" s="93"/>
+      <c r="B105" s="62"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="63"/>
+      <c r="K105" s="64"/>
     </row>
     <row r="106" spans="2:11" customFormat="1">
-      <c r="B106" s="77">
+      <c r="B106" s="139">
         <f>J93+3</f>
         <v>46027</v>
       </c>
-      <c r="C106" s="78"/>
-      <c r="D106" s="79">
+      <c r="C106" s="140"/>
+      <c r="D106" s="141">
         <f>B106+1</f>
         <v>46028</v>
       </c>
-      <c r="E106" s="78"/>
-      <c r="F106" s="80">
+      <c r="E106" s="140"/>
+      <c r="F106" s="142">
         <f>D106+1</f>
         <v>46029</v>
       </c>
-      <c r="G106" s="78"/>
-      <c r="H106" s="81">
+      <c r="G106" s="140"/>
+      <c r="H106" s="143">
         <f>F106+1</f>
         <v>46030</v>
       </c>
-      <c r="I106" s="78"/>
-      <c r="J106" s="82">
+      <c r="I106" s="140"/>
+      <c r="J106" s="144">
         <f>H106+1</f>
         <v>46031</v>
       </c>
-      <c r="K106" s="78"/>
+      <c r="K106" s="140"/>
     </row>
     <row r="107" spans="2:11" customFormat="1">
-      <c r="B107" s="83" t="s">
+      <c r="B107" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="84"/>
-      <c r="D107" s="85" t="s">
+      <c r="C107" s="151"/>
+      <c r="D107" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="84"/>
-      <c r="F107" s="86" t="s">
+      <c r="E107" s="151"/>
+      <c r="F107" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="G107" s="84"/>
-      <c r="H107" s="87" t="s">
+      <c r="G107" s="151"/>
+      <c r="H107" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="I107" s="84"/>
-      <c r="J107" s="88" t="s">
+      <c r="I107" s="151"/>
+      <c r="J107" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="84"/>
+      <c r="K107" s="151"/>
     </row>
     <row r="108" spans="2:11" customFormat="1" ht="26.25">
       <c r="B108" s="39">
@@ -3535,95 +3568,95 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118"/>
-      <c r="B118" s="69"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="70"/>
-      <c r="F118" s="70"/>
-      <c r="G118" s="70"/>
-      <c r="H118" s="70"/>
-      <c r="I118" s="70"/>
-      <c r="J118" s="70"/>
-      <c r="K118" s="64"/>
+      <c r="B118" s="155"/>
+      <c r="C118" s="156"/>
+      <c r="D118" s="156"/>
+      <c r="E118" s="156"/>
+      <c r="F118" s="156"/>
+      <c r="G118" s="156"/>
+      <c r="H118" s="156"/>
+      <c r="I118" s="156"/>
+      <c r="J118" s="156"/>
+      <c r="K118" s="157"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120"/>
-      <c r="B120" s="71" t="s">
+      <c r="B120" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="C120" s="72"/>
-      <c r="D120" s="72"/>
-      <c r="E120" s="72"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="72"/>
-      <c r="H120" s="72"/>
-      <c r="I120" s="72"/>
-      <c r="J120" s="72"/>
-      <c r="K120" s="73"/>
+      <c r="C120" s="145"/>
+      <c r="D120" s="145"/>
+      <c r="E120" s="145"/>
+      <c r="F120" s="145"/>
+      <c r="G120" s="145"/>
+      <c r="H120" s="145"/>
+      <c r="I120" s="145"/>
+      <c r="J120" s="145"/>
+      <c r="K120" s="146"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121"/>
-      <c r="B121" s="74"/>
-      <c r="C121" s="75"/>
-      <c r="D121" s="75"/>
-      <c r="E121" s="75"/>
-      <c r="F121" s="75"/>
-      <c r="G121" s="75"/>
-      <c r="H121" s="75"/>
-      <c r="I121" s="75"/>
-      <c r="J121" s="75"/>
-      <c r="K121" s="76"/>
+      <c r="B121" s="147"/>
+      <c r="C121" s="148"/>
+      <c r="D121" s="148"/>
+      <c r="E121" s="148"/>
+      <c r="F121" s="148"/>
+      <c r="G121" s="148"/>
+      <c r="H121" s="148"/>
+      <c r="I121" s="148"/>
+      <c r="J121" s="148"/>
+      <c r="K121" s="149"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122"/>
-      <c r="B122" s="77">
+      <c r="B122" s="139">
         <f>J106+3</f>
         <v>46034</v>
       </c>
-      <c r="C122" s="78"/>
-      <c r="D122" s="79">
+      <c r="C122" s="140"/>
+      <c r="D122" s="141">
         <f>B122+1</f>
         <v>46035</v>
       </c>
-      <c r="E122" s="78"/>
-      <c r="F122" s="80">
+      <c r="E122" s="140"/>
+      <c r="F122" s="142">
         <f>D122+1</f>
         <v>46036</v>
       </c>
-      <c r="G122" s="78"/>
-      <c r="H122" s="81">
+      <c r="G122" s="140"/>
+      <c r="H122" s="143">
         <f>F122+1</f>
         <v>46037</v>
       </c>
-      <c r="I122" s="78"/>
-      <c r="J122" s="82">
+      <c r="I122" s="140"/>
+      <c r="J122" s="144">
         <f>H122+1</f>
         <v>46038</v>
       </c>
-      <c r="K122" s="78"/>
+      <c r="K122" s="140"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123"/>
-      <c r="B123" s="83" t="s">
+      <c r="B123" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="C123" s="84"/>
-      <c r="D123" s="85" t="s">
+      <c r="C123" s="151"/>
+      <c r="D123" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="E123" s="84"/>
-      <c r="F123" s="86" t="s">
+      <c r="E123" s="151"/>
+      <c r="F123" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="G123" s="84"/>
-      <c r="H123" s="87" t="s">
+      <c r="G123" s="151"/>
+      <c r="H123" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="I123" s="84"/>
-      <c r="J123" s="88" t="s">
+      <c r="I123" s="151"/>
+      <c r="J123" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="K123" s="84"/>
+      <c r="K123" s="151"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124"/>
@@ -3758,85 +3791,85 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131"/>
-      <c r="B131" s="69"/>
-      <c r="C131" s="70"/>
-      <c r="D131" s="70"/>
-      <c r="E131" s="70"/>
-      <c r="F131" s="70"/>
-      <c r="G131" s="70"/>
-      <c r="H131" s="70"/>
-      <c r="I131" s="70"/>
-      <c r="J131" s="70"/>
-      <c r="K131" s="64"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="156"/>
+      <c r="D131" s="156"/>
+      <c r="E131" s="156"/>
+      <c r="F131" s="156"/>
+      <c r="G131" s="156"/>
+      <c r="H131" s="156"/>
+      <c r="I131" s="156"/>
+      <c r="J131" s="156"/>
+      <c r="K131" s="157"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133"/>
-      <c r="B133" s="71" t="s">
+      <c r="B133" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C133" s="72"/>
-      <c r="D133" s="72"/>
-      <c r="E133" s="72"/>
-      <c r="F133" s="72"/>
-      <c r="G133" s="72"/>
-      <c r="H133" s="72"/>
-      <c r="I133" s="72"/>
-      <c r="J133" s="72"/>
-      <c r="K133" s="73"/>
+      <c r="C133" s="145"/>
+      <c r="D133" s="145"/>
+      <c r="E133" s="145"/>
+      <c r="F133" s="145"/>
+      <c r="G133" s="145"/>
+      <c r="H133" s="145"/>
+      <c r="I133" s="145"/>
+      <c r="J133" s="145"/>
+      <c r="K133" s="146"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134"/>
-      <c r="B134" s="74"/>
-      <c r="C134" s="75"/>
-      <c r="D134" s="75"/>
-      <c r="E134" s="75"/>
-      <c r="F134" s="75"/>
-      <c r="G134" s="75"/>
-      <c r="H134" s="75"/>
-      <c r="I134" s="75"/>
-      <c r="J134" s="75"/>
-      <c r="K134" s="76"/>
+      <c r="B134" s="147"/>
+      <c r="C134" s="148"/>
+      <c r="D134" s="148"/>
+      <c r="E134" s="148"/>
+      <c r="F134" s="148"/>
+      <c r="G134" s="148"/>
+      <c r="H134" s="148"/>
+      <c r="I134" s="148"/>
+      <c r="J134" s="148"/>
+      <c r="K134" s="149"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135"/>
-      <c r="B135" s="77">
+      <c r="B135" s="139">
         <f>J122+3</f>
         <v>46041</v>
       </c>
-      <c r="C135" s="78"/>
-      <c r="D135" s="79">
+      <c r="C135" s="140"/>
+      <c r="D135" s="141">
         <f>B135+1</f>
         <v>46042</v>
       </c>
-      <c r="E135" s="78"/>
-      <c r="F135" s="80">
+      <c r="E135" s="140"/>
+      <c r="F135" s="142">
         <f>D135+1</f>
         <v>46043</v>
       </c>
-      <c r="G135" s="78"/>
-      <c r="H135" s="81">
+      <c r="G135" s="140"/>
+      <c r="H135" s="143">
         <f>F135+1</f>
         <v>46044</v>
       </c>
-      <c r="I135" s="78"/>
-      <c r="J135" s="82">
+      <c r="I135" s="140"/>
+      <c r="J135" s="144">
         <f>H135+1</f>
         <v>46045</v>
       </c>
-      <c r="K135" s="78"/>
+      <c r="K135" s="140"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136"/>
-      <c r="B136" s="63"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="64"/>
-      <c r="F136" s="66"/>
-      <c r="G136" s="64"/>
-      <c r="H136" s="67"/>
-      <c r="I136" s="64"/>
-      <c r="J136" s="68"/>
-      <c r="K136" s="64"/>
+      <c r="B136" s="82"/>
+      <c r="C136" s="157"/>
+      <c r="D136" s="80"/>
+      <c r="E136" s="157"/>
+      <c r="F136" s="78"/>
+      <c r="G136" s="157"/>
+      <c r="H136" s="76"/>
+      <c r="I136" s="157"/>
+      <c r="J136" s="74"/>
+      <c r="K136" s="157"/>
     </row>
     <row r="137" spans="1:11" ht="26.25">
       <c r="A137"/>
@@ -3867,7 +3900,9 @@
       <c r="J137" s="44">
         <v>0.79166666666666663</v>
       </c>
-      <c r="K137" s="45"/>
+      <c r="K137" s="45" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138"/>
@@ -3878,11 +3913,17 @@
       <c r="D138" s="17"/>
       <c r="E138" s="46"/>
       <c r="F138" s="17"/>
-      <c r="G138" s="18"/>
+      <c r="G138" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="H138" s="17"/>
-      <c r="I138" s="19"/>
+      <c r="I138" s="19" t="s">
+        <v>113</v>
+      </c>
       <c r="J138" s="20"/>
-      <c r="K138" s="28"/>
+      <c r="K138" s="28" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139"/>
@@ -3897,7 +3938,9 @@
       <c r="H139" s="42"/>
       <c r="I139" s="25"/>
       <c r="J139" s="13"/>
-      <c r="K139" s="45"/>
+      <c r="K139" s="45" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140"/>
@@ -3912,7 +3955,9 @@
       <c r="H140" s="17"/>
       <c r="I140" s="19"/>
       <c r="J140" s="20"/>
-      <c r="K140" s="28"/>
+      <c r="K140" s="28" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141"/>
@@ -3925,9 +3970,11 @@
       <c r="H141" s="33"/>
       <c r="I141" s="25"/>
       <c r="J141" s="34"/>
-      <c r="K141" s="26"/>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="K141" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="26.25">
       <c r="A142"/>
       <c r="B142" s="35"/>
       <c r="C142" s="15"/>
@@ -3938,7 +3985,9 @@
       <c r="H142" s="36"/>
       <c r="I142" s="19"/>
       <c r="J142" s="37"/>
-      <c r="K142" s="28"/>
+      <c r="K142" s="28" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143"/>
@@ -3955,92 +4004,94 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144"/>
-      <c r="B144" s="69"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="70"/>
-      <c r="F144" s="70"/>
-      <c r="G144" s="70"/>
-      <c r="H144" s="70"/>
-      <c r="I144" s="70"/>
-      <c r="J144" s="70"/>
-      <c r="K144" s="64"/>
+      <c r="B144" s="155"/>
+      <c r="C144" s="156"/>
+      <c r="D144" s="156"/>
+      <c r="E144" s="156"/>
+      <c r="F144" s="156"/>
+      <c r="G144" s="156"/>
+      <c r="H144" s="156"/>
+      <c r="I144" s="156"/>
+      <c r="J144" s="156"/>
+      <c r="K144" s="157"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146"/>
-      <c r="B146" s="71" t="s">
+      <c r="B146" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="72"/>
-      <c r="D146" s="72"/>
-      <c r="E146" s="72"/>
-      <c r="F146" s="72"/>
-      <c r="G146" s="72"/>
-      <c r="H146" s="72"/>
-      <c r="I146" s="72"/>
-      <c r="J146" s="72"/>
-      <c r="K146" s="73"/>
+      <c r="C146" s="145"/>
+      <c r="D146" s="145"/>
+      <c r="E146" s="145"/>
+      <c r="F146" s="145"/>
+      <c r="G146" s="145"/>
+      <c r="H146" s="145"/>
+      <c r="I146" s="145"/>
+      <c r="J146" s="145"/>
+      <c r="K146" s="146"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147"/>
-      <c r="B147" s="74"/>
-      <c r="C147" s="75"/>
-      <c r="D147" s="75"/>
-      <c r="E147" s="75"/>
-      <c r="F147" s="75"/>
-      <c r="G147" s="75"/>
-      <c r="H147" s="75"/>
-      <c r="I147" s="75"/>
-      <c r="J147" s="75"/>
-      <c r="K147" s="76"/>
+      <c r="B147" s="147"/>
+      <c r="C147" s="148"/>
+      <c r="D147" s="148"/>
+      <c r="E147" s="148"/>
+      <c r="F147" s="148"/>
+      <c r="G147" s="148"/>
+      <c r="H147" s="148"/>
+      <c r="I147" s="148"/>
+      <c r="J147" s="148"/>
+      <c r="K147" s="149"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148"/>
-      <c r="B148" s="77">
+      <c r="B148" s="139">
         <f>J135+3</f>
         <v>46048</v>
       </c>
-      <c r="C148" s="78"/>
-      <c r="D148" s="79">
+      <c r="C148" s="140"/>
+      <c r="D148" s="141">
         <f>B148+1</f>
         <v>46049</v>
       </c>
-      <c r="E148" s="78"/>
-      <c r="F148" s="80">
+      <c r="E148" s="140"/>
+      <c r="F148" s="142">
         <f>D148+1</f>
         <v>46050</v>
       </c>
-      <c r="G148" s="78"/>
-      <c r="H148" s="81">
+      <c r="G148" s="140"/>
+      <c r="H148" s="143">
         <f>F148+1</f>
         <v>46051</v>
       </c>
-      <c r="I148" s="78"/>
-      <c r="J148" s="82">
+      <c r="I148" s="140"/>
+      <c r="J148" s="144">
         <f>H148+1</f>
         <v>46052</v>
       </c>
-      <c r="K148" s="78"/>
+      <c r="K148" s="140"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149"/>
-      <c r="B149" s="63"/>
-      <c r="C149" s="64"/>
-      <c r="D149" s="65"/>
-      <c r="E149" s="64"/>
-      <c r="F149" s="66"/>
-      <c r="G149" s="64"/>
-      <c r="H149" s="67"/>
-      <c r="I149" s="64"/>
-      <c r="J149" s="68"/>
-      <c r="K149" s="64"/>
+      <c r="B149" s="82"/>
+      <c r="C149" s="157"/>
+      <c r="D149" s="80"/>
+      <c r="E149" s="157"/>
+      <c r="F149" s="78"/>
+      <c r="G149" s="157"/>
+      <c r="H149" s="76"/>
+      <c r="I149" s="157"/>
+      <c r="J149" s="74"/>
+      <c r="K149" s="157"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150"/>
       <c r="B150" s="39">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C150" s="21"/>
+      <c r="C150" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="D150" s="40">
         <v>0.79166666666666663</v>
       </c>
@@ -4061,7 +4112,9 @@
     <row r="151" spans="1:11">
       <c r="A151"/>
       <c r="B151" s="14"/>
-      <c r="C151" s="15"/>
+      <c r="C151" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="D151" s="17"/>
       <c r="E151" s="46"/>
       <c r="F151" s="17"/>
@@ -4074,7 +4127,9 @@
     <row r="152" spans="1:11">
       <c r="A152"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="21"/>
+      <c r="C152" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="D152" s="22"/>
       <c r="E152" s="47"/>
       <c r="F152" s="23"/>
@@ -4084,10 +4139,12 @@
       <c r="J152" s="13"/>
       <c r="K152" s="45"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" ht="39">
       <c r="A153"/>
       <c r="B153" s="14"/>
-      <c r="C153" s="15"/>
+      <c r="C153" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="D153" s="17"/>
       <c r="E153" s="46"/>
       <c r="F153" s="17"/>
@@ -4138,85 +4195,85 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157"/>
-      <c r="B157" s="69"/>
-      <c r="C157" s="70"/>
-      <c r="D157" s="70"/>
-      <c r="E157" s="70"/>
-      <c r="F157" s="70"/>
-      <c r="G157" s="70"/>
-      <c r="H157" s="70"/>
-      <c r="I157" s="70"/>
-      <c r="J157" s="70"/>
-      <c r="K157" s="64"/>
+      <c r="B157" s="155"/>
+      <c r="C157" s="156"/>
+      <c r="D157" s="156"/>
+      <c r="E157" s="156"/>
+      <c r="F157" s="156"/>
+      <c r="G157" s="156"/>
+      <c r="H157" s="156"/>
+      <c r="I157" s="156"/>
+      <c r="J157" s="156"/>
+      <c r="K157" s="157"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159"/>
-      <c r="B159" s="71" t="s">
+      <c r="B159" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C159" s="72"/>
-      <c r="D159" s="72"/>
-      <c r="E159" s="72"/>
-      <c r="F159" s="72"/>
-      <c r="G159" s="72"/>
-      <c r="H159" s="72"/>
-      <c r="I159" s="72"/>
-      <c r="J159" s="72"/>
-      <c r="K159" s="73"/>
+      <c r="C159" s="145"/>
+      <c r="D159" s="145"/>
+      <c r="E159" s="145"/>
+      <c r="F159" s="145"/>
+      <c r="G159" s="145"/>
+      <c r="H159" s="145"/>
+      <c r="I159" s="145"/>
+      <c r="J159" s="145"/>
+      <c r="K159" s="146"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160"/>
-      <c r="B160" s="74"/>
-      <c r="C160" s="75"/>
-      <c r="D160" s="75"/>
-      <c r="E160" s="75"/>
-      <c r="F160" s="75"/>
-      <c r="G160" s="75"/>
-      <c r="H160" s="75"/>
-      <c r="I160" s="75"/>
-      <c r="J160" s="75"/>
-      <c r="K160" s="76"/>
+      <c r="B160" s="147"/>
+      <c r="C160" s="148"/>
+      <c r="D160" s="148"/>
+      <c r="E160" s="148"/>
+      <c r="F160" s="148"/>
+      <c r="G160" s="148"/>
+      <c r="H160" s="148"/>
+      <c r="I160" s="148"/>
+      <c r="J160" s="148"/>
+      <c r="K160" s="149"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161"/>
-      <c r="B161" s="77">
+      <c r="B161" s="139">
         <f>J148+3</f>
         <v>46055</v>
       </c>
-      <c r="C161" s="78"/>
-      <c r="D161" s="79">
+      <c r="C161" s="140"/>
+      <c r="D161" s="141">
         <f>B161+1</f>
         <v>46056</v>
       </c>
-      <c r="E161" s="78"/>
-      <c r="F161" s="80">
+      <c r="E161" s="140"/>
+      <c r="F161" s="142">
         <f>D161+1</f>
         <v>46057</v>
       </c>
-      <c r="G161" s="78"/>
-      <c r="H161" s="81">
+      <c r="G161" s="140"/>
+      <c r="H161" s="143">
         <f>F161+1</f>
         <v>46058</v>
       </c>
-      <c r="I161" s="78"/>
-      <c r="J161" s="82">
+      <c r="I161" s="140"/>
+      <c r="J161" s="144">
         <f>H161+1</f>
         <v>46059</v>
       </c>
-      <c r="K161" s="78"/>
+      <c r="K161" s="140"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162"/>
-      <c r="B162" s="63"/>
-      <c r="C162" s="64"/>
-      <c r="D162" s="65"/>
-      <c r="E162" s="64"/>
-      <c r="F162" s="66"/>
-      <c r="G162" s="64"/>
-      <c r="H162" s="67"/>
-      <c r="I162" s="64"/>
-      <c r="J162" s="68"/>
-      <c r="K162" s="64"/>
+      <c r="B162" s="82"/>
+      <c r="C162" s="157"/>
+      <c r="D162" s="80"/>
+      <c r="E162" s="157"/>
+      <c r="F162" s="78"/>
+      <c r="G162" s="157"/>
+      <c r="H162" s="76"/>
+      <c r="I162" s="157"/>
+      <c r="J162" s="74"/>
+      <c r="K162" s="157"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163"/>
@@ -4321,85 +4378,85 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170"/>
-      <c r="B170" s="69"/>
-      <c r="C170" s="70"/>
-      <c r="D170" s="70"/>
-      <c r="E170" s="70"/>
-      <c r="F170" s="70"/>
-      <c r="G170" s="70"/>
-      <c r="H170" s="70"/>
-      <c r="I170" s="70"/>
-      <c r="J170" s="70"/>
-      <c r="K170" s="64"/>
+      <c r="B170" s="155"/>
+      <c r="C170" s="156"/>
+      <c r="D170" s="156"/>
+      <c r="E170" s="156"/>
+      <c r="F170" s="156"/>
+      <c r="G170" s="156"/>
+      <c r="H170" s="156"/>
+      <c r="I170" s="156"/>
+      <c r="J170" s="156"/>
+      <c r="K170" s="157"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172"/>
-      <c r="B172" s="71" t="s">
+      <c r="B172" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C172" s="72"/>
-      <c r="D172" s="72"/>
-      <c r="E172" s="72"/>
-      <c r="F172" s="72"/>
-      <c r="G172" s="72"/>
-      <c r="H172" s="72"/>
-      <c r="I172" s="72"/>
-      <c r="J172" s="72"/>
-      <c r="K172" s="73"/>
+      <c r="C172" s="145"/>
+      <c r="D172" s="145"/>
+      <c r="E172" s="145"/>
+      <c r="F172" s="145"/>
+      <c r="G172" s="145"/>
+      <c r="H172" s="145"/>
+      <c r="I172" s="145"/>
+      <c r="J172" s="145"/>
+      <c r="K172" s="146"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173"/>
-      <c r="B173" s="74"/>
-      <c r="C173" s="75"/>
-      <c r="D173" s="75"/>
-      <c r="E173" s="75"/>
-      <c r="F173" s="75"/>
-      <c r="G173" s="75"/>
-      <c r="H173" s="75"/>
-      <c r="I173" s="75"/>
-      <c r="J173" s="75"/>
-      <c r="K173" s="76"/>
+      <c r="B173" s="147"/>
+      <c r="C173" s="148"/>
+      <c r="D173" s="148"/>
+      <c r="E173" s="148"/>
+      <c r="F173" s="148"/>
+      <c r="G173" s="148"/>
+      <c r="H173" s="148"/>
+      <c r="I173" s="148"/>
+      <c r="J173" s="148"/>
+      <c r="K173" s="149"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174"/>
-      <c r="B174" s="77">
+      <c r="B174" s="139">
         <f>J161+3</f>
         <v>46062</v>
       </c>
-      <c r="C174" s="78"/>
-      <c r="D174" s="79">
+      <c r="C174" s="140"/>
+      <c r="D174" s="141">
         <f>B174+1</f>
         <v>46063</v>
       </c>
-      <c r="E174" s="78"/>
-      <c r="F174" s="80">
+      <c r="E174" s="140"/>
+      <c r="F174" s="142">
         <f>D174+1</f>
         <v>46064</v>
       </c>
-      <c r="G174" s="78"/>
-      <c r="H174" s="81">
+      <c r="G174" s="140"/>
+      <c r="H174" s="143">
         <f>F174+1</f>
         <v>46065</v>
       </c>
-      <c r="I174" s="78"/>
-      <c r="J174" s="82">
+      <c r="I174" s="140"/>
+      <c r="J174" s="144">
         <f>H174+1</f>
         <v>46066</v>
       </c>
-      <c r="K174" s="78"/>
+      <c r="K174" s="140"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175"/>
-      <c r="B175" s="63"/>
-      <c r="C175" s="64"/>
-      <c r="D175" s="65"/>
-      <c r="E175" s="64"/>
-      <c r="F175" s="66"/>
-      <c r="G175" s="64"/>
-      <c r="H175" s="67"/>
-      <c r="I175" s="64"/>
-      <c r="J175" s="68"/>
-      <c r="K175" s="64"/>
+      <c r="B175" s="82"/>
+      <c r="C175" s="157"/>
+      <c r="D175" s="80"/>
+      <c r="E175" s="157"/>
+      <c r="F175" s="78"/>
+      <c r="G175" s="157"/>
+      <c r="H175" s="76"/>
+      <c r="I175" s="157"/>
+      <c r="J175" s="74"/>
+      <c r="K175" s="157"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176"/>
@@ -4504,85 +4561,85 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183"/>
-      <c r="B183" s="69"/>
-      <c r="C183" s="70"/>
-      <c r="D183" s="70"/>
-      <c r="E183" s="70"/>
-      <c r="F183" s="70"/>
-      <c r="G183" s="70"/>
-      <c r="H183" s="70"/>
-      <c r="I183" s="70"/>
-      <c r="J183" s="70"/>
-      <c r="K183" s="64"/>
+      <c r="B183" s="155"/>
+      <c r="C183" s="156"/>
+      <c r="D183" s="156"/>
+      <c r="E183" s="156"/>
+      <c r="F183" s="156"/>
+      <c r="G183" s="156"/>
+      <c r="H183" s="156"/>
+      <c r="I183" s="156"/>
+      <c r="J183" s="156"/>
+      <c r="K183" s="157"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185"/>
-      <c r="B185" s="71" t="s">
+      <c r="B185" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C185" s="72"/>
-      <c r="D185" s="72"/>
-      <c r="E185" s="72"/>
-      <c r="F185" s="72"/>
-      <c r="G185" s="72"/>
-      <c r="H185" s="72"/>
-      <c r="I185" s="72"/>
-      <c r="J185" s="72"/>
-      <c r="K185" s="73"/>
+      <c r="C185" s="145"/>
+      <c r="D185" s="145"/>
+      <c r="E185" s="145"/>
+      <c r="F185" s="145"/>
+      <c r="G185" s="145"/>
+      <c r="H185" s="145"/>
+      <c r="I185" s="145"/>
+      <c r="J185" s="145"/>
+      <c r="K185" s="146"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186"/>
-      <c r="B186" s="74"/>
-      <c r="C186" s="75"/>
-      <c r="D186" s="75"/>
-      <c r="E186" s="75"/>
-      <c r="F186" s="75"/>
-      <c r="G186" s="75"/>
-      <c r="H186" s="75"/>
-      <c r="I186" s="75"/>
-      <c r="J186" s="75"/>
-      <c r="K186" s="76"/>
+      <c r="B186" s="147"/>
+      <c r="C186" s="148"/>
+      <c r="D186" s="148"/>
+      <c r="E186" s="148"/>
+      <c r="F186" s="148"/>
+      <c r="G186" s="148"/>
+      <c r="H186" s="148"/>
+      <c r="I186" s="148"/>
+      <c r="J186" s="148"/>
+      <c r="K186" s="149"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187"/>
-      <c r="B187" s="77">
+      <c r="B187" s="139">
         <f>J174+3</f>
         <v>46069</v>
       </c>
-      <c r="C187" s="78"/>
-      <c r="D187" s="79">
+      <c r="C187" s="140"/>
+      <c r="D187" s="141">
         <f>B187+1</f>
         <v>46070</v>
       </c>
-      <c r="E187" s="78"/>
-      <c r="F187" s="80">
+      <c r="E187" s="140"/>
+      <c r="F187" s="142">
         <f>D187+1</f>
         <v>46071</v>
       </c>
-      <c r="G187" s="78"/>
-      <c r="H187" s="81">
+      <c r="G187" s="140"/>
+      <c r="H187" s="143">
         <f>F187+1</f>
         <v>46072</v>
       </c>
-      <c r="I187" s="78"/>
-      <c r="J187" s="82">
+      <c r="I187" s="140"/>
+      <c r="J187" s="144">
         <f>H187+1</f>
         <v>46073</v>
       </c>
-      <c r="K187" s="78"/>
+      <c r="K187" s="140"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188"/>
-      <c r="B188" s="63"/>
-      <c r="C188" s="64"/>
-      <c r="D188" s="65"/>
-      <c r="E188" s="64"/>
-      <c r="F188" s="66"/>
-      <c r="G188" s="64"/>
-      <c r="H188" s="67"/>
-      <c r="I188" s="64"/>
-      <c r="J188" s="68"/>
-      <c r="K188" s="64"/>
+      <c r="B188" s="82"/>
+      <c r="C188" s="157"/>
+      <c r="D188" s="80"/>
+      <c r="E188" s="157"/>
+      <c r="F188" s="78"/>
+      <c r="G188" s="157"/>
+      <c r="H188" s="76"/>
+      <c r="I188" s="157"/>
+      <c r="J188" s="74"/>
+      <c r="K188" s="157"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189"/>
@@ -4687,85 +4744,85 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196"/>
-      <c r="B196" s="69"/>
-      <c r="C196" s="70"/>
-      <c r="D196" s="70"/>
-      <c r="E196" s="70"/>
-      <c r="F196" s="70"/>
-      <c r="G196" s="70"/>
-      <c r="H196" s="70"/>
-      <c r="I196" s="70"/>
-      <c r="J196" s="70"/>
-      <c r="K196" s="64"/>
+      <c r="B196" s="155"/>
+      <c r="C196" s="156"/>
+      <c r="D196" s="156"/>
+      <c r="E196" s="156"/>
+      <c r="F196" s="156"/>
+      <c r="G196" s="156"/>
+      <c r="H196" s="156"/>
+      <c r="I196" s="156"/>
+      <c r="J196" s="156"/>
+      <c r="K196" s="157"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198"/>
-      <c r="B198" s="71" t="s">
+      <c r="B198" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C198" s="72"/>
-      <c r="D198" s="72"/>
-      <c r="E198" s="72"/>
-      <c r="F198" s="72"/>
-      <c r="G198" s="72"/>
-      <c r="H198" s="72"/>
-      <c r="I198" s="72"/>
-      <c r="J198" s="72"/>
-      <c r="K198" s="73"/>
+      <c r="C198" s="145"/>
+      <c r="D198" s="145"/>
+      <c r="E198" s="145"/>
+      <c r="F198" s="145"/>
+      <c r="G198" s="145"/>
+      <c r="H198" s="145"/>
+      <c r="I198" s="145"/>
+      <c r="J198" s="145"/>
+      <c r="K198" s="146"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199"/>
-      <c r="B199" s="74"/>
-      <c r="C199" s="75"/>
-      <c r="D199" s="75"/>
-      <c r="E199" s="75"/>
-      <c r="F199" s="75"/>
-      <c r="G199" s="75"/>
-      <c r="H199" s="75"/>
-      <c r="I199" s="75"/>
-      <c r="J199" s="75"/>
-      <c r="K199" s="76"/>
+      <c r="B199" s="147"/>
+      <c r="C199" s="148"/>
+      <c r="D199" s="148"/>
+      <c r="E199" s="148"/>
+      <c r="F199" s="148"/>
+      <c r="G199" s="148"/>
+      <c r="H199" s="148"/>
+      <c r="I199" s="148"/>
+      <c r="J199" s="148"/>
+      <c r="K199" s="149"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200"/>
-      <c r="B200" s="77">
+      <c r="B200" s="139">
         <f>J187+3</f>
         <v>46076</v>
       </c>
-      <c r="C200" s="78"/>
-      <c r="D200" s="79">
+      <c r="C200" s="140"/>
+      <c r="D200" s="141">
         <f>B200+1</f>
         <v>46077</v>
       </c>
-      <c r="E200" s="78"/>
-      <c r="F200" s="80">
+      <c r="E200" s="140"/>
+      <c r="F200" s="142">
         <f>D200+1</f>
         <v>46078</v>
       </c>
-      <c r="G200" s="78"/>
-      <c r="H200" s="81">
+      <c r="G200" s="140"/>
+      <c r="H200" s="143">
         <f>F200+1</f>
         <v>46079</v>
       </c>
-      <c r="I200" s="78"/>
-      <c r="J200" s="82">
+      <c r="I200" s="140"/>
+      <c r="J200" s="144">
         <f>H200+1</f>
         <v>46080</v>
       </c>
-      <c r="K200" s="78"/>
+      <c r="K200" s="140"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201"/>
-      <c r="B201" s="63"/>
-      <c r="C201" s="64"/>
-      <c r="D201" s="65"/>
-      <c r="E201" s="64"/>
-      <c r="F201" s="66"/>
-      <c r="G201" s="64"/>
-      <c r="H201" s="67"/>
-      <c r="I201" s="64"/>
-      <c r="J201" s="68"/>
-      <c r="K201" s="64"/>
+      <c r="B201" s="82"/>
+      <c r="C201" s="157"/>
+      <c r="D201" s="80"/>
+      <c r="E201" s="157"/>
+      <c r="F201" s="78"/>
+      <c r="G201" s="157"/>
+      <c r="H201" s="76"/>
+      <c r="I201" s="157"/>
+      <c r="J201" s="74"/>
+      <c r="K201" s="157"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202"/>
@@ -4870,85 +4927,85 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209"/>
-      <c r="B209" s="69"/>
-      <c r="C209" s="70"/>
-      <c r="D209" s="70"/>
-      <c r="E209" s="70"/>
-      <c r="F209" s="70"/>
-      <c r="G209" s="70"/>
-      <c r="H209" s="70"/>
-      <c r="I209" s="70"/>
-      <c r="J209" s="70"/>
-      <c r="K209" s="64"/>
+      <c r="B209" s="155"/>
+      <c r="C209" s="156"/>
+      <c r="D209" s="156"/>
+      <c r="E209" s="156"/>
+      <c r="F209" s="156"/>
+      <c r="G209" s="156"/>
+      <c r="H209" s="156"/>
+      <c r="I209" s="156"/>
+      <c r="J209" s="156"/>
+      <c r="K209" s="157"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211"/>
-      <c r="B211" s="71" t="s">
+      <c r="B211" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C211" s="72"/>
-      <c r="D211" s="72"/>
-      <c r="E211" s="72"/>
-      <c r="F211" s="72"/>
-      <c r="G211" s="72"/>
-      <c r="H211" s="72"/>
-      <c r="I211" s="72"/>
-      <c r="J211" s="72"/>
-      <c r="K211" s="73"/>
+      <c r="C211" s="145"/>
+      <c r="D211" s="145"/>
+      <c r="E211" s="145"/>
+      <c r="F211" s="145"/>
+      <c r="G211" s="145"/>
+      <c r="H211" s="145"/>
+      <c r="I211" s="145"/>
+      <c r="J211" s="145"/>
+      <c r="K211" s="146"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212"/>
-      <c r="B212" s="74"/>
-      <c r="C212" s="75"/>
-      <c r="D212" s="75"/>
-      <c r="E212" s="75"/>
-      <c r="F212" s="75"/>
-      <c r="G212" s="75"/>
-      <c r="H212" s="75"/>
-      <c r="I212" s="75"/>
-      <c r="J212" s="75"/>
-      <c r="K212" s="76"/>
+      <c r="B212" s="147"/>
+      <c r="C212" s="148"/>
+      <c r="D212" s="148"/>
+      <c r="E212" s="148"/>
+      <c r="F212" s="148"/>
+      <c r="G212" s="148"/>
+      <c r="H212" s="148"/>
+      <c r="I212" s="148"/>
+      <c r="J212" s="148"/>
+      <c r="K212" s="149"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213"/>
-      <c r="B213" s="77">
+      <c r="B213" s="139">
         <f>J200+3</f>
         <v>46083</v>
       </c>
-      <c r="C213" s="78"/>
-      <c r="D213" s="79">
+      <c r="C213" s="140"/>
+      <c r="D213" s="141">
         <f>B213+1</f>
         <v>46084</v>
       </c>
-      <c r="E213" s="78"/>
-      <c r="F213" s="80">
+      <c r="E213" s="140"/>
+      <c r="F213" s="142">
         <f>D213+1</f>
         <v>46085</v>
       </c>
-      <c r="G213" s="78"/>
-      <c r="H213" s="81">
+      <c r="G213" s="140"/>
+      <c r="H213" s="143">
         <f>F213+1</f>
         <v>46086</v>
       </c>
-      <c r="I213" s="78"/>
-      <c r="J213" s="82">
+      <c r="I213" s="140"/>
+      <c r="J213" s="144">
         <f>H213+1</f>
         <v>46087</v>
       </c>
-      <c r="K213" s="78"/>
+      <c r="K213" s="140"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214"/>
-      <c r="B214" s="63"/>
-      <c r="C214" s="64"/>
-      <c r="D214" s="65"/>
-      <c r="E214" s="64"/>
-      <c r="F214" s="66"/>
-      <c r="G214" s="64"/>
-      <c r="H214" s="67"/>
-      <c r="I214" s="64"/>
-      <c r="J214" s="68"/>
-      <c r="K214" s="64"/>
+      <c r="B214" s="82"/>
+      <c r="C214" s="157"/>
+      <c r="D214" s="80"/>
+      <c r="E214" s="157"/>
+      <c r="F214" s="78"/>
+      <c r="G214" s="157"/>
+      <c r="H214" s="76"/>
+      <c r="I214" s="157"/>
+      <c r="J214" s="74"/>
+      <c r="K214" s="157"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215"/>
@@ -5053,85 +5110,85 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222"/>
-      <c r="B222" s="69"/>
-      <c r="C222" s="70"/>
-      <c r="D222" s="70"/>
-      <c r="E222" s="70"/>
-      <c r="F222" s="70"/>
-      <c r="G222" s="70"/>
-      <c r="H222" s="70"/>
-      <c r="I222" s="70"/>
-      <c r="J222" s="70"/>
-      <c r="K222" s="64"/>
+      <c r="B222" s="155"/>
+      <c r="C222" s="156"/>
+      <c r="D222" s="156"/>
+      <c r="E222" s="156"/>
+      <c r="F222" s="156"/>
+      <c r="G222" s="156"/>
+      <c r="H222" s="156"/>
+      <c r="I222" s="156"/>
+      <c r="J222" s="156"/>
+      <c r="K222" s="157"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224"/>
-      <c r="B224" s="71" t="s">
+      <c r="B224" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C224" s="72"/>
-      <c r="D224" s="72"/>
-      <c r="E224" s="72"/>
-      <c r="F224" s="72"/>
-      <c r="G224" s="72"/>
-      <c r="H224" s="72"/>
-      <c r="I224" s="72"/>
-      <c r="J224" s="72"/>
-      <c r="K224" s="73"/>
+      <c r="C224" s="145"/>
+      <c r="D224" s="145"/>
+      <c r="E224" s="145"/>
+      <c r="F224" s="145"/>
+      <c r="G224" s="145"/>
+      <c r="H224" s="145"/>
+      <c r="I224" s="145"/>
+      <c r="J224" s="145"/>
+      <c r="K224" s="146"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225"/>
-      <c r="B225" s="74"/>
-      <c r="C225" s="75"/>
-      <c r="D225" s="75"/>
-      <c r="E225" s="75"/>
-      <c r="F225" s="75"/>
-      <c r="G225" s="75"/>
-      <c r="H225" s="75"/>
-      <c r="I225" s="75"/>
-      <c r="J225" s="75"/>
-      <c r="K225" s="76"/>
+      <c r="B225" s="147"/>
+      <c r="C225" s="148"/>
+      <c r="D225" s="148"/>
+      <c r="E225" s="148"/>
+      <c r="F225" s="148"/>
+      <c r="G225" s="148"/>
+      <c r="H225" s="148"/>
+      <c r="I225" s="148"/>
+      <c r="J225" s="148"/>
+      <c r="K225" s="149"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226"/>
-      <c r="B226" s="77">
+      <c r="B226" s="139">
         <f>J213+3</f>
         <v>46090</v>
       </c>
-      <c r="C226" s="78"/>
-      <c r="D226" s="79">
+      <c r="C226" s="140"/>
+      <c r="D226" s="141">
         <f>B226+1</f>
         <v>46091</v>
       </c>
-      <c r="E226" s="78"/>
-      <c r="F226" s="80">
+      <c r="E226" s="140"/>
+      <c r="F226" s="142">
         <f>D226+1</f>
         <v>46092</v>
       </c>
-      <c r="G226" s="78"/>
-      <c r="H226" s="81">
+      <c r="G226" s="140"/>
+      <c r="H226" s="143">
         <f>F226+1</f>
         <v>46093</v>
       </c>
-      <c r="I226" s="78"/>
-      <c r="J226" s="82">
+      <c r="I226" s="140"/>
+      <c r="J226" s="144">
         <f>H226+1</f>
         <v>46094</v>
       </c>
-      <c r="K226" s="78"/>
+      <c r="K226" s="140"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227"/>
-      <c r="B227" s="63"/>
-      <c r="C227" s="64"/>
-      <c r="D227" s="65"/>
-      <c r="E227" s="64"/>
-      <c r="F227" s="66"/>
-      <c r="G227" s="64"/>
-      <c r="H227" s="67"/>
-      <c r="I227" s="64"/>
-      <c r="J227" s="68"/>
-      <c r="K227" s="64"/>
+      <c r="B227" s="82"/>
+      <c r="C227" s="157"/>
+      <c r="D227" s="80"/>
+      <c r="E227" s="157"/>
+      <c r="F227" s="78"/>
+      <c r="G227" s="157"/>
+      <c r="H227" s="76"/>
+      <c r="I227" s="157"/>
+      <c r="J227" s="74"/>
+      <c r="K227" s="157"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228"/>
@@ -5236,85 +5293,85 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235"/>
-      <c r="B235" s="69"/>
-      <c r="C235" s="70"/>
-      <c r="D235" s="70"/>
-      <c r="E235" s="70"/>
-      <c r="F235" s="70"/>
-      <c r="G235" s="70"/>
-      <c r="H235" s="70"/>
-      <c r="I235" s="70"/>
-      <c r="J235" s="70"/>
-      <c r="K235" s="64"/>
+      <c r="B235" s="155"/>
+      <c r="C235" s="156"/>
+      <c r="D235" s="156"/>
+      <c r="E235" s="156"/>
+      <c r="F235" s="156"/>
+      <c r="G235" s="156"/>
+      <c r="H235" s="156"/>
+      <c r="I235" s="156"/>
+      <c r="J235" s="156"/>
+      <c r="K235" s="157"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237"/>
-      <c r="B237" s="71" t="s">
+      <c r="B237" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C237" s="72"/>
-      <c r="D237" s="72"/>
-      <c r="E237" s="72"/>
-      <c r="F237" s="72"/>
-      <c r="G237" s="72"/>
-      <c r="H237" s="72"/>
-      <c r="I237" s="72"/>
-      <c r="J237" s="72"/>
-      <c r="K237" s="73"/>
+      <c r="C237" s="145"/>
+      <c r="D237" s="145"/>
+      <c r="E237" s="145"/>
+      <c r="F237" s="145"/>
+      <c r="G237" s="145"/>
+      <c r="H237" s="145"/>
+      <c r="I237" s="145"/>
+      <c r="J237" s="145"/>
+      <c r="K237" s="146"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238"/>
-      <c r="B238" s="74"/>
-      <c r="C238" s="75"/>
-      <c r="D238" s="75"/>
-      <c r="E238" s="75"/>
-      <c r="F238" s="75"/>
-      <c r="G238" s="75"/>
-      <c r="H238" s="75"/>
-      <c r="I238" s="75"/>
-      <c r="J238" s="75"/>
-      <c r="K238" s="76"/>
+      <c r="B238" s="147"/>
+      <c r="C238" s="148"/>
+      <c r="D238" s="148"/>
+      <c r="E238" s="148"/>
+      <c r="F238" s="148"/>
+      <c r="G238" s="148"/>
+      <c r="H238" s="148"/>
+      <c r="I238" s="148"/>
+      <c r="J238" s="148"/>
+      <c r="K238" s="149"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239"/>
-      <c r="B239" s="77">
+      <c r="B239" s="139">
         <f>J226+3</f>
         <v>46097</v>
       </c>
-      <c r="C239" s="78"/>
-      <c r="D239" s="79">
+      <c r="C239" s="140"/>
+      <c r="D239" s="141">
         <f>B239+1</f>
         <v>46098</v>
       </c>
-      <c r="E239" s="78"/>
-      <c r="F239" s="80">
+      <c r="E239" s="140"/>
+      <c r="F239" s="142">
         <f>D239+1</f>
         <v>46099</v>
       </c>
-      <c r="G239" s="78"/>
-      <c r="H239" s="81">
+      <c r="G239" s="140"/>
+      <c r="H239" s="143">
         <f>F239+1</f>
         <v>46100</v>
       </c>
-      <c r="I239" s="78"/>
-      <c r="J239" s="82">
+      <c r="I239" s="140"/>
+      <c r="J239" s="144">
         <f>H239+1</f>
         <v>46101</v>
       </c>
-      <c r="K239" s="78"/>
+      <c r="K239" s="140"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240"/>
-      <c r="B240" s="63"/>
-      <c r="C240" s="64"/>
-      <c r="D240" s="65"/>
-      <c r="E240" s="64"/>
-      <c r="F240" s="66"/>
-      <c r="G240" s="64"/>
-      <c r="H240" s="67"/>
-      <c r="I240" s="64"/>
-      <c r="J240" s="68"/>
-      <c r="K240" s="64"/>
+      <c r="B240" s="82"/>
+      <c r="C240" s="157"/>
+      <c r="D240" s="80"/>
+      <c r="E240" s="157"/>
+      <c r="F240" s="78"/>
+      <c r="G240" s="157"/>
+      <c r="H240" s="76"/>
+      <c r="I240" s="157"/>
+      <c r="J240" s="74"/>
+      <c r="K240" s="157"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241"/>
@@ -5419,85 +5476,85 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248"/>
-      <c r="B248" s="69"/>
-      <c r="C248" s="70"/>
-      <c r="D248" s="70"/>
-      <c r="E248" s="70"/>
-      <c r="F248" s="70"/>
-      <c r="G248" s="70"/>
-      <c r="H248" s="70"/>
-      <c r="I248" s="70"/>
-      <c r="J248" s="70"/>
-      <c r="K248" s="64"/>
+      <c r="B248" s="155"/>
+      <c r="C248" s="156"/>
+      <c r="D248" s="156"/>
+      <c r="E248" s="156"/>
+      <c r="F248" s="156"/>
+      <c r="G248" s="156"/>
+      <c r="H248" s="156"/>
+      <c r="I248" s="156"/>
+      <c r="J248" s="156"/>
+      <c r="K248" s="157"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250"/>
-      <c r="B250" s="71" t="s">
+      <c r="B250" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C250" s="72"/>
-      <c r="D250" s="72"/>
-      <c r="E250" s="72"/>
-      <c r="F250" s="72"/>
-      <c r="G250" s="72"/>
-      <c r="H250" s="72"/>
-      <c r="I250" s="72"/>
-      <c r="J250" s="72"/>
-      <c r="K250" s="73"/>
+      <c r="C250" s="145"/>
+      <c r="D250" s="145"/>
+      <c r="E250" s="145"/>
+      <c r="F250" s="145"/>
+      <c r="G250" s="145"/>
+      <c r="H250" s="145"/>
+      <c r="I250" s="145"/>
+      <c r="J250" s="145"/>
+      <c r="K250" s="146"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251"/>
-      <c r="B251" s="74"/>
-      <c r="C251" s="75"/>
-      <c r="D251" s="75"/>
-      <c r="E251" s="75"/>
-      <c r="F251" s="75"/>
-      <c r="G251" s="75"/>
-      <c r="H251" s="75"/>
-      <c r="I251" s="75"/>
-      <c r="J251" s="75"/>
-      <c r="K251" s="76"/>
+      <c r="B251" s="147"/>
+      <c r="C251" s="148"/>
+      <c r="D251" s="148"/>
+      <c r="E251" s="148"/>
+      <c r="F251" s="148"/>
+      <c r="G251" s="148"/>
+      <c r="H251" s="148"/>
+      <c r="I251" s="148"/>
+      <c r="J251" s="148"/>
+      <c r="K251" s="149"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252"/>
-      <c r="B252" s="77">
+      <c r="B252" s="139">
         <f>J239+3</f>
         <v>46104</v>
       </c>
-      <c r="C252" s="78"/>
-      <c r="D252" s="79">
+      <c r="C252" s="140"/>
+      <c r="D252" s="141">
         <f>B252+1</f>
         <v>46105</v>
       </c>
-      <c r="E252" s="78"/>
-      <c r="F252" s="80">
+      <c r="E252" s="140"/>
+      <c r="F252" s="142">
         <f>D252+1</f>
         <v>46106</v>
       </c>
-      <c r="G252" s="78"/>
-      <c r="H252" s="81">
+      <c r="G252" s="140"/>
+      <c r="H252" s="143">
         <f>F252+1</f>
         <v>46107</v>
       </c>
-      <c r="I252" s="78"/>
-      <c r="J252" s="82">
+      <c r="I252" s="140"/>
+      <c r="J252" s="144">
         <f>H252+1</f>
         <v>46108</v>
       </c>
-      <c r="K252" s="78"/>
+      <c r="K252" s="140"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253"/>
-      <c r="B253" s="63"/>
-      <c r="C253" s="64"/>
-      <c r="D253" s="65"/>
-      <c r="E253" s="64"/>
-      <c r="F253" s="66"/>
-      <c r="G253" s="64"/>
-      <c r="H253" s="67"/>
-      <c r="I253" s="64"/>
-      <c r="J253" s="68"/>
-      <c r="K253" s="64"/>
+      <c r="B253" s="82"/>
+      <c r="C253" s="157"/>
+      <c r="D253" s="80"/>
+      <c r="E253" s="157"/>
+      <c r="F253" s="78"/>
+      <c r="G253" s="157"/>
+      <c r="H253" s="76"/>
+      <c r="I253" s="157"/>
+      <c r="J253" s="74"/>
+      <c r="K253" s="157"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254"/>
@@ -5606,85 +5663,85 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261"/>
-      <c r="B261" s="69"/>
-      <c r="C261" s="70"/>
-      <c r="D261" s="70"/>
-      <c r="E261" s="70"/>
-      <c r="F261" s="70"/>
-      <c r="G261" s="70"/>
-      <c r="H261" s="70"/>
-      <c r="I261" s="70"/>
-      <c r="J261" s="70"/>
-      <c r="K261" s="64"/>
+      <c r="B261" s="155"/>
+      <c r="C261" s="156"/>
+      <c r="D261" s="156"/>
+      <c r="E261" s="156"/>
+      <c r="F261" s="156"/>
+      <c r="G261" s="156"/>
+      <c r="H261" s="156"/>
+      <c r="I261" s="156"/>
+      <c r="J261" s="156"/>
+      <c r="K261" s="157"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263"/>
-      <c r="B263" s="71" t="s">
+      <c r="B263" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C263" s="72"/>
-      <c r="D263" s="72"/>
-      <c r="E263" s="72"/>
-      <c r="F263" s="72"/>
-      <c r="G263" s="72"/>
-      <c r="H263" s="72"/>
-      <c r="I263" s="72"/>
-      <c r="J263" s="72"/>
-      <c r="K263" s="73"/>
+      <c r="C263" s="145"/>
+      <c r="D263" s="145"/>
+      <c r="E263" s="145"/>
+      <c r="F263" s="145"/>
+      <c r="G263" s="145"/>
+      <c r="H263" s="145"/>
+      <c r="I263" s="145"/>
+      <c r="J263" s="145"/>
+      <c r="K263" s="146"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264"/>
-      <c r="B264" s="74"/>
-      <c r="C264" s="75"/>
-      <c r="D264" s="75"/>
-      <c r="E264" s="75"/>
-      <c r="F264" s="75"/>
-      <c r="G264" s="75"/>
-      <c r="H264" s="75"/>
-      <c r="I264" s="75"/>
-      <c r="J264" s="75"/>
-      <c r="K264" s="76"/>
+      <c r="B264" s="147"/>
+      <c r="C264" s="148"/>
+      <c r="D264" s="148"/>
+      <c r="E264" s="148"/>
+      <c r="F264" s="148"/>
+      <c r="G264" s="148"/>
+      <c r="H264" s="148"/>
+      <c r="I264" s="148"/>
+      <c r="J264" s="148"/>
+      <c r="K264" s="149"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265"/>
-      <c r="B265" s="77">
+      <c r="B265" s="139">
         <f>J252+3</f>
         <v>46111</v>
       </c>
-      <c r="C265" s="78"/>
-      <c r="D265" s="79">
+      <c r="C265" s="140"/>
+      <c r="D265" s="141">
         <f>B265+1</f>
         <v>46112</v>
       </c>
-      <c r="E265" s="78"/>
-      <c r="F265" s="80">
+      <c r="E265" s="140"/>
+      <c r="F265" s="142">
         <f>D265+1</f>
         <v>46113</v>
       </c>
-      <c r="G265" s="78"/>
-      <c r="H265" s="81">
+      <c r="G265" s="140"/>
+      <c r="H265" s="143">
         <f>F265+1</f>
         <v>46114</v>
       </c>
-      <c r="I265" s="78"/>
-      <c r="J265" s="82">
+      <c r="I265" s="140"/>
+      <c r="J265" s="144">
         <f>H265+1</f>
         <v>46115</v>
       </c>
-      <c r="K265" s="78"/>
+      <c r="K265" s="140"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266"/>
-      <c r="B266" s="63"/>
-      <c r="C266" s="64"/>
-      <c r="D266" s="65"/>
-      <c r="E266" s="64"/>
-      <c r="F266" s="66"/>
-      <c r="G266" s="64"/>
-      <c r="H266" s="67"/>
-      <c r="I266" s="64"/>
-      <c r="J266" s="68"/>
-      <c r="K266" s="64"/>
+      <c r="B266" s="82"/>
+      <c r="C266" s="157"/>
+      <c r="D266" s="80"/>
+      <c r="E266" s="157"/>
+      <c r="F266" s="78"/>
+      <c r="G266" s="157"/>
+      <c r="H266" s="76"/>
+      <c r="I266" s="157"/>
+      <c r="J266" s="74"/>
+      <c r="K266" s="157"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267"/>
@@ -5791,85 +5848,85 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274"/>
-      <c r="B274" s="69"/>
-      <c r="C274" s="70"/>
-      <c r="D274" s="70"/>
-      <c r="E274" s="70"/>
-      <c r="F274" s="70"/>
-      <c r="G274" s="70"/>
-      <c r="H274" s="70"/>
-      <c r="I274" s="70"/>
-      <c r="J274" s="70"/>
-      <c r="K274" s="64"/>
+      <c r="B274" s="155"/>
+      <c r="C274" s="156"/>
+      <c r="D274" s="156"/>
+      <c r="E274" s="156"/>
+      <c r="F274" s="156"/>
+      <c r="G274" s="156"/>
+      <c r="H274" s="156"/>
+      <c r="I274" s="156"/>
+      <c r="J274" s="156"/>
+      <c r="K274" s="157"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276"/>
-      <c r="B276" s="71" t="s">
+      <c r="B276" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C276" s="72"/>
-      <c r="D276" s="72"/>
-      <c r="E276" s="72"/>
-      <c r="F276" s="72"/>
-      <c r="G276" s="72"/>
-      <c r="H276" s="72"/>
-      <c r="I276" s="72"/>
-      <c r="J276" s="72"/>
-      <c r="K276" s="73"/>
+      <c r="C276" s="145"/>
+      <c r="D276" s="145"/>
+      <c r="E276" s="145"/>
+      <c r="F276" s="145"/>
+      <c r="G276" s="145"/>
+      <c r="H276" s="145"/>
+      <c r="I276" s="145"/>
+      <c r="J276" s="145"/>
+      <c r="K276" s="146"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277"/>
-      <c r="B277" s="74"/>
-      <c r="C277" s="75"/>
-      <c r="D277" s="75"/>
-      <c r="E277" s="75"/>
-      <c r="F277" s="75"/>
-      <c r="G277" s="75"/>
-      <c r="H277" s="75"/>
-      <c r="I277" s="75"/>
-      <c r="J277" s="75"/>
-      <c r="K277" s="76"/>
+      <c r="B277" s="147"/>
+      <c r="C277" s="148"/>
+      <c r="D277" s="148"/>
+      <c r="E277" s="148"/>
+      <c r="F277" s="148"/>
+      <c r="G277" s="148"/>
+      <c r="H277" s="148"/>
+      <c r="I277" s="148"/>
+      <c r="J277" s="148"/>
+      <c r="K277" s="149"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278"/>
-      <c r="B278" s="77">
+      <c r="B278" s="139">
         <f>J265+3</f>
         <v>46118</v>
       </c>
-      <c r="C278" s="78"/>
-      <c r="D278" s="79">
+      <c r="C278" s="140"/>
+      <c r="D278" s="141">
         <f>B278+1</f>
         <v>46119</v>
       </c>
-      <c r="E278" s="78"/>
-      <c r="F278" s="80">
+      <c r="E278" s="140"/>
+      <c r="F278" s="142">
         <f>D278+1</f>
         <v>46120</v>
       </c>
-      <c r="G278" s="78"/>
-      <c r="H278" s="81">
+      <c r="G278" s="140"/>
+      <c r="H278" s="143">
         <f>F278+1</f>
         <v>46121</v>
       </c>
-      <c r="I278" s="78"/>
-      <c r="J278" s="82">
+      <c r="I278" s="140"/>
+      <c r="J278" s="144">
         <f>H278+1</f>
         <v>46122</v>
       </c>
-      <c r="K278" s="78"/>
+      <c r="K278" s="140"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279"/>
-      <c r="B279" s="63"/>
-      <c r="C279" s="64"/>
-      <c r="D279" s="65"/>
-      <c r="E279" s="64"/>
-      <c r="F279" s="66"/>
-      <c r="G279" s="64"/>
-      <c r="H279" s="67"/>
-      <c r="I279" s="64"/>
-      <c r="J279" s="68"/>
-      <c r="K279" s="64"/>
+      <c r="B279" s="82"/>
+      <c r="C279" s="157"/>
+      <c r="D279" s="80"/>
+      <c r="E279" s="157"/>
+      <c r="F279" s="78"/>
+      <c r="G279" s="157"/>
+      <c r="H279" s="76"/>
+      <c r="I279" s="157"/>
+      <c r="J279" s="74"/>
+      <c r="K279" s="157"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280"/>
@@ -5974,85 +6031,85 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287"/>
-      <c r="B287" s="69"/>
-      <c r="C287" s="70"/>
-      <c r="D287" s="70"/>
-      <c r="E287" s="70"/>
-      <c r="F287" s="70"/>
-      <c r="G287" s="70"/>
-      <c r="H287" s="70"/>
-      <c r="I287" s="70"/>
-      <c r="J287" s="70"/>
-      <c r="K287" s="64"/>
+      <c r="B287" s="155"/>
+      <c r="C287" s="156"/>
+      <c r="D287" s="156"/>
+      <c r="E287" s="156"/>
+      <c r="F287" s="156"/>
+      <c r="G287" s="156"/>
+      <c r="H287" s="156"/>
+      <c r="I287" s="156"/>
+      <c r="J287" s="156"/>
+      <c r="K287" s="157"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289"/>
-      <c r="B289" s="71" t="s">
+      <c r="B289" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C289" s="72"/>
-      <c r="D289" s="72"/>
-      <c r="E289" s="72"/>
-      <c r="F289" s="72"/>
-      <c r="G289" s="72"/>
-      <c r="H289" s="72"/>
-      <c r="I289" s="72"/>
-      <c r="J289" s="72"/>
-      <c r="K289" s="73"/>
+      <c r="C289" s="145"/>
+      <c r="D289" s="145"/>
+      <c r="E289" s="145"/>
+      <c r="F289" s="145"/>
+      <c r="G289" s="145"/>
+      <c r="H289" s="145"/>
+      <c r="I289" s="145"/>
+      <c r="J289" s="145"/>
+      <c r="K289" s="146"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290"/>
-      <c r="B290" s="74"/>
-      <c r="C290" s="75"/>
-      <c r="D290" s="75"/>
-      <c r="E290" s="75"/>
-      <c r="F290" s="75"/>
-      <c r="G290" s="75"/>
-      <c r="H290" s="75"/>
-      <c r="I290" s="75"/>
-      <c r="J290" s="75"/>
-      <c r="K290" s="76"/>
+      <c r="B290" s="147"/>
+      <c r="C290" s="148"/>
+      <c r="D290" s="148"/>
+      <c r="E290" s="148"/>
+      <c r="F290" s="148"/>
+      <c r="G290" s="148"/>
+      <c r="H290" s="148"/>
+      <c r="I290" s="148"/>
+      <c r="J290" s="148"/>
+      <c r="K290" s="149"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291"/>
-      <c r="B291" s="77">
+      <c r="B291" s="139">
         <f>J278+3</f>
         <v>46125</v>
       </c>
-      <c r="C291" s="78"/>
-      <c r="D291" s="79">
+      <c r="C291" s="140"/>
+      <c r="D291" s="141">
         <f>B291+1</f>
         <v>46126</v>
       </c>
-      <c r="E291" s="78"/>
-      <c r="F291" s="80">
+      <c r="E291" s="140"/>
+      <c r="F291" s="142">
         <f>D291+1</f>
         <v>46127</v>
       </c>
-      <c r="G291" s="78"/>
-      <c r="H291" s="81">
+      <c r="G291" s="140"/>
+      <c r="H291" s="143">
         <f>F291+1</f>
         <v>46128</v>
       </c>
-      <c r="I291" s="78"/>
-      <c r="J291" s="82">
+      <c r="I291" s="140"/>
+      <c r="J291" s="144">
         <f>H291+1</f>
         <v>46129</v>
       </c>
-      <c r="K291" s="78"/>
+      <c r="K291" s="140"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292"/>
-      <c r="B292" s="63"/>
-      <c r="C292" s="64"/>
-      <c r="D292" s="65"/>
-      <c r="E292" s="64"/>
-      <c r="F292" s="66"/>
-      <c r="G292" s="64"/>
-      <c r="H292" s="67"/>
-      <c r="I292" s="64"/>
-      <c r="J292" s="68"/>
-      <c r="K292" s="64"/>
+      <c r="B292" s="82"/>
+      <c r="C292" s="157"/>
+      <c r="D292" s="80"/>
+      <c r="E292" s="157"/>
+      <c r="F292" s="78"/>
+      <c r="G292" s="157"/>
+      <c r="H292" s="76"/>
+      <c r="I292" s="157"/>
+      <c r="J292" s="74"/>
+      <c r="K292" s="157"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293"/>
@@ -6157,85 +6214,85 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300"/>
-      <c r="B300" s="69"/>
-      <c r="C300" s="70"/>
-      <c r="D300" s="70"/>
-      <c r="E300" s="70"/>
-      <c r="F300" s="70"/>
-      <c r="G300" s="70"/>
-      <c r="H300" s="70"/>
-      <c r="I300" s="70"/>
-      <c r="J300" s="70"/>
-      <c r="K300" s="64"/>
+      <c r="B300" s="155"/>
+      <c r="C300" s="156"/>
+      <c r="D300" s="156"/>
+      <c r="E300" s="156"/>
+      <c r="F300" s="156"/>
+      <c r="G300" s="156"/>
+      <c r="H300" s="156"/>
+      <c r="I300" s="156"/>
+      <c r="J300" s="156"/>
+      <c r="K300" s="157"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302"/>
-      <c r="B302" s="71" t="s">
+      <c r="B302" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C302" s="72"/>
-      <c r="D302" s="72"/>
-      <c r="E302" s="72"/>
-      <c r="F302" s="72"/>
-      <c r="G302" s="72"/>
-      <c r="H302" s="72"/>
-      <c r="I302" s="72"/>
-      <c r="J302" s="72"/>
-      <c r="K302" s="73"/>
+      <c r="C302" s="145"/>
+      <c r="D302" s="145"/>
+      <c r="E302" s="145"/>
+      <c r="F302" s="145"/>
+      <c r="G302" s="145"/>
+      <c r="H302" s="145"/>
+      <c r="I302" s="145"/>
+      <c r="J302" s="145"/>
+      <c r="K302" s="146"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303"/>
-      <c r="B303" s="74"/>
-      <c r="C303" s="75"/>
-      <c r="D303" s="75"/>
-      <c r="E303" s="75"/>
-      <c r="F303" s="75"/>
-      <c r="G303" s="75"/>
-      <c r="H303" s="75"/>
-      <c r="I303" s="75"/>
-      <c r="J303" s="75"/>
-      <c r="K303" s="76"/>
+      <c r="B303" s="147"/>
+      <c r="C303" s="148"/>
+      <c r="D303" s="148"/>
+      <c r="E303" s="148"/>
+      <c r="F303" s="148"/>
+      <c r="G303" s="148"/>
+      <c r="H303" s="148"/>
+      <c r="I303" s="148"/>
+      <c r="J303" s="148"/>
+      <c r="K303" s="149"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304"/>
-      <c r="B304" s="77">
+      <c r="B304" s="139">
         <f>J291+3</f>
         <v>46132</v>
       </c>
-      <c r="C304" s="78"/>
-      <c r="D304" s="79">
+      <c r="C304" s="140"/>
+      <c r="D304" s="141">
         <f>B304+1</f>
         <v>46133</v>
       </c>
-      <c r="E304" s="78"/>
-      <c r="F304" s="80">
+      <c r="E304" s="140"/>
+      <c r="F304" s="142">
         <f>D304+1</f>
         <v>46134</v>
       </c>
-      <c r="G304" s="78"/>
-      <c r="H304" s="81">
+      <c r="G304" s="140"/>
+      <c r="H304" s="143">
         <f>F304+1</f>
         <v>46135</v>
       </c>
-      <c r="I304" s="78"/>
-      <c r="J304" s="82">
+      <c r="I304" s="140"/>
+      <c r="J304" s="144">
         <f>H304+1</f>
         <v>46136</v>
       </c>
-      <c r="K304" s="78"/>
+      <c r="K304" s="140"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305"/>
-      <c r="B305" s="63"/>
-      <c r="C305" s="64"/>
-      <c r="D305" s="65"/>
-      <c r="E305" s="64"/>
-      <c r="F305" s="66"/>
-      <c r="G305" s="64"/>
-      <c r="H305" s="67"/>
-      <c r="I305" s="64"/>
-      <c r="J305" s="68"/>
-      <c r="K305" s="64"/>
+      <c r="B305" s="82"/>
+      <c r="C305" s="157"/>
+      <c r="D305" s="80"/>
+      <c r="E305" s="157"/>
+      <c r="F305" s="78"/>
+      <c r="G305" s="157"/>
+      <c r="H305" s="76"/>
+      <c r="I305" s="157"/>
+      <c r="J305" s="74"/>
+      <c r="K305" s="157"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306"/>
@@ -6340,85 +6397,85 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313"/>
-      <c r="B313" s="69"/>
-      <c r="C313" s="70"/>
-      <c r="D313" s="70"/>
-      <c r="E313" s="70"/>
-      <c r="F313" s="70"/>
-      <c r="G313" s="70"/>
-      <c r="H313" s="70"/>
-      <c r="I313" s="70"/>
-      <c r="J313" s="70"/>
-      <c r="K313" s="64"/>
+      <c r="B313" s="155"/>
+      <c r="C313" s="156"/>
+      <c r="D313" s="156"/>
+      <c r="E313" s="156"/>
+      <c r="F313" s="156"/>
+      <c r="G313" s="156"/>
+      <c r="H313" s="156"/>
+      <c r="I313" s="156"/>
+      <c r="J313" s="156"/>
+      <c r="K313" s="157"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315"/>
-      <c r="B315" s="71" t="s">
+      <c r="B315" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C315" s="72"/>
-      <c r="D315" s="72"/>
-      <c r="E315" s="72"/>
-      <c r="F315" s="72"/>
-      <c r="G315" s="72"/>
-      <c r="H315" s="72"/>
-      <c r="I315" s="72"/>
-      <c r="J315" s="72"/>
-      <c r="K315" s="73"/>
+      <c r="C315" s="145"/>
+      <c r="D315" s="145"/>
+      <c r="E315" s="145"/>
+      <c r="F315" s="145"/>
+      <c r="G315" s="145"/>
+      <c r="H315" s="145"/>
+      <c r="I315" s="145"/>
+      <c r="J315" s="145"/>
+      <c r="K315" s="146"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316"/>
-      <c r="B316" s="74"/>
-      <c r="C316" s="75"/>
-      <c r="D316" s="75"/>
-      <c r="E316" s="75"/>
-      <c r="F316" s="75"/>
-      <c r="G316" s="75"/>
-      <c r="H316" s="75"/>
-      <c r="I316" s="75"/>
-      <c r="J316" s="75"/>
-      <c r="K316" s="76"/>
+      <c r="B316" s="147"/>
+      <c r="C316" s="148"/>
+      <c r="D316" s="148"/>
+      <c r="E316" s="148"/>
+      <c r="F316" s="148"/>
+      <c r="G316" s="148"/>
+      <c r="H316" s="148"/>
+      <c r="I316" s="148"/>
+      <c r="J316" s="148"/>
+      <c r="K316" s="149"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317"/>
-      <c r="B317" s="77">
+      <c r="B317" s="139">
         <f>J304+3</f>
         <v>46139</v>
       </c>
-      <c r="C317" s="78"/>
-      <c r="D317" s="79">
+      <c r="C317" s="140"/>
+      <c r="D317" s="141">
         <f>B317+1</f>
         <v>46140</v>
       </c>
-      <c r="E317" s="78"/>
-      <c r="F317" s="80">
+      <c r="E317" s="140"/>
+      <c r="F317" s="142">
         <f>D317+1</f>
         <v>46141</v>
       </c>
-      <c r="G317" s="78"/>
-      <c r="H317" s="81">
+      <c r="G317" s="140"/>
+      <c r="H317" s="143">
         <f>F317+1</f>
         <v>46142</v>
       </c>
-      <c r="I317" s="78"/>
-      <c r="J317" s="82">
+      <c r="I317" s="140"/>
+      <c r="J317" s="144">
         <f>H317+1</f>
         <v>46143</v>
       </c>
-      <c r="K317" s="78"/>
+      <c r="K317" s="140"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318"/>
-      <c r="B318" s="63"/>
-      <c r="C318" s="64"/>
-      <c r="D318" s="65"/>
-      <c r="E318" s="64"/>
-      <c r="F318" s="66"/>
-      <c r="G318" s="64"/>
-      <c r="H318" s="67"/>
-      <c r="I318" s="64"/>
-      <c r="J318" s="68"/>
-      <c r="K318" s="64"/>
+      <c r="B318" s="82"/>
+      <c r="C318" s="157"/>
+      <c r="D318" s="80"/>
+      <c r="E318" s="157"/>
+      <c r="F318" s="78"/>
+      <c r="G318" s="157"/>
+      <c r="H318" s="76"/>
+      <c r="I318" s="157"/>
+      <c r="J318" s="74"/>
+      <c r="K318" s="157"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319"/>
@@ -6523,85 +6580,85 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326"/>
-      <c r="B326" s="69"/>
-      <c r="C326" s="70"/>
-      <c r="D326" s="70"/>
-      <c r="E326" s="70"/>
-      <c r="F326" s="70"/>
-      <c r="G326" s="70"/>
-      <c r="H326" s="70"/>
-      <c r="I326" s="70"/>
-      <c r="J326" s="70"/>
-      <c r="K326" s="64"/>
+      <c r="B326" s="155"/>
+      <c r="C326" s="156"/>
+      <c r="D326" s="156"/>
+      <c r="E326" s="156"/>
+      <c r="F326" s="156"/>
+      <c r="G326" s="156"/>
+      <c r="H326" s="156"/>
+      <c r="I326" s="156"/>
+      <c r="J326" s="156"/>
+      <c r="K326" s="157"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328"/>
-      <c r="B328" s="71" t="s">
+      <c r="B328" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C328" s="72"/>
-      <c r="D328" s="72"/>
-      <c r="E328" s="72"/>
-      <c r="F328" s="72"/>
-      <c r="G328" s="72"/>
-      <c r="H328" s="72"/>
-      <c r="I328" s="72"/>
-      <c r="J328" s="72"/>
-      <c r="K328" s="73"/>
+      <c r="C328" s="145"/>
+      <c r="D328" s="145"/>
+      <c r="E328" s="145"/>
+      <c r="F328" s="145"/>
+      <c r="G328" s="145"/>
+      <c r="H328" s="145"/>
+      <c r="I328" s="145"/>
+      <c r="J328" s="145"/>
+      <c r="K328" s="146"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329"/>
-      <c r="B329" s="74"/>
-      <c r="C329" s="75"/>
-      <c r="D329" s="75"/>
-      <c r="E329" s="75"/>
-      <c r="F329" s="75"/>
-      <c r="G329" s="75"/>
-      <c r="H329" s="75"/>
-      <c r="I329" s="75"/>
-      <c r="J329" s="75"/>
-      <c r="K329" s="76"/>
+      <c r="B329" s="147"/>
+      <c r="C329" s="148"/>
+      <c r="D329" s="148"/>
+      <c r="E329" s="148"/>
+      <c r="F329" s="148"/>
+      <c r="G329" s="148"/>
+      <c r="H329" s="148"/>
+      <c r="I329" s="148"/>
+      <c r="J329" s="148"/>
+      <c r="K329" s="149"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330"/>
-      <c r="B330" s="77">
+      <c r="B330" s="139">
         <f>J317+3</f>
         <v>46146</v>
       </c>
-      <c r="C330" s="78"/>
-      <c r="D330" s="79">
+      <c r="C330" s="140"/>
+      <c r="D330" s="141">
         <f>B330+1</f>
         <v>46147</v>
       </c>
-      <c r="E330" s="78"/>
-      <c r="F330" s="80">
+      <c r="E330" s="140"/>
+      <c r="F330" s="142">
         <f>D330+1</f>
         <v>46148</v>
       </c>
-      <c r="G330" s="78"/>
-      <c r="H330" s="81">
+      <c r="G330" s="140"/>
+      <c r="H330" s="143">
         <f>F330+1</f>
         <v>46149</v>
       </c>
-      <c r="I330" s="78"/>
-      <c r="J330" s="82">
+      <c r="I330" s="140"/>
+      <c r="J330" s="144">
         <f>H330+1</f>
         <v>46150</v>
       </c>
-      <c r="K330" s="78"/>
+      <c r="K330" s="140"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331"/>
-      <c r="B331" s="63"/>
-      <c r="C331" s="64"/>
-      <c r="D331" s="65"/>
-      <c r="E331" s="64"/>
-      <c r="F331" s="66"/>
-      <c r="G331" s="64"/>
-      <c r="H331" s="67"/>
-      <c r="I331" s="64"/>
-      <c r="J331" s="68"/>
-      <c r="K331" s="64"/>
+      <c r="B331" s="82"/>
+      <c r="C331" s="157"/>
+      <c r="D331" s="80"/>
+      <c r="E331" s="157"/>
+      <c r="F331" s="78"/>
+      <c r="G331" s="157"/>
+      <c r="H331" s="76"/>
+      <c r="I331" s="157"/>
+      <c r="J331" s="74"/>
+      <c r="K331" s="157"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332"/>
@@ -6706,19 +6763,318 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339"/>
-      <c r="B339" s="69"/>
-      <c r="C339" s="70"/>
-      <c r="D339" s="70"/>
-      <c r="E339" s="70"/>
-      <c r="F339" s="70"/>
-      <c r="G339" s="70"/>
-      <c r="H339" s="70"/>
-      <c r="I339" s="70"/>
-      <c r="J339" s="70"/>
-      <c r="K339" s="64"/>
+      <c r="B339" s="155"/>
+      <c r="C339" s="156"/>
+      <c r="D339" s="156"/>
+      <c r="E339" s="156"/>
+      <c r="F339" s="156"/>
+      <c r="G339" s="156"/>
+      <c r="H339" s="156"/>
+      <c r="I339" s="156"/>
+      <c r="J339" s="156"/>
+      <c r="K339" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="323">
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="D331:E331"/>
+    <mergeCell ref="F331:G331"/>
+    <mergeCell ref="H331:I331"/>
+    <mergeCell ref="J331:K331"/>
+    <mergeCell ref="B339:K339"/>
+    <mergeCell ref="B328:K329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="D330:E330"/>
+    <mergeCell ref="F330:G330"/>
+    <mergeCell ref="H330:I330"/>
+    <mergeCell ref="J330:K330"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="D318:E318"/>
+    <mergeCell ref="F318:G318"/>
+    <mergeCell ref="H318:I318"/>
+    <mergeCell ref="J318:K318"/>
+    <mergeCell ref="B326:K326"/>
+    <mergeCell ref="B315:K316"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="D317:E317"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="B313:K313"/>
+    <mergeCell ref="B302:K303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="B300:K300"/>
+    <mergeCell ref="B289:K290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="B287:K287"/>
+    <mergeCell ref="B276:K277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="B274:K274"/>
+    <mergeCell ref="B263:K264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="B261:K261"/>
+    <mergeCell ref="B250:K251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="B248:K248"/>
+    <mergeCell ref="B237:K238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="B235:K235"/>
+    <mergeCell ref="B224:K225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="B222:K222"/>
+    <mergeCell ref="B211:K212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="B209:K209"/>
+    <mergeCell ref="B198:K199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="B196:K196"/>
+    <mergeCell ref="B185:K186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="B183:K183"/>
+    <mergeCell ref="B172:K173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="B170:K170"/>
+    <mergeCell ref="B159:K160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B157:K157"/>
+    <mergeCell ref="B146:K147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="B144:K144"/>
+    <mergeCell ref="B133:K134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="B131:K131"/>
+    <mergeCell ref="B120:K121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="B118:K118"/>
+    <mergeCell ref="B104:K105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="H95:I101"/>
+    <mergeCell ref="F95:G101"/>
+    <mergeCell ref="B91:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B89:K89"/>
+    <mergeCell ref="H82:I88"/>
+    <mergeCell ref="F82:G88"/>
+    <mergeCell ref="B78:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B65:K66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B56:C62"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B52:K53"/>
+    <mergeCell ref="B1:C7"/>
+    <mergeCell ref="D1:I6"/>
+    <mergeCell ref="J1:K7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
     <mergeCell ref="B13:K14"/>
     <mergeCell ref="J82:K88"/>
     <mergeCell ref="J95:K101"/>
@@ -6743,305 +7099,6 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B1:C7"/>
-    <mergeCell ref="D1:I6"/>
-    <mergeCell ref="J1:K7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B52:K53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B65:K66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B56:C62"/>
-    <mergeCell ref="B78:K79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B91:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B89:K89"/>
-    <mergeCell ref="H82:I88"/>
-    <mergeCell ref="F82:G88"/>
-    <mergeCell ref="B104:K105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="H95:I101"/>
-    <mergeCell ref="F95:G101"/>
-    <mergeCell ref="B120:K121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="B118:K118"/>
-    <mergeCell ref="B133:K134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="B131:K131"/>
-    <mergeCell ref="B146:K147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="B144:K144"/>
-    <mergeCell ref="B159:K160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B157:K157"/>
-    <mergeCell ref="B172:K173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="B170:K170"/>
-    <mergeCell ref="B185:K186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="B183:K183"/>
-    <mergeCell ref="B198:K199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="B196:K196"/>
-    <mergeCell ref="B211:K212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="B209:K209"/>
-    <mergeCell ref="B224:K225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="B222:K222"/>
-    <mergeCell ref="B237:K238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="B235:K235"/>
-    <mergeCell ref="B250:K251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="F252:G252"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="B248:K248"/>
-    <mergeCell ref="B263:K264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="B261:K261"/>
-    <mergeCell ref="B276:K277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="F278:G278"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="F266:G266"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="B274:K274"/>
-    <mergeCell ref="B289:K290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="B287:K287"/>
-    <mergeCell ref="B302:K303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="B300:K300"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="B313:K313"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="D331:E331"/>
-    <mergeCell ref="F331:G331"/>
-    <mergeCell ref="H331:I331"/>
-    <mergeCell ref="J331:K331"/>
-    <mergeCell ref="B339:K339"/>
-    <mergeCell ref="B328:K329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="D330:E330"/>
-    <mergeCell ref="F330:G330"/>
-    <mergeCell ref="H330:I330"/>
-    <mergeCell ref="J330:K330"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="D318:E318"/>
-    <mergeCell ref="F318:G318"/>
-    <mergeCell ref="H318:I318"/>
-    <mergeCell ref="J318:K318"/>
-    <mergeCell ref="B326:K326"/>
-    <mergeCell ref="B315:K316"/>
-    <mergeCell ref="B317:C317"/>
-    <mergeCell ref="D317:E317"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -373,6 +373,18 @@
   </si>
   <si>
     <t>Ejercicio Grupal productos con paso de objeto por parametro (aplicar descuento)</t>
+  </si>
+  <si>
+    <t>Demo atributos privados</t>
+  </si>
+  <si>
+    <t>Uso de métodos y atributos de clase</t>
+  </si>
+  <si>
+    <t>Uso de métodos estáticos</t>
+  </si>
+  <si>
+    <t>Atributos privados</t>
   </si>
 </sst>
 </file>
@@ -1205,9 +1217,76 @@
     <xf numFmtId="0" fontId="13" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1223,6 +1302,30 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1241,43 +1344,28 @@
     <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,80 +1374,16 @@
     <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1403,65 +1427,53 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1751,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C133" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="C130" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1774,179 +1786,179 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="113" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="128"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="129"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="119"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="129"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="119"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="129"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="119"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="129"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="119"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="129"/>
     </row>
     <row r="7" spans="1:11" ht="18">
       <c r="A7" s="2"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="120"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="130"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="121" t="s">
+      <c r="C8" s="132"/>
+      <c r="D8" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="125" t="s">
+      <c r="E8" s="132"/>
+      <c r="F8" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="126"/>
-      <c r="H8" s="129" t="s">
+      <c r="G8" s="136"/>
+      <c r="H8" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="126"/>
-      <c r="J8" s="130" t="s">
+      <c r="I8" s="136"/>
+      <c r="J8" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="126"/>
+      <c r="K8" s="136"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="128"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="125" t="s">
+      <c r="B10" s="141"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="132"/>
-      <c r="H10" s="129" t="s">
+      <c r="G10" s="142"/>
+      <c r="H10" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="126"/>
-      <c r="J10" s="129" t="s">
+      <c r="I10" s="136"/>
+      <c r="J10" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="126"/>
+      <c r="K10" s="136"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="128"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="138"/>
     </row>
     <row r="12" spans="1:11" ht="2.25" hidden="1" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="160">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="158" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="62">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="60"/>
+      <c r="F12" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="111"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
@@ -1954,71 +1966,71 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="93"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5"/>
-      <c r="B15" s="92">
+      <c r="B15" s="108">
         <v>45978</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="90">
+      <c r="C15" s="109"/>
+      <c r="D15" s="110">
         <f>B15+1</f>
         <v>45979</v>
       </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="88">
+      <c r="E15" s="111"/>
+      <c r="F15" s="112">
         <f>D15+1</f>
         <v>45980</v>
       </c>
-      <c r="G15" s="89"/>
-      <c r="H15" s="86">
+      <c r="G15" s="113"/>
+      <c r="H15" s="114">
         <f>F15+1</f>
         <v>45981</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="84">
+      <c r="I15" s="115"/>
+      <c r="J15" s="116">
         <f>H15+1</f>
         <v>45982</v>
       </c>
-      <c r="K15" s="85"/>
+      <c r="K15" s="117"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="75"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="98"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6"/>
@@ -2128,16 +2140,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="27"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="73"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="101"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2"/>
@@ -2154,72 +2166,72 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="106"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="157"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="109"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="160"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5"/>
-      <c r="B28" s="94">
+      <c r="B28" s="145">
         <f>J15+3</f>
         <v>45985</v>
       </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="96">
+      <c r="C28" s="146"/>
+      <c r="D28" s="147">
         <f>B28+1</f>
         <v>45986</v>
       </c>
-      <c r="E28" s="97"/>
-      <c r="F28" s="98">
+      <c r="E28" s="148"/>
+      <c r="F28" s="149">
         <f>D28+1</f>
         <v>45987</v>
       </c>
-      <c r="G28" s="99"/>
-      <c r="H28" s="100">
+      <c r="G28" s="150"/>
+      <c r="H28" s="151">
         <f>F28+1</f>
         <v>45988</v>
       </c>
-      <c r="I28" s="101"/>
-      <c r="J28" s="102">
+      <c r="I28" s="152"/>
+      <c r="J28" s="153">
         <f>H28+1</f>
         <v>45989</v>
       </c>
-      <c r="K28" s="103"/>
+      <c r="K28" s="154"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="136"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="120"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="6"/>
@@ -2329,16 +2341,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="27"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="73"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="101"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2"/>
@@ -2355,74 +2367,74 @@
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="61"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="90"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="64"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="93"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2"/>
-      <c r="B41" s="92">
+      <c r="B41" s="108">
         <f>J28+3</f>
         <v>45992</v>
       </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="90">
+      <c r="C41" s="109"/>
+      <c r="D41" s="110">
         <f>B41+1</f>
         <v>45993</v>
       </c>
-      <c r="E41" s="91"/>
-      <c r="F41" s="88">
+      <c r="E41" s="111"/>
+      <c r="F41" s="112">
         <f>D41+1</f>
         <v>45994</v>
       </c>
-      <c r="G41" s="89"/>
-      <c r="H41" s="86">
+      <c r="G41" s="113"/>
+      <c r="H41" s="114">
         <f>F41+1</f>
         <v>45995</v>
       </c>
-      <c r="I41" s="87"/>
-      <c r="J41" s="84">
+      <c r="I41" s="115"/>
+      <c r="J41" s="116">
         <f>H41+1</f>
         <v>45996</v>
       </c>
-      <c r="K41" s="85"/>
+      <c r="K41" s="117"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="137" t="s">
+      <c r="B42" s="63"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="138"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="75"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="98"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2"/>
@@ -2560,16 +2572,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="73"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="101"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2"/>
@@ -2585,75 +2597,75 @@
       <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1">
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="61"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="90"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="B53" s="62"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="64"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="93"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="B54" s="92">
+      <c r="B54" s="108">
         <f>J41+3</f>
         <v>45999</v>
       </c>
-      <c r="C54" s="93"/>
-      <c r="D54" s="90">
+      <c r="C54" s="109"/>
+      <c r="D54" s="110">
         <f>B54+1</f>
         <v>46000</v>
       </c>
-      <c r="E54" s="91"/>
-      <c r="F54" s="88">
+      <c r="E54" s="111"/>
+      <c r="F54" s="112">
         <f>D54+1</f>
         <v>46001</v>
       </c>
-      <c r="G54" s="89"/>
-      <c r="H54" s="86">
+      <c r="G54" s="113"/>
+      <c r="H54" s="114">
         <f>F54+1</f>
         <v>46002</v>
       </c>
-      <c r="I54" s="87"/>
-      <c r="J54" s="84">
+      <c r="I54" s="115"/>
+      <c r="J54" s="116">
         <f>H54+1</f>
         <v>46003</v>
       </c>
-      <c r="K54" s="85"/>
+      <c r="K54" s="117"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="B55" s="82"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="75"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="97"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="98"/>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1">
-      <c r="B56" s="65" t="s">
+      <c r="B56" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="66"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="40">
         <f>D12</f>
         <v>0.79166666666666663</v>
@@ -2684,8 +2696,8 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1">
-      <c r="B57" s="67"/>
-      <c r="C57" s="68"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="105"/>
       <c r="D57" s="17"/>
       <c r="E57" s="46" t="s">
         <v>33</v>
@@ -2700,8 +2712,8 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1">
-      <c r="B58" s="67"/>
-      <c r="C58" s="68"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="105"/>
       <c r="D58" s="22"/>
       <c r="E58" s="47" t="s">
         <v>34</v>
@@ -2716,8 +2728,8 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1">
-      <c r="B59" s="67"/>
-      <c r="C59" s="68"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="105"/>
       <c r="D59" s="17"/>
       <c r="E59" s="46" t="s">
         <v>35</v>
@@ -2732,8 +2744,8 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1">
-      <c r="B60" s="67"/>
-      <c r="C60" s="68"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="105"/>
       <c r="D60" s="31"/>
       <c r="E60" s="47"/>
       <c r="F60" s="32"/>
@@ -2744,8 +2756,8 @@
       <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1">
-      <c r="B61" s="67"/>
-      <c r="C61" s="68"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="105"/>
       <c r="D61" s="36"/>
       <c r="E61" s="46"/>
       <c r="F61" s="36"/>
@@ -2760,8 +2772,8 @@
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1">
-      <c r="B62" s="69"/>
-      <c r="C62" s="70"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="107"/>
       <c r="D62" s="31"/>
       <c r="E62" s="47"/>
       <c r="F62" s="32"/>
@@ -2772,81 +2784,81 @@
       <c r="K62" s="48"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="B63" s="71"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="73"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="100"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="100"/>
+      <c r="K63" s="101"/>
     </row>
     <row r="65" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="61"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="89"/>
+      <c r="K65" s="90"/>
     </row>
     <row r="66" spans="2:11" customFormat="1">
-      <c r="B66" s="62"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="63"/>
-      <c r="K66" s="64"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="93"/>
     </row>
     <row r="67" spans="2:11" customFormat="1">
-      <c r="B67" s="92">
+      <c r="B67" s="108">
         <f>J54+3</f>
         <v>46006</v>
       </c>
-      <c r="C67" s="93"/>
-      <c r="D67" s="90">
+      <c r="C67" s="109"/>
+      <c r="D67" s="110">
         <f>B67+1</f>
         <v>46007</v>
       </c>
-      <c r="E67" s="91"/>
-      <c r="F67" s="88">
+      <c r="E67" s="111"/>
+      <c r="F67" s="112">
         <f>D67+1</f>
         <v>46008</v>
       </c>
-      <c r="G67" s="89"/>
-      <c r="H67" s="86">
+      <c r="G67" s="113"/>
+      <c r="H67" s="114">
         <f>F67+1</f>
         <v>46009</v>
       </c>
-      <c r="I67" s="87"/>
-      <c r="J67" s="84">
+      <c r="I67" s="115"/>
+      <c r="J67" s="116">
         <f>H67+1</f>
         <v>46010</v>
       </c>
-      <c r="K67" s="85"/>
+      <c r="K67" s="117"/>
     </row>
     <row r="68" spans="2:11" customFormat="1">
-      <c r="B68" s="82"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="75"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="98"/>
     </row>
     <row r="69" spans="2:11" customFormat="1">
       <c r="B69" s="39">
@@ -2948,81 +2960,81 @@
       <c r="K75" s="48"/>
     </row>
     <row r="76" spans="2:11" customFormat="1">
-      <c r="B76" s="71"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="72"/>
-      <c r="K76" s="73"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="100"/>
+      <c r="I76" s="100"/>
+      <c r="J76" s="100"/>
+      <c r="K76" s="101"/>
     </row>
     <row r="78" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="61"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="89"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="89"/>
+      <c r="J78" s="89"/>
+      <c r="K78" s="90"/>
     </row>
     <row r="79" spans="2:11" customFormat="1">
-      <c r="B79" s="62"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="63"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="63"/>
-      <c r="K79" s="64"/>
+      <c r="B79" s="91"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="92"/>
+      <c r="I79" s="92"/>
+      <c r="J79" s="92"/>
+      <c r="K79" s="93"/>
     </row>
     <row r="80" spans="2:11" customFormat="1">
-      <c r="B80" s="92">
+      <c r="B80" s="108">
         <f>J67+3</f>
         <v>46013</v>
       </c>
-      <c r="C80" s="93"/>
-      <c r="D80" s="90">
+      <c r="C80" s="109"/>
+      <c r="D80" s="110">
         <f>B80+1</f>
         <v>46014</v>
       </c>
-      <c r="E80" s="91"/>
-      <c r="F80" s="88">
+      <c r="E80" s="111"/>
+      <c r="F80" s="112">
         <f>D80+1</f>
         <v>46015</v>
       </c>
-      <c r="G80" s="89"/>
-      <c r="H80" s="86">
+      <c r="G80" s="113"/>
+      <c r="H80" s="114">
         <f>F80+1</f>
         <v>46016</v>
       </c>
-      <c r="I80" s="87"/>
-      <c r="J80" s="84">
+      <c r="I80" s="115"/>
+      <c r="J80" s="116">
         <f>H80+1</f>
         <v>46017</v>
       </c>
-      <c r="K80" s="85"/>
+      <c r="K80" s="117"/>
     </row>
     <row r="81" spans="2:11" customFormat="1">
-      <c r="B81" s="82"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="81"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="79"/>
-      <c r="H81" s="76"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="74"/>
-      <c r="K81" s="75"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="95"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="96"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="97"/>
+      <c r="J81" s="68"/>
+      <c r="K81" s="98"/>
     </row>
     <row r="82" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B82" s="39">
@@ -3035,167 +3047,167 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E82" s="43"/>
-      <c r="F82" s="65" t="s">
+      <c r="F82" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="66"/>
-      <c r="H82" s="65" t="s">
+      <c r="G82" s="103"/>
+      <c r="H82" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="66"/>
-      <c r="J82" s="65" t="s">
+      <c r="I82" s="103"/>
+      <c r="J82" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="66"/>
+      <c r="K82" s="103"/>
     </row>
     <row r="83" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
       <c r="D83" s="17"/>
       <c r="E83" s="46"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="68"/>
+      <c r="F83" s="104"/>
+      <c r="G83" s="105"/>
+      <c r="H83" s="104"/>
+      <c r="I83" s="105"/>
+      <c r="J83" s="104"/>
+      <c r="K83" s="105"/>
     </row>
     <row r="84" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B84" s="7"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
       <c r="E84" s="47"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="68"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="67"/>
-      <c r="K84" s="68"/>
+      <c r="F84" s="104"/>
+      <c r="G84" s="105"/>
+      <c r="H84" s="104"/>
+      <c r="I84" s="105"/>
+      <c r="J84" s="104"/>
+      <c r="K84" s="105"/>
     </row>
     <row r="85" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="17"/>
       <c r="E85" s="46"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="68"/>
+      <c r="F85" s="104"/>
+      <c r="G85" s="105"/>
+      <c r="H85" s="104"/>
+      <c r="I85" s="105"/>
+      <c r="J85" s="104"/>
+      <c r="K85" s="105"/>
     </row>
     <row r="86" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B86" s="30"/>
       <c r="C86" s="21"/>
       <c r="D86" s="31"/>
       <c r="E86" s="47"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="67"/>
-      <c r="K86" s="68"/>
+      <c r="F86" s="104"/>
+      <c r="G86" s="105"/>
+      <c r="H86" s="104"/>
+      <c r="I86" s="105"/>
+      <c r="J86" s="104"/>
+      <c r="K86" s="105"/>
     </row>
     <row r="87" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B87" s="35"/>
       <c r="C87" s="15"/>
       <c r="D87" s="36"/>
       <c r="E87" s="46"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="68"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="68"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="68"/>
+      <c r="F87" s="104"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="104"/>
+      <c r="I87" s="105"/>
+      <c r="J87" s="104"/>
+      <c r="K87" s="105"/>
     </row>
     <row r="88" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B88" s="30"/>
       <c r="C88" s="21"/>
       <c r="D88" s="31"/>
       <c r="E88" s="47"/>
-      <c r="F88" s="69"/>
-      <c r="G88" s="70"/>
-      <c r="H88" s="69"/>
-      <c r="I88" s="70"/>
-      <c r="J88" s="69"/>
-      <c r="K88" s="70"/>
+      <c r="F88" s="106"/>
+      <c r="G88" s="107"/>
+      <c r="H88" s="106"/>
+      <c r="I88" s="107"/>
+      <c r="J88" s="106"/>
+      <c r="K88" s="107"/>
     </row>
     <row r="89" spans="2:11" customFormat="1">
-      <c r="B89" s="71"/>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="72"/>
-      <c r="K89" s="73"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="100"/>
+      <c r="E89" s="100"/>
+      <c r="F89" s="100"/>
+      <c r="G89" s="100"/>
+      <c r="H89" s="100"/>
+      <c r="I89" s="100"/>
+      <c r="J89" s="100"/>
+      <c r="K89" s="101"/>
     </row>
     <row r="91" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="60"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="61"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="89"/>
+      <c r="E91" s="89"/>
+      <c r="F91" s="89"/>
+      <c r="G91" s="89"/>
+      <c r="H91" s="89"/>
+      <c r="I91" s="89"/>
+      <c r="J91" s="89"/>
+      <c r="K91" s="90"/>
     </row>
     <row r="92" spans="2:11" customFormat="1">
-      <c r="B92" s="62"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="63"/>
-      <c r="H92" s="63"/>
-      <c r="I92" s="63"/>
-      <c r="J92" s="63"/>
-      <c r="K92" s="64"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="92"/>
+      <c r="H92" s="92"/>
+      <c r="I92" s="92"/>
+      <c r="J92" s="92"/>
+      <c r="K92" s="93"/>
     </row>
     <row r="93" spans="2:11" customFormat="1">
-      <c r="B93" s="92">
+      <c r="B93" s="108">
         <f>J80+3</f>
         <v>46020</v>
       </c>
-      <c r="C93" s="93"/>
-      <c r="D93" s="90">
+      <c r="C93" s="109"/>
+      <c r="D93" s="110">
         <f>B93+1</f>
         <v>46021</v>
       </c>
-      <c r="E93" s="91"/>
-      <c r="F93" s="88">
+      <c r="E93" s="111"/>
+      <c r="F93" s="112">
         <f>D93+1</f>
         <v>46022</v>
       </c>
-      <c r="G93" s="89"/>
-      <c r="H93" s="86">
+      <c r="G93" s="113"/>
+      <c r="H93" s="114">
         <f>F93+1</f>
         <v>46023</v>
       </c>
-      <c r="I93" s="87"/>
-      <c r="J93" s="84">
+      <c r="I93" s="115"/>
+      <c r="J93" s="116">
         <f>H93+1</f>
         <v>46024</v>
       </c>
-      <c r="K93" s="85"/>
+      <c r="K93" s="117"/>
     </row>
     <row r="94" spans="2:11" customFormat="1">
-      <c r="B94" s="82"/>
-      <c r="C94" s="83"/>
-      <c r="D94" s="80"/>
-      <c r="E94" s="81"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="79"/>
-      <c r="H94" s="76"/>
-      <c r="I94" s="77"/>
-      <c r="J94" s="74"/>
-      <c r="K94" s="75"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="94"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="95"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="96"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="97"/>
+      <c r="J94" s="68"/>
+      <c r="K94" s="98"/>
     </row>
     <row r="95" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B95" s="39">
@@ -3208,177 +3220,177 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E95" s="43"/>
-      <c r="F95" s="65" t="s">
+      <c r="F95" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="66"/>
-      <c r="H95" s="65" t="s">
+      <c r="G95" s="103"/>
+      <c r="H95" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="66"/>
-      <c r="J95" s="65" t="s">
+      <c r="I95" s="103"/>
+      <c r="J95" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="66"/>
+      <c r="K95" s="103"/>
     </row>
     <row r="96" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="17"/>
       <c r="E96" s="46"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="68"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="68"/>
-      <c r="J96" s="67"/>
-      <c r="K96" s="68"/>
+      <c r="F96" s="104"/>
+      <c r="G96" s="105"/>
+      <c r="H96" s="104"/>
+      <c r="I96" s="105"/>
+      <c r="J96" s="104"/>
+      <c r="K96" s="105"/>
     </row>
     <row r="97" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B97" s="7"/>
       <c r="C97" s="21"/>
       <c r="D97" s="22"/>
       <c r="E97" s="47"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="68"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="68"/>
-      <c r="J97" s="67"/>
-      <c r="K97" s="68"/>
+      <c r="F97" s="104"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="104"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="104"/>
+      <c r="K97" s="105"/>
     </row>
     <row r="98" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="17"/>
       <c r="E98" s="46"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="68"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="68"/>
-      <c r="J98" s="67"/>
-      <c r="K98" s="68"/>
+      <c r="F98" s="104"/>
+      <c r="G98" s="105"/>
+      <c r="H98" s="104"/>
+      <c r="I98" s="105"/>
+      <c r="J98" s="104"/>
+      <c r="K98" s="105"/>
     </row>
     <row r="99" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B99" s="30"/>
       <c r="C99" s="21"/>
       <c r="D99" s="31"/>
       <c r="E99" s="47"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="67"/>
-      <c r="K99" s="68"/>
+      <c r="F99" s="104"/>
+      <c r="G99" s="105"/>
+      <c r="H99" s="104"/>
+      <c r="I99" s="105"/>
+      <c r="J99" s="104"/>
+      <c r="K99" s="105"/>
     </row>
     <row r="100" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B100" s="35"/>
       <c r="C100" s="15"/>
       <c r="D100" s="36"/>
       <c r="E100" s="46"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="68"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="68"/>
-      <c r="J100" s="67"/>
-      <c r="K100" s="68"/>
+      <c r="F100" s="104"/>
+      <c r="G100" s="105"/>
+      <c r="H100" s="104"/>
+      <c r="I100" s="105"/>
+      <c r="J100" s="104"/>
+      <c r="K100" s="105"/>
     </row>
     <row r="101" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B101" s="30"/>
       <c r="C101" s="21"/>
       <c r="D101" s="31"/>
       <c r="E101" s="47"/>
-      <c r="F101" s="69"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="69"/>
-      <c r="I101" s="70"/>
-      <c r="J101" s="69"/>
-      <c r="K101" s="70"/>
+      <c r="F101" s="106"/>
+      <c r="G101" s="107"/>
+      <c r="H101" s="106"/>
+      <c r="I101" s="107"/>
+      <c r="J101" s="106"/>
+      <c r="K101" s="107"/>
     </row>
     <row r="102" spans="2:11" customFormat="1">
-      <c r="B102" s="71"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="72"/>
-      <c r="H102" s="72"/>
-      <c r="I102" s="72"/>
-      <c r="J102" s="72"/>
-      <c r="K102" s="73"/>
+      <c r="B102" s="99"/>
+      <c r="C102" s="100"/>
+      <c r="D102" s="100"/>
+      <c r="E102" s="100"/>
+      <c r="F102" s="100"/>
+      <c r="G102" s="100"/>
+      <c r="H102" s="100"/>
+      <c r="I102" s="100"/>
+      <c r="J102" s="100"/>
+      <c r="K102" s="101"/>
     </row>
     <row r="104" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B104" s="59" t="s">
+      <c r="B104" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="60"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="60"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="60"/>
-      <c r="J104" s="60"/>
-      <c r="K104" s="61"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="89"/>
+      <c r="H104" s="89"/>
+      <c r="I104" s="89"/>
+      <c r="J104" s="89"/>
+      <c r="K104" s="90"/>
     </row>
     <row r="105" spans="2:11" customFormat="1">
-      <c r="B105" s="62"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="63"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="63"/>
-      <c r="J105" s="63"/>
-      <c r="K105" s="64"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="92"/>
+      <c r="H105" s="92"/>
+      <c r="I105" s="92"/>
+      <c r="J105" s="92"/>
+      <c r="K105" s="93"/>
     </row>
     <row r="106" spans="2:11" customFormat="1">
-      <c r="B106" s="139">
+      <c r="B106" s="77">
         <f>J93+3</f>
         <v>46027</v>
       </c>
-      <c r="C106" s="140"/>
-      <c r="D106" s="141">
+      <c r="C106" s="78"/>
+      <c r="D106" s="79">
         <f>B106+1</f>
         <v>46028</v>
       </c>
-      <c r="E106" s="140"/>
-      <c r="F106" s="142">
+      <c r="E106" s="78"/>
+      <c r="F106" s="80">
         <f>D106+1</f>
         <v>46029</v>
       </c>
-      <c r="G106" s="140"/>
-      <c r="H106" s="143">
+      <c r="G106" s="78"/>
+      <c r="H106" s="81">
         <f>F106+1</f>
         <v>46030</v>
       </c>
-      <c r="I106" s="140"/>
-      <c r="J106" s="144">
+      <c r="I106" s="78"/>
+      <c r="J106" s="82">
         <f>H106+1</f>
         <v>46031</v>
       </c>
-      <c r="K106" s="140"/>
+      <c r="K106" s="78"/>
     </row>
     <row r="107" spans="2:11" customFormat="1">
-      <c r="B107" s="150" t="s">
+      <c r="B107" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="151"/>
-      <c r="D107" s="152" t="s">
+      <c r="C107" s="84"/>
+      <c r="D107" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="151"/>
-      <c r="F107" s="137" t="s">
+      <c r="E107" s="84"/>
+      <c r="F107" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G107" s="151"/>
-      <c r="H107" s="153" t="s">
+      <c r="G107" s="84"/>
+      <c r="H107" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I107" s="151"/>
-      <c r="J107" s="154" t="s">
+      <c r="I107" s="84"/>
+      <c r="J107" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="151"/>
+      <c r="K107" s="84"/>
     </row>
     <row r="108" spans="2:11" customFormat="1" ht="26.25">
       <c r="B108" s="39">
@@ -3568,95 +3580,95 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118"/>
-      <c r="B118" s="155"/>
-      <c r="C118" s="156"/>
-      <c r="D118" s="156"/>
-      <c r="E118" s="156"/>
-      <c r="F118" s="156"/>
-      <c r="G118" s="156"/>
-      <c r="H118" s="156"/>
-      <c r="I118" s="156"/>
-      <c r="J118" s="156"/>
-      <c r="K118" s="157"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="70"/>
+      <c r="F118" s="70"/>
+      <c r="G118" s="70"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="70"/>
+      <c r="J118" s="70"/>
+      <c r="K118" s="64"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120"/>
-      <c r="B120" s="59" t="s">
+      <c r="B120" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C120" s="145"/>
-      <c r="D120" s="145"/>
-      <c r="E120" s="145"/>
-      <c r="F120" s="145"/>
-      <c r="G120" s="145"/>
-      <c r="H120" s="145"/>
-      <c r="I120" s="145"/>
-      <c r="J120" s="145"/>
-      <c r="K120" s="146"/>
+      <c r="C120" s="72"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="73"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121"/>
-      <c r="B121" s="147"/>
-      <c r="C121" s="148"/>
-      <c r="D121" s="148"/>
-      <c r="E121" s="148"/>
-      <c r="F121" s="148"/>
-      <c r="G121" s="148"/>
-      <c r="H121" s="148"/>
-      <c r="I121" s="148"/>
-      <c r="J121" s="148"/>
-      <c r="K121" s="149"/>
+      <c r="B121" s="74"/>
+      <c r="C121" s="75"/>
+      <c r="D121" s="75"/>
+      <c r="E121" s="75"/>
+      <c r="F121" s="75"/>
+      <c r="G121" s="75"/>
+      <c r="H121" s="75"/>
+      <c r="I121" s="75"/>
+      <c r="J121" s="75"/>
+      <c r="K121" s="76"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122"/>
-      <c r="B122" s="139">
+      <c r="B122" s="77">
         <f>J106+3</f>
         <v>46034</v>
       </c>
-      <c r="C122" s="140"/>
-      <c r="D122" s="141">
+      <c r="C122" s="78"/>
+      <c r="D122" s="79">
         <f>B122+1</f>
         <v>46035</v>
       </c>
-      <c r="E122" s="140"/>
-      <c r="F122" s="142">
+      <c r="E122" s="78"/>
+      <c r="F122" s="80">
         <f>D122+1</f>
         <v>46036</v>
       </c>
-      <c r="G122" s="140"/>
-      <c r="H122" s="143">
+      <c r="G122" s="78"/>
+      <c r="H122" s="81">
         <f>F122+1</f>
         <v>46037</v>
       </c>
-      <c r="I122" s="140"/>
-      <c r="J122" s="144">
+      <c r="I122" s="78"/>
+      <c r="J122" s="82">
         <f>H122+1</f>
         <v>46038</v>
       </c>
-      <c r="K122" s="140"/>
+      <c r="K122" s="78"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123"/>
-      <c r="B123" s="150" t="s">
+      <c r="B123" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C123" s="151"/>
-      <c r="D123" s="152" t="s">
+      <c r="C123" s="84"/>
+      <c r="D123" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E123" s="151"/>
-      <c r="F123" s="137" t="s">
+      <c r="E123" s="84"/>
+      <c r="F123" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G123" s="151"/>
-      <c r="H123" s="153" t="s">
+      <c r="G123" s="84"/>
+      <c r="H123" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I123" s="151"/>
-      <c r="J123" s="154" t="s">
+      <c r="I123" s="84"/>
+      <c r="J123" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="K123" s="151"/>
+      <c r="K123" s="84"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124"/>
@@ -3791,85 +3803,85 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131"/>
-      <c r="B131" s="155"/>
-      <c r="C131" s="156"/>
-      <c r="D131" s="156"/>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
-      <c r="H131" s="156"/>
-      <c r="I131" s="156"/>
-      <c r="J131" s="156"/>
-      <c r="K131" s="157"/>
+      <c r="B131" s="69"/>
+      <c r="C131" s="70"/>
+      <c r="D131" s="70"/>
+      <c r="E131" s="70"/>
+      <c r="F131" s="70"/>
+      <c r="G131" s="70"/>
+      <c r="H131" s="70"/>
+      <c r="I131" s="70"/>
+      <c r="J131" s="70"/>
+      <c r="K131" s="64"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133"/>
-      <c r="B133" s="59" t="s">
+      <c r="B133" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C133" s="145"/>
-      <c r="D133" s="145"/>
-      <c r="E133" s="145"/>
-      <c r="F133" s="145"/>
-      <c r="G133" s="145"/>
-      <c r="H133" s="145"/>
-      <c r="I133" s="145"/>
-      <c r="J133" s="145"/>
-      <c r="K133" s="146"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="72"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="72"/>
+      <c r="H133" s="72"/>
+      <c r="I133" s="72"/>
+      <c r="J133" s="72"/>
+      <c r="K133" s="73"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134"/>
-      <c r="B134" s="147"/>
-      <c r="C134" s="148"/>
-      <c r="D134" s="148"/>
-      <c r="E134" s="148"/>
-      <c r="F134" s="148"/>
-      <c r="G134" s="148"/>
-      <c r="H134" s="148"/>
-      <c r="I134" s="148"/>
-      <c r="J134" s="148"/>
-      <c r="K134" s="149"/>
+      <c r="B134" s="74"/>
+      <c r="C134" s="75"/>
+      <c r="D134" s="75"/>
+      <c r="E134" s="75"/>
+      <c r="F134" s="75"/>
+      <c r="G134" s="75"/>
+      <c r="H134" s="75"/>
+      <c r="I134" s="75"/>
+      <c r="J134" s="75"/>
+      <c r="K134" s="76"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135"/>
-      <c r="B135" s="139">
+      <c r="B135" s="77">
         <f>J122+3</f>
         <v>46041</v>
       </c>
-      <c r="C135" s="140"/>
-      <c r="D135" s="141">
+      <c r="C135" s="78"/>
+      <c r="D135" s="79">
         <f>B135+1</f>
         <v>46042</v>
       </c>
-      <c r="E135" s="140"/>
-      <c r="F135" s="142">
+      <c r="E135" s="78"/>
+      <c r="F135" s="80">
         <f>D135+1</f>
         <v>46043</v>
       </c>
-      <c r="G135" s="140"/>
-      <c r="H135" s="143">
+      <c r="G135" s="78"/>
+      <c r="H135" s="81">
         <f>F135+1</f>
         <v>46044</v>
       </c>
-      <c r="I135" s="140"/>
-      <c r="J135" s="144">
+      <c r="I135" s="78"/>
+      <c r="J135" s="82">
         <f>H135+1</f>
         <v>46045</v>
       </c>
-      <c r="K135" s="140"/>
+      <c r="K135" s="78"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136"/>
-      <c r="B136" s="82"/>
-      <c r="C136" s="157"/>
-      <c r="D136" s="80"/>
-      <c r="E136" s="157"/>
-      <c r="F136" s="78"/>
-      <c r="G136" s="157"/>
-      <c r="H136" s="76"/>
-      <c r="I136" s="157"/>
-      <c r="J136" s="74"/>
-      <c r="K136" s="157"/>
+      <c r="B136" s="63"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="64"/>
+      <c r="F136" s="66"/>
+      <c r="G136" s="64"/>
+      <c r="H136" s="67"/>
+      <c r="I136" s="64"/>
+      <c r="J136" s="68"/>
+      <c r="K136" s="64"/>
     </row>
     <row r="137" spans="1:11" ht="26.25">
       <c r="A137"/>
@@ -4004,85 +4016,85 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144"/>
-      <c r="B144" s="155"/>
-      <c r="C144" s="156"/>
-      <c r="D144" s="156"/>
-      <c r="E144" s="156"/>
-      <c r="F144" s="156"/>
-      <c r="G144" s="156"/>
-      <c r="H144" s="156"/>
-      <c r="I144" s="156"/>
-      <c r="J144" s="156"/>
-      <c r="K144" s="157"/>
+      <c r="B144" s="69"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="70"/>
+      <c r="F144" s="70"/>
+      <c r="G144" s="70"/>
+      <c r="H144" s="70"/>
+      <c r="I144" s="70"/>
+      <c r="J144" s="70"/>
+      <c r="K144" s="64"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146"/>
-      <c r="B146" s="59" t="s">
+      <c r="B146" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="145"/>
-      <c r="D146" s="145"/>
-      <c r="E146" s="145"/>
-      <c r="F146" s="145"/>
-      <c r="G146" s="145"/>
-      <c r="H146" s="145"/>
-      <c r="I146" s="145"/>
-      <c r="J146" s="145"/>
-      <c r="K146" s="146"/>
+      <c r="C146" s="72"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="72"/>
+      <c r="H146" s="72"/>
+      <c r="I146" s="72"/>
+      <c r="J146" s="72"/>
+      <c r="K146" s="73"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147"/>
-      <c r="B147" s="147"/>
-      <c r="C147" s="148"/>
-      <c r="D147" s="148"/>
-      <c r="E147" s="148"/>
-      <c r="F147" s="148"/>
-      <c r="G147" s="148"/>
-      <c r="H147" s="148"/>
-      <c r="I147" s="148"/>
-      <c r="J147" s="148"/>
-      <c r="K147" s="149"/>
+      <c r="B147" s="74"/>
+      <c r="C147" s="75"/>
+      <c r="D147" s="75"/>
+      <c r="E147" s="75"/>
+      <c r="F147" s="75"/>
+      <c r="G147" s="75"/>
+      <c r="H147" s="75"/>
+      <c r="I147" s="75"/>
+      <c r="J147" s="75"/>
+      <c r="K147" s="76"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148"/>
-      <c r="B148" s="139">
+      <c r="B148" s="77">
         <f>J135+3</f>
         <v>46048</v>
       </c>
-      <c r="C148" s="140"/>
-      <c r="D148" s="141">
+      <c r="C148" s="78"/>
+      <c r="D148" s="79">
         <f>B148+1</f>
         <v>46049</v>
       </c>
-      <c r="E148" s="140"/>
-      <c r="F148" s="142">
+      <c r="E148" s="78"/>
+      <c r="F148" s="80">
         <f>D148+1</f>
         <v>46050</v>
       </c>
-      <c r="G148" s="140"/>
-      <c r="H148" s="143">
+      <c r="G148" s="78"/>
+      <c r="H148" s="81">
         <f>F148+1</f>
         <v>46051</v>
       </c>
-      <c r="I148" s="140"/>
-      <c r="J148" s="144">
+      <c r="I148" s="78"/>
+      <c r="J148" s="82">
         <f>H148+1</f>
         <v>46052</v>
       </c>
-      <c r="K148" s="140"/>
+      <c r="K148" s="78"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149"/>
-      <c r="B149" s="82"/>
-      <c r="C149" s="157"/>
-      <c r="D149" s="80"/>
-      <c r="E149" s="157"/>
-      <c r="F149" s="78"/>
-      <c r="G149" s="157"/>
-      <c r="H149" s="76"/>
-      <c r="I149" s="157"/>
-      <c r="J149" s="74"/>
-      <c r="K149" s="157"/>
+      <c r="B149" s="63"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="65"/>
+      <c r="E149" s="64"/>
+      <c r="F149" s="66"/>
+      <c r="G149" s="64"/>
+      <c r="H149" s="67"/>
+      <c r="I149" s="64"/>
+      <c r="J149" s="68"/>
+      <c r="K149" s="64"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150"/>
@@ -4099,11 +4111,15 @@
       <c r="F150" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G150" s="11"/>
+      <c r="G150" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="H150" s="41">
         <v>0.79166666666666663</v>
       </c>
-      <c r="I150" s="12"/>
+      <c r="I150" s="12" t="s">
+        <v>118</v>
+      </c>
       <c r="J150" s="44">
         <v>0.79166666666666663</v>
       </c>
@@ -4120,7 +4136,9 @@
       <c r="F151" s="17"/>
       <c r="G151" s="18"/>
       <c r="H151" s="17"/>
-      <c r="I151" s="19"/>
+      <c r="I151" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="J151" s="20"/>
       <c r="K151" s="28"/>
     </row>
@@ -4135,7 +4153,9 @@
       <c r="F152" s="23"/>
       <c r="G152" s="24"/>
       <c r="H152" s="42"/>
-      <c r="I152" s="25"/>
+      <c r="I152" s="25" t="s">
+        <v>120</v>
+      </c>
       <c r="J152" s="13"/>
       <c r="K152" s="45"/>
     </row>
@@ -4195,85 +4215,85 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157"/>
-      <c r="B157" s="155"/>
-      <c r="C157" s="156"/>
-      <c r="D157" s="156"/>
-      <c r="E157" s="156"/>
-      <c r="F157" s="156"/>
-      <c r="G157" s="156"/>
-      <c r="H157" s="156"/>
-      <c r="I157" s="156"/>
-      <c r="J157" s="156"/>
-      <c r="K157" s="157"/>
+      <c r="B157" s="69"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="70"/>
+      <c r="E157" s="70"/>
+      <c r="F157" s="70"/>
+      <c r="G157" s="70"/>
+      <c r="H157" s="70"/>
+      <c r="I157" s="70"/>
+      <c r="J157" s="70"/>
+      <c r="K157" s="64"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159"/>
-      <c r="B159" s="59" t="s">
+      <c r="B159" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="C159" s="145"/>
-      <c r="D159" s="145"/>
-      <c r="E159" s="145"/>
-      <c r="F159" s="145"/>
-      <c r="G159" s="145"/>
-      <c r="H159" s="145"/>
-      <c r="I159" s="145"/>
-      <c r="J159" s="145"/>
-      <c r="K159" s="146"/>
+      <c r="C159" s="72"/>
+      <c r="D159" s="72"/>
+      <c r="E159" s="72"/>
+      <c r="F159" s="72"/>
+      <c r="G159" s="72"/>
+      <c r="H159" s="72"/>
+      <c r="I159" s="72"/>
+      <c r="J159" s="72"/>
+      <c r="K159" s="73"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160"/>
-      <c r="B160" s="147"/>
-      <c r="C160" s="148"/>
-      <c r="D160" s="148"/>
-      <c r="E160" s="148"/>
-      <c r="F160" s="148"/>
-      <c r="G160" s="148"/>
-      <c r="H160" s="148"/>
-      <c r="I160" s="148"/>
-      <c r="J160" s="148"/>
-      <c r="K160" s="149"/>
+      <c r="B160" s="74"/>
+      <c r="C160" s="75"/>
+      <c r="D160" s="75"/>
+      <c r="E160" s="75"/>
+      <c r="F160" s="75"/>
+      <c r="G160" s="75"/>
+      <c r="H160" s="75"/>
+      <c r="I160" s="75"/>
+      <c r="J160" s="75"/>
+      <c r="K160" s="76"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161"/>
-      <c r="B161" s="139">
+      <c r="B161" s="77">
         <f>J148+3</f>
         <v>46055</v>
       </c>
-      <c r="C161" s="140"/>
-      <c r="D161" s="141">
+      <c r="C161" s="78"/>
+      <c r="D161" s="79">
         <f>B161+1</f>
         <v>46056</v>
       </c>
-      <c r="E161" s="140"/>
-      <c r="F161" s="142">
+      <c r="E161" s="78"/>
+      <c r="F161" s="80">
         <f>D161+1</f>
         <v>46057</v>
       </c>
-      <c r="G161" s="140"/>
-      <c r="H161" s="143">
+      <c r="G161" s="78"/>
+      <c r="H161" s="81">
         <f>F161+1</f>
         <v>46058</v>
       </c>
-      <c r="I161" s="140"/>
-      <c r="J161" s="144">
+      <c r="I161" s="78"/>
+      <c r="J161" s="82">
         <f>H161+1</f>
         <v>46059</v>
       </c>
-      <c r="K161" s="140"/>
+      <c r="K161" s="78"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162"/>
-      <c r="B162" s="82"/>
-      <c r="C162" s="157"/>
-      <c r="D162" s="80"/>
-      <c r="E162" s="157"/>
-      <c r="F162" s="78"/>
-      <c r="G162" s="157"/>
-      <c r="H162" s="76"/>
-      <c r="I162" s="157"/>
-      <c r="J162" s="74"/>
-      <c r="K162" s="157"/>
+      <c r="B162" s="63"/>
+      <c r="C162" s="64"/>
+      <c r="D162" s="65"/>
+      <c r="E162" s="64"/>
+      <c r="F162" s="66"/>
+      <c r="G162" s="64"/>
+      <c r="H162" s="67"/>
+      <c r="I162" s="64"/>
+      <c r="J162" s="68"/>
+      <c r="K162" s="64"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163"/>
@@ -4378,85 +4398,85 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170"/>
-      <c r="B170" s="155"/>
-      <c r="C170" s="156"/>
-      <c r="D170" s="156"/>
-      <c r="E170" s="156"/>
-      <c r="F170" s="156"/>
-      <c r="G170" s="156"/>
-      <c r="H170" s="156"/>
-      <c r="I170" s="156"/>
-      <c r="J170" s="156"/>
-      <c r="K170" s="157"/>
+      <c r="B170" s="69"/>
+      <c r="C170" s="70"/>
+      <c r="D170" s="70"/>
+      <c r="E170" s="70"/>
+      <c r="F170" s="70"/>
+      <c r="G170" s="70"/>
+      <c r="H170" s="70"/>
+      <c r="I170" s="70"/>
+      <c r="J170" s="70"/>
+      <c r="K170" s="64"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172"/>
-      <c r="B172" s="59" t="s">
+      <c r="B172" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="C172" s="145"/>
-      <c r="D172" s="145"/>
-      <c r="E172" s="145"/>
-      <c r="F172" s="145"/>
-      <c r="G172" s="145"/>
-      <c r="H172" s="145"/>
-      <c r="I172" s="145"/>
-      <c r="J172" s="145"/>
-      <c r="K172" s="146"/>
+      <c r="C172" s="72"/>
+      <c r="D172" s="72"/>
+      <c r="E172" s="72"/>
+      <c r="F172" s="72"/>
+      <c r="G172" s="72"/>
+      <c r="H172" s="72"/>
+      <c r="I172" s="72"/>
+      <c r="J172" s="72"/>
+      <c r="K172" s="73"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173"/>
-      <c r="B173" s="147"/>
-      <c r="C173" s="148"/>
-      <c r="D173" s="148"/>
-      <c r="E173" s="148"/>
-      <c r="F173" s="148"/>
-      <c r="G173" s="148"/>
-      <c r="H173" s="148"/>
-      <c r="I173" s="148"/>
-      <c r="J173" s="148"/>
-      <c r="K173" s="149"/>
+      <c r="B173" s="74"/>
+      <c r="C173" s="75"/>
+      <c r="D173" s="75"/>
+      <c r="E173" s="75"/>
+      <c r="F173" s="75"/>
+      <c r="G173" s="75"/>
+      <c r="H173" s="75"/>
+      <c r="I173" s="75"/>
+      <c r="J173" s="75"/>
+      <c r="K173" s="76"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174"/>
-      <c r="B174" s="139">
+      <c r="B174" s="77">
         <f>J161+3</f>
         <v>46062</v>
       </c>
-      <c r="C174" s="140"/>
-      <c r="D174" s="141">
+      <c r="C174" s="78"/>
+      <c r="D174" s="79">
         <f>B174+1</f>
         <v>46063</v>
       </c>
-      <c r="E174" s="140"/>
-      <c r="F174" s="142">
+      <c r="E174" s="78"/>
+      <c r="F174" s="80">
         <f>D174+1</f>
         <v>46064</v>
       </c>
-      <c r="G174" s="140"/>
-      <c r="H174" s="143">
+      <c r="G174" s="78"/>
+      <c r="H174" s="81">
         <f>F174+1</f>
         <v>46065</v>
       </c>
-      <c r="I174" s="140"/>
-      <c r="J174" s="144">
+      <c r="I174" s="78"/>
+      <c r="J174" s="82">
         <f>H174+1</f>
         <v>46066</v>
       </c>
-      <c r="K174" s="140"/>
+      <c r="K174" s="78"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175"/>
-      <c r="B175" s="82"/>
-      <c r="C175" s="157"/>
-      <c r="D175" s="80"/>
-      <c r="E175" s="157"/>
-      <c r="F175" s="78"/>
-      <c r="G175" s="157"/>
-      <c r="H175" s="76"/>
-      <c r="I175" s="157"/>
-      <c r="J175" s="74"/>
-      <c r="K175" s="157"/>
+      <c r="B175" s="63"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="65"/>
+      <c r="E175" s="64"/>
+      <c r="F175" s="66"/>
+      <c r="G175" s="64"/>
+      <c r="H175" s="67"/>
+      <c r="I175" s="64"/>
+      <c r="J175" s="68"/>
+      <c r="K175" s="64"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176"/>
@@ -4561,85 +4581,85 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183"/>
-      <c r="B183" s="155"/>
-      <c r="C183" s="156"/>
-      <c r="D183" s="156"/>
-      <c r="E183" s="156"/>
-      <c r="F183" s="156"/>
-      <c r="G183" s="156"/>
-      <c r="H183" s="156"/>
-      <c r="I183" s="156"/>
-      <c r="J183" s="156"/>
-      <c r="K183" s="157"/>
+      <c r="B183" s="69"/>
+      <c r="C183" s="70"/>
+      <c r="D183" s="70"/>
+      <c r="E183" s="70"/>
+      <c r="F183" s="70"/>
+      <c r="G183" s="70"/>
+      <c r="H183" s="70"/>
+      <c r="I183" s="70"/>
+      <c r="J183" s="70"/>
+      <c r="K183" s="64"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185"/>
-      <c r="B185" s="59" t="s">
+      <c r="B185" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C185" s="145"/>
-      <c r="D185" s="145"/>
-      <c r="E185" s="145"/>
-      <c r="F185" s="145"/>
-      <c r="G185" s="145"/>
-      <c r="H185" s="145"/>
-      <c r="I185" s="145"/>
-      <c r="J185" s="145"/>
-      <c r="K185" s="146"/>
+      <c r="C185" s="72"/>
+      <c r="D185" s="72"/>
+      <c r="E185" s="72"/>
+      <c r="F185" s="72"/>
+      <c r="G185" s="72"/>
+      <c r="H185" s="72"/>
+      <c r="I185" s="72"/>
+      <c r="J185" s="72"/>
+      <c r="K185" s="73"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186"/>
-      <c r="B186" s="147"/>
-      <c r="C186" s="148"/>
-      <c r="D186" s="148"/>
-      <c r="E186" s="148"/>
-      <c r="F186" s="148"/>
-      <c r="G186" s="148"/>
-      <c r="H186" s="148"/>
-      <c r="I186" s="148"/>
-      <c r="J186" s="148"/>
-      <c r="K186" s="149"/>
+      <c r="B186" s="74"/>
+      <c r="C186" s="75"/>
+      <c r="D186" s="75"/>
+      <c r="E186" s="75"/>
+      <c r="F186" s="75"/>
+      <c r="G186" s="75"/>
+      <c r="H186" s="75"/>
+      <c r="I186" s="75"/>
+      <c r="J186" s="75"/>
+      <c r="K186" s="76"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187"/>
-      <c r="B187" s="139">
+      <c r="B187" s="77">
         <f>J174+3</f>
         <v>46069</v>
       </c>
-      <c r="C187" s="140"/>
-      <c r="D187" s="141">
+      <c r="C187" s="78"/>
+      <c r="D187" s="79">
         <f>B187+1</f>
         <v>46070</v>
       </c>
-      <c r="E187" s="140"/>
-      <c r="F187" s="142">
+      <c r="E187" s="78"/>
+      <c r="F187" s="80">
         <f>D187+1</f>
         <v>46071</v>
       </c>
-      <c r="G187" s="140"/>
-      <c r="H187" s="143">
+      <c r="G187" s="78"/>
+      <c r="H187" s="81">
         <f>F187+1</f>
         <v>46072</v>
       </c>
-      <c r="I187" s="140"/>
-      <c r="J187" s="144">
+      <c r="I187" s="78"/>
+      <c r="J187" s="82">
         <f>H187+1</f>
         <v>46073</v>
       </c>
-      <c r="K187" s="140"/>
+      <c r="K187" s="78"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188"/>
-      <c r="B188" s="82"/>
-      <c r="C188" s="157"/>
-      <c r="D188" s="80"/>
-      <c r="E188" s="157"/>
-      <c r="F188" s="78"/>
-      <c r="G188" s="157"/>
-      <c r="H188" s="76"/>
-      <c r="I188" s="157"/>
-      <c r="J188" s="74"/>
-      <c r="K188" s="157"/>
+      <c r="B188" s="63"/>
+      <c r="C188" s="64"/>
+      <c r="D188" s="65"/>
+      <c r="E188" s="64"/>
+      <c r="F188" s="66"/>
+      <c r="G188" s="64"/>
+      <c r="H188" s="67"/>
+      <c r="I188" s="64"/>
+      <c r="J188" s="68"/>
+      <c r="K188" s="64"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189"/>
@@ -4744,85 +4764,85 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196"/>
-      <c r="B196" s="155"/>
-      <c r="C196" s="156"/>
-      <c r="D196" s="156"/>
-      <c r="E196" s="156"/>
-      <c r="F196" s="156"/>
-      <c r="G196" s="156"/>
-      <c r="H196" s="156"/>
-      <c r="I196" s="156"/>
-      <c r="J196" s="156"/>
-      <c r="K196" s="157"/>
+      <c r="B196" s="69"/>
+      <c r="C196" s="70"/>
+      <c r="D196" s="70"/>
+      <c r="E196" s="70"/>
+      <c r="F196" s="70"/>
+      <c r="G196" s="70"/>
+      <c r="H196" s="70"/>
+      <c r="I196" s="70"/>
+      <c r="J196" s="70"/>
+      <c r="K196" s="64"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198"/>
-      <c r="B198" s="59" t="s">
+      <c r="B198" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C198" s="145"/>
-      <c r="D198" s="145"/>
-      <c r="E198" s="145"/>
-      <c r="F198" s="145"/>
-      <c r="G198" s="145"/>
-      <c r="H198" s="145"/>
-      <c r="I198" s="145"/>
-      <c r="J198" s="145"/>
-      <c r="K198" s="146"/>
+      <c r="C198" s="72"/>
+      <c r="D198" s="72"/>
+      <c r="E198" s="72"/>
+      <c r="F198" s="72"/>
+      <c r="G198" s="72"/>
+      <c r="H198" s="72"/>
+      <c r="I198" s="72"/>
+      <c r="J198" s="72"/>
+      <c r="K198" s="73"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199"/>
-      <c r="B199" s="147"/>
-      <c r="C199" s="148"/>
-      <c r="D199" s="148"/>
-      <c r="E199" s="148"/>
-      <c r="F199" s="148"/>
-      <c r="G199" s="148"/>
-      <c r="H199" s="148"/>
-      <c r="I199" s="148"/>
-      <c r="J199" s="148"/>
-      <c r="K199" s="149"/>
+      <c r="B199" s="74"/>
+      <c r="C199" s="75"/>
+      <c r="D199" s="75"/>
+      <c r="E199" s="75"/>
+      <c r="F199" s="75"/>
+      <c r="G199" s="75"/>
+      <c r="H199" s="75"/>
+      <c r="I199" s="75"/>
+      <c r="J199" s="75"/>
+      <c r="K199" s="76"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200"/>
-      <c r="B200" s="139">
+      <c r="B200" s="77">
         <f>J187+3</f>
         <v>46076</v>
       </c>
-      <c r="C200" s="140"/>
-      <c r="D200" s="141">
+      <c r="C200" s="78"/>
+      <c r="D200" s="79">
         <f>B200+1</f>
         <v>46077</v>
       </c>
-      <c r="E200" s="140"/>
-      <c r="F200" s="142">
+      <c r="E200" s="78"/>
+      <c r="F200" s="80">
         <f>D200+1</f>
         <v>46078</v>
       </c>
-      <c r="G200" s="140"/>
-      <c r="H200" s="143">
+      <c r="G200" s="78"/>
+      <c r="H200" s="81">
         <f>F200+1</f>
         <v>46079</v>
       </c>
-      <c r="I200" s="140"/>
-      <c r="J200" s="144">
+      <c r="I200" s="78"/>
+      <c r="J200" s="82">
         <f>H200+1</f>
         <v>46080</v>
       </c>
-      <c r="K200" s="140"/>
+      <c r="K200" s="78"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201"/>
-      <c r="B201" s="82"/>
-      <c r="C201" s="157"/>
-      <c r="D201" s="80"/>
-      <c r="E201" s="157"/>
-      <c r="F201" s="78"/>
-      <c r="G201" s="157"/>
-      <c r="H201" s="76"/>
-      <c r="I201" s="157"/>
-      <c r="J201" s="74"/>
-      <c r="K201" s="157"/>
+      <c r="B201" s="63"/>
+      <c r="C201" s="64"/>
+      <c r="D201" s="65"/>
+      <c r="E201" s="64"/>
+      <c r="F201" s="66"/>
+      <c r="G201" s="64"/>
+      <c r="H201" s="67"/>
+      <c r="I201" s="64"/>
+      <c r="J201" s="68"/>
+      <c r="K201" s="64"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202"/>
@@ -4927,85 +4947,85 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209"/>
-      <c r="B209" s="155"/>
-      <c r="C209" s="156"/>
-      <c r="D209" s="156"/>
-      <c r="E209" s="156"/>
-      <c r="F209" s="156"/>
-      <c r="G209" s="156"/>
-      <c r="H209" s="156"/>
-      <c r="I209" s="156"/>
-      <c r="J209" s="156"/>
-      <c r="K209" s="157"/>
+      <c r="B209" s="69"/>
+      <c r="C209" s="70"/>
+      <c r="D209" s="70"/>
+      <c r="E209" s="70"/>
+      <c r="F209" s="70"/>
+      <c r="G209" s="70"/>
+      <c r="H209" s="70"/>
+      <c r="I209" s="70"/>
+      <c r="J209" s="70"/>
+      <c r="K209" s="64"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211"/>
-      <c r="B211" s="59" t="s">
+      <c r="B211" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="C211" s="145"/>
-      <c r="D211" s="145"/>
-      <c r="E211" s="145"/>
-      <c r="F211" s="145"/>
-      <c r="G211" s="145"/>
-      <c r="H211" s="145"/>
-      <c r="I211" s="145"/>
-      <c r="J211" s="145"/>
-      <c r="K211" s="146"/>
+      <c r="C211" s="72"/>
+      <c r="D211" s="72"/>
+      <c r="E211" s="72"/>
+      <c r="F211" s="72"/>
+      <c r="G211" s="72"/>
+      <c r="H211" s="72"/>
+      <c r="I211" s="72"/>
+      <c r="J211" s="72"/>
+      <c r="K211" s="73"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212"/>
-      <c r="B212" s="147"/>
-      <c r="C212" s="148"/>
-      <c r="D212" s="148"/>
-      <c r="E212" s="148"/>
-      <c r="F212" s="148"/>
-      <c r="G212" s="148"/>
-      <c r="H212" s="148"/>
-      <c r="I212" s="148"/>
-      <c r="J212" s="148"/>
-      <c r="K212" s="149"/>
+      <c r="B212" s="74"/>
+      <c r="C212" s="75"/>
+      <c r="D212" s="75"/>
+      <c r="E212" s="75"/>
+      <c r="F212" s="75"/>
+      <c r="G212" s="75"/>
+      <c r="H212" s="75"/>
+      <c r="I212" s="75"/>
+      <c r="J212" s="75"/>
+      <c r="K212" s="76"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213"/>
-      <c r="B213" s="139">
+      <c r="B213" s="77">
         <f>J200+3</f>
         <v>46083</v>
       </c>
-      <c r="C213" s="140"/>
-      <c r="D213" s="141">
+      <c r="C213" s="78"/>
+      <c r="D213" s="79">
         <f>B213+1</f>
         <v>46084</v>
       </c>
-      <c r="E213" s="140"/>
-      <c r="F213" s="142">
+      <c r="E213" s="78"/>
+      <c r="F213" s="80">
         <f>D213+1</f>
         <v>46085</v>
       </c>
-      <c r="G213" s="140"/>
-      <c r="H213" s="143">
+      <c r="G213" s="78"/>
+      <c r="H213" s="81">
         <f>F213+1</f>
         <v>46086</v>
       </c>
-      <c r="I213" s="140"/>
-      <c r="J213" s="144">
+      <c r="I213" s="78"/>
+      <c r="J213" s="82">
         <f>H213+1</f>
         <v>46087</v>
       </c>
-      <c r="K213" s="140"/>
+      <c r="K213" s="78"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214"/>
-      <c r="B214" s="82"/>
-      <c r="C214" s="157"/>
-      <c r="D214" s="80"/>
-      <c r="E214" s="157"/>
-      <c r="F214" s="78"/>
-      <c r="G214" s="157"/>
-      <c r="H214" s="76"/>
-      <c r="I214" s="157"/>
-      <c r="J214" s="74"/>
-      <c r="K214" s="157"/>
+      <c r="B214" s="63"/>
+      <c r="C214" s="64"/>
+      <c r="D214" s="65"/>
+      <c r="E214" s="64"/>
+      <c r="F214" s="66"/>
+      <c r="G214" s="64"/>
+      <c r="H214" s="67"/>
+      <c r="I214" s="64"/>
+      <c r="J214" s="68"/>
+      <c r="K214" s="64"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215"/>
@@ -5110,85 +5130,85 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222"/>
-      <c r="B222" s="155"/>
-      <c r="C222" s="156"/>
-      <c r="D222" s="156"/>
-      <c r="E222" s="156"/>
-      <c r="F222" s="156"/>
-      <c r="G222" s="156"/>
-      <c r="H222" s="156"/>
-      <c r="I222" s="156"/>
-      <c r="J222" s="156"/>
-      <c r="K222" s="157"/>
+      <c r="B222" s="69"/>
+      <c r="C222" s="70"/>
+      <c r="D222" s="70"/>
+      <c r="E222" s="70"/>
+      <c r="F222" s="70"/>
+      <c r="G222" s="70"/>
+      <c r="H222" s="70"/>
+      <c r="I222" s="70"/>
+      <c r="J222" s="70"/>
+      <c r="K222" s="64"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224"/>
-      <c r="B224" s="59" t="s">
+      <c r="B224" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C224" s="145"/>
-      <c r="D224" s="145"/>
-      <c r="E224" s="145"/>
-      <c r="F224" s="145"/>
-      <c r="G224" s="145"/>
-      <c r="H224" s="145"/>
-      <c r="I224" s="145"/>
-      <c r="J224" s="145"/>
-      <c r="K224" s="146"/>
+      <c r="C224" s="72"/>
+      <c r="D224" s="72"/>
+      <c r="E224" s="72"/>
+      <c r="F224" s="72"/>
+      <c r="G224" s="72"/>
+      <c r="H224" s="72"/>
+      <c r="I224" s="72"/>
+      <c r="J224" s="72"/>
+      <c r="K224" s="73"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225"/>
-      <c r="B225" s="147"/>
-      <c r="C225" s="148"/>
-      <c r="D225" s="148"/>
-      <c r="E225" s="148"/>
-      <c r="F225" s="148"/>
-      <c r="G225" s="148"/>
-      <c r="H225" s="148"/>
-      <c r="I225" s="148"/>
-      <c r="J225" s="148"/>
-      <c r="K225" s="149"/>
+      <c r="B225" s="74"/>
+      <c r="C225" s="75"/>
+      <c r="D225" s="75"/>
+      <c r="E225" s="75"/>
+      <c r="F225" s="75"/>
+      <c r="G225" s="75"/>
+      <c r="H225" s="75"/>
+      <c r="I225" s="75"/>
+      <c r="J225" s="75"/>
+      <c r="K225" s="76"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226"/>
-      <c r="B226" s="139">
+      <c r="B226" s="77">
         <f>J213+3</f>
         <v>46090</v>
       </c>
-      <c r="C226" s="140"/>
-      <c r="D226" s="141">
+      <c r="C226" s="78"/>
+      <c r="D226" s="79">
         <f>B226+1</f>
         <v>46091</v>
       </c>
-      <c r="E226" s="140"/>
-      <c r="F226" s="142">
+      <c r="E226" s="78"/>
+      <c r="F226" s="80">
         <f>D226+1</f>
         <v>46092</v>
       </c>
-      <c r="G226" s="140"/>
-      <c r="H226" s="143">
+      <c r="G226" s="78"/>
+      <c r="H226" s="81">
         <f>F226+1</f>
         <v>46093</v>
       </c>
-      <c r="I226" s="140"/>
-      <c r="J226" s="144">
+      <c r="I226" s="78"/>
+      <c r="J226" s="82">
         <f>H226+1</f>
         <v>46094</v>
       </c>
-      <c r="K226" s="140"/>
+      <c r="K226" s="78"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227"/>
-      <c r="B227" s="82"/>
-      <c r="C227" s="157"/>
-      <c r="D227" s="80"/>
-      <c r="E227" s="157"/>
-      <c r="F227" s="78"/>
-      <c r="G227" s="157"/>
-      <c r="H227" s="76"/>
-      <c r="I227" s="157"/>
-      <c r="J227" s="74"/>
-      <c r="K227" s="157"/>
+      <c r="B227" s="63"/>
+      <c r="C227" s="64"/>
+      <c r="D227" s="65"/>
+      <c r="E227" s="64"/>
+      <c r="F227" s="66"/>
+      <c r="G227" s="64"/>
+      <c r="H227" s="67"/>
+      <c r="I227" s="64"/>
+      <c r="J227" s="68"/>
+      <c r="K227" s="64"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228"/>
@@ -5293,85 +5313,85 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235"/>
-      <c r="B235" s="155"/>
-      <c r="C235" s="156"/>
-      <c r="D235" s="156"/>
-      <c r="E235" s="156"/>
-      <c r="F235" s="156"/>
-      <c r="G235" s="156"/>
-      <c r="H235" s="156"/>
-      <c r="I235" s="156"/>
-      <c r="J235" s="156"/>
-      <c r="K235" s="157"/>
+      <c r="B235" s="69"/>
+      <c r="C235" s="70"/>
+      <c r="D235" s="70"/>
+      <c r="E235" s="70"/>
+      <c r="F235" s="70"/>
+      <c r="G235" s="70"/>
+      <c r="H235" s="70"/>
+      <c r="I235" s="70"/>
+      <c r="J235" s="70"/>
+      <c r="K235" s="64"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237"/>
-      <c r="B237" s="59" t="s">
+      <c r="B237" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C237" s="145"/>
-      <c r="D237" s="145"/>
-      <c r="E237" s="145"/>
-      <c r="F237" s="145"/>
-      <c r="G237" s="145"/>
-      <c r="H237" s="145"/>
-      <c r="I237" s="145"/>
-      <c r="J237" s="145"/>
-      <c r="K237" s="146"/>
+      <c r="C237" s="72"/>
+      <c r="D237" s="72"/>
+      <c r="E237" s="72"/>
+      <c r="F237" s="72"/>
+      <c r="G237" s="72"/>
+      <c r="H237" s="72"/>
+      <c r="I237" s="72"/>
+      <c r="J237" s="72"/>
+      <c r="K237" s="73"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238"/>
-      <c r="B238" s="147"/>
-      <c r="C238" s="148"/>
-      <c r="D238" s="148"/>
-      <c r="E238" s="148"/>
-      <c r="F238" s="148"/>
-      <c r="G238" s="148"/>
-      <c r="H238" s="148"/>
-      <c r="I238" s="148"/>
-      <c r="J238" s="148"/>
-      <c r="K238" s="149"/>
+      <c r="B238" s="74"/>
+      <c r="C238" s="75"/>
+      <c r="D238" s="75"/>
+      <c r="E238" s="75"/>
+      <c r="F238" s="75"/>
+      <c r="G238" s="75"/>
+      <c r="H238" s="75"/>
+      <c r="I238" s="75"/>
+      <c r="J238" s="75"/>
+      <c r="K238" s="76"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239"/>
-      <c r="B239" s="139">
+      <c r="B239" s="77">
         <f>J226+3</f>
         <v>46097</v>
       </c>
-      <c r="C239" s="140"/>
-      <c r="D239" s="141">
+      <c r="C239" s="78"/>
+      <c r="D239" s="79">
         <f>B239+1</f>
         <v>46098</v>
       </c>
-      <c r="E239" s="140"/>
-      <c r="F239" s="142">
+      <c r="E239" s="78"/>
+      <c r="F239" s="80">
         <f>D239+1</f>
         <v>46099</v>
       </c>
-      <c r="G239" s="140"/>
-      <c r="H239" s="143">
+      <c r="G239" s="78"/>
+      <c r="H239" s="81">
         <f>F239+1</f>
         <v>46100</v>
       </c>
-      <c r="I239" s="140"/>
-      <c r="J239" s="144">
+      <c r="I239" s="78"/>
+      <c r="J239" s="82">
         <f>H239+1</f>
         <v>46101</v>
       </c>
-      <c r="K239" s="140"/>
+      <c r="K239" s="78"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240"/>
-      <c r="B240" s="82"/>
-      <c r="C240" s="157"/>
-      <c r="D240" s="80"/>
-      <c r="E240" s="157"/>
-      <c r="F240" s="78"/>
-      <c r="G240" s="157"/>
-      <c r="H240" s="76"/>
-      <c r="I240" s="157"/>
-      <c r="J240" s="74"/>
-      <c r="K240" s="157"/>
+      <c r="B240" s="63"/>
+      <c r="C240" s="64"/>
+      <c r="D240" s="65"/>
+      <c r="E240" s="64"/>
+      <c r="F240" s="66"/>
+      <c r="G240" s="64"/>
+      <c r="H240" s="67"/>
+      <c r="I240" s="64"/>
+      <c r="J240" s="68"/>
+      <c r="K240" s="64"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241"/>
@@ -5476,85 +5496,85 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248"/>
-      <c r="B248" s="155"/>
-      <c r="C248" s="156"/>
-      <c r="D248" s="156"/>
-      <c r="E248" s="156"/>
-      <c r="F248" s="156"/>
-      <c r="G248" s="156"/>
-      <c r="H248" s="156"/>
-      <c r="I248" s="156"/>
-      <c r="J248" s="156"/>
-      <c r="K248" s="157"/>
+      <c r="B248" s="69"/>
+      <c r="C248" s="70"/>
+      <c r="D248" s="70"/>
+      <c r="E248" s="70"/>
+      <c r="F248" s="70"/>
+      <c r="G248" s="70"/>
+      <c r="H248" s="70"/>
+      <c r="I248" s="70"/>
+      <c r="J248" s="70"/>
+      <c r="K248" s="64"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250"/>
-      <c r="B250" s="59" t="s">
+      <c r="B250" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C250" s="145"/>
-      <c r="D250" s="145"/>
-      <c r="E250" s="145"/>
-      <c r="F250" s="145"/>
-      <c r="G250" s="145"/>
-      <c r="H250" s="145"/>
-      <c r="I250" s="145"/>
-      <c r="J250" s="145"/>
-      <c r="K250" s="146"/>
+      <c r="C250" s="72"/>
+      <c r="D250" s="72"/>
+      <c r="E250" s="72"/>
+      <c r="F250" s="72"/>
+      <c r="G250" s="72"/>
+      <c r="H250" s="72"/>
+      <c r="I250" s="72"/>
+      <c r="J250" s="72"/>
+      <c r="K250" s="73"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251"/>
-      <c r="B251" s="147"/>
-      <c r="C251" s="148"/>
-      <c r="D251" s="148"/>
-      <c r="E251" s="148"/>
-      <c r="F251" s="148"/>
-      <c r="G251" s="148"/>
-      <c r="H251" s="148"/>
-      <c r="I251" s="148"/>
-      <c r="J251" s="148"/>
-      <c r="K251" s="149"/>
+      <c r="B251" s="74"/>
+      <c r="C251" s="75"/>
+      <c r="D251" s="75"/>
+      <c r="E251" s="75"/>
+      <c r="F251" s="75"/>
+      <c r="G251" s="75"/>
+      <c r="H251" s="75"/>
+      <c r="I251" s="75"/>
+      <c r="J251" s="75"/>
+      <c r="K251" s="76"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252"/>
-      <c r="B252" s="139">
+      <c r="B252" s="77">
         <f>J239+3</f>
         <v>46104</v>
       </c>
-      <c r="C252" s="140"/>
-      <c r="D252" s="141">
+      <c r="C252" s="78"/>
+      <c r="D252" s="79">
         <f>B252+1</f>
         <v>46105</v>
       </c>
-      <c r="E252" s="140"/>
-      <c r="F252" s="142">
+      <c r="E252" s="78"/>
+      <c r="F252" s="80">
         <f>D252+1</f>
         <v>46106</v>
       </c>
-      <c r="G252" s="140"/>
-      <c r="H252" s="143">
+      <c r="G252" s="78"/>
+      <c r="H252" s="81">
         <f>F252+1</f>
         <v>46107</v>
       </c>
-      <c r="I252" s="140"/>
-      <c r="J252" s="144">
+      <c r="I252" s="78"/>
+      <c r="J252" s="82">
         <f>H252+1</f>
         <v>46108</v>
       </c>
-      <c r="K252" s="140"/>
+      <c r="K252" s="78"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253"/>
-      <c r="B253" s="82"/>
-      <c r="C253" s="157"/>
-      <c r="D253" s="80"/>
-      <c r="E253" s="157"/>
-      <c r="F253" s="78"/>
-      <c r="G253" s="157"/>
-      <c r="H253" s="76"/>
-      <c r="I253" s="157"/>
-      <c r="J253" s="74"/>
-      <c r="K253" s="157"/>
+      <c r="B253" s="63"/>
+      <c r="C253" s="64"/>
+      <c r="D253" s="65"/>
+      <c r="E253" s="64"/>
+      <c r="F253" s="66"/>
+      <c r="G253" s="64"/>
+      <c r="H253" s="67"/>
+      <c r="I253" s="64"/>
+      <c r="J253" s="68"/>
+      <c r="K253" s="64"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254"/>
@@ -5663,85 +5683,85 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261"/>
-      <c r="B261" s="155"/>
-      <c r="C261" s="156"/>
-      <c r="D261" s="156"/>
-      <c r="E261" s="156"/>
-      <c r="F261" s="156"/>
-      <c r="G261" s="156"/>
-      <c r="H261" s="156"/>
-      <c r="I261" s="156"/>
-      <c r="J261" s="156"/>
-      <c r="K261" s="157"/>
+      <c r="B261" s="69"/>
+      <c r="C261" s="70"/>
+      <c r="D261" s="70"/>
+      <c r="E261" s="70"/>
+      <c r="F261" s="70"/>
+      <c r="G261" s="70"/>
+      <c r="H261" s="70"/>
+      <c r="I261" s="70"/>
+      <c r="J261" s="70"/>
+      <c r="K261" s="64"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263"/>
-      <c r="B263" s="59" t="s">
+      <c r="B263" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="C263" s="145"/>
-      <c r="D263" s="145"/>
-      <c r="E263" s="145"/>
-      <c r="F263" s="145"/>
-      <c r="G263" s="145"/>
-      <c r="H263" s="145"/>
-      <c r="I263" s="145"/>
-      <c r="J263" s="145"/>
-      <c r="K263" s="146"/>
+      <c r="C263" s="72"/>
+      <c r="D263" s="72"/>
+      <c r="E263" s="72"/>
+      <c r="F263" s="72"/>
+      <c r="G263" s="72"/>
+      <c r="H263" s="72"/>
+      <c r="I263" s="72"/>
+      <c r="J263" s="72"/>
+      <c r="K263" s="73"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264"/>
-      <c r="B264" s="147"/>
-      <c r="C264" s="148"/>
-      <c r="D264" s="148"/>
-      <c r="E264" s="148"/>
-      <c r="F264" s="148"/>
-      <c r="G264" s="148"/>
-      <c r="H264" s="148"/>
-      <c r="I264" s="148"/>
-      <c r="J264" s="148"/>
-      <c r="K264" s="149"/>
+      <c r="B264" s="74"/>
+      <c r="C264" s="75"/>
+      <c r="D264" s="75"/>
+      <c r="E264" s="75"/>
+      <c r="F264" s="75"/>
+      <c r="G264" s="75"/>
+      <c r="H264" s="75"/>
+      <c r="I264" s="75"/>
+      <c r="J264" s="75"/>
+      <c r="K264" s="76"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265"/>
-      <c r="B265" s="139">
+      <c r="B265" s="77">
         <f>J252+3</f>
         <v>46111</v>
       </c>
-      <c r="C265" s="140"/>
-      <c r="D265" s="141">
+      <c r="C265" s="78"/>
+      <c r="D265" s="79">
         <f>B265+1</f>
         <v>46112</v>
       </c>
-      <c r="E265" s="140"/>
-      <c r="F265" s="142">
+      <c r="E265" s="78"/>
+      <c r="F265" s="80">
         <f>D265+1</f>
         <v>46113</v>
       </c>
-      <c r="G265" s="140"/>
-      <c r="H265" s="143">
+      <c r="G265" s="78"/>
+      <c r="H265" s="81">
         <f>F265+1</f>
         <v>46114</v>
       </c>
-      <c r="I265" s="140"/>
-      <c r="J265" s="144">
+      <c r="I265" s="78"/>
+      <c r="J265" s="82">
         <f>H265+1</f>
         <v>46115</v>
       </c>
-      <c r="K265" s="140"/>
+      <c r="K265" s="78"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266"/>
-      <c r="B266" s="82"/>
-      <c r="C266" s="157"/>
-      <c r="D266" s="80"/>
-      <c r="E266" s="157"/>
-      <c r="F266" s="78"/>
-      <c r="G266" s="157"/>
-      <c r="H266" s="76"/>
-      <c r="I266" s="157"/>
-      <c r="J266" s="74"/>
-      <c r="K266" s="157"/>
+      <c r="B266" s="63"/>
+      <c r="C266" s="64"/>
+      <c r="D266" s="65"/>
+      <c r="E266" s="64"/>
+      <c r="F266" s="66"/>
+      <c r="G266" s="64"/>
+      <c r="H266" s="67"/>
+      <c r="I266" s="64"/>
+      <c r="J266" s="68"/>
+      <c r="K266" s="64"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267"/>
@@ -5848,85 +5868,85 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274"/>
-      <c r="B274" s="155"/>
-      <c r="C274" s="156"/>
-      <c r="D274" s="156"/>
-      <c r="E274" s="156"/>
-      <c r="F274" s="156"/>
-      <c r="G274" s="156"/>
-      <c r="H274" s="156"/>
-      <c r="I274" s="156"/>
-      <c r="J274" s="156"/>
-      <c r="K274" s="157"/>
+      <c r="B274" s="69"/>
+      <c r="C274" s="70"/>
+      <c r="D274" s="70"/>
+      <c r="E274" s="70"/>
+      <c r="F274" s="70"/>
+      <c r="G274" s="70"/>
+      <c r="H274" s="70"/>
+      <c r="I274" s="70"/>
+      <c r="J274" s="70"/>
+      <c r="K274" s="64"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276"/>
-      <c r="B276" s="59" t="s">
+      <c r="B276" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C276" s="145"/>
-      <c r="D276" s="145"/>
-      <c r="E276" s="145"/>
-      <c r="F276" s="145"/>
-      <c r="G276" s="145"/>
-      <c r="H276" s="145"/>
-      <c r="I276" s="145"/>
-      <c r="J276" s="145"/>
-      <c r="K276" s="146"/>
+      <c r="C276" s="72"/>
+      <c r="D276" s="72"/>
+      <c r="E276" s="72"/>
+      <c r="F276" s="72"/>
+      <c r="G276" s="72"/>
+      <c r="H276" s="72"/>
+      <c r="I276" s="72"/>
+      <c r="J276" s="72"/>
+      <c r="K276" s="73"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277"/>
-      <c r="B277" s="147"/>
-      <c r="C277" s="148"/>
-      <c r="D277" s="148"/>
-      <c r="E277" s="148"/>
-      <c r="F277" s="148"/>
-      <c r="G277" s="148"/>
-      <c r="H277" s="148"/>
-      <c r="I277" s="148"/>
-      <c r="J277" s="148"/>
-      <c r="K277" s="149"/>
+      <c r="B277" s="74"/>
+      <c r="C277" s="75"/>
+      <c r="D277" s="75"/>
+      <c r="E277" s="75"/>
+      <c r="F277" s="75"/>
+      <c r="G277" s="75"/>
+      <c r="H277" s="75"/>
+      <c r="I277" s="75"/>
+      <c r="J277" s="75"/>
+      <c r="K277" s="76"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278"/>
-      <c r="B278" s="139">
+      <c r="B278" s="77">
         <f>J265+3</f>
         <v>46118</v>
       </c>
-      <c r="C278" s="140"/>
-      <c r="D278" s="141">
+      <c r="C278" s="78"/>
+      <c r="D278" s="79">
         <f>B278+1</f>
         <v>46119</v>
       </c>
-      <c r="E278" s="140"/>
-      <c r="F278" s="142">
+      <c r="E278" s="78"/>
+      <c r="F278" s="80">
         <f>D278+1</f>
         <v>46120</v>
       </c>
-      <c r="G278" s="140"/>
-      <c r="H278" s="143">
+      <c r="G278" s="78"/>
+      <c r="H278" s="81">
         <f>F278+1</f>
         <v>46121</v>
       </c>
-      <c r="I278" s="140"/>
-      <c r="J278" s="144">
+      <c r="I278" s="78"/>
+      <c r="J278" s="82">
         <f>H278+1</f>
         <v>46122</v>
       </c>
-      <c r="K278" s="140"/>
+      <c r="K278" s="78"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279"/>
-      <c r="B279" s="82"/>
-      <c r="C279" s="157"/>
-      <c r="D279" s="80"/>
-      <c r="E279" s="157"/>
-      <c r="F279" s="78"/>
-      <c r="G279" s="157"/>
-      <c r="H279" s="76"/>
-      <c r="I279" s="157"/>
-      <c r="J279" s="74"/>
-      <c r="K279" s="157"/>
+      <c r="B279" s="63"/>
+      <c r="C279" s="64"/>
+      <c r="D279" s="65"/>
+      <c r="E279" s="64"/>
+      <c r="F279" s="66"/>
+      <c r="G279" s="64"/>
+      <c r="H279" s="67"/>
+      <c r="I279" s="64"/>
+      <c r="J279" s="68"/>
+      <c r="K279" s="64"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280"/>
@@ -6031,85 +6051,85 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287"/>
-      <c r="B287" s="155"/>
-      <c r="C287" s="156"/>
-      <c r="D287" s="156"/>
-      <c r="E287" s="156"/>
-      <c r="F287" s="156"/>
-      <c r="G287" s="156"/>
-      <c r="H287" s="156"/>
-      <c r="I287" s="156"/>
-      <c r="J287" s="156"/>
-      <c r="K287" s="157"/>
+      <c r="B287" s="69"/>
+      <c r="C287" s="70"/>
+      <c r="D287" s="70"/>
+      <c r="E287" s="70"/>
+      <c r="F287" s="70"/>
+      <c r="G287" s="70"/>
+      <c r="H287" s="70"/>
+      <c r="I287" s="70"/>
+      <c r="J287" s="70"/>
+      <c r="K287" s="64"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289"/>
-      <c r="B289" s="59" t="s">
+      <c r="B289" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C289" s="145"/>
-      <c r="D289" s="145"/>
-      <c r="E289" s="145"/>
-      <c r="F289" s="145"/>
-      <c r="G289" s="145"/>
-      <c r="H289" s="145"/>
-      <c r="I289" s="145"/>
-      <c r="J289" s="145"/>
-      <c r="K289" s="146"/>
+      <c r="C289" s="72"/>
+      <c r="D289" s="72"/>
+      <c r="E289" s="72"/>
+      <c r="F289" s="72"/>
+      <c r="G289" s="72"/>
+      <c r="H289" s="72"/>
+      <c r="I289" s="72"/>
+      <c r="J289" s="72"/>
+      <c r="K289" s="73"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290"/>
-      <c r="B290" s="147"/>
-      <c r="C290" s="148"/>
-      <c r="D290" s="148"/>
-      <c r="E290" s="148"/>
-      <c r="F290" s="148"/>
-      <c r="G290" s="148"/>
-      <c r="H290" s="148"/>
-      <c r="I290" s="148"/>
-      <c r="J290" s="148"/>
-      <c r="K290" s="149"/>
+      <c r="B290" s="74"/>
+      <c r="C290" s="75"/>
+      <c r="D290" s="75"/>
+      <c r="E290" s="75"/>
+      <c r="F290" s="75"/>
+      <c r="G290" s="75"/>
+      <c r="H290" s="75"/>
+      <c r="I290" s="75"/>
+      <c r="J290" s="75"/>
+      <c r="K290" s="76"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291"/>
-      <c r="B291" s="139">
+      <c r="B291" s="77">
         <f>J278+3</f>
         <v>46125</v>
       </c>
-      <c r="C291" s="140"/>
-      <c r="D291" s="141">
+      <c r="C291" s="78"/>
+      <c r="D291" s="79">
         <f>B291+1</f>
         <v>46126</v>
       </c>
-      <c r="E291" s="140"/>
-      <c r="F291" s="142">
+      <c r="E291" s="78"/>
+      <c r="F291" s="80">
         <f>D291+1</f>
         <v>46127</v>
       </c>
-      <c r="G291" s="140"/>
-      <c r="H291" s="143">
+      <c r="G291" s="78"/>
+      <c r="H291" s="81">
         <f>F291+1</f>
         <v>46128</v>
       </c>
-      <c r="I291" s="140"/>
-      <c r="J291" s="144">
+      <c r="I291" s="78"/>
+      <c r="J291" s="82">
         <f>H291+1</f>
         <v>46129</v>
       </c>
-      <c r="K291" s="140"/>
+      <c r="K291" s="78"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292"/>
-      <c r="B292" s="82"/>
-      <c r="C292" s="157"/>
-      <c r="D292" s="80"/>
-      <c r="E292" s="157"/>
-      <c r="F292" s="78"/>
-      <c r="G292" s="157"/>
-      <c r="H292" s="76"/>
-      <c r="I292" s="157"/>
-      <c r="J292" s="74"/>
-      <c r="K292" s="157"/>
+      <c r="B292" s="63"/>
+      <c r="C292" s="64"/>
+      <c r="D292" s="65"/>
+      <c r="E292" s="64"/>
+      <c r="F292" s="66"/>
+      <c r="G292" s="64"/>
+      <c r="H292" s="67"/>
+      <c r="I292" s="64"/>
+      <c r="J292" s="68"/>
+      <c r="K292" s="64"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293"/>
@@ -6214,85 +6234,85 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300"/>
-      <c r="B300" s="155"/>
-      <c r="C300" s="156"/>
-      <c r="D300" s="156"/>
-      <c r="E300" s="156"/>
-      <c r="F300" s="156"/>
-      <c r="G300" s="156"/>
-      <c r="H300" s="156"/>
-      <c r="I300" s="156"/>
-      <c r="J300" s="156"/>
-      <c r="K300" s="157"/>
+      <c r="B300" s="69"/>
+      <c r="C300" s="70"/>
+      <c r="D300" s="70"/>
+      <c r="E300" s="70"/>
+      <c r="F300" s="70"/>
+      <c r="G300" s="70"/>
+      <c r="H300" s="70"/>
+      <c r="I300" s="70"/>
+      <c r="J300" s="70"/>
+      <c r="K300" s="64"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302"/>
-      <c r="B302" s="59" t="s">
+      <c r="B302" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C302" s="145"/>
-      <c r="D302" s="145"/>
-      <c r="E302" s="145"/>
-      <c r="F302" s="145"/>
-      <c r="G302" s="145"/>
-      <c r="H302" s="145"/>
-      <c r="I302" s="145"/>
-      <c r="J302" s="145"/>
-      <c r="K302" s="146"/>
+      <c r="C302" s="72"/>
+      <c r="D302" s="72"/>
+      <c r="E302" s="72"/>
+      <c r="F302" s="72"/>
+      <c r="G302" s="72"/>
+      <c r="H302" s="72"/>
+      <c r="I302" s="72"/>
+      <c r="J302" s="72"/>
+      <c r="K302" s="73"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303"/>
-      <c r="B303" s="147"/>
-      <c r="C303" s="148"/>
-      <c r="D303" s="148"/>
-      <c r="E303" s="148"/>
-      <c r="F303" s="148"/>
-      <c r="G303" s="148"/>
-      <c r="H303" s="148"/>
-      <c r="I303" s="148"/>
-      <c r="J303" s="148"/>
-      <c r="K303" s="149"/>
+      <c r="B303" s="74"/>
+      <c r="C303" s="75"/>
+      <c r="D303" s="75"/>
+      <c r="E303" s="75"/>
+      <c r="F303" s="75"/>
+      <c r="G303" s="75"/>
+      <c r="H303" s="75"/>
+      <c r="I303" s="75"/>
+      <c r="J303" s="75"/>
+      <c r="K303" s="76"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304"/>
-      <c r="B304" s="139">
+      <c r="B304" s="77">
         <f>J291+3</f>
         <v>46132</v>
       </c>
-      <c r="C304" s="140"/>
-      <c r="D304" s="141">
+      <c r="C304" s="78"/>
+      <c r="D304" s="79">
         <f>B304+1</f>
         <v>46133</v>
       </c>
-      <c r="E304" s="140"/>
-      <c r="F304" s="142">
+      <c r="E304" s="78"/>
+      <c r="F304" s="80">
         <f>D304+1</f>
         <v>46134</v>
       </c>
-      <c r="G304" s="140"/>
-      <c r="H304" s="143">
+      <c r="G304" s="78"/>
+      <c r="H304" s="81">
         <f>F304+1</f>
         <v>46135</v>
       </c>
-      <c r="I304" s="140"/>
-      <c r="J304" s="144">
+      <c r="I304" s="78"/>
+      <c r="J304" s="82">
         <f>H304+1</f>
         <v>46136</v>
       </c>
-      <c r="K304" s="140"/>
+      <c r="K304" s="78"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305"/>
-      <c r="B305" s="82"/>
-      <c r="C305" s="157"/>
-      <c r="D305" s="80"/>
-      <c r="E305" s="157"/>
-      <c r="F305" s="78"/>
-      <c r="G305" s="157"/>
-      <c r="H305" s="76"/>
-      <c r="I305" s="157"/>
-      <c r="J305" s="74"/>
-      <c r="K305" s="157"/>
+      <c r="B305" s="63"/>
+      <c r="C305" s="64"/>
+      <c r="D305" s="65"/>
+      <c r="E305" s="64"/>
+      <c r="F305" s="66"/>
+      <c r="G305" s="64"/>
+      <c r="H305" s="67"/>
+      <c r="I305" s="64"/>
+      <c r="J305" s="68"/>
+      <c r="K305" s="64"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306"/>
@@ -6397,85 +6417,85 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313"/>
-      <c r="B313" s="155"/>
-      <c r="C313" s="156"/>
-      <c r="D313" s="156"/>
-      <c r="E313" s="156"/>
-      <c r="F313" s="156"/>
-      <c r="G313" s="156"/>
-      <c r="H313" s="156"/>
-      <c r="I313" s="156"/>
-      <c r="J313" s="156"/>
-      <c r="K313" s="157"/>
+      <c r="B313" s="69"/>
+      <c r="C313" s="70"/>
+      <c r="D313" s="70"/>
+      <c r="E313" s="70"/>
+      <c r="F313" s="70"/>
+      <c r="G313" s="70"/>
+      <c r="H313" s="70"/>
+      <c r="I313" s="70"/>
+      <c r="J313" s="70"/>
+      <c r="K313" s="64"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315"/>
-      <c r="B315" s="59" t="s">
+      <c r="B315" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C315" s="145"/>
-      <c r="D315" s="145"/>
-      <c r="E315" s="145"/>
-      <c r="F315" s="145"/>
-      <c r="G315" s="145"/>
-      <c r="H315" s="145"/>
-      <c r="I315" s="145"/>
-      <c r="J315" s="145"/>
-      <c r="K315" s="146"/>
+      <c r="C315" s="72"/>
+      <c r="D315" s="72"/>
+      <c r="E315" s="72"/>
+      <c r="F315" s="72"/>
+      <c r="G315" s="72"/>
+      <c r="H315" s="72"/>
+      <c r="I315" s="72"/>
+      <c r="J315" s="72"/>
+      <c r="K315" s="73"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316"/>
-      <c r="B316" s="147"/>
-      <c r="C316" s="148"/>
-      <c r="D316" s="148"/>
-      <c r="E316" s="148"/>
-      <c r="F316" s="148"/>
-      <c r="G316" s="148"/>
-      <c r="H316" s="148"/>
-      <c r="I316" s="148"/>
-      <c r="J316" s="148"/>
-      <c r="K316" s="149"/>
+      <c r="B316" s="74"/>
+      <c r="C316" s="75"/>
+      <c r="D316" s="75"/>
+      <c r="E316" s="75"/>
+      <c r="F316" s="75"/>
+      <c r="G316" s="75"/>
+      <c r="H316" s="75"/>
+      <c r="I316" s="75"/>
+      <c r="J316" s="75"/>
+      <c r="K316" s="76"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317"/>
-      <c r="B317" s="139">
+      <c r="B317" s="77">
         <f>J304+3</f>
         <v>46139</v>
       </c>
-      <c r="C317" s="140"/>
-      <c r="D317" s="141">
+      <c r="C317" s="78"/>
+      <c r="D317" s="79">
         <f>B317+1</f>
         <v>46140</v>
       </c>
-      <c r="E317" s="140"/>
-      <c r="F317" s="142">
+      <c r="E317" s="78"/>
+      <c r="F317" s="80">
         <f>D317+1</f>
         <v>46141</v>
       </c>
-      <c r="G317" s="140"/>
-      <c r="H317" s="143">
+      <c r="G317" s="78"/>
+      <c r="H317" s="81">
         <f>F317+1</f>
         <v>46142</v>
       </c>
-      <c r="I317" s="140"/>
-      <c r="J317" s="144">
+      <c r="I317" s="78"/>
+      <c r="J317" s="82">
         <f>H317+1</f>
         <v>46143</v>
       </c>
-      <c r="K317" s="140"/>
+      <c r="K317" s="78"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318"/>
-      <c r="B318" s="82"/>
-      <c r="C318" s="157"/>
-      <c r="D318" s="80"/>
-      <c r="E318" s="157"/>
-      <c r="F318" s="78"/>
-      <c r="G318" s="157"/>
-      <c r="H318" s="76"/>
-      <c r="I318" s="157"/>
-      <c r="J318" s="74"/>
-      <c r="K318" s="157"/>
+      <c r="B318" s="63"/>
+      <c r="C318" s="64"/>
+      <c r="D318" s="65"/>
+      <c r="E318" s="64"/>
+      <c r="F318" s="66"/>
+      <c r="G318" s="64"/>
+      <c r="H318" s="67"/>
+      <c r="I318" s="64"/>
+      <c r="J318" s="68"/>
+      <c r="K318" s="64"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319"/>
@@ -6580,85 +6600,85 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326"/>
-      <c r="B326" s="155"/>
-      <c r="C326" s="156"/>
-      <c r="D326" s="156"/>
-      <c r="E326" s="156"/>
-      <c r="F326" s="156"/>
-      <c r="G326" s="156"/>
-      <c r="H326" s="156"/>
-      <c r="I326" s="156"/>
-      <c r="J326" s="156"/>
-      <c r="K326" s="157"/>
+      <c r="B326" s="69"/>
+      <c r="C326" s="70"/>
+      <c r="D326" s="70"/>
+      <c r="E326" s="70"/>
+      <c r="F326" s="70"/>
+      <c r="G326" s="70"/>
+      <c r="H326" s="70"/>
+      <c r="I326" s="70"/>
+      <c r="J326" s="70"/>
+      <c r="K326" s="64"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328"/>
-      <c r="B328" s="59" t="s">
+      <c r="B328" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C328" s="145"/>
-      <c r="D328" s="145"/>
-      <c r="E328" s="145"/>
-      <c r="F328" s="145"/>
-      <c r="G328" s="145"/>
-      <c r="H328" s="145"/>
-      <c r="I328" s="145"/>
-      <c r="J328" s="145"/>
-      <c r="K328" s="146"/>
+      <c r="C328" s="72"/>
+      <c r="D328" s="72"/>
+      <c r="E328" s="72"/>
+      <c r="F328" s="72"/>
+      <c r="G328" s="72"/>
+      <c r="H328" s="72"/>
+      <c r="I328" s="72"/>
+      <c r="J328" s="72"/>
+      <c r="K328" s="73"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329"/>
-      <c r="B329" s="147"/>
-      <c r="C329" s="148"/>
-      <c r="D329" s="148"/>
-      <c r="E329" s="148"/>
-      <c r="F329" s="148"/>
-      <c r="G329" s="148"/>
-      <c r="H329" s="148"/>
-      <c r="I329" s="148"/>
-      <c r="J329" s="148"/>
-      <c r="K329" s="149"/>
+      <c r="B329" s="74"/>
+      <c r="C329" s="75"/>
+      <c r="D329" s="75"/>
+      <c r="E329" s="75"/>
+      <c r="F329" s="75"/>
+      <c r="G329" s="75"/>
+      <c r="H329" s="75"/>
+      <c r="I329" s="75"/>
+      <c r="J329" s="75"/>
+      <c r="K329" s="76"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330"/>
-      <c r="B330" s="139">
+      <c r="B330" s="77">
         <f>J317+3</f>
         <v>46146</v>
       </c>
-      <c r="C330" s="140"/>
-      <c r="D330" s="141">
+      <c r="C330" s="78"/>
+      <c r="D330" s="79">
         <f>B330+1</f>
         <v>46147</v>
       </c>
-      <c r="E330" s="140"/>
-      <c r="F330" s="142">
+      <c r="E330" s="78"/>
+      <c r="F330" s="80">
         <f>D330+1</f>
         <v>46148</v>
       </c>
-      <c r="G330" s="140"/>
-      <c r="H330" s="143">
+      <c r="G330" s="78"/>
+      <c r="H330" s="81">
         <f>F330+1</f>
         <v>46149</v>
       </c>
-      <c r="I330" s="140"/>
-      <c r="J330" s="144">
+      <c r="I330" s="78"/>
+      <c r="J330" s="82">
         <f>H330+1</f>
         <v>46150</v>
       </c>
-      <c r="K330" s="140"/>
+      <c r="K330" s="78"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331"/>
-      <c r="B331" s="82"/>
-      <c r="C331" s="157"/>
-      <c r="D331" s="80"/>
-      <c r="E331" s="157"/>
-      <c r="F331" s="78"/>
-      <c r="G331" s="157"/>
-      <c r="H331" s="76"/>
-      <c r="I331" s="157"/>
-      <c r="J331" s="74"/>
-      <c r="K331" s="157"/>
+      <c r="B331" s="63"/>
+      <c r="C331" s="64"/>
+      <c r="D331" s="65"/>
+      <c r="E331" s="64"/>
+      <c r="F331" s="66"/>
+      <c r="G331" s="64"/>
+      <c r="H331" s="67"/>
+      <c r="I331" s="64"/>
+      <c r="J331" s="68"/>
+      <c r="K331" s="64"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332"/>
@@ -6763,19 +6783,318 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339"/>
-      <c r="B339" s="155"/>
-      <c r="C339" s="156"/>
-      <c r="D339" s="156"/>
-      <c r="E339" s="156"/>
-      <c r="F339" s="156"/>
-      <c r="G339" s="156"/>
-      <c r="H339" s="156"/>
-      <c r="I339" s="156"/>
-      <c r="J339" s="156"/>
-      <c r="K339" s="157"/>
+      <c r="B339" s="69"/>
+      <c r="C339" s="70"/>
+      <c r="D339" s="70"/>
+      <c r="E339" s="70"/>
+      <c r="F339" s="70"/>
+      <c r="G339" s="70"/>
+      <c r="H339" s="70"/>
+      <c r="I339" s="70"/>
+      <c r="J339" s="70"/>
+      <c r="K339" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="323">
+    <mergeCell ref="B13:K14"/>
+    <mergeCell ref="J82:K88"/>
+    <mergeCell ref="J95:K101"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B26:K27"/>
+    <mergeCell ref="B39:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B1:C7"/>
+    <mergeCell ref="D1:I6"/>
+    <mergeCell ref="J1:K7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B52:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B65:K66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B56:C62"/>
+    <mergeCell ref="B78:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B91:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B89:K89"/>
+    <mergeCell ref="H82:I88"/>
+    <mergeCell ref="F82:G88"/>
+    <mergeCell ref="B104:K105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="H95:I101"/>
+    <mergeCell ref="F95:G101"/>
+    <mergeCell ref="B120:K121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="B118:K118"/>
+    <mergeCell ref="B133:K134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="B131:K131"/>
+    <mergeCell ref="B146:K147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="B144:K144"/>
+    <mergeCell ref="B159:K160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B157:K157"/>
+    <mergeCell ref="B172:K173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="B170:K170"/>
+    <mergeCell ref="B185:K186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="B183:K183"/>
+    <mergeCell ref="B198:K199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="B196:K196"/>
+    <mergeCell ref="B211:K212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="B209:K209"/>
+    <mergeCell ref="B224:K225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="B222:K222"/>
+    <mergeCell ref="B237:K238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="B235:K235"/>
+    <mergeCell ref="B250:K251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="B248:K248"/>
+    <mergeCell ref="B263:K264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="B261:K261"/>
+    <mergeCell ref="B276:K277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="B274:K274"/>
+    <mergeCell ref="B289:K290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="B287:K287"/>
+    <mergeCell ref="B302:K303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="B300:K300"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="B313:K313"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -6800,305 +7119,6 @@
     <mergeCell ref="B315:K316"/>
     <mergeCell ref="B317:C317"/>
     <mergeCell ref="D317:E317"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="B313:K313"/>
-    <mergeCell ref="B302:K303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="B300:K300"/>
-    <mergeCell ref="B289:K290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="B287:K287"/>
-    <mergeCell ref="B276:K277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="F278:G278"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="F266:G266"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="B274:K274"/>
-    <mergeCell ref="B263:K264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="B261:K261"/>
-    <mergeCell ref="B250:K251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="F252:G252"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="B248:K248"/>
-    <mergeCell ref="B237:K238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="B235:K235"/>
-    <mergeCell ref="B224:K225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="B222:K222"/>
-    <mergeCell ref="B211:K212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="B209:K209"/>
-    <mergeCell ref="B198:K199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="B196:K196"/>
-    <mergeCell ref="B185:K186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="B183:K183"/>
-    <mergeCell ref="B172:K173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="B170:K170"/>
-    <mergeCell ref="B159:K160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B157:K157"/>
-    <mergeCell ref="B146:K147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="B144:K144"/>
-    <mergeCell ref="B133:K134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="B131:K131"/>
-    <mergeCell ref="B120:K121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="B118:K118"/>
-    <mergeCell ref="B104:K105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="H95:I101"/>
-    <mergeCell ref="F95:G101"/>
-    <mergeCell ref="B91:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B89:K89"/>
-    <mergeCell ref="H82:I88"/>
-    <mergeCell ref="F82:G88"/>
-    <mergeCell ref="B78:K79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B65:K66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B56:C62"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B52:K53"/>
-    <mergeCell ref="B1:C7"/>
-    <mergeCell ref="D1:I6"/>
-    <mergeCell ref="J1:K7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="B13:K14"/>
-    <mergeCell ref="J82:K88"/>
-    <mergeCell ref="J95:K101"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B26:K27"/>
-    <mergeCell ref="B39:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="130">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -385,6 +385,30 @@
   </si>
   <si>
     <t>Atributos privados</t>
+  </si>
+  <si>
+    <t>POO uso del métdo __str__</t>
+  </si>
+  <si>
+    <t>Colaboración</t>
+  </si>
+  <si>
+    <t>Composición</t>
+  </si>
+  <si>
+    <t>Resolución de ejercicios</t>
+  </si>
+  <si>
+    <t>Sobrecarga de métodos</t>
+  </si>
+  <si>
+    <t>Presentación de ejercicios resueltos</t>
+  </si>
+  <si>
+    <t>Ejercicio Repaso POO</t>
+  </si>
+  <si>
+    <t>Exposición grupo Diagrama de Clase</t>
   </si>
 </sst>
 </file>
@@ -1217,60 +1241,237 @@
     <xf numFmtId="0" fontId="13" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1278,202 +1479,25 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1763,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C130" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+    <sheetView tabSelected="1" topLeftCell="C145" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1786,179 +1810,179 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="123" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="128"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="129"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="119"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="129"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="119"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="129"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="119"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="129"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="129"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:11" ht="18">
       <c r="A7" s="2"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="130"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="120"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="131" t="s">
+      <c r="C8" s="122"/>
+      <c r="D8" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="132"/>
-      <c r="F8" s="135" t="s">
+      <c r="E8" s="122"/>
+      <c r="F8" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="136"/>
-      <c r="H8" s="139" t="s">
+      <c r="G8" s="126"/>
+      <c r="H8" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="136"/>
-      <c r="J8" s="140" t="s">
+      <c r="I8" s="126"/>
+      <c r="J8" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="136"/>
+      <c r="K8" s="126"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="138"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="128"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="135" t="s">
+      <c r="B10" s="131"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="142"/>
-      <c r="H10" s="139" t="s">
+      <c r="G10" s="132"/>
+      <c r="H10" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="136"/>
-      <c r="J10" s="139" t="s">
+      <c r="I10" s="126"/>
+      <c r="J10" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="136"/>
+      <c r="K10" s="126"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="138"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="128"/>
     </row>
     <row r="12" spans="1:11" ht="2.25" hidden="1" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="62">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59" t="s">
+      <c r="C12" s="111"/>
+      <c r="D12" s="160">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="111"/>
+      <c r="F12" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="60"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
@@ -1966,71 +1990,71 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5"/>
-      <c r="B15" s="108">
+      <c r="B15" s="92">
         <v>45978</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110">
+      <c r="C15" s="93"/>
+      <c r="D15" s="90">
         <f>B15+1</f>
         <v>45979</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112">
+      <c r="E15" s="91"/>
+      <c r="F15" s="88">
         <f>D15+1</f>
         <v>45980</v>
       </c>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114">
+      <c r="G15" s="89"/>
+      <c r="H15" s="86">
         <f>F15+1</f>
         <v>45981</v>
       </c>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116">
+      <c r="I15" s="87"/>
+      <c r="J15" s="84">
         <f>H15+1</f>
         <v>45982</v>
       </c>
-      <c r="K15" s="117"/>
+      <c r="K15" s="85"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="98"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="75"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6"/>
@@ -2140,16 +2164,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="27"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="101"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2"/>
@@ -2166,72 +2190,72 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="157"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="106"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="160"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="109"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5"/>
-      <c r="B28" s="145">
+      <c r="B28" s="94">
         <f>J15+3</f>
         <v>45985</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147">
+      <c r="C28" s="95"/>
+      <c r="D28" s="96">
         <f>B28+1</f>
         <v>45986</v>
       </c>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149">
+      <c r="E28" s="97"/>
+      <c r="F28" s="98">
         <f>D28+1</f>
         <v>45987</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151">
+      <c r="G28" s="99"/>
+      <c r="H28" s="100">
         <f>F28+1</f>
         <v>45988</v>
       </c>
-      <c r="I28" s="152"/>
-      <c r="J28" s="153">
+      <c r="I28" s="101"/>
+      <c r="J28" s="102">
         <f>H28+1</f>
         <v>45989</v>
       </c>
-      <c r="K28" s="154"/>
+      <c r="K28" s="103"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="120"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="6"/>
@@ -2341,16 +2365,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="27"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="101"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="73"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2"/>
@@ -2367,74 +2391,74 @@
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="90"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="61"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="93"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2"/>
-      <c r="B41" s="108">
+      <c r="B41" s="92">
         <f>J28+3</f>
         <v>45992</v>
       </c>
-      <c r="C41" s="109"/>
-      <c r="D41" s="110">
+      <c r="C41" s="93"/>
+      <c r="D41" s="90">
         <f>B41+1</f>
         <v>45993</v>
       </c>
-      <c r="E41" s="111"/>
-      <c r="F41" s="112">
+      <c r="E41" s="91"/>
+      <c r="F41" s="88">
         <f>D41+1</f>
         <v>45994</v>
       </c>
-      <c r="G41" s="113"/>
-      <c r="H41" s="114">
+      <c r="G41" s="89"/>
+      <c r="H41" s="86">
         <f>F41+1</f>
         <v>45995</v>
       </c>
-      <c r="I41" s="115"/>
-      <c r="J41" s="116">
+      <c r="I41" s="87"/>
+      <c r="J41" s="84">
         <f>H41+1</f>
         <v>45996</v>
       </c>
-      <c r="K41" s="117"/>
+      <c r="K41" s="85"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="86" t="s">
+      <c r="B42" s="82"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="118"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="98"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="75"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2"/>
@@ -2572,16 +2596,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="101"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="73"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2"/>
@@ -2597,75 +2621,75 @@
       <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1">
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="90"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="61"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="B53" s="91"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
-      <c r="K53" s="93"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="64"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="B54" s="108">
+      <c r="B54" s="92">
         <f>J41+3</f>
         <v>45999</v>
       </c>
-      <c r="C54" s="109"/>
-      <c r="D54" s="110">
+      <c r="C54" s="93"/>
+      <c r="D54" s="90">
         <f>B54+1</f>
         <v>46000</v>
       </c>
-      <c r="E54" s="111"/>
-      <c r="F54" s="112">
+      <c r="E54" s="91"/>
+      <c r="F54" s="88">
         <f>D54+1</f>
         <v>46001</v>
       </c>
-      <c r="G54" s="113"/>
-      <c r="H54" s="114">
+      <c r="G54" s="89"/>
+      <c r="H54" s="86">
         <f>F54+1</f>
         <v>46002</v>
       </c>
-      <c r="I54" s="115"/>
-      <c r="J54" s="116">
+      <c r="I54" s="87"/>
+      <c r="J54" s="84">
         <f>H54+1</f>
         <v>46003</v>
       </c>
-      <c r="K54" s="117"/>
+      <c r="K54" s="85"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="B55" s="63"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="98"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="75"/>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1">
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="103"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="40">
         <f>D12</f>
         <v>0.79166666666666663</v>
@@ -2696,8 +2720,8 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1">
-      <c r="B57" s="104"/>
-      <c r="C57" s="105"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="17"/>
       <c r="E57" s="46" t="s">
         <v>33</v>
@@ -2712,8 +2736,8 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1">
-      <c r="B58" s="104"/>
-      <c r="C58" s="105"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="68"/>
       <c r="D58" s="22"/>
       <c r="E58" s="47" t="s">
         <v>34</v>
@@ -2728,8 +2752,8 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1">
-      <c r="B59" s="104"/>
-      <c r="C59" s="105"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="17"/>
       <c r="E59" s="46" t="s">
         <v>35</v>
@@ -2744,8 +2768,8 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1">
-      <c r="B60" s="104"/>
-      <c r="C60" s="105"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="31"/>
       <c r="E60" s="47"/>
       <c r="F60" s="32"/>
@@ -2756,8 +2780,8 @@
       <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1">
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="36"/>
       <c r="E61" s="46"/>
       <c r="F61" s="36"/>
@@ -2772,8 +2796,8 @@
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1">
-      <c r="B62" s="106"/>
-      <c r="C62" s="107"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
       <c r="D62" s="31"/>
       <c r="E62" s="47"/>
       <c r="F62" s="32"/>
@@ -2784,81 +2808,81 @@
       <c r="K62" s="48"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="B63" s="99"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="100"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="100"/>
-      <c r="K63" s="101"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="73"/>
     </row>
     <row r="65" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B65" s="71" t="s">
+      <c r="B65" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="90"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="61"/>
     </row>
     <row r="66" spans="2:11" customFormat="1">
-      <c r="B66" s="91"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="92"/>
-      <c r="K66" s="93"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="64"/>
     </row>
     <row r="67" spans="2:11" customFormat="1">
-      <c r="B67" s="108">
+      <c r="B67" s="92">
         <f>J54+3</f>
         <v>46006</v>
       </c>
-      <c r="C67" s="109"/>
-      <c r="D67" s="110">
+      <c r="C67" s="93"/>
+      <c r="D67" s="90">
         <f>B67+1</f>
         <v>46007</v>
       </c>
-      <c r="E67" s="111"/>
-      <c r="F67" s="112">
+      <c r="E67" s="91"/>
+      <c r="F67" s="88">
         <f>D67+1</f>
         <v>46008</v>
       </c>
-      <c r="G67" s="113"/>
-      <c r="H67" s="114">
+      <c r="G67" s="89"/>
+      <c r="H67" s="86">
         <f>F67+1</f>
         <v>46009</v>
       </c>
-      <c r="I67" s="115"/>
-      <c r="J67" s="116">
+      <c r="I67" s="87"/>
+      <c r="J67" s="84">
         <f>H67+1</f>
         <v>46010</v>
       </c>
-      <c r="K67" s="117"/>
+      <c r="K67" s="85"/>
     </row>
     <row r="68" spans="2:11" customFormat="1">
-      <c r="B68" s="63"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="96"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="97"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="98"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="75"/>
     </row>
     <row r="69" spans="2:11" customFormat="1">
       <c r="B69" s="39">
@@ -2960,81 +2984,81 @@
       <c r="K75" s="48"/>
     </row>
     <row r="76" spans="2:11" customFormat="1">
-      <c r="B76" s="99"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="100"/>
-      <c r="E76" s="100"/>
-      <c r="F76" s="100"/>
-      <c r="G76" s="100"/>
-      <c r="H76" s="100"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="100"/>
-      <c r="K76" s="101"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="73"/>
     </row>
     <row r="78" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B78" s="71" t="s">
+      <c r="B78" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="89"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="89"/>
-      <c r="H78" s="89"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="89"/>
-      <c r="K78" s="90"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="61"/>
     </row>
     <row r="79" spans="2:11" customFormat="1">
-      <c r="B79" s="91"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="92"/>
-      <c r="F79" s="92"/>
-      <c r="G79" s="92"/>
-      <c r="H79" s="92"/>
-      <c r="I79" s="92"/>
-      <c r="J79" s="92"/>
-      <c r="K79" s="93"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="64"/>
     </row>
     <row r="80" spans="2:11" customFormat="1">
-      <c r="B80" s="108">
+      <c r="B80" s="92">
         <f>J67+3</f>
         <v>46013</v>
       </c>
-      <c r="C80" s="109"/>
-      <c r="D80" s="110">
+      <c r="C80" s="93"/>
+      <c r="D80" s="90">
         <f>B80+1</f>
         <v>46014</v>
       </c>
-      <c r="E80" s="111"/>
-      <c r="F80" s="112">
+      <c r="E80" s="91"/>
+      <c r="F80" s="88">
         <f>D80+1</f>
         <v>46015</v>
       </c>
-      <c r="G80" s="113"/>
-      <c r="H80" s="114">
+      <c r="G80" s="89"/>
+      <c r="H80" s="86">
         <f>F80+1</f>
         <v>46016</v>
       </c>
-      <c r="I80" s="115"/>
-      <c r="J80" s="116">
+      <c r="I80" s="87"/>
+      <c r="J80" s="84">
         <f>H80+1</f>
         <v>46017</v>
       </c>
-      <c r="K80" s="117"/>
+      <c r="K80" s="85"/>
     </row>
     <row r="81" spans="2:11" customFormat="1">
-      <c r="B81" s="63"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="95"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="97"/>
-      <c r="J81" s="68"/>
-      <c r="K81" s="98"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="77"/>
+      <c r="J81" s="74"/>
+      <c r="K81" s="75"/>
     </row>
     <row r="82" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B82" s="39">
@@ -3047,167 +3071,167 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E82" s="43"/>
-      <c r="F82" s="102" t="s">
+      <c r="F82" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="103"/>
-      <c r="H82" s="102" t="s">
+      <c r="G82" s="66"/>
+      <c r="H82" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="103"/>
-      <c r="J82" s="102" t="s">
+      <c r="I82" s="66"/>
+      <c r="J82" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="103"/>
+      <c r="K82" s="66"/>
     </row>
     <row r="83" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
       <c r="D83" s="17"/>
       <c r="E83" s="46"/>
-      <c r="F83" s="104"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="104"/>
-      <c r="I83" s="105"/>
-      <c r="J83" s="104"/>
-      <c r="K83" s="105"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="68"/>
     </row>
     <row r="84" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B84" s="7"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
       <c r="E84" s="47"/>
-      <c r="F84" s="104"/>
-      <c r="G84" s="105"/>
-      <c r="H84" s="104"/>
-      <c r="I84" s="105"/>
-      <c r="J84" s="104"/>
-      <c r="K84" s="105"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="68"/>
     </row>
     <row r="85" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="17"/>
       <c r="E85" s="46"/>
-      <c r="F85" s="104"/>
-      <c r="G85" s="105"/>
-      <c r="H85" s="104"/>
-      <c r="I85" s="105"/>
-      <c r="J85" s="104"/>
-      <c r="K85" s="105"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="68"/>
     </row>
     <row r="86" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B86" s="30"/>
       <c r="C86" s="21"/>
       <c r="D86" s="31"/>
       <c r="E86" s="47"/>
-      <c r="F86" s="104"/>
-      <c r="G86" s="105"/>
-      <c r="H86" s="104"/>
-      <c r="I86" s="105"/>
-      <c r="J86" s="104"/>
-      <c r="K86" s="105"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="68"/>
     </row>
     <row r="87" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B87" s="35"/>
       <c r="C87" s="15"/>
       <c r="D87" s="36"/>
       <c r="E87" s="46"/>
-      <c r="F87" s="104"/>
-      <c r="G87" s="105"/>
-      <c r="H87" s="104"/>
-      <c r="I87" s="105"/>
-      <c r="J87" s="104"/>
-      <c r="K87" s="105"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="68"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="68"/>
     </row>
     <row r="88" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B88" s="30"/>
       <c r="C88" s="21"/>
       <c r="D88" s="31"/>
       <c r="E88" s="47"/>
-      <c r="F88" s="106"/>
-      <c r="G88" s="107"/>
-      <c r="H88" s="106"/>
-      <c r="I88" s="107"/>
-      <c r="J88" s="106"/>
-      <c r="K88" s="107"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="70"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="70"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="70"/>
     </row>
     <row r="89" spans="2:11" customFormat="1">
-      <c r="B89" s="99"/>
-      <c r="C89" s="100"/>
-      <c r="D89" s="100"/>
-      <c r="E89" s="100"/>
-      <c r="F89" s="100"/>
-      <c r="G89" s="100"/>
-      <c r="H89" s="100"/>
-      <c r="I89" s="100"/>
-      <c r="J89" s="100"/>
-      <c r="K89" s="101"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
+      <c r="K89" s="73"/>
     </row>
     <row r="91" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B91" s="71" t="s">
+      <c r="B91" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C91" s="89"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="89"/>
-      <c r="F91" s="89"/>
-      <c r="G91" s="89"/>
-      <c r="H91" s="89"/>
-      <c r="I91" s="89"/>
-      <c r="J91" s="89"/>
-      <c r="K91" s="90"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="61"/>
     </row>
     <row r="92" spans="2:11" customFormat="1">
-      <c r="B92" s="91"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="92"/>
-      <c r="E92" s="92"/>
-      <c r="F92" s="92"/>
-      <c r="G92" s="92"/>
-      <c r="H92" s="92"/>
-      <c r="I92" s="92"/>
-      <c r="J92" s="92"/>
-      <c r="K92" s="93"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="63"/>
+      <c r="H92" s="63"/>
+      <c r="I92" s="63"/>
+      <c r="J92" s="63"/>
+      <c r="K92" s="64"/>
     </row>
     <row r="93" spans="2:11" customFormat="1">
-      <c r="B93" s="108">
+      <c r="B93" s="92">
         <f>J80+3</f>
         <v>46020</v>
       </c>
-      <c r="C93" s="109"/>
-      <c r="D93" s="110">
+      <c r="C93" s="93"/>
+      <c r="D93" s="90">
         <f>B93+1</f>
         <v>46021</v>
       </c>
-      <c r="E93" s="111"/>
-      <c r="F93" s="112">
+      <c r="E93" s="91"/>
+      <c r="F93" s="88">
         <f>D93+1</f>
         <v>46022</v>
       </c>
-      <c r="G93" s="113"/>
-      <c r="H93" s="114">
+      <c r="G93" s="89"/>
+      <c r="H93" s="86">
         <f>F93+1</f>
         <v>46023</v>
       </c>
-      <c r="I93" s="115"/>
-      <c r="J93" s="116">
+      <c r="I93" s="87"/>
+      <c r="J93" s="84">
         <f>H93+1</f>
         <v>46024</v>
       </c>
-      <c r="K93" s="117"/>
+      <c r="K93" s="85"/>
     </row>
     <row r="94" spans="2:11" customFormat="1">
-      <c r="B94" s="63"/>
-      <c r="C94" s="94"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="95"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="96"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="97"/>
-      <c r="J94" s="68"/>
-      <c r="K94" s="98"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="80"/>
+      <c r="E94" s="81"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="79"/>
+      <c r="H94" s="76"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="74"/>
+      <c r="K94" s="75"/>
     </row>
     <row r="95" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B95" s="39">
@@ -3220,177 +3244,177 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E95" s="43"/>
-      <c r="F95" s="102" t="s">
+      <c r="F95" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="103"/>
-      <c r="H95" s="102" t="s">
+      <c r="G95" s="66"/>
+      <c r="H95" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="103"/>
-      <c r="J95" s="102" t="s">
+      <c r="I95" s="66"/>
+      <c r="J95" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="103"/>
+      <c r="K95" s="66"/>
     </row>
     <row r="96" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="17"/>
       <c r="E96" s="46"/>
-      <c r="F96" s="104"/>
-      <c r="G96" s="105"/>
-      <c r="H96" s="104"/>
-      <c r="I96" s="105"/>
-      <c r="J96" s="104"/>
-      <c r="K96" s="105"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="68"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="68"/>
     </row>
     <row r="97" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B97" s="7"/>
       <c r="C97" s="21"/>
       <c r="D97" s="22"/>
       <c r="E97" s="47"/>
-      <c r="F97" s="104"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="104"/>
-      <c r="I97" s="105"/>
-      <c r="J97" s="104"/>
-      <c r="K97" s="105"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="68"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="68"/>
+      <c r="J97" s="67"/>
+      <c r="K97" s="68"/>
     </row>
     <row r="98" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="17"/>
       <c r="E98" s="46"/>
-      <c r="F98" s="104"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="104"/>
-      <c r="I98" s="105"/>
-      <c r="J98" s="104"/>
-      <c r="K98" s="105"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="68"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="68"/>
     </row>
     <row r="99" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B99" s="30"/>
       <c r="C99" s="21"/>
       <c r="D99" s="31"/>
       <c r="E99" s="47"/>
-      <c r="F99" s="104"/>
-      <c r="G99" s="105"/>
-      <c r="H99" s="104"/>
-      <c r="I99" s="105"/>
-      <c r="J99" s="104"/>
-      <c r="K99" s="105"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="67"/>
+      <c r="K99" s="68"/>
     </row>
     <row r="100" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B100" s="35"/>
       <c r="C100" s="15"/>
       <c r="D100" s="36"/>
       <c r="E100" s="46"/>
-      <c r="F100" s="104"/>
-      <c r="G100" s="105"/>
-      <c r="H100" s="104"/>
-      <c r="I100" s="105"/>
-      <c r="J100" s="104"/>
-      <c r="K100" s="105"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="68"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="68"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="68"/>
     </row>
     <row r="101" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B101" s="30"/>
       <c r="C101" s="21"/>
       <c r="D101" s="31"/>
       <c r="E101" s="47"/>
-      <c r="F101" s="106"/>
-      <c r="G101" s="107"/>
-      <c r="H101" s="106"/>
-      <c r="I101" s="107"/>
-      <c r="J101" s="106"/>
-      <c r="K101" s="107"/>
+      <c r="F101" s="69"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="69"/>
+      <c r="I101" s="70"/>
+      <c r="J101" s="69"/>
+      <c r="K101" s="70"/>
     </row>
     <row r="102" spans="2:11" customFormat="1">
-      <c r="B102" s="99"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="100"/>
-      <c r="G102" s="100"/>
-      <c r="H102" s="100"/>
-      <c r="I102" s="100"/>
-      <c r="J102" s="100"/>
-      <c r="K102" s="101"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
+      <c r="K102" s="73"/>
     </row>
     <row r="104" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B104" s="71" t="s">
+      <c r="B104" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="89"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="89"/>
-      <c r="F104" s="89"/>
-      <c r="G104" s="89"/>
-      <c r="H104" s="89"/>
-      <c r="I104" s="89"/>
-      <c r="J104" s="89"/>
-      <c r="K104" s="90"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="60"/>
+      <c r="J104" s="60"/>
+      <c r="K104" s="61"/>
     </row>
     <row r="105" spans="2:11" customFormat="1">
-      <c r="B105" s="91"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="92"/>
-      <c r="G105" s="92"/>
-      <c r="H105" s="92"/>
-      <c r="I105" s="92"/>
-      <c r="J105" s="92"/>
-      <c r="K105" s="93"/>
+      <c r="B105" s="62"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="63"/>
+      <c r="K105" s="64"/>
     </row>
     <row r="106" spans="2:11" customFormat="1">
-      <c r="B106" s="77">
+      <c r="B106" s="139">
         <f>J93+3</f>
         <v>46027</v>
       </c>
-      <c r="C106" s="78"/>
-      <c r="D106" s="79">
+      <c r="C106" s="140"/>
+      <c r="D106" s="141">
         <f>B106+1</f>
         <v>46028</v>
       </c>
-      <c r="E106" s="78"/>
-      <c r="F106" s="80">
+      <c r="E106" s="140"/>
+      <c r="F106" s="142">
         <f>D106+1</f>
         <v>46029</v>
       </c>
-      <c r="G106" s="78"/>
-      <c r="H106" s="81">
+      <c r="G106" s="140"/>
+      <c r="H106" s="143">
         <f>F106+1</f>
         <v>46030</v>
       </c>
-      <c r="I106" s="78"/>
-      <c r="J106" s="82">
+      <c r="I106" s="140"/>
+      <c r="J106" s="144">
         <f>H106+1</f>
         <v>46031</v>
       </c>
-      <c r="K106" s="78"/>
+      <c r="K106" s="140"/>
     </row>
     <row r="107" spans="2:11" customFormat="1">
-      <c r="B107" s="83" t="s">
+      <c r="B107" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="84"/>
-      <c r="D107" s="85" t="s">
+      <c r="C107" s="151"/>
+      <c r="D107" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="84"/>
-      <c r="F107" s="86" t="s">
+      <c r="E107" s="151"/>
+      <c r="F107" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="G107" s="84"/>
-      <c r="H107" s="87" t="s">
+      <c r="G107" s="151"/>
+      <c r="H107" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="I107" s="84"/>
-      <c r="J107" s="88" t="s">
+      <c r="I107" s="151"/>
+      <c r="J107" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="84"/>
+      <c r="K107" s="151"/>
     </row>
     <row r="108" spans="2:11" customFormat="1" ht="26.25">
       <c r="B108" s="39">
@@ -3580,95 +3604,95 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118"/>
-      <c r="B118" s="69"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="70"/>
-      <c r="F118" s="70"/>
-      <c r="G118" s="70"/>
-      <c r="H118" s="70"/>
-      <c r="I118" s="70"/>
-      <c r="J118" s="70"/>
-      <c r="K118" s="64"/>
+      <c r="B118" s="155"/>
+      <c r="C118" s="156"/>
+      <c r="D118" s="156"/>
+      <c r="E118" s="156"/>
+      <c r="F118" s="156"/>
+      <c r="G118" s="156"/>
+      <c r="H118" s="156"/>
+      <c r="I118" s="156"/>
+      <c r="J118" s="156"/>
+      <c r="K118" s="157"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120"/>
-      <c r="B120" s="71" t="s">
+      <c r="B120" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="C120" s="72"/>
-      <c r="D120" s="72"/>
-      <c r="E120" s="72"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="72"/>
-      <c r="H120" s="72"/>
-      <c r="I120" s="72"/>
-      <c r="J120" s="72"/>
-      <c r="K120" s="73"/>
+      <c r="C120" s="145"/>
+      <c r="D120" s="145"/>
+      <c r="E120" s="145"/>
+      <c r="F120" s="145"/>
+      <c r="G120" s="145"/>
+      <c r="H120" s="145"/>
+      <c r="I120" s="145"/>
+      <c r="J120" s="145"/>
+      <c r="K120" s="146"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121"/>
-      <c r="B121" s="74"/>
-      <c r="C121" s="75"/>
-      <c r="D121" s="75"/>
-      <c r="E121" s="75"/>
-      <c r="F121" s="75"/>
-      <c r="G121" s="75"/>
-      <c r="H121" s="75"/>
-      <c r="I121" s="75"/>
-      <c r="J121" s="75"/>
-      <c r="K121" s="76"/>
+      <c r="B121" s="147"/>
+      <c r="C121" s="148"/>
+      <c r="D121" s="148"/>
+      <c r="E121" s="148"/>
+      <c r="F121" s="148"/>
+      <c r="G121" s="148"/>
+      <c r="H121" s="148"/>
+      <c r="I121" s="148"/>
+      <c r="J121" s="148"/>
+      <c r="K121" s="149"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122"/>
-      <c r="B122" s="77">
+      <c r="B122" s="139">
         <f>J106+3</f>
         <v>46034</v>
       </c>
-      <c r="C122" s="78"/>
-      <c r="D122" s="79">
+      <c r="C122" s="140"/>
+      <c r="D122" s="141">
         <f>B122+1</f>
         <v>46035</v>
       </c>
-      <c r="E122" s="78"/>
-      <c r="F122" s="80">
+      <c r="E122" s="140"/>
+      <c r="F122" s="142">
         <f>D122+1</f>
         <v>46036</v>
       </c>
-      <c r="G122" s="78"/>
-      <c r="H122" s="81">
+      <c r="G122" s="140"/>
+      <c r="H122" s="143">
         <f>F122+1</f>
         <v>46037</v>
       </c>
-      <c r="I122" s="78"/>
-      <c r="J122" s="82">
+      <c r="I122" s="140"/>
+      <c r="J122" s="144">
         <f>H122+1</f>
         <v>46038</v>
       </c>
-      <c r="K122" s="78"/>
+      <c r="K122" s="140"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123"/>
-      <c r="B123" s="83" t="s">
+      <c r="B123" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="C123" s="84"/>
-      <c r="D123" s="85" t="s">
+      <c r="C123" s="151"/>
+      <c r="D123" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="E123" s="84"/>
-      <c r="F123" s="86" t="s">
+      <c r="E123" s="151"/>
+      <c r="F123" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="G123" s="84"/>
-      <c r="H123" s="87" t="s">
+      <c r="G123" s="151"/>
+      <c r="H123" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="I123" s="84"/>
-      <c r="J123" s="88" t="s">
+      <c r="I123" s="151"/>
+      <c r="J123" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="K123" s="84"/>
+      <c r="K123" s="151"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124"/>
@@ -3803,85 +3827,85 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131"/>
-      <c r="B131" s="69"/>
-      <c r="C131" s="70"/>
-      <c r="D131" s="70"/>
-      <c r="E131" s="70"/>
-      <c r="F131" s="70"/>
-      <c r="G131" s="70"/>
-      <c r="H131" s="70"/>
-      <c r="I131" s="70"/>
-      <c r="J131" s="70"/>
-      <c r="K131" s="64"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="156"/>
+      <c r="D131" s="156"/>
+      <c r="E131" s="156"/>
+      <c r="F131" s="156"/>
+      <c r="G131" s="156"/>
+      <c r="H131" s="156"/>
+      <c r="I131" s="156"/>
+      <c r="J131" s="156"/>
+      <c r="K131" s="157"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133"/>
-      <c r="B133" s="71" t="s">
+      <c r="B133" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C133" s="72"/>
-      <c r="D133" s="72"/>
-      <c r="E133" s="72"/>
-      <c r="F133" s="72"/>
-      <c r="G133" s="72"/>
-      <c r="H133" s="72"/>
-      <c r="I133" s="72"/>
-      <c r="J133" s="72"/>
-      <c r="K133" s="73"/>
+      <c r="C133" s="145"/>
+      <c r="D133" s="145"/>
+      <c r="E133" s="145"/>
+      <c r="F133" s="145"/>
+      <c r="G133" s="145"/>
+      <c r="H133" s="145"/>
+      <c r="I133" s="145"/>
+      <c r="J133" s="145"/>
+      <c r="K133" s="146"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134"/>
-      <c r="B134" s="74"/>
-      <c r="C134" s="75"/>
-      <c r="D134" s="75"/>
-      <c r="E134" s="75"/>
-      <c r="F134" s="75"/>
-      <c r="G134" s="75"/>
-      <c r="H134" s="75"/>
-      <c r="I134" s="75"/>
-      <c r="J134" s="75"/>
-      <c r="K134" s="76"/>
+      <c r="B134" s="147"/>
+      <c r="C134" s="148"/>
+      <c r="D134" s="148"/>
+      <c r="E134" s="148"/>
+      <c r="F134" s="148"/>
+      <c r="G134" s="148"/>
+      <c r="H134" s="148"/>
+      <c r="I134" s="148"/>
+      <c r="J134" s="148"/>
+      <c r="K134" s="149"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135"/>
-      <c r="B135" s="77">
+      <c r="B135" s="139">
         <f>J122+3</f>
         <v>46041</v>
       </c>
-      <c r="C135" s="78"/>
-      <c r="D135" s="79">
+      <c r="C135" s="140"/>
+      <c r="D135" s="141">
         <f>B135+1</f>
         <v>46042</v>
       </c>
-      <c r="E135" s="78"/>
-      <c r="F135" s="80">
+      <c r="E135" s="140"/>
+      <c r="F135" s="142">
         <f>D135+1</f>
         <v>46043</v>
       </c>
-      <c r="G135" s="78"/>
-      <c r="H135" s="81">
+      <c r="G135" s="140"/>
+      <c r="H135" s="143">
         <f>F135+1</f>
         <v>46044</v>
       </c>
-      <c r="I135" s="78"/>
-      <c r="J135" s="82">
+      <c r="I135" s="140"/>
+      <c r="J135" s="144">
         <f>H135+1</f>
         <v>46045</v>
       </c>
-      <c r="K135" s="78"/>
+      <c r="K135" s="140"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136"/>
-      <c r="B136" s="63"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="64"/>
-      <c r="F136" s="66"/>
-      <c r="G136" s="64"/>
-      <c r="H136" s="67"/>
-      <c r="I136" s="64"/>
-      <c r="J136" s="68"/>
-      <c r="K136" s="64"/>
+      <c r="B136" s="82"/>
+      <c r="C136" s="157"/>
+      <c r="D136" s="80"/>
+      <c r="E136" s="157"/>
+      <c r="F136" s="78"/>
+      <c r="G136" s="157"/>
+      <c r="H136" s="76"/>
+      <c r="I136" s="157"/>
+      <c r="J136" s="74"/>
+      <c r="K136" s="157"/>
     </row>
     <row r="137" spans="1:11" ht="26.25">
       <c r="A137"/>
@@ -4016,85 +4040,85 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144"/>
-      <c r="B144" s="69"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="70"/>
-      <c r="F144" s="70"/>
-      <c r="G144" s="70"/>
-      <c r="H144" s="70"/>
-      <c r="I144" s="70"/>
-      <c r="J144" s="70"/>
-      <c r="K144" s="64"/>
+      <c r="B144" s="155"/>
+      <c r="C144" s="156"/>
+      <c r="D144" s="156"/>
+      <c r="E144" s="156"/>
+      <c r="F144" s="156"/>
+      <c r="G144" s="156"/>
+      <c r="H144" s="156"/>
+      <c r="I144" s="156"/>
+      <c r="J144" s="156"/>
+      <c r="K144" s="157"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146"/>
-      <c r="B146" s="71" t="s">
+      <c r="B146" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="72"/>
-      <c r="D146" s="72"/>
-      <c r="E146" s="72"/>
-      <c r="F146" s="72"/>
-      <c r="G146" s="72"/>
-      <c r="H146" s="72"/>
-      <c r="I146" s="72"/>
-      <c r="J146" s="72"/>
-      <c r="K146" s="73"/>
+      <c r="C146" s="145"/>
+      <c r="D146" s="145"/>
+      <c r="E146" s="145"/>
+      <c r="F146" s="145"/>
+      <c r="G146" s="145"/>
+      <c r="H146" s="145"/>
+      <c r="I146" s="145"/>
+      <c r="J146" s="145"/>
+      <c r="K146" s="146"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147"/>
-      <c r="B147" s="74"/>
-      <c r="C147" s="75"/>
-      <c r="D147" s="75"/>
-      <c r="E147" s="75"/>
-      <c r="F147" s="75"/>
-      <c r="G147" s="75"/>
-      <c r="H147" s="75"/>
-      <c r="I147" s="75"/>
-      <c r="J147" s="75"/>
-      <c r="K147" s="76"/>
+      <c r="B147" s="147"/>
+      <c r="C147" s="148"/>
+      <c r="D147" s="148"/>
+      <c r="E147" s="148"/>
+      <c r="F147" s="148"/>
+      <c r="G147" s="148"/>
+      <c r="H147" s="148"/>
+      <c r="I147" s="148"/>
+      <c r="J147" s="148"/>
+      <c r="K147" s="149"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148"/>
-      <c r="B148" s="77">
+      <c r="B148" s="139">
         <f>J135+3</f>
         <v>46048</v>
       </c>
-      <c r="C148" s="78"/>
-      <c r="D148" s="79">
+      <c r="C148" s="140"/>
+      <c r="D148" s="141">
         <f>B148+1</f>
         <v>46049</v>
       </c>
-      <c r="E148" s="78"/>
-      <c r="F148" s="80">
+      <c r="E148" s="140"/>
+      <c r="F148" s="142">
         <f>D148+1</f>
         <v>46050</v>
       </c>
-      <c r="G148" s="78"/>
-      <c r="H148" s="81">
+      <c r="G148" s="140"/>
+      <c r="H148" s="143">
         <f>F148+1</f>
         <v>46051</v>
       </c>
-      <c r="I148" s="78"/>
-      <c r="J148" s="82">
+      <c r="I148" s="140"/>
+      <c r="J148" s="144">
         <f>H148+1</f>
         <v>46052</v>
       </c>
-      <c r="K148" s="78"/>
+      <c r="K148" s="140"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149"/>
-      <c r="B149" s="63"/>
-      <c r="C149" s="64"/>
-      <c r="D149" s="65"/>
-      <c r="E149" s="64"/>
-      <c r="F149" s="66"/>
-      <c r="G149" s="64"/>
-      <c r="H149" s="67"/>
-      <c r="I149" s="64"/>
-      <c r="J149" s="68"/>
-      <c r="K149" s="64"/>
+      <c r="B149" s="82"/>
+      <c r="C149" s="157"/>
+      <c r="D149" s="80"/>
+      <c r="E149" s="157"/>
+      <c r="F149" s="78"/>
+      <c r="G149" s="157"/>
+      <c r="H149" s="76"/>
+      <c r="I149" s="157"/>
+      <c r="J149" s="74"/>
+      <c r="K149" s="157"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150"/>
@@ -4157,7 +4181,9 @@
         <v>120</v>
       </c>
       <c r="J152" s="13"/>
-      <c r="K152" s="45"/>
+      <c r="K152" s="45" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="153" spans="1:11" ht="39">
       <c r="A153"/>
@@ -4215,96 +4241,100 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157"/>
-      <c r="B157" s="69"/>
-      <c r="C157" s="70"/>
-      <c r="D157" s="70"/>
-      <c r="E157" s="70"/>
-      <c r="F157" s="70"/>
-      <c r="G157" s="70"/>
-      <c r="H157" s="70"/>
-      <c r="I157" s="70"/>
-      <c r="J157" s="70"/>
-      <c r="K157" s="64"/>
+      <c r="B157" s="155"/>
+      <c r="C157" s="156"/>
+      <c r="D157" s="156"/>
+      <c r="E157" s="156"/>
+      <c r="F157" s="156"/>
+      <c r="G157" s="156"/>
+      <c r="H157" s="156"/>
+      <c r="I157" s="156"/>
+      <c r="J157" s="156"/>
+      <c r="K157" s="157"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159"/>
-      <c r="B159" s="71" t="s">
+      <c r="B159" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C159" s="72"/>
-      <c r="D159" s="72"/>
-      <c r="E159" s="72"/>
-      <c r="F159" s="72"/>
-      <c r="G159" s="72"/>
-      <c r="H159" s="72"/>
-      <c r="I159" s="72"/>
-      <c r="J159" s="72"/>
-      <c r="K159" s="73"/>
+      <c r="C159" s="145"/>
+      <c r="D159" s="145"/>
+      <c r="E159" s="145"/>
+      <c r="F159" s="145"/>
+      <c r="G159" s="145"/>
+      <c r="H159" s="145"/>
+      <c r="I159" s="145"/>
+      <c r="J159" s="145"/>
+      <c r="K159" s="146"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160"/>
-      <c r="B160" s="74"/>
-      <c r="C160" s="75"/>
-      <c r="D160" s="75"/>
-      <c r="E160" s="75"/>
-      <c r="F160" s="75"/>
-      <c r="G160" s="75"/>
-      <c r="H160" s="75"/>
-      <c r="I160" s="75"/>
-      <c r="J160" s="75"/>
-      <c r="K160" s="76"/>
+      <c r="B160" s="147"/>
+      <c r="C160" s="148"/>
+      <c r="D160" s="148"/>
+      <c r="E160" s="148"/>
+      <c r="F160" s="148"/>
+      <c r="G160" s="148"/>
+      <c r="H160" s="148"/>
+      <c r="I160" s="148"/>
+      <c r="J160" s="148"/>
+      <c r="K160" s="149"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161"/>
-      <c r="B161" s="77">
+      <c r="B161" s="139">
         <f>J148+3</f>
         <v>46055</v>
       </c>
-      <c r="C161" s="78"/>
-      <c r="D161" s="79">
+      <c r="C161" s="140"/>
+      <c r="D161" s="141">
         <f>B161+1</f>
         <v>46056</v>
       </c>
-      <c r="E161" s="78"/>
-      <c r="F161" s="80">
+      <c r="E161" s="140"/>
+      <c r="F161" s="142">
         <f>D161+1</f>
         <v>46057</v>
       </c>
-      <c r="G161" s="78"/>
-      <c r="H161" s="81">
+      <c r="G161" s="140"/>
+      <c r="H161" s="143">
         <f>F161+1</f>
         <v>46058</v>
       </c>
-      <c r="I161" s="78"/>
-      <c r="J161" s="82">
+      <c r="I161" s="140"/>
+      <c r="J161" s="144">
         <f>H161+1</f>
         <v>46059</v>
       </c>
-      <c r="K161" s="78"/>
+      <c r="K161" s="140"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162"/>
-      <c r="B162" s="63"/>
-      <c r="C162" s="64"/>
-      <c r="D162" s="65"/>
-      <c r="E162" s="64"/>
-      <c r="F162" s="66"/>
-      <c r="G162" s="64"/>
-      <c r="H162" s="67"/>
-      <c r="I162" s="64"/>
-      <c r="J162" s="68"/>
-      <c r="K162" s="64"/>
+      <c r="B162" s="82"/>
+      <c r="C162" s="157"/>
+      <c r="D162" s="80"/>
+      <c r="E162" s="157"/>
+      <c r="F162" s="78"/>
+      <c r="G162" s="157"/>
+      <c r="H162" s="76"/>
+      <c r="I162" s="157"/>
+      <c r="J162" s="74"/>
+      <c r="K162" s="157"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163"/>
       <c r="B163" s="39">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C163" s="8"/>
+      <c r="C163" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="D163" s="40">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E163" s="43"/>
+      <c r="E163" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="F163" s="10">
         <v>0.79166666666666663</v>
       </c>
@@ -4321,9 +4351,13 @@
     <row r="164" spans="1:11">
       <c r="A164"/>
       <c r="B164" s="14"/>
-      <c r="C164" s="15"/>
+      <c r="C164" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="D164" s="17"/>
-      <c r="E164" s="46"/>
+      <c r="E164" s="46" t="s">
+        <v>128</v>
+      </c>
       <c r="F164" s="17"/>
       <c r="G164" s="18"/>
       <c r="H164" s="17"/>
@@ -4334,9 +4368,13 @@
     <row r="165" spans="1:11">
       <c r="A165"/>
       <c r="B165" s="7"/>
-      <c r="C165" s="21"/>
+      <c r="C165" s="21" t="s">
+        <v>124</v>
+      </c>
       <c r="D165" s="22"/>
-      <c r="E165" s="47"/>
+      <c r="E165" s="47" t="s">
+        <v>129</v>
+      </c>
       <c r="F165" s="23"/>
       <c r="G165" s="24"/>
       <c r="H165" s="42"/>
@@ -4347,7 +4385,9 @@
     <row r="166" spans="1:11">
       <c r="A166"/>
       <c r="B166" s="14"/>
-      <c r="C166" s="15"/>
+      <c r="C166" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="D166" s="17"/>
       <c r="E166" s="46"/>
       <c r="F166" s="17"/>
@@ -4398,85 +4438,85 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170"/>
-      <c r="B170" s="69"/>
-      <c r="C170" s="70"/>
-      <c r="D170" s="70"/>
-      <c r="E170" s="70"/>
-      <c r="F170" s="70"/>
-      <c r="G170" s="70"/>
-      <c r="H170" s="70"/>
-      <c r="I170" s="70"/>
-      <c r="J170" s="70"/>
-      <c r="K170" s="64"/>
+      <c r="B170" s="155"/>
+      <c r="C170" s="156"/>
+      <c r="D170" s="156"/>
+      <c r="E170" s="156"/>
+      <c r="F170" s="156"/>
+      <c r="G170" s="156"/>
+      <c r="H170" s="156"/>
+      <c r="I170" s="156"/>
+      <c r="J170" s="156"/>
+      <c r="K170" s="157"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172"/>
-      <c r="B172" s="71" t="s">
+      <c r="B172" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C172" s="72"/>
-      <c r="D172" s="72"/>
-      <c r="E172" s="72"/>
-      <c r="F172" s="72"/>
-      <c r="G172" s="72"/>
-      <c r="H172" s="72"/>
-      <c r="I172" s="72"/>
-      <c r="J172" s="72"/>
-      <c r="K172" s="73"/>
+      <c r="C172" s="145"/>
+      <c r="D172" s="145"/>
+      <c r="E172" s="145"/>
+      <c r="F172" s="145"/>
+      <c r="G172" s="145"/>
+      <c r="H172" s="145"/>
+      <c r="I172" s="145"/>
+      <c r="J172" s="145"/>
+      <c r="K172" s="146"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173"/>
-      <c r="B173" s="74"/>
-      <c r="C173" s="75"/>
-      <c r="D173" s="75"/>
-      <c r="E173" s="75"/>
-      <c r="F173" s="75"/>
-      <c r="G173" s="75"/>
-      <c r="H173" s="75"/>
-      <c r="I173" s="75"/>
-      <c r="J173" s="75"/>
-      <c r="K173" s="76"/>
+      <c r="B173" s="147"/>
+      <c r="C173" s="148"/>
+      <c r="D173" s="148"/>
+      <c r="E173" s="148"/>
+      <c r="F173" s="148"/>
+      <c r="G173" s="148"/>
+      <c r="H173" s="148"/>
+      <c r="I173" s="148"/>
+      <c r="J173" s="148"/>
+      <c r="K173" s="149"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174"/>
-      <c r="B174" s="77">
+      <c r="B174" s="139">
         <f>J161+3</f>
         <v>46062</v>
       </c>
-      <c r="C174" s="78"/>
-      <c r="D174" s="79">
+      <c r="C174" s="140"/>
+      <c r="D174" s="141">
         <f>B174+1</f>
         <v>46063</v>
       </c>
-      <c r="E174" s="78"/>
-      <c r="F174" s="80">
+      <c r="E174" s="140"/>
+      <c r="F174" s="142">
         <f>D174+1</f>
         <v>46064</v>
       </c>
-      <c r="G174" s="78"/>
-      <c r="H174" s="81">
+      <c r="G174" s="140"/>
+      <c r="H174" s="143">
         <f>F174+1</f>
         <v>46065</v>
       </c>
-      <c r="I174" s="78"/>
-      <c r="J174" s="82">
+      <c r="I174" s="140"/>
+      <c r="J174" s="144">
         <f>H174+1</f>
         <v>46066</v>
       </c>
-      <c r="K174" s="78"/>
+      <c r="K174" s="140"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175"/>
-      <c r="B175" s="63"/>
-      <c r="C175" s="64"/>
-      <c r="D175" s="65"/>
-      <c r="E175" s="64"/>
-      <c r="F175" s="66"/>
-      <c r="G175" s="64"/>
-      <c r="H175" s="67"/>
-      <c r="I175" s="64"/>
-      <c r="J175" s="68"/>
-      <c r="K175" s="64"/>
+      <c r="B175" s="82"/>
+      <c r="C175" s="157"/>
+      <c r="D175" s="80"/>
+      <c r="E175" s="157"/>
+      <c r="F175" s="78"/>
+      <c r="G175" s="157"/>
+      <c r="H175" s="76"/>
+      <c r="I175" s="157"/>
+      <c r="J175" s="74"/>
+      <c r="K175" s="157"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176"/>
@@ -4581,85 +4621,85 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183"/>
-      <c r="B183" s="69"/>
-      <c r="C183" s="70"/>
-      <c r="D183" s="70"/>
-      <c r="E183" s="70"/>
-      <c r="F183" s="70"/>
-      <c r="G183" s="70"/>
-      <c r="H183" s="70"/>
-      <c r="I183" s="70"/>
-      <c r="J183" s="70"/>
-      <c r="K183" s="64"/>
+      <c r="B183" s="155"/>
+      <c r="C183" s="156"/>
+      <c r="D183" s="156"/>
+      <c r="E183" s="156"/>
+      <c r="F183" s="156"/>
+      <c r="G183" s="156"/>
+      <c r="H183" s="156"/>
+      <c r="I183" s="156"/>
+      <c r="J183" s="156"/>
+      <c r="K183" s="157"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185"/>
-      <c r="B185" s="71" t="s">
+      <c r="B185" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C185" s="72"/>
-      <c r="D185" s="72"/>
-      <c r="E185" s="72"/>
-      <c r="F185" s="72"/>
-      <c r="G185" s="72"/>
-      <c r="H185" s="72"/>
-      <c r="I185" s="72"/>
-      <c r="J185" s="72"/>
-      <c r="K185" s="73"/>
+      <c r="C185" s="145"/>
+      <c r="D185" s="145"/>
+      <c r="E185" s="145"/>
+      <c r="F185" s="145"/>
+      <c r="G185" s="145"/>
+      <c r="H185" s="145"/>
+      <c r="I185" s="145"/>
+      <c r="J185" s="145"/>
+      <c r="K185" s="146"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186"/>
-      <c r="B186" s="74"/>
-      <c r="C186" s="75"/>
-      <c r="D186" s="75"/>
-      <c r="E186" s="75"/>
-      <c r="F186" s="75"/>
-      <c r="G186" s="75"/>
-      <c r="H186" s="75"/>
-      <c r="I186" s="75"/>
-      <c r="J186" s="75"/>
-      <c r="K186" s="76"/>
+      <c r="B186" s="147"/>
+      <c r="C186" s="148"/>
+      <c r="D186" s="148"/>
+      <c r="E186" s="148"/>
+      <c r="F186" s="148"/>
+      <c r="G186" s="148"/>
+      <c r="H186" s="148"/>
+      <c r="I186" s="148"/>
+      <c r="J186" s="148"/>
+      <c r="K186" s="149"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187"/>
-      <c r="B187" s="77">
+      <c r="B187" s="139">
         <f>J174+3</f>
         <v>46069</v>
       </c>
-      <c r="C187" s="78"/>
-      <c r="D187" s="79">
+      <c r="C187" s="140"/>
+      <c r="D187" s="141">
         <f>B187+1</f>
         <v>46070</v>
       </c>
-      <c r="E187" s="78"/>
-      <c r="F187" s="80">
+      <c r="E187" s="140"/>
+      <c r="F187" s="142">
         <f>D187+1</f>
         <v>46071</v>
       </c>
-      <c r="G187" s="78"/>
-      <c r="H187" s="81">
+      <c r="G187" s="140"/>
+      <c r="H187" s="143">
         <f>F187+1</f>
         <v>46072</v>
       </c>
-      <c r="I187" s="78"/>
-      <c r="J187" s="82">
+      <c r="I187" s="140"/>
+      <c r="J187" s="144">
         <f>H187+1</f>
         <v>46073</v>
       </c>
-      <c r="K187" s="78"/>
+      <c r="K187" s="140"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188"/>
-      <c r="B188" s="63"/>
-      <c r="C188" s="64"/>
-      <c r="D188" s="65"/>
-      <c r="E188" s="64"/>
-      <c r="F188" s="66"/>
-      <c r="G188" s="64"/>
-      <c r="H188" s="67"/>
-      <c r="I188" s="64"/>
-      <c r="J188" s="68"/>
-      <c r="K188" s="64"/>
+      <c r="B188" s="82"/>
+      <c r="C188" s="157"/>
+      <c r="D188" s="80"/>
+      <c r="E188" s="157"/>
+      <c r="F188" s="78"/>
+      <c r="G188" s="157"/>
+      <c r="H188" s="76"/>
+      <c r="I188" s="157"/>
+      <c r="J188" s="74"/>
+      <c r="K188" s="157"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189"/>
@@ -4764,85 +4804,85 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196"/>
-      <c r="B196" s="69"/>
-      <c r="C196" s="70"/>
-      <c r="D196" s="70"/>
-      <c r="E196" s="70"/>
-      <c r="F196" s="70"/>
-      <c r="G196" s="70"/>
-      <c r="H196" s="70"/>
-      <c r="I196" s="70"/>
-      <c r="J196" s="70"/>
-      <c r="K196" s="64"/>
+      <c r="B196" s="155"/>
+      <c r="C196" s="156"/>
+      <c r="D196" s="156"/>
+      <c r="E196" s="156"/>
+      <c r="F196" s="156"/>
+      <c r="G196" s="156"/>
+      <c r="H196" s="156"/>
+      <c r="I196" s="156"/>
+      <c r="J196" s="156"/>
+      <c r="K196" s="157"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198"/>
-      <c r="B198" s="71" t="s">
+      <c r="B198" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C198" s="72"/>
-      <c r="D198" s="72"/>
-      <c r="E198" s="72"/>
-      <c r="F198" s="72"/>
-      <c r="G198" s="72"/>
-      <c r="H198" s="72"/>
-      <c r="I198" s="72"/>
-      <c r="J198" s="72"/>
-      <c r="K198" s="73"/>
+      <c r="C198" s="145"/>
+      <c r="D198" s="145"/>
+      <c r="E198" s="145"/>
+      <c r="F198" s="145"/>
+      <c r="G198" s="145"/>
+      <c r="H198" s="145"/>
+      <c r="I198" s="145"/>
+      <c r="J198" s="145"/>
+      <c r="K198" s="146"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199"/>
-      <c r="B199" s="74"/>
-      <c r="C199" s="75"/>
-      <c r="D199" s="75"/>
-      <c r="E199" s="75"/>
-      <c r="F199" s="75"/>
-      <c r="G199" s="75"/>
-      <c r="H199" s="75"/>
-      <c r="I199" s="75"/>
-      <c r="J199" s="75"/>
-      <c r="K199" s="76"/>
+      <c r="B199" s="147"/>
+      <c r="C199" s="148"/>
+      <c r="D199" s="148"/>
+      <c r="E199" s="148"/>
+      <c r="F199" s="148"/>
+      <c r="G199" s="148"/>
+      <c r="H199" s="148"/>
+      <c r="I199" s="148"/>
+      <c r="J199" s="148"/>
+      <c r="K199" s="149"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200"/>
-      <c r="B200" s="77">
+      <c r="B200" s="139">
         <f>J187+3</f>
         <v>46076</v>
       </c>
-      <c r="C200" s="78"/>
-      <c r="D200" s="79">
+      <c r="C200" s="140"/>
+      <c r="D200" s="141">
         <f>B200+1</f>
         <v>46077</v>
       </c>
-      <c r="E200" s="78"/>
-      <c r="F200" s="80">
+      <c r="E200" s="140"/>
+      <c r="F200" s="142">
         <f>D200+1</f>
         <v>46078</v>
       </c>
-      <c r="G200" s="78"/>
-      <c r="H200" s="81">
+      <c r="G200" s="140"/>
+      <c r="H200" s="143">
         <f>F200+1</f>
         <v>46079</v>
       </c>
-      <c r="I200" s="78"/>
-      <c r="J200" s="82">
+      <c r="I200" s="140"/>
+      <c r="J200" s="144">
         <f>H200+1</f>
         <v>46080</v>
       </c>
-      <c r="K200" s="78"/>
+      <c r="K200" s="140"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201"/>
-      <c r="B201" s="63"/>
-      <c r="C201" s="64"/>
-      <c r="D201" s="65"/>
-      <c r="E201" s="64"/>
-      <c r="F201" s="66"/>
-      <c r="G201" s="64"/>
-      <c r="H201" s="67"/>
-      <c r="I201" s="64"/>
-      <c r="J201" s="68"/>
-      <c r="K201" s="64"/>
+      <c r="B201" s="82"/>
+      <c r="C201" s="157"/>
+      <c r="D201" s="80"/>
+      <c r="E201" s="157"/>
+      <c r="F201" s="78"/>
+      <c r="G201" s="157"/>
+      <c r="H201" s="76"/>
+      <c r="I201" s="157"/>
+      <c r="J201" s="74"/>
+      <c r="K201" s="157"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202"/>
@@ -4947,85 +4987,85 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209"/>
-      <c r="B209" s="69"/>
-      <c r="C209" s="70"/>
-      <c r="D209" s="70"/>
-      <c r="E209" s="70"/>
-      <c r="F209" s="70"/>
-      <c r="G209" s="70"/>
-      <c r="H209" s="70"/>
-      <c r="I209" s="70"/>
-      <c r="J209" s="70"/>
-      <c r="K209" s="64"/>
+      <c r="B209" s="155"/>
+      <c r="C209" s="156"/>
+      <c r="D209" s="156"/>
+      <c r="E209" s="156"/>
+      <c r="F209" s="156"/>
+      <c r="G209" s="156"/>
+      <c r="H209" s="156"/>
+      <c r="I209" s="156"/>
+      <c r="J209" s="156"/>
+      <c r="K209" s="157"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211"/>
-      <c r="B211" s="71" t="s">
+      <c r="B211" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C211" s="72"/>
-      <c r="D211" s="72"/>
-      <c r="E211" s="72"/>
-      <c r="F211" s="72"/>
-      <c r="G211" s="72"/>
-      <c r="H211" s="72"/>
-      <c r="I211" s="72"/>
-      <c r="J211" s="72"/>
-      <c r="K211" s="73"/>
+      <c r="C211" s="145"/>
+      <c r="D211" s="145"/>
+      <c r="E211" s="145"/>
+      <c r="F211" s="145"/>
+      <c r="G211" s="145"/>
+      <c r="H211" s="145"/>
+      <c r="I211" s="145"/>
+      <c r="J211" s="145"/>
+      <c r="K211" s="146"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212"/>
-      <c r="B212" s="74"/>
-      <c r="C212" s="75"/>
-      <c r="D212" s="75"/>
-      <c r="E212" s="75"/>
-      <c r="F212" s="75"/>
-      <c r="G212" s="75"/>
-      <c r="H212" s="75"/>
-      <c r="I212" s="75"/>
-      <c r="J212" s="75"/>
-      <c r="K212" s="76"/>
+      <c r="B212" s="147"/>
+      <c r="C212" s="148"/>
+      <c r="D212" s="148"/>
+      <c r="E212" s="148"/>
+      <c r="F212" s="148"/>
+      <c r="G212" s="148"/>
+      <c r="H212" s="148"/>
+      <c r="I212" s="148"/>
+      <c r="J212" s="148"/>
+      <c r="K212" s="149"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213"/>
-      <c r="B213" s="77">
+      <c r="B213" s="139">
         <f>J200+3</f>
         <v>46083</v>
       </c>
-      <c r="C213" s="78"/>
-      <c r="D213" s="79">
+      <c r="C213" s="140"/>
+      <c r="D213" s="141">
         <f>B213+1</f>
         <v>46084</v>
       </c>
-      <c r="E213" s="78"/>
-      <c r="F213" s="80">
+      <c r="E213" s="140"/>
+      <c r="F213" s="142">
         <f>D213+1</f>
         <v>46085</v>
       </c>
-      <c r="G213" s="78"/>
-      <c r="H213" s="81">
+      <c r="G213" s="140"/>
+      <c r="H213" s="143">
         <f>F213+1</f>
         <v>46086</v>
       </c>
-      <c r="I213" s="78"/>
-      <c r="J213" s="82">
+      <c r="I213" s="140"/>
+      <c r="J213" s="144">
         <f>H213+1</f>
         <v>46087</v>
       </c>
-      <c r="K213" s="78"/>
+      <c r="K213" s="140"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214"/>
-      <c r="B214" s="63"/>
-      <c r="C214" s="64"/>
-      <c r="D214" s="65"/>
-      <c r="E214" s="64"/>
-      <c r="F214" s="66"/>
-      <c r="G214" s="64"/>
-      <c r="H214" s="67"/>
-      <c r="I214" s="64"/>
-      <c r="J214" s="68"/>
-      <c r="K214" s="64"/>
+      <c r="B214" s="82"/>
+      <c r="C214" s="157"/>
+      <c r="D214" s="80"/>
+      <c r="E214" s="157"/>
+      <c r="F214" s="78"/>
+      <c r="G214" s="157"/>
+      <c r="H214" s="76"/>
+      <c r="I214" s="157"/>
+      <c r="J214" s="74"/>
+      <c r="K214" s="157"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215"/>
@@ -5130,85 +5170,85 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222"/>
-      <c r="B222" s="69"/>
-      <c r="C222" s="70"/>
-      <c r="D222" s="70"/>
-      <c r="E222" s="70"/>
-      <c r="F222" s="70"/>
-      <c r="G222" s="70"/>
-      <c r="H222" s="70"/>
-      <c r="I222" s="70"/>
-      <c r="J222" s="70"/>
-      <c r="K222" s="64"/>
+      <c r="B222" s="155"/>
+      <c r="C222" s="156"/>
+      <c r="D222" s="156"/>
+      <c r="E222" s="156"/>
+      <c r="F222" s="156"/>
+      <c r="G222" s="156"/>
+      <c r="H222" s="156"/>
+      <c r="I222" s="156"/>
+      <c r="J222" s="156"/>
+      <c r="K222" s="157"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224"/>
-      <c r="B224" s="71" t="s">
+      <c r="B224" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C224" s="72"/>
-      <c r="D224" s="72"/>
-      <c r="E224" s="72"/>
-      <c r="F224" s="72"/>
-      <c r="G224" s="72"/>
-      <c r="H224" s="72"/>
-      <c r="I224" s="72"/>
-      <c r="J224" s="72"/>
-      <c r="K224" s="73"/>
+      <c r="C224" s="145"/>
+      <c r="D224" s="145"/>
+      <c r="E224" s="145"/>
+      <c r="F224" s="145"/>
+      <c r="G224" s="145"/>
+      <c r="H224" s="145"/>
+      <c r="I224" s="145"/>
+      <c r="J224" s="145"/>
+      <c r="K224" s="146"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225"/>
-      <c r="B225" s="74"/>
-      <c r="C225" s="75"/>
-      <c r="D225" s="75"/>
-      <c r="E225" s="75"/>
-      <c r="F225" s="75"/>
-      <c r="G225" s="75"/>
-      <c r="H225" s="75"/>
-      <c r="I225" s="75"/>
-      <c r="J225" s="75"/>
-      <c r="K225" s="76"/>
+      <c r="B225" s="147"/>
+      <c r="C225" s="148"/>
+      <c r="D225" s="148"/>
+      <c r="E225" s="148"/>
+      <c r="F225" s="148"/>
+      <c r="G225" s="148"/>
+      <c r="H225" s="148"/>
+      <c r="I225" s="148"/>
+      <c r="J225" s="148"/>
+      <c r="K225" s="149"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226"/>
-      <c r="B226" s="77">
+      <c r="B226" s="139">
         <f>J213+3</f>
         <v>46090</v>
       </c>
-      <c r="C226" s="78"/>
-      <c r="D226" s="79">
+      <c r="C226" s="140"/>
+      <c r="D226" s="141">
         <f>B226+1</f>
         <v>46091</v>
       </c>
-      <c r="E226" s="78"/>
-      <c r="F226" s="80">
+      <c r="E226" s="140"/>
+      <c r="F226" s="142">
         <f>D226+1</f>
         <v>46092</v>
       </c>
-      <c r="G226" s="78"/>
-      <c r="H226" s="81">
+      <c r="G226" s="140"/>
+      <c r="H226" s="143">
         <f>F226+1</f>
         <v>46093</v>
       </c>
-      <c r="I226" s="78"/>
-      <c r="J226" s="82">
+      <c r="I226" s="140"/>
+      <c r="J226" s="144">
         <f>H226+1</f>
         <v>46094</v>
       </c>
-      <c r="K226" s="78"/>
+      <c r="K226" s="140"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227"/>
-      <c r="B227" s="63"/>
-      <c r="C227" s="64"/>
-      <c r="D227" s="65"/>
-      <c r="E227" s="64"/>
-      <c r="F227" s="66"/>
-      <c r="G227" s="64"/>
-      <c r="H227" s="67"/>
-      <c r="I227" s="64"/>
-      <c r="J227" s="68"/>
-      <c r="K227" s="64"/>
+      <c r="B227" s="82"/>
+      <c r="C227" s="157"/>
+      <c r="D227" s="80"/>
+      <c r="E227" s="157"/>
+      <c r="F227" s="78"/>
+      <c r="G227" s="157"/>
+      <c r="H227" s="76"/>
+      <c r="I227" s="157"/>
+      <c r="J227" s="74"/>
+      <c r="K227" s="157"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228"/>
@@ -5313,85 +5353,85 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235"/>
-      <c r="B235" s="69"/>
-      <c r="C235" s="70"/>
-      <c r="D235" s="70"/>
-      <c r="E235" s="70"/>
-      <c r="F235" s="70"/>
-      <c r="G235" s="70"/>
-      <c r="H235" s="70"/>
-      <c r="I235" s="70"/>
-      <c r="J235" s="70"/>
-      <c r="K235" s="64"/>
+      <c r="B235" s="155"/>
+      <c r="C235" s="156"/>
+      <c r="D235" s="156"/>
+      <c r="E235" s="156"/>
+      <c r="F235" s="156"/>
+      <c r="G235" s="156"/>
+      <c r="H235" s="156"/>
+      <c r="I235" s="156"/>
+      <c r="J235" s="156"/>
+      <c r="K235" s="157"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237"/>
-      <c r="B237" s="71" t="s">
+      <c r="B237" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C237" s="72"/>
-      <c r="D237" s="72"/>
-      <c r="E237" s="72"/>
-      <c r="F237" s="72"/>
-      <c r="G237" s="72"/>
-      <c r="H237" s="72"/>
-      <c r="I237" s="72"/>
-      <c r="J237" s="72"/>
-      <c r="K237" s="73"/>
+      <c r="C237" s="145"/>
+      <c r="D237" s="145"/>
+      <c r="E237" s="145"/>
+      <c r="F237" s="145"/>
+      <c r="G237" s="145"/>
+      <c r="H237" s="145"/>
+      <c r="I237" s="145"/>
+      <c r="J237" s="145"/>
+      <c r="K237" s="146"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238"/>
-      <c r="B238" s="74"/>
-      <c r="C238" s="75"/>
-      <c r="D238" s="75"/>
-      <c r="E238" s="75"/>
-      <c r="F238" s="75"/>
-      <c r="G238" s="75"/>
-      <c r="H238" s="75"/>
-      <c r="I238" s="75"/>
-      <c r="J238" s="75"/>
-      <c r="K238" s="76"/>
+      <c r="B238" s="147"/>
+      <c r="C238" s="148"/>
+      <c r="D238" s="148"/>
+      <c r="E238" s="148"/>
+      <c r="F238" s="148"/>
+      <c r="G238" s="148"/>
+      <c r="H238" s="148"/>
+      <c r="I238" s="148"/>
+      <c r="J238" s="148"/>
+      <c r="K238" s="149"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239"/>
-      <c r="B239" s="77">
+      <c r="B239" s="139">
         <f>J226+3</f>
         <v>46097</v>
       </c>
-      <c r="C239" s="78"/>
-      <c r="D239" s="79">
+      <c r="C239" s="140"/>
+      <c r="D239" s="141">
         <f>B239+1</f>
         <v>46098</v>
       </c>
-      <c r="E239" s="78"/>
-      <c r="F239" s="80">
+      <c r="E239" s="140"/>
+      <c r="F239" s="142">
         <f>D239+1</f>
         <v>46099</v>
       </c>
-      <c r="G239" s="78"/>
-      <c r="H239" s="81">
+      <c r="G239" s="140"/>
+      <c r="H239" s="143">
         <f>F239+1</f>
         <v>46100</v>
       </c>
-      <c r="I239" s="78"/>
-      <c r="J239" s="82">
+      <c r="I239" s="140"/>
+      <c r="J239" s="144">
         <f>H239+1</f>
         <v>46101</v>
       </c>
-      <c r="K239" s="78"/>
+      <c r="K239" s="140"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240"/>
-      <c r="B240" s="63"/>
-      <c r="C240" s="64"/>
-      <c r="D240" s="65"/>
-      <c r="E240" s="64"/>
-      <c r="F240" s="66"/>
-      <c r="G240" s="64"/>
-      <c r="H240" s="67"/>
-      <c r="I240" s="64"/>
-      <c r="J240" s="68"/>
-      <c r="K240" s="64"/>
+      <c r="B240" s="82"/>
+      <c r="C240" s="157"/>
+      <c r="D240" s="80"/>
+      <c r="E240" s="157"/>
+      <c r="F240" s="78"/>
+      <c r="G240" s="157"/>
+      <c r="H240" s="76"/>
+      <c r="I240" s="157"/>
+      <c r="J240" s="74"/>
+      <c r="K240" s="157"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241"/>
@@ -5496,85 +5536,85 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248"/>
-      <c r="B248" s="69"/>
-      <c r="C248" s="70"/>
-      <c r="D248" s="70"/>
-      <c r="E248" s="70"/>
-      <c r="F248" s="70"/>
-      <c r="G248" s="70"/>
-      <c r="H248" s="70"/>
-      <c r="I248" s="70"/>
-      <c r="J248" s="70"/>
-      <c r="K248" s="64"/>
+      <c r="B248" s="155"/>
+      <c r="C248" s="156"/>
+      <c r="D248" s="156"/>
+      <c r="E248" s="156"/>
+      <c r="F248" s="156"/>
+      <c r="G248" s="156"/>
+      <c r="H248" s="156"/>
+      <c r="I248" s="156"/>
+      <c r="J248" s="156"/>
+      <c r="K248" s="157"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250"/>
-      <c r="B250" s="71" t="s">
+      <c r="B250" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C250" s="72"/>
-      <c r="D250" s="72"/>
-      <c r="E250" s="72"/>
-      <c r="F250" s="72"/>
-      <c r="G250" s="72"/>
-      <c r="H250" s="72"/>
-      <c r="I250" s="72"/>
-      <c r="J250" s="72"/>
-      <c r="K250" s="73"/>
+      <c r="C250" s="145"/>
+      <c r="D250" s="145"/>
+      <c r="E250" s="145"/>
+      <c r="F250" s="145"/>
+      <c r="G250" s="145"/>
+      <c r="H250" s="145"/>
+      <c r="I250" s="145"/>
+      <c r="J250" s="145"/>
+      <c r="K250" s="146"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251"/>
-      <c r="B251" s="74"/>
-      <c r="C251" s="75"/>
-      <c r="D251" s="75"/>
-      <c r="E251" s="75"/>
-      <c r="F251" s="75"/>
-      <c r="G251" s="75"/>
-      <c r="H251" s="75"/>
-      <c r="I251" s="75"/>
-      <c r="J251" s="75"/>
-      <c r="K251" s="76"/>
+      <c r="B251" s="147"/>
+      <c r="C251" s="148"/>
+      <c r="D251" s="148"/>
+      <c r="E251" s="148"/>
+      <c r="F251" s="148"/>
+      <c r="G251" s="148"/>
+      <c r="H251" s="148"/>
+      <c r="I251" s="148"/>
+      <c r="J251" s="148"/>
+      <c r="K251" s="149"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252"/>
-      <c r="B252" s="77">
+      <c r="B252" s="139">
         <f>J239+3</f>
         <v>46104</v>
       </c>
-      <c r="C252" s="78"/>
-      <c r="D252" s="79">
+      <c r="C252" s="140"/>
+      <c r="D252" s="141">
         <f>B252+1</f>
         <v>46105</v>
       </c>
-      <c r="E252" s="78"/>
-      <c r="F252" s="80">
+      <c r="E252" s="140"/>
+      <c r="F252" s="142">
         <f>D252+1</f>
         <v>46106</v>
       </c>
-      <c r="G252" s="78"/>
-      <c r="H252" s="81">
+      <c r="G252" s="140"/>
+      <c r="H252" s="143">
         <f>F252+1</f>
         <v>46107</v>
       </c>
-      <c r="I252" s="78"/>
-      <c r="J252" s="82">
+      <c r="I252" s="140"/>
+      <c r="J252" s="144">
         <f>H252+1</f>
         <v>46108</v>
       </c>
-      <c r="K252" s="78"/>
+      <c r="K252" s="140"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253"/>
-      <c r="B253" s="63"/>
-      <c r="C253" s="64"/>
-      <c r="D253" s="65"/>
-      <c r="E253" s="64"/>
-      <c r="F253" s="66"/>
-      <c r="G253" s="64"/>
-      <c r="H253" s="67"/>
-      <c r="I253" s="64"/>
-      <c r="J253" s="68"/>
-      <c r="K253" s="64"/>
+      <c r="B253" s="82"/>
+      <c r="C253" s="157"/>
+      <c r="D253" s="80"/>
+      <c r="E253" s="157"/>
+      <c r="F253" s="78"/>
+      <c r="G253" s="157"/>
+      <c r="H253" s="76"/>
+      <c r="I253" s="157"/>
+      <c r="J253" s="74"/>
+      <c r="K253" s="157"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254"/>
@@ -5683,85 +5723,85 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261"/>
-      <c r="B261" s="69"/>
-      <c r="C261" s="70"/>
-      <c r="D261" s="70"/>
-      <c r="E261" s="70"/>
-      <c r="F261" s="70"/>
-      <c r="G261" s="70"/>
-      <c r="H261" s="70"/>
-      <c r="I261" s="70"/>
-      <c r="J261" s="70"/>
-      <c r="K261" s="64"/>
+      <c r="B261" s="155"/>
+      <c r="C261" s="156"/>
+      <c r="D261" s="156"/>
+      <c r="E261" s="156"/>
+      <c r="F261" s="156"/>
+      <c r="G261" s="156"/>
+      <c r="H261" s="156"/>
+      <c r="I261" s="156"/>
+      <c r="J261" s="156"/>
+      <c r="K261" s="157"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263"/>
-      <c r="B263" s="71" t="s">
+      <c r="B263" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C263" s="72"/>
-      <c r="D263" s="72"/>
-      <c r="E263" s="72"/>
-      <c r="F263" s="72"/>
-      <c r="G263" s="72"/>
-      <c r="H263" s="72"/>
-      <c r="I263" s="72"/>
-      <c r="J263" s="72"/>
-      <c r="K263" s="73"/>
+      <c r="C263" s="145"/>
+      <c r="D263" s="145"/>
+      <c r="E263" s="145"/>
+      <c r="F263" s="145"/>
+      <c r="G263" s="145"/>
+      <c r="H263" s="145"/>
+      <c r="I263" s="145"/>
+      <c r="J263" s="145"/>
+      <c r="K263" s="146"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264"/>
-      <c r="B264" s="74"/>
-      <c r="C264" s="75"/>
-      <c r="D264" s="75"/>
-      <c r="E264" s="75"/>
-      <c r="F264" s="75"/>
-      <c r="G264" s="75"/>
-      <c r="H264" s="75"/>
-      <c r="I264" s="75"/>
-      <c r="J264" s="75"/>
-      <c r="K264" s="76"/>
+      <c r="B264" s="147"/>
+      <c r="C264" s="148"/>
+      <c r="D264" s="148"/>
+      <c r="E264" s="148"/>
+      <c r="F264" s="148"/>
+      <c r="G264" s="148"/>
+      <c r="H264" s="148"/>
+      <c r="I264" s="148"/>
+      <c r="J264" s="148"/>
+      <c r="K264" s="149"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265"/>
-      <c r="B265" s="77">
+      <c r="B265" s="139">
         <f>J252+3</f>
         <v>46111</v>
       </c>
-      <c r="C265" s="78"/>
-      <c r="D265" s="79">
+      <c r="C265" s="140"/>
+      <c r="D265" s="141">
         <f>B265+1</f>
         <v>46112</v>
       </c>
-      <c r="E265" s="78"/>
-      <c r="F265" s="80">
+      <c r="E265" s="140"/>
+      <c r="F265" s="142">
         <f>D265+1</f>
         <v>46113</v>
       </c>
-      <c r="G265" s="78"/>
-      <c r="H265" s="81">
+      <c r="G265" s="140"/>
+      <c r="H265" s="143">
         <f>F265+1</f>
         <v>46114</v>
       </c>
-      <c r="I265" s="78"/>
-      <c r="J265" s="82">
+      <c r="I265" s="140"/>
+      <c r="J265" s="144">
         <f>H265+1</f>
         <v>46115</v>
       </c>
-      <c r="K265" s="78"/>
+      <c r="K265" s="140"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266"/>
-      <c r="B266" s="63"/>
-      <c r="C266" s="64"/>
-      <c r="D266" s="65"/>
-      <c r="E266" s="64"/>
-      <c r="F266" s="66"/>
-      <c r="G266" s="64"/>
-      <c r="H266" s="67"/>
-      <c r="I266" s="64"/>
-      <c r="J266" s="68"/>
-      <c r="K266" s="64"/>
+      <c r="B266" s="82"/>
+      <c r="C266" s="157"/>
+      <c r="D266" s="80"/>
+      <c r="E266" s="157"/>
+      <c r="F266" s="78"/>
+      <c r="G266" s="157"/>
+      <c r="H266" s="76"/>
+      <c r="I266" s="157"/>
+      <c r="J266" s="74"/>
+      <c r="K266" s="157"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267"/>
@@ -5868,85 +5908,85 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274"/>
-      <c r="B274" s="69"/>
-      <c r="C274" s="70"/>
-      <c r="D274" s="70"/>
-      <c r="E274" s="70"/>
-      <c r="F274" s="70"/>
-      <c r="G274" s="70"/>
-      <c r="H274" s="70"/>
-      <c r="I274" s="70"/>
-      <c r="J274" s="70"/>
-      <c r="K274" s="64"/>
+      <c r="B274" s="155"/>
+      <c r="C274" s="156"/>
+      <c r="D274" s="156"/>
+      <c r="E274" s="156"/>
+      <c r="F274" s="156"/>
+      <c r="G274" s="156"/>
+      <c r="H274" s="156"/>
+      <c r="I274" s="156"/>
+      <c r="J274" s="156"/>
+      <c r="K274" s="157"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276"/>
-      <c r="B276" s="71" t="s">
+      <c r="B276" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C276" s="72"/>
-      <c r="D276" s="72"/>
-      <c r="E276" s="72"/>
-      <c r="F276" s="72"/>
-      <c r="G276" s="72"/>
-      <c r="H276" s="72"/>
-      <c r="I276" s="72"/>
-      <c r="J276" s="72"/>
-      <c r="K276" s="73"/>
+      <c r="C276" s="145"/>
+      <c r="D276" s="145"/>
+      <c r="E276" s="145"/>
+      <c r="F276" s="145"/>
+      <c r="G276" s="145"/>
+      <c r="H276" s="145"/>
+      <c r="I276" s="145"/>
+      <c r="J276" s="145"/>
+      <c r="K276" s="146"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277"/>
-      <c r="B277" s="74"/>
-      <c r="C277" s="75"/>
-      <c r="D277" s="75"/>
-      <c r="E277" s="75"/>
-      <c r="F277" s="75"/>
-      <c r="G277" s="75"/>
-      <c r="H277" s="75"/>
-      <c r="I277" s="75"/>
-      <c r="J277" s="75"/>
-      <c r="K277" s="76"/>
+      <c r="B277" s="147"/>
+      <c r="C277" s="148"/>
+      <c r="D277" s="148"/>
+      <c r="E277" s="148"/>
+      <c r="F277" s="148"/>
+      <c r="G277" s="148"/>
+      <c r="H277" s="148"/>
+      <c r="I277" s="148"/>
+      <c r="J277" s="148"/>
+      <c r="K277" s="149"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278"/>
-      <c r="B278" s="77">
+      <c r="B278" s="139">
         <f>J265+3</f>
         <v>46118</v>
       </c>
-      <c r="C278" s="78"/>
-      <c r="D278" s="79">
+      <c r="C278" s="140"/>
+      <c r="D278" s="141">
         <f>B278+1</f>
         <v>46119</v>
       </c>
-      <c r="E278" s="78"/>
-      <c r="F278" s="80">
+      <c r="E278" s="140"/>
+      <c r="F278" s="142">
         <f>D278+1</f>
         <v>46120</v>
       </c>
-      <c r="G278" s="78"/>
-      <c r="H278" s="81">
+      <c r="G278" s="140"/>
+      <c r="H278" s="143">
         <f>F278+1</f>
         <v>46121</v>
       </c>
-      <c r="I278" s="78"/>
-      <c r="J278" s="82">
+      <c r="I278" s="140"/>
+      <c r="J278" s="144">
         <f>H278+1</f>
         <v>46122</v>
       </c>
-      <c r="K278" s="78"/>
+      <c r="K278" s="140"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279"/>
-      <c r="B279" s="63"/>
-      <c r="C279" s="64"/>
-      <c r="D279" s="65"/>
-      <c r="E279" s="64"/>
-      <c r="F279" s="66"/>
-      <c r="G279" s="64"/>
-      <c r="H279" s="67"/>
-      <c r="I279" s="64"/>
-      <c r="J279" s="68"/>
-      <c r="K279" s="64"/>
+      <c r="B279" s="82"/>
+      <c r="C279" s="157"/>
+      <c r="D279" s="80"/>
+      <c r="E279" s="157"/>
+      <c r="F279" s="78"/>
+      <c r="G279" s="157"/>
+      <c r="H279" s="76"/>
+      <c r="I279" s="157"/>
+      <c r="J279" s="74"/>
+      <c r="K279" s="157"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280"/>
@@ -6051,85 +6091,85 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287"/>
-      <c r="B287" s="69"/>
-      <c r="C287" s="70"/>
-      <c r="D287" s="70"/>
-      <c r="E287" s="70"/>
-      <c r="F287" s="70"/>
-      <c r="G287" s="70"/>
-      <c r="H287" s="70"/>
-      <c r="I287" s="70"/>
-      <c r="J287" s="70"/>
-      <c r="K287" s="64"/>
+      <c r="B287" s="155"/>
+      <c r="C287" s="156"/>
+      <c r="D287" s="156"/>
+      <c r="E287" s="156"/>
+      <c r="F287" s="156"/>
+      <c r="G287" s="156"/>
+      <c r="H287" s="156"/>
+      <c r="I287" s="156"/>
+      <c r="J287" s="156"/>
+      <c r="K287" s="157"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289"/>
-      <c r="B289" s="71" t="s">
+      <c r="B289" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C289" s="72"/>
-      <c r="D289" s="72"/>
-      <c r="E289" s="72"/>
-      <c r="F289" s="72"/>
-      <c r="G289" s="72"/>
-      <c r="H289" s="72"/>
-      <c r="I289" s="72"/>
-      <c r="J289" s="72"/>
-      <c r="K289" s="73"/>
+      <c r="C289" s="145"/>
+      <c r="D289" s="145"/>
+      <c r="E289" s="145"/>
+      <c r="F289" s="145"/>
+      <c r="G289" s="145"/>
+      <c r="H289" s="145"/>
+      <c r="I289" s="145"/>
+      <c r="J289" s="145"/>
+      <c r="K289" s="146"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290"/>
-      <c r="B290" s="74"/>
-      <c r="C290" s="75"/>
-      <c r="D290" s="75"/>
-      <c r="E290" s="75"/>
-      <c r="F290" s="75"/>
-      <c r="G290" s="75"/>
-      <c r="H290" s="75"/>
-      <c r="I290" s="75"/>
-      <c r="J290" s="75"/>
-      <c r="K290" s="76"/>
+      <c r="B290" s="147"/>
+      <c r="C290" s="148"/>
+      <c r="D290" s="148"/>
+      <c r="E290" s="148"/>
+      <c r="F290" s="148"/>
+      <c r="G290" s="148"/>
+      <c r="H290" s="148"/>
+      <c r="I290" s="148"/>
+      <c r="J290" s="148"/>
+      <c r="K290" s="149"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291"/>
-      <c r="B291" s="77">
+      <c r="B291" s="139">
         <f>J278+3</f>
         <v>46125</v>
       </c>
-      <c r="C291" s="78"/>
-      <c r="D291" s="79">
+      <c r="C291" s="140"/>
+      <c r="D291" s="141">
         <f>B291+1</f>
         <v>46126</v>
       </c>
-      <c r="E291" s="78"/>
-      <c r="F291" s="80">
+      <c r="E291" s="140"/>
+      <c r="F291" s="142">
         <f>D291+1</f>
         <v>46127</v>
       </c>
-      <c r="G291" s="78"/>
-      <c r="H291" s="81">
+      <c r="G291" s="140"/>
+      <c r="H291" s="143">
         <f>F291+1</f>
         <v>46128</v>
       </c>
-      <c r="I291" s="78"/>
-      <c r="J291" s="82">
+      <c r="I291" s="140"/>
+      <c r="J291" s="144">
         <f>H291+1</f>
         <v>46129</v>
       </c>
-      <c r="K291" s="78"/>
+      <c r="K291" s="140"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292"/>
-      <c r="B292" s="63"/>
-      <c r="C292" s="64"/>
-      <c r="D292" s="65"/>
-      <c r="E292" s="64"/>
-      <c r="F292" s="66"/>
-      <c r="G292" s="64"/>
-      <c r="H292" s="67"/>
-      <c r="I292" s="64"/>
-      <c r="J292" s="68"/>
-      <c r="K292" s="64"/>
+      <c r="B292" s="82"/>
+      <c r="C292" s="157"/>
+      <c r="D292" s="80"/>
+      <c r="E292" s="157"/>
+      <c r="F292" s="78"/>
+      <c r="G292" s="157"/>
+      <c r="H292" s="76"/>
+      <c r="I292" s="157"/>
+      <c r="J292" s="74"/>
+      <c r="K292" s="157"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293"/>
@@ -6234,85 +6274,85 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300"/>
-      <c r="B300" s="69"/>
-      <c r="C300" s="70"/>
-      <c r="D300" s="70"/>
-      <c r="E300" s="70"/>
-      <c r="F300" s="70"/>
-      <c r="G300" s="70"/>
-      <c r="H300" s="70"/>
-      <c r="I300" s="70"/>
-      <c r="J300" s="70"/>
-      <c r="K300" s="64"/>
+      <c r="B300" s="155"/>
+      <c r="C300" s="156"/>
+      <c r="D300" s="156"/>
+      <c r="E300" s="156"/>
+      <c r="F300" s="156"/>
+      <c r="G300" s="156"/>
+      <c r="H300" s="156"/>
+      <c r="I300" s="156"/>
+      <c r="J300" s="156"/>
+      <c r="K300" s="157"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302"/>
-      <c r="B302" s="71" t="s">
+      <c r="B302" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C302" s="72"/>
-      <c r="D302" s="72"/>
-      <c r="E302" s="72"/>
-      <c r="F302" s="72"/>
-      <c r="G302" s="72"/>
-      <c r="H302" s="72"/>
-      <c r="I302" s="72"/>
-      <c r="J302" s="72"/>
-      <c r="K302" s="73"/>
+      <c r="C302" s="145"/>
+      <c r="D302" s="145"/>
+      <c r="E302" s="145"/>
+      <c r="F302" s="145"/>
+      <c r="G302" s="145"/>
+      <c r="H302" s="145"/>
+      <c r="I302" s="145"/>
+      <c r="J302" s="145"/>
+      <c r="K302" s="146"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303"/>
-      <c r="B303" s="74"/>
-      <c r="C303" s="75"/>
-      <c r="D303" s="75"/>
-      <c r="E303" s="75"/>
-      <c r="F303" s="75"/>
-      <c r="G303" s="75"/>
-      <c r="H303" s="75"/>
-      <c r="I303" s="75"/>
-      <c r="J303" s="75"/>
-      <c r="K303" s="76"/>
+      <c r="B303" s="147"/>
+      <c r="C303" s="148"/>
+      <c r="D303" s="148"/>
+      <c r="E303" s="148"/>
+      <c r="F303" s="148"/>
+      <c r="G303" s="148"/>
+      <c r="H303" s="148"/>
+      <c r="I303" s="148"/>
+      <c r="J303" s="148"/>
+      <c r="K303" s="149"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304"/>
-      <c r="B304" s="77">
+      <c r="B304" s="139">
         <f>J291+3</f>
         <v>46132</v>
       </c>
-      <c r="C304" s="78"/>
-      <c r="D304" s="79">
+      <c r="C304" s="140"/>
+      <c r="D304" s="141">
         <f>B304+1</f>
         <v>46133</v>
       </c>
-      <c r="E304" s="78"/>
-      <c r="F304" s="80">
+      <c r="E304" s="140"/>
+      <c r="F304" s="142">
         <f>D304+1</f>
         <v>46134</v>
       </c>
-      <c r="G304" s="78"/>
-      <c r="H304" s="81">
+      <c r="G304" s="140"/>
+      <c r="H304" s="143">
         <f>F304+1</f>
         <v>46135</v>
       </c>
-      <c r="I304" s="78"/>
-      <c r="J304" s="82">
+      <c r="I304" s="140"/>
+      <c r="J304" s="144">
         <f>H304+1</f>
         <v>46136</v>
       </c>
-      <c r="K304" s="78"/>
+      <c r="K304" s="140"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305"/>
-      <c r="B305" s="63"/>
-      <c r="C305" s="64"/>
-      <c r="D305" s="65"/>
-      <c r="E305" s="64"/>
-      <c r="F305" s="66"/>
-      <c r="G305" s="64"/>
-      <c r="H305" s="67"/>
-      <c r="I305" s="64"/>
-      <c r="J305" s="68"/>
-      <c r="K305" s="64"/>
+      <c r="B305" s="82"/>
+      <c r="C305" s="157"/>
+      <c r="D305" s="80"/>
+      <c r="E305" s="157"/>
+      <c r="F305" s="78"/>
+      <c r="G305" s="157"/>
+      <c r="H305" s="76"/>
+      <c r="I305" s="157"/>
+      <c r="J305" s="74"/>
+      <c r="K305" s="157"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306"/>
@@ -6417,85 +6457,85 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313"/>
-      <c r="B313" s="69"/>
-      <c r="C313" s="70"/>
-      <c r="D313" s="70"/>
-      <c r="E313" s="70"/>
-      <c r="F313" s="70"/>
-      <c r="G313" s="70"/>
-      <c r="H313" s="70"/>
-      <c r="I313" s="70"/>
-      <c r="J313" s="70"/>
-      <c r="K313" s="64"/>
+      <c r="B313" s="155"/>
+      <c r="C313" s="156"/>
+      <c r="D313" s="156"/>
+      <c r="E313" s="156"/>
+      <c r="F313" s="156"/>
+      <c r="G313" s="156"/>
+      <c r="H313" s="156"/>
+      <c r="I313" s="156"/>
+      <c r="J313" s="156"/>
+      <c r="K313" s="157"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315"/>
-      <c r="B315" s="71" t="s">
+      <c r="B315" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C315" s="72"/>
-      <c r="D315" s="72"/>
-      <c r="E315" s="72"/>
-      <c r="F315" s="72"/>
-      <c r="G315" s="72"/>
-      <c r="H315" s="72"/>
-      <c r="I315" s="72"/>
-      <c r="J315" s="72"/>
-      <c r="K315" s="73"/>
+      <c r="C315" s="145"/>
+      <c r="D315" s="145"/>
+      <c r="E315" s="145"/>
+      <c r="F315" s="145"/>
+      <c r="G315" s="145"/>
+      <c r="H315" s="145"/>
+      <c r="I315" s="145"/>
+      <c r="J315" s="145"/>
+      <c r="K315" s="146"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316"/>
-      <c r="B316" s="74"/>
-      <c r="C316" s="75"/>
-      <c r="D316" s="75"/>
-      <c r="E316" s="75"/>
-      <c r="F316" s="75"/>
-      <c r="G316" s="75"/>
-      <c r="H316" s="75"/>
-      <c r="I316" s="75"/>
-      <c r="J316" s="75"/>
-      <c r="K316" s="76"/>
+      <c r="B316" s="147"/>
+      <c r="C316" s="148"/>
+      <c r="D316" s="148"/>
+      <c r="E316" s="148"/>
+      <c r="F316" s="148"/>
+      <c r="G316" s="148"/>
+      <c r="H316" s="148"/>
+      <c r="I316" s="148"/>
+      <c r="J316" s="148"/>
+      <c r="K316" s="149"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317"/>
-      <c r="B317" s="77">
+      <c r="B317" s="139">
         <f>J304+3</f>
         <v>46139</v>
       </c>
-      <c r="C317" s="78"/>
-      <c r="D317" s="79">
+      <c r="C317" s="140"/>
+      <c r="D317" s="141">
         <f>B317+1</f>
         <v>46140</v>
       </c>
-      <c r="E317" s="78"/>
-      <c r="F317" s="80">
+      <c r="E317" s="140"/>
+      <c r="F317" s="142">
         <f>D317+1</f>
         <v>46141</v>
       </c>
-      <c r="G317" s="78"/>
-      <c r="H317" s="81">
+      <c r="G317" s="140"/>
+      <c r="H317" s="143">
         <f>F317+1</f>
         <v>46142</v>
       </c>
-      <c r="I317" s="78"/>
-      <c r="J317" s="82">
+      <c r="I317" s="140"/>
+      <c r="J317" s="144">
         <f>H317+1</f>
         <v>46143</v>
       </c>
-      <c r="K317" s="78"/>
+      <c r="K317" s="140"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318"/>
-      <c r="B318" s="63"/>
-      <c r="C318" s="64"/>
-      <c r="D318" s="65"/>
-      <c r="E318" s="64"/>
-      <c r="F318" s="66"/>
-      <c r="G318" s="64"/>
-      <c r="H318" s="67"/>
-      <c r="I318" s="64"/>
-      <c r="J318" s="68"/>
-      <c r="K318" s="64"/>
+      <c r="B318" s="82"/>
+      <c r="C318" s="157"/>
+      <c r="D318" s="80"/>
+      <c r="E318" s="157"/>
+      <c r="F318" s="78"/>
+      <c r="G318" s="157"/>
+      <c r="H318" s="76"/>
+      <c r="I318" s="157"/>
+      <c r="J318" s="74"/>
+      <c r="K318" s="157"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319"/>
@@ -6600,85 +6640,85 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326"/>
-      <c r="B326" s="69"/>
-      <c r="C326" s="70"/>
-      <c r="D326" s="70"/>
-      <c r="E326" s="70"/>
-      <c r="F326" s="70"/>
-      <c r="G326" s="70"/>
-      <c r="H326" s="70"/>
-      <c r="I326" s="70"/>
-      <c r="J326" s="70"/>
-      <c r="K326" s="64"/>
+      <c r="B326" s="155"/>
+      <c r="C326" s="156"/>
+      <c r="D326" s="156"/>
+      <c r="E326" s="156"/>
+      <c r="F326" s="156"/>
+      <c r="G326" s="156"/>
+      <c r="H326" s="156"/>
+      <c r="I326" s="156"/>
+      <c r="J326" s="156"/>
+      <c r="K326" s="157"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328"/>
-      <c r="B328" s="71" t="s">
+      <c r="B328" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C328" s="72"/>
-      <c r="D328" s="72"/>
-      <c r="E328" s="72"/>
-      <c r="F328" s="72"/>
-      <c r="G328" s="72"/>
-      <c r="H328" s="72"/>
-      <c r="I328" s="72"/>
-      <c r="J328" s="72"/>
-      <c r="K328" s="73"/>
+      <c r="C328" s="145"/>
+      <c r="D328" s="145"/>
+      <c r="E328" s="145"/>
+      <c r="F328" s="145"/>
+      <c r="G328" s="145"/>
+      <c r="H328" s="145"/>
+      <c r="I328" s="145"/>
+      <c r="J328" s="145"/>
+      <c r="K328" s="146"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329"/>
-      <c r="B329" s="74"/>
-      <c r="C329" s="75"/>
-      <c r="D329" s="75"/>
-      <c r="E329" s="75"/>
-      <c r="F329" s="75"/>
-      <c r="G329" s="75"/>
-      <c r="H329" s="75"/>
-      <c r="I329" s="75"/>
-      <c r="J329" s="75"/>
-      <c r="K329" s="76"/>
+      <c r="B329" s="147"/>
+      <c r="C329" s="148"/>
+      <c r="D329" s="148"/>
+      <c r="E329" s="148"/>
+      <c r="F329" s="148"/>
+      <c r="G329" s="148"/>
+      <c r="H329" s="148"/>
+      <c r="I329" s="148"/>
+      <c r="J329" s="148"/>
+      <c r="K329" s="149"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330"/>
-      <c r="B330" s="77">
+      <c r="B330" s="139">
         <f>J317+3</f>
         <v>46146</v>
       </c>
-      <c r="C330" s="78"/>
-      <c r="D330" s="79">
+      <c r="C330" s="140"/>
+      <c r="D330" s="141">
         <f>B330+1</f>
         <v>46147</v>
       </c>
-      <c r="E330" s="78"/>
-      <c r="F330" s="80">
+      <c r="E330" s="140"/>
+      <c r="F330" s="142">
         <f>D330+1</f>
         <v>46148</v>
       </c>
-      <c r="G330" s="78"/>
-      <c r="H330" s="81">
+      <c r="G330" s="140"/>
+      <c r="H330" s="143">
         <f>F330+1</f>
         <v>46149</v>
       </c>
-      <c r="I330" s="78"/>
-      <c r="J330" s="82">
+      <c r="I330" s="140"/>
+      <c r="J330" s="144">
         <f>H330+1</f>
         <v>46150</v>
       </c>
-      <c r="K330" s="78"/>
+      <c r="K330" s="140"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331"/>
-      <c r="B331" s="63"/>
-      <c r="C331" s="64"/>
-      <c r="D331" s="65"/>
-      <c r="E331" s="64"/>
-      <c r="F331" s="66"/>
-      <c r="G331" s="64"/>
-      <c r="H331" s="67"/>
-      <c r="I331" s="64"/>
-      <c r="J331" s="68"/>
-      <c r="K331" s="64"/>
+      <c r="B331" s="82"/>
+      <c r="C331" s="157"/>
+      <c r="D331" s="80"/>
+      <c r="E331" s="157"/>
+      <c r="F331" s="78"/>
+      <c r="G331" s="157"/>
+      <c r="H331" s="76"/>
+      <c r="I331" s="157"/>
+      <c r="J331" s="74"/>
+      <c r="K331" s="157"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332"/>
@@ -6783,19 +6823,318 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339"/>
-      <c r="B339" s="69"/>
-      <c r="C339" s="70"/>
-      <c r="D339" s="70"/>
-      <c r="E339" s="70"/>
-      <c r="F339" s="70"/>
-      <c r="G339" s="70"/>
-      <c r="H339" s="70"/>
-      <c r="I339" s="70"/>
-      <c r="J339" s="70"/>
-      <c r="K339" s="64"/>
+      <c r="B339" s="155"/>
+      <c r="C339" s="156"/>
+      <c r="D339" s="156"/>
+      <c r="E339" s="156"/>
+      <c r="F339" s="156"/>
+      <c r="G339" s="156"/>
+      <c r="H339" s="156"/>
+      <c r="I339" s="156"/>
+      <c r="J339" s="156"/>
+      <c r="K339" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="323">
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="D331:E331"/>
+    <mergeCell ref="F331:G331"/>
+    <mergeCell ref="H331:I331"/>
+    <mergeCell ref="J331:K331"/>
+    <mergeCell ref="B339:K339"/>
+    <mergeCell ref="B328:K329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="D330:E330"/>
+    <mergeCell ref="F330:G330"/>
+    <mergeCell ref="H330:I330"/>
+    <mergeCell ref="J330:K330"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="D318:E318"/>
+    <mergeCell ref="F318:G318"/>
+    <mergeCell ref="H318:I318"/>
+    <mergeCell ref="J318:K318"/>
+    <mergeCell ref="B326:K326"/>
+    <mergeCell ref="B315:K316"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="D317:E317"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="B313:K313"/>
+    <mergeCell ref="B302:K303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="B300:K300"/>
+    <mergeCell ref="B289:K290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="B287:K287"/>
+    <mergeCell ref="B276:K277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="B274:K274"/>
+    <mergeCell ref="B263:K264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="B261:K261"/>
+    <mergeCell ref="B250:K251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="B248:K248"/>
+    <mergeCell ref="B237:K238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="B235:K235"/>
+    <mergeCell ref="B224:K225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="B222:K222"/>
+    <mergeCell ref="B211:K212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="B209:K209"/>
+    <mergeCell ref="B198:K199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="B196:K196"/>
+    <mergeCell ref="B185:K186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="B183:K183"/>
+    <mergeCell ref="B172:K173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="B170:K170"/>
+    <mergeCell ref="B159:K160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B157:K157"/>
+    <mergeCell ref="B146:K147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="B144:K144"/>
+    <mergeCell ref="B133:K134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="B131:K131"/>
+    <mergeCell ref="B120:K121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="B118:K118"/>
+    <mergeCell ref="B104:K105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="H95:I101"/>
+    <mergeCell ref="F95:G101"/>
+    <mergeCell ref="B91:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B89:K89"/>
+    <mergeCell ref="H82:I88"/>
+    <mergeCell ref="F82:G88"/>
+    <mergeCell ref="B78:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B65:K66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B56:C62"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B52:K53"/>
+    <mergeCell ref="B1:C7"/>
+    <mergeCell ref="D1:I6"/>
+    <mergeCell ref="J1:K7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
     <mergeCell ref="B13:K14"/>
     <mergeCell ref="J82:K88"/>
     <mergeCell ref="J95:K101"/>
@@ -6820,305 +7159,6 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B1:C7"/>
-    <mergeCell ref="D1:I6"/>
-    <mergeCell ref="J1:K7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B52:K53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B65:K66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B56:C62"/>
-    <mergeCell ref="B78:K79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B91:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B89:K89"/>
-    <mergeCell ref="H82:I88"/>
-    <mergeCell ref="F82:G88"/>
-    <mergeCell ref="B104:K105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="H95:I101"/>
-    <mergeCell ref="F95:G101"/>
-    <mergeCell ref="B120:K121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="B118:K118"/>
-    <mergeCell ref="B133:K134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="B131:K131"/>
-    <mergeCell ref="B146:K147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="B144:K144"/>
-    <mergeCell ref="B159:K160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B157:K157"/>
-    <mergeCell ref="B172:K173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="B170:K170"/>
-    <mergeCell ref="B185:K186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="B183:K183"/>
-    <mergeCell ref="B198:K199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="B196:K196"/>
-    <mergeCell ref="B211:K212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="B209:K209"/>
-    <mergeCell ref="B224:K225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="B222:K222"/>
-    <mergeCell ref="B237:K238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="B235:K235"/>
-    <mergeCell ref="B250:K251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="F252:G252"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="B248:K248"/>
-    <mergeCell ref="B263:K264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="B261:K261"/>
-    <mergeCell ref="B276:K277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="F278:G278"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="F266:G266"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="B274:K274"/>
-    <mergeCell ref="B289:K290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="B287:K287"/>
-    <mergeCell ref="B302:K303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="B300:K300"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="B313:K313"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="D331:E331"/>
-    <mergeCell ref="F331:G331"/>
-    <mergeCell ref="H331:I331"/>
-    <mergeCell ref="J331:K331"/>
-    <mergeCell ref="B339:K339"/>
-    <mergeCell ref="B328:K329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="D330:E330"/>
-    <mergeCell ref="F330:G330"/>
-    <mergeCell ref="H330:I330"/>
-    <mergeCell ref="J330:K330"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="D318:E318"/>
-    <mergeCell ref="F318:G318"/>
-    <mergeCell ref="H318:I318"/>
-    <mergeCell ref="J318:K318"/>
-    <mergeCell ref="B326:K326"/>
-    <mergeCell ref="B315:K316"/>
-    <mergeCell ref="B317:C317"/>
-    <mergeCell ref="D317:E317"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -1241,9 +1241,76 @@
     <xf numFmtId="0" fontId="13" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,6 +1326,30 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1277,43 +1368,28 @@
     <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1322,80 +1398,16 @@
     <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1439,65 +1451,53 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1787,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C145" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView tabSelected="1" topLeftCell="C238" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E280" sqref="E280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1810,179 +1810,179 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="113" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="118"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="128"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="119"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="129"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="119"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="129"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="119"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="129"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="119"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="129"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="119"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="129"/>
     </row>
     <row r="7" spans="1:11" ht="18">
       <c r="A7" s="2"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="120"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="130"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="121" t="s">
+      <c r="C8" s="132"/>
+      <c r="D8" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="122"/>
-      <c r="F8" s="125" t="s">
+      <c r="E8" s="132"/>
+      <c r="F8" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="126"/>
-      <c r="H8" s="129" t="s">
+      <c r="G8" s="136"/>
+      <c r="H8" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="126"/>
-      <c r="J8" s="130" t="s">
+      <c r="I8" s="136"/>
+      <c r="J8" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="126"/>
+      <c r="K8" s="136"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="128"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="138"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="125" t="s">
+      <c r="B10" s="141"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="132"/>
-      <c r="H10" s="129" t="s">
+      <c r="G10" s="142"/>
+      <c r="H10" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="126"/>
-      <c r="J10" s="129" t="s">
+      <c r="I10" s="136"/>
+      <c r="J10" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="126"/>
+      <c r="K10" s="136"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="128"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="138"/>
     </row>
     <row r="12" spans="1:11" ht="2.25" hidden="1" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="160">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="158" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="62">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="60"/>
+      <c r="F12" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="111"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
@@ -1990,71 +1990,71 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="93"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5"/>
-      <c r="B15" s="92">
+      <c r="B15" s="108">
         <v>45978</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="90">
+      <c r="C15" s="109"/>
+      <c r="D15" s="110">
         <f>B15+1</f>
         <v>45979</v>
       </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="88">
+      <c r="E15" s="111"/>
+      <c r="F15" s="112">
         <f>D15+1</f>
         <v>45980</v>
       </c>
-      <c r="G15" s="89"/>
-      <c r="H15" s="86">
+      <c r="G15" s="113"/>
+      <c r="H15" s="114">
         <f>F15+1</f>
         <v>45981</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="84">
+      <c r="I15" s="115"/>
+      <c r="J15" s="116">
         <f>H15+1</f>
         <v>45982</v>
       </c>
-      <c r="K15" s="85"/>
+      <c r="K15" s="117"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="75"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="98"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6"/>
@@ -2164,16 +2164,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="27"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="73"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="101"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2"/>
@@ -2190,72 +2190,72 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="106"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="157"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="109"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="160"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5"/>
-      <c r="B28" s="94">
+      <c r="B28" s="145">
         <f>J15+3</f>
         <v>45985</v>
       </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="96">
+      <c r="C28" s="146"/>
+      <c r="D28" s="147">
         <f>B28+1</f>
         <v>45986</v>
       </c>
-      <c r="E28" s="97"/>
-      <c r="F28" s="98">
+      <c r="E28" s="148"/>
+      <c r="F28" s="149">
         <f>D28+1</f>
         <v>45987</v>
       </c>
-      <c r="G28" s="99"/>
-      <c r="H28" s="100">
+      <c r="G28" s="150"/>
+      <c r="H28" s="151">
         <f>F28+1</f>
         <v>45988</v>
       </c>
-      <c r="I28" s="101"/>
-      <c r="J28" s="102">
+      <c r="I28" s="152"/>
+      <c r="J28" s="153">
         <f>H28+1</f>
         <v>45989</v>
       </c>
-      <c r="K28" s="103"/>
+      <c r="K28" s="154"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="136"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="120"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="6"/>
@@ -2365,16 +2365,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="27"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="73"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="101"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2"/>
@@ -2391,74 +2391,74 @@
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="61"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="90"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="64"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="93"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2"/>
-      <c r="B41" s="92">
+      <c r="B41" s="108">
         <f>J28+3</f>
         <v>45992</v>
       </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="90">
+      <c r="C41" s="109"/>
+      <c r="D41" s="110">
         <f>B41+1</f>
         <v>45993</v>
       </c>
-      <c r="E41" s="91"/>
-      <c r="F41" s="88">
+      <c r="E41" s="111"/>
+      <c r="F41" s="112">
         <f>D41+1</f>
         <v>45994</v>
       </c>
-      <c r="G41" s="89"/>
-      <c r="H41" s="86">
+      <c r="G41" s="113"/>
+      <c r="H41" s="114">
         <f>F41+1</f>
         <v>45995</v>
       </c>
-      <c r="I41" s="87"/>
-      <c r="J41" s="84">
+      <c r="I41" s="115"/>
+      <c r="J41" s="116">
         <f>H41+1</f>
         <v>45996</v>
       </c>
-      <c r="K41" s="85"/>
+      <c r="K41" s="117"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="137" t="s">
+      <c r="B42" s="63"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="138"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="75"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="98"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2"/>
@@ -2596,16 +2596,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="73"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="101"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2"/>
@@ -2621,75 +2621,75 @@
       <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1">
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="61"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="90"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="B53" s="62"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="64"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="93"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="B54" s="92">
+      <c r="B54" s="108">
         <f>J41+3</f>
         <v>45999</v>
       </c>
-      <c r="C54" s="93"/>
-      <c r="D54" s="90">
+      <c r="C54" s="109"/>
+      <c r="D54" s="110">
         <f>B54+1</f>
         <v>46000</v>
       </c>
-      <c r="E54" s="91"/>
-      <c r="F54" s="88">
+      <c r="E54" s="111"/>
+      <c r="F54" s="112">
         <f>D54+1</f>
         <v>46001</v>
       </c>
-      <c r="G54" s="89"/>
-      <c r="H54" s="86">
+      <c r="G54" s="113"/>
+      <c r="H54" s="114">
         <f>F54+1</f>
         <v>46002</v>
       </c>
-      <c r="I54" s="87"/>
-      <c r="J54" s="84">
+      <c r="I54" s="115"/>
+      <c r="J54" s="116">
         <f>H54+1</f>
         <v>46003</v>
       </c>
-      <c r="K54" s="85"/>
+      <c r="K54" s="117"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="B55" s="82"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="75"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="97"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="98"/>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1">
-      <c r="B56" s="65" t="s">
+      <c r="B56" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="66"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="40">
         <f>D12</f>
         <v>0.79166666666666663</v>
@@ -2720,8 +2720,8 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1">
-      <c r="B57" s="67"/>
-      <c r="C57" s="68"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="105"/>
       <c r="D57" s="17"/>
       <c r="E57" s="46" t="s">
         <v>33</v>
@@ -2736,8 +2736,8 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1">
-      <c r="B58" s="67"/>
-      <c r="C58" s="68"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="105"/>
       <c r="D58" s="22"/>
       <c r="E58" s="47" t="s">
         <v>34</v>
@@ -2752,8 +2752,8 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1">
-      <c r="B59" s="67"/>
-      <c r="C59" s="68"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="105"/>
       <c r="D59" s="17"/>
       <c r="E59" s="46" t="s">
         <v>35</v>
@@ -2768,8 +2768,8 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1">
-      <c r="B60" s="67"/>
-      <c r="C60" s="68"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="105"/>
       <c r="D60" s="31"/>
       <c r="E60" s="47"/>
       <c r="F60" s="32"/>
@@ -2780,8 +2780,8 @@
       <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1">
-      <c r="B61" s="67"/>
-      <c r="C61" s="68"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="105"/>
       <c r="D61" s="36"/>
       <c r="E61" s="46"/>
       <c r="F61" s="36"/>
@@ -2796,8 +2796,8 @@
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1">
-      <c r="B62" s="69"/>
-      <c r="C62" s="70"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="107"/>
       <c r="D62" s="31"/>
       <c r="E62" s="47"/>
       <c r="F62" s="32"/>
@@ -2808,81 +2808,81 @@
       <c r="K62" s="48"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="B63" s="71"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
-      <c r="I63" s="72"/>
-      <c r="J63" s="72"/>
-      <c r="K63" s="73"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="100"/>
+      <c r="D63" s="100"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="100"/>
+      <c r="K63" s="101"/>
     </row>
     <row r="65" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="61"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="89"/>
+      <c r="K65" s="90"/>
     </row>
     <row r="66" spans="2:11" customFormat="1">
-      <c r="B66" s="62"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="63"/>
-      <c r="K66" s="64"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="93"/>
     </row>
     <row r="67" spans="2:11" customFormat="1">
-      <c r="B67" s="92">
+      <c r="B67" s="108">
         <f>J54+3</f>
         <v>46006</v>
       </c>
-      <c r="C67" s="93"/>
-      <c r="D67" s="90">
+      <c r="C67" s="109"/>
+      <c r="D67" s="110">
         <f>B67+1</f>
         <v>46007</v>
       </c>
-      <c r="E67" s="91"/>
-      <c r="F67" s="88">
+      <c r="E67" s="111"/>
+      <c r="F67" s="112">
         <f>D67+1</f>
         <v>46008</v>
       </c>
-      <c r="G67" s="89"/>
-      <c r="H67" s="86">
+      <c r="G67" s="113"/>
+      <c r="H67" s="114">
         <f>F67+1</f>
         <v>46009</v>
       </c>
-      <c r="I67" s="87"/>
-      <c r="J67" s="84">
+      <c r="I67" s="115"/>
+      <c r="J67" s="116">
         <f>H67+1</f>
         <v>46010</v>
       </c>
-      <c r="K67" s="85"/>
+      <c r="K67" s="117"/>
     </row>
     <row r="68" spans="2:11" customFormat="1">
-      <c r="B68" s="82"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="75"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="98"/>
     </row>
     <row r="69" spans="2:11" customFormat="1">
       <c r="B69" s="39">
@@ -2984,81 +2984,81 @@
       <c r="K75" s="48"/>
     </row>
     <row r="76" spans="2:11" customFormat="1">
-      <c r="B76" s="71"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="72"/>
-      <c r="K76" s="73"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="100"/>
+      <c r="I76" s="100"/>
+      <c r="J76" s="100"/>
+      <c r="K76" s="101"/>
     </row>
     <row r="78" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B78" s="59" t="s">
+      <c r="B78" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="61"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="89"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="89"/>
+      <c r="J78" s="89"/>
+      <c r="K78" s="90"/>
     </row>
     <row r="79" spans="2:11" customFormat="1">
-      <c r="B79" s="62"/>
-      <c r="C79" s="63"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="63"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="63"/>
-      <c r="K79" s="64"/>
+      <c r="B79" s="91"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="92"/>
+      <c r="I79" s="92"/>
+      <c r="J79" s="92"/>
+      <c r="K79" s="93"/>
     </row>
     <row r="80" spans="2:11" customFormat="1">
-      <c r="B80" s="92">
+      <c r="B80" s="108">
         <f>J67+3</f>
         <v>46013</v>
       </c>
-      <c r="C80" s="93"/>
-      <c r="D80" s="90">
+      <c r="C80" s="109"/>
+      <c r="D80" s="110">
         <f>B80+1</f>
         <v>46014</v>
       </c>
-      <c r="E80" s="91"/>
-      <c r="F80" s="88">
+      <c r="E80" s="111"/>
+      <c r="F80" s="112">
         <f>D80+1</f>
         <v>46015</v>
       </c>
-      <c r="G80" s="89"/>
-      <c r="H80" s="86">
+      <c r="G80" s="113"/>
+      <c r="H80" s="114">
         <f>F80+1</f>
         <v>46016</v>
       </c>
-      <c r="I80" s="87"/>
-      <c r="J80" s="84">
+      <c r="I80" s="115"/>
+      <c r="J80" s="116">
         <f>H80+1</f>
         <v>46017</v>
       </c>
-      <c r="K80" s="85"/>
+      <c r="K80" s="117"/>
     </row>
     <row r="81" spans="2:11" customFormat="1">
-      <c r="B81" s="82"/>
-      <c r="C81" s="83"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="81"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="79"/>
-      <c r="H81" s="76"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="74"/>
-      <c r="K81" s="75"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="95"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="96"/>
+      <c r="H81" s="67"/>
+      <c r="I81" s="97"/>
+      <c r="J81" s="68"/>
+      <c r="K81" s="98"/>
     </row>
     <row r="82" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B82" s="39">
@@ -3071,167 +3071,167 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E82" s="43"/>
-      <c r="F82" s="65" t="s">
+      <c r="F82" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="66"/>
-      <c r="H82" s="65" t="s">
+      <c r="G82" s="103"/>
+      <c r="H82" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="66"/>
-      <c r="J82" s="65" t="s">
+      <c r="I82" s="103"/>
+      <c r="J82" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="66"/>
+      <c r="K82" s="103"/>
     </row>
     <row r="83" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
       <c r="D83" s="17"/>
       <c r="E83" s="46"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="68"/>
+      <c r="F83" s="104"/>
+      <c r="G83" s="105"/>
+      <c r="H83" s="104"/>
+      <c r="I83" s="105"/>
+      <c r="J83" s="104"/>
+      <c r="K83" s="105"/>
     </row>
     <row r="84" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B84" s="7"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
       <c r="E84" s="47"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="68"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="67"/>
-      <c r="K84" s="68"/>
+      <c r="F84" s="104"/>
+      <c r="G84" s="105"/>
+      <c r="H84" s="104"/>
+      <c r="I84" s="105"/>
+      <c r="J84" s="104"/>
+      <c r="K84" s="105"/>
     </row>
     <row r="85" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="17"/>
       <c r="E85" s="46"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="68"/>
+      <c r="F85" s="104"/>
+      <c r="G85" s="105"/>
+      <c r="H85" s="104"/>
+      <c r="I85" s="105"/>
+      <c r="J85" s="104"/>
+      <c r="K85" s="105"/>
     </row>
     <row r="86" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B86" s="30"/>
       <c r="C86" s="21"/>
       <c r="D86" s="31"/>
       <c r="E86" s="47"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="67"/>
-      <c r="K86" s="68"/>
+      <c r="F86" s="104"/>
+      <c r="G86" s="105"/>
+      <c r="H86" s="104"/>
+      <c r="I86" s="105"/>
+      <c r="J86" s="104"/>
+      <c r="K86" s="105"/>
     </row>
     <row r="87" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B87" s="35"/>
       <c r="C87" s="15"/>
       <c r="D87" s="36"/>
       <c r="E87" s="46"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="68"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="68"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="68"/>
+      <c r="F87" s="104"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="104"/>
+      <c r="I87" s="105"/>
+      <c r="J87" s="104"/>
+      <c r="K87" s="105"/>
     </row>
     <row r="88" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B88" s="30"/>
       <c r="C88" s="21"/>
       <c r="D88" s="31"/>
       <c r="E88" s="47"/>
-      <c r="F88" s="69"/>
-      <c r="G88" s="70"/>
-      <c r="H88" s="69"/>
-      <c r="I88" s="70"/>
-      <c r="J88" s="69"/>
-      <c r="K88" s="70"/>
+      <c r="F88" s="106"/>
+      <c r="G88" s="107"/>
+      <c r="H88" s="106"/>
+      <c r="I88" s="107"/>
+      <c r="J88" s="106"/>
+      <c r="K88" s="107"/>
     </row>
     <row r="89" spans="2:11" customFormat="1">
-      <c r="B89" s="71"/>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="72"/>
-      <c r="K89" s="73"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="100"/>
+      <c r="D89" s="100"/>
+      <c r="E89" s="100"/>
+      <c r="F89" s="100"/>
+      <c r="G89" s="100"/>
+      <c r="H89" s="100"/>
+      <c r="I89" s="100"/>
+      <c r="J89" s="100"/>
+      <c r="K89" s="101"/>
     </row>
     <row r="91" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="60"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="61"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="89"/>
+      <c r="E91" s="89"/>
+      <c r="F91" s="89"/>
+      <c r="G91" s="89"/>
+      <c r="H91" s="89"/>
+      <c r="I91" s="89"/>
+      <c r="J91" s="89"/>
+      <c r="K91" s="90"/>
     </row>
     <row r="92" spans="2:11" customFormat="1">
-      <c r="B92" s="62"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="63"/>
-      <c r="H92" s="63"/>
-      <c r="I92" s="63"/>
-      <c r="J92" s="63"/>
-      <c r="K92" s="64"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="92"/>
+      <c r="H92" s="92"/>
+      <c r="I92" s="92"/>
+      <c r="J92" s="92"/>
+      <c r="K92" s="93"/>
     </row>
     <row r="93" spans="2:11" customFormat="1">
-      <c r="B93" s="92">
+      <c r="B93" s="108">
         <f>J80+3</f>
         <v>46020</v>
       </c>
-      <c r="C93" s="93"/>
-      <c r="D93" s="90">
+      <c r="C93" s="109"/>
+      <c r="D93" s="110">
         <f>B93+1</f>
         <v>46021</v>
       </c>
-      <c r="E93" s="91"/>
-      <c r="F93" s="88">
+      <c r="E93" s="111"/>
+      <c r="F93" s="112">
         <f>D93+1</f>
         <v>46022</v>
       </c>
-      <c r="G93" s="89"/>
-      <c r="H93" s="86">
+      <c r="G93" s="113"/>
+      <c r="H93" s="114">
         <f>F93+1</f>
         <v>46023</v>
       </c>
-      <c r="I93" s="87"/>
-      <c r="J93" s="84">
+      <c r="I93" s="115"/>
+      <c r="J93" s="116">
         <f>H93+1</f>
         <v>46024</v>
       </c>
-      <c r="K93" s="85"/>
+      <c r="K93" s="117"/>
     </row>
     <row r="94" spans="2:11" customFormat="1">
-      <c r="B94" s="82"/>
-      <c r="C94" s="83"/>
-      <c r="D94" s="80"/>
-      <c r="E94" s="81"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="79"/>
-      <c r="H94" s="76"/>
-      <c r="I94" s="77"/>
-      <c r="J94" s="74"/>
-      <c r="K94" s="75"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="94"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="95"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="96"/>
+      <c r="H94" s="67"/>
+      <c r="I94" s="97"/>
+      <c r="J94" s="68"/>
+      <c r="K94" s="98"/>
     </row>
     <row r="95" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B95" s="39">
@@ -3244,177 +3244,177 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E95" s="43"/>
-      <c r="F95" s="65" t="s">
+      <c r="F95" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="66"/>
-      <c r="H95" s="65" t="s">
+      <c r="G95" s="103"/>
+      <c r="H95" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="66"/>
-      <c r="J95" s="65" t="s">
+      <c r="I95" s="103"/>
+      <c r="J95" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="66"/>
+      <c r="K95" s="103"/>
     </row>
     <row r="96" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="17"/>
       <c r="E96" s="46"/>
-      <c r="F96" s="67"/>
-      <c r="G96" s="68"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="68"/>
-      <c r="J96" s="67"/>
-      <c r="K96" s="68"/>
+      <c r="F96" s="104"/>
+      <c r="G96" s="105"/>
+      <c r="H96" s="104"/>
+      <c r="I96" s="105"/>
+      <c r="J96" s="104"/>
+      <c r="K96" s="105"/>
     </row>
     <row r="97" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B97" s="7"/>
       <c r="C97" s="21"/>
       <c r="D97" s="22"/>
       <c r="E97" s="47"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="68"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="68"/>
-      <c r="J97" s="67"/>
-      <c r="K97" s="68"/>
+      <c r="F97" s="104"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="104"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="104"/>
+      <c r="K97" s="105"/>
     </row>
     <row r="98" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="17"/>
       <c r="E98" s="46"/>
-      <c r="F98" s="67"/>
-      <c r="G98" s="68"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="68"/>
-      <c r="J98" s="67"/>
-      <c r="K98" s="68"/>
+      <c r="F98" s="104"/>
+      <c r="G98" s="105"/>
+      <c r="H98" s="104"/>
+      <c r="I98" s="105"/>
+      <c r="J98" s="104"/>
+      <c r="K98" s="105"/>
     </row>
     <row r="99" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B99" s="30"/>
       <c r="C99" s="21"/>
       <c r="D99" s="31"/>
       <c r="E99" s="47"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="67"/>
-      <c r="K99" s="68"/>
+      <c r="F99" s="104"/>
+      <c r="G99" s="105"/>
+      <c r="H99" s="104"/>
+      <c r="I99" s="105"/>
+      <c r="J99" s="104"/>
+      <c r="K99" s="105"/>
     </row>
     <row r="100" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B100" s="35"/>
       <c r="C100" s="15"/>
       <c r="D100" s="36"/>
       <c r="E100" s="46"/>
-      <c r="F100" s="67"/>
-      <c r="G100" s="68"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="68"/>
-      <c r="J100" s="67"/>
-      <c r="K100" s="68"/>
+      <c r="F100" s="104"/>
+      <c r="G100" s="105"/>
+      <c r="H100" s="104"/>
+      <c r="I100" s="105"/>
+      <c r="J100" s="104"/>
+      <c r="K100" s="105"/>
     </row>
     <row r="101" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B101" s="30"/>
       <c r="C101" s="21"/>
       <c r="D101" s="31"/>
       <c r="E101" s="47"/>
-      <c r="F101" s="69"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="69"/>
-      <c r="I101" s="70"/>
-      <c r="J101" s="69"/>
-      <c r="K101" s="70"/>
+      <c r="F101" s="106"/>
+      <c r="G101" s="107"/>
+      <c r="H101" s="106"/>
+      <c r="I101" s="107"/>
+      <c r="J101" s="106"/>
+      <c r="K101" s="107"/>
     </row>
     <row r="102" spans="2:11" customFormat="1">
-      <c r="B102" s="71"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="72"/>
-      <c r="H102" s="72"/>
-      <c r="I102" s="72"/>
-      <c r="J102" s="72"/>
-      <c r="K102" s="73"/>
+      <c r="B102" s="99"/>
+      <c r="C102" s="100"/>
+      <c r="D102" s="100"/>
+      <c r="E102" s="100"/>
+      <c r="F102" s="100"/>
+      <c r="G102" s="100"/>
+      <c r="H102" s="100"/>
+      <c r="I102" s="100"/>
+      <c r="J102" s="100"/>
+      <c r="K102" s="101"/>
     </row>
     <row r="104" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B104" s="59" t="s">
+      <c r="B104" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="60"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="60"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="60"/>
-      <c r="J104" s="60"/>
-      <c r="K104" s="61"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="89"/>
+      <c r="H104" s="89"/>
+      <c r="I104" s="89"/>
+      <c r="J104" s="89"/>
+      <c r="K104" s="90"/>
     </row>
     <row r="105" spans="2:11" customFormat="1">
-      <c r="B105" s="62"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="63"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="63"/>
-      <c r="J105" s="63"/>
-      <c r="K105" s="64"/>
+      <c r="B105" s="91"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="92"/>
+      <c r="H105" s="92"/>
+      <c r="I105" s="92"/>
+      <c r="J105" s="92"/>
+      <c r="K105" s="93"/>
     </row>
     <row r="106" spans="2:11" customFormat="1">
-      <c r="B106" s="139">
+      <c r="B106" s="77">
         <f>J93+3</f>
         <v>46027</v>
       </c>
-      <c r="C106" s="140"/>
-      <c r="D106" s="141">
+      <c r="C106" s="78"/>
+      <c r="D106" s="79">
         <f>B106+1</f>
         <v>46028</v>
       </c>
-      <c r="E106" s="140"/>
-      <c r="F106" s="142">
+      <c r="E106" s="78"/>
+      <c r="F106" s="80">
         <f>D106+1</f>
         <v>46029</v>
       </c>
-      <c r="G106" s="140"/>
-      <c r="H106" s="143">
+      <c r="G106" s="78"/>
+      <c r="H106" s="81">
         <f>F106+1</f>
         <v>46030</v>
       </c>
-      <c r="I106" s="140"/>
-      <c r="J106" s="144">
+      <c r="I106" s="78"/>
+      <c r="J106" s="82">
         <f>H106+1</f>
         <v>46031</v>
       </c>
-      <c r="K106" s="140"/>
+      <c r="K106" s="78"/>
     </row>
     <row r="107" spans="2:11" customFormat="1">
-      <c r="B107" s="150" t="s">
+      <c r="B107" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="151"/>
-      <c r="D107" s="152" t="s">
+      <c r="C107" s="84"/>
+      <c r="D107" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="151"/>
-      <c r="F107" s="137" t="s">
+      <c r="E107" s="84"/>
+      <c r="F107" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G107" s="151"/>
-      <c r="H107" s="153" t="s">
+      <c r="G107" s="84"/>
+      <c r="H107" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I107" s="151"/>
-      <c r="J107" s="154" t="s">
+      <c r="I107" s="84"/>
+      <c r="J107" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="151"/>
+      <c r="K107" s="84"/>
     </row>
     <row r="108" spans="2:11" customFormat="1" ht="26.25">
       <c r="B108" s="39">
@@ -3604,95 +3604,95 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118"/>
-      <c r="B118" s="155"/>
-      <c r="C118" s="156"/>
-      <c r="D118" s="156"/>
-      <c r="E118" s="156"/>
-      <c r="F118" s="156"/>
-      <c r="G118" s="156"/>
-      <c r="H118" s="156"/>
-      <c r="I118" s="156"/>
-      <c r="J118" s="156"/>
-      <c r="K118" s="157"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="70"/>
+      <c r="F118" s="70"/>
+      <c r="G118" s="70"/>
+      <c r="H118" s="70"/>
+      <c r="I118" s="70"/>
+      <c r="J118" s="70"/>
+      <c r="K118" s="64"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120"/>
-      <c r="B120" s="59" t="s">
+      <c r="B120" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C120" s="145"/>
-      <c r="D120" s="145"/>
-      <c r="E120" s="145"/>
-      <c r="F120" s="145"/>
-      <c r="G120" s="145"/>
-      <c r="H120" s="145"/>
-      <c r="I120" s="145"/>
-      <c r="J120" s="145"/>
-      <c r="K120" s="146"/>
+      <c r="C120" s="72"/>
+      <c r="D120" s="72"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="73"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121"/>
-      <c r="B121" s="147"/>
-      <c r="C121" s="148"/>
-      <c r="D121" s="148"/>
-      <c r="E121" s="148"/>
-      <c r="F121" s="148"/>
-      <c r="G121" s="148"/>
-      <c r="H121" s="148"/>
-      <c r="I121" s="148"/>
-      <c r="J121" s="148"/>
-      <c r="K121" s="149"/>
+      <c r="B121" s="74"/>
+      <c r="C121" s="75"/>
+      <c r="D121" s="75"/>
+      <c r="E121" s="75"/>
+      <c r="F121" s="75"/>
+      <c r="G121" s="75"/>
+      <c r="H121" s="75"/>
+      <c r="I121" s="75"/>
+      <c r="J121" s="75"/>
+      <c r="K121" s="76"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122"/>
-      <c r="B122" s="139">
+      <c r="B122" s="77">
         <f>J106+3</f>
         <v>46034</v>
       </c>
-      <c r="C122" s="140"/>
-      <c r="D122" s="141">
+      <c r="C122" s="78"/>
+      <c r="D122" s="79">
         <f>B122+1</f>
         <v>46035</v>
       </c>
-      <c r="E122" s="140"/>
-      <c r="F122" s="142">
+      <c r="E122" s="78"/>
+      <c r="F122" s="80">
         <f>D122+1</f>
         <v>46036</v>
       </c>
-      <c r="G122" s="140"/>
-      <c r="H122" s="143">
+      <c r="G122" s="78"/>
+      <c r="H122" s="81">
         <f>F122+1</f>
         <v>46037</v>
       </c>
-      <c r="I122" s="140"/>
-      <c r="J122" s="144">
+      <c r="I122" s="78"/>
+      <c r="J122" s="82">
         <f>H122+1</f>
         <v>46038</v>
       </c>
-      <c r="K122" s="140"/>
+      <c r="K122" s="78"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123"/>
-      <c r="B123" s="150" t="s">
+      <c r="B123" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C123" s="151"/>
-      <c r="D123" s="152" t="s">
+      <c r="C123" s="84"/>
+      <c r="D123" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E123" s="151"/>
-      <c r="F123" s="137" t="s">
+      <c r="E123" s="84"/>
+      <c r="F123" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G123" s="151"/>
-      <c r="H123" s="153" t="s">
+      <c r="G123" s="84"/>
+      <c r="H123" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="I123" s="151"/>
-      <c r="J123" s="154" t="s">
+      <c r="I123" s="84"/>
+      <c r="J123" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="K123" s="151"/>
+      <c r="K123" s="84"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124"/>
@@ -3827,85 +3827,85 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131"/>
-      <c r="B131" s="155"/>
-      <c r="C131" s="156"/>
-      <c r="D131" s="156"/>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
-      <c r="H131" s="156"/>
-      <c r="I131" s="156"/>
-      <c r="J131" s="156"/>
-      <c r="K131" s="157"/>
+      <c r="B131" s="69"/>
+      <c r="C131" s="70"/>
+      <c r="D131" s="70"/>
+      <c r="E131" s="70"/>
+      <c r="F131" s="70"/>
+      <c r="G131" s="70"/>
+      <c r="H131" s="70"/>
+      <c r="I131" s="70"/>
+      <c r="J131" s="70"/>
+      <c r="K131" s="64"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133"/>
-      <c r="B133" s="59" t="s">
+      <c r="B133" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C133" s="145"/>
-      <c r="D133" s="145"/>
-      <c r="E133" s="145"/>
-      <c r="F133" s="145"/>
-      <c r="G133" s="145"/>
-      <c r="H133" s="145"/>
-      <c r="I133" s="145"/>
-      <c r="J133" s="145"/>
-      <c r="K133" s="146"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="72"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="72"/>
+      <c r="H133" s="72"/>
+      <c r="I133" s="72"/>
+      <c r="J133" s="72"/>
+      <c r="K133" s="73"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134"/>
-      <c r="B134" s="147"/>
-      <c r="C134" s="148"/>
-      <c r="D134" s="148"/>
-      <c r="E134" s="148"/>
-      <c r="F134" s="148"/>
-      <c r="G134" s="148"/>
-      <c r="H134" s="148"/>
-      <c r="I134" s="148"/>
-      <c r="J134" s="148"/>
-      <c r="K134" s="149"/>
+      <c r="B134" s="74"/>
+      <c r="C134" s="75"/>
+      <c r="D134" s="75"/>
+      <c r="E134" s="75"/>
+      <c r="F134" s="75"/>
+      <c r="G134" s="75"/>
+      <c r="H134" s="75"/>
+      <c r="I134" s="75"/>
+      <c r="J134" s="75"/>
+      <c r="K134" s="76"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135"/>
-      <c r="B135" s="139">
+      <c r="B135" s="77">
         <f>J122+3</f>
         <v>46041</v>
       </c>
-      <c r="C135" s="140"/>
-      <c r="D135" s="141">
+      <c r="C135" s="78"/>
+      <c r="D135" s="79">
         <f>B135+1</f>
         <v>46042</v>
       </c>
-      <c r="E135" s="140"/>
-      <c r="F135" s="142">
+      <c r="E135" s="78"/>
+      <c r="F135" s="80">
         <f>D135+1</f>
         <v>46043</v>
       </c>
-      <c r="G135" s="140"/>
-      <c r="H135" s="143">
+      <c r="G135" s="78"/>
+      <c r="H135" s="81">
         <f>F135+1</f>
         <v>46044</v>
       </c>
-      <c r="I135" s="140"/>
-      <c r="J135" s="144">
+      <c r="I135" s="78"/>
+      <c r="J135" s="82">
         <f>H135+1</f>
         <v>46045</v>
       </c>
-      <c r="K135" s="140"/>
+      <c r="K135" s="78"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136"/>
-      <c r="B136" s="82"/>
-      <c r="C136" s="157"/>
-      <c r="D136" s="80"/>
-      <c r="E136" s="157"/>
-      <c r="F136" s="78"/>
-      <c r="G136" s="157"/>
-      <c r="H136" s="76"/>
-      <c r="I136" s="157"/>
-      <c r="J136" s="74"/>
-      <c r="K136" s="157"/>
+      <c r="B136" s="63"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="64"/>
+      <c r="F136" s="66"/>
+      <c r="G136" s="64"/>
+      <c r="H136" s="67"/>
+      <c r="I136" s="64"/>
+      <c r="J136" s="68"/>
+      <c r="K136" s="64"/>
     </row>
     <row r="137" spans="1:11" ht="26.25">
       <c r="A137"/>
@@ -4040,85 +4040,85 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144"/>
-      <c r="B144" s="155"/>
-      <c r="C144" s="156"/>
-      <c r="D144" s="156"/>
-      <c r="E144" s="156"/>
-      <c r="F144" s="156"/>
-      <c r="G144" s="156"/>
-      <c r="H144" s="156"/>
-      <c r="I144" s="156"/>
-      <c r="J144" s="156"/>
-      <c r="K144" s="157"/>
+      <c r="B144" s="69"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="70"/>
+      <c r="F144" s="70"/>
+      <c r="G144" s="70"/>
+      <c r="H144" s="70"/>
+      <c r="I144" s="70"/>
+      <c r="J144" s="70"/>
+      <c r="K144" s="64"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146"/>
-      <c r="B146" s="59" t="s">
+      <c r="B146" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="145"/>
-      <c r="D146" s="145"/>
-      <c r="E146" s="145"/>
-      <c r="F146" s="145"/>
-      <c r="G146" s="145"/>
-      <c r="H146" s="145"/>
-      <c r="I146" s="145"/>
-      <c r="J146" s="145"/>
-      <c r="K146" s="146"/>
+      <c r="C146" s="72"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="72"/>
+      <c r="F146" s="72"/>
+      <c r="G146" s="72"/>
+      <c r="H146" s="72"/>
+      <c r="I146" s="72"/>
+      <c r="J146" s="72"/>
+      <c r="K146" s="73"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147"/>
-      <c r="B147" s="147"/>
-      <c r="C147" s="148"/>
-      <c r="D147" s="148"/>
-      <c r="E147" s="148"/>
-      <c r="F147" s="148"/>
-      <c r="G147" s="148"/>
-      <c r="H147" s="148"/>
-      <c r="I147" s="148"/>
-      <c r="J147" s="148"/>
-      <c r="K147" s="149"/>
+      <c r="B147" s="74"/>
+      <c r="C147" s="75"/>
+      <c r="D147" s="75"/>
+      <c r="E147" s="75"/>
+      <c r="F147" s="75"/>
+      <c r="G147" s="75"/>
+      <c r="H147" s="75"/>
+      <c r="I147" s="75"/>
+      <c r="J147" s="75"/>
+      <c r="K147" s="76"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148"/>
-      <c r="B148" s="139">
+      <c r="B148" s="77">
         <f>J135+3</f>
         <v>46048</v>
       </c>
-      <c r="C148" s="140"/>
-      <c r="D148" s="141">
+      <c r="C148" s="78"/>
+      <c r="D148" s="79">
         <f>B148+1</f>
         <v>46049</v>
       </c>
-      <c r="E148" s="140"/>
-      <c r="F148" s="142">
+      <c r="E148" s="78"/>
+      <c r="F148" s="80">
         <f>D148+1</f>
         <v>46050</v>
       </c>
-      <c r="G148" s="140"/>
-      <c r="H148" s="143">
+      <c r="G148" s="78"/>
+      <c r="H148" s="81">
         <f>F148+1</f>
         <v>46051</v>
       </c>
-      <c r="I148" s="140"/>
-      <c r="J148" s="144">
+      <c r="I148" s="78"/>
+      <c r="J148" s="82">
         <f>H148+1</f>
         <v>46052</v>
       </c>
-      <c r="K148" s="140"/>
+      <c r="K148" s="78"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149"/>
-      <c r="B149" s="82"/>
-      <c r="C149" s="157"/>
-      <c r="D149" s="80"/>
-      <c r="E149" s="157"/>
-      <c r="F149" s="78"/>
-      <c r="G149" s="157"/>
-      <c r="H149" s="76"/>
-      <c r="I149" s="157"/>
-      <c r="J149" s="74"/>
-      <c r="K149" s="157"/>
+      <c r="B149" s="63"/>
+      <c r="C149" s="64"/>
+      <c r="D149" s="65"/>
+      <c r="E149" s="64"/>
+      <c r="F149" s="66"/>
+      <c r="G149" s="64"/>
+      <c r="H149" s="67"/>
+      <c r="I149" s="64"/>
+      <c r="J149" s="68"/>
+      <c r="K149" s="64"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150"/>
@@ -4241,85 +4241,85 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157"/>
-      <c r="B157" s="155"/>
-      <c r="C157" s="156"/>
-      <c r="D157" s="156"/>
-      <c r="E157" s="156"/>
-      <c r="F157" s="156"/>
-      <c r="G157" s="156"/>
-      <c r="H157" s="156"/>
-      <c r="I157" s="156"/>
-      <c r="J157" s="156"/>
-      <c r="K157" s="157"/>
+      <c r="B157" s="69"/>
+      <c r="C157" s="70"/>
+      <c r="D157" s="70"/>
+      <c r="E157" s="70"/>
+      <c r="F157" s="70"/>
+      <c r="G157" s="70"/>
+      <c r="H157" s="70"/>
+      <c r="I157" s="70"/>
+      <c r="J157" s="70"/>
+      <c r="K157" s="64"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159"/>
-      <c r="B159" s="59" t="s">
+      <c r="B159" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="C159" s="145"/>
-      <c r="D159" s="145"/>
-      <c r="E159" s="145"/>
-      <c r="F159" s="145"/>
-      <c r="G159" s="145"/>
-      <c r="H159" s="145"/>
-      <c r="I159" s="145"/>
-      <c r="J159" s="145"/>
-      <c r="K159" s="146"/>
+      <c r="C159" s="72"/>
+      <c r="D159" s="72"/>
+      <c r="E159" s="72"/>
+      <c r="F159" s="72"/>
+      <c r="G159" s="72"/>
+      <c r="H159" s="72"/>
+      <c r="I159" s="72"/>
+      <c r="J159" s="72"/>
+      <c r="K159" s="73"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160"/>
-      <c r="B160" s="147"/>
-      <c r="C160" s="148"/>
-      <c r="D160" s="148"/>
-      <c r="E160" s="148"/>
-      <c r="F160" s="148"/>
-      <c r="G160" s="148"/>
-      <c r="H160" s="148"/>
-      <c r="I160" s="148"/>
-      <c r="J160" s="148"/>
-      <c r="K160" s="149"/>
+      <c r="B160" s="74"/>
+      <c r="C160" s="75"/>
+      <c r="D160" s="75"/>
+      <c r="E160" s="75"/>
+      <c r="F160" s="75"/>
+      <c r="G160" s="75"/>
+      <c r="H160" s="75"/>
+      <c r="I160" s="75"/>
+      <c r="J160" s="75"/>
+      <c r="K160" s="76"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161"/>
-      <c r="B161" s="139">
+      <c r="B161" s="77">
         <f>J148+3</f>
         <v>46055</v>
       </c>
-      <c r="C161" s="140"/>
-      <c r="D161" s="141">
+      <c r="C161" s="78"/>
+      <c r="D161" s="79">
         <f>B161+1</f>
         <v>46056</v>
       </c>
-      <c r="E161" s="140"/>
-      <c r="F161" s="142">
+      <c r="E161" s="78"/>
+      <c r="F161" s="80">
         <f>D161+1</f>
         <v>46057</v>
       </c>
-      <c r="G161" s="140"/>
-      <c r="H161" s="143">
+      <c r="G161" s="78"/>
+      <c r="H161" s="81">
         <f>F161+1</f>
         <v>46058</v>
       </c>
-      <c r="I161" s="140"/>
-      <c r="J161" s="144">
+      <c r="I161" s="78"/>
+      <c r="J161" s="82">
         <f>H161+1</f>
         <v>46059</v>
       </c>
-      <c r="K161" s="140"/>
+      <c r="K161" s="78"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162"/>
-      <c r="B162" s="82"/>
-      <c r="C162" s="157"/>
-      <c r="D162" s="80"/>
-      <c r="E162" s="157"/>
-      <c r="F162" s="78"/>
-      <c r="G162" s="157"/>
-      <c r="H162" s="76"/>
-      <c r="I162" s="157"/>
-      <c r="J162" s="74"/>
-      <c r="K162" s="157"/>
+      <c r="B162" s="63"/>
+      <c r="C162" s="64"/>
+      <c r="D162" s="65"/>
+      <c r="E162" s="64"/>
+      <c r="F162" s="66"/>
+      <c r="G162" s="64"/>
+      <c r="H162" s="67"/>
+      <c r="I162" s="64"/>
+      <c r="J162" s="68"/>
+      <c r="K162" s="64"/>
     </row>
     <row r="163" spans="1:11">
       <c r="A163"/>
@@ -4438,85 +4438,85 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170"/>
-      <c r="B170" s="155"/>
-      <c r="C170" s="156"/>
-      <c r="D170" s="156"/>
-      <c r="E170" s="156"/>
-      <c r="F170" s="156"/>
-      <c r="G170" s="156"/>
-      <c r="H170" s="156"/>
-      <c r="I170" s="156"/>
-      <c r="J170" s="156"/>
-      <c r="K170" s="157"/>
+      <c r="B170" s="69"/>
+      <c r="C170" s="70"/>
+      <c r="D170" s="70"/>
+      <c r="E170" s="70"/>
+      <c r="F170" s="70"/>
+      <c r="G170" s="70"/>
+      <c r="H170" s="70"/>
+      <c r="I170" s="70"/>
+      <c r="J170" s="70"/>
+      <c r="K170" s="64"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172"/>
-      <c r="B172" s="59" t="s">
+      <c r="B172" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="C172" s="145"/>
-      <c r="D172" s="145"/>
-      <c r="E172" s="145"/>
-      <c r="F172" s="145"/>
-      <c r="G172" s="145"/>
-      <c r="H172" s="145"/>
-      <c r="I172" s="145"/>
-      <c r="J172" s="145"/>
-      <c r="K172" s="146"/>
+      <c r="C172" s="72"/>
+      <c r="D172" s="72"/>
+      <c r="E172" s="72"/>
+      <c r="F172" s="72"/>
+      <c r="G172" s="72"/>
+      <c r="H172" s="72"/>
+      <c r="I172" s="72"/>
+      <c r="J172" s="72"/>
+      <c r="K172" s="73"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173"/>
-      <c r="B173" s="147"/>
-      <c r="C173" s="148"/>
-      <c r="D173" s="148"/>
-      <c r="E173" s="148"/>
-      <c r="F173" s="148"/>
-      <c r="G173" s="148"/>
-      <c r="H173" s="148"/>
-      <c r="I173" s="148"/>
-      <c r="J173" s="148"/>
-      <c r="K173" s="149"/>
+      <c r="B173" s="74"/>
+      <c r="C173" s="75"/>
+      <c r="D173" s="75"/>
+      <c r="E173" s="75"/>
+      <c r="F173" s="75"/>
+      <c r="G173" s="75"/>
+      <c r="H173" s="75"/>
+      <c r="I173" s="75"/>
+      <c r="J173" s="75"/>
+      <c r="K173" s="76"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174"/>
-      <c r="B174" s="139">
+      <c r="B174" s="77">
         <f>J161+3</f>
         <v>46062</v>
       </c>
-      <c r="C174" s="140"/>
-      <c r="D174" s="141">
+      <c r="C174" s="78"/>
+      <c r="D174" s="79">
         <f>B174+1</f>
         <v>46063</v>
       </c>
-      <c r="E174" s="140"/>
-      <c r="F174" s="142">
+      <c r="E174" s="78"/>
+      <c r="F174" s="80">
         <f>D174+1</f>
         <v>46064</v>
       </c>
-      <c r="G174" s="140"/>
-      <c r="H174" s="143">
+      <c r="G174" s="78"/>
+      <c r="H174" s="81">
         <f>F174+1</f>
         <v>46065</v>
       </c>
-      <c r="I174" s="140"/>
-      <c r="J174" s="144">
+      <c r="I174" s="78"/>
+      <c r="J174" s="82">
         <f>H174+1</f>
         <v>46066</v>
       </c>
-      <c r="K174" s="140"/>
+      <c r="K174" s="78"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175"/>
-      <c r="B175" s="82"/>
-      <c r="C175" s="157"/>
-      <c r="D175" s="80"/>
-      <c r="E175" s="157"/>
-      <c r="F175" s="78"/>
-      <c r="G175" s="157"/>
-      <c r="H175" s="76"/>
-      <c r="I175" s="157"/>
-      <c r="J175" s="74"/>
-      <c r="K175" s="157"/>
+      <c r="B175" s="63"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="65"/>
+      <c r="E175" s="64"/>
+      <c r="F175" s="66"/>
+      <c r="G175" s="64"/>
+      <c r="H175" s="67"/>
+      <c r="I175" s="64"/>
+      <c r="J175" s="68"/>
+      <c r="K175" s="64"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176"/>
@@ -4621,85 +4621,85 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183"/>
-      <c r="B183" s="155"/>
-      <c r="C183" s="156"/>
-      <c r="D183" s="156"/>
-      <c r="E183" s="156"/>
-      <c r="F183" s="156"/>
-      <c r="G183" s="156"/>
-      <c r="H183" s="156"/>
-      <c r="I183" s="156"/>
-      <c r="J183" s="156"/>
-      <c r="K183" s="157"/>
+      <c r="B183" s="69"/>
+      <c r="C183" s="70"/>
+      <c r="D183" s="70"/>
+      <c r="E183" s="70"/>
+      <c r="F183" s="70"/>
+      <c r="G183" s="70"/>
+      <c r="H183" s="70"/>
+      <c r="I183" s="70"/>
+      <c r="J183" s="70"/>
+      <c r="K183" s="64"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185"/>
-      <c r="B185" s="59" t="s">
+      <c r="B185" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C185" s="145"/>
-      <c r="D185" s="145"/>
-      <c r="E185" s="145"/>
-      <c r="F185" s="145"/>
-      <c r="G185" s="145"/>
-      <c r="H185" s="145"/>
-      <c r="I185" s="145"/>
-      <c r="J185" s="145"/>
-      <c r="K185" s="146"/>
+      <c r="C185" s="72"/>
+      <c r="D185" s="72"/>
+      <c r="E185" s="72"/>
+      <c r="F185" s="72"/>
+      <c r="G185" s="72"/>
+      <c r="H185" s="72"/>
+      <c r="I185" s="72"/>
+      <c r="J185" s="72"/>
+      <c r="K185" s="73"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186"/>
-      <c r="B186" s="147"/>
-      <c r="C186" s="148"/>
-      <c r="D186" s="148"/>
-      <c r="E186" s="148"/>
-      <c r="F186" s="148"/>
-      <c r="G186" s="148"/>
-      <c r="H186" s="148"/>
-      <c r="I186" s="148"/>
-      <c r="J186" s="148"/>
-      <c r="K186" s="149"/>
+      <c r="B186" s="74"/>
+      <c r="C186" s="75"/>
+      <c r="D186" s="75"/>
+      <c r="E186" s="75"/>
+      <c r="F186" s="75"/>
+      <c r="G186" s="75"/>
+      <c r="H186" s="75"/>
+      <c r="I186" s="75"/>
+      <c r="J186" s="75"/>
+      <c r="K186" s="76"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187"/>
-      <c r="B187" s="139">
+      <c r="B187" s="77">
         <f>J174+3</f>
         <v>46069</v>
       </c>
-      <c r="C187" s="140"/>
-      <c r="D187" s="141">
+      <c r="C187" s="78"/>
+      <c r="D187" s="79">
         <f>B187+1</f>
         <v>46070</v>
       </c>
-      <c r="E187" s="140"/>
-      <c r="F187" s="142">
+      <c r="E187" s="78"/>
+      <c r="F187" s="80">
         <f>D187+1</f>
         <v>46071</v>
       </c>
-      <c r="G187" s="140"/>
-      <c r="H187" s="143">
+      <c r="G187" s="78"/>
+      <c r="H187" s="81">
         <f>F187+1</f>
         <v>46072</v>
       </c>
-      <c r="I187" s="140"/>
-      <c r="J187" s="144">
+      <c r="I187" s="78"/>
+      <c r="J187" s="82">
         <f>H187+1</f>
         <v>46073</v>
       </c>
-      <c r="K187" s="140"/>
+      <c r="K187" s="78"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188"/>
-      <c r="B188" s="82"/>
-      <c r="C188" s="157"/>
-      <c r="D188" s="80"/>
-      <c r="E188" s="157"/>
-      <c r="F188" s="78"/>
-      <c r="G188" s="157"/>
-      <c r="H188" s="76"/>
-      <c r="I188" s="157"/>
-      <c r="J188" s="74"/>
-      <c r="K188" s="157"/>
+      <c r="B188" s="63"/>
+      <c r="C188" s="64"/>
+      <c r="D188" s="65"/>
+      <c r="E188" s="64"/>
+      <c r="F188" s="66"/>
+      <c r="G188" s="64"/>
+      <c r="H188" s="67"/>
+      <c r="I188" s="64"/>
+      <c r="J188" s="68"/>
+      <c r="K188" s="64"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189"/>
@@ -4804,85 +4804,85 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196"/>
-      <c r="B196" s="155"/>
-      <c r="C196" s="156"/>
-      <c r="D196" s="156"/>
-      <c r="E196" s="156"/>
-      <c r="F196" s="156"/>
-      <c r="G196" s="156"/>
-      <c r="H196" s="156"/>
-      <c r="I196" s="156"/>
-      <c r="J196" s="156"/>
-      <c r="K196" s="157"/>
+      <c r="B196" s="69"/>
+      <c r="C196" s="70"/>
+      <c r="D196" s="70"/>
+      <c r="E196" s="70"/>
+      <c r="F196" s="70"/>
+      <c r="G196" s="70"/>
+      <c r="H196" s="70"/>
+      <c r="I196" s="70"/>
+      <c r="J196" s="70"/>
+      <c r="K196" s="64"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198"/>
-      <c r="B198" s="59" t="s">
+      <c r="B198" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C198" s="145"/>
-      <c r="D198" s="145"/>
-      <c r="E198" s="145"/>
-      <c r="F198" s="145"/>
-      <c r="G198" s="145"/>
-      <c r="H198" s="145"/>
-      <c r="I198" s="145"/>
-      <c r="J198" s="145"/>
-      <c r="K198" s="146"/>
+      <c r="C198" s="72"/>
+      <c r="D198" s="72"/>
+      <c r="E198" s="72"/>
+      <c r="F198" s="72"/>
+      <c r="G198" s="72"/>
+      <c r="H198" s="72"/>
+      <c r="I198" s="72"/>
+      <c r="J198" s="72"/>
+      <c r="K198" s="73"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199"/>
-      <c r="B199" s="147"/>
-      <c r="C199" s="148"/>
-      <c r="D199" s="148"/>
-      <c r="E199" s="148"/>
-      <c r="F199" s="148"/>
-      <c r="G199" s="148"/>
-      <c r="H199" s="148"/>
-      <c r="I199" s="148"/>
-      <c r="J199" s="148"/>
-      <c r="K199" s="149"/>
+      <c r="B199" s="74"/>
+      <c r="C199" s="75"/>
+      <c r="D199" s="75"/>
+      <c r="E199" s="75"/>
+      <c r="F199" s="75"/>
+      <c r="G199" s="75"/>
+      <c r="H199" s="75"/>
+      <c r="I199" s="75"/>
+      <c r="J199" s="75"/>
+      <c r="K199" s="76"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200"/>
-      <c r="B200" s="139">
+      <c r="B200" s="77">
         <f>J187+3</f>
         <v>46076</v>
       </c>
-      <c r="C200" s="140"/>
-      <c r="D200" s="141">
+      <c r="C200" s="78"/>
+      <c r="D200" s="79">
         <f>B200+1</f>
         <v>46077</v>
       </c>
-      <c r="E200" s="140"/>
-      <c r="F200" s="142">
+      <c r="E200" s="78"/>
+      <c r="F200" s="80">
         <f>D200+1</f>
         <v>46078</v>
       </c>
-      <c r="G200" s="140"/>
-      <c r="H200" s="143">
+      <c r="G200" s="78"/>
+      <c r="H200" s="81">
         <f>F200+1</f>
         <v>46079</v>
       </c>
-      <c r="I200" s="140"/>
-      <c r="J200" s="144">
+      <c r="I200" s="78"/>
+      <c r="J200" s="82">
         <f>H200+1</f>
         <v>46080</v>
       </c>
-      <c r="K200" s="140"/>
+      <c r="K200" s="78"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201"/>
-      <c r="B201" s="82"/>
-      <c r="C201" s="157"/>
-      <c r="D201" s="80"/>
-      <c r="E201" s="157"/>
-      <c r="F201" s="78"/>
-      <c r="G201" s="157"/>
-      <c r="H201" s="76"/>
-      <c r="I201" s="157"/>
-      <c r="J201" s="74"/>
-      <c r="K201" s="157"/>
+      <c r="B201" s="63"/>
+      <c r="C201" s="64"/>
+      <c r="D201" s="65"/>
+      <c r="E201" s="64"/>
+      <c r="F201" s="66"/>
+      <c r="G201" s="64"/>
+      <c r="H201" s="67"/>
+      <c r="I201" s="64"/>
+      <c r="J201" s="68"/>
+      <c r="K201" s="64"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202"/>
@@ -4987,85 +4987,85 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209"/>
-      <c r="B209" s="155"/>
-      <c r="C209" s="156"/>
-      <c r="D209" s="156"/>
-      <c r="E209" s="156"/>
-      <c r="F209" s="156"/>
-      <c r="G209" s="156"/>
-      <c r="H209" s="156"/>
-      <c r="I209" s="156"/>
-      <c r="J209" s="156"/>
-      <c r="K209" s="157"/>
+      <c r="B209" s="69"/>
+      <c r="C209" s="70"/>
+      <c r="D209" s="70"/>
+      <c r="E209" s="70"/>
+      <c r="F209" s="70"/>
+      <c r="G209" s="70"/>
+      <c r="H209" s="70"/>
+      <c r="I209" s="70"/>
+      <c r="J209" s="70"/>
+      <c r="K209" s="64"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211"/>
-      <c r="B211" s="59" t="s">
+      <c r="B211" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="C211" s="145"/>
-      <c r="D211" s="145"/>
-      <c r="E211" s="145"/>
-      <c r="F211" s="145"/>
-      <c r="G211" s="145"/>
-      <c r="H211" s="145"/>
-      <c r="I211" s="145"/>
-      <c r="J211" s="145"/>
-      <c r="K211" s="146"/>
+      <c r="C211" s="72"/>
+      <c r="D211" s="72"/>
+      <c r="E211" s="72"/>
+      <c r="F211" s="72"/>
+      <c r="G211" s="72"/>
+      <c r="H211" s="72"/>
+      <c r="I211" s="72"/>
+      <c r="J211" s="72"/>
+      <c r="K211" s="73"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212"/>
-      <c r="B212" s="147"/>
-      <c r="C212" s="148"/>
-      <c r="D212" s="148"/>
-      <c r="E212" s="148"/>
-      <c r="F212" s="148"/>
-      <c r="G212" s="148"/>
-      <c r="H212" s="148"/>
-      <c r="I212" s="148"/>
-      <c r="J212" s="148"/>
-      <c r="K212" s="149"/>
+      <c r="B212" s="74"/>
+      <c r="C212" s="75"/>
+      <c r="D212" s="75"/>
+      <c r="E212" s="75"/>
+      <c r="F212" s="75"/>
+      <c r="G212" s="75"/>
+      <c r="H212" s="75"/>
+      <c r="I212" s="75"/>
+      <c r="J212" s="75"/>
+      <c r="K212" s="76"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213"/>
-      <c r="B213" s="139">
+      <c r="B213" s="77">
         <f>J200+3</f>
         <v>46083</v>
       </c>
-      <c r="C213" s="140"/>
-      <c r="D213" s="141">
+      <c r="C213" s="78"/>
+      <c r="D213" s="79">
         <f>B213+1</f>
         <v>46084</v>
       </c>
-      <c r="E213" s="140"/>
-      <c r="F213" s="142">
+      <c r="E213" s="78"/>
+      <c r="F213" s="80">
         <f>D213+1</f>
         <v>46085</v>
       </c>
-      <c r="G213" s="140"/>
-      <c r="H213" s="143">
+      <c r="G213" s="78"/>
+      <c r="H213" s="81">
         <f>F213+1</f>
         <v>46086</v>
       </c>
-      <c r="I213" s="140"/>
-      <c r="J213" s="144">
+      <c r="I213" s="78"/>
+      <c r="J213" s="82">
         <f>H213+1</f>
         <v>46087</v>
       </c>
-      <c r="K213" s="140"/>
+      <c r="K213" s="78"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214"/>
-      <c r="B214" s="82"/>
-      <c r="C214" s="157"/>
-      <c r="D214" s="80"/>
-      <c r="E214" s="157"/>
-      <c r="F214" s="78"/>
-      <c r="G214" s="157"/>
-      <c r="H214" s="76"/>
-      <c r="I214" s="157"/>
-      <c r="J214" s="74"/>
-      <c r="K214" s="157"/>
+      <c r="B214" s="63"/>
+      <c r="C214" s="64"/>
+      <c r="D214" s="65"/>
+      <c r="E214" s="64"/>
+      <c r="F214" s="66"/>
+      <c r="G214" s="64"/>
+      <c r="H214" s="67"/>
+      <c r="I214" s="64"/>
+      <c r="J214" s="68"/>
+      <c r="K214" s="64"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215"/>
@@ -5170,85 +5170,85 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222"/>
-      <c r="B222" s="155"/>
-      <c r="C222" s="156"/>
-      <c r="D222" s="156"/>
-      <c r="E222" s="156"/>
-      <c r="F222" s="156"/>
-      <c r="G222" s="156"/>
-      <c r="H222" s="156"/>
-      <c r="I222" s="156"/>
-      <c r="J222" s="156"/>
-      <c r="K222" s="157"/>
+      <c r="B222" s="69"/>
+      <c r="C222" s="70"/>
+      <c r="D222" s="70"/>
+      <c r="E222" s="70"/>
+      <c r="F222" s="70"/>
+      <c r="G222" s="70"/>
+      <c r="H222" s="70"/>
+      <c r="I222" s="70"/>
+      <c r="J222" s="70"/>
+      <c r="K222" s="64"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224"/>
-      <c r="B224" s="59" t="s">
+      <c r="B224" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C224" s="145"/>
-      <c r="D224" s="145"/>
-      <c r="E224" s="145"/>
-      <c r="F224" s="145"/>
-      <c r="G224" s="145"/>
-      <c r="H224" s="145"/>
-      <c r="I224" s="145"/>
-      <c r="J224" s="145"/>
-      <c r="K224" s="146"/>
+      <c r="C224" s="72"/>
+      <c r="D224" s="72"/>
+      <c r="E224" s="72"/>
+      <c r="F224" s="72"/>
+      <c r="G224" s="72"/>
+      <c r="H224" s="72"/>
+      <c r="I224" s="72"/>
+      <c r="J224" s="72"/>
+      <c r="K224" s="73"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225"/>
-      <c r="B225" s="147"/>
-      <c r="C225" s="148"/>
-      <c r="D225" s="148"/>
-      <c r="E225" s="148"/>
-      <c r="F225" s="148"/>
-      <c r="G225" s="148"/>
-      <c r="H225" s="148"/>
-      <c r="I225" s="148"/>
-      <c r="J225" s="148"/>
-      <c r="K225" s="149"/>
+      <c r="B225" s="74"/>
+      <c r="C225" s="75"/>
+      <c r="D225" s="75"/>
+      <c r="E225" s="75"/>
+      <c r="F225" s="75"/>
+      <c r="G225" s="75"/>
+      <c r="H225" s="75"/>
+      <c r="I225" s="75"/>
+      <c r="J225" s="75"/>
+      <c r="K225" s="76"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226"/>
-      <c r="B226" s="139">
+      <c r="B226" s="77">
         <f>J213+3</f>
         <v>46090</v>
       </c>
-      <c r="C226" s="140"/>
-      <c r="D226" s="141">
+      <c r="C226" s="78"/>
+      <c r="D226" s="79">
         <f>B226+1</f>
         <v>46091</v>
       </c>
-      <c r="E226" s="140"/>
-      <c r="F226" s="142">
+      <c r="E226" s="78"/>
+      <c r="F226" s="80">
         <f>D226+1</f>
         <v>46092</v>
       </c>
-      <c r="G226" s="140"/>
-      <c r="H226" s="143">
+      <c r="G226" s="78"/>
+      <c r="H226" s="81">
         <f>F226+1</f>
         <v>46093</v>
       </c>
-      <c r="I226" s="140"/>
-      <c r="J226" s="144">
+      <c r="I226" s="78"/>
+      <c r="J226" s="82">
         <f>H226+1</f>
         <v>46094</v>
       </c>
-      <c r="K226" s="140"/>
+      <c r="K226" s="78"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227"/>
-      <c r="B227" s="82"/>
-      <c r="C227" s="157"/>
-      <c r="D227" s="80"/>
-      <c r="E227" s="157"/>
-      <c r="F227" s="78"/>
-      <c r="G227" s="157"/>
-      <c r="H227" s="76"/>
-      <c r="I227" s="157"/>
-      <c r="J227" s="74"/>
-      <c r="K227" s="157"/>
+      <c r="B227" s="63"/>
+      <c r="C227" s="64"/>
+      <c r="D227" s="65"/>
+      <c r="E227" s="64"/>
+      <c r="F227" s="66"/>
+      <c r="G227" s="64"/>
+      <c r="H227" s="67"/>
+      <c r="I227" s="64"/>
+      <c r="J227" s="68"/>
+      <c r="K227" s="64"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228"/>
@@ -5353,85 +5353,85 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235"/>
-      <c r="B235" s="155"/>
-      <c r="C235" s="156"/>
-      <c r="D235" s="156"/>
-      <c r="E235" s="156"/>
-      <c r="F235" s="156"/>
-      <c r="G235" s="156"/>
-      <c r="H235" s="156"/>
-      <c r="I235" s="156"/>
-      <c r="J235" s="156"/>
-      <c r="K235" s="157"/>
+      <c r="B235" s="69"/>
+      <c r="C235" s="70"/>
+      <c r="D235" s="70"/>
+      <c r="E235" s="70"/>
+      <c r="F235" s="70"/>
+      <c r="G235" s="70"/>
+      <c r="H235" s="70"/>
+      <c r="I235" s="70"/>
+      <c r="J235" s="70"/>
+      <c r="K235" s="64"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237"/>
-      <c r="B237" s="59" t="s">
+      <c r="B237" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C237" s="145"/>
-      <c r="D237" s="145"/>
-      <c r="E237" s="145"/>
-      <c r="F237" s="145"/>
-      <c r="G237" s="145"/>
-      <c r="H237" s="145"/>
-      <c r="I237" s="145"/>
-      <c r="J237" s="145"/>
-      <c r="K237" s="146"/>
+      <c r="C237" s="72"/>
+      <c r="D237" s="72"/>
+      <c r="E237" s="72"/>
+      <c r="F237" s="72"/>
+      <c r="G237" s="72"/>
+      <c r="H237" s="72"/>
+      <c r="I237" s="72"/>
+      <c r="J237" s="72"/>
+      <c r="K237" s="73"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238"/>
-      <c r="B238" s="147"/>
-      <c r="C238" s="148"/>
-      <c r="D238" s="148"/>
-      <c r="E238" s="148"/>
-      <c r="F238" s="148"/>
-      <c r="G238" s="148"/>
-      <c r="H238" s="148"/>
-      <c r="I238" s="148"/>
-      <c r="J238" s="148"/>
-      <c r="K238" s="149"/>
+      <c r="B238" s="74"/>
+      <c r="C238" s="75"/>
+      <c r="D238" s="75"/>
+      <c r="E238" s="75"/>
+      <c r="F238" s="75"/>
+      <c r="G238" s="75"/>
+      <c r="H238" s="75"/>
+      <c r="I238" s="75"/>
+      <c r="J238" s="75"/>
+      <c r="K238" s="76"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239"/>
-      <c r="B239" s="139">
+      <c r="B239" s="77">
         <f>J226+3</f>
         <v>46097</v>
       </c>
-      <c r="C239" s="140"/>
-      <c r="D239" s="141">
+      <c r="C239" s="78"/>
+      <c r="D239" s="79">
         <f>B239+1</f>
         <v>46098</v>
       </c>
-      <c r="E239" s="140"/>
-      <c r="F239" s="142">
+      <c r="E239" s="78"/>
+      <c r="F239" s="80">
         <f>D239+1</f>
         <v>46099</v>
       </c>
-      <c r="G239" s="140"/>
-      <c r="H239" s="143">
+      <c r="G239" s="78"/>
+      <c r="H239" s="81">
         <f>F239+1</f>
         <v>46100</v>
       </c>
-      <c r="I239" s="140"/>
-      <c r="J239" s="144">
+      <c r="I239" s="78"/>
+      <c r="J239" s="82">
         <f>H239+1</f>
         <v>46101</v>
       </c>
-      <c r="K239" s="140"/>
+      <c r="K239" s="78"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240"/>
-      <c r="B240" s="82"/>
-      <c r="C240" s="157"/>
-      <c r="D240" s="80"/>
-      <c r="E240" s="157"/>
-      <c r="F240" s="78"/>
-      <c r="G240" s="157"/>
-      <c r="H240" s="76"/>
-      <c r="I240" s="157"/>
-      <c r="J240" s="74"/>
-      <c r="K240" s="157"/>
+      <c r="B240" s="63"/>
+      <c r="C240" s="64"/>
+      <c r="D240" s="65"/>
+      <c r="E240" s="64"/>
+      <c r="F240" s="66"/>
+      <c r="G240" s="64"/>
+      <c r="H240" s="67"/>
+      <c r="I240" s="64"/>
+      <c r="J240" s="68"/>
+      <c r="K240" s="64"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241"/>
@@ -5536,85 +5536,85 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248"/>
-      <c r="B248" s="155"/>
-      <c r="C248" s="156"/>
-      <c r="D248" s="156"/>
-      <c r="E248" s="156"/>
-      <c r="F248" s="156"/>
-      <c r="G248" s="156"/>
-      <c r="H248" s="156"/>
-      <c r="I248" s="156"/>
-      <c r="J248" s="156"/>
-      <c r="K248" s="157"/>
+      <c r="B248" s="69"/>
+      <c r="C248" s="70"/>
+      <c r="D248" s="70"/>
+      <c r="E248" s="70"/>
+      <c r="F248" s="70"/>
+      <c r="G248" s="70"/>
+      <c r="H248" s="70"/>
+      <c r="I248" s="70"/>
+      <c r="J248" s="70"/>
+      <c r="K248" s="64"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250"/>
-      <c r="B250" s="59" t="s">
+      <c r="B250" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C250" s="145"/>
-      <c r="D250" s="145"/>
-      <c r="E250" s="145"/>
-      <c r="F250" s="145"/>
-      <c r="G250" s="145"/>
-      <c r="H250" s="145"/>
-      <c r="I250" s="145"/>
-      <c r="J250" s="145"/>
-      <c r="K250" s="146"/>
+      <c r="C250" s="72"/>
+      <c r="D250" s="72"/>
+      <c r="E250" s="72"/>
+      <c r="F250" s="72"/>
+      <c r="G250" s="72"/>
+      <c r="H250" s="72"/>
+      <c r="I250" s="72"/>
+      <c r="J250" s="72"/>
+      <c r="K250" s="73"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251"/>
-      <c r="B251" s="147"/>
-      <c r="C251" s="148"/>
-      <c r="D251" s="148"/>
-      <c r="E251" s="148"/>
-      <c r="F251" s="148"/>
-      <c r="G251" s="148"/>
-      <c r="H251" s="148"/>
-      <c r="I251" s="148"/>
-      <c r="J251" s="148"/>
-      <c r="K251" s="149"/>
+      <c r="B251" s="74"/>
+      <c r="C251" s="75"/>
+      <c r="D251" s="75"/>
+      <c r="E251" s="75"/>
+      <c r="F251" s="75"/>
+      <c r="G251" s="75"/>
+      <c r="H251" s="75"/>
+      <c r="I251" s="75"/>
+      <c r="J251" s="75"/>
+      <c r="K251" s="76"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252"/>
-      <c r="B252" s="139">
+      <c r="B252" s="77">
         <f>J239+3</f>
         <v>46104</v>
       </c>
-      <c r="C252" s="140"/>
-      <c r="D252" s="141">
+      <c r="C252" s="78"/>
+      <c r="D252" s="79">
         <f>B252+1</f>
         <v>46105</v>
       </c>
-      <c r="E252" s="140"/>
-      <c r="F252" s="142">
+      <c r="E252" s="78"/>
+      <c r="F252" s="80">
         <f>D252+1</f>
         <v>46106</v>
       </c>
-      <c r="G252" s="140"/>
-      <c r="H252" s="143">
+      <c r="G252" s="78"/>
+      <c r="H252" s="81">
         <f>F252+1</f>
         <v>46107</v>
       </c>
-      <c r="I252" s="140"/>
-      <c r="J252" s="144">
+      <c r="I252" s="78"/>
+      <c r="J252" s="82">
         <f>H252+1</f>
         <v>46108</v>
       </c>
-      <c r="K252" s="140"/>
+      <c r="K252" s="78"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253"/>
-      <c r="B253" s="82"/>
-      <c r="C253" s="157"/>
-      <c r="D253" s="80"/>
-      <c r="E253" s="157"/>
-      <c r="F253" s="78"/>
-      <c r="G253" s="157"/>
-      <c r="H253" s="76"/>
-      <c r="I253" s="157"/>
-      <c r="J253" s="74"/>
-      <c r="K253" s="157"/>
+      <c r="B253" s="63"/>
+      <c r="C253" s="64"/>
+      <c r="D253" s="65"/>
+      <c r="E253" s="64"/>
+      <c r="F253" s="66"/>
+      <c r="G253" s="64"/>
+      <c r="H253" s="67"/>
+      <c r="I253" s="64"/>
+      <c r="J253" s="68"/>
+      <c r="K253" s="64"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254"/>
@@ -5723,85 +5723,85 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261"/>
-      <c r="B261" s="155"/>
-      <c r="C261" s="156"/>
-      <c r="D261" s="156"/>
-      <c r="E261" s="156"/>
-      <c r="F261" s="156"/>
-      <c r="G261" s="156"/>
-      <c r="H261" s="156"/>
-      <c r="I261" s="156"/>
-      <c r="J261" s="156"/>
-      <c r="K261" s="157"/>
+      <c r="B261" s="69"/>
+      <c r="C261" s="70"/>
+      <c r="D261" s="70"/>
+      <c r="E261" s="70"/>
+      <c r="F261" s="70"/>
+      <c r="G261" s="70"/>
+      <c r="H261" s="70"/>
+      <c r="I261" s="70"/>
+      <c r="J261" s="70"/>
+      <c r="K261" s="64"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263"/>
-      <c r="B263" s="59" t="s">
+      <c r="B263" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="C263" s="145"/>
-      <c r="D263" s="145"/>
-      <c r="E263" s="145"/>
-      <c r="F263" s="145"/>
-      <c r="G263" s="145"/>
-      <c r="H263" s="145"/>
-      <c r="I263" s="145"/>
-      <c r="J263" s="145"/>
-      <c r="K263" s="146"/>
+      <c r="C263" s="72"/>
+      <c r="D263" s="72"/>
+      <c r="E263" s="72"/>
+      <c r="F263" s="72"/>
+      <c r="G263" s="72"/>
+      <c r="H263" s="72"/>
+      <c r="I263" s="72"/>
+      <c r="J263" s="72"/>
+      <c r="K263" s="73"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264"/>
-      <c r="B264" s="147"/>
-      <c r="C264" s="148"/>
-      <c r="D264" s="148"/>
-      <c r="E264" s="148"/>
-      <c r="F264" s="148"/>
-      <c r="G264" s="148"/>
-      <c r="H264" s="148"/>
-      <c r="I264" s="148"/>
-      <c r="J264" s="148"/>
-      <c r="K264" s="149"/>
+      <c r="B264" s="74"/>
+      <c r="C264" s="75"/>
+      <c r="D264" s="75"/>
+      <c r="E264" s="75"/>
+      <c r="F264" s="75"/>
+      <c r="G264" s="75"/>
+      <c r="H264" s="75"/>
+      <c r="I264" s="75"/>
+      <c r="J264" s="75"/>
+      <c r="K264" s="76"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265"/>
-      <c r="B265" s="139">
+      <c r="B265" s="77">
         <f>J252+3</f>
         <v>46111</v>
       </c>
-      <c r="C265" s="140"/>
-      <c r="D265" s="141">
+      <c r="C265" s="78"/>
+      <c r="D265" s="79">
         <f>B265+1</f>
         <v>46112</v>
       </c>
-      <c r="E265" s="140"/>
-      <c r="F265" s="142">
+      <c r="E265" s="78"/>
+      <c r="F265" s="80">
         <f>D265+1</f>
         <v>46113</v>
       </c>
-      <c r="G265" s="140"/>
-      <c r="H265" s="143">
+      <c r="G265" s="78"/>
+      <c r="H265" s="81">
         <f>F265+1</f>
         <v>46114</v>
       </c>
-      <c r="I265" s="140"/>
-      <c r="J265" s="144">
+      <c r="I265" s="78"/>
+      <c r="J265" s="82">
         <f>H265+1</f>
         <v>46115</v>
       </c>
-      <c r="K265" s="140"/>
+      <c r="K265" s="78"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266"/>
-      <c r="B266" s="82"/>
-      <c r="C266" s="157"/>
-      <c r="D266" s="80"/>
-      <c r="E266" s="157"/>
-      <c r="F266" s="78"/>
-      <c r="G266" s="157"/>
-      <c r="H266" s="76"/>
-      <c r="I266" s="157"/>
-      <c r="J266" s="74"/>
-      <c r="K266" s="157"/>
+      <c r="B266" s="63"/>
+      <c r="C266" s="64"/>
+      <c r="D266" s="65"/>
+      <c r="E266" s="64"/>
+      <c r="F266" s="66"/>
+      <c r="G266" s="64"/>
+      <c r="H266" s="67"/>
+      <c r="I266" s="64"/>
+      <c r="J266" s="68"/>
+      <c r="K266" s="64"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267"/>
@@ -5908,85 +5908,85 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274"/>
-      <c r="B274" s="155"/>
-      <c r="C274" s="156"/>
-      <c r="D274" s="156"/>
-      <c r="E274" s="156"/>
-      <c r="F274" s="156"/>
-      <c r="G274" s="156"/>
-      <c r="H274" s="156"/>
-      <c r="I274" s="156"/>
-      <c r="J274" s="156"/>
-      <c r="K274" s="157"/>
+      <c r="B274" s="69"/>
+      <c r="C274" s="70"/>
+      <c r="D274" s="70"/>
+      <c r="E274" s="70"/>
+      <c r="F274" s="70"/>
+      <c r="G274" s="70"/>
+      <c r="H274" s="70"/>
+      <c r="I274" s="70"/>
+      <c r="J274" s="70"/>
+      <c r="K274" s="64"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276"/>
-      <c r="B276" s="59" t="s">
+      <c r="B276" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C276" s="145"/>
-      <c r="D276" s="145"/>
-      <c r="E276" s="145"/>
-      <c r="F276" s="145"/>
-      <c r="G276" s="145"/>
-      <c r="H276" s="145"/>
-      <c r="I276" s="145"/>
-      <c r="J276" s="145"/>
-      <c r="K276" s="146"/>
+      <c r="C276" s="72"/>
+      <c r="D276" s="72"/>
+      <c r="E276" s="72"/>
+      <c r="F276" s="72"/>
+      <c r="G276" s="72"/>
+      <c r="H276" s="72"/>
+      <c r="I276" s="72"/>
+      <c r="J276" s="72"/>
+      <c r="K276" s="73"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277"/>
-      <c r="B277" s="147"/>
-      <c r="C277" s="148"/>
-      <c r="D277" s="148"/>
-      <c r="E277" s="148"/>
-      <c r="F277" s="148"/>
-      <c r="G277" s="148"/>
-      <c r="H277" s="148"/>
-      <c r="I277" s="148"/>
-      <c r="J277" s="148"/>
-      <c r="K277" s="149"/>
+      <c r="B277" s="74"/>
+      <c r="C277" s="75"/>
+      <c r="D277" s="75"/>
+      <c r="E277" s="75"/>
+      <c r="F277" s="75"/>
+      <c r="G277" s="75"/>
+      <c r="H277" s="75"/>
+      <c r="I277" s="75"/>
+      <c r="J277" s="75"/>
+      <c r="K277" s="76"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278"/>
-      <c r="B278" s="139">
+      <c r="B278" s="77">
         <f>J265+3</f>
         <v>46118</v>
       </c>
-      <c r="C278" s="140"/>
-      <c r="D278" s="141">
+      <c r="C278" s="78"/>
+      <c r="D278" s="79">
         <f>B278+1</f>
         <v>46119</v>
       </c>
-      <c r="E278" s="140"/>
-      <c r="F278" s="142">
+      <c r="E278" s="78"/>
+      <c r="F278" s="80">
         <f>D278+1</f>
         <v>46120</v>
       </c>
-      <c r="G278" s="140"/>
-      <c r="H278" s="143">
+      <c r="G278" s="78"/>
+      <c r="H278" s="81">
         <f>F278+1</f>
         <v>46121</v>
       </c>
-      <c r="I278" s="140"/>
-      <c r="J278" s="144">
+      <c r="I278" s="78"/>
+      <c r="J278" s="82">
         <f>H278+1</f>
         <v>46122</v>
       </c>
-      <c r="K278" s="140"/>
+      <c r="K278" s="78"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279"/>
-      <c r="B279" s="82"/>
-      <c r="C279" s="157"/>
-      <c r="D279" s="80"/>
-      <c r="E279" s="157"/>
-      <c r="F279" s="78"/>
-      <c r="G279" s="157"/>
-      <c r="H279" s="76"/>
-      <c r="I279" s="157"/>
-      <c r="J279" s="74"/>
-      <c r="K279" s="157"/>
+      <c r="B279" s="63"/>
+      <c r="C279" s="64"/>
+      <c r="D279" s="65"/>
+      <c r="E279" s="64"/>
+      <c r="F279" s="66"/>
+      <c r="G279" s="64"/>
+      <c r="H279" s="67"/>
+      <c r="I279" s="64"/>
+      <c r="J279" s="68"/>
+      <c r="K279" s="64"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280"/>
@@ -6091,85 +6091,85 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287"/>
-      <c r="B287" s="155"/>
-      <c r="C287" s="156"/>
-      <c r="D287" s="156"/>
-      <c r="E287" s="156"/>
-      <c r="F287" s="156"/>
-      <c r="G287" s="156"/>
-      <c r="H287" s="156"/>
-      <c r="I287" s="156"/>
-      <c r="J287" s="156"/>
-      <c r="K287" s="157"/>
+      <c r="B287" s="69"/>
+      <c r="C287" s="70"/>
+      <c r="D287" s="70"/>
+      <c r="E287" s="70"/>
+      <c r="F287" s="70"/>
+      <c r="G287" s="70"/>
+      <c r="H287" s="70"/>
+      <c r="I287" s="70"/>
+      <c r="J287" s="70"/>
+      <c r="K287" s="64"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289"/>
-      <c r="B289" s="59" t="s">
+      <c r="B289" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C289" s="145"/>
-      <c r="D289" s="145"/>
-      <c r="E289" s="145"/>
-      <c r="F289" s="145"/>
-      <c r="G289" s="145"/>
-      <c r="H289" s="145"/>
-      <c r="I289" s="145"/>
-      <c r="J289" s="145"/>
-      <c r="K289" s="146"/>
+      <c r="C289" s="72"/>
+      <c r="D289" s="72"/>
+      <c r="E289" s="72"/>
+      <c r="F289" s="72"/>
+      <c r="G289" s="72"/>
+      <c r="H289" s="72"/>
+      <c r="I289" s="72"/>
+      <c r="J289" s="72"/>
+      <c r="K289" s="73"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290"/>
-      <c r="B290" s="147"/>
-      <c r="C290" s="148"/>
-      <c r="D290" s="148"/>
-      <c r="E290" s="148"/>
-      <c r="F290" s="148"/>
-      <c r="G290" s="148"/>
-      <c r="H290" s="148"/>
-      <c r="I290" s="148"/>
-      <c r="J290" s="148"/>
-      <c r="K290" s="149"/>
+      <c r="B290" s="74"/>
+      <c r="C290" s="75"/>
+      <c r="D290" s="75"/>
+      <c r="E290" s="75"/>
+      <c r="F290" s="75"/>
+      <c r="G290" s="75"/>
+      <c r="H290" s="75"/>
+      <c r="I290" s="75"/>
+      <c r="J290" s="75"/>
+      <c r="K290" s="76"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291"/>
-      <c r="B291" s="139">
+      <c r="B291" s="77">
         <f>J278+3</f>
         <v>46125</v>
       </c>
-      <c r="C291" s="140"/>
-      <c r="D291" s="141">
+      <c r="C291" s="78"/>
+      <c r="D291" s="79">
         <f>B291+1</f>
         <v>46126</v>
       </c>
-      <c r="E291" s="140"/>
-      <c r="F291" s="142">
+      <c r="E291" s="78"/>
+      <c r="F291" s="80">
         <f>D291+1</f>
         <v>46127</v>
       </c>
-      <c r="G291" s="140"/>
-      <c r="H291" s="143">
+      <c r="G291" s="78"/>
+      <c r="H291" s="81">
         <f>F291+1</f>
         <v>46128</v>
       </c>
-      <c r="I291" s="140"/>
-      <c r="J291" s="144">
+      <c r="I291" s="78"/>
+      <c r="J291" s="82">
         <f>H291+1</f>
         <v>46129</v>
       </c>
-      <c r="K291" s="140"/>
+      <c r="K291" s="78"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292"/>
-      <c r="B292" s="82"/>
-      <c r="C292" s="157"/>
-      <c r="D292" s="80"/>
-      <c r="E292" s="157"/>
-      <c r="F292" s="78"/>
-      <c r="G292" s="157"/>
-      <c r="H292" s="76"/>
-      <c r="I292" s="157"/>
-      <c r="J292" s="74"/>
-      <c r="K292" s="157"/>
+      <c r="B292" s="63"/>
+      <c r="C292" s="64"/>
+      <c r="D292" s="65"/>
+      <c r="E292" s="64"/>
+      <c r="F292" s="66"/>
+      <c r="G292" s="64"/>
+      <c r="H292" s="67"/>
+      <c r="I292" s="64"/>
+      <c r="J292" s="68"/>
+      <c r="K292" s="64"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293"/>
@@ -6274,85 +6274,85 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300"/>
-      <c r="B300" s="155"/>
-      <c r="C300" s="156"/>
-      <c r="D300" s="156"/>
-      <c r="E300" s="156"/>
-      <c r="F300" s="156"/>
-      <c r="G300" s="156"/>
-      <c r="H300" s="156"/>
-      <c r="I300" s="156"/>
-      <c r="J300" s="156"/>
-      <c r="K300" s="157"/>
+      <c r="B300" s="69"/>
+      <c r="C300" s="70"/>
+      <c r="D300" s="70"/>
+      <c r="E300" s="70"/>
+      <c r="F300" s="70"/>
+      <c r="G300" s="70"/>
+      <c r="H300" s="70"/>
+      <c r="I300" s="70"/>
+      <c r="J300" s="70"/>
+      <c r="K300" s="64"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302"/>
-      <c r="B302" s="59" t="s">
+      <c r="B302" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C302" s="145"/>
-      <c r="D302" s="145"/>
-      <c r="E302" s="145"/>
-      <c r="F302" s="145"/>
-      <c r="G302" s="145"/>
-      <c r="H302" s="145"/>
-      <c r="I302" s="145"/>
-      <c r="J302" s="145"/>
-      <c r="K302" s="146"/>
+      <c r="C302" s="72"/>
+      <c r="D302" s="72"/>
+      <c r="E302" s="72"/>
+      <c r="F302" s="72"/>
+      <c r="G302" s="72"/>
+      <c r="H302" s="72"/>
+      <c r="I302" s="72"/>
+      <c r="J302" s="72"/>
+      <c r="K302" s="73"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303"/>
-      <c r="B303" s="147"/>
-      <c r="C303" s="148"/>
-      <c r="D303" s="148"/>
-      <c r="E303" s="148"/>
-      <c r="F303" s="148"/>
-      <c r="G303" s="148"/>
-      <c r="H303" s="148"/>
-      <c r="I303" s="148"/>
-      <c r="J303" s="148"/>
-      <c r="K303" s="149"/>
+      <c r="B303" s="74"/>
+      <c r="C303" s="75"/>
+      <c r="D303" s="75"/>
+      <c r="E303" s="75"/>
+      <c r="F303" s="75"/>
+      <c r="G303" s="75"/>
+      <c r="H303" s="75"/>
+      <c r="I303" s="75"/>
+      <c r="J303" s="75"/>
+      <c r="K303" s="76"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304"/>
-      <c r="B304" s="139">
+      <c r="B304" s="77">
         <f>J291+3</f>
         <v>46132</v>
       </c>
-      <c r="C304" s="140"/>
-      <c r="D304" s="141">
+      <c r="C304" s="78"/>
+      <c r="D304" s="79">
         <f>B304+1</f>
         <v>46133</v>
       </c>
-      <c r="E304" s="140"/>
-      <c r="F304" s="142">
+      <c r="E304" s="78"/>
+      <c r="F304" s="80">
         <f>D304+1</f>
         <v>46134</v>
       </c>
-      <c r="G304" s="140"/>
-      <c r="H304" s="143">
+      <c r="G304" s="78"/>
+      <c r="H304" s="81">
         <f>F304+1</f>
         <v>46135</v>
       </c>
-      <c r="I304" s="140"/>
-      <c r="J304" s="144">
+      <c r="I304" s="78"/>
+      <c r="J304" s="82">
         <f>H304+1</f>
         <v>46136</v>
       </c>
-      <c r="K304" s="140"/>
+      <c r="K304" s="78"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305"/>
-      <c r="B305" s="82"/>
-      <c r="C305" s="157"/>
-      <c r="D305" s="80"/>
-      <c r="E305" s="157"/>
-      <c r="F305" s="78"/>
-      <c r="G305" s="157"/>
-      <c r="H305" s="76"/>
-      <c r="I305" s="157"/>
-      <c r="J305" s="74"/>
-      <c r="K305" s="157"/>
+      <c r="B305" s="63"/>
+      <c r="C305" s="64"/>
+      <c r="D305" s="65"/>
+      <c r="E305" s="64"/>
+      <c r="F305" s="66"/>
+      <c r="G305" s="64"/>
+      <c r="H305" s="67"/>
+      <c r="I305" s="64"/>
+      <c r="J305" s="68"/>
+      <c r="K305" s="64"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306"/>
@@ -6457,85 +6457,85 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313"/>
-      <c r="B313" s="155"/>
-      <c r="C313" s="156"/>
-      <c r="D313" s="156"/>
-      <c r="E313" s="156"/>
-      <c r="F313" s="156"/>
-      <c r="G313" s="156"/>
-      <c r="H313" s="156"/>
-      <c r="I313" s="156"/>
-      <c r="J313" s="156"/>
-      <c r="K313" s="157"/>
+      <c r="B313" s="69"/>
+      <c r="C313" s="70"/>
+      <c r="D313" s="70"/>
+      <c r="E313" s="70"/>
+      <c r="F313" s="70"/>
+      <c r="G313" s="70"/>
+      <c r="H313" s="70"/>
+      <c r="I313" s="70"/>
+      <c r="J313" s="70"/>
+      <c r="K313" s="64"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315"/>
-      <c r="B315" s="59" t="s">
+      <c r="B315" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C315" s="145"/>
-      <c r="D315" s="145"/>
-      <c r="E315" s="145"/>
-      <c r="F315" s="145"/>
-      <c r="G315" s="145"/>
-      <c r="H315" s="145"/>
-      <c r="I315" s="145"/>
-      <c r="J315" s="145"/>
-      <c r="K315" s="146"/>
+      <c r="C315" s="72"/>
+      <c r="D315" s="72"/>
+      <c r="E315" s="72"/>
+      <c r="F315" s="72"/>
+      <c r="G315" s="72"/>
+      <c r="H315" s="72"/>
+      <c r="I315" s="72"/>
+      <c r="J315" s="72"/>
+      <c r="K315" s="73"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316"/>
-      <c r="B316" s="147"/>
-      <c r="C316" s="148"/>
-      <c r="D316" s="148"/>
-      <c r="E316" s="148"/>
-      <c r="F316" s="148"/>
-      <c r="G316" s="148"/>
-      <c r="H316" s="148"/>
-      <c r="I316" s="148"/>
-      <c r="J316" s="148"/>
-      <c r="K316" s="149"/>
+      <c r="B316" s="74"/>
+      <c r="C316" s="75"/>
+      <c r="D316" s="75"/>
+      <c r="E316" s="75"/>
+      <c r="F316" s="75"/>
+      <c r="G316" s="75"/>
+      <c r="H316" s="75"/>
+      <c r="I316" s="75"/>
+      <c r="J316" s="75"/>
+      <c r="K316" s="76"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317"/>
-      <c r="B317" s="139">
+      <c r="B317" s="77">
         <f>J304+3</f>
         <v>46139</v>
       </c>
-      <c r="C317" s="140"/>
-      <c r="D317" s="141">
+      <c r="C317" s="78"/>
+      <c r="D317" s="79">
         <f>B317+1</f>
         <v>46140</v>
       </c>
-      <c r="E317" s="140"/>
-      <c r="F317" s="142">
+      <c r="E317" s="78"/>
+      <c r="F317" s="80">
         <f>D317+1</f>
         <v>46141</v>
       </c>
-      <c r="G317" s="140"/>
-      <c r="H317" s="143">
+      <c r="G317" s="78"/>
+      <c r="H317" s="81">
         <f>F317+1</f>
         <v>46142</v>
       </c>
-      <c r="I317" s="140"/>
-      <c r="J317" s="144">
+      <c r="I317" s="78"/>
+      <c r="J317" s="82">
         <f>H317+1</f>
         <v>46143</v>
       </c>
-      <c r="K317" s="140"/>
+      <c r="K317" s="78"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318"/>
-      <c r="B318" s="82"/>
-      <c r="C318" s="157"/>
-      <c r="D318" s="80"/>
-      <c r="E318" s="157"/>
-      <c r="F318" s="78"/>
-      <c r="G318" s="157"/>
-      <c r="H318" s="76"/>
-      <c r="I318" s="157"/>
-      <c r="J318" s="74"/>
-      <c r="K318" s="157"/>
+      <c r="B318" s="63"/>
+      <c r="C318" s="64"/>
+      <c r="D318" s="65"/>
+      <c r="E318" s="64"/>
+      <c r="F318" s="66"/>
+      <c r="G318" s="64"/>
+      <c r="H318" s="67"/>
+      <c r="I318" s="64"/>
+      <c r="J318" s="68"/>
+      <c r="K318" s="64"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319"/>
@@ -6640,85 +6640,85 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326"/>
-      <c r="B326" s="155"/>
-      <c r="C326" s="156"/>
-      <c r="D326" s="156"/>
-      <c r="E326" s="156"/>
-      <c r="F326" s="156"/>
-      <c r="G326" s="156"/>
-      <c r="H326" s="156"/>
-      <c r="I326" s="156"/>
-      <c r="J326" s="156"/>
-      <c r="K326" s="157"/>
+      <c r="B326" s="69"/>
+      <c r="C326" s="70"/>
+      <c r="D326" s="70"/>
+      <c r="E326" s="70"/>
+      <c r="F326" s="70"/>
+      <c r="G326" s="70"/>
+      <c r="H326" s="70"/>
+      <c r="I326" s="70"/>
+      <c r="J326" s="70"/>
+      <c r="K326" s="64"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328"/>
-      <c r="B328" s="59" t="s">
+      <c r="B328" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C328" s="145"/>
-      <c r="D328" s="145"/>
-      <c r="E328" s="145"/>
-      <c r="F328" s="145"/>
-      <c r="G328" s="145"/>
-      <c r="H328" s="145"/>
-      <c r="I328" s="145"/>
-      <c r="J328" s="145"/>
-      <c r="K328" s="146"/>
+      <c r="C328" s="72"/>
+      <c r="D328" s="72"/>
+      <c r="E328" s="72"/>
+      <c r="F328" s="72"/>
+      <c r="G328" s="72"/>
+      <c r="H328" s="72"/>
+      <c r="I328" s="72"/>
+      <c r="J328" s="72"/>
+      <c r="K328" s="73"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329"/>
-      <c r="B329" s="147"/>
-      <c r="C329" s="148"/>
-      <c r="D329" s="148"/>
-      <c r="E329" s="148"/>
-      <c r="F329" s="148"/>
-      <c r="G329" s="148"/>
-      <c r="H329" s="148"/>
-      <c r="I329" s="148"/>
-      <c r="J329" s="148"/>
-      <c r="K329" s="149"/>
+      <c r="B329" s="74"/>
+      <c r="C329" s="75"/>
+      <c r="D329" s="75"/>
+      <c r="E329" s="75"/>
+      <c r="F329" s="75"/>
+      <c r="G329" s="75"/>
+      <c r="H329" s="75"/>
+      <c r="I329" s="75"/>
+      <c r="J329" s="75"/>
+      <c r="K329" s="76"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330"/>
-      <c r="B330" s="139">
+      <c r="B330" s="77">
         <f>J317+3</f>
         <v>46146</v>
       </c>
-      <c r="C330" s="140"/>
-      <c r="D330" s="141">
+      <c r="C330" s="78"/>
+      <c r="D330" s="79">
         <f>B330+1</f>
         <v>46147</v>
       </c>
-      <c r="E330" s="140"/>
-      <c r="F330" s="142">
+      <c r="E330" s="78"/>
+      <c r="F330" s="80">
         <f>D330+1</f>
         <v>46148</v>
       </c>
-      <c r="G330" s="140"/>
-      <c r="H330" s="143">
+      <c r="G330" s="78"/>
+      <c r="H330" s="81">
         <f>F330+1</f>
         <v>46149</v>
       </c>
-      <c r="I330" s="140"/>
-      <c r="J330" s="144">
+      <c r="I330" s="78"/>
+      <c r="J330" s="82">
         <f>H330+1</f>
         <v>46150</v>
       </c>
-      <c r="K330" s="140"/>
+      <c r="K330" s="78"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331"/>
-      <c r="B331" s="82"/>
-      <c r="C331" s="157"/>
-      <c r="D331" s="80"/>
-      <c r="E331" s="157"/>
-      <c r="F331" s="78"/>
-      <c r="G331" s="157"/>
-      <c r="H331" s="76"/>
-      <c r="I331" s="157"/>
-      <c r="J331" s="74"/>
-      <c r="K331" s="157"/>
+      <c r="B331" s="63"/>
+      <c r="C331" s="64"/>
+      <c r="D331" s="65"/>
+      <c r="E331" s="64"/>
+      <c r="F331" s="66"/>
+      <c r="G331" s="64"/>
+      <c r="H331" s="67"/>
+      <c r="I331" s="64"/>
+      <c r="J331" s="68"/>
+      <c r="K331" s="64"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332"/>
@@ -6823,19 +6823,318 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339"/>
-      <c r="B339" s="155"/>
-      <c r="C339" s="156"/>
-      <c r="D339" s="156"/>
-      <c r="E339" s="156"/>
-      <c r="F339" s="156"/>
-      <c r="G339" s="156"/>
-      <c r="H339" s="156"/>
-      <c r="I339" s="156"/>
-      <c r="J339" s="156"/>
-      <c r="K339" s="157"/>
+      <c r="B339" s="69"/>
+      <c r="C339" s="70"/>
+      <c r="D339" s="70"/>
+      <c r="E339" s="70"/>
+      <c r="F339" s="70"/>
+      <c r="G339" s="70"/>
+      <c r="H339" s="70"/>
+      <c r="I339" s="70"/>
+      <c r="J339" s="70"/>
+      <c r="K339" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="323">
+    <mergeCell ref="B13:K14"/>
+    <mergeCell ref="J82:K88"/>
+    <mergeCell ref="J95:K101"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B26:K27"/>
+    <mergeCell ref="B39:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B1:C7"/>
+    <mergeCell ref="D1:I6"/>
+    <mergeCell ref="J1:K7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B52:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B65:K66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B56:C62"/>
+    <mergeCell ref="B78:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B91:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B89:K89"/>
+    <mergeCell ref="H82:I88"/>
+    <mergeCell ref="F82:G88"/>
+    <mergeCell ref="B104:K105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="H95:I101"/>
+    <mergeCell ref="F95:G101"/>
+    <mergeCell ref="B120:K121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="B118:K118"/>
+    <mergeCell ref="B133:K134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="B131:K131"/>
+    <mergeCell ref="B146:K147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="B144:K144"/>
+    <mergeCell ref="B159:K160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B157:K157"/>
+    <mergeCell ref="B172:K173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="B170:K170"/>
+    <mergeCell ref="B185:K186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="B183:K183"/>
+    <mergeCell ref="B198:K199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="B196:K196"/>
+    <mergeCell ref="B211:K212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="B209:K209"/>
+    <mergeCell ref="B224:K225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="B222:K222"/>
+    <mergeCell ref="B237:K238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="B235:K235"/>
+    <mergeCell ref="B250:K251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="B248:K248"/>
+    <mergeCell ref="B263:K264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="B261:K261"/>
+    <mergeCell ref="B276:K277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="B274:K274"/>
+    <mergeCell ref="B289:K290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="B287:K287"/>
+    <mergeCell ref="B302:K303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="B300:K300"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="B313:K313"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -6860,305 +7159,6 @@
     <mergeCell ref="B315:K316"/>
     <mergeCell ref="B317:C317"/>
     <mergeCell ref="D317:E317"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="B313:K313"/>
-    <mergeCell ref="B302:K303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="B300:K300"/>
-    <mergeCell ref="B289:K290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="B287:K287"/>
-    <mergeCell ref="B276:K277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="F278:G278"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="F266:G266"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="B274:K274"/>
-    <mergeCell ref="B263:K264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="B261:K261"/>
-    <mergeCell ref="B250:K251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="F252:G252"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="B248:K248"/>
-    <mergeCell ref="B237:K238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="B235:K235"/>
-    <mergeCell ref="B224:K225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="B222:K222"/>
-    <mergeCell ref="B211:K212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="B209:K209"/>
-    <mergeCell ref="B198:K199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="B196:K196"/>
-    <mergeCell ref="B185:K186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="B183:K183"/>
-    <mergeCell ref="B172:K173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="B170:K170"/>
-    <mergeCell ref="B159:K160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B157:K157"/>
-    <mergeCell ref="B146:K147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="B144:K144"/>
-    <mergeCell ref="B133:K134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="B131:K131"/>
-    <mergeCell ref="B120:K121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="B118:K118"/>
-    <mergeCell ref="B104:K105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="H95:I101"/>
-    <mergeCell ref="F95:G101"/>
-    <mergeCell ref="B91:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B89:K89"/>
-    <mergeCell ref="H82:I88"/>
-    <mergeCell ref="F82:G88"/>
-    <mergeCell ref="B78:K79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B65:K66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B56:C62"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B52:K53"/>
-    <mergeCell ref="B1:C7"/>
-    <mergeCell ref="D1:I6"/>
-    <mergeCell ref="J1:K7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="B13:K14"/>
-    <mergeCell ref="J82:K88"/>
-    <mergeCell ref="J95:K101"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B26:K27"/>
-    <mergeCell ref="B39:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>

--- a/Calendario.xlsx
+++ b/Calendario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="131">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>Exposición grupo Diagrama de Clase</t>
+  </si>
+  <si>
+    <t>Tiempo para ponerse al día y revisar ejercicios</t>
   </si>
 </sst>
 </file>
@@ -1241,60 +1244,237 @@
     <xf numFmtId="0" fontId="13" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1302,202 +1482,25 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="15" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1787,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C238" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E280" sqref="E280"/>
+    <sheetView tabSelected="1" topLeftCell="C148" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1810,179 +1813,179 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="123" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="128"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="129"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="119"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="129"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="119"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="129"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="119"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="129"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="129"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="119"/>
     </row>
     <row r="7" spans="1:11" ht="18">
       <c r="A7" s="2"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="130"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="120"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="131" t="s">
+      <c r="C8" s="122"/>
+      <c r="D8" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="132"/>
-      <c r="F8" s="135" t="s">
+      <c r="E8" s="122"/>
+      <c r="F8" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="136"/>
-      <c r="H8" s="139" t="s">
+      <c r="G8" s="126"/>
+      <c r="H8" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="136"/>
-      <c r="J8" s="140" t="s">
+      <c r="I8" s="126"/>
+      <c r="J8" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="136"/>
+      <c r="K8" s="126"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="138"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="128"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="135" t="s">
+      <c r="B10" s="131"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="142"/>
-      <c r="H10" s="139" t="s">
+      <c r="G10" s="132"/>
+      <c r="H10" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="136"/>
-      <c r="J10" s="139" t="s">
+      <c r="I10" s="126"/>
+      <c r="J10" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="K10" s="136"/>
+      <c r="K10" s="126"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="138"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="128"/>
     </row>
     <row r="12" spans="1:11" ht="2.25" hidden="1" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="62">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59" t="s">
+      <c r="C12" s="111"/>
+      <c r="D12" s="160">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E12" s="111"/>
+      <c r="F12" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="60"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="50"/>
       <c r="I12" s="50"/>
       <c r="J12" s="50"/>
@@ -1990,71 +1993,71 @@
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5"/>
-      <c r="B15" s="108">
+      <c r="B15" s="92">
         <v>45978</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110">
+      <c r="C15" s="93"/>
+      <c r="D15" s="90">
         <f>B15+1</f>
         <v>45979</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112">
+      <c r="E15" s="91"/>
+      <c r="F15" s="88">
         <f>D15+1</f>
         <v>45980</v>
       </c>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114">
+      <c r="G15" s="89"/>
+      <c r="H15" s="86">
         <f>F15+1</f>
         <v>45981</v>
       </c>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116">
+      <c r="I15" s="87"/>
+      <c r="J15" s="84">
         <f>H15+1</f>
         <v>45982</v>
       </c>
-      <c r="K15" s="117"/>
+      <c r="K15" s="85"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="98"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="75"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="6"/>
@@ -2164,16 +2167,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="27"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="101"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2"/>
@@ -2190,72 +2193,72 @@
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1">
       <c r="A26" s="2"/>
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="157"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="106"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="160"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="109"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5"/>
-      <c r="B28" s="145">
+      <c r="B28" s="94">
         <f>J15+3</f>
         <v>45985</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147">
+      <c r="C28" s="95"/>
+      <c r="D28" s="96">
         <f>B28+1</f>
         <v>45986</v>
       </c>
-      <c r="E28" s="148"/>
-      <c r="F28" s="149">
+      <c r="E28" s="97"/>
+      <c r="F28" s="98">
         <f>D28+1</f>
         <v>45987</v>
       </c>
-      <c r="G28" s="150"/>
-      <c r="H28" s="151">
+      <c r="G28" s="99"/>
+      <c r="H28" s="100">
         <f>F28+1</f>
         <v>45988</v>
       </c>
-      <c r="I28" s="152"/>
-      <c r="J28" s="153">
+      <c r="I28" s="101"/>
+      <c r="J28" s="102">
         <f>H28+1</f>
         <v>45989</v>
       </c>
-      <c r="K28" s="154"/>
+      <c r="K28" s="103"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="120"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="6"/>
@@ -2365,16 +2368,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="27"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="101"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="73"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2"/>
@@ -2391,74 +2394,74 @@
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1">
       <c r="A39" s="2"/>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="90"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="61"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="93"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2"/>
-      <c r="B41" s="108">
+      <c r="B41" s="92">
         <f>J28+3</f>
         <v>45992</v>
       </c>
-      <c r="C41" s="109"/>
-      <c r="D41" s="110">
+      <c r="C41" s="93"/>
+      <c r="D41" s="90">
         <f>B41+1</f>
         <v>45993</v>
       </c>
-      <c r="E41" s="111"/>
-      <c r="F41" s="112">
+      <c r="E41" s="91"/>
+      <c r="F41" s="88">
         <f>D41+1</f>
         <v>45994</v>
       </c>
-      <c r="G41" s="113"/>
-      <c r="H41" s="114">
+      <c r="G41" s="89"/>
+      <c r="H41" s="86">
         <f>F41+1</f>
         <v>45995</v>
       </c>
-      <c r="I41" s="115"/>
-      <c r="J41" s="116">
+      <c r="I41" s="87"/>
+      <c r="J41" s="84">
         <f>H41+1</f>
         <v>45996</v>
       </c>
-      <c r="K41" s="117"/>
+      <c r="K41" s="85"/>
     </row>
     <row r="42" spans="1:11" ht="15" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="86" t="s">
+      <c r="B42" s="82"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="118"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="98"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="75"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2"/>
@@ -2596,16 +2599,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="101"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="73"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2"/>
@@ -2621,75 +2624,75 @@
       <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11" ht="15" customHeight="1">
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="90"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="61"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="B53" s="91"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
-      <c r="K53" s="93"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="64"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="B54" s="108">
+      <c r="B54" s="92">
         <f>J41+3</f>
         <v>45999</v>
       </c>
-      <c r="C54" s="109"/>
-      <c r="D54" s="110">
+      <c r="C54" s="93"/>
+      <c r="D54" s="90">
         <f>B54+1</f>
         <v>46000</v>
       </c>
-      <c r="E54" s="111"/>
-      <c r="F54" s="112">
+      <c r="E54" s="91"/>
+      <c r="F54" s="88">
         <f>D54+1</f>
         <v>46001</v>
       </c>
-      <c r="G54" s="113"/>
-      <c r="H54" s="114">
+      <c r="G54" s="89"/>
+      <c r="H54" s="86">
         <f>F54+1</f>
         <v>46002</v>
       </c>
-      <c r="I54" s="115"/>
-      <c r="J54" s="116">
+      <c r="I54" s="87"/>
+      <c r="J54" s="84">
         <f>H54+1</f>
         <v>46003</v>
       </c>
-      <c r="K54" s="117"/>
+      <c r="K54" s="85"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="B55" s="63"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="98"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="75"/>
     </row>
     <row r="56" spans="1:11" ht="15" customHeight="1">
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="103"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="40">
         <f>D12</f>
         <v>0.79166666666666663</v>
@@ -2720,8 +2723,8 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" customHeight="1">
-      <c r="B57" s="104"/>
-      <c r="C57" s="105"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="17"/>
       <c r="E57" s="46" t="s">
         <v>33</v>
@@ -2736,8 +2739,8 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" customHeight="1">
-      <c r="B58" s="104"/>
-      <c r="C58" s="105"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="68"/>
       <c r="D58" s="22"/>
       <c r="E58" s="47" t="s">
         <v>34</v>
@@ -2752,8 +2755,8 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" customHeight="1">
-      <c r="B59" s="104"/>
-      <c r="C59" s="105"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="17"/>
       <c r="E59" s="46" t="s">
         <v>35</v>
@@ -2768,8 +2771,8 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" customHeight="1">
-      <c r="B60" s="104"/>
-      <c r="C60" s="105"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="31"/>
       <c r="E60" s="47"/>
       <c r="F60" s="32"/>
@@ -2780,8 +2783,8 @@
       <c r="K60" s="26"/>
     </row>
     <row r="61" spans="1:11" ht="15" customHeight="1">
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="36"/>
       <c r="E61" s="46"/>
       <c r="F61" s="36"/>
@@ -2796,8 +2799,8 @@
       <c r="K61" s="28"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1">
-      <c r="B62" s="106"/>
-      <c r="C62" s="107"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="70"/>
       <c r="D62" s="31"/>
       <c r="E62" s="47"/>
       <c r="F62" s="32"/>
@@ -2808,81 +2811,81 @@
       <c r="K62" s="48"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="B63" s="99"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="100"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="100"/>
-      <c r="K63" s="101"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="73"/>
     </row>
     <row r="65" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B65" s="71" t="s">
+      <c r="B65" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="89"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="90"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="60"/>
+      <c r="J65" s="60"/>
+      <c r="K65" s="61"/>
     </row>
     <row r="66" spans="2:11" customFormat="1">
-      <c r="B66" s="91"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="92"/>
-      <c r="K66" s="93"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="64"/>
     </row>
     <row r="67" spans="2:11" customFormat="1">
-      <c r="B67" s="108">
+      <c r="B67" s="92">
         <f>J54+3</f>
         <v>46006</v>
       </c>
-      <c r="C67" s="109"/>
-      <c r="D67" s="110">
+      <c r="C67" s="93"/>
+      <c r="D67" s="90">
         <f>B67+1</f>
         <v>46007</v>
       </c>
-      <c r="E67" s="111"/>
-      <c r="F67" s="112">
+      <c r="E67" s="91"/>
+      <c r="F67" s="88">
         <f>D67+1</f>
         <v>46008</v>
       </c>
-      <c r="G67" s="113"/>
-      <c r="H67" s="114">
+      <c r="G67" s="89"/>
+      <c r="H67" s="86">
         <f>F67+1</f>
         <v>46009</v>
       </c>
-      <c r="I67" s="115"/>
-      <c r="J67" s="116">
+      <c r="I67" s="87"/>
+      <c r="J67" s="84">
         <f>H67+1</f>
         <v>46010</v>
       </c>
-      <c r="K67" s="117"/>
+      <c r="K67" s="85"/>
     </row>
     <row r="68" spans="2:11" customFormat="1">
-      <c r="B68" s="63"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="96"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="97"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="98"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="75"/>
     </row>
     <row r="69" spans="2:11" customFormat="1">
       <c r="B69" s="39">
@@ -2984,81 +2987,81 @@
       <c r="K75" s="48"/>
     </row>
     <row r="76" spans="2:11" customFormat="1">
-      <c r="B76" s="99"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="100"/>
-      <c r="E76" s="100"/>
-      <c r="F76" s="100"/>
-      <c r="G76" s="100"/>
-      <c r="H76" s="100"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="100"/>
-      <c r="K76" s="101"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="73"/>
     </row>
     <row r="78" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B78" s="71" t="s">
+      <c r="B78" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="89"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="89"/>
-      <c r="H78" s="89"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="89"/>
-      <c r="K78" s="90"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="61"/>
     </row>
     <row r="79" spans="2:11" customFormat="1">
-      <c r="B79" s="91"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="92"/>
-      <c r="F79" s="92"/>
-      <c r="G79" s="92"/>
-      <c r="H79" s="92"/>
-      <c r="I79" s="92"/>
-      <c r="J79" s="92"/>
-      <c r="K79" s="93"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="64"/>
     </row>
     <row r="80" spans="2:11" customFormat="1">
-      <c r="B80" s="108">
+      <c r="B80" s="92">
         <f>J67+3</f>
         <v>46013</v>
       </c>
-      <c r="C80" s="109"/>
-      <c r="D80" s="110">
+      <c r="C80" s="93"/>
+      <c r="D80" s="90">
         <f>B80+1</f>
         <v>46014</v>
       </c>
-      <c r="E80" s="111"/>
-      <c r="F80" s="112">
+      <c r="E80" s="91"/>
+      <c r="F80" s="88">
         <f>D80+1</f>
         <v>46015</v>
       </c>
-      <c r="G80" s="113"/>
-      <c r="H80" s="114">
+      <c r="G80" s="89"/>
+      <c r="H80" s="86">
         <f>F80+1</f>
         <v>46016</v>
       </c>
-      <c r="I80" s="115"/>
-      <c r="J80" s="116">
+      <c r="I80" s="87"/>
+      <c r="J80" s="84">
         <f>H80+1</f>
         <v>46017</v>
       </c>
-      <c r="K80" s="117"/>
+      <c r="K80" s="85"/>
     </row>
     <row r="81" spans="2:11" customFormat="1">
-      <c r="B81" s="63"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="95"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="97"/>
-      <c r="J81" s="68"/>
-      <c r="K81" s="98"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="76"/>
+      <c r="I81" s="77"/>
+      <c r="J81" s="74"/>
+      <c r="K81" s="75"/>
     </row>
     <row r="82" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B82" s="39">
@@ -3071,167 +3074,167 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E82" s="43"/>
-      <c r="F82" s="102" t="s">
+      <c r="F82" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G82" s="103"/>
-      <c r="H82" s="102" t="s">
+      <c r="G82" s="66"/>
+      <c r="H82" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="103"/>
-      <c r="J82" s="102" t="s">
+      <c r="I82" s="66"/>
+      <c r="J82" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="103"/>
+      <c r="K82" s="66"/>
     </row>
     <row r="83" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
       <c r="D83" s="17"/>
       <c r="E83" s="46"/>
-      <c r="F83" s="104"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="104"/>
-      <c r="I83" s="105"/>
-      <c r="J83" s="104"/>
-      <c r="K83" s="105"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="68"/>
     </row>
     <row r="84" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B84" s="7"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
       <c r="E84" s="47"/>
-      <c r="F84" s="104"/>
-      <c r="G84" s="105"/>
-      <c r="H84" s="104"/>
-      <c r="I84" s="105"/>
-      <c r="J84" s="104"/>
-      <c r="K84" s="105"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="67"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="68"/>
     </row>
     <row r="85" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
       <c r="D85" s="17"/>
       <c r="E85" s="46"/>
-      <c r="F85" s="104"/>
-      <c r="G85" s="105"/>
-      <c r="H85" s="104"/>
-      <c r="I85" s="105"/>
-      <c r="J85" s="104"/>
-      <c r="K85" s="105"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="68"/>
+      <c r="H85" s="67"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="68"/>
     </row>
     <row r="86" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B86" s="30"/>
       <c r="C86" s="21"/>
       <c r="D86" s="31"/>
       <c r="E86" s="47"/>
-      <c r="F86" s="104"/>
-      <c r="G86" s="105"/>
-      <c r="H86" s="104"/>
-      <c r="I86" s="105"/>
-      <c r="J86" s="104"/>
-      <c r="K86" s="105"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="68"/>
+      <c r="H86" s="67"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="68"/>
     </row>
     <row r="87" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B87" s="35"/>
       <c r="C87" s="15"/>
       <c r="D87" s="36"/>
       <c r="E87" s="46"/>
-      <c r="F87" s="104"/>
-      <c r="G87" s="105"/>
-      <c r="H87" s="104"/>
-      <c r="I87" s="105"/>
-      <c r="J87" s="104"/>
-      <c r="K87" s="105"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="67"/>
+      <c r="I87" s="68"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="68"/>
     </row>
     <row r="88" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B88" s="30"/>
       <c r="C88" s="21"/>
       <c r="D88" s="31"/>
       <c r="E88" s="47"/>
-      <c r="F88" s="106"/>
-      <c r="G88" s="107"/>
-      <c r="H88" s="106"/>
-      <c r="I88" s="107"/>
-      <c r="J88" s="106"/>
-      <c r="K88" s="107"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="70"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="70"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="70"/>
     </row>
     <row r="89" spans="2:11" customFormat="1">
-      <c r="B89" s="99"/>
-      <c r="C89" s="100"/>
-      <c r="D89" s="100"/>
-      <c r="E89" s="100"/>
-      <c r="F89" s="100"/>
-      <c r="G89" s="100"/>
-      <c r="H89" s="100"/>
-      <c r="I89" s="100"/>
-      <c r="J89" s="100"/>
-      <c r="K89" s="101"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
+      <c r="K89" s="73"/>
     </row>
     <row r="91" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B91" s="71" t="s">
+      <c r="B91" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C91" s="89"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="89"/>
-      <c r="F91" s="89"/>
-      <c r="G91" s="89"/>
-      <c r="H91" s="89"/>
-      <c r="I91" s="89"/>
-      <c r="J91" s="89"/>
-      <c r="K91" s="90"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="61"/>
     </row>
     <row r="92" spans="2:11" customFormat="1">
-      <c r="B92" s="91"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="92"/>
-      <c r="E92" s="92"/>
-      <c r="F92" s="92"/>
-      <c r="G92" s="92"/>
-      <c r="H92" s="92"/>
-      <c r="I92" s="92"/>
-      <c r="J92" s="92"/>
-      <c r="K92" s="93"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="63"/>
+      <c r="H92" s="63"/>
+      <c r="I92" s="63"/>
+      <c r="J92" s="63"/>
+      <c r="K92" s="64"/>
     </row>
     <row r="93" spans="2:11" customFormat="1">
-      <c r="B93" s="108">
+      <c r="B93" s="92">
         <f>J80+3</f>
         <v>46020</v>
       </c>
-      <c r="C93" s="109"/>
-      <c r="D93" s="110">
+      <c r="C93" s="93"/>
+      <c r="D93" s="90">
         <f>B93+1</f>
         <v>46021</v>
       </c>
-      <c r="E93" s="111"/>
-      <c r="F93" s="112">
+      <c r="E93" s="91"/>
+      <c r="F93" s="88">
         <f>D93+1</f>
         <v>46022</v>
       </c>
-      <c r="G93" s="113"/>
-      <c r="H93" s="114">
+      <c r="G93" s="89"/>
+      <c r="H93" s="86">
         <f>F93+1</f>
         <v>46023</v>
       </c>
-      <c r="I93" s="115"/>
-      <c r="J93" s="116">
+      <c r="I93" s="87"/>
+      <c r="J93" s="84">
         <f>H93+1</f>
         <v>46024</v>
       </c>
-      <c r="K93" s="117"/>
+      <c r="K93" s="85"/>
     </row>
     <row r="94" spans="2:11" customFormat="1">
-      <c r="B94" s="63"/>
-      <c r="C94" s="94"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="95"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="96"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="97"/>
-      <c r="J94" s="68"/>
-      <c r="K94" s="98"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="80"/>
+      <c r="E94" s="81"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="79"/>
+      <c r="H94" s="76"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="74"/>
+      <c r="K94" s="75"/>
     </row>
     <row r="95" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B95" s="39">
@@ -3244,177 +3247,177 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E95" s="43"/>
-      <c r="F95" s="102" t="s">
+      <c r="F95" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="103"/>
-      <c r="H95" s="102" t="s">
+      <c r="G95" s="66"/>
+      <c r="H95" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="I95" s="103"/>
-      <c r="J95" s="102" t="s">
+      <c r="I95" s="66"/>
+      <c r="J95" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="103"/>
+      <c r="K95" s="66"/>
     </row>
     <row r="96" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
       <c r="D96" s="17"/>
       <c r="E96" s="46"/>
-      <c r="F96" s="104"/>
-      <c r="G96" s="105"/>
-      <c r="H96" s="104"/>
-      <c r="I96" s="105"/>
-      <c r="J96" s="104"/>
-      <c r="K96" s="105"/>
+      <c r="F96" s="67"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="67"/>
+      <c r="I96" s="68"/>
+      <c r="J96" s="67"/>
+      <c r="K96" s="68"/>
     </row>
     <row r="97" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B97" s="7"/>
       <c r="C97" s="21"/>
       <c r="D97" s="22"/>
       <c r="E97" s="47"/>
-      <c r="F97" s="104"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="104"/>
-      <c r="I97" s="105"/>
-      <c r="J97" s="104"/>
-      <c r="K97" s="105"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="68"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="68"/>
+      <c r="J97" s="67"/>
+      <c r="K97" s="68"/>
     </row>
     <row r="98" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="17"/>
       <c r="E98" s="46"/>
-      <c r="F98" s="104"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="104"/>
-      <c r="I98" s="105"/>
-      <c r="J98" s="104"/>
-      <c r="K98" s="105"/>
+      <c r="F98" s="67"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="67"/>
+      <c r="I98" s="68"/>
+      <c r="J98" s="67"/>
+      <c r="K98" s="68"/>
     </row>
     <row r="99" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B99" s="30"/>
       <c r="C99" s="21"/>
       <c r="D99" s="31"/>
       <c r="E99" s="47"/>
-      <c r="F99" s="104"/>
-      <c r="G99" s="105"/>
-      <c r="H99" s="104"/>
-      <c r="I99" s="105"/>
-      <c r="J99" s="104"/>
-      <c r="K99" s="105"/>
+      <c r="F99" s="67"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="67"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="67"/>
+      <c r="K99" s="68"/>
     </row>
     <row r="100" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B100" s="35"/>
       <c r="C100" s="15"/>
       <c r="D100" s="36"/>
       <c r="E100" s="46"/>
-      <c r="F100" s="104"/>
-      <c r="G100" s="105"/>
-      <c r="H100" s="104"/>
-      <c r="I100" s="105"/>
-      <c r="J100" s="104"/>
-      <c r="K100" s="105"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="68"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="68"/>
+      <c r="J100" s="67"/>
+      <c r="K100" s="68"/>
     </row>
     <row r="101" spans="2:11" customFormat="1" ht="15" customHeight="1">
       <c r="B101" s="30"/>
       <c r="C101" s="21"/>
       <c r="D101" s="31"/>
       <c r="E101" s="47"/>
-      <c r="F101" s="106"/>
-      <c r="G101" s="107"/>
-      <c r="H101" s="106"/>
-      <c r="I101" s="107"/>
-      <c r="J101" s="106"/>
-      <c r="K101" s="107"/>
+      <c r="F101" s="69"/>
+      <c r="G101" s="70"/>
+      <c r="H101" s="69"/>
+      <c r="I101" s="70"/>
+      <c r="J101" s="69"/>
+      <c r="K101" s="70"/>
     </row>
     <row r="102" spans="2:11" customFormat="1">
-      <c r="B102" s="99"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="100"/>
-      <c r="G102" s="100"/>
-      <c r="H102" s="100"/>
-      <c r="I102" s="100"/>
-      <c r="J102" s="100"/>
-      <c r="K102" s="101"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
+      <c r="K102" s="73"/>
     </row>
     <row r="104" spans="2:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B104" s="71" t="s">
+      <c r="B104" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C104" s="89"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="89"/>
-      <c r="F104" s="89"/>
-      <c r="G104" s="89"/>
-      <c r="H104" s="89"/>
-      <c r="I104" s="89"/>
-      <c r="J104" s="89"/>
-      <c r="K104" s="90"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="60"/>
+      <c r="J104" s="60"/>
+      <c r="K104" s="61"/>
     </row>
     <row r="105" spans="2:11" customFormat="1">
-      <c r="B105" s="91"/>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="92"/>
-      <c r="G105" s="92"/>
-      <c r="H105" s="92"/>
-      <c r="I105" s="92"/>
-      <c r="J105" s="92"/>
-      <c r="K105" s="93"/>
+      <c r="B105" s="62"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="63"/>
+      <c r="K105" s="64"/>
     </row>
     <row r="106" spans="2:11" customFormat="1">
-      <c r="B106" s="77">
+      <c r="B106" s="139">
         <f>J93+3</f>
         <v>46027</v>
       </c>
-      <c r="C106" s="78"/>
-      <c r="D106" s="79">
+      <c r="C106" s="140"/>
+      <c r="D106" s="141">
         <f>B106+1</f>
         <v>46028</v>
       </c>
-      <c r="E106" s="78"/>
-      <c r="F106" s="80">
+      <c r="E106" s="140"/>
+      <c r="F106" s="142">
         <f>D106+1</f>
         <v>46029</v>
       </c>
-      <c r="G106" s="78"/>
-      <c r="H106" s="81">
+      <c r="G106" s="140"/>
+      <c r="H106" s="143">
         <f>F106+1</f>
         <v>46030</v>
       </c>
-      <c r="I106" s="78"/>
-      <c r="J106" s="82">
+      <c r="I106" s="140"/>
+      <c r="J106" s="144">
         <f>H106+1</f>
         <v>46031</v>
       </c>
-      <c r="K106" s="78"/>
+      <c r="K106" s="140"/>
     </row>
     <row r="107" spans="2:11" customFormat="1">
-      <c r="B107" s="83" t="s">
+      <c r="B107" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="C107" s="84"/>
-      <c r="D107" s="85" t="s">
+      <c r="C107" s="151"/>
+      <c r="D107" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="84"/>
-      <c r="F107" s="86" t="s">
+      <c r="E107" s="151"/>
+      <c r="F107" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="G107" s="84"/>
-      <c r="H107" s="87" t="s">
+      <c r="G107" s="151"/>
+      <c r="H107" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="I107" s="84"/>
-      <c r="J107" s="88" t="s">
+      <c r="I107" s="151"/>
+      <c r="J107" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="84"/>
+      <c r="K107" s="151"/>
     </row>
     <row r="108" spans="2:11" customFormat="1" ht="26.25">
       <c r="B108" s="39">
@@ -3604,95 +3607,95 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118"/>
-      <c r="B118" s="69"/>
-      <c r="C118" s="70"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="70"/>
-      <c r="F118" s="70"/>
-      <c r="G118" s="70"/>
-      <c r="H118" s="70"/>
-      <c r="I118" s="70"/>
-      <c r="J118" s="70"/>
-      <c r="K118" s="64"/>
+      <c r="B118" s="155"/>
+      <c r="C118" s="156"/>
+      <c r="D118" s="156"/>
+      <c r="E118" s="156"/>
+      <c r="F118" s="156"/>
+      <c r="G118" s="156"/>
+      <c r="H118" s="156"/>
+      <c r="I118" s="156"/>
+      <c r="J118" s="156"/>
+      <c r="K118" s="157"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120"/>
-      <c r="B120" s="71" t="s">
+      <c r="B120" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="C120" s="72"/>
-      <c r="D120" s="72"/>
-      <c r="E120" s="72"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="72"/>
-      <c r="H120" s="72"/>
-      <c r="I120" s="72"/>
-      <c r="J120" s="72"/>
-      <c r="K120" s="73"/>
+      <c r="C120" s="145"/>
+      <c r="D120" s="145"/>
+      <c r="E120" s="145"/>
+      <c r="F120" s="145"/>
+      <c r="G120" s="145"/>
+      <c r="H120" s="145"/>
+      <c r="I120" s="145"/>
+      <c r="J120" s="145"/>
+      <c r="K120" s="146"/>
     </row>
     <row r="121" spans="1:11">
       <c r="A121"/>
-      <c r="B121" s="74"/>
-      <c r="C121" s="75"/>
-      <c r="D121" s="75"/>
-      <c r="E121" s="75"/>
-      <c r="F121" s="75"/>
-      <c r="G121" s="75"/>
-      <c r="H121" s="75"/>
-      <c r="I121" s="75"/>
-      <c r="J121" s="75"/>
-      <c r="K121" s="76"/>
+      <c r="B121" s="147"/>
+      <c r="C121" s="148"/>
+      <c r="D121" s="148"/>
+      <c r="E121" s="148"/>
+      <c r="F121" s="148"/>
+      <c r="G121" s="148"/>
+      <c r="H121" s="148"/>
+      <c r="I121" s="148"/>
+      <c r="J121" s="148"/>
+      <c r="K121" s="149"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122"/>
-      <c r="B122" s="77">
+      <c r="B122" s="139">
         <f>J106+3</f>
         <v>46034</v>
       </c>
-      <c r="C122" s="78"/>
-      <c r="D122" s="79">
+      <c r="C122" s="140"/>
+      <c r="D122" s="141">
         <f>B122+1</f>
         <v>46035</v>
       </c>
-      <c r="E122" s="78"/>
-      <c r="F122" s="80">
+      <c r="E122" s="140"/>
+      <c r="F122" s="142">
         <f>D122+1</f>
         <v>46036</v>
       </c>
-      <c r="G122" s="78"/>
-      <c r="H122" s="81">
+      <c r="G122" s="140"/>
+      <c r="H122" s="143">
         <f>F122+1</f>
         <v>46037</v>
       </c>
-      <c r="I122" s="78"/>
-      <c r="J122" s="82">
+      <c r="I122" s="140"/>
+      <c r="J122" s="144">
         <f>H122+1</f>
         <v>46038</v>
       </c>
-      <c r="K122" s="78"/>
+      <c r="K122" s="140"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123"/>
-      <c r="B123" s="83" t="s">
+      <c r="B123" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="C123" s="84"/>
-      <c r="D123" s="85" t="s">
+      <c r="C123" s="151"/>
+      <c r="D123" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="E123" s="84"/>
-      <c r="F123" s="86" t="s">
+      <c r="E123" s="151"/>
+      <c r="F123" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="G123" s="84"/>
-      <c r="H123" s="87" t="s">
+      <c r="G123" s="151"/>
+      <c r="H123" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="I123" s="84"/>
-      <c r="J123" s="88" t="s">
+      <c r="I123" s="151"/>
+      <c r="J123" s="154" t="s">
         <v>16</v>
       </c>
-      <c r="K123" s="84"/>
+      <c r="K123" s="151"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124"/>
@@ -3827,85 +3830,85 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131"/>
-      <c r="B131" s="69"/>
-      <c r="C131" s="70"/>
-      <c r="D131" s="70"/>
-      <c r="E131" s="70"/>
-      <c r="F131" s="70"/>
-      <c r="G131" s="70"/>
-      <c r="H131" s="70"/>
-      <c r="I131" s="70"/>
-      <c r="J131" s="70"/>
-      <c r="K131" s="64"/>
+      <c r="B131" s="155"/>
+      <c r="C131" s="156"/>
+      <c r="D131" s="156"/>
+      <c r="E131" s="156"/>
+      <c r="F131" s="156"/>
+      <c r="G131" s="156"/>
+      <c r="H131" s="156"/>
+      <c r="I131" s="156"/>
+      <c r="J131" s="156"/>
+      <c r="K131" s="157"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133"/>
-      <c r="B133" s="71" t="s">
+      <c r="B133" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C133" s="72"/>
-      <c r="D133" s="72"/>
-      <c r="E133" s="72"/>
-      <c r="F133" s="72"/>
-      <c r="G133" s="72"/>
-      <c r="H133" s="72"/>
-      <c r="I133" s="72"/>
-      <c r="J133" s="72"/>
-      <c r="K133" s="73"/>
+      <c r="C133" s="145"/>
+      <c r="D133" s="145"/>
+      <c r="E133" s="145"/>
+      <c r="F133" s="145"/>
+      <c r="G133" s="145"/>
+      <c r="H133" s="145"/>
+      <c r="I133" s="145"/>
+      <c r="J133" s="145"/>
+      <c r="K133" s="146"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134"/>
-      <c r="B134" s="74"/>
-      <c r="C134" s="75"/>
-      <c r="D134" s="75"/>
-      <c r="E134" s="75"/>
-      <c r="F134" s="75"/>
-      <c r="G134" s="75"/>
-      <c r="H134" s="75"/>
-      <c r="I134" s="75"/>
-      <c r="J134" s="75"/>
-      <c r="K134" s="76"/>
+      <c r="B134" s="147"/>
+      <c r="C134" s="148"/>
+      <c r="D134" s="148"/>
+      <c r="E134" s="148"/>
+      <c r="F134" s="148"/>
+      <c r="G134" s="148"/>
+      <c r="H134" s="148"/>
+      <c r="I134" s="148"/>
+      <c r="J134" s="148"/>
+      <c r="K134" s="149"/>
     </row>
     <row r="135" spans="1:11">
       <c r="A135"/>
-      <c r="B135" s="77">
+      <c r="B135" s="139">
         <f>J122+3</f>
         <v>46041</v>
       </c>
-      <c r="C135" s="78"/>
-      <c r="D135" s="79">
+      <c r="C135" s="140"/>
+      <c r="D135" s="141">
         <f>B135+1</f>
         <v>46042</v>
       </c>
-      <c r="E135" s="78"/>
-      <c r="F135" s="80">
+      <c r="E135" s="140"/>
+      <c r="F135" s="142">
         <f>D135+1</f>
         <v>46043</v>
       </c>
-      <c r="G135" s="78"/>
-      <c r="H135" s="81">
+      <c r="G135" s="140"/>
+      <c r="H135" s="143">
         <f>F135+1</f>
         <v>46044</v>
       </c>
-      <c r="I135" s="78"/>
-      <c r="J135" s="82">
+      <c r="I135" s="140"/>
+      <c r="J135" s="144">
         <f>H135+1</f>
         <v>46045</v>
       </c>
-      <c r="K135" s="78"/>
+      <c r="K135" s="140"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136"/>
-      <c r="B136" s="63"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="64"/>
-      <c r="F136" s="66"/>
-      <c r="G136" s="64"/>
-      <c r="H136" s="67"/>
-      <c r="I136" s="64"/>
-      <c r="J136" s="68"/>
-      <c r="K136" s="64"/>
+      <c r="B136" s="82"/>
+      <c r="C136" s="157"/>
+      <c r="D136" s="80"/>
+      <c r="E136" s="157"/>
+      <c r="F136" s="78"/>
+      <c r="G136" s="157"/>
+      <c r="H136" s="76"/>
+      <c r="I136" s="157"/>
+      <c r="J136" s="74"/>
+      <c r="K136" s="157"/>
     </row>
     <row r="137" spans="1:11" ht="26.25">
       <c r="A137"/>
@@ -4040,85 +4043,85 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144"/>
-      <c r="B144" s="69"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="70"/>
-      <c r="F144" s="70"/>
-      <c r="G144" s="70"/>
-      <c r="H144" s="70"/>
-      <c r="I144" s="70"/>
-      <c r="J144" s="70"/>
-      <c r="K144" s="64"/>
+      <c r="B144" s="155"/>
+      <c r="C144" s="156"/>
+      <c r="D144" s="156"/>
+      <c r="E144" s="156"/>
+      <c r="F144" s="156"/>
+      <c r="G144" s="156"/>
+      <c r="H144" s="156"/>
+      <c r="I144" s="156"/>
+      <c r="J144" s="156"/>
+      <c r="K144" s="157"/>
     </row>
     <row r="146" spans="1:11">
       <c r="A146"/>
-      <c r="B146" s="71" t="s">
+      <c r="B146" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="72"/>
-      <c r="D146" s="72"/>
-      <c r="E146" s="72"/>
-      <c r="F146" s="72"/>
-      <c r="G146" s="72"/>
-      <c r="H146" s="72"/>
-      <c r="I146" s="72"/>
-      <c r="J146" s="72"/>
-      <c r="K146" s="73"/>
+      <c r="C146" s="145"/>
+      <c r="D146" s="145"/>
+      <c r="E146" s="145"/>
+      <c r="F146" s="145"/>
+      <c r="G146" s="145"/>
+      <c r="H146" s="145"/>
+      <c r="I146" s="145"/>
+      <c r="J146" s="145"/>
+      <c r="K146" s="146"/>
     </row>
     <row r="147" spans="1:11">
       <c r="A147"/>
-      <c r="B147" s="74"/>
-      <c r="C147" s="75"/>
-      <c r="D147" s="75"/>
-      <c r="E147" s="75"/>
-      <c r="F147" s="75"/>
-      <c r="G147" s="75"/>
-      <c r="H147" s="75"/>
-      <c r="I147" s="75"/>
-      <c r="J147" s="75"/>
-      <c r="K147" s="76"/>
+      <c r="B147" s="147"/>
+      <c r="C147" s="148"/>
+      <c r="D147" s="148"/>
+      <c r="E147" s="148"/>
+      <c r="F147" s="148"/>
+      <c r="G147" s="148"/>
+      <c r="H147" s="148"/>
+      <c r="I147" s="148"/>
+      <c r="J147" s="148"/>
+      <c r="K147" s="149"/>
     </row>
     <row r="148" spans="1:11">
       <c r="A148"/>
-      <c r="B148" s="77">
+      <c r="B148" s="139">
         <f>J135+3</f>
         <v>46048</v>
       </c>
-      <c r="C148" s="78"/>
-      <c r="D148" s="79">
+      <c r="C148" s="140"/>
+      <c r="D148" s="141">
         <f>B148+1</f>
         <v>46049</v>
       </c>
-      <c r="E148" s="78"/>
-      <c r="F148" s="80">
+      <c r="E148" s="140"/>
+      <c r="F148" s="142">
         <f>D148+1</f>
         <v>46050</v>
       </c>
-      <c r="G148" s="78"/>
-      <c r="H148" s="81">
+      <c r="G148" s="140"/>
+      <c r="H148" s="143">
         <f>F148+1</f>
         <v>46051</v>
       </c>
-      <c r="I148" s="78"/>
-      <c r="J148" s="82">
+      <c r="I148" s="140"/>
+      <c r="J148" s="144">
         <f>H148+1</f>
         <v>46052</v>
       </c>
-      <c r="K148" s="78"/>
+      <c r="K148" s="140"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149"/>
-      <c r="B149" s="63"/>
-      <c r="C149" s="64"/>
-      <c r="D149" s="65"/>
-      <c r="E149" s="64"/>
-      <c r="F149" s="66"/>
-      <c r="G149" s="64"/>
-      <c r="H149" s="67"/>
-      <c r="I149" s="64"/>
-      <c r="J149" s="68"/>
-      <c r="K149" s="64"/>
+      <c r="B149" s="82"/>
+      <c r="C149" s="157"/>
+      <c r="D149" s="80"/>
+      <c r="E149" s="157"/>
+      <c r="F149" s="78"/>
+      <c r="G149" s="157"/>
+      <c r="H149" s="76"/>
+      <c r="I149" s="157"/>
+      <c r="J149" s="74"/>
+      <c r="K149" s="157"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150"/>
@@ -4241,87 +4244,87 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157"/>
-      <c r="B157" s="69"/>
-      <c r="C157" s="70"/>
-      <c r="D157" s="70"/>
-      <c r="E157" s="70"/>
-      <c r="F157" s="70"/>
-      <c r="G157" s="70"/>
-      <c r="H157" s="70"/>
-      <c r="I157" s="70"/>
-      <c r="J157" s="70"/>
-      <c r="K157" s="64"/>
+      <c r="B157" s="155"/>
+      <c r="C157" s="156"/>
+      <c r="D157" s="156"/>
+      <c r="E157" s="156"/>
+      <c r="F157" s="156"/>
+      <c r="G157" s="156"/>
+      <c r="H157" s="156"/>
+      <c r="I157" s="156"/>
+      <c r="J157" s="156"/>
+      <c r="K157" s="157"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159"/>
-      <c r="B159" s="71" t="s">
+      <c r="B159" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C159" s="72"/>
-      <c r="D159" s="72"/>
-      <c r="E159" s="72"/>
-      <c r="F159" s="72"/>
-      <c r="G159" s="72"/>
-      <c r="H159" s="72"/>
-      <c r="I159" s="72"/>
-      <c r="J159" s="72"/>
-      <c r="K159" s="73"/>
+      <c r="C159" s="145"/>
+      <c r="D159" s="145"/>
+      <c r="E159" s="145"/>
+      <c r="F159" s="145"/>
+      <c r="G159" s="145"/>
+      <c r="H159" s="145"/>
+      <c r="I159" s="145"/>
+      <c r="J159" s="145"/>
+      <c r="K159" s="146"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160"/>
-      <c r="B160" s="74"/>
-      <c r="C160" s="75"/>
-      <c r="D160" s="75"/>
-      <c r="E160" s="75"/>
-      <c r="F160" s="75"/>
-      <c r="G160" s="75"/>
-      <c r="H160" s="75"/>
-      <c r="I160" s="75"/>
-      <c r="J160" s="75"/>
-      <c r="K160" s="76"/>
+      <c r="B160" s="147"/>
+      <c r="C160" s="148"/>
+      <c r="D160" s="148"/>
+      <c r="E160" s="148"/>
+      <c r="F160" s="148"/>
+      <c r="G160" s="148"/>
+      <c r="H160" s="148"/>
+      <c r="I160" s="148"/>
+      <c r="J160" s="148"/>
+      <c r="K160" s="149"/>
     </row>
     <row r="161" spans="1:11">
       <c r="A161"/>
-      <c r="B161" s="77">
+      <c r="B161" s="139">
         <f>J148+3</f>
         <v>46055</v>
       </c>
-      <c r="C161" s="78"/>
-      <c r="D161" s="79">
+      <c r="C161" s="140"/>
+      <c r="D161" s="141">
         <f>B161+1</f>
         <v>46056</v>
       </c>
-      <c r="E161" s="78"/>
-      <c r="F161" s="80">
+      <c r="E161" s="140"/>
+      <c r="F161" s="142">
         <f>D161+1</f>
         <v>46057</v>
       </c>
-      <c r="G161" s="78"/>
-      <c r="H161" s="81">
+      <c r="G161" s="140"/>
+      <c r="H161" s="143">
         <f>F161+1</f>
         <v>46058</v>
       </c>
-      <c r="I161" s="78"/>
-      <c r="J161" s="82">
+      <c r="I161" s="140"/>
+      <c r="J161" s="144">
         <f>H161+1</f>
         <v>46059</v>
       </c>
-      <c r="K161" s="78"/>
+      <c r="K161" s="140"/>
     </row>
     <row r="162" spans="1:11">
       <c r="A162"/>
-      <c r="B162" s="63"/>
-      <c r="C162" s="64"/>
-      <c r="D162" s="65"/>
-      <c r="E162" s="64"/>
-      <c r="F162" s="66"/>
-      <c r="G162" s="64"/>
-      <c r="H162" s="67"/>
-      <c r="I162" s="64"/>
-      <c r="J162" s="68"/>
-      <c r="K162" s="64"/>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="B162" s="82"/>
+      <c r="C162" s="157"/>
+      <c r="D162" s="80"/>
+      <c r="E162" s="157"/>
+      <c r="F162" s="78"/>
+      <c r="G162" s="157"/>
+      <c r="H162" s="76"/>
+      <c r="I162" s="157"/>
+      <c r="J162" s="74"/>
+      <c r="K162" s="157"/>
+    </row>
+    <row r="163" spans="1:11" ht="26.25">
       <c r="A163"/>
       <c r="B163" s="39">
         <v>0.79166666666666663</v>
@@ -4338,7 +4341,9 @@
       <c r="F163" s="10">
         <v>0.79166666666666663</v>
       </c>
-      <c r="G163" s="11"/>
+      <c r="G163" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="H163" s="41">
         <v>0.79166666666666663</v>
       </c>
@@ -4438,85 +4443,85 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170"/>
-      <c r="B170" s="69"/>
-      <c r="C170" s="70"/>
-      <c r="D170" s="70"/>
-      <c r="E170" s="70"/>
-      <c r="F170" s="70"/>
-      <c r="G170" s="70"/>
-      <c r="H170" s="70"/>
-      <c r="I170" s="70"/>
-      <c r="J170" s="70"/>
-      <c r="K170" s="64"/>
+      <c r="B170" s="155"/>
+      <c r="C170" s="156"/>
+      <c r="D170" s="156"/>
+      <c r="E170" s="156"/>
+      <c r="F170" s="156"/>
+      <c r="G170" s="156"/>
+      <c r="H170" s="156"/>
+      <c r="I170" s="156"/>
+      <c r="J170" s="156"/>
+      <c r="K170" s="157"/>
     </row>
     <row r="172" spans="1:11">
       <c r="A172"/>
-      <c r="B172" s="71" t="s">
+      <c r="B172" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C172" s="72"/>
-      <c r="D172" s="72"/>
-      <c r="E172" s="72"/>
-      <c r="F172" s="72"/>
-      <c r="G172" s="72"/>
-      <c r="H172" s="72"/>
-      <c r="I172" s="72"/>
-      <c r="J172" s="72"/>
-      <c r="K172" s="73"/>
+      <c r="C172" s="145"/>
+      <c r="D172" s="145"/>
+      <c r="E172" s="145"/>
+      <c r="F172" s="145"/>
+      <c r="G172" s="145"/>
+      <c r="H172" s="145"/>
+      <c r="I172" s="145"/>
+      <c r="J172" s="145"/>
+      <c r="K172" s="146"/>
     </row>
     <row r="173" spans="1:11">
       <c r="A173"/>
-      <c r="B173" s="74"/>
-      <c r="C173" s="75"/>
-      <c r="D173" s="75"/>
-      <c r="E173" s="75"/>
-      <c r="F173" s="75"/>
-      <c r="G173" s="75"/>
-      <c r="H173" s="75"/>
-      <c r="I173" s="75"/>
-      <c r="J173" s="75"/>
-      <c r="K173" s="76"/>
+      <c r="B173" s="147"/>
+      <c r="C173" s="148"/>
+      <c r="D173" s="148"/>
+      <c r="E173" s="148"/>
+      <c r="F173" s="148"/>
+      <c r="G173" s="148"/>
+      <c r="H173" s="148"/>
+      <c r="I173" s="148"/>
+      <c r="J173" s="148"/>
+      <c r="K173" s="149"/>
     </row>
     <row r="174" spans="1:11">
       <c r="A174"/>
-      <c r="B174" s="77">
+      <c r="B174" s="139">
         <f>J161+3</f>
         <v>46062</v>
       </c>
-      <c r="C174" s="78"/>
-      <c r="D174" s="79">
+      <c r="C174" s="140"/>
+      <c r="D174" s="141">
         <f>B174+1</f>
         <v>46063</v>
       </c>
-      <c r="E174" s="78"/>
-      <c r="F174" s="80">
+      <c r="E174" s="140"/>
+      <c r="F174" s="142">
         <f>D174+1</f>
         <v>46064</v>
       </c>
-      <c r="G174" s="78"/>
-      <c r="H174" s="81">
+      <c r="G174" s="140"/>
+      <c r="H174" s="143">
         <f>F174+1</f>
         <v>46065</v>
       </c>
-      <c r="I174" s="78"/>
-      <c r="J174" s="82">
+      <c r="I174" s="140"/>
+      <c r="J174" s="144">
         <f>H174+1</f>
         <v>46066</v>
       </c>
-      <c r="K174" s="78"/>
+      <c r="K174" s="140"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175"/>
-      <c r="B175" s="63"/>
-      <c r="C175" s="64"/>
-      <c r="D175" s="65"/>
-      <c r="E175" s="64"/>
-      <c r="F175" s="66"/>
-      <c r="G175" s="64"/>
-      <c r="H175" s="67"/>
-      <c r="I175" s="64"/>
-      <c r="J175" s="68"/>
-      <c r="K175" s="64"/>
+      <c r="B175" s="82"/>
+      <c r="C175" s="157"/>
+      <c r="D175" s="80"/>
+      <c r="E175" s="157"/>
+      <c r="F175" s="78"/>
+      <c r="G175" s="157"/>
+      <c r="H175" s="76"/>
+      <c r="I175" s="157"/>
+      <c r="J175" s="74"/>
+      <c r="K175" s="157"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176"/>
@@ -4621,85 +4626,85 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183"/>
-      <c r="B183" s="69"/>
-      <c r="C183" s="70"/>
-      <c r="D183" s="70"/>
-      <c r="E183" s="70"/>
-      <c r="F183" s="70"/>
-      <c r="G183" s="70"/>
-      <c r="H183" s="70"/>
-      <c r="I183" s="70"/>
-      <c r="J183" s="70"/>
-      <c r="K183" s="64"/>
+      <c r="B183" s="155"/>
+      <c r="C183" s="156"/>
+      <c r="D183" s="156"/>
+      <c r="E183" s="156"/>
+      <c r="F183" s="156"/>
+      <c r="G183" s="156"/>
+      <c r="H183" s="156"/>
+      <c r="I183" s="156"/>
+      <c r="J183" s="156"/>
+      <c r="K183" s="157"/>
     </row>
     <row r="185" spans="1:11">
       <c r="A185"/>
-      <c r="B185" s="71" t="s">
+      <c r="B185" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C185" s="72"/>
-      <c r="D185" s="72"/>
-      <c r="E185" s="72"/>
-      <c r="F185" s="72"/>
-      <c r="G185" s="72"/>
-      <c r="H185" s="72"/>
-      <c r="I185" s="72"/>
-      <c r="J185" s="72"/>
-      <c r="K185" s="73"/>
+      <c r="C185" s="145"/>
+      <c r="D185" s="145"/>
+      <c r="E185" s="145"/>
+      <c r="F185" s="145"/>
+      <c r="G185" s="145"/>
+      <c r="H185" s="145"/>
+      <c r="I185" s="145"/>
+      <c r="J185" s="145"/>
+      <c r="K185" s="146"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186"/>
-      <c r="B186" s="74"/>
-      <c r="C186" s="75"/>
-      <c r="D186" s="75"/>
-      <c r="E186" s="75"/>
-      <c r="F186" s="75"/>
-      <c r="G186" s="75"/>
-      <c r="H186" s="75"/>
-      <c r="I186" s="75"/>
-      <c r="J186" s="75"/>
-      <c r="K186" s="76"/>
+      <c r="B186" s="147"/>
+      <c r="C186" s="148"/>
+      <c r="D186" s="148"/>
+      <c r="E186" s="148"/>
+      <c r="F186" s="148"/>
+      <c r="G186" s="148"/>
+      <c r="H186" s="148"/>
+      <c r="I186" s="148"/>
+      <c r="J186" s="148"/>
+      <c r="K186" s="149"/>
     </row>
     <row r="187" spans="1:11">
       <c r="A187"/>
-      <c r="B187" s="77">
+      <c r="B187" s="139">
         <f>J174+3</f>
         <v>46069</v>
       </c>
-      <c r="C187" s="78"/>
-      <c r="D187" s="79">
+      <c r="C187" s="140"/>
+      <c r="D187" s="141">
         <f>B187+1</f>
         <v>46070</v>
       </c>
-      <c r="E187" s="78"/>
-      <c r="F187" s="80">
+      <c r="E187" s="140"/>
+      <c r="F187" s="142">
         <f>D187+1</f>
         <v>46071</v>
       </c>
-      <c r="G187" s="78"/>
-      <c r="H187" s="81">
+      <c r="G187" s="140"/>
+      <c r="H187" s="143">
         <f>F187+1</f>
         <v>46072</v>
       </c>
-      <c r="I187" s="78"/>
-      <c r="J187" s="82">
+      <c r="I187" s="140"/>
+      <c r="J187" s="144">
         <f>H187+1</f>
         <v>46073</v>
       </c>
-      <c r="K187" s="78"/>
+      <c r="K187" s="140"/>
     </row>
     <row r="188" spans="1:11">
       <c r="A188"/>
-      <c r="B188" s="63"/>
-      <c r="C188" s="64"/>
-      <c r="D188" s="65"/>
-      <c r="E188" s="64"/>
-      <c r="F188" s="66"/>
-      <c r="G188" s="64"/>
-      <c r="H188" s="67"/>
-      <c r="I188" s="64"/>
-      <c r="J188" s="68"/>
-      <c r="K188" s="64"/>
+      <c r="B188" s="82"/>
+      <c r="C188" s="157"/>
+      <c r="D188" s="80"/>
+      <c r="E188" s="157"/>
+      <c r="F188" s="78"/>
+      <c r="G188" s="157"/>
+      <c r="H188" s="76"/>
+      <c r="I188" s="157"/>
+      <c r="J188" s="74"/>
+      <c r="K188" s="157"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189"/>
@@ -4804,85 +4809,85 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196"/>
-      <c r="B196" s="69"/>
-      <c r="C196" s="70"/>
-      <c r="D196" s="70"/>
-      <c r="E196" s="70"/>
-      <c r="F196" s="70"/>
-      <c r="G196" s="70"/>
-      <c r="H196" s="70"/>
-      <c r="I196" s="70"/>
-      <c r="J196" s="70"/>
-      <c r="K196" s="64"/>
+      <c r="B196" s="155"/>
+      <c r="C196" s="156"/>
+      <c r="D196" s="156"/>
+      <c r="E196" s="156"/>
+      <c r="F196" s="156"/>
+      <c r="G196" s="156"/>
+      <c r="H196" s="156"/>
+      <c r="I196" s="156"/>
+      <c r="J196" s="156"/>
+      <c r="K196" s="157"/>
     </row>
     <row r="198" spans="1:11">
       <c r="A198"/>
-      <c r="B198" s="71" t="s">
+      <c r="B198" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C198" s="72"/>
-      <c r="D198" s="72"/>
-      <c r="E198" s="72"/>
-      <c r="F198" s="72"/>
-      <c r="G198" s="72"/>
-      <c r="H198" s="72"/>
-      <c r="I198" s="72"/>
-      <c r="J198" s="72"/>
-      <c r="K198" s="73"/>
+      <c r="C198" s="145"/>
+      <c r="D198" s="145"/>
+      <c r="E198" s="145"/>
+      <c r="F198" s="145"/>
+      <c r="G198" s="145"/>
+      <c r="H198" s="145"/>
+      <c r="I198" s="145"/>
+      <c r="J198" s="145"/>
+      <c r="K198" s="146"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199"/>
-      <c r="B199" s="74"/>
-      <c r="C199" s="75"/>
-      <c r="D199" s="75"/>
-      <c r="E199" s="75"/>
-      <c r="F199" s="75"/>
-      <c r="G199" s="75"/>
-      <c r="H199" s="75"/>
-      <c r="I199" s="75"/>
-      <c r="J199" s="75"/>
-      <c r="K199" s="76"/>
+      <c r="B199" s="147"/>
+      <c r="C199" s="148"/>
+      <c r="D199" s="148"/>
+      <c r="E199" s="148"/>
+      <c r="F199" s="148"/>
+      <c r="G199" s="148"/>
+      <c r="H199" s="148"/>
+      <c r="I199" s="148"/>
+      <c r="J199" s="148"/>
+      <c r="K199" s="149"/>
     </row>
     <row r="200" spans="1:11">
       <c r="A200"/>
-      <c r="B200" s="77">
+      <c r="B200" s="139">
         <f>J187+3</f>
         <v>46076</v>
       </c>
-      <c r="C200" s="78"/>
-      <c r="D200" s="79">
+      <c r="C200" s="140"/>
+      <c r="D200" s="141">
         <f>B200+1</f>
         <v>46077</v>
       </c>
-      <c r="E200" s="78"/>
-      <c r="F200" s="80">
+      <c r="E200" s="140"/>
+      <c r="F200" s="142">
         <f>D200+1</f>
         <v>46078</v>
       </c>
-      <c r="G200" s="78"/>
-      <c r="H200" s="81">
+      <c r="G200" s="140"/>
+      <c r="H200" s="143">
         <f>F200+1</f>
         <v>46079</v>
       </c>
-      <c r="I200" s="78"/>
-      <c r="J200" s="82">
+      <c r="I200" s="140"/>
+      <c r="J200" s="144">
         <f>H200+1</f>
         <v>46080</v>
       </c>
-      <c r="K200" s="78"/>
+      <c r="K200" s="140"/>
     </row>
     <row r="201" spans="1:11">
       <c r="A201"/>
-      <c r="B201" s="63"/>
-      <c r="C201" s="64"/>
-      <c r="D201" s="65"/>
-      <c r="E201" s="64"/>
-      <c r="F201" s="66"/>
-      <c r="G201" s="64"/>
-      <c r="H201" s="67"/>
-      <c r="I201" s="64"/>
-      <c r="J201" s="68"/>
-      <c r="K201" s="64"/>
+      <c r="B201" s="82"/>
+      <c r="C201" s="157"/>
+      <c r="D201" s="80"/>
+      <c r="E201" s="157"/>
+      <c r="F201" s="78"/>
+      <c r="G201" s="157"/>
+      <c r="H201" s="76"/>
+      <c r="I201" s="157"/>
+      <c r="J201" s="74"/>
+      <c r="K201" s="157"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202"/>
@@ -4987,85 +4992,85 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209"/>
-      <c r="B209" s="69"/>
-      <c r="C209" s="70"/>
-      <c r="D209" s="70"/>
-      <c r="E209" s="70"/>
-      <c r="F209" s="70"/>
-      <c r="G209" s="70"/>
-      <c r="H209" s="70"/>
-      <c r="I209" s="70"/>
-      <c r="J209" s="70"/>
-      <c r="K209" s="64"/>
+      <c r="B209" s="155"/>
+      <c r="C209" s="156"/>
+      <c r="D209" s="156"/>
+      <c r="E209" s="156"/>
+      <c r="F209" s="156"/>
+      <c r="G209" s="156"/>
+      <c r="H209" s="156"/>
+      <c r="I209" s="156"/>
+      <c r="J209" s="156"/>
+      <c r="K209" s="157"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211"/>
-      <c r="B211" s="71" t="s">
+      <c r="B211" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C211" s="72"/>
-      <c r="D211" s="72"/>
-      <c r="E211" s="72"/>
-      <c r="F211" s="72"/>
-      <c r="G211" s="72"/>
-      <c r="H211" s="72"/>
-      <c r="I211" s="72"/>
-      <c r="J211" s="72"/>
-      <c r="K211" s="73"/>
+      <c r="C211" s="145"/>
+      <c r="D211" s="145"/>
+      <c r="E211" s="145"/>
+      <c r="F211" s="145"/>
+      <c r="G211" s="145"/>
+      <c r="H211" s="145"/>
+      <c r="I211" s="145"/>
+      <c r="J211" s="145"/>
+      <c r="K211" s="146"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212"/>
-      <c r="B212" s="74"/>
-      <c r="C212" s="75"/>
-      <c r="D212" s="75"/>
-      <c r="E212" s="75"/>
-      <c r="F212" s="75"/>
-      <c r="G212" s="75"/>
-      <c r="H212" s="75"/>
-      <c r="I212" s="75"/>
-      <c r="J212" s="75"/>
-      <c r="K212" s="76"/>
+      <c r="B212" s="147"/>
+      <c r="C212" s="148"/>
+      <c r="D212" s="148"/>
+      <c r="E212" s="148"/>
+      <c r="F212" s="148"/>
+      <c r="G212" s="148"/>
+      <c r="H212" s="148"/>
+      <c r="I212" s="148"/>
+      <c r="J212" s="148"/>
+      <c r="K212" s="149"/>
     </row>
     <row r="213" spans="1:11">
       <c r="A213"/>
-      <c r="B213" s="77">
+      <c r="B213" s="139">
         <f>J200+3</f>
         <v>46083</v>
       </c>
-      <c r="C213" s="78"/>
-      <c r="D213" s="79">
+      <c r="C213" s="140"/>
+      <c r="D213" s="141">
         <f>B213+1</f>
         <v>46084</v>
       </c>
-      <c r="E213" s="78"/>
-      <c r="F213" s="80">
+      <c r="E213" s="140"/>
+      <c r="F213" s="142">
         <f>D213+1</f>
         <v>46085</v>
       </c>
-      <c r="G213" s="78"/>
-      <c r="H213" s="81">
+      <c r="G213" s="140"/>
+      <c r="H213" s="143">
         <f>F213+1</f>
         <v>46086</v>
       </c>
-      <c r="I213" s="78"/>
-      <c r="J213" s="82">
+      <c r="I213" s="140"/>
+      <c r="J213" s="144">
         <f>H213+1</f>
         <v>46087</v>
       </c>
-      <c r="K213" s="78"/>
+      <c r="K213" s="140"/>
     </row>
     <row r="214" spans="1:11">
       <c r="A214"/>
-      <c r="B214" s="63"/>
-      <c r="C214" s="64"/>
-      <c r="D214" s="65"/>
-      <c r="E214" s="64"/>
-      <c r="F214" s="66"/>
-      <c r="G214" s="64"/>
-      <c r="H214" s="67"/>
-      <c r="I214" s="64"/>
-      <c r="J214" s="68"/>
-      <c r="K214" s="64"/>
+      <c r="B214" s="82"/>
+      <c r="C214" s="157"/>
+      <c r="D214" s="80"/>
+      <c r="E214" s="157"/>
+      <c r="F214" s="78"/>
+      <c r="G214" s="157"/>
+      <c r="H214" s="76"/>
+      <c r="I214" s="157"/>
+      <c r="J214" s="74"/>
+      <c r="K214" s="157"/>
     </row>
     <row r="215" spans="1:11">
       <c r="A215"/>
@@ -5170,85 +5175,85 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222"/>
-      <c r="B222" s="69"/>
-      <c r="C222" s="70"/>
-      <c r="D222" s="70"/>
-      <c r="E222" s="70"/>
-      <c r="F222" s="70"/>
-      <c r="G222" s="70"/>
-      <c r="H222" s="70"/>
-      <c r="I222" s="70"/>
-      <c r="J222" s="70"/>
-      <c r="K222" s="64"/>
+      <c r="B222" s="155"/>
+      <c r="C222" s="156"/>
+      <c r="D222" s="156"/>
+      <c r="E222" s="156"/>
+      <c r="F222" s="156"/>
+      <c r="G222" s="156"/>
+      <c r="H222" s="156"/>
+      <c r="I222" s="156"/>
+      <c r="J222" s="156"/>
+      <c r="K222" s="157"/>
     </row>
     <row r="224" spans="1:11">
       <c r="A224"/>
-      <c r="B224" s="71" t="s">
+      <c r="B224" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C224" s="72"/>
-      <c r="D224" s="72"/>
-      <c r="E224" s="72"/>
-      <c r="F224" s="72"/>
-      <c r="G224" s="72"/>
-      <c r="H224" s="72"/>
-      <c r="I224" s="72"/>
-      <c r="J224" s="72"/>
-      <c r="K224" s="73"/>
+      <c r="C224" s="145"/>
+      <c r="D224" s="145"/>
+      <c r="E224" s="145"/>
+      <c r="F224" s="145"/>
+      <c r="G224" s="145"/>
+      <c r="H224" s="145"/>
+      <c r="I224" s="145"/>
+      <c r="J224" s="145"/>
+      <c r="K224" s="146"/>
     </row>
     <row r="225" spans="1:11">
       <c r="A225"/>
-      <c r="B225" s="74"/>
-      <c r="C225" s="75"/>
-      <c r="D225" s="75"/>
-      <c r="E225" s="75"/>
-      <c r="F225" s="75"/>
-      <c r="G225" s="75"/>
-      <c r="H225" s="75"/>
-      <c r="I225" s="75"/>
-      <c r="J225" s="75"/>
-      <c r="K225" s="76"/>
+      <c r="B225" s="147"/>
+      <c r="C225" s="148"/>
+      <c r="D225" s="148"/>
+      <c r="E225" s="148"/>
+      <c r="F225" s="148"/>
+      <c r="G225" s="148"/>
+      <c r="H225" s="148"/>
+      <c r="I225" s="148"/>
+      <c r="J225" s="148"/>
+      <c r="K225" s="149"/>
     </row>
     <row r="226" spans="1:11">
       <c r="A226"/>
-      <c r="B226" s="77">
+      <c r="B226" s="139">
         <f>J213+3</f>
         <v>46090</v>
       </c>
-      <c r="C226" s="78"/>
-      <c r="D226" s="79">
+      <c r="C226" s="140"/>
+      <c r="D226" s="141">
         <f>B226+1</f>
         <v>46091</v>
       </c>
-      <c r="E226" s="78"/>
-      <c r="F226" s="80">
+      <c r="E226" s="140"/>
+      <c r="F226" s="142">
         <f>D226+1</f>
         <v>46092</v>
       </c>
-      <c r="G226" s="78"/>
-      <c r="H226" s="81">
+      <c r="G226" s="140"/>
+      <c r="H226" s="143">
         <f>F226+1</f>
         <v>46093</v>
       </c>
-      <c r="I226" s="78"/>
-      <c r="J226" s="82">
+      <c r="I226" s="140"/>
+      <c r="J226" s="144">
         <f>H226+1</f>
         <v>46094</v>
       </c>
-      <c r="K226" s="78"/>
+      <c r="K226" s="140"/>
     </row>
     <row r="227" spans="1:11">
       <c r="A227"/>
-      <c r="B227" s="63"/>
-      <c r="C227" s="64"/>
-      <c r="D227" s="65"/>
-      <c r="E227" s="64"/>
-      <c r="F227" s="66"/>
-      <c r="G227" s="64"/>
-      <c r="H227" s="67"/>
-      <c r="I227" s="64"/>
-      <c r="J227" s="68"/>
-      <c r="K227" s="64"/>
+      <c r="B227" s="82"/>
+      <c r="C227" s="157"/>
+      <c r="D227" s="80"/>
+      <c r="E227" s="157"/>
+      <c r="F227" s="78"/>
+      <c r="G227" s="157"/>
+      <c r="H227" s="76"/>
+      <c r="I227" s="157"/>
+      <c r="J227" s="74"/>
+      <c r="K227" s="157"/>
     </row>
     <row r="228" spans="1:11">
       <c r="A228"/>
@@ -5353,85 +5358,85 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235"/>
-      <c r="B235" s="69"/>
-      <c r="C235" s="70"/>
-      <c r="D235" s="70"/>
-      <c r="E235" s="70"/>
-      <c r="F235" s="70"/>
-      <c r="G235" s="70"/>
-      <c r="H235" s="70"/>
-      <c r="I235" s="70"/>
-      <c r="J235" s="70"/>
-      <c r="K235" s="64"/>
+      <c r="B235" s="155"/>
+      <c r="C235" s="156"/>
+      <c r="D235" s="156"/>
+      <c r="E235" s="156"/>
+      <c r="F235" s="156"/>
+      <c r="G235" s="156"/>
+      <c r="H235" s="156"/>
+      <c r="I235" s="156"/>
+      <c r="J235" s="156"/>
+      <c r="K235" s="157"/>
     </row>
     <row r="237" spans="1:11">
       <c r="A237"/>
-      <c r="B237" s="71" t="s">
+      <c r="B237" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C237" s="72"/>
-      <c r="D237" s="72"/>
-      <c r="E237" s="72"/>
-      <c r="F237" s="72"/>
-      <c r="G237" s="72"/>
-      <c r="H237" s="72"/>
-      <c r="I237" s="72"/>
-      <c r="J237" s="72"/>
-      <c r="K237" s="73"/>
+      <c r="C237" s="145"/>
+      <c r="D237" s="145"/>
+      <c r="E237" s="145"/>
+      <c r="F237" s="145"/>
+      <c r="G237" s="145"/>
+      <c r="H237" s="145"/>
+      <c r="I237" s="145"/>
+      <c r="J237" s="145"/>
+      <c r="K237" s="146"/>
     </row>
     <row r="238" spans="1:11">
       <c r="A238"/>
-      <c r="B238" s="74"/>
-      <c r="C238" s="75"/>
-      <c r="D238" s="75"/>
-      <c r="E238" s="75"/>
-      <c r="F238" s="75"/>
-      <c r="G238" s="75"/>
-      <c r="H238" s="75"/>
-      <c r="I238" s="75"/>
-      <c r="J238" s="75"/>
-      <c r="K238" s="76"/>
+      <c r="B238" s="147"/>
+      <c r="C238" s="148"/>
+      <c r="D238" s="148"/>
+      <c r="E238" s="148"/>
+      <c r="F238" s="148"/>
+      <c r="G238" s="148"/>
+      <c r="H238" s="148"/>
+      <c r="I238" s="148"/>
+      <c r="J238" s="148"/>
+      <c r="K238" s="149"/>
     </row>
     <row r="239" spans="1:11">
       <c r="A239"/>
-      <c r="B239" s="77">
+      <c r="B239" s="139">
         <f>J226+3</f>
         <v>46097</v>
       </c>
-      <c r="C239" s="78"/>
-      <c r="D239" s="79">
+      <c r="C239" s="140"/>
+      <c r="D239" s="141">
         <f>B239+1</f>
         <v>46098</v>
       </c>
-      <c r="E239" s="78"/>
-      <c r="F239" s="80">
+      <c r="E239" s="140"/>
+      <c r="F239" s="142">
         <f>D239+1</f>
         <v>46099</v>
       </c>
-      <c r="G239" s="78"/>
-      <c r="H239" s="81">
+      <c r="G239" s="140"/>
+      <c r="H239" s="143">
         <f>F239+1</f>
         <v>46100</v>
       </c>
-      <c r="I239" s="78"/>
-      <c r="J239" s="82">
+      <c r="I239" s="140"/>
+      <c r="J239" s="144">
         <f>H239+1</f>
         <v>46101</v>
       </c>
-      <c r="K239" s="78"/>
+      <c r="K239" s="140"/>
     </row>
     <row r="240" spans="1:11">
       <c r="A240"/>
-      <c r="B240" s="63"/>
-      <c r="C240" s="64"/>
-      <c r="D240" s="65"/>
-      <c r="E240" s="64"/>
-      <c r="F240" s="66"/>
-      <c r="G240" s="64"/>
-      <c r="H240" s="67"/>
-      <c r="I240" s="64"/>
-      <c r="J240" s="68"/>
-      <c r="K240" s="64"/>
+      <c r="B240" s="82"/>
+      <c r="C240" s="157"/>
+      <c r="D240" s="80"/>
+      <c r="E240" s="157"/>
+      <c r="F240" s="78"/>
+      <c r="G240" s="157"/>
+      <c r="H240" s="76"/>
+      <c r="I240" s="157"/>
+      <c r="J240" s="74"/>
+      <c r="K240" s="157"/>
     </row>
     <row r="241" spans="1:11">
       <c r="A241"/>
@@ -5536,85 +5541,85 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248"/>
-      <c r="B248" s="69"/>
-      <c r="C248" s="70"/>
-      <c r="D248" s="70"/>
-      <c r="E248" s="70"/>
-      <c r="F248" s="70"/>
-      <c r="G248" s="70"/>
-      <c r="H248" s="70"/>
-      <c r="I248" s="70"/>
-      <c r="J248" s="70"/>
-      <c r="K248" s="64"/>
+      <c r="B248" s="155"/>
+      <c r="C248" s="156"/>
+      <c r="D248" s="156"/>
+      <c r="E248" s="156"/>
+      <c r="F248" s="156"/>
+      <c r="G248" s="156"/>
+      <c r="H248" s="156"/>
+      <c r="I248" s="156"/>
+      <c r="J248" s="156"/>
+      <c r="K248" s="157"/>
     </row>
     <row r="250" spans="1:11">
       <c r="A250"/>
-      <c r="B250" s="71" t="s">
+      <c r="B250" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C250" s="72"/>
-      <c r="D250" s="72"/>
-      <c r="E250" s="72"/>
-      <c r="F250" s="72"/>
-      <c r="G250" s="72"/>
-      <c r="H250" s="72"/>
-      <c r="I250" s="72"/>
-      <c r="J250" s="72"/>
-      <c r="K250" s="73"/>
+      <c r="C250" s="145"/>
+      <c r="D250" s="145"/>
+      <c r="E250" s="145"/>
+      <c r="F250" s="145"/>
+      <c r="G250" s="145"/>
+      <c r="H250" s="145"/>
+      <c r="I250" s="145"/>
+      <c r="J250" s="145"/>
+      <c r="K250" s="146"/>
     </row>
     <row r="251" spans="1:11">
       <c r="A251"/>
-      <c r="B251" s="74"/>
-      <c r="C251" s="75"/>
-      <c r="D251" s="75"/>
-      <c r="E251" s="75"/>
-      <c r="F251" s="75"/>
-      <c r="G251" s="75"/>
-      <c r="H251" s="75"/>
-      <c r="I251" s="75"/>
-      <c r="J251" s="75"/>
-      <c r="K251" s="76"/>
+      <c r="B251" s="147"/>
+      <c r="C251" s="148"/>
+      <c r="D251" s="148"/>
+      <c r="E251" s="148"/>
+      <c r="F251" s="148"/>
+      <c r="G251" s="148"/>
+      <c r="H251" s="148"/>
+      <c r="I251" s="148"/>
+      <c r="J251" s="148"/>
+      <c r="K251" s="149"/>
     </row>
     <row r="252" spans="1:11">
       <c r="A252"/>
-      <c r="B252" s="77">
+      <c r="B252" s="139">
         <f>J239+3</f>
         <v>46104</v>
       </c>
-      <c r="C252" s="78"/>
-      <c r="D252" s="79">
+      <c r="C252" s="140"/>
+      <c r="D252" s="141">
         <f>B252+1</f>
         <v>46105</v>
       </c>
-      <c r="E252" s="78"/>
-      <c r="F252" s="80">
+      <c r="E252" s="140"/>
+      <c r="F252" s="142">
         <f>D252+1</f>
         <v>46106</v>
       </c>
-      <c r="G252" s="78"/>
-      <c r="H252" s="81">
+      <c r="G252" s="140"/>
+      <c r="H252" s="143">
         <f>F252+1</f>
         <v>46107</v>
       </c>
-      <c r="I252" s="78"/>
-      <c r="J252" s="82">
+      <c r="I252" s="140"/>
+      <c r="J252" s="144">
         <f>H252+1</f>
         <v>46108</v>
       </c>
-      <c r="K252" s="78"/>
+      <c r="K252" s="140"/>
     </row>
     <row r="253" spans="1:11">
       <c r="A253"/>
-      <c r="B253" s="63"/>
-      <c r="C253" s="64"/>
-      <c r="D253" s="65"/>
-      <c r="E253" s="64"/>
-      <c r="F253" s="66"/>
-      <c r="G253" s="64"/>
-      <c r="H253" s="67"/>
-      <c r="I253" s="64"/>
-      <c r="J253" s="68"/>
-      <c r="K253" s="64"/>
+      <c r="B253" s="82"/>
+      <c r="C253" s="157"/>
+      <c r="D253" s="80"/>
+      <c r="E253" s="157"/>
+      <c r="F253" s="78"/>
+      <c r="G253" s="157"/>
+      <c r="H253" s="76"/>
+      <c r="I253" s="157"/>
+      <c r="J253" s="74"/>
+      <c r="K253" s="157"/>
     </row>
     <row r="254" spans="1:11">
       <c r="A254"/>
@@ -5723,85 +5728,85 @@
     </row>
     <row r="261" spans="1:11">
       <c r="A261"/>
-      <c r="B261" s="69"/>
-      <c r="C261" s="70"/>
-      <c r="D261" s="70"/>
-      <c r="E261" s="70"/>
-      <c r="F261" s="70"/>
-      <c r="G261" s="70"/>
-      <c r="H261" s="70"/>
-      <c r="I261" s="70"/>
-      <c r="J261" s="70"/>
-      <c r="K261" s="64"/>
+      <c r="B261" s="155"/>
+      <c r="C261" s="156"/>
+      <c r="D261" s="156"/>
+      <c r="E261" s="156"/>
+      <c r="F261" s="156"/>
+      <c r="G261" s="156"/>
+      <c r="H261" s="156"/>
+      <c r="I261" s="156"/>
+      <c r="J261" s="156"/>
+      <c r="K261" s="157"/>
     </row>
     <row r="263" spans="1:11">
       <c r="A263"/>
-      <c r="B263" s="71" t="s">
+      <c r="B263" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="C263" s="72"/>
-      <c r="D263" s="72"/>
-      <c r="E263" s="72"/>
-      <c r="F263" s="72"/>
-      <c r="G263" s="72"/>
-      <c r="H263" s="72"/>
-      <c r="I263" s="72"/>
-      <c r="J263" s="72"/>
-      <c r="K263" s="73"/>
+      <c r="C263" s="145"/>
+      <c r="D263" s="145"/>
+      <c r="E263" s="145"/>
+      <c r="F263" s="145"/>
+      <c r="G263" s="145"/>
+      <c r="H263" s="145"/>
+      <c r="I263" s="145"/>
+      <c r="J263" s="145"/>
+      <c r="K263" s="146"/>
     </row>
     <row r="264" spans="1:11">
       <c r="A264"/>
-      <c r="B264" s="74"/>
-      <c r="C264" s="75"/>
-      <c r="D264" s="75"/>
-      <c r="E264" s="75"/>
-      <c r="F264" s="75"/>
-      <c r="G264" s="75"/>
-      <c r="H264" s="75"/>
-      <c r="I264" s="75"/>
-      <c r="J264" s="75"/>
-      <c r="K264" s="76"/>
+      <c r="B264" s="147"/>
+      <c r="C264" s="148"/>
+      <c r="D264" s="148"/>
+      <c r="E264" s="148"/>
+      <c r="F264" s="148"/>
+      <c r="G264" s="148"/>
+      <c r="H264" s="148"/>
+      <c r="I264" s="148"/>
+      <c r="J264" s="148"/>
+      <c r="K264" s="149"/>
     </row>
     <row r="265" spans="1:11">
       <c r="A265"/>
-      <c r="B265" s="77">
+      <c r="B265" s="139">
         <f>J252+3</f>
         <v>46111</v>
       </c>
-      <c r="C265" s="78"/>
-      <c r="D265" s="79">
+      <c r="C265" s="140"/>
+      <c r="D265" s="141">
         <f>B265+1</f>
         <v>46112</v>
       </c>
-      <c r="E265" s="78"/>
-      <c r="F265" s="80">
+      <c r="E265" s="140"/>
+      <c r="F265" s="142">
         <f>D265+1</f>
         <v>46113</v>
       </c>
-      <c r="G265" s="78"/>
-      <c r="H265" s="81">
+      <c r="G265" s="140"/>
+      <c r="H265" s="143">
         <f>F265+1</f>
         <v>46114</v>
       </c>
-      <c r="I265" s="78"/>
-      <c r="J265" s="82">
+      <c r="I265" s="140"/>
+      <c r="J265" s="144">
         <f>H265+1</f>
         <v>46115</v>
       </c>
-      <c r="K265" s="78"/>
+      <c r="K265" s="140"/>
     </row>
     <row r="266" spans="1:11">
       <c r="A266"/>
-      <c r="B266" s="63"/>
-      <c r="C266" s="64"/>
-      <c r="D266" s="65"/>
-      <c r="E266" s="64"/>
-      <c r="F266" s="66"/>
-      <c r="G266" s="64"/>
-      <c r="H266" s="67"/>
-      <c r="I266" s="64"/>
-      <c r="J266" s="68"/>
-      <c r="K266" s="64"/>
+      <c r="B266" s="82"/>
+      <c r="C266" s="157"/>
+      <c r="D266" s="80"/>
+      <c r="E266" s="157"/>
+      <c r="F266" s="78"/>
+      <c r="G266" s="157"/>
+      <c r="H266" s="76"/>
+      <c r="I266" s="157"/>
+      <c r="J266" s="74"/>
+      <c r="K266" s="157"/>
     </row>
     <row r="267" spans="1:11">
       <c r="A267"/>
@@ -5908,85 +5913,85 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274"/>
-      <c r="B274" s="69"/>
-      <c r="C274" s="70"/>
-      <c r="D274" s="70"/>
-      <c r="E274" s="70"/>
-      <c r="F274" s="70"/>
-      <c r="G274" s="70"/>
-      <c r="H274" s="70"/>
-      <c r="I274" s="70"/>
-      <c r="J274" s="70"/>
-      <c r="K274" s="64"/>
+      <c r="B274" s="155"/>
+      <c r="C274" s="156"/>
+      <c r="D274" s="156"/>
+      <c r="E274" s="156"/>
+      <c r="F274" s="156"/>
+      <c r="G274" s="156"/>
+      <c r="H274" s="156"/>
+      <c r="I274" s="156"/>
+      <c r="J274" s="156"/>
+      <c r="K274" s="157"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276"/>
-      <c r="B276" s="71" t="s">
+      <c r="B276" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C276" s="72"/>
-      <c r="D276" s="72"/>
-      <c r="E276" s="72"/>
-      <c r="F276" s="72"/>
-      <c r="G276" s="72"/>
-      <c r="H276" s="72"/>
-      <c r="I276" s="72"/>
-      <c r="J276" s="72"/>
-      <c r="K276" s="73"/>
+      <c r="C276" s="145"/>
+      <c r="D276" s="145"/>
+      <c r="E276" s="145"/>
+      <c r="F276" s="145"/>
+      <c r="G276" s="145"/>
+      <c r="H276" s="145"/>
+      <c r="I276" s="145"/>
+      <c r="J276" s="145"/>
+      <c r="K276" s="146"/>
     </row>
     <row r="277" spans="1:11">
       <c r="A277"/>
-      <c r="B277" s="74"/>
-      <c r="C277" s="75"/>
-      <c r="D277" s="75"/>
-      <c r="E277" s="75"/>
-      <c r="F277" s="75"/>
-      <c r="G277" s="75"/>
-      <c r="H277" s="75"/>
-      <c r="I277" s="75"/>
-      <c r="J277" s="75"/>
-      <c r="K277" s="76"/>
+      <c r="B277" s="147"/>
+      <c r="C277" s="148"/>
+      <c r="D277" s="148"/>
+      <c r="E277" s="148"/>
+      <c r="F277" s="148"/>
+      <c r="G277" s="148"/>
+      <c r="H277" s="148"/>
+      <c r="I277" s="148"/>
+      <c r="J277" s="148"/>
+      <c r="K277" s="149"/>
     </row>
     <row r="278" spans="1:11">
       <c r="A278"/>
-      <c r="B278" s="77">
+      <c r="B278" s="139">
         <f>J265+3</f>
         <v>46118</v>
       </c>
-      <c r="C278" s="78"/>
-      <c r="D278" s="79">
+      <c r="C278" s="140"/>
+      <c r="D278" s="141">
         <f>B278+1</f>
         <v>46119</v>
       </c>
-      <c r="E278" s="78"/>
-      <c r="F278" s="80">
+      <c r="E278" s="140"/>
+      <c r="F278" s="142">
         <f>D278+1</f>
         <v>46120</v>
       </c>
-      <c r="G278" s="78"/>
-      <c r="H278" s="81">
+      <c r="G278" s="140"/>
+      <c r="H278" s="143">
         <f>F278+1</f>
         <v>46121</v>
       </c>
-      <c r="I278" s="78"/>
-      <c r="J278" s="82">
+      <c r="I278" s="140"/>
+      <c r="J278" s="144">
         <f>H278+1</f>
         <v>46122</v>
       </c>
-      <c r="K278" s="78"/>
+      <c r="K278" s="140"/>
     </row>
     <row r="279" spans="1:11">
       <c r="A279"/>
-      <c r="B279" s="63"/>
-      <c r="C279" s="64"/>
-      <c r="D279" s="65"/>
-      <c r="E279" s="64"/>
-      <c r="F279" s="66"/>
-      <c r="G279" s="64"/>
-      <c r="H279" s="67"/>
-      <c r="I279" s="64"/>
-      <c r="J279" s="68"/>
-      <c r="K279" s="64"/>
+      <c r="B279" s="82"/>
+      <c r="C279" s="157"/>
+      <c r="D279" s="80"/>
+      <c r="E279" s="157"/>
+      <c r="F279" s="78"/>
+      <c r="G279" s="157"/>
+      <c r="H279" s="76"/>
+      <c r="I279" s="157"/>
+      <c r="J279" s="74"/>
+      <c r="K279" s="157"/>
     </row>
     <row r="280" spans="1:11">
       <c r="A280"/>
@@ -6091,85 +6096,85 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287"/>
-      <c r="B287" s="69"/>
-      <c r="C287" s="70"/>
-      <c r="D287" s="70"/>
-      <c r="E287" s="70"/>
-      <c r="F287" s="70"/>
-      <c r="G287" s="70"/>
-      <c r="H287" s="70"/>
-      <c r="I287" s="70"/>
-      <c r="J287" s="70"/>
-      <c r="K287" s="64"/>
+      <c r="B287" s="155"/>
+      <c r="C287" s="156"/>
+      <c r="D287" s="156"/>
+      <c r="E287" s="156"/>
+      <c r="F287" s="156"/>
+      <c r="G287" s="156"/>
+      <c r="H287" s="156"/>
+      <c r="I287" s="156"/>
+      <c r="J287" s="156"/>
+      <c r="K287" s="157"/>
     </row>
     <row r="289" spans="1:11">
       <c r="A289"/>
-      <c r="B289" s="71" t="s">
+      <c r="B289" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C289" s="72"/>
-      <c r="D289" s="72"/>
-      <c r="E289" s="72"/>
-      <c r="F289" s="72"/>
-      <c r="G289" s="72"/>
-      <c r="H289" s="72"/>
-      <c r="I289" s="72"/>
-      <c r="J289" s="72"/>
-      <c r="K289" s="73"/>
+      <c r="C289" s="145"/>
+      <c r="D289" s="145"/>
+      <c r="E289" s="145"/>
+      <c r="F289" s="145"/>
+      <c r="G289" s="145"/>
+      <c r="H289" s="145"/>
+      <c r="I289" s="145"/>
+      <c r="J289" s="145"/>
+      <c r="K289" s="146"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290"/>
-      <c r="B290" s="74"/>
-      <c r="C290" s="75"/>
-      <c r="D290" s="75"/>
-      <c r="E290" s="75"/>
-      <c r="F290" s="75"/>
-      <c r="G290" s="75"/>
-      <c r="H290" s="75"/>
-      <c r="I290" s="75"/>
-      <c r="J290" s="75"/>
-      <c r="K290" s="76"/>
+      <c r="B290" s="147"/>
+      <c r="C290" s="148"/>
+      <c r="D290" s="148"/>
+      <c r="E290" s="148"/>
+      <c r="F290" s="148"/>
+      <c r="G290" s="148"/>
+      <c r="H290" s="148"/>
+      <c r="I290" s="148"/>
+      <c r="J290" s="148"/>
+      <c r="K290" s="149"/>
     </row>
     <row r="291" spans="1:11">
       <c r="A291"/>
-      <c r="B291" s="77">
+      <c r="B291" s="139">
         <f>J278+3</f>
         <v>46125</v>
       </c>
-      <c r="C291" s="78"/>
-      <c r="D291" s="79">
+      <c r="C291" s="140"/>
+      <c r="D291" s="141">
         <f>B291+1</f>
         <v>46126</v>
       </c>
-      <c r="E291" s="78"/>
-      <c r="F291" s="80">
+      <c r="E291" s="140"/>
+      <c r="F291" s="142">
         <f>D291+1</f>
         <v>46127</v>
       </c>
-      <c r="G291" s="78"/>
-      <c r="H291" s="81">
+      <c r="G291" s="140"/>
+      <c r="H291" s="143">
         <f>F291+1</f>
         <v>46128</v>
       </c>
-      <c r="I291" s="78"/>
-      <c r="J291" s="82">
+      <c r="I291" s="140"/>
+      <c r="J291" s="144">
         <f>H291+1</f>
         <v>46129</v>
       </c>
-      <c r="K291" s="78"/>
+      <c r="K291" s="140"/>
     </row>
     <row r="292" spans="1:11">
       <c r="A292"/>
-      <c r="B292" s="63"/>
-      <c r="C292" s="64"/>
-      <c r="D292" s="65"/>
-      <c r="E292" s="64"/>
-      <c r="F292" s="66"/>
-      <c r="G292" s="64"/>
-      <c r="H292" s="67"/>
-      <c r="I292" s="64"/>
-      <c r="J292" s="68"/>
-      <c r="K292" s="64"/>
+      <c r="B292" s="82"/>
+      <c r="C292" s="157"/>
+      <c r="D292" s="80"/>
+      <c r="E292" s="157"/>
+      <c r="F292" s="78"/>
+      <c r="G292" s="157"/>
+      <c r="H292" s="76"/>
+      <c r="I292" s="157"/>
+      <c r="J292" s="74"/>
+      <c r="K292" s="157"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293"/>
@@ -6274,85 +6279,85 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300"/>
-      <c r="B300" s="69"/>
-      <c r="C300" s="70"/>
-      <c r="D300" s="70"/>
-      <c r="E300" s="70"/>
-      <c r="F300" s="70"/>
-      <c r="G300" s="70"/>
-      <c r="H300" s="70"/>
-      <c r="I300" s="70"/>
-      <c r="J300" s="70"/>
-      <c r="K300" s="64"/>
+      <c r="B300" s="155"/>
+      <c r="C300" s="156"/>
+      <c r="D300" s="156"/>
+      <c r="E300" s="156"/>
+      <c r="F300" s="156"/>
+      <c r="G300" s="156"/>
+      <c r="H300" s="156"/>
+      <c r="I300" s="156"/>
+      <c r="J300" s="156"/>
+      <c r="K300" s="157"/>
     </row>
     <row r="302" spans="1:11">
       <c r="A302"/>
-      <c r="B302" s="71" t="s">
+      <c r="B302" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C302" s="72"/>
-      <c r="D302" s="72"/>
-      <c r="E302" s="72"/>
-      <c r="F302" s="72"/>
-      <c r="G302" s="72"/>
-      <c r="H302" s="72"/>
-      <c r="I302" s="72"/>
-      <c r="J302" s="72"/>
-      <c r="K302" s="73"/>
+      <c r="C302" s="145"/>
+      <c r="D302" s="145"/>
+      <c r="E302" s="145"/>
+      <c r="F302" s="145"/>
+      <c r="G302" s="145"/>
+      <c r="H302" s="145"/>
+      <c r="I302" s="145"/>
+      <c r="J302" s="145"/>
+      <c r="K302" s="146"/>
     </row>
     <row r="303" spans="1:11">
       <c r="A303"/>
-      <c r="B303" s="74"/>
-      <c r="C303" s="75"/>
-      <c r="D303" s="75"/>
-      <c r="E303" s="75"/>
-      <c r="F303" s="75"/>
-      <c r="G303" s="75"/>
-      <c r="H303" s="75"/>
-      <c r="I303" s="75"/>
-      <c r="J303" s="75"/>
-      <c r="K303" s="76"/>
+      <c r="B303" s="147"/>
+      <c r="C303" s="148"/>
+      <c r="D303" s="148"/>
+      <c r="E303" s="148"/>
+      <c r="F303" s="148"/>
+      <c r="G303" s="148"/>
+      <c r="H303" s="148"/>
+      <c r="I303" s="148"/>
+      <c r="J303" s="148"/>
+      <c r="K303" s="149"/>
     </row>
     <row r="304" spans="1:11">
       <c r="A304"/>
-      <c r="B304" s="77">
+      <c r="B304" s="139">
         <f>J291+3</f>
         <v>46132</v>
       </c>
-      <c r="C304" s="78"/>
-      <c r="D304" s="79">
+      <c r="C304" s="140"/>
+      <c r="D304" s="141">
         <f>B304+1</f>
         <v>46133</v>
       </c>
-      <c r="E304" s="78"/>
-      <c r="F304" s="80">
+      <c r="E304" s="140"/>
+      <c r="F304" s="142">
         <f>D304+1</f>
         <v>46134</v>
       </c>
-      <c r="G304" s="78"/>
-      <c r="H304" s="81">
+      <c r="G304" s="140"/>
+      <c r="H304" s="143">
         <f>F304+1</f>
         <v>46135</v>
       </c>
-      <c r="I304" s="78"/>
-      <c r="J304" s="82">
+      <c r="I304" s="140"/>
+      <c r="J304" s="144">
         <f>H304+1</f>
         <v>46136</v>
       </c>
-      <c r="K304" s="78"/>
+      <c r="K304" s="140"/>
     </row>
     <row r="305" spans="1:11">
       <c r="A305"/>
-      <c r="B305" s="63"/>
-      <c r="C305" s="64"/>
-      <c r="D305" s="65"/>
-      <c r="E305" s="64"/>
-      <c r="F305" s="66"/>
-      <c r="G305" s="64"/>
-      <c r="H305" s="67"/>
-      <c r="I305" s="64"/>
-      <c r="J305" s="68"/>
-      <c r="K305" s="64"/>
+      <c r="B305" s="82"/>
+      <c r="C305" s="157"/>
+      <c r="D305" s="80"/>
+      <c r="E305" s="157"/>
+      <c r="F305" s="78"/>
+      <c r="G305" s="157"/>
+      <c r="H305" s="76"/>
+      <c r="I305" s="157"/>
+      <c r="J305" s="74"/>
+      <c r="K305" s="157"/>
     </row>
     <row r="306" spans="1:11">
       <c r="A306"/>
@@ -6457,85 +6462,85 @@
     </row>
     <row r="313" spans="1:11">
       <c r="A313"/>
-      <c r="B313" s="69"/>
-      <c r="C313" s="70"/>
-      <c r="D313" s="70"/>
-      <c r="E313" s="70"/>
-      <c r="F313" s="70"/>
-      <c r="G313" s="70"/>
-      <c r="H313" s="70"/>
-      <c r="I313" s="70"/>
-      <c r="J313" s="70"/>
-      <c r="K313" s="64"/>
+      <c r="B313" s="155"/>
+      <c r="C313" s="156"/>
+      <c r="D313" s="156"/>
+      <c r="E313" s="156"/>
+      <c r="F313" s="156"/>
+      <c r="G313" s="156"/>
+      <c r="H313" s="156"/>
+      <c r="I313" s="156"/>
+      <c r="J313" s="156"/>
+      <c r="K313" s="157"/>
     </row>
     <row r="315" spans="1:11">
       <c r="A315"/>
-      <c r="B315" s="71" t="s">
+      <c r="B315" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C315" s="72"/>
-      <c r="D315" s="72"/>
-      <c r="E315" s="72"/>
-      <c r="F315" s="72"/>
-      <c r="G315" s="72"/>
-      <c r="H315" s="72"/>
-      <c r="I315" s="72"/>
-      <c r="J315" s="72"/>
-      <c r="K315" s="73"/>
+      <c r="C315" s="145"/>
+      <c r="D315" s="145"/>
+      <c r="E315" s="145"/>
+      <c r="F315" s="145"/>
+      <c r="G315" s="145"/>
+      <c r="H315" s="145"/>
+      <c r="I315" s="145"/>
+      <c r="J315" s="145"/>
+      <c r="K315" s="146"/>
     </row>
     <row r="316" spans="1:11">
       <c r="A316"/>
-      <c r="B316" s="74"/>
-      <c r="C316" s="75"/>
-      <c r="D316" s="75"/>
-      <c r="E316" s="75"/>
-      <c r="F316" s="75"/>
-      <c r="G316" s="75"/>
-      <c r="H316" s="75"/>
-      <c r="I316" s="75"/>
-      <c r="J316" s="75"/>
-      <c r="K316" s="76"/>
+      <c r="B316" s="147"/>
+      <c r="C316" s="148"/>
+      <c r="D316" s="148"/>
+      <c r="E316" s="148"/>
+      <c r="F316" s="148"/>
+      <c r="G316" s="148"/>
+      <c r="H316" s="148"/>
+      <c r="I316" s="148"/>
+      <c r="J316" s="148"/>
+      <c r="K316" s="149"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317"/>
-      <c r="B317" s="77">
+      <c r="B317" s="139">
         <f>J304+3</f>
         <v>46139</v>
       </c>
-      <c r="C317" s="78"/>
-      <c r="D317" s="79">
+      <c r="C317" s="140"/>
+      <c r="D317" s="141">
         <f>B317+1</f>
         <v>46140</v>
       </c>
-      <c r="E317" s="78"/>
-      <c r="F317" s="80">
+      <c r="E317" s="140"/>
+      <c r="F317" s="142">
         <f>D317+1</f>
         <v>46141</v>
       </c>
-      <c r="G317" s="78"/>
-      <c r="H317" s="81">
+      <c r="G317" s="140"/>
+      <c r="H317" s="143">
         <f>F317+1</f>
         <v>46142</v>
       </c>
-      <c r="I317" s="78"/>
-      <c r="J317" s="82">
+      <c r="I317" s="140"/>
+      <c r="J317" s="144">
         <f>H317+1</f>
         <v>46143</v>
       </c>
-      <c r="K317" s="78"/>
+      <c r="K317" s="140"/>
     </row>
     <row r="318" spans="1:11">
       <c r="A318"/>
-      <c r="B318" s="63"/>
-      <c r="C318" s="64"/>
-      <c r="D318" s="65"/>
-      <c r="E318" s="64"/>
-      <c r="F318" s="66"/>
-      <c r="G318" s="64"/>
-      <c r="H318" s="67"/>
-      <c r="I318" s="64"/>
-      <c r="J318" s="68"/>
-      <c r="K318" s="64"/>
+      <c r="B318" s="82"/>
+      <c r="C318" s="157"/>
+      <c r="D318" s="80"/>
+      <c r="E318" s="157"/>
+      <c r="F318" s="78"/>
+      <c r="G318" s="157"/>
+      <c r="H318" s="76"/>
+      <c r="I318" s="157"/>
+      <c r="J318" s="74"/>
+      <c r="K318" s="157"/>
     </row>
     <row r="319" spans="1:11">
       <c r="A319"/>
@@ -6640,85 +6645,85 @@
     </row>
     <row r="326" spans="1:11">
       <c r="A326"/>
-      <c r="B326" s="69"/>
-      <c r="C326" s="70"/>
-      <c r="D326" s="70"/>
-      <c r="E326" s="70"/>
-      <c r="F326" s="70"/>
-      <c r="G326" s="70"/>
-      <c r="H326" s="70"/>
-      <c r="I326" s="70"/>
-      <c r="J326" s="70"/>
-      <c r="K326" s="64"/>
+      <c r="B326" s="155"/>
+      <c r="C326" s="156"/>
+      <c r="D326" s="156"/>
+      <c r="E326" s="156"/>
+      <c r="F326" s="156"/>
+      <c r="G326" s="156"/>
+      <c r="H326" s="156"/>
+      <c r="I326" s="156"/>
+      <c r="J326" s="156"/>
+      <c r="K326" s="157"/>
     </row>
     <row r="328" spans="1:11">
       <c r="A328"/>
-      <c r="B328" s="71" t="s">
+      <c r="B328" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C328" s="72"/>
-      <c r="D328" s="72"/>
-      <c r="E328" s="72"/>
-      <c r="F328" s="72"/>
-      <c r="G328" s="72"/>
-      <c r="H328" s="72"/>
-      <c r="I328" s="72"/>
-      <c r="J328" s="72"/>
-      <c r="K328" s="73"/>
+      <c r="C328" s="145"/>
+      <c r="D328" s="145"/>
+      <c r="E328" s="145"/>
+      <c r="F328" s="145"/>
+      <c r="G328" s="145"/>
+      <c r="H328" s="145"/>
+      <c r="I328" s="145"/>
+      <c r="J328" s="145"/>
+      <c r="K328" s="146"/>
     </row>
     <row r="329" spans="1:11">
       <c r="A329"/>
-      <c r="B329" s="74"/>
-      <c r="C329" s="75"/>
-      <c r="D329" s="75"/>
-      <c r="E329" s="75"/>
-      <c r="F329" s="75"/>
-      <c r="G329" s="75"/>
-      <c r="H329" s="75"/>
-      <c r="I329" s="75"/>
-      <c r="J329" s="75"/>
-      <c r="K329" s="76"/>
+      <c r="B329" s="147"/>
+      <c r="C329" s="148"/>
+      <c r="D329" s="148"/>
+      <c r="E329" s="148"/>
+      <c r="F329" s="148"/>
+      <c r="G329" s="148"/>
+      <c r="H329" s="148"/>
+      <c r="I329" s="148"/>
+      <c r="J329" s="148"/>
+      <c r="K329" s="149"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330"/>
-      <c r="B330" s="77">
+      <c r="B330" s="139">
         <f>J317+3</f>
         <v>46146</v>
       </c>
-      <c r="C330" s="78"/>
-      <c r="D330" s="79">
+      <c r="C330" s="140"/>
+      <c r="D330" s="141">
         <f>B330+1</f>
         <v>46147</v>
       </c>
-      <c r="E330" s="78"/>
-      <c r="F330" s="80">
+      <c r="E330" s="140"/>
+      <c r="F330" s="142">
         <f>D330+1</f>
         <v>46148</v>
       </c>
-      <c r="G330" s="78"/>
-      <c r="H330" s="81">
+      <c r="G330" s="140"/>
+      <c r="H330" s="143">
         <f>F330+1</f>
         <v>46149</v>
       </c>
-      <c r="I330" s="78"/>
-      <c r="J330" s="82">
+      <c r="I330" s="140"/>
+      <c r="J330" s="144">
         <f>H330+1</f>
         <v>46150</v>
       </c>
-      <c r="K330" s="78"/>
+      <c r="K330" s="140"/>
     </row>
     <row r="331" spans="1:11">
       <c r="A331"/>
-      <c r="B331" s="63"/>
-      <c r="C331" s="64"/>
-      <c r="D331" s="65"/>
-      <c r="E331" s="64"/>
-      <c r="F331" s="66"/>
-      <c r="G331" s="64"/>
-      <c r="H331" s="67"/>
-      <c r="I331" s="64"/>
-      <c r="J331" s="68"/>
-      <c r="K331" s="64"/>
+      <c r="B331" s="82"/>
+      <c r="C331" s="157"/>
+      <c r="D331" s="80"/>
+      <c r="E331" s="157"/>
+      <c r="F331" s="78"/>
+      <c r="G331" s="157"/>
+      <c r="H331" s="76"/>
+      <c r="I331" s="157"/>
+      <c r="J331" s="74"/>
+      <c r="K331" s="157"/>
     </row>
     <row r="332" spans="1:11">
       <c r="A332"/>
@@ -6823,19 +6828,318 @@
     </row>
     <row r="339" spans="1:11">
       <c r="A339"/>
-      <c r="B339" s="69"/>
-      <c r="C339" s="70"/>
-      <c r="D339" s="70"/>
-      <c r="E339" s="70"/>
-      <c r="F339" s="70"/>
-      <c r="G339" s="70"/>
-      <c r="H339" s="70"/>
-      <c r="I339" s="70"/>
-      <c r="J339" s="70"/>
-      <c r="K339" s="64"/>
+      <c r="B339" s="155"/>
+      <c r="C339" s="156"/>
+      <c r="D339" s="156"/>
+      <c r="E339" s="156"/>
+      <c r="F339" s="156"/>
+      <c r="G339" s="156"/>
+      <c r="H339" s="156"/>
+      <c r="I339" s="156"/>
+      <c r="J339" s="156"/>
+      <c r="K339" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="323">
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="D331:E331"/>
+    <mergeCell ref="F331:G331"/>
+    <mergeCell ref="H331:I331"/>
+    <mergeCell ref="J331:K331"/>
+    <mergeCell ref="B339:K339"/>
+    <mergeCell ref="B328:K329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="D330:E330"/>
+    <mergeCell ref="F330:G330"/>
+    <mergeCell ref="H330:I330"/>
+    <mergeCell ref="J330:K330"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="D318:E318"/>
+    <mergeCell ref="F318:G318"/>
+    <mergeCell ref="H318:I318"/>
+    <mergeCell ref="J318:K318"/>
+    <mergeCell ref="B326:K326"/>
+    <mergeCell ref="B315:K316"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="D317:E317"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="H317:I317"/>
+    <mergeCell ref="J317:K317"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="H305:I305"/>
+    <mergeCell ref="J305:K305"/>
+    <mergeCell ref="B313:K313"/>
+    <mergeCell ref="B302:K303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="H304:I304"/>
+    <mergeCell ref="J304:K304"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="H292:I292"/>
+    <mergeCell ref="J292:K292"/>
+    <mergeCell ref="B300:K300"/>
+    <mergeCell ref="B289:K290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="H291:I291"/>
+    <mergeCell ref="J291:K291"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="H279:I279"/>
+    <mergeCell ref="J279:K279"/>
+    <mergeCell ref="B287:K287"/>
+    <mergeCell ref="B276:K277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="H278:I278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="H266:I266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="B274:K274"/>
+    <mergeCell ref="B263:K264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="H265:I265"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="H253:I253"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="B261:K261"/>
+    <mergeCell ref="B250:K251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="H252:I252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="B248:K248"/>
+    <mergeCell ref="B237:K238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="B235:K235"/>
+    <mergeCell ref="B224:K225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="B222:K222"/>
+    <mergeCell ref="B211:K212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="J201:K201"/>
+    <mergeCell ref="B209:K209"/>
+    <mergeCell ref="B198:K199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="B196:K196"/>
+    <mergeCell ref="B185:K186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="B183:K183"/>
+    <mergeCell ref="B172:K173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="B170:K170"/>
+    <mergeCell ref="B159:K160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B157:K157"/>
+    <mergeCell ref="B146:K147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="B144:K144"/>
+    <mergeCell ref="B133:K134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="B131:K131"/>
+    <mergeCell ref="B120:K121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="B118:K118"/>
+    <mergeCell ref="B104:K105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B102:K102"/>
+    <mergeCell ref="H95:I101"/>
+    <mergeCell ref="F95:G101"/>
+    <mergeCell ref="B91:K92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="B89:K89"/>
+    <mergeCell ref="H82:I88"/>
+    <mergeCell ref="F82:G88"/>
+    <mergeCell ref="B78:K79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B65:K66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B56:C62"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B52:K53"/>
+    <mergeCell ref="B1:C7"/>
+    <mergeCell ref="D1:I6"/>
+    <mergeCell ref="J1:K7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:K11"/>
     <mergeCell ref="B13:K14"/>
     <mergeCell ref="J82:K88"/>
     <mergeCell ref="J95:K101"/>
@@ -6860,305 +7164,6 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B1:C7"/>
-    <mergeCell ref="D1:I6"/>
-    <mergeCell ref="J1:K7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B52:K53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B63:K63"/>
-    <mergeCell ref="B65:K66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B56:C62"/>
-    <mergeCell ref="B78:K79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B91:K92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="B89:K89"/>
-    <mergeCell ref="H82:I88"/>
-    <mergeCell ref="F82:G88"/>
-    <mergeCell ref="B104:K105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B102:K102"/>
-    <mergeCell ref="H95:I101"/>
-    <mergeCell ref="F95:G101"/>
-    <mergeCell ref="B120:K121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="B118:K118"/>
-    <mergeCell ref="B133:K134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="B131:K131"/>
-    <mergeCell ref="B146:K147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="B144:K144"/>
-    <mergeCell ref="B159:K160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B157:K157"/>
-    <mergeCell ref="B172:K173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="B170:K170"/>
-    <mergeCell ref="B185:K186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="B183:K183"/>
-    <mergeCell ref="B198:K199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="B196:K196"/>
-    <mergeCell ref="B211:K212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="B209:K209"/>
-    <mergeCell ref="B224:K225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="B222:K222"/>
-    <mergeCell ref="B237:K238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="B235:K235"/>
-    <mergeCell ref="B250:K251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="F252:G252"/>
-    <mergeCell ref="H252:I252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="B248:K248"/>
-    <mergeCell ref="B263:K264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="H265:I265"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="D253:E253"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="H253:I253"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="B261:K261"/>
-    <mergeCell ref="B276:K277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="F278:G278"/>
-    <mergeCell ref="H278:I278"/>
-    <mergeCell ref="J278:K278"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="F266:G266"/>
-    <mergeCell ref="H266:I266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="B274:K274"/>
-    <mergeCell ref="B289:K290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="H291:I291"/>
-    <mergeCell ref="J291:K291"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="H279:I279"/>
-    <mergeCell ref="J279:K279"/>
-    <mergeCell ref="B287:K287"/>
-    <mergeCell ref="B302:K303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="H304:I304"/>
-    <mergeCell ref="J304:K304"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="H292:I292"/>
-    <mergeCell ref="J292:K292"/>
-    <mergeCell ref="B300:K300"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="H317:I317"/>
-    <mergeCell ref="J317:K317"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="H305:I305"/>
-    <mergeCell ref="J305:K305"/>
-    <mergeCell ref="B313:K313"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="D331:E331"/>
-    <mergeCell ref="F331:G331"/>
-    <mergeCell ref="H331:I331"/>
-    <mergeCell ref="J331:K331"/>
-    <mergeCell ref="B339:K339"/>
-    <mergeCell ref="B328:K329"/>
-    <mergeCell ref="B330:C330"/>
-    <mergeCell ref="D330:E330"/>
-    <mergeCell ref="F330:G330"/>
-    <mergeCell ref="H330:I330"/>
-    <mergeCell ref="J330:K330"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="D318:E318"/>
-    <mergeCell ref="F318:G318"/>
-    <mergeCell ref="H318:I318"/>
-    <mergeCell ref="J318:K318"/>
-    <mergeCell ref="B326:K326"/>
-    <mergeCell ref="B315:K316"/>
-    <mergeCell ref="B317:C317"/>
-    <mergeCell ref="D317:E317"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1"/>
